--- a/sinnoh_cube.xlsx
+++ b/sinnoh_cube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levat\IdeaProjects\pokemon-legends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11EAC6C-C9E4-4894-B03A-B559DBA5D313}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337659DB-B433-4C56-9E83-25C3BA5EECCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38745" yWindow="4365" windowWidth="21600" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/sinnoh_cube.xlsx
+++ b/sinnoh_cube.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levat\Documents\Tabletop Simulator\pokemon-legends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B39833-7622-4600-82F8-851CE3E45A03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9302CD9F-3AE6-40C1-9E18-C4400963BCFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="4365" windowWidth="21600" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10350" yWindow="1020" windowWidth="21600" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sinnoh" sheetId="1" r:id="rId1"/>
@@ -3665,8 +3665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151:S151"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12979,17 +12979,16 @@
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="Q147" s="1">
-        <f t="shared" si="16"/>
-        <v>12</v>
+      <c r="Q147" s="2">
+        <v>13</v>
       </c>
       <c r="R147" s="1">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S147" s="1">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">

--- a/sinnoh_cube.xlsx
+++ b/sinnoh_cube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levat\Documents\Tabletop Simulator\pokemon-legends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9302CD9F-3AE6-40C1-9E18-C4400963BCFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A226AE3-C2E1-4933-81B5-D942476C9CA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10350" yWindow="1020" windowWidth="21600" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3665,8 +3665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3851,11 +3851,11 @@
         <v>875</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" ref="N3:N66" si="0">(0.4*J3 + 0.5*MAX(F3,H3)+0.1*MIN(F3,H3)) / 10</f>
+        <f>(0.4*J3 + 0.5*MAX(F3,H3)+0.1*MIN(F3,H3)) / 10</f>
         <v>6.44</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" ref="O3:O66" si="1">(0.5*E3 + 0.25*G3 + 0.25*I3)/10</f>
+        <f>(0.5*E3 + 0.25*G3 + 0.25*I3)/10</f>
         <v>7.5</v>
       </c>
       <c r="P3" s="1">
@@ -3863,15 +3863,15 @@
         <v>6</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q66" si="2">ROUND(O3, 0)</f>
+        <f>ROUND(O3, 0)</f>
         <v>8</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R66" si="3">P3+Q3</f>
+        <f>P3+Q3</f>
         <v>14</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" ref="S3:S66" si="4">ROUND((R3-4) / 2, 0)</f>
+        <f>ROUND((R3-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -3916,27 +3916,27 @@
         <v>875</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J4 + 0.5*MAX(F4,H4)+0.1*MIN(F4,H4)) / 10</f>
         <v>8.4400000000000013</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E4 + 0.25*G4 + 0.25*I4)/10</f>
         <v>9.5</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" ref="P4:P67" si="5">ROUND(N4, 0)</f>
+        <f>ROUND(N4, 0)</f>
         <v>8</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O4, 0)</f>
         <v>10</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" si="3"/>
+        <f>P4+Q4</f>
         <v>18</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R4-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -3978,27 +3978,27 @@
         <v>877</v>
       </c>
       <c r="N5" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J5 + 0.5*MAX(F5,H5)+0.1*MIN(F5,H5)) / 10</f>
         <v>5.92</v>
       </c>
       <c r="O5" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E5 + 0.25*G5 + 0.25*I5)/10</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N5, 0)</f>
         <v>6</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O5, 0)</f>
         <v>4</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" si="3"/>
+        <f>P5+Q5</f>
         <v>10</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R5-4) / 2, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -4043,27 +4043,27 @@
         <v>877</v>
       </c>
       <c r="N6" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J6 + 0.5*MAX(F6,H6)+0.1*MIN(F6,H6)) / 10</f>
         <v>7.92</v>
       </c>
       <c r="O6" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E6 + 0.25*G6 + 0.25*I6)/10</f>
         <v>5.8</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N6, 0)</f>
         <v>8</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O6, 0)</f>
         <v>6</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="3"/>
+        <f>P6+Q6</f>
         <v>14</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R6-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -4108,27 +4108,27 @@
         <v>877</v>
       </c>
       <c r="N7" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J7 + 0.5*MAX(F7,H7)+0.1*MIN(F7,H7)) / 10</f>
         <v>10.56</v>
       </c>
       <c r="O7" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E7 + 0.25*G7 + 0.25*I7)/10</f>
         <v>7.35</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N7, 0)</f>
         <v>11</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O7, 0)</f>
         <v>7</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="3"/>
+        <f>P7+Q7</f>
         <v>18</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R7-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -4170,27 +4170,27 @@
         <v>874</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J8 + 0.5*MAX(F8,H8)+0.1*MIN(F8,H8)) / 10</f>
         <v>5.16</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E8 + 0.25*G8 + 0.25*I8)/10</f>
         <v>5.375</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N8, 0)</f>
         <v>5</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O8, 0)</f>
         <v>5</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="3"/>
+        <f>P8+Q8</f>
         <v>10</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R8-4) / 2, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -4232,27 +4232,27 @@
         <v>874</v>
       </c>
       <c r="N9" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J9 + 0.5*MAX(F9,H9)+0.1*MIN(F9,H9)) / 10</f>
         <v>6.7099999999999991</v>
       </c>
       <c r="O9" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E9 + 0.25*G9 + 0.25*I9)/10</f>
         <v>6.8</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N9, 0)</f>
         <v>7</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O9, 0)</f>
         <v>7</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="3"/>
+        <f>P9+Q9</f>
         <v>14</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R9-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -4297,27 +4297,27 @@
         <v>874</v>
       </c>
       <c r="N10" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J10 + 0.5*MAX(F10,H10)+0.1*MIN(F10,H10)) / 10</f>
         <v>8.8099999999999987</v>
       </c>
       <c r="O10" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E10 + 0.25*G10 + 0.25*I10)/10</f>
         <v>8.9250000000000007</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N10, 0)</f>
         <v>9</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O10, 0)</f>
         <v>9</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="3"/>
+        <f>P10+Q10</f>
         <v>18</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R10-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -4362,27 +4362,27 @@
         <v>875</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J11 + 0.5*MAX(F11,H11)+0.1*MIN(F11,H11)) / 10</f>
         <v>5.45</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E11 + 0.25*G11 + 0.25*I11)/10</f>
         <v>3.5</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N11, 0)</f>
         <v>5</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O11, 0)</f>
         <v>4</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="3"/>
+        <f>P11+Q11</f>
         <v>9</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R11-4) / 2, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -4427,27 +4427,27 @@
         <v>875</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J12 + 0.5*MAX(F12,H12)+0.1*MIN(F12,H12)) / 10</f>
         <v>7.35</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E12 + 0.25*G12 + 0.25*I12)/10</f>
         <v>5</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N12, 0)</f>
         <v>7</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O12, 0)</f>
         <v>5</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="3"/>
+        <f>P12+Q12</f>
         <v>12</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R12-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -4492,27 +4492,27 @@
         <v>875</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J13 + 0.5*MAX(F13,H13)+0.1*MIN(F13,H13)) / 10</f>
         <v>10.5</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E13 + 0.25*G13 + 0.25*I13)/10</f>
         <v>7.5</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N13, 0)</f>
         <v>11</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O13, 0)</f>
         <v>8</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="3"/>
+        <f>P13+Q13</f>
         <v>19</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R13-4) / 2, 0)</f>
         <v>8</v>
       </c>
     </row>
@@ -4554,27 +4554,27 @@
         <v>875</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J14 + 0.5*MAX(F14,H14)+0.1*MIN(F14,H14)) / 10</f>
         <v>3.84</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E14 + 0.25*G14 + 0.25*I14)/10</f>
         <v>4.95</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N14, 0)</f>
         <v>4</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O14, 0)</f>
         <v>5</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="3"/>
+        <f>P14+Q14</f>
         <v>9</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R14-4) / 2, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -4619,27 +4619,27 @@
         <v>875</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J15 + 0.5*MAX(F15,H15)+0.1*MIN(F15,H15)) / 10</f>
         <v>7.6400000000000006</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E15 + 0.25*G15 + 0.25*I15)/10</f>
         <v>6.95</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N15, 0)</f>
         <v>8</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O15, 0)</f>
         <v>7</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="3"/>
+        <f>P15+Q15</f>
         <v>15</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R15-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -4681,27 +4681,27 @@
         <v>875</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J16 + 0.5*MAX(F16,H16)+0.1*MIN(F16,H16)) / 10</f>
         <v>2.5</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E16 + 0.25*G16 + 0.25*I16)/10</f>
         <v>3.9</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N16, 0)</f>
         <v>3</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O16, 0)</f>
         <v>4</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="3"/>
+        <f>P16+Q16</f>
         <v>7</v>
       </c>
       <c r="S16" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R16-4) / 2, 0)</f>
         <v>2</v>
       </c>
     </row>
@@ -4743,27 +4743,27 @@
         <v>875</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J17 + 0.5*MAX(F17,H17)+0.1*MIN(F17,H17)) / 10</f>
         <v>7.4</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E17 + 0.25*G17 + 0.25*I17)/10</f>
         <v>6.4</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N17, 0)</f>
         <v>7</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O17, 0)</f>
         <v>6</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="3"/>
+        <f>P17+Q17</f>
         <v>13</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R17-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -4805,27 +4805,27 @@
         <v>875</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J18 + 0.5*MAX(F18,H18)+0.1*MIN(F18,H18)) / 10</f>
         <v>5.45</v>
       </c>
       <c r="O18" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E18 + 0.25*G18 + 0.25*I18)/10</f>
         <v>3.95</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N18, 0)</f>
         <v>5</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O18, 0)</f>
         <v>4</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" si="3"/>
+        <f>P18+Q18</f>
         <v>9</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R18-4) / 2, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -4867,27 +4867,27 @@
         <v>875</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J19 + 0.5*MAX(F19,H19)+0.1*MIN(F19,H19)) / 10</f>
         <v>7.25</v>
       </c>
       <c r="O19" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E19 + 0.25*G19 + 0.25*I19)/10</f>
         <v>5.45</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N19, 0)</f>
         <v>7</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O19, 0)</f>
         <v>5</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="3"/>
+        <f>P19+Q19</f>
         <v>12</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R19-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -4929,27 +4929,27 @@
         <v>875</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J20 + 0.5*MAX(F20,H20)+0.1*MIN(F20,H20)) / 10</f>
         <v>9.75</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E20 + 0.25*G20 + 0.25*I20)/10</f>
         <v>7.95</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N20, 0)</f>
         <v>10</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O20, 0)</f>
         <v>8</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="3"/>
+        <f>P20+Q20</f>
         <v>18</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R20-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -4994,27 +4994,27 @@
         <v>877</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J21 + 0.5*MAX(F21,H21)+0.1*MIN(F21,H21)) / 10</f>
         <v>5</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E21 + 0.25*G21 + 0.25*I21)/10</f>
         <v>4.625</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N21, 0)</f>
         <v>5</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O21, 0)</f>
         <v>5</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="3"/>
+        <f>P21+Q21</f>
         <v>10</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R21-4) / 2, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -5059,27 +5059,27 @@
         <v>877</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J22 + 0.5*MAX(F22,H22)+0.1*MIN(F22,H22)) / 10</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E22 + 0.25*G22 + 0.25*I22)/10</f>
         <v>5.625</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N22, 0)</f>
         <v>8</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O22, 0)</f>
         <v>6</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="3"/>
+        <f>P22+Q22</f>
         <v>14</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R22-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -5124,27 +5124,27 @@
         <v>877</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J23 + 0.5*MAX(F23,H23)+0.1*MIN(F23,H23)) / 10</f>
         <v>10.55</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E23 + 0.25*G23 + 0.25*I23)/10</f>
         <v>7.25</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N23, 0)</f>
         <v>11</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O23, 0)</f>
         <v>7</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="3"/>
+        <f>P23+Q23</f>
         <v>18</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R23-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -5186,27 +5186,27 @@
         <v>875</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J24 + 0.5*MAX(F24,H24)+0.1*MIN(F24,H24)) / 10</f>
         <v>8.870000000000001</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E24 + 0.25*G24 + 0.25*I24)/10</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N24, 0)</f>
         <v>9</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O24, 0)</f>
         <v>5</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="3"/>
+        <f>P24+Q24</f>
         <v>14</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R24-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -5248,27 +5248,27 @@
         <v>875</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J25 + 0.5*MAX(F25,H25)+0.1*MIN(F25,H25)) / 10</f>
         <v>11.22</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E25 + 0.25*G25 + 0.25*I25)/10</f>
         <v>7.6</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N25, 0)</f>
         <v>11</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O25, 0)</f>
         <v>8</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="3"/>
+        <f>P25+Q25</f>
         <v>19</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R25-4) / 2, 0)</f>
         <v>8</v>
       </c>
     </row>
@@ -5310,27 +5310,27 @@
         <v>875</v>
       </c>
       <c r="N26" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J26 + 0.5*MAX(F26,H26)+0.1*MIN(F26,H26)) / 10</f>
         <v>3.72</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E26 + 0.25*G26 + 0.25*I26)/10</f>
         <v>6.65</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N26, 0)</f>
         <v>4</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O26, 0)</f>
         <v>7</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="3"/>
+        <f>P26+Q26</f>
         <v>11</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R26-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -5372,27 +5372,27 @@
         <v>875</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J27 + 0.5*MAX(F27,H27)+0.1*MIN(F27,H27)) / 10</f>
         <v>4.2700000000000005</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E27 + 0.25*G27 + 0.25*I27)/10</f>
         <v>10.65</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N27, 0)</f>
         <v>4</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O27, 0)</f>
         <v>11</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" si="3"/>
+        <f>P27+Q27</f>
         <v>15</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R27-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -5434,27 +5434,27 @@
         <v>875</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J28 + 0.5*MAX(F28,H28)+0.1*MIN(F28,H28)) / 10</f>
         <v>3.1799999999999997</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E28 + 0.25*G28 + 0.25*I28)/10</f>
         <v>4.25</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N28, 0)</f>
         <v>3</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O28, 0)</f>
         <v>4</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="3"/>
+        <f>P28+Q28</f>
         <v>7</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R28-4) / 2, 0)</f>
         <v>2</v>
       </c>
     </row>
@@ -5499,27 +5499,27 @@
         <v>875</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J29 + 0.5*MAX(F29,H29)+0.1*MIN(F29,H29)) / 10</f>
         <v>5.58</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E29 + 0.25*G29 + 0.25*I29)/10</f>
         <v>7.75</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N29, 0)</f>
         <v>6</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O29, 0)</f>
         <v>8</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="3"/>
+        <f>P29+Q29</f>
         <v>14</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R29-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -5564,27 +5564,27 @@
         <v>875</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J30 + 0.5*MAX(F30,H30)+0.1*MIN(F30,H30)) / 10</f>
         <v>8.2800000000000011</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E30 + 0.25*G30 + 0.25*I30)/10</f>
         <v>6</v>
       </c>
       <c r="P30" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N30, 0)</f>
         <v>8</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O30, 0)</f>
         <v>6</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="3"/>
+        <f>P30+Q30</f>
         <v>14</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R30-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -5629,27 +5629,27 @@
         <v>875</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J31 + 0.5*MAX(F31,H31)+0.1*MIN(F31,H31)) / 10</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E31 + 0.25*G31 + 0.25*I31)/10</f>
         <v>3.6</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N31, 0)</f>
         <v>5</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O31, 0)</f>
         <v>4</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="3"/>
+        <f>P31+Q31</f>
         <v>9</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R31-4) / 2, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -5694,27 +5694,27 @@
         <v>875</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J32 + 0.5*MAX(F32,H32)+0.1*MIN(F32,H32)) / 10</f>
         <v>6.4</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E32 + 0.25*G32 + 0.25*I32)/10</f>
         <v>8.6</v>
       </c>
       <c r="P32" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N32, 0)</f>
         <v>6</v>
       </c>
       <c r="Q32" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O32, 0)</f>
         <v>9</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" si="3"/>
+        <f>P32+Q32</f>
         <v>15</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R32-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -5756,27 +5756,27 @@
         <v>875</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J33 + 0.5*MAX(F33,H33)+0.1*MIN(F33,H33)) / 10</f>
         <v>6.5</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E33 + 0.25*G33 + 0.25*I33)/10</f>
         <v>7</v>
       </c>
       <c r="P33" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N33, 0)</f>
         <v>7</v>
       </c>
       <c r="Q33" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O33, 0)</f>
         <v>7</v>
       </c>
       <c r="R33" s="1">
-        <f t="shared" si="3"/>
+        <f>P33+Q33</f>
         <v>14</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R33-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -5818,27 +5818,27 @@
         <v>875</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J34 + 0.5*MAX(F34,H34)+0.1*MIN(F34,H34)) / 10</f>
         <v>7.25</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E34 + 0.25*G34 + 0.25*I34)/10</f>
         <v>4.375</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N34, 0)</f>
         <v>7</v>
       </c>
       <c r="Q34" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O34, 0)</f>
         <v>4</v>
       </c>
       <c r="R34" s="1">
-        <f t="shared" si="3"/>
+        <f>P34+Q34</f>
         <v>11</v>
       </c>
       <c r="S34" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R34-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -5880,27 +5880,27 @@
         <v>875</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J35 + 0.5*MAX(F35,H35)+0.1*MIN(F35,H35)) / 10</f>
         <v>10.7</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E35 + 0.25*G35 + 0.25*I35)/10</f>
         <v>6.875</v>
       </c>
       <c r="P35" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N35, 0)</f>
         <v>11</v>
       </c>
       <c r="Q35" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O35, 0)</f>
         <v>7</v>
       </c>
       <c r="R35" s="1">
-        <f t="shared" si="3"/>
+        <f>P35+Q35</f>
         <v>18</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R35-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -5942,27 +5942,27 @@
         <v>877</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J36 + 0.5*MAX(F36,H36)+0.1*MIN(F36,H36)) / 10</f>
         <v>4.8499999999999996</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E36 + 0.25*G36 + 0.25*I36)/10</f>
         <v>4.7</v>
       </c>
       <c r="P36" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N36, 0)</f>
         <v>5</v>
       </c>
       <c r="Q36" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O36, 0)</f>
         <v>5</v>
       </c>
       <c r="R36" s="1">
-        <f t="shared" si="3"/>
+        <f>P36+Q36</f>
         <v>10</v>
       </c>
       <c r="S36" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R36-4) / 2, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -6004,27 +6004,27 @@
         <v>877</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J37 + 0.5*MAX(F37,H37)+0.1*MIN(F37,H37)) / 10</f>
         <v>8.35</v>
       </c>
       <c r="O37" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E37 + 0.25*G37 + 0.25*I37)/10</f>
         <v>7.2</v>
       </c>
       <c r="P37" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N37, 0)</f>
         <v>8</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O37, 0)</f>
         <v>7</v>
       </c>
       <c r="R37" s="1">
-        <f t="shared" si="3"/>
+        <f>P37+Q37</f>
         <v>15</v>
       </c>
       <c r="S37" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R37-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -6066,27 +6066,27 @@
         <v>874</v>
       </c>
       <c r="N38" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J38 + 0.5*MAX(F38,H38)+0.1*MIN(F38,H38)) / 10</f>
         <v>4.6900000000000004</v>
       </c>
       <c r="O38" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E38 + 0.25*G38 + 0.25*I38)/10</f>
         <v>6.55</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N38, 0)</f>
         <v>5</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O38, 0)</f>
         <v>7</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" si="3"/>
+        <f>P38+Q38</f>
         <v>12</v>
       </c>
       <c r="S38" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R38-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -6131,27 +6131,27 @@
         <v>874</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J39 + 0.5*MAX(F39,H39)+0.1*MIN(F39,H39)) / 10</f>
         <v>6.99</v>
       </c>
       <c r="O39" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E39 + 0.25*G39 + 0.25*I39)/10</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="P39" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N39, 0)</f>
         <v>7</v>
       </c>
       <c r="Q39" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O39, 0)</f>
         <v>9</v>
       </c>
       <c r="R39" s="1">
-        <f t="shared" si="3"/>
+        <f>P39+Q39</f>
         <v>16</v>
       </c>
       <c r="S39" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R39-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -6193,27 +6193,27 @@
         <v>877</v>
       </c>
       <c r="N40" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J40 + 0.5*MAX(F40,H40)+0.1*MIN(F40,H40)) / 10</f>
         <v>4.6900000000000004</v>
       </c>
       <c r="O40" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E40 + 0.25*G40 + 0.25*I40)/10</f>
         <v>6.55</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N40, 0)</f>
         <v>5</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O40, 0)</f>
         <v>7</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" si="3"/>
+        <f>P40+Q40</f>
         <v>12</v>
       </c>
       <c r="S40" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R40-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -6258,27 +6258,27 @@
         <v>877</v>
       </c>
       <c r="N41" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J41 + 0.5*MAX(F41,H41)+0.1*MIN(F41,H41)) / 10</f>
         <v>6.99</v>
       </c>
       <c r="O41" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E41 + 0.25*G41 + 0.25*I41)/10</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="P41" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N41, 0)</f>
         <v>7</v>
       </c>
       <c r="Q41" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O41, 0)</f>
         <v>9</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" si="3"/>
+        <f>P41+Q41</f>
         <v>16</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R41-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -6320,27 +6320,27 @@
         <v>875</v>
       </c>
       <c r="N42" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J42 + 0.5*MAX(F42,H42)+0.1*MIN(F42,H42)) / 10</f>
         <v>7.3</v>
       </c>
       <c r="O42" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E42 + 0.25*G42 + 0.25*I42)/10</f>
         <v>5.5</v>
       </c>
       <c r="P42" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N42, 0)</f>
         <v>7</v>
       </c>
       <c r="Q42" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O42, 0)</f>
         <v>6</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" si="3"/>
+        <f>P42+Q42</f>
         <v>13</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R42-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -6382,27 +6382,27 @@
         <v>875</v>
       </c>
       <c r="N43" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J43 + 0.5*MAX(F43,H43)+0.1*MIN(F43,H43)) / 10</f>
         <v>10.199999999999999</v>
       </c>
       <c r="O43" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E43 + 0.25*G43 + 0.25*I43)/10</f>
         <v>7.05</v>
       </c>
       <c r="P43" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N43, 0)</f>
         <v>10</v>
       </c>
       <c r="Q43" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O43, 0)</f>
         <v>7</v>
       </c>
       <c r="R43" s="1">
-        <f t="shared" si="3"/>
+        <f>P43+Q43</f>
         <v>17</v>
       </c>
       <c r="S43" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R43-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -6447,27 +6447,27 @@
         <v>875</v>
       </c>
       <c r="N44" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J44 + 0.5*MAX(F44,H44)+0.1*MIN(F44,H44)) / 10</f>
         <v>6.3</v>
       </c>
       <c r="O44" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E44 + 0.25*G44 + 0.25*I44)/10</f>
         <v>6.45</v>
       </c>
       <c r="P44" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N44, 0)</f>
         <v>6</v>
       </c>
       <c r="Q44" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O44, 0)</f>
         <v>6</v>
       </c>
       <c r="R44" s="1">
-        <f t="shared" si="3"/>
+        <f>P44+Q44</f>
         <v>12</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R44-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -6512,27 +6512,27 @@
         <v>875</v>
       </c>
       <c r="N45" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J45 + 0.5*MAX(F45,H45)+0.1*MIN(F45,H45)) / 10</f>
         <v>8.5</v>
       </c>
       <c r="O45" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E45 + 0.25*G45 + 0.25*I45)/10</f>
         <v>9.9499999999999993</v>
       </c>
       <c r="P45" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N45, 0)</f>
         <v>9</v>
       </c>
       <c r="Q45" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O45, 0)</f>
         <v>10</v>
       </c>
       <c r="R45" s="1">
-        <f t="shared" si="3"/>
+        <f>P45+Q45</f>
         <v>19</v>
       </c>
       <c r="S45" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R45-4) / 2, 0)</f>
         <v>8</v>
       </c>
     </row>
@@ -6574,27 +6574,27 @@
         <v>875</v>
       </c>
       <c r="N46" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J46 + 0.5*MAX(F46,H46)+0.1*MIN(F46,H46)) / 10</f>
         <v>7.1400000000000006</v>
       </c>
       <c r="O46" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E46 + 0.25*G46 + 0.25*I46)/10</f>
         <v>5.25</v>
       </c>
       <c r="P46" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N46, 0)</f>
         <v>7</v>
       </c>
       <c r="Q46" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O46, 0)</f>
         <v>5</v>
       </c>
       <c r="R46" s="1">
-        <f t="shared" si="3"/>
+        <f>P46+Q46</f>
         <v>12</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R46-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -6636,27 +6636,27 @@
         <v>875</v>
       </c>
       <c r="N47" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J47 + 0.5*MAX(F47,H47)+0.1*MIN(F47,H47)) / 10</f>
         <v>8.5400000000000009</v>
       </c>
       <c r="O47" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E47 + 0.25*G47 + 0.25*I47)/10</f>
         <v>7.75</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N47, 0)</f>
         <v>9</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O47, 0)</f>
         <v>8</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" si="3"/>
+        <f>P47+Q47</f>
         <v>17</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R47-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -6698,27 +6698,27 @@
         <v>874</v>
       </c>
       <c r="N48" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J48 + 0.5*MAX(F48,H48)+0.1*MIN(F48,H48)) / 10</f>
         <v>8.25</v>
       </c>
       <c r="O48" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E48 + 0.25*G48 + 0.25*I48)/10</f>
         <v>6.625</v>
       </c>
       <c r="P48" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N48, 0)</f>
         <v>8</v>
       </c>
       <c r="Q48" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O48, 0)</f>
         <v>7</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" si="3"/>
+        <f>P48+Q48</f>
         <v>15</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R48-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -6760,27 +6760,27 @@
         <v>874</v>
       </c>
       <c r="N49" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J49 + 0.5*MAX(F49,H49)+0.1*MIN(F49,H49)) / 10</f>
         <v>10.050000000000001</v>
       </c>
       <c r="O49" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E49 + 0.25*G49 + 0.25*I49)/10</f>
         <v>7.125</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N49, 0)</f>
         <v>10</v>
       </c>
       <c r="Q49" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O49, 0)</f>
         <v>7</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="3"/>
+        <f>P49+Q49</f>
         <v>17</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R49-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -6825,27 +6825,27 @@
         <v>874</v>
       </c>
       <c r="N50" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J50 + 0.5*MAX(F50,H50)+0.1*MIN(F50,H50)) / 10</f>
         <v>8.74</v>
       </c>
       <c r="O50" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E50 + 0.25*G50 + 0.25*I50)/10</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="P50" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N50, 0)</f>
         <v>9</v>
       </c>
       <c r="Q50" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O50, 0)</f>
         <v>5</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="3"/>
+        <f>P50+Q50</f>
         <v>14</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R50-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -6890,27 +6890,27 @@
         <v>874</v>
       </c>
       <c r="N51" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J51 + 0.5*MAX(F51,H51)+0.1*MIN(F51,H51)) / 10</f>
         <v>10.14</v>
       </c>
       <c r="O51" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E51 + 0.25*G51 + 0.25*I51)/10</f>
         <v>7.6</v>
       </c>
       <c r="P51" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N51, 0)</f>
         <v>10</v>
       </c>
       <c r="Q51" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O51, 0)</f>
         <v>8</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" si="3"/>
+        <f>P51+Q51</f>
         <v>18</v>
       </c>
       <c r="S51" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R51-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -6952,27 +6952,27 @@
         <v>877</v>
       </c>
       <c r="N52" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J52 + 0.5*MAX(F52,H52)+0.1*MIN(F52,H52)) / 10</f>
         <v>6.57</v>
       </c>
       <c r="O52" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E52 + 0.25*G52 + 0.25*I52)/10</f>
         <v>4.4249999999999998</v>
       </c>
       <c r="P52" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N52, 0)</f>
         <v>7</v>
       </c>
       <c r="Q52" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O52, 0)</f>
         <v>4</v>
       </c>
       <c r="R52" s="1">
-        <f t="shared" si="3"/>
+        <f>P52+Q52</f>
         <v>11</v>
       </c>
       <c r="S52" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R52-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -7014,27 +7014,27 @@
         <v>877</v>
       </c>
       <c r="N53" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J53 + 0.5*MAX(F53,H53)+0.1*MIN(F53,H53)) / 10</f>
         <v>9.2200000000000024</v>
       </c>
       <c r="O53" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E53 + 0.25*G53 + 0.25*I53)/10</f>
         <v>6.625</v>
       </c>
       <c r="P53" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N53, 0)</f>
         <v>9</v>
       </c>
       <c r="Q53" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O53, 0)</f>
         <v>7</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="3"/>
+        <f>P53+Q53</f>
         <v>16</v>
       </c>
       <c r="S53" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R53-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -7076,27 +7076,27 @@
         <v>875</v>
       </c>
       <c r="N54" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J54 + 0.5*MAX(F54,H54)+0.1*MIN(F54,H54)) / 10</f>
         <v>5.35</v>
       </c>
       <c r="O54" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E54 + 0.25*G54 + 0.25*I54)/10</f>
         <v>4.75</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N54, 0)</f>
         <v>5</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O54, 0)</f>
         <v>5</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" si="3"/>
+        <f>P54+Q54</f>
         <v>10</v>
       </c>
       <c r="S54" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R54-4) / 2, 0)</f>
         <v>3</v>
       </c>
       <c r="T54" t="s">
@@ -7141,27 +7141,27 @@
         <v>875</v>
       </c>
       <c r="N55" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J55 + 0.5*MAX(F55,H55)+0.1*MIN(F55,H55)) / 10</f>
         <v>7.85</v>
       </c>
       <c r="O55" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E55 + 0.25*G55 + 0.25*I55)/10</f>
         <v>8</v>
       </c>
       <c r="P55" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N55, 0)</f>
         <v>8</v>
       </c>
       <c r="Q55" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O55, 0)</f>
         <v>8</v>
       </c>
       <c r="R55" s="1">
-        <f t="shared" si="3"/>
+        <f>P55+Q55</f>
         <v>16</v>
       </c>
       <c r="S55" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R55-4) / 2, 0)</f>
         <v>6</v>
       </c>
       <c r="T55" t="s">
@@ -7209,27 +7209,27 @@
         <v>877</v>
       </c>
       <c r="N56" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J56 + 0.5*MAX(F56,H56)+0.1*MIN(F56,H56)) / 10</f>
         <v>6.5200000000000005</v>
       </c>
       <c r="O56" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E56 + 0.25*G56 + 0.25*I56)/10</f>
         <v>5.35</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N56, 0)</f>
         <v>7</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O56, 0)</f>
         <v>5</v>
       </c>
       <c r="R56" s="1">
-        <f t="shared" si="3"/>
+        <f>P56+Q56</f>
         <v>12</v>
       </c>
       <c r="S56" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R56-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -7274,27 +7274,27 @@
         <v>877</v>
       </c>
       <c r="N57" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J57 + 0.5*MAX(F57,H57)+0.1*MIN(F57,H57)) / 10</f>
         <v>8.7199999999999989</v>
       </c>
       <c r="O57" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E57 + 0.25*G57 + 0.25*I57)/10</f>
         <v>8.35</v>
       </c>
       <c r="P57" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N57, 0)</f>
         <v>9</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O57, 0)</f>
         <v>8</v>
       </c>
       <c r="R57" s="1">
-        <f t="shared" si="3"/>
+        <f>P57+Q57</f>
         <v>17</v>
       </c>
       <c r="S57" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R57-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -7339,27 +7339,27 @@
         <v>874</v>
       </c>
       <c r="N58" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J58 + 0.5*MAX(F58,H58)+0.1*MIN(F58,H58)) / 10</f>
         <v>2.3600000000000003</v>
       </c>
       <c r="O58" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E58 + 0.25*G58 + 0.25*I58)/10</f>
         <v>7.15</v>
       </c>
       <c r="P58" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N58, 0)</f>
         <v>2</v>
       </c>
       <c r="Q58" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O58, 0)</f>
         <v>7</v>
       </c>
       <c r="R58" s="1">
-        <f t="shared" si="3"/>
+        <f>P58+Q58</f>
         <v>9</v>
       </c>
       <c r="S58" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R58-4) / 2, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -7404,27 +7404,27 @@
         <v>874</v>
       </c>
       <c r="N59" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J59 + 0.5*MAX(F59,H59)+0.1*MIN(F59,H59)) / 10</f>
         <v>6.5600000000000005</v>
       </c>
       <c r="O59" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E59 + 0.25*G59 + 0.25*I59)/10</f>
         <v>9.15</v>
       </c>
       <c r="P59" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N59, 0)</f>
         <v>7</v>
       </c>
       <c r="Q59" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O59, 0)</f>
         <v>9</v>
       </c>
       <c r="R59" s="1">
-        <f t="shared" si="3"/>
+        <f>P59+Q59</f>
         <v>16</v>
       </c>
       <c r="S59" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R59-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -7466,27 +7466,27 @@
         <v>875</v>
       </c>
       <c r="N60" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J60 + 0.5*MAX(F60,H60)+0.1*MIN(F60,H60)) / 10</f>
         <v>4.5</v>
       </c>
       <c r="O60" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E60 + 0.25*G60 + 0.25*I60)/10</f>
         <v>6</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N60, 0)</f>
         <v>5</v>
       </c>
       <c r="Q60" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O60, 0)</f>
         <v>6</v>
       </c>
       <c r="R60" s="1">
-        <f t="shared" si="3"/>
+        <f>P60+Q60</f>
         <v>11</v>
       </c>
       <c r="S60" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R60-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -7528,27 +7528,27 @@
         <v>875</v>
       </c>
       <c r="N61" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J61 + 0.5*MAX(F61,H61)+0.1*MIN(F61,H61)) / 10</f>
         <v>6.5</v>
       </c>
       <c r="O61" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E61 + 0.25*G61 + 0.25*I61)/10</f>
         <v>8</v>
       </c>
       <c r="P61" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N61, 0)</f>
         <v>7</v>
       </c>
       <c r="Q61" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O61, 0)</f>
         <v>8</v>
       </c>
       <c r="R61" s="1">
-        <f t="shared" si="3"/>
+        <f>P61+Q61</f>
         <v>15</v>
       </c>
       <c r="S61" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R61-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -7593,27 +7593,27 @@
         <v>874</v>
       </c>
       <c r="N62" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J62 + 0.5*MAX(F62,H62)+0.1*MIN(F62,H62)) / 10</f>
         <v>6.15</v>
       </c>
       <c r="O62" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E62 + 0.25*G62 + 0.25*I62)/10</f>
         <v>4.375</v>
       </c>
       <c r="P62" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N62, 0)</f>
         <v>6</v>
       </c>
       <c r="Q62" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O62, 0)</f>
         <v>4</v>
       </c>
       <c r="R62" s="1">
-        <f t="shared" si="3"/>
+        <f>P62+Q62</f>
         <v>10</v>
       </c>
       <c r="S62" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R62-4) / 2, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -7658,27 +7658,27 @@
         <v>874</v>
       </c>
       <c r="N63" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J63 + 0.5*MAX(F63,H63)+0.1*MIN(F63,H63)) / 10</f>
         <v>9.0500000000000007</v>
       </c>
       <c r="O63" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E63 + 0.25*G63 + 0.25*I63)/10</f>
         <v>6.625</v>
       </c>
       <c r="P63" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N63, 0)</f>
         <v>9</v>
       </c>
       <c r="Q63" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O63, 0)</f>
         <v>7</v>
       </c>
       <c r="R63" s="1">
-        <f t="shared" si="3"/>
+        <f>P63+Q63</f>
         <v>16</v>
       </c>
       <c r="S63" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R63-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -7720,27 +7720,27 @@
         <v>877</v>
       </c>
       <c r="N64" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J64 + 0.5*MAX(F64,H64)+0.1*MIN(F64,H64)) / 10</f>
         <v>2</v>
       </c>
       <c r="O64" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E64 + 0.25*G64 + 0.25*I64)/10</f>
         <v>6.75</v>
       </c>
       <c r="P64" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N64, 0)</f>
         <v>2</v>
       </c>
       <c r="Q64" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O64, 0)</f>
         <v>7</v>
       </c>
       <c r="R64" s="1">
-        <f t="shared" si="3"/>
+        <f>P64+Q64</f>
         <v>9</v>
       </c>
       <c r="S64" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R64-4) / 2, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -7782,27 +7782,27 @@
         <v>877</v>
       </c>
       <c r="N65" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J65 + 0.5*MAX(F65,H65)+0.1*MIN(F65,H65)) / 10</f>
         <v>3.8</v>
       </c>
       <c r="O65" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E65 + 0.25*G65 + 0.25*I65)/10</f>
         <v>15.25</v>
       </c>
       <c r="P65" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N65, 0)</f>
         <v>4</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O65, 0)</f>
         <v>15</v>
       </c>
       <c r="R65" s="1">
-        <f t="shared" si="3"/>
+        <f>P65+Q65</f>
         <v>19</v>
       </c>
       <c r="S65" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R65-4) / 2, 0)</f>
         <v>8</v>
       </c>
     </row>
@@ -7844,27 +7844,27 @@
         <v>877</v>
       </c>
       <c r="N66" s="6">
-        <f t="shared" si="0"/>
+        <f>(0.4*J66 + 0.5*MAX(F66,H66)+0.1*MIN(F66,H66)) / 10</f>
         <v>6.05</v>
       </c>
       <c r="O66" s="6">
-        <f t="shared" si="1"/>
+        <f>(0.5*E66 + 0.25*G66 + 0.25*I66)/10</f>
         <v>16.375</v>
       </c>
       <c r="P66" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N66, 0)</f>
         <v>6</v>
       </c>
       <c r="Q66" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(O66, 0)</f>
         <v>16</v>
       </c>
       <c r="R66" s="1">
-        <f t="shared" si="3"/>
+        <f>P66+Q66</f>
         <v>22</v>
       </c>
       <c r="S66" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND((R66-4) / 2, 0)</f>
         <v>9</v>
       </c>
     </row>
@@ -7909,27 +7909,27 @@
         <v>877</v>
       </c>
       <c r="N67" s="6">
-        <f t="shared" ref="N67:N130" si="6">(0.4*J67 + 0.5*MAX(F67,H67)+0.1*MIN(F67,H67)) / 10</f>
+        <f>(0.4*J67 + 0.5*MAX(F67,H67)+0.1*MIN(F67,H67)) / 10</f>
         <v>8.89</v>
       </c>
       <c r="O67" s="6">
-        <f t="shared" ref="O67:O130" si="7">(0.5*E67 + 0.25*G67 + 0.25*I67)/10</f>
+        <f>(0.5*E67 + 0.25*G67 + 0.25*I67)/10</f>
         <v>5.9749999999999996</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(N67, 0)</f>
         <v>9</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" ref="Q67:Q130" si="8">ROUND(O67, 0)</f>
+        <f>ROUND(O67, 0)</f>
         <v>6</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" ref="R67:R130" si="9">P67+Q67</f>
+        <f>P67+Q67</f>
         <v>15</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" ref="S67:S130" si="10">ROUND((R67-4) / 2, 0)</f>
+        <f>ROUND((R67-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -7974,27 +7974,27 @@
         <v>874</v>
       </c>
       <c r="N68" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J68 + 0.5*MAX(F68,H68)+0.1*MIN(F68,H68)) / 10</f>
         <v>6.92</v>
       </c>
       <c r="O68" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E68 + 0.25*G68 + 0.25*I68)/10</f>
         <v>7.9</v>
       </c>
       <c r="P68" s="1">
-        <f t="shared" ref="P68:Q131" si="11">ROUND(N68, 0)</f>
+        <f>ROUND(N68, 0)</f>
         <v>7</v>
       </c>
       <c r="Q68" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O68, 0)</f>
         <v>8</v>
       </c>
       <c r="R68" s="1">
-        <f t="shared" si="9"/>
+        <f>P68+Q68</f>
         <v>15</v>
       </c>
       <c r="S68" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R68-4) / 2, 0)</f>
         <v>6</v>
       </c>
       <c r="T68" t="s">
@@ -8042,27 +8042,27 @@
         <v>875</v>
       </c>
       <c r="N69" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J69 + 0.5*MAX(F69,H69)+0.1*MIN(F69,H69)) / 10</f>
         <v>5.58</v>
       </c>
       <c r="O69" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E69 + 0.25*G69 + 0.25*I69)/10</f>
         <v>5.15</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N69, 0)</f>
         <v>6</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O69, 0)</f>
         <v>5</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="9"/>
+        <f>P69+Q69</f>
         <v>11</v>
       </c>
       <c r="S69" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R69-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -8107,27 +8107,27 @@
         <v>875</v>
       </c>
       <c r="N70" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J70 + 0.5*MAX(F70,H70)+0.1*MIN(F70,H70)) / 10</f>
         <v>8.2800000000000011</v>
       </c>
       <c r="O70" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E70 + 0.25*G70 + 0.25*I70)/10</f>
         <v>6.4</v>
       </c>
       <c r="P70" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N70, 0)</f>
         <v>8</v>
       </c>
       <c r="Q70" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O70, 0)</f>
         <v>6</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" si="9"/>
+        <f>P70+Q70</f>
         <v>14</v>
       </c>
       <c r="S70" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R70-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -8172,27 +8172,27 @@
         <v>875</v>
       </c>
       <c r="N71" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J71 + 0.5*MAX(F71,H71)+0.1*MIN(F71,H71)) / 10</f>
         <v>11.38</v>
       </c>
       <c r="O71" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E71 + 0.25*G71 + 0.25*I71)/10</f>
         <v>9.9</v>
       </c>
       <c r="P71" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N71, 0)</f>
         <v>11</v>
       </c>
       <c r="Q71" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O71, 0)</f>
         <v>10</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" si="9"/>
+        <f>P71+Q71</f>
         <v>21</v>
       </c>
       <c r="S71" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R71-4) / 2, 0)</f>
         <v>9</v>
       </c>
     </row>
@@ -8234,27 +8234,27 @@
         <v>875</v>
       </c>
       <c r="N72" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J72 + 0.5*MAX(F72,H72)+0.1*MIN(F72,H72)) / 10</f>
         <v>4.8499999999999996</v>
       </c>
       <c r="O72" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E72 + 0.25*G72 + 0.25*I72)/10</f>
         <v>9.875</v>
       </c>
       <c r="P72" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N72, 0)</f>
         <v>5</v>
       </c>
       <c r="Q72" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O72, 0)</f>
         <v>10</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" si="9"/>
+        <f>P72+Q72</f>
         <v>15</v>
       </c>
       <c r="S72" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R72-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -8296,27 +8296,27 @@
         <v>875</v>
       </c>
       <c r="N73" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J73 + 0.5*MAX(F73,H73)+0.1*MIN(F73,H73)) / 10</f>
         <v>7.35</v>
       </c>
       <c r="O73" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E73 + 0.25*G73 + 0.25*I73)/10</f>
         <v>12.375</v>
       </c>
       <c r="P73" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N73, 0)</f>
         <v>7</v>
       </c>
       <c r="Q73" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O73, 0)</f>
         <v>12</v>
       </c>
       <c r="R73" s="1">
-        <f t="shared" si="9"/>
+        <f>P73+Q73</f>
         <v>19</v>
       </c>
       <c r="S73" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R73-4) / 2, 0)</f>
         <v>8</v>
       </c>
     </row>
@@ -8358,27 +8358,27 @@
         <v>874</v>
       </c>
       <c r="N74" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J74 + 0.5*MAX(F74,H74)+0.1*MIN(F74,H74)) / 10</f>
         <v>6.25</v>
       </c>
       <c r="O74" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E74 + 0.25*G74 + 0.25*I74)/10</f>
         <v>4</v>
       </c>
       <c r="P74" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N74, 0)</f>
         <v>6</v>
       </c>
       <c r="Q74" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O74, 0)</f>
         <v>4</v>
       </c>
       <c r="R74" s="1">
-        <f t="shared" si="9"/>
+        <f>P74+Q74</f>
         <v>10</v>
       </c>
       <c r="S74" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R74-4) / 2, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -8423,27 +8423,27 @@
         <v>874</v>
       </c>
       <c r="N75" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J75 + 0.5*MAX(F75,H75)+0.1*MIN(F75,H75)) / 10</f>
         <v>10.45</v>
       </c>
       <c r="O75" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E75 + 0.25*G75 + 0.25*I75)/10</f>
         <v>7</v>
       </c>
       <c r="P75" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N75, 0)</f>
         <v>10</v>
       </c>
       <c r="Q75" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O75, 0)</f>
         <v>7</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" si="9"/>
+        <f>P75+Q75</f>
         <v>17</v>
       </c>
       <c r="S75" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R75-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -8485,27 +8485,27 @@
         <v>877</v>
       </c>
       <c r="N76" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J76 + 0.5*MAX(F76,H76)+0.1*MIN(F76,H76)) / 10</f>
         <v>5.26</v>
       </c>
       <c r="O76" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E76 + 0.25*G76 + 0.25*I76)/10</f>
         <v>6.4</v>
       </c>
       <c r="P76" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N76, 0)</f>
         <v>5</v>
       </c>
       <c r="Q76" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O76, 0)</f>
         <v>6</v>
       </c>
       <c r="R76" s="1">
-        <f t="shared" si="9"/>
+        <f>P76+Q76</f>
         <v>11</v>
       </c>
       <c r="S76" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R76-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -8547,27 +8547,27 @@
         <v>877</v>
       </c>
       <c r="N77" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J77 + 0.5*MAX(F77,H77)+0.1*MIN(F77,H77)) / 10</f>
         <v>8.16</v>
       </c>
       <c r="O77" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E77 + 0.25*G77 + 0.25*I77)/10</f>
         <v>10.15</v>
       </c>
       <c r="P77" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N77, 0)</f>
         <v>8</v>
       </c>
       <c r="Q77" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O77, 0)</f>
         <v>10</v>
       </c>
       <c r="R77" s="1">
-        <f t="shared" si="9"/>
+        <f>P77+Q77</f>
         <v>18</v>
       </c>
       <c r="S77" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R77-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -8612,27 +8612,27 @@
         <v>877</v>
       </c>
       <c r="N78" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J78 + 0.5*MAX(F78,H78)+0.1*MIN(F78,H78)) / 10</f>
         <v>5.4</v>
       </c>
       <c r="O78" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E78 + 0.25*G78 + 0.25*I78)/10</f>
         <v>5.625</v>
       </c>
       <c r="P78" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N78, 0)</f>
         <v>5</v>
       </c>
       <c r="Q78" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O78, 0)</f>
         <v>6</v>
       </c>
       <c r="R78" s="1">
-        <f t="shared" si="9"/>
+        <f>P78+Q78</f>
         <v>11</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R78-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -8677,27 +8677,27 @@
         <v>877</v>
       </c>
       <c r="N79" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J79 + 0.5*MAX(F79,H79)+0.1*MIN(F79,H79)) / 10</f>
         <v>8.9</v>
       </c>
       <c r="O79" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E79 + 0.25*G79 + 0.25*I79)/10</f>
         <v>8.125</v>
       </c>
       <c r="P79" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N79, 0)</f>
         <v>9</v>
       </c>
       <c r="Q79" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O79, 0)</f>
         <v>8</v>
       </c>
       <c r="R79" s="1">
-        <f t="shared" si="9"/>
+        <f>P79+Q79</f>
         <v>17</v>
       </c>
       <c r="S79" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R79-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -8742,27 +8742,27 @@
         <v>877</v>
       </c>
       <c r="N80" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J80 + 0.5*MAX(F80,H80)+0.1*MIN(F80,H80)) / 10</f>
         <v>5.66</v>
       </c>
       <c r="O80" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E80 + 0.25*G80 + 0.25*I80)/10</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="P80" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N80, 0)</f>
         <v>6</v>
       </c>
       <c r="Q80" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O80, 0)</f>
         <v>4</v>
       </c>
       <c r="R80" s="1">
-        <f t="shared" si="9"/>
+        <f>P80+Q80</f>
         <v>10</v>
       </c>
       <c r="S80" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R80-4) / 2, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -8807,27 +8807,27 @@
         <v>877</v>
       </c>
       <c r="N81" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J81 + 0.5*MAX(F81,H81)+0.1*MIN(F81,H81)) / 10</f>
         <v>9.5599999999999987</v>
       </c>
       <c r="O81" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E81 + 0.25*G81 + 0.25*I81)/10</f>
         <v>7.4</v>
       </c>
       <c r="P81" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N81, 0)</f>
         <v>10</v>
       </c>
       <c r="Q81" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O81, 0)</f>
         <v>7</v>
       </c>
       <c r="R81" s="1">
-        <f t="shared" si="9"/>
+        <f>P81+Q81</f>
         <v>17</v>
       </c>
       <c r="S81" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R81-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -8869,27 +8869,27 @@
         <v>877</v>
       </c>
       <c r="N82" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J82 + 0.5*MAX(F82,H82)+0.1*MIN(F82,H82)) / 10</f>
         <v>7.74</v>
       </c>
       <c r="O82" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E82 + 0.25*G82 + 0.25*I82)/10</f>
         <v>7.3</v>
       </c>
       <c r="P82" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N82, 0)</f>
         <v>8</v>
       </c>
       <c r="Q82" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O82, 0)</f>
         <v>7</v>
       </c>
       <c r="R82" s="1">
-        <f t="shared" si="9"/>
+        <f>P82+Q82</f>
         <v>15</v>
       </c>
       <c r="S82" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R82-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -8931,27 +8931,27 @@
         <v>877</v>
       </c>
       <c r="N83" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J83 + 0.5*MAX(F83,H83)+0.1*MIN(F83,H83)) / 10</f>
         <v>5.58</v>
       </c>
       <c r="O83" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E83 + 0.25*G83 + 0.25*I83)/10</f>
         <v>5.375</v>
       </c>
       <c r="P83" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N83, 0)</f>
         <v>6</v>
       </c>
       <c r="Q83" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O83, 0)</f>
         <v>5</v>
       </c>
       <c r="R83" s="1">
-        <f t="shared" si="9"/>
+        <f>P83+Q83</f>
         <v>11</v>
       </c>
       <c r="S83" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R83-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -8993,27 +8993,27 @@
         <v>877</v>
       </c>
       <c r="N84" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J84 + 0.5*MAX(F84,H84)+0.1*MIN(F84,H84)) / 10</f>
         <v>7.7800000000000011</v>
       </c>
       <c r="O84" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E84 + 0.25*G84 + 0.25*I84)/10</f>
         <v>7.5</v>
       </c>
       <c r="P84" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N84, 0)</f>
         <v>8</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O84, 0)</f>
         <v>8</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" si="9"/>
+        <f>P84+Q84</f>
         <v>16</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R84-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -9058,27 +9058,27 @@
         <v>875</v>
       </c>
       <c r="N85" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J85 + 0.5*MAX(F85,H85)+0.1*MIN(F85,H85)) / 10</f>
         <v>5.2</v>
       </c>
       <c r="O85" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E85 + 0.25*G85 + 0.25*I85)/10</f>
         <v>6.5</v>
       </c>
       <c r="P85" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N85, 0)</f>
         <v>5</v>
       </c>
       <c r="Q85" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O85, 0)</f>
         <v>7</v>
       </c>
       <c r="R85" s="1">
-        <f t="shared" si="9"/>
+        <f>P85+Q85</f>
         <v>12</v>
       </c>
       <c r="S85" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R85-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -9123,27 +9123,27 @@
         <v>875</v>
       </c>
       <c r="N86" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J86 + 0.5*MAX(F86,H86)+0.1*MIN(F86,H86)) / 10</f>
         <v>7.2</v>
       </c>
       <c r="O86" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E86 + 0.25*G86 + 0.25*I86)/10</f>
         <v>9.5</v>
       </c>
       <c r="P86" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N86, 0)</f>
         <v>7</v>
       </c>
       <c r="Q86" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O86, 0)</f>
         <v>10</v>
       </c>
       <c r="R86" s="1">
-        <f t="shared" si="9"/>
+        <f>P86+Q86</f>
         <v>17</v>
       </c>
       <c r="S86" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R86-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -9188,27 +9188,27 @@
         <v>874</v>
       </c>
       <c r="N87" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J87 + 0.5*MAX(F87,H87)+0.1*MIN(F87,H87)) / 10</f>
         <v>5.32</v>
       </c>
       <c r="O87" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E87 + 0.25*G87 + 0.25*I87)/10</f>
         <v>5.75</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N87, 0)</f>
         <v>5</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O87, 0)</f>
         <v>6</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" si="9"/>
+        <f>P87+Q87</f>
         <v>11</v>
       </c>
       <c r="S87" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R87-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -9253,27 +9253,27 @@
         <v>874</v>
       </c>
       <c r="N88" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J88 + 0.5*MAX(F88,H88)+0.1*MIN(F88,H88)) / 10</f>
         <v>7.92</v>
       </c>
       <c r="O88" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E88 + 0.25*G88 + 0.25*I88)/10</f>
         <v>8.5</v>
       </c>
       <c r="P88" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N88, 0)</f>
         <v>8</v>
       </c>
       <c r="Q88" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O88, 0)</f>
         <v>9</v>
       </c>
       <c r="R88" s="1">
-        <f t="shared" si="9"/>
+        <f>P88+Q88</f>
         <v>17</v>
       </c>
       <c r="S88" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R88-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -9318,27 +9318,27 @@
         <v>874</v>
       </c>
       <c r="N89" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J89 + 0.5*MAX(F89,H89)+0.1*MIN(F89,H89)) / 10</f>
         <v>9.6999999999999993</v>
       </c>
       <c r="O89" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E89 + 0.25*G89 + 0.25*I89)/10</f>
         <v>6</v>
       </c>
       <c r="P89" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N89, 0)</f>
         <v>10</v>
       </c>
       <c r="Q89" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O89, 0)</f>
         <v>6</v>
       </c>
       <c r="R89" s="1">
-        <f t="shared" si="9"/>
+        <f>P89+Q89</f>
         <v>16</v>
       </c>
       <c r="S89" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R89-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -9383,27 +9383,27 @@
         <v>874</v>
       </c>
       <c r="N90" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J90 + 0.5*MAX(F90,H90)+0.1*MIN(F90,H90)) / 10</f>
         <v>11.45</v>
       </c>
       <c r="O90" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E90 + 0.25*G90 + 0.25*I90)/10</f>
         <v>7.25</v>
       </c>
       <c r="P90" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N90, 0)</f>
         <v>11</v>
       </c>
       <c r="Q90" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O90, 0)</f>
         <v>7</v>
       </c>
       <c r="R90" s="1">
-        <f t="shared" si="9"/>
+        <f>P90+Q90</f>
         <v>18</v>
       </c>
       <c r="S90" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R90-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -9448,27 +9448,27 @@
         <v>877</v>
       </c>
       <c r="N91" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J91 + 0.5*MAX(F91,H91)+0.1*MIN(F91,H91)) / 10</f>
         <v>6.9</v>
       </c>
       <c r="O91" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E91 + 0.25*G91 + 0.25*I91)/10</f>
         <v>4.375</v>
       </c>
       <c r="P91" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N91, 0)</f>
         <v>7</v>
       </c>
       <c r="Q91" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O91, 0)</f>
         <v>4</v>
       </c>
       <c r="R91" s="1">
-        <f t="shared" si="9"/>
+        <f>P91+Q91</f>
         <v>11</v>
       </c>
       <c r="S91" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R91-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -9513,27 +9513,27 @@
         <v>877</v>
       </c>
       <c r="N92" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J92 + 0.5*MAX(F92,H92)+0.1*MIN(F92,H92)) / 10</f>
         <v>9.4</v>
       </c>
       <c r="O92" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E92 + 0.25*G92 + 0.25*I92)/10</f>
         <v>6.625</v>
       </c>
       <c r="P92" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N92, 0)</f>
         <v>9</v>
       </c>
       <c r="Q92" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O92, 0)</f>
         <v>7</v>
       </c>
       <c r="R92" s="1">
-        <f t="shared" si="9"/>
+        <f>P92+Q92</f>
         <v>16</v>
       </c>
       <c r="S92" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R92-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -9578,27 +9578,27 @@
         <v>877</v>
       </c>
       <c r="N93" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J93 + 0.5*MAX(F93,H93)+0.1*MIN(F93,H93)) / 10</f>
         <v>9.6</v>
       </c>
       <c r="O93" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E93 + 0.25*G93 + 0.25*I93)/10</f>
         <v>8.625</v>
       </c>
       <c r="P93" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N93, 0)</f>
         <v>10</v>
       </c>
       <c r="Q93" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O93, 0)</f>
         <v>9</v>
       </c>
       <c r="R93" s="1">
-        <f t="shared" si="9"/>
+        <f>P93+Q93</f>
         <v>19</v>
       </c>
       <c r="S93" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R93-4) / 2, 0)</f>
         <v>8</v>
       </c>
     </row>
@@ -9640,27 +9640,27 @@
         <v>875</v>
       </c>
       <c r="N94" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J94 + 0.5*MAX(F94,H94)+0.1*MIN(F94,H94)) / 10</f>
         <v>4.75</v>
       </c>
       <c r="O94" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E94 + 0.25*G94 + 0.25*I94)/10</f>
         <v>8.25</v>
       </c>
       <c r="P94" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N94, 0)</f>
         <v>5</v>
       </c>
       <c r="Q94" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O94, 0)</f>
         <v>8</v>
       </c>
       <c r="R94" s="1">
-        <f t="shared" si="9"/>
+        <f>P94+Q94</f>
         <v>13</v>
       </c>
       <c r="S94" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R94-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -9702,27 +9702,27 @@
         <v>875</v>
       </c>
       <c r="N95" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J95 + 0.5*MAX(F95,H95)+0.1*MIN(F95,H95)) / 10</f>
         <v>7.05</v>
       </c>
       <c r="O95" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E95 + 0.25*G95 + 0.25*I95)/10</f>
         <v>10.25</v>
       </c>
       <c r="P95" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N95, 0)</f>
         <v>7</v>
       </c>
       <c r="Q95" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O95, 0)</f>
         <v>10</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" si="9"/>
+        <f>P95+Q95</f>
         <v>17</v>
       </c>
       <c r="S95" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R95-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -9767,27 +9767,27 @@
         <v>875</v>
       </c>
       <c r="N96" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J96 + 0.5*MAX(F96,H96)+0.1*MIN(F96,H96)) / 10</f>
         <v>5.55</v>
       </c>
       <c r="O96" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E96 + 0.25*G96 + 0.25*I96)/10</f>
         <v>7.125</v>
       </c>
       <c r="P96" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N96, 0)</f>
         <v>6</v>
       </c>
       <c r="Q96" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O96, 0)</f>
         <v>7</v>
       </c>
       <c r="R96" s="1">
-        <f t="shared" si="9"/>
+        <f>P96+Q96</f>
         <v>13</v>
       </c>
       <c r="S96" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R96-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -9832,27 +9832,27 @@
         <v>875</v>
       </c>
       <c r="N97" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J97 + 0.5*MAX(F97,H97)+0.1*MIN(F97,H97)) / 10</f>
         <v>8.5500000000000007</v>
       </c>
       <c r="O97" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E97 + 0.25*G97 + 0.25*I97)/10</f>
         <v>9.375</v>
       </c>
       <c r="P97" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N97, 0)</f>
         <v>9</v>
       </c>
       <c r="Q97" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O97, 0)</f>
         <v>9</v>
       </c>
       <c r="R97" s="1">
-        <f t="shared" si="9"/>
+        <f>P97+Q97</f>
         <v>18</v>
       </c>
       <c r="S97" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R97-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -9897,27 +9897,27 @@
         <v>875</v>
       </c>
       <c r="N98" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J98 + 0.5*MAX(F98,H98)+0.1*MIN(F98,H98)) / 10</f>
         <v>9.15</v>
       </c>
       <c r="O98" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E98 + 0.25*G98 + 0.25*I98)/10</f>
         <v>10.375</v>
       </c>
       <c r="P98" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N98, 0)</f>
         <v>9</v>
       </c>
       <c r="Q98" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O98, 0)</f>
         <v>10</v>
       </c>
       <c r="R98" s="1">
-        <f t="shared" si="9"/>
+        <f>P98+Q98</f>
         <v>19</v>
       </c>
       <c r="S98" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R98-4) / 2, 0)</f>
         <v>8</v>
       </c>
     </row>
@@ -9959,27 +9959,27 @@
         <v>877</v>
       </c>
       <c r="N99" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J99 + 0.5*MAX(F99,H99)+0.1*MIN(F99,H99)) / 10</f>
         <v>7.95</v>
       </c>
       <c r="O99" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E99 + 0.25*G99 + 0.25*I99)/10</f>
         <v>7.125</v>
       </c>
       <c r="P99" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N99, 0)</f>
         <v>8</v>
       </c>
       <c r="Q99" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O99, 0)</f>
         <v>7</v>
       </c>
       <c r="R99" s="1">
-        <f t="shared" si="9"/>
+        <f>P99+Q99</f>
         <v>15</v>
       </c>
       <c r="S99" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R99-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -10021,27 +10021,27 @@
         <v>877</v>
       </c>
       <c r="N100" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J100 + 0.5*MAX(F100,H100)+0.1*MIN(F100,H100)) / 10</f>
         <v>8.5</v>
       </c>
       <c r="O100" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E100 + 0.25*G100 + 0.25*I100)/10</f>
         <v>9.375</v>
       </c>
       <c r="P100" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N100, 0)</f>
         <v>9</v>
       </c>
       <c r="Q100" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O100, 0)</f>
         <v>9</v>
       </c>
       <c r="R100" s="1">
-        <f t="shared" si="9"/>
+        <f>P100+Q100</f>
         <v>18</v>
       </c>
       <c r="S100" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R100-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -10083,27 +10083,27 @@
         <v>877</v>
       </c>
       <c r="N101" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J101 + 0.5*MAX(F101,H101)+0.1*MIN(F101,H101)) / 10</f>
         <v>7.68</v>
       </c>
       <c r="O101" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E101 + 0.25*G101 + 0.25*I101)/10</f>
         <v>4.55</v>
       </c>
       <c r="P101" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N101, 0)</f>
         <v>8</v>
       </c>
       <c r="Q101" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O101, 0)</f>
         <v>5</v>
       </c>
       <c r="R101" s="1">
-        <f t="shared" si="9"/>
+        <f>P101+Q101</f>
         <v>13</v>
       </c>
       <c r="S101" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R101-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -10145,27 +10145,27 @@
         <v>877</v>
       </c>
       <c r="N102" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J102 + 0.5*MAX(F102,H102)+0.1*MIN(F102,H102)) / 10</f>
         <v>9.7799999999999994</v>
       </c>
       <c r="O102" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E102 + 0.25*G102 + 0.25*I102)/10</f>
         <v>6.8</v>
       </c>
       <c r="P102" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N102, 0)</f>
         <v>10</v>
       </c>
       <c r="Q102" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O102, 0)</f>
         <v>7</v>
       </c>
       <c r="R102" s="1">
-        <f t="shared" si="9"/>
+        <f>P102+Q102</f>
         <v>17</v>
       </c>
       <c r="S102" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R102-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -10207,27 +10207,27 @@
         <v>877</v>
       </c>
       <c r="N103" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J103 + 0.5*MAX(F103,H103)+0.1*MIN(F103,H103)) / 10</f>
         <v>10.9</v>
       </c>
       <c r="O103" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E103 + 0.25*G103 + 0.25*I103)/10</f>
         <v>7.55</v>
       </c>
       <c r="P103" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N103, 0)</f>
         <v>11</v>
       </c>
       <c r="Q103" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O103, 0)</f>
         <v>8</v>
       </c>
       <c r="R103" s="1">
-        <f t="shared" si="9"/>
+        <f>P103+Q103</f>
         <v>19</v>
       </c>
       <c r="S103" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R103-4) / 2, 0)</f>
         <v>8</v>
       </c>
     </row>
@@ -10269,27 +10269,27 @@
         <v>877</v>
       </c>
       <c r="N104" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J104 + 0.5*MAX(F104,H104)+0.1*MIN(F104,H104)) / 10</f>
         <v>7.7700000000000005</v>
       </c>
       <c r="O104" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E104 + 0.25*G104 + 0.25*I104)/10</f>
         <v>4.55</v>
       </c>
       <c r="P104" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N104, 0)</f>
         <v>8</v>
       </c>
       <c r="Q104" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O104, 0)</f>
         <v>5</v>
       </c>
       <c r="R104" s="1">
-        <f t="shared" si="9"/>
+        <f>P104+Q104</f>
         <v>13</v>
       </c>
       <c r="S104" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R104-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -10331,27 +10331,27 @@
         <v>877</v>
       </c>
       <c r="N105" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J105 + 0.5*MAX(F105,H105)+0.1*MIN(F105,H105)) / 10</f>
         <v>9.67</v>
       </c>
       <c r="O105" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E105 + 0.25*G105 + 0.25*I105)/10</f>
         <v>6.8</v>
       </c>
       <c r="P105" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N105, 0)</f>
         <v>10</v>
       </c>
       <c r="Q105" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O105, 0)</f>
         <v>7</v>
       </c>
       <c r="R105" s="1">
-        <f t="shared" si="9"/>
+        <f>P105+Q105</f>
         <v>17</v>
       </c>
       <c r="S105" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R105-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -10393,27 +10393,27 @@
         <v>877</v>
       </c>
       <c r="N106" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J106 + 0.5*MAX(F106,H106)+0.1*MIN(F106,H106)) / 10</f>
         <v>10.52</v>
       </c>
       <c r="O106" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E106 + 0.25*G106 + 0.25*I106)/10</f>
         <v>7.8</v>
       </c>
       <c r="P106" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N106, 0)</f>
         <v>11</v>
       </c>
       <c r="Q106" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O106, 0)</f>
         <v>8</v>
       </c>
       <c r="R106" s="1">
-        <f t="shared" si="9"/>
+        <f>P106+Q106</f>
         <v>19</v>
       </c>
       <c r="S106" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R106-4) / 2, 0)</f>
         <v>8</v>
       </c>
     </row>
@@ -10455,27 +10455,27 @@
         <v>877</v>
       </c>
       <c r="N107" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J107 + 0.5*MAX(F107,H107)+0.1*MIN(F107,H107)) / 10</f>
         <v>3</v>
       </c>
       <c r="O107" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E107 + 0.25*G107 + 0.25*I107)/10</f>
         <v>5</v>
       </c>
       <c r="P107" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N107, 0)</f>
         <v>3</v>
       </c>
       <c r="Q107" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O107, 0)</f>
         <v>5</v>
       </c>
       <c r="R107" s="1">
-        <f t="shared" si="9"/>
+        <f>P107+Q107</f>
         <v>8</v>
       </c>
       <c r="S107" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R107-4) / 2, 0)</f>
         <v>2</v>
       </c>
     </row>
@@ -10520,27 +10520,27 @@
         <v>877</v>
       </c>
       <c r="N108" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J108 + 0.5*MAX(F108,H108)+0.1*MIN(F108,H108)) / 10</f>
         <v>6</v>
       </c>
       <c r="O108" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E108 + 0.25*G108 + 0.25*I108)/10</f>
         <v>7.5</v>
       </c>
       <c r="P108" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N108, 0)</f>
         <v>6</v>
       </c>
       <c r="Q108" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O108, 0)</f>
         <v>8</v>
       </c>
       <c r="R108" s="1">
-        <f t="shared" si="9"/>
+        <f>P108+Q108</f>
         <v>14</v>
       </c>
       <c r="S108" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R108-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -10585,27 +10585,27 @@
         <v>877</v>
       </c>
       <c r="N109" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J109 + 0.5*MAX(F109,H109)+0.1*MIN(F109,H109)) / 10</f>
         <v>9.6999999999999993</v>
       </c>
       <c r="O109" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E109 + 0.25*G109 + 0.25*I109)/10</f>
         <v>9.5</v>
       </c>
       <c r="P109" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N109, 0)</f>
         <v>10</v>
       </c>
       <c r="Q109" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O109, 0)</f>
         <v>10</v>
       </c>
       <c r="R109" s="1">
-        <f t="shared" si="9"/>
+        <f>P109+Q109</f>
         <v>20</v>
       </c>
       <c r="S109" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R109-4) / 2, 0)</f>
         <v>8</v>
       </c>
     </row>
@@ -10650,27 +10650,27 @@
         <v>877</v>
       </c>
       <c r="N110" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J110 + 0.5*MAX(F110,H110)+0.1*MIN(F110,H110)) / 10</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="O110" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E110 + 0.25*G110 + 0.25*I110)/10</f>
         <v>5.5</v>
       </c>
       <c r="P110" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N110, 0)</f>
         <v>8</v>
       </c>
       <c r="Q110" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O110, 0)</f>
         <v>6</v>
       </c>
       <c r="R110" s="1">
-        <f t="shared" si="9"/>
+        <f>P110+Q110</f>
         <v>14</v>
       </c>
       <c r="S110" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R110-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -10715,27 +10715,27 @@
         <v>877</v>
       </c>
       <c r="N111" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J111 + 0.5*MAX(F111,H111)+0.1*MIN(F111,H111)) / 10</f>
         <v>10.36</v>
       </c>
       <c r="O111" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E111 + 0.25*G111 + 0.25*I111)/10</f>
         <v>7.85</v>
       </c>
       <c r="P111" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N111, 0)</f>
         <v>10</v>
       </c>
       <c r="Q111" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O111, 0)</f>
         <v>8</v>
       </c>
       <c r="R111" s="1">
-        <f t="shared" si="9"/>
+        <f>P111+Q111</f>
         <v>18</v>
       </c>
       <c r="S111" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R111-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -10777,27 +10777,27 @@
         <v>875</v>
       </c>
       <c r="N112" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J112 + 0.5*MAX(F112,H112)+0.1*MIN(F112,H112)) / 10</f>
         <v>5.4</v>
       </c>
       <c r="O112" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E112 + 0.25*G112 + 0.25*I112)/10</f>
         <v>5.625</v>
       </c>
       <c r="P112" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N112, 0)</f>
         <v>5</v>
       </c>
       <c r="Q112" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O112, 0)</f>
         <v>6</v>
       </c>
       <c r="R112" s="1">
-        <f t="shared" si="9"/>
+        <f>P112+Q112</f>
         <v>11</v>
       </c>
       <c r="S112" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R112-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -10839,26 +10839,26 @@
         <v>877</v>
       </c>
       <c r="N113" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J113 + 0.5*MAX(F113,H113)+0.1*MIN(F113,H113)) / 10</f>
         <v>8.75</v>
       </c>
       <c r="O113" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E113 + 0.25*G113 + 0.25*I113)/10</f>
         <v>10.375</v>
       </c>
       <c r="P113" s="2">
         <v>8</v>
       </c>
       <c r="Q113" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O113, 0)</f>
         <v>10</v>
       </c>
       <c r="R113" s="3">
-        <f t="shared" si="9"/>
+        <f>P113+Q113</f>
         <v>18</v>
       </c>
       <c r="S113" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R113-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -10900,27 +10900,27 @@
         <v>877</v>
       </c>
       <c r="N114" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J114 + 0.5*MAX(F114,H114)+0.1*MIN(F114,H114)) / 10</f>
         <v>11.35</v>
       </c>
       <c r="O114" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E114 + 0.25*G114 + 0.25*I114)/10</f>
         <v>7.125</v>
       </c>
       <c r="P114" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N114, 0)</f>
         <v>11</v>
       </c>
       <c r="Q114" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O114, 0)</f>
         <v>7</v>
       </c>
       <c r="R114" s="3">
-        <f t="shared" si="9"/>
+        <f>P114+Q114</f>
         <v>18</v>
       </c>
       <c r="S114" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R114-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -10962,27 +10962,27 @@
         <v>877</v>
       </c>
       <c r="N115" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J115 + 0.5*MAX(F115,H115)+0.1*MIN(F115,H115)) / 10</f>
         <v>10.050000000000001</v>
       </c>
       <c r="O115" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E115 + 0.25*G115 + 0.25*I115)/10</f>
         <v>7.5</v>
       </c>
       <c r="P115" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N115, 0)</f>
         <v>10</v>
       </c>
       <c r="Q115" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O115, 0)</f>
         <v>8</v>
       </c>
       <c r="R115" s="3">
-        <f t="shared" si="9"/>
+        <f>P115+Q115</f>
         <v>18</v>
       </c>
       <c r="S115" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R115-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -11024,26 +11024,26 @@
         <v>875</v>
       </c>
       <c r="N116" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J116 + 0.5*MAX(F116,H116)+0.1*MIN(F116,H116)) / 10</f>
         <v>11.55</v>
       </c>
       <c r="O116" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E116 + 0.25*G116 + 0.25*I116)/10</f>
         <v>7.125</v>
       </c>
       <c r="P116" s="2">
         <v>11</v>
       </c>
       <c r="Q116" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O116, 0)</f>
         <v>7</v>
       </c>
       <c r="R116" s="3">
-        <f t="shared" si="9"/>
+        <f>P116+Q116</f>
         <v>18</v>
       </c>
       <c r="S116" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R116-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -11085,26 +11085,26 @@
         <v>875</v>
       </c>
       <c r="N117" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J117 + 0.5*MAX(F117,H117)+0.1*MIN(F117,H117)) / 10</f>
         <v>6.45</v>
       </c>
       <c r="O117" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E117 + 0.25*G117 + 0.25*I117)/10</f>
         <v>10.75</v>
       </c>
       <c r="P117" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N117, 0)</f>
         <v>6</v>
       </c>
       <c r="Q117" s="2">
         <v>12</v>
       </c>
       <c r="R117" s="3">
-        <f t="shared" si="9"/>
+        <f>P117+Q117</f>
         <v>18</v>
       </c>
       <c r="S117" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R117-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -11146,27 +11146,27 @@
         <v>874</v>
       </c>
       <c r="N118" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J118 + 0.5*MAX(F118,H118)+0.1*MIN(F118,H118)) / 10</f>
         <v>9.9</v>
       </c>
       <c r="O118" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E118 + 0.25*G118 + 0.25*I118)/10</f>
         <v>8.125</v>
       </c>
       <c r="P118" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N118, 0)</f>
         <v>10</v>
       </c>
       <c r="Q118" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O118, 0)</f>
         <v>8</v>
       </c>
       <c r="R118" s="3">
-        <f t="shared" si="9"/>
+        <f>P118+Q118</f>
         <v>18</v>
       </c>
       <c r="S118" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R118-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -11208,27 +11208,27 @@
         <v>874</v>
       </c>
       <c r="N119" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J119 + 0.5*MAX(F119,H119)+0.1*MIN(F119,H119)) / 10</f>
         <v>9.6999999999999993</v>
       </c>
       <c r="O119" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E119 + 0.25*G119 + 0.25*I119)/10</f>
         <v>8.375</v>
       </c>
       <c r="P119" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N119, 0)</f>
         <v>10</v>
       </c>
       <c r="Q119" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O119, 0)</f>
         <v>8</v>
       </c>
       <c r="R119" s="3">
-        <f t="shared" si="9"/>
+        <f>P119+Q119</f>
         <v>18</v>
       </c>
       <c r="S119" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R119-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -11273,27 +11273,27 @@
         <v>875</v>
       </c>
       <c r="N120" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J120 + 0.5*MAX(F120,H120)+0.1*MIN(F120,H120)) / 10</f>
         <v>7.5</v>
       </c>
       <c r="O120" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E120 + 0.25*G120 + 0.25*I120)/10</f>
         <v>7.5</v>
       </c>
       <c r="P120" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N120, 0)</f>
         <v>8</v>
       </c>
       <c r="Q120" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O120, 0)</f>
         <v>8</v>
       </c>
       <c r="R120" s="1">
-        <f t="shared" si="9"/>
+        <f>P120+Q120</f>
         <v>16</v>
       </c>
       <c r="S120" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R120-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -11338,27 +11338,27 @@
         <v>875</v>
       </c>
       <c r="N121" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J121 + 0.5*MAX(F121,H121)+0.1*MIN(F121,H121)) / 10</f>
         <v>9</v>
       </c>
       <c r="O121" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E121 + 0.25*G121 + 0.25*I121)/10</f>
         <v>8.75</v>
       </c>
       <c r="P121" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N121, 0)</f>
         <v>9</v>
       </c>
       <c r="Q121" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O121, 0)</f>
         <v>9</v>
       </c>
       <c r="R121" s="1">
-        <f t="shared" si="9"/>
+        <f>P121+Q121</f>
         <v>18</v>
       </c>
       <c r="S121" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R121-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -11403,27 +11403,27 @@
         <v>874</v>
       </c>
       <c r="N122" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J122 + 0.5*MAX(F122,H122)+0.1*MIN(F122,H122)) / 10</f>
         <v>4.8</v>
       </c>
       <c r="O122" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E122 + 0.25*G122 + 0.25*I122)/10</f>
         <v>4.25</v>
       </c>
       <c r="P122" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N122, 0)</f>
         <v>5</v>
       </c>
       <c r="Q122" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O122, 0)</f>
         <v>4</v>
       </c>
       <c r="R122" s="1">
-        <f t="shared" si="9"/>
+        <f>P122+Q122</f>
         <v>9</v>
       </c>
       <c r="S122" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R122-4) / 2, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -11468,27 +11468,27 @@
         <v>874</v>
       </c>
       <c r="N123" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J123 + 0.5*MAX(F123,H123)+0.1*MIN(F123,H123)) / 10</f>
         <v>7.6</v>
       </c>
       <c r="O123" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E123 + 0.25*G123 + 0.25*I123)/10</f>
         <v>8.5</v>
       </c>
       <c r="P123" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N123, 0)</f>
         <v>8</v>
       </c>
       <c r="Q123" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O123, 0)</f>
         <v>9</v>
       </c>
       <c r="R123" s="1">
-        <f t="shared" si="9"/>
+        <f>P123+Q123</f>
         <v>17</v>
       </c>
       <c r="S123" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R123-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -11533,27 +11533,27 @@
         <v>874</v>
       </c>
       <c r="N124" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J124 + 0.5*MAX(F124,H124)+0.1*MIN(F124,H124)) / 10</f>
         <v>10.4</v>
       </c>
       <c r="O124" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E124 + 0.25*G124 + 0.25*I124)/10</f>
         <v>9</v>
       </c>
       <c r="P124" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N124, 0)</f>
         <v>10</v>
       </c>
       <c r="Q124" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O124, 0)</f>
         <v>9</v>
       </c>
       <c r="R124" s="1">
-        <f t="shared" si="9"/>
+        <f>P124+Q124</f>
         <v>19</v>
       </c>
       <c r="S124" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R124-4) / 2, 0)</f>
         <v>8</v>
       </c>
     </row>
@@ -11595,27 +11595,27 @@
         <v>875</v>
       </c>
       <c r="N125" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J125 + 0.5*MAX(F125,H125)+0.1*MIN(F125,H125)) / 10</f>
         <v>11.15</v>
       </c>
       <c r="O125" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E125 + 0.25*G125 + 0.25*I125)/10</f>
         <v>7.875</v>
       </c>
       <c r="P125" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N125, 0)</f>
         <v>11</v>
       </c>
       <c r="Q125" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O125, 0)</f>
         <v>8</v>
       </c>
       <c r="R125" s="1">
-        <f t="shared" si="9"/>
+        <f>P125+Q125</f>
         <v>19</v>
       </c>
       <c r="S125" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R125-4) / 2, 0)</f>
         <v>8</v>
       </c>
     </row>
@@ -11660,27 +11660,27 @@
         <v>875</v>
       </c>
       <c r="N126" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J126 + 0.5*MAX(F126,H126)+0.1*MIN(F126,H126)) / 10</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="O126" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E126 + 0.25*G126 + 0.25*I126)/10</f>
         <v>2.9</v>
       </c>
       <c r="P126" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N126, 0)</f>
         <v>4</v>
       </c>
       <c r="Q126" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O126, 0)</f>
         <v>3</v>
       </c>
       <c r="R126" s="1">
-        <f t="shared" si="9"/>
+        <f>P126+Q126</f>
         <v>7</v>
       </c>
       <c r="S126" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R126-4) / 2, 0)</f>
         <v>2</v>
       </c>
     </row>
@@ -11725,27 +11725,27 @@
         <v>875</v>
       </c>
       <c r="N127" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J127 + 0.5*MAX(F127,H127)+0.1*MIN(F127,H127)) / 10</f>
         <v>5.6</v>
       </c>
       <c r="O127" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E127 + 0.25*G127 + 0.25*I127)/10</f>
         <v>4.1500000000000004</v>
       </c>
       <c r="P127" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N127, 0)</f>
         <v>6</v>
       </c>
       <c r="Q127" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O127, 0)</f>
         <v>4</v>
       </c>
       <c r="R127" s="1">
-        <f t="shared" si="9"/>
+        <f>P127+Q127</f>
         <v>10</v>
       </c>
       <c r="S127" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R127-4) / 2, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -11790,27 +11790,27 @@
         <v>875</v>
       </c>
       <c r="N128" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J128 + 0.5*MAX(F128,H128)+0.1*MIN(F128,H128)) / 10</f>
         <v>10.1</v>
       </c>
       <c r="O128" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E128 + 0.25*G128 + 0.25*I128)/10</f>
         <v>7.9</v>
       </c>
       <c r="P128" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N128, 0)</f>
         <v>10</v>
       </c>
       <c r="Q128" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O128, 0)</f>
         <v>8</v>
       </c>
       <c r="R128" s="1">
-        <f t="shared" si="9"/>
+        <f>P128+Q128</f>
         <v>18</v>
       </c>
       <c r="S128" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R128-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -11855,27 +11855,27 @@
         <v>875</v>
       </c>
       <c r="N129" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J129 + 0.5*MAX(F129,H129)+0.1*MIN(F129,H129)) / 10</f>
         <v>10.1</v>
       </c>
       <c r="O129" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E129 + 0.25*G129 + 0.25*I129)/10</f>
         <v>7.9</v>
       </c>
       <c r="P129" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N129, 0)</f>
         <v>10</v>
       </c>
       <c r="Q129" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O129, 0)</f>
         <v>8</v>
       </c>
       <c r="R129" s="1">
-        <f t="shared" si="9"/>
+        <f>P129+Q129</f>
         <v>18</v>
       </c>
       <c r="S129" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R129-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -11917,27 +11917,27 @@
         <v>874</v>
       </c>
       <c r="N130" s="6">
-        <f t="shared" si="6"/>
+        <f>(0.4*J130 + 0.5*MAX(F130,H130)+0.1*MIN(F130,H130)) / 10</f>
         <v>3.9</v>
       </c>
       <c r="O130" s="6">
-        <f t="shared" si="7"/>
+        <f>(0.5*E130 + 0.25*G130 + 0.25*I130)/10</f>
         <v>7.125</v>
       </c>
       <c r="P130" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N130, 0)</f>
         <v>4</v>
       </c>
       <c r="Q130" s="1">
-        <f t="shared" si="8"/>
+        <f>ROUND(O130, 0)</f>
         <v>7</v>
       </c>
       <c r="R130" s="1">
-        <f t="shared" si="9"/>
+        <f>P130+Q130</f>
         <v>11</v>
       </c>
       <c r="S130" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUND((R130-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -11982,27 +11982,27 @@
         <v>874</v>
       </c>
       <c r="N131" s="6">
-        <f t="shared" ref="N131:N163" si="12">(0.4*J131 + 0.5*MAX(F131,H131)+0.1*MIN(F131,H131)) / 10</f>
+        <f>(0.4*J131 + 0.5*MAX(F131,H131)+0.1*MIN(F131,H131)) / 10</f>
         <v>5.9</v>
       </c>
       <c r="O131" s="6">
-        <f t="shared" ref="O131:O163" si="13">(0.5*E131 + 0.25*G131 + 0.25*I131)/10</f>
+        <f>(0.5*E131 + 0.25*G131 + 0.25*I131)/10</f>
         <v>10.375</v>
       </c>
       <c r="P131" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(N131, 0)</f>
         <v>6</v>
       </c>
       <c r="Q131" s="1">
-        <f t="shared" si="11"/>
+        <f>ROUND(O131, 0)</f>
         <v>10</v>
       </c>
       <c r="R131" s="1">
-        <f t="shared" ref="R131:R163" si="14">P131+Q131</f>
+        <f>P131+Q131</f>
         <v>16</v>
       </c>
       <c r="S131" s="1">
-        <f t="shared" ref="S131:S163" si="15">ROUND((R131-4) / 2, 0)</f>
+        <f>ROUND((R131-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -12044,27 +12044,27 @@
         <v>874</v>
       </c>
       <c r="N132" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J132 + 0.5*MAX(F132,H132)+0.1*MIN(F132,H132)) / 10</f>
         <v>3.3</v>
       </c>
       <c r="O132" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E132 + 0.25*G132 + 0.25*I132)/10</f>
         <v>5.5</v>
       </c>
       <c r="P132" s="1">
-        <f t="shared" ref="P132:Q157" si="16">ROUND(N132, 0)</f>
+        <f>ROUND(N132, 0)</f>
         <v>3</v>
       </c>
       <c r="Q132" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O132, 0)</f>
         <v>6</v>
       </c>
       <c r="R132" s="1">
-        <f t="shared" si="14"/>
+        <f>P132+Q132</f>
         <v>9</v>
       </c>
       <c r="S132" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R132-4) / 2, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -12106,27 +12106,27 @@
         <v>874</v>
       </c>
       <c r="N133" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J133 + 0.5*MAX(F133,H133)+0.1*MIN(F133,H133)) / 10</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="O133" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E133 + 0.25*G133 + 0.25*I133)/10</f>
         <v>8.5</v>
       </c>
       <c r="P133" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N133, 0)</f>
         <v>5</v>
       </c>
       <c r="Q133" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O133, 0)</f>
         <v>9</v>
       </c>
       <c r="R133" s="1">
-        <f t="shared" si="14"/>
+        <f>P133+Q133</f>
         <v>14</v>
       </c>
       <c r="S133" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R133-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -12168,27 +12168,27 @@
         <v>874</v>
       </c>
       <c r="N134" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J134 + 0.5*MAX(F134,H134)+0.1*MIN(F134,H134)) / 10</f>
         <v>7.45</v>
       </c>
       <c r="O134" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E134 + 0.25*G134 + 0.25*I134)/10</f>
         <v>9</v>
       </c>
       <c r="P134" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N134, 0)</f>
         <v>7</v>
       </c>
       <c r="Q134" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O134, 0)</f>
         <v>9</v>
       </c>
       <c r="R134" s="1">
-        <f t="shared" si="14"/>
+        <f>P134+Q134</f>
         <v>16</v>
       </c>
       <c r="S134" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R134-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -12230,27 +12230,27 @@
         <v>874</v>
       </c>
       <c r="N135" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J135 + 0.5*MAX(F135,H135)+0.1*MIN(F135,H135)) / 10</f>
         <v>5</v>
       </c>
       <c r="O135" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E135 + 0.25*G135 + 0.25*I135)/10</f>
         <v>5</v>
       </c>
       <c r="P135" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N135, 0)</f>
         <v>5</v>
       </c>
       <c r="Q135" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O135, 0)</f>
         <v>5</v>
       </c>
       <c r="R135" s="1">
-        <f t="shared" si="14"/>
+        <f>P135+Q135</f>
         <v>10</v>
       </c>
       <c r="S135" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R135-4) / 2, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -12292,27 +12292,27 @@
         <v>874</v>
       </c>
       <c r="N136" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J136 + 0.5*MAX(F136,H136)+0.1*MIN(F136,H136)) / 10</f>
         <v>8</v>
       </c>
       <c r="O136" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E136 + 0.25*G136 + 0.25*I136)/10</f>
         <v>8</v>
       </c>
       <c r="P136" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N136, 0)</f>
         <v>8</v>
       </c>
       <c r="Q136" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O136, 0)</f>
         <v>8</v>
       </c>
       <c r="R136" s="1">
-        <f t="shared" si="14"/>
+        <f>P136+Q136</f>
         <v>16</v>
       </c>
       <c r="S136" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R136-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -12357,27 +12357,27 @@
         <v>874</v>
       </c>
       <c r="N137" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J137 + 0.5*MAX(F137,H137)+0.1*MIN(F137,H137)) / 10</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="O137" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E137 + 0.25*G137 + 0.25*I137)/10</f>
         <v>7</v>
       </c>
       <c r="P137" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N137, 0)</f>
         <v>9</v>
       </c>
       <c r="Q137" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O137, 0)</f>
         <v>7</v>
       </c>
       <c r="R137" s="1">
-        <f t="shared" si="14"/>
+        <f>P137+Q137</f>
         <v>16</v>
       </c>
       <c r="S137" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R137-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -12422,27 +12422,27 @@
         <v>874</v>
       </c>
       <c r="N138" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J138 + 0.5*MAX(F138,H138)+0.1*MIN(F138,H138)) / 10</f>
         <v>9.34</v>
       </c>
       <c r="O138" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E138 + 0.25*G138 + 0.25*I138)/10</f>
         <v>7.85</v>
       </c>
       <c r="P138" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N138, 0)</f>
         <v>9</v>
       </c>
       <c r="Q138" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O138, 0)</f>
         <v>8</v>
       </c>
       <c r="R138" s="1">
-        <f t="shared" si="14"/>
+        <f>P138+Q138</f>
         <v>17</v>
       </c>
       <c r="S138" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R138-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -12481,27 +12481,27 @@
         <v>909</v>
       </c>
       <c r="N139" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J139 + 0.5*MAX(F139,H139)+0.1*MIN(F139,H139)) / 10</f>
         <v>8.3000000000000007</v>
       </c>
       <c r="O139" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E139 + 0.25*G139 + 0.25*I139)/10</f>
         <v>10.25</v>
       </c>
       <c r="P139" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N139, 0)</f>
         <v>8</v>
       </c>
       <c r="Q139" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O139, 0)</f>
         <v>10</v>
       </c>
       <c r="R139" s="5">
-        <f t="shared" si="14"/>
+        <f>P139+Q139</f>
         <v>18</v>
       </c>
       <c r="S139" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R139-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -12540,27 +12540,27 @@
         <v>909</v>
       </c>
       <c r="N140" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J140 + 0.5*MAX(F140,H140)+0.1*MIN(F140,H140)) / 10</f>
         <v>9.5</v>
       </c>
       <c r="O140" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E140 + 0.25*G140 + 0.25*I140)/10</f>
         <v>9.25</v>
       </c>
       <c r="P140" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N140, 0)</f>
         <v>10</v>
       </c>
       <c r="Q140" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O140, 0)</f>
         <v>9</v>
       </c>
       <c r="R140" s="5">
-        <f t="shared" si="14"/>
+        <f>P140+Q140</f>
         <v>19</v>
       </c>
       <c r="S140" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R140-4) / 2, 0)</f>
         <v>8</v>
       </c>
     </row>
@@ -12599,27 +12599,27 @@
         <v>909</v>
       </c>
       <c r="N141" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J141 + 0.5*MAX(F141,H141)+0.1*MIN(F141,H141)) / 10</f>
         <v>12.1</v>
       </c>
       <c r="O141" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E141 + 0.25*G141 + 0.25*I141)/10</f>
         <v>7.25</v>
       </c>
       <c r="P141" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N141, 0)</f>
         <v>12</v>
       </c>
       <c r="Q141" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O141, 0)</f>
         <v>7</v>
       </c>
       <c r="R141" s="5">
-        <f t="shared" si="14"/>
+        <f>P141+Q141</f>
         <v>19</v>
       </c>
       <c r="S141" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R141-4) / 2, 0)</f>
         <v>8</v>
       </c>
     </row>
@@ -12661,27 +12661,27 @@
         <v>908</v>
       </c>
       <c r="N142" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J142 + 0.5*MAX(F142,H142)+0.1*MIN(F142,H142)) / 10</f>
         <v>12.3</v>
       </c>
       <c r="O142" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E142 + 0.25*G142 + 0.25*I142)/10</f>
         <v>10.5</v>
       </c>
       <c r="P142" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N142, 0)</f>
         <v>12</v>
       </c>
       <c r="Q142" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O142, 0)</f>
         <v>11</v>
       </c>
       <c r="R142" s="1">
-        <f t="shared" si="14"/>
+        <f>P142+Q142</f>
         <v>23</v>
       </c>
       <c r="S142" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R142-4) / 2, 0)</f>
         <v>10</v>
       </c>
     </row>
@@ -12723,27 +12723,27 @@
         <v>908</v>
       </c>
       <c r="N143" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J143 + 0.5*MAX(F143,H143)+0.1*MIN(F143,H143)) / 10</f>
         <v>12.7</v>
       </c>
       <c r="O143" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E143 + 0.25*G143 + 0.25*I143)/10</f>
         <v>10</v>
       </c>
       <c r="P143" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N143, 0)</f>
         <v>13</v>
       </c>
       <c r="Q143" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O143, 0)</f>
         <v>10</v>
       </c>
       <c r="R143" s="1">
-        <f t="shared" si="14"/>
+        <f>P143+Q143</f>
         <v>23</v>
       </c>
       <c r="S143" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R143-4) / 2, 0)</f>
         <v>10</v>
       </c>
     </row>
@@ -12785,27 +12785,27 @@
         <v>907</v>
       </c>
       <c r="N144" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J144 + 0.5*MAX(F144,H144)+0.1*MIN(F144,H144)) / 10</f>
         <v>10.48</v>
       </c>
       <c r="O144" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E144 + 0.25*G144 + 0.25*I144)/10</f>
         <v>9.85</v>
       </c>
       <c r="P144" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N144, 0)</f>
         <v>10</v>
       </c>
       <c r="Q144" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O144, 0)</f>
         <v>10</v>
       </c>
       <c r="R144" s="1">
-        <f t="shared" si="14"/>
+        <f>P144+Q144</f>
         <v>20</v>
       </c>
       <c r="S144" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R144-4) / 2, 0)</f>
         <v>8</v>
       </c>
     </row>
@@ -12844,27 +12844,27 @@
         <v>908</v>
       </c>
       <c r="N145" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J145 + 0.5*MAX(F145,H145)+0.1*MIN(F145,H145)) / 10</f>
         <v>12.8</v>
       </c>
       <c r="O145" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E145 + 0.25*G145 + 0.25*I145)/10</f>
         <v>11</v>
       </c>
       <c r="P145" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N145, 0)</f>
         <v>13</v>
       </c>
       <c r="Q145" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O145, 0)</f>
         <v>11</v>
       </c>
       <c r="R145" s="1">
-        <f t="shared" si="14"/>
+        <f>P145+Q145</f>
         <v>24</v>
       </c>
       <c r="S145" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R145-4) / 2, 0)</f>
         <v>10</v>
       </c>
       <c r="T145" t="s">
@@ -12909,27 +12909,27 @@
         <v>908</v>
       </c>
       <c r="N146" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J146 + 0.5*MAX(F146,H146)+0.1*MIN(F146,H146)) / 10</f>
         <v>10.8</v>
       </c>
       <c r="O146" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E146 + 0.25*G146 + 0.25*I146)/10</f>
         <v>12.5</v>
       </c>
       <c r="P146" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N146, 0)</f>
         <v>11</v>
       </c>
       <c r="Q146" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O146, 0)</f>
         <v>13</v>
       </c>
       <c r="R146" s="1">
-        <f t="shared" si="14"/>
+        <f>P146+Q146</f>
         <v>24</v>
       </c>
       <c r="S146" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R146-4) / 2, 0)</f>
         <v>10</v>
       </c>
     </row>
@@ -12968,26 +12968,26 @@
         <v>908</v>
       </c>
       <c r="N147" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J147 + 0.5*MAX(F147,H147)+0.1*MIN(F147,H147)) / 10</f>
         <v>7.85</v>
       </c>
       <c r="O147" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E147 + 0.25*G147 + 0.25*I147)/10</f>
         <v>12.25</v>
       </c>
       <c r="P147" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N147, 0)</f>
         <v>8</v>
       </c>
       <c r="Q147" s="2">
         <v>13</v>
       </c>
       <c r="R147" s="1">
-        <f t="shared" si="14"/>
+        <f>P147+Q147</f>
         <v>21</v>
       </c>
       <c r="S147" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R147-4) / 2, 0)</f>
         <v>9</v>
       </c>
     </row>
@@ -13029,27 +13029,27 @@
         <v>877</v>
       </c>
       <c r="N148" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J148 + 0.5*MAX(F148,H148)+0.1*MIN(F148,H148)) / 10</f>
         <v>8</v>
       </c>
       <c r="O148" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E148 + 0.25*G148 + 0.25*I148)/10</f>
         <v>8</v>
       </c>
       <c r="P148" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N148, 0)</f>
         <v>8</v>
       </c>
       <c r="Q148" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O148, 0)</f>
         <v>8</v>
       </c>
       <c r="R148" s="1">
-        <f t="shared" si="14"/>
+        <f>P148+Q148</f>
         <v>16</v>
       </c>
       <c r="S148" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R148-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -13088,27 +13088,27 @@
         <v>907</v>
       </c>
       <c r="N149" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J149 + 0.5*MAX(F149,H149)+0.1*MIN(F149,H149)) / 10</f>
         <v>10</v>
       </c>
       <c r="O149" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E149 + 0.25*G149 + 0.25*I149)/10</f>
         <v>10</v>
       </c>
       <c r="P149" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N149, 0)</f>
         <v>10</v>
       </c>
       <c r="Q149" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O149, 0)</f>
         <v>10</v>
       </c>
       <c r="R149" s="1">
-        <f t="shared" si="14"/>
+        <f>P149+Q149</f>
         <v>20</v>
       </c>
       <c r="S149" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R149-4) / 2, 0)</f>
         <v>8</v>
       </c>
     </row>
@@ -13147,27 +13147,27 @@
         <v>908</v>
       </c>
       <c r="N150" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J150 + 0.5*MAX(F150,H150)+0.1*MIN(F150,H150)) / 10</f>
         <v>12.65</v>
       </c>
       <c r="O150" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E150 + 0.25*G150 + 0.25*I150)/10</f>
         <v>8</v>
       </c>
       <c r="P150" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N150, 0)</f>
         <v>13</v>
       </c>
       <c r="Q150" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O150, 0)</f>
         <v>8</v>
       </c>
       <c r="R150" s="1">
-        <f t="shared" si="14"/>
+        <f>P150+Q150</f>
         <v>21</v>
       </c>
       <c r="S150" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R150-4) / 2, 0)</f>
         <v>9</v>
       </c>
     </row>
@@ -13206,27 +13206,27 @@
         <v>907</v>
       </c>
       <c r="N151" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J151 + 0.5*MAX(F151,H151)+0.1*MIN(F151,H151)) / 10</f>
         <v>10</v>
       </c>
       <c r="O151" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E151 + 0.25*G151 + 0.25*I151)/10</f>
         <v>10</v>
       </c>
       <c r="P151" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N151, 0)</f>
         <v>10</v>
       </c>
       <c r="Q151" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O151, 0)</f>
         <v>10</v>
       </c>
       <c r="R151" s="1">
-        <f t="shared" si="14"/>
+        <f>P151+Q151</f>
         <v>20</v>
       </c>
       <c r="S151" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R151-4) / 2, 0)</f>
         <v>8</v>
       </c>
     </row>
@@ -13265,27 +13265,27 @@
         <v>909</v>
       </c>
       <c r="N152" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J152 + 0.5*MAX(F152,H152)+0.1*MIN(F152,H152)) / 10</f>
         <v>12</v>
       </c>
       <c r="O152" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E152 + 0.25*G152 + 0.25*I152)/10</f>
         <v>12</v>
       </c>
       <c r="P152" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N152, 0)</f>
         <v>12</v>
       </c>
       <c r="Q152" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O152, 0)</f>
         <v>12</v>
       </c>
       <c r="R152" s="1">
-        <f t="shared" si="14"/>
+        <f>P152+Q152</f>
         <v>24</v>
       </c>
       <c r="S152" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R152-4) / 2, 0)</f>
         <v>10</v>
       </c>
     </row>
@@ -13330,27 +13330,27 @@
         <v>877</v>
       </c>
       <c r="N153" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J153 + 0.5*MAX(F153,H153)+0.1*MIN(F153,H153)) / 10</f>
         <v>7.2</v>
       </c>
       <c r="O153" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E153 + 0.25*G153 + 0.25*I153)/10</f>
         <v>4.25</v>
       </c>
       <c r="P153" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N153, 0)</f>
         <v>7</v>
       </c>
       <c r="Q153" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O153, 0)</f>
         <v>4</v>
       </c>
       <c r="R153" s="1">
-        <f t="shared" si="14"/>
+        <f>P153+Q153</f>
         <v>11</v>
       </c>
       <c r="S153" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R153-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -13395,27 +13395,27 @@
         <v>877</v>
       </c>
       <c r="N154" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J154 + 0.5*MAX(F154,H154)+0.1*MIN(F154,H154)) / 10</f>
         <v>10.199999999999999</v>
       </c>
       <c r="O154" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E154 + 0.25*G154 + 0.25*I154)/10</f>
         <v>7</v>
       </c>
       <c r="P154" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N154, 0)</f>
         <v>10</v>
       </c>
       <c r="Q154" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O154, 0)</f>
         <v>7</v>
       </c>
       <c r="R154" s="1">
-        <f t="shared" si="14"/>
+        <f>P154+Q154</f>
         <v>17</v>
       </c>
       <c r="S154" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R154-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>
@@ -13454,27 +13454,27 @@
         <v>908</v>
       </c>
       <c r="N155" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J155 + 0.5*MAX(F155,H155)+0.1*MIN(F155,H155)) / 10</f>
         <v>10.25</v>
       </c>
       <c r="O155" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E155 + 0.25*G155 + 0.25*I155)/10</f>
         <v>6.25</v>
       </c>
       <c r="P155" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N155, 0)</f>
         <v>10</v>
       </c>
       <c r="Q155" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O155, 0)</f>
         <v>6</v>
       </c>
       <c r="R155" s="1">
-        <f t="shared" si="14"/>
+        <f>P155+Q155</f>
         <v>16</v>
       </c>
       <c r="S155" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R155-4) / 2, 0)</f>
         <v>6</v>
       </c>
     </row>
@@ -13514,27 +13514,27 @@
       </c>
       <c r="M156" s="3"/>
       <c r="N156" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J156 + 0.5*MAX(F156,H156)+0.1*MIN(F156,H156)) / 10</f>
         <v>7.5</v>
       </c>
       <c r="O156" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E156 + 0.25*G156 + 0.25*I156)/10</f>
         <v>11.5</v>
       </c>
       <c r="P156" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N156, 0)</f>
         <v>8</v>
       </c>
       <c r="Q156" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O156, 0)</f>
         <v>12</v>
       </c>
       <c r="R156" s="1">
-        <f t="shared" si="14"/>
+        <f>P156+Q156</f>
         <v>20</v>
       </c>
       <c r="S156" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R156-4) / 2, 0)</f>
         <v>8</v>
       </c>
       <c r="T156" t="s">
@@ -13577,27 +13577,27 @@
       </c>
       <c r="M157" s="3"/>
       <c r="N157" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J157 + 0.5*MAX(F157,H157)+0.1*MIN(F157,H157)) / 10</f>
         <v>7.5</v>
       </c>
       <c r="O157" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E157 + 0.25*G157 + 0.25*I157)/10</f>
         <v>11.5</v>
       </c>
       <c r="P157" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(N157, 0)</f>
         <v>8</v>
       </c>
       <c r="Q157" s="1">
-        <f t="shared" si="16"/>
+        <f>ROUND(O157, 0)</f>
         <v>12</v>
       </c>
       <c r="R157" s="1">
-        <f t="shared" si="14"/>
+        <f>P157+Q157</f>
         <v>20</v>
       </c>
       <c r="S157" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R157-4) / 2, 0)</f>
         <v>8</v>
       </c>
       <c r="T157" t="s">
@@ -13640,26 +13640,26 @@
       </c>
       <c r="M158" s="3"/>
       <c r="N158" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J158 + 0.5*MAX(F158,H158)+0.1*MIN(F158,H158)) / 10</f>
         <v>6.5</v>
       </c>
       <c r="O158" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E158 + 0.25*G158 + 0.25*I158)/10</f>
         <v>11.5</v>
       </c>
       <c r="P158" s="2">
         <v>8</v>
       </c>
       <c r="Q158" s="1">
-        <f t="shared" ref="Q158:Q163" si="17">ROUND(O158, 0)</f>
+        <f>ROUND(O158, 0)</f>
         <v>12</v>
       </c>
       <c r="R158" s="1">
-        <f t="shared" si="14"/>
+        <f>P158+Q158</f>
         <v>20</v>
       </c>
       <c r="S158" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R158-4) / 2, 0)</f>
         <v>8</v>
       </c>
       <c r="T158" t="s">
@@ -13705,27 +13705,27 @@
         <v>875</v>
       </c>
       <c r="N159" s="6">
-        <f t="shared" ref="N159:N160" si="18">(0.4*J159 + 0.5*MAX(F159,H159)+0.1*MIN(F159,H159)) / 10</f>
+        <f>(0.4*J159 + 0.5*MAX(F159,H159)+0.1*MIN(F159,H159)) / 10</f>
         <v>6.05</v>
       </c>
       <c r="O159" s="6">
-        <f t="shared" ref="O159:O160" si="19">(0.5*E159 + 0.25*G159 + 0.25*I159)/10</f>
+        <f>(0.5*E159 + 0.25*G159 + 0.25*I159)/10</f>
         <v>1.875</v>
       </c>
       <c r="P159" s="1">
-        <f t="shared" ref="P159:P160" si="20">ROUND(N159, 0)</f>
+        <f>ROUND(N159, 0)</f>
         <v>6</v>
       </c>
       <c r="Q159" s="1">
-        <f t="shared" ref="Q159:Q160" si="21">ROUND(O159, 0)</f>
+        <f>ROUND(O159, 0)</f>
         <v>2</v>
       </c>
       <c r="R159" s="1">
-        <f t="shared" ref="R159:R160" si="22">P159+Q159</f>
+        <f>P159+Q159</f>
         <v>8</v>
       </c>
       <c r="S159" s="1">
-        <f t="shared" ref="S159:S160" si="23">ROUND((R159-4) / 2, 0)</f>
+        <f>ROUND((R159-4) / 2, 0)</f>
         <v>2</v>
       </c>
     </row>
@@ -13770,27 +13770,27 @@
         <v>875</v>
       </c>
       <c r="N160" s="6">
-        <f t="shared" si="18"/>
+        <f>(0.4*J160 + 0.5*MAX(F160,H160)+0.1*MIN(F160,H160)) / 10</f>
         <v>10.09</v>
       </c>
       <c r="O160" s="6">
-        <f t="shared" si="19"/>
+        <f>(0.5*E160 + 0.25*G160 + 0.25*I160)/10</f>
         <v>9.2249999999999996</v>
       </c>
       <c r="P160" s="1">
-        <f t="shared" si="20"/>
+        <f>ROUND(N160, 0)</f>
         <v>10</v>
       </c>
       <c r="Q160" s="1">
-        <f t="shared" si="21"/>
+        <f>ROUND(O160, 0)</f>
         <v>9</v>
       </c>
       <c r="R160" s="1">
-        <f t="shared" si="22"/>
+        <f>P160+Q160</f>
         <v>19</v>
       </c>
       <c r="S160" s="1">
-        <f t="shared" si="23"/>
+        <f>ROUND((R160-4) / 2, 0)</f>
         <v>8</v>
       </c>
     </row>
@@ -13835,27 +13835,27 @@
         <v>874</v>
       </c>
       <c r="N161" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J161 + 0.5*MAX(F161,H161)+0.1*MIN(F161,H161)) / 10</f>
         <v>4.1500000000000004</v>
       </c>
       <c r="O161" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E161 + 0.25*G161 + 0.25*I161)/10</f>
         <v>6</v>
       </c>
       <c r="P161" s="1">
-        <f t="shared" ref="P161:P163" si="24">ROUND(N161, 0)</f>
+        <f>ROUND(N161, 0)</f>
         <v>4</v>
       </c>
       <c r="Q161" s="1">
-        <f t="shared" si="17"/>
+        <f>ROUND(O161, 0)</f>
         <v>6</v>
       </c>
       <c r="R161" s="1">
-        <f t="shared" si="14"/>
+        <f>P161+Q161</f>
         <v>10</v>
       </c>
       <c r="S161" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R161-4) / 2, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -13900,27 +13900,27 @@
         <v>874</v>
       </c>
       <c r="N162" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J162 + 0.5*MAX(F162,H162)+0.1*MIN(F162,H162)) / 10</f>
         <v>6.15</v>
       </c>
       <c r="O162" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E162 + 0.25*G162 + 0.25*I162)/10</f>
         <v>8</v>
       </c>
       <c r="P162" s="1">
-        <f t="shared" si="24"/>
+        <f>ROUND(N162, 0)</f>
         <v>6</v>
       </c>
       <c r="Q162" s="1">
-        <f t="shared" si="17"/>
+        <f>ROUND(O162, 0)</f>
         <v>8</v>
       </c>
       <c r="R162" s="1">
-        <f t="shared" si="14"/>
+        <f>P162+Q162</f>
         <v>14</v>
       </c>
       <c r="S162" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R162-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -13965,27 +13965,27 @@
         <v>874</v>
       </c>
       <c r="N163" s="6">
-        <f t="shared" si="12"/>
+        <f>(0.4*J163 + 0.5*MAX(F163,H163)+0.1*MIN(F163,H163)) / 10</f>
         <v>8.15</v>
       </c>
       <c r="O163" s="6">
-        <f t="shared" si="13"/>
+        <f>(0.5*E163 + 0.25*G163 + 0.25*I163)/10</f>
         <v>10</v>
       </c>
       <c r="P163" s="1">
-        <f t="shared" si="24"/>
+        <f>ROUND(N163, 0)</f>
         <v>8</v>
       </c>
       <c r="Q163" s="1">
-        <f t="shared" si="17"/>
+        <f>ROUND(O163, 0)</f>
         <v>10</v>
       </c>
       <c r="R163" s="1">
-        <f t="shared" si="14"/>
+        <f>P163+Q163</f>
         <v>18</v>
       </c>
       <c r="S163" s="1">
-        <f t="shared" si="15"/>
+        <f>ROUND((R163-4) / 2, 0)</f>
         <v>7</v>
       </c>
     </row>

--- a/sinnoh_cube.xlsx
+++ b/sinnoh_cube.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levat\Documents\Tabletop Simulator\pokemon-legends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A226AE3-C2E1-4933-81B5-D942476C9CA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEFBDFD-0326-4F70-B703-791D421C0A63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10350" yWindow="1020" windowWidth="21600" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1020" windowWidth="21600" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sinnoh" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="921">
   <si>
     <t>attack</t>
   </si>
@@ -2784,12 +2784,45 @@
   <si>
     <t>Boss</t>
   </si>
+  <si>
+    <t>Acuity</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>3 - Snorant</t>
+  </si>
+  <si>
+    <t>3 - Swinub</t>
+  </si>
+  <si>
+    <t>7 - Piloswine</t>
+  </si>
+  <si>
+    <t>8 - Mamoswine</t>
+  </si>
+  <si>
+    <t>5 - Murkrow</t>
+  </si>
+  <si>
+    <t>7 - Honchkrow</t>
+  </si>
+  <si>
+    <t>6 - Froslass</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2928,6 +2961,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3665,8 +3704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="K134" sqref="K134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3790,26 +3829,26 @@
         <v>875</v>
       </c>
       <c r="N2" s="6">
-        <f>(0.4*J2 + 0.5*MAX(F2,H2)+0.1*MIN(F2,H2)) / 10</f>
+        <f t="shared" ref="N2:N33" si="0">(0.4*J2 + 0.5*MAX(F2,H2)+0.1*MIN(F2,H2)) / 10</f>
         <v>5.09</v>
       </c>
       <c r="O2" s="6">
-        <f>(0.5*E2 + 0.25*G2 + 0.25*I2)/10</f>
+        <f t="shared" ref="O2:O33" si="1">(0.5*E2 + 0.25*G2 + 0.25*I2)/10</f>
         <v>5.7249999999999996</v>
       </c>
       <c r="P2" s="4">
         <v>4</v>
       </c>
       <c r="Q2" s="1">
-        <f>ROUND(O2, 0)</f>
+        <f t="shared" ref="Q2:Q33" si="2">ROUND(O2, 0)</f>
         <v>6</v>
       </c>
       <c r="R2" s="1">
-        <f>P2+Q2</f>
+        <f t="shared" ref="R2:R33" si="3">P2+Q2</f>
         <v>10</v>
       </c>
       <c r="S2" s="1">
-        <f>ROUND((R2-4) / 2, 0)</f>
+        <f t="shared" ref="S2:S33" si="4">ROUND((R2-4) / 2, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -3851,27 +3890,27 @@
         <v>875</v>
       </c>
       <c r="N3" s="6">
-        <f>(0.4*J3 + 0.5*MAX(F3,H3)+0.1*MIN(F3,H3)) / 10</f>
+        <f t="shared" si="0"/>
         <v>6.44</v>
       </c>
       <c r="O3" s="6">
-        <f>(0.5*E3 + 0.25*G3 + 0.25*I3)/10</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="P3" s="1">
-        <f>ROUND(N3, 0)</f>
+        <f t="shared" ref="P3:P34" si="5">ROUND(N3, 0)</f>
         <v>6</v>
       </c>
       <c r="Q3" s="1">
-        <f>ROUND(O3, 0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="R3" s="1">
-        <f>P3+Q3</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="S3" s="1">
-        <f>ROUND((R3-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -3916,27 +3955,27 @@
         <v>875</v>
       </c>
       <c r="N4" s="6">
-        <f>(0.4*J4 + 0.5*MAX(F4,H4)+0.1*MIN(F4,H4)) / 10</f>
+        <f t="shared" si="0"/>
         <v>8.4400000000000013</v>
       </c>
       <c r="O4" s="6">
-        <f>(0.5*E4 + 0.25*G4 + 0.25*I4)/10</f>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
       <c r="P4" s="1">
-        <f>ROUND(N4, 0)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q4" s="1">
-        <f>ROUND(O4, 0)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R4" s="1">
-        <f>P4+Q4</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="S4" s="1">
-        <f>ROUND((R4-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -3978,27 +4017,27 @@
         <v>877</v>
       </c>
       <c r="N5" s="6">
-        <f>(0.4*J5 + 0.5*MAX(F5,H5)+0.1*MIN(F5,H5)) / 10</f>
+        <f t="shared" si="0"/>
         <v>5.92</v>
       </c>
       <c r="O5" s="6">
-        <f>(0.5*E5 + 0.25*G5 + 0.25*I5)/10</f>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="P5" s="1">
-        <f>ROUND(N5, 0)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q5" s="1">
-        <f>ROUND(O5, 0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="R5" s="1">
-        <f>P5+Q5</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="S5" s="1">
-        <f>ROUND((R5-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -4043,27 +4082,27 @@
         <v>877</v>
       </c>
       <c r="N6" s="6">
-        <f>(0.4*J6 + 0.5*MAX(F6,H6)+0.1*MIN(F6,H6)) / 10</f>
+        <f t="shared" si="0"/>
         <v>7.92</v>
       </c>
       <c r="O6" s="6">
-        <f>(0.5*E6 + 0.25*G6 + 0.25*I6)/10</f>
+        <f t="shared" si="1"/>
         <v>5.8</v>
       </c>
       <c r="P6" s="1">
-        <f>ROUND(N6, 0)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q6" s="1">
-        <f>ROUND(O6, 0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="R6" s="1">
-        <f>P6+Q6</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="S6" s="1">
-        <f>ROUND((R6-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -4108,27 +4147,27 @@
         <v>877</v>
       </c>
       <c r="N7" s="6">
-        <f>(0.4*J7 + 0.5*MAX(F7,H7)+0.1*MIN(F7,H7)) / 10</f>
+        <f t="shared" si="0"/>
         <v>10.56</v>
       </c>
       <c r="O7" s="6">
-        <f>(0.5*E7 + 0.25*G7 + 0.25*I7)/10</f>
+        <f t="shared" si="1"/>
         <v>7.35</v>
       </c>
       <c r="P7" s="1">
-        <f>ROUND(N7, 0)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="Q7" s="1">
-        <f>ROUND(O7, 0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="R7" s="1">
-        <f>P7+Q7</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="S7" s="1">
-        <f>ROUND((R7-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -4170,27 +4209,27 @@
         <v>874</v>
       </c>
       <c r="N8" s="6">
-        <f>(0.4*J8 + 0.5*MAX(F8,H8)+0.1*MIN(F8,H8)) / 10</f>
+        <f t="shared" si="0"/>
         <v>5.16</v>
       </c>
       <c r="O8" s="6">
-        <f>(0.5*E8 + 0.25*G8 + 0.25*I8)/10</f>
+        <f t="shared" si="1"/>
         <v>5.375</v>
       </c>
       <c r="P8" s="1">
-        <f>ROUND(N8, 0)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q8" s="1">
-        <f>ROUND(O8, 0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="R8" s="1">
-        <f>P8+Q8</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="S8" s="1">
-        <f>ROUND((R8-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -4232,27 +4271,27 @@
         <v>874</v>
       </c>
       <c r="N9" s="6">
-        <f>(0.4*J9 + 0.5*MAX(F9,H9)+0.1*MIN(F9,H9)) / 10</f>
+        <f t="shared" si="0"/>
         <v>6.7099999999999991</v>
       </c>
       <c r="O9" s="6">
-        <f>(0.5*E9 + 0.25*G9 + 0.25*I9)/10</f>
+        <f t="shared" si="1"/>
         <v>6.8</v>
       </c>
       <c r="P9" s="1">
-        <f>ROUND(N9, 0)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q9" s="1">
-        <f>ROUND(O9, 0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="R9" s="1">
-        <f>P9+Q9</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="S9" s="1">
-        <f>ROUND((R9-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -4297,27 +4336,27 @@
         <v>874</v>
       </c>
       <c r="N10" s="6">
-        <f>(0.4*J10 + 0.5*MAX(F10,H10)+0.1*MIN(F10,H10)) / 10</f>
+        <f t="shared" si="0"/>
         <v>8.8099999999999987</v>
       </c>
       <c r="O10" s="6">
-        <f>(0.5*E10 + 0.25*G10 + 0.25*I10)/10</f>
+        <f t="shared" si="1"/>
         <v>8.9250000000000007</v>
       </c>
       <c r="P10" s="1">
-        <f>ROUND(N10, 0)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="Q10" s="1">
-        <f>ROUND(O10, 0)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="R10" s="1">
-        <f>P10+Q10</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="S10" s="1">
-        <f>ROUND((R10-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -4362,27 +4401,27 @@
         <v>875</v>
       </c>
       <c r="N11" s="6">
-        <f>(0.4*J11 + 0.5*MAX(F11,H11)+0.1*MIN(F11,H11)) / 10</f>
+        <f t="shared" si="0"/>
         <v>5.45</v>
       </c>
       <c r="O11" s="6">
-        <f>(0.5*E11 + 0.25*G11 + 0.25*I11)/10</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="P11" s="1">
-        <f>ROUND(N11, 0)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q11" s="1">
-        <f>ROUND(O11, 0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="R11" s="1">
-        <f>P11+Q11</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="S11" s="1">
-        <f>ROUND((R11-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -4427,27 +4466,27 @@
         <v>875</v>
       </c>
       <c r="N12" s="6">
-        <f>(0.4*J12 + 0.5*MAX(F12,H12)+0.1*MIN(F12,H12)) / 10</f>
+        <f t="shared" si="0"/>
         <v>7.35</v>
       </c>
       <c r="O12" s="6">
-        <f>(0.5*E12 + 0.25*G12 + 0.25*I12)/10</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="P12" s="1">
-        <f>ROUND(N12, 0)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q12" s="1">
-        <f>ROUND(O12, 0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="R12" s="1">
-        <f>P12+Q12</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S12" s="1">
-        <f>ROUND((R12-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -4492,27 +4531,27 @@
         <v>875</v>
       </c>
       <c r="N13" s="6">
-        <f>(0.4*J13 + 0.5*MAX(F13,H13)+0.1*MIN(F13,H13)) / 10</f>
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
       <c r="O13" s="6">
-        <f>(0.5*E13 + 0.25*G13 + 0.25*I13)/10</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="P13" s="1">
-        <f>ROUND(N13, 0)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="Q13" s="1">
-        <f>ROUND(O13, 0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="R13" s="1">
-        <f>P13+Q13</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="S13" s="1">
-        <f>ROUND((R13-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -4554,27 +4593,27 @@
         <v>875</v>
       </c>
       <c r="N14" s="6">
-        <f>(0.4*J14 + 0.5*MAX(F14,H14)+0.1*MIN(F14,H14)) / 10</f>
+        <f t="shared" si="0"/>
         <v>3.84</v>
       </c>
       <c r="O14" s="6">
-        <f>(0.5*E14 + 0.25*G14 + 0.25*I14)/10</f>
+        <f t="shared" si="1"/>
         <v>4.95</v>
       </c>
       <c r="P14" s="1">
-        <f>ROUND(N14, 0)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q14" s="1">
-        <f>ROUND(O14, 0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="R14" s="1">
-        <f>P14+Q14</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="S14" s="1">
-        <f>ROUND((R14-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -4619,27 +4658,27 @@
         <v>875</v>
       </c>
       <c r="N15" s="6">
-        <f>(0.4*J15 + 0.5*MAX(F15,H15)+0.1*MIN(F15,H15)) / 10</f>
+        <f t="shared" si="0"/>
         <v>7.6400000000000006</v>
       </c>
       <c r="O15" s="6">
-        <f>(0.5*E15 + 0.25*G15 + 0.25*I15)/10</f>
+        <f t="shared" si="1"/>
         <v>6.95</v>
       </c>
       <c r="P15" s="1">
-        <f>ROUND(N15, 0)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q15" s="1">
-        <f>ROUND(O15, 0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="R15" s="1">
-        <f>P15+Q15</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="S15" s="1">
-        <f>ROUND((R15-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -4681,27 +4720,27 @@
         <v>875</v>
       </c>
       <c r="N16" s="6">
-        <f>(0.4*J16 + 0.5*MAX(F16,H16)+0.1*MIN(F16,H16)) / 10</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="O16" s="6">
-        <f>(0.5*E16 + 0.25*G16 + 0.25*I16)/10</f>
+        <f t="shared" si="1"/>
         <v>3.9</v>
       </c>
       <c r="P16" s="1">
-        <f>ROUND(N16, 0)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="Q16" s="1">
-        <f>ROUND(O16, 0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="R16" s="1">
-        <f>P16+Q16</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="S16" s="1">
-        <f>ROUND((R16-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -4743,27 +4782,27 @@
         <v>875</v>
       </c>
       <c r="N17" s="6">
-        <f>(0.4*J17 + 0.5*MAX(F17,H17)+0.1*MIN(F17,H17)) / 10</f>
+        <f t="shared" si="0"/>
         <v>7.4</v>
       </c>
       <c r="O17" s="6">
-        <f>(0.5*E17 + 0.25*G17 + 0.25*I17)/10</f>
+        <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
       <c r="P17" s="1">
-        <f>ROUND(N17, 0)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q17" s="1">
-        <f>ROUND(O17, 0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="R17" s="1">
-        <f>P17+Q17</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="S17" s="1">
-        <f>ROUND((R17-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -4805,27 +4844,27 @@
         <v>875</v>
       </c>
       <c r="N18" s="6">
-        <f>(0.4*J18 + 0.5*MAX(F18,H18)+0.1*MIN(F18,H18)) / 10</f>
+        <f t="shared" si="0"/>
         <v>5.45</v>
       </c>
       <c r="O18" s="6">
-        <f>(0.5*E18 + 0.25*G18 + 0.25*I18)/10</f>
+        <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
       <c r="P18" s="1">
-        <f>ROUND(N18, 0)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q18" s="1">
-        <f>ROUND(O18, 0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="R18" s="1">
-        <f>P18+Q18</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="S18" s="1">
-        <f>ROUND((R18-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -4867,27 +4906,27 @@
         <v>875</v>
       </c>
       <c r="N19" s="6">
-        <f>(0.4*J19 + 0.5*MAX(F19,H19)+0.1*MIN(F19,H19)) / 10</f>
+        <f t="shared" si="0"/>
         <v>7.25</v>
       </c>
       <c r="O19" s="6">
-        <f>(0.5*E19 + 0.25*G19 + 0.25*I19)/10</f>
+        <f t="shared" si="1"/>
         <v>5.45</v>
       </c>
       <c r="P19" s="1">
-        <f>ROUND(N19, 0)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q19" s="1">
-        <f>ROUND(O19, 0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="R19" s="1">
-        <f>P19+Q19</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S19" s="1">
-        <f>ROUND((R19-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -4929,27 +4968,27 @@
         <v>875</v>
       </c>
       <c r="N20" s="6">
-        <f>(0.4*J20 + 0.5*MAX(F20,H20)+0.1*MIN(F20,H20)) / 10</f>
+        <f t="shared" si="0"/>
         <v>9.75</v>
       </c>
       <c r="O20" s="6">
-        <f>(0.5*E20 + 0.25*G20 + 0.25*I20)/10</f>
+        <f t="shared" si="1"/>
         <v>7.95</v>
       </c>
       <c r="P20" s="1">
-        <f>ROUND(N20, 0)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="Q20" s="1">
-        <f>ROUND(O20, 0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="R20" s="1">
-        <f>P20+Q20</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="S20" s="1">
-        <f>ROUND((R20-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -4994,27 +5033,27 @@
         <v>877</v>
       </c>
       <c r="N21" s="6">
-        <f>(0.4*J21 + 0.5*MAX(F21,H21)+0.1*MIN(F21,H21)) / 10</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="O21" s="6">
-        <f>(0.5*E21 + 0.25*G21 + 0.25*I21)/10</f>
+        <f t="shared" si="1"/>
         <v>4.625</v>
       </c>
       <c r="P21" s="1">
-        <f>ROUND(N21, 0)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q21" s="1">
-        <f>ROUND(O21, 0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="R21" s="1">
-        <f>P21+Q21</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="S21" s="1">
-        <f>ROUND((R21-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5059,27 +5098,27 @@
         <v>877</v>
       </c>
       <c r="N22" s="6">
-        <f>(0.4*J22 + 0.5*MAX(F22,H22)+0.1*MIN(F22,H22)) / 10</f>
+        <f t="shared" si="0"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="O22" s="6">
-        <f>(0.5*E22 + 0.25*G22 + 0.25*I22)/10</f>
+        <f t="shared" si="1"/>
         <v>5.625</v>
       </c>
       <c r="P22" s="1">
-        <f>ROUND(N22, 0)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q22" s="1">
-        <f>ROUND(O22, 0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="R22" s="1">
-        <f>P22+Q22</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="S22" s="1">
-        <f>ROUND((R22-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -5124,27 +5163,27 @@
         <v>877</v>
       </c>
       <c r="N23" s="6">
-        <f>(0.4*J23 + 0.5*MAX(F23,H23)+0.1*MIN(F23,H23)) / 10</f>
+        <f t="shared" si="0"/>
         <v>10.55</v>
       </c>
       <c r="O23" s="6">
-        <f>(0.5*E23 + 0.25*G23 + 0.25*I23)/10</f>
+        <f t="shared" si="1"/>
         <v>7.25</v>
       </c>
       <c r="P23" s="1">
-        <f>ROUND(N23, 0)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="Q23" s="1">
-        <f>ROUND(O23, 0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="R23" s="1">
-        <f>P23+Q23</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="S23" s="1">
-        <f>ROUND((R23-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -5186,27 +5225,27 @@
         <v>875</v>
       </c>
       <c r="N24" s="6">
-        <f>(0.4*J24 + 0.5*MAX(F24,H24)+0.1*MIN(F24,H24)) / 10</f>
+        <f t="shared" si="0"/>
         <v>8.870000000000001</v>
       </c>
       <c r="O24" s="6">
-        <f>(0.5*E24 + 0.25*G24 + 0.25*I24)/10</f>
+        <f t="shared" si="1"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="P24" s="1">
-        <f>ROUND(N24, 0)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="Q24" s="1">
-        <f>ROUND(O24, 0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="R24" s="5">
-        <f>P24+Q24</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="S24" s="1">
-        <f>ROUND((R24-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -5248,27 +5287,27 @@
         <v>875</v>
       </c>
       <c r="N25" s="6">
-        <f>(0.4*J25 + 0.5*MAX(F25,H25)+0.1*MIN(F25,H25)) / 10</f>
+        <f t="shared" si="0"/>
         <v>11.22</v>
       </c>
       <c r="O25" s="6">
-        <f>(0.5*E25 + 0.25*G25 + 0.25*I25)/10</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
       <c r="P25" s="1">
-        <f>ROUND(N25, 0)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="Q25" s="1">
-        <f>ROUND(O25, 0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="R25" s="5">
-        <f>P25+Q25</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="S25" s="1">
-        <f>ROUND((R25-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -5310,27 +5349,27 @@
         <v>875</v>
       </c>
       <c r="N26" s="6">
-        <f>(0.4*J26 + 0.5*MAX(F26,H26)+0.1*MIN(F26,H26)) / 10</f>
+        <f t="shared" si="0"/>
         <v>3.72</v>
       </c>
       <c r="O26" s="6">
-        <f>(0.5*E26 + 0.25*G26 + 0.25*I26)/10</f>
+        <f t="shared" si="1"/>
         <v>6.65</v>
       </c>
       <c r="P26" s="1">
-        <f>ROUND(N26, 0)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q26" s="1">
-        <f>ROUND(O26, 0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="R26" s="5">
-        <f>P26+Q26</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="S26" s="1">
-        <f>ROUND((R26-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5372,27 +5411,27 @@
         <v>875</v>
       </c>
       <c r="N27" s="6">
-        <f>(0.4*J27 + 0.5*MAX(F27,H27)+0.1*MIN(F27,H27)) / 10</f>
+        <f t="shared" si="0"/>
         <v>4.2700000000000005</v>
       </c>
       <c r="O27" s="6">
-        <f>(0.5*E27 + 0.25*G27 + 0.25*I27)/10</f>
+        <f t="shared" si="1"/>
         <v>10.65</v>
       </c>
       <c r="P27" s="1">
-        <f>ROUND(N27, 0)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q27" s="1">
-        <f>ROUND(O27, 0)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="R27" s="5">
-        <f>P27+Q27</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="S27" s="1">
-        <f>ROUND((R27-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -5434,27 +5473,27 @@
         <v>875</v>
       </c>
       <c r="N28" s="6">
-        <f>(0.4*J28 + 0.5*MAX(F28,H28)+0.1*MIN(F28,H28)) / 10</f>
+        <f t="shared" si="0"/>
         <v>3.1799999999999997</v>
       </c>
       <c r="O28" s="6">
-        <f>(0.5*E28 + 0.25*G28 + 0.25*I28)/10</f>
+        <f t="shared" si="1"/>
         <v>4.25</v>
       </c>
       <c r="P28" s="1">
-        <f>ROUND(N28, 0)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="Q28" s="1">
-        <f>ROUND(O28, 0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="R28" s="1">
-        <f>P28+Q28</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="S28" s="1">
-        <f>ROUND((R28-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5499,27 +5538,27 @@
         <v>875</v>
       </c>
       <c r="N29" s="6">
-        <f>(0.4*J29 + 0.5*MAX(F29,H29)+0.1*MIN(F29,H29)) / 10</f>
+        <f t="shared" si="0"/>
         <v>5.58</v>
       </c>
       <c r="O29" s="6">
-        <f>(0.5*E29 + 0.25*G29 + 0.25*I29)/10</f>
+        <f t="shared" si="1"/>
         <v>7.75</v>
       </c>
       <c r="P29" s="1">
-        <f>ROUND(N29, 0)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q29" s="1">
-        <f>ROUND(O29, 0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="R29" s="1">
-        <f>P29+Q29</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="S29" s="1">
-        <f>ROUND((R29-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -5564,27 +5603,27 @@
         <v>875</v>
       </c>
       <c r="N30" s="6">
-        <f>(0.4*J30 + 0.5*MAX(F30,H30)+0.1*MIN(F30,H30)) / 10</f>
+        <f t="shared" si="0"/>
         <v>8.2800000000000011</v>
       </c>
       <c r="O30" s="6">
-        <f>(0.5*E30 + 0.25*G30 + 0.25*I30)/10</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="P30" s="1">
-        <f>ROUND(N30, 0)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q30" s="1">
-        <f>ROUND(O30, 0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="R30" s="1">
-        <f>P30+Q30</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="S30" s="1">
-        <f>ROUND((R30-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -5629,27 +5668,27 @@
         <v>875</v>
       </c>
       <c r="N31" s="6">
-        <f>(0.4*J31 + 0.5*MAX(F31,H31)+0.1*MIN(F31,H31)) / 10</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="O31" s="6">
-        <f>(0.5*E31 + 0.25*G31 + 0.25*I31)/10</f>
+        <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
       <c r="P31" s="1">
-        <f>ROUND(N31, 0)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q31" s="1">
-        <f>ROUND(O31, 0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="R31" s="1">
-        <f>P31+Q31</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="S31" s="1">
-        <f>ROUND((R31-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5694,27 +5733,27 @@
         <v>875</v>
       </c>
       <c r="N32" s="6">
-        <f>(0.4*J32 + 0.5*MAX(F32,H32)+0.1*MIN(F32,H32)) / 10</f>
+        <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
       <c r="O32" s="6">
-        <f>(0.5*E32 + 0.25*G32 + 0.25*I32)/10</f>
+        <f t="shared" si="1"/>
         <v>8.6</v>
       </c>
       <c r="P32" s="1">
-        <f>ROUND(N32, 0)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q32" s="1">
-        <f>ROUND(O32, 0)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="R32" s="1">
-        <f>P32+Q32</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="S32" s="1">
-        <f>ROUND((R32-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -5756,27 +5795,27 @@
         <v>875</v>
       </c>
       <c r="N33" s="6">
-        <f>(0.4*J33 + 0.5*MAX(F33,H33)+0.1*MIN(F33,H33)) / 10</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="O33" s="6">
-        <f>(0.5*E33 + 0.25*G33 + 0.25*I33)/10</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P33" s="1">
-        <f>ROUND(N33, 0)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q33" s="1">
-        <f>ROUND(O33, 0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="R33" s="1">
-        <f>P33+Q33</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="S33" s="1">
-        <f>ROUND((R33-4) / 2, 0)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -5818,27 +5857,27 @@
         <v>875</v>
       </c>
       <c r="N34" s="6">
-        <f>(0.4*J34 + 0.5*MAX(F34,H34)+0.1*MIN(F34,H34)) / 10</f>
+        <f t="shared" ref="N34:N65" si="6">(0.4*J34 + 0.5*MAX(F34,H34)+0.1*MIN(F34,H34)) / 10</f>
         <v>7.25</v>
       </c>
       <c r="O34" s="6">
-        <f>(0.5*E34 + 0.25*G34 + 0.25*I34)/10</f>
+        <f t="shared" ref="O34:O65" si="7">(0.5*E34 + 0.25*G34 + 0.25*I34)/10</f>
         <v>4.375</v>
       </c>
       <c r="P34" s="1">
-        <f>ROUND(N34, 0)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q34" s="1">
-        <f>ROUND(O34, 0)</f>
+        <f t="shared" ref="Q34:Q65" si="8">ROUND(O34, 0)</f>
         <v>4</v>
       </c>
       <c r="R34" s="1">
-        <f>P34+Q34</f>
+        <f t="shared" ref="R34:R65" si="9">P34+Q34</f>
         <v>11</v>
       </c>
       <c r="S34" s="1">
-        <f>ROUND((R34-4) / 2, 0)</f>
+        <f t="shared" ref="S34:S65" si="10">ROUND((R34-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -5880,27 +5919,27 @@
         <v>875</v>
       </c>
       <c r="N35" s="6">
-        <f>(0.4*J35 + 0.5*MAX(F35,H35)+0.1*MIN(F35,H35)) / 10</f>
+        <f t="shared" si="6"/>
         <v>10.7</v>
       </c>
       <c r="O35" s="6">
-        <f>(0.5*E35 + 0.25*G35 + 0.25*I35)/10</f>
+        <f t="shared" si="7"/>
         <v>6.875</v>
       </c>
       <c r="P35" s="1">
-        <f>ROUND(N35, 0)</f>
+        <f t="shared" ref="P35:P66" si="11">ROUND(N35, 0)</f>
         <v>11</v>
       </c>
       <c r="Q35" s="1">
-        <f>ROUND(O35, 0)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R35" s="1">
-        <f>P35+Q35</f>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="S35" s="1">
-        <f>ROUND((R35-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
@@ -5942,27 +5981,27 @@
         <v>877</v>
       </c>
       <c r="N36" s="6">
-        <f>(0.4*J36 + 0.5*MAX(F36,H36)+0.1*MIN(F36,H36)) / 10</f>
+        <f t="shared" si="6"/>
         <v>4.8499999999999996</v>
       </c>
       <c r="O36" s="6">
-        <f>(0.5*E36 + 0.25*G36 + 0.25*I36)/10</f>
+        <f t="shared" si="7"/>
         <v>4.7</v>
       </c>
       <c r="P36" s="1">
-        <f>ROUND(N36, 0)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="Q36" s="1">
-        <f>ROUND(O36, 0)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="R36" s="1">
-        <f>P36+Q36</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="S36" s="1">
-        <f>ROUND((R36-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -6004,27 +6043,27 @@
         <v>877</v>
       </c>
       <c r="N37" s="6">
-        <f>(0.4*J37 + 0.5*MAX(F37,H37)+0.1*MIN(F37,H37)) / 10</f>
+        <f t="shared" si="6"/>
         <v>8.35</v>
       </c>
       <c r="O37" s="6">
-        <f>(0.5*E37 + 0.25*G37 + 0.25*I37)/10</f>
+        <f t="shared" si="7"/>
         <v>7.2</v>
       </c>
       <c r="P37" s="1">
-        <f>ROUND(N37, 0)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="Q37" s="1">
-        <f>ROUND(O37, 0)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R37" s="1">
-        <f>P37+Q37</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="S37" s="1">
-        <f>ROUND((R37-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
@@ -6066,27 +6105,27 @@
         <v>874</v>
       </c>
       <c r="N38" s="6">
-        <f>(0.4*J38 + 0.5*MAX(F38,H38)+0.1*MIN(F38,H38)) / 10</f>
+        <f t="shared" si="6"/>
         <v>4.6900000000000004</v>
       </c>
       <c r="O38" s="6">
-        <f>(0.5*E38 + 0.25*G38 + 0.25*I38)/10</f>
+        <f t="shared" si="7"/>
         <v>6.55</v>
       </c>
       <c r="P38" s="1">
-        <f>ROUND(N38, 0)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="Q38" s="1">
-        <f>ROUND(O38, 0)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R38" s="1">
-        <f>P38+Q38</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="S38" s="1">
-        <f>ROUND((R38-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
@@ -6131,27 +6170,27 @@
         <v>874</v>
       </c>
       <c r="N39" s="6">
-        <f>(0.4*J39 + 0.5*MAX(F39,H39)+0.1*MIN(F39,H39)) / 10</f>
+        <f t="shared" si="6"/>
         <v>6.99</v>
       </c>
       <c r="O39" s="6">
-        <f>(0.5*E39 + 0.25*G39 + 0.25*I39)/10</f>
+        <f t="shared" si="7"/>
         <v>9.3000000000000007</v>
       </c>
       <c r="P39" s="1">
-        <f>ROUND(N39, 0)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="Q39" s="1">
-        <f>ROUND(O39, 0)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="R39" s="1">
-        <f>P39+Q39</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="S39" s="1">
-        <f>ROUND((R39-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
@@ -6193,27 +6232,27 @@
         <v>877</v>
       </c>
       <c r="N40" s="6">
-        <f>(0.4*J40 + 0.5*MAX(F40,H40)+0.1*MIN(F40,H40)) / 10</f>
+        <f t="shared" si="6"/>
         <v>4.6900000000000004</v>
       </c>
       <c r="O40" s="6">
-        <f>(0.5*E40 + 0.25*G40 + 0.25*I40)/10</f>
+        <f t="shared" si="7"/>
         <v>6.55</v>
       </c>
       <c r="P40" s="1">
-        <f>ROUND(N40, 0)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="Q40" s="1">
-        <f>ROUND(O40, 0)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R40" s="1">
-        <f>P40+Q40</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="S40" s="1">
-        <f>ROUND((R40-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
@@ -6258,27 +6297,27 @@
         <v>877</v>
       </c>
       <c r="N41" s="6">
-        <f>(0.4*J41 + 0.5*MAX(F41,H41)+0.1*MIN(F41,H41)) / 10</f>
+        <f t="shared" si="6"/>
         <v>6.99</v>
       </c>
       <c r="O41" s="6">
-        <f>(0.5*E41 + 0.25*G41 + 0.25*I41)/10</f>
+        <f t="shared" si="7"/>
         <v>9.3000000000000007</v>
       </c>
       <c r="P41" s="1">
-        <f>ROUND(N41, 0)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="Q41" s="1">
-        <f>ROUND(O41, 0)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="R41" s="1">
-        <f>P41+Q41</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="S41" s="1">
-        <f>ROUND((R41-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
@@ -6320,27 +6359,27 @@
         <v>875</v>
       </c>
       <c r="N42" s="6">
-        <f>(0.4*J42 + 0.5*MAX(F42,H42)+0.1*MIN(F42,H42)) / 10</f>
+        <f t="shared" si="6"/>
         <v>7.3</v>
       </c>
       <c r="O42" s="6">
-        <f>(0.5*E42 + 0.25*G42 + 0.25*I42)/10</f>
+        <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
       <c r="P42" s="1">
-        <f>ROUND(N42, 0)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="Q42" s="1">
-        <f>ROUND(O42, 0)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R42" s="1">
-        <f>P42+Q42</f>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="S42" s="1">
-        <f>ROUND((R42-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
@@ -6382,27 +6421,27 @@
         <v>875</v>
       </c>
       <c r="N43" s="6">
-        <f>(0.4*J43 + 0.5*MAX(F43,H43)+0.1*MIN(F43,H43)) / 10</f>
+        <f t="shared" si="6"/>
         <v>10.199999999999999</v>
       </c>
       <c r="O43" s="6">
-        <f>(0.5*E43 + 0.25*G43 + 0.25*I43)/10</f>
+        <f t="shared" si="7"/>
         <v>7.05</v>
       </c>
       <c r="P43" s="1">
-        <f>ROUND(N43, 0)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="Q43" s="1">
-        <f>ROUND(O43, 0)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R43" s="1">
-        <f>P43+Q43</f>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="S43" s="1">
-        <f>ROUND((R43-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
@@ -6447,27 +6486,27 @@
         <v>875</v>
       </c>
       <c r="N44" s="6">
-        <f>(0.4*J44 + 0.5*MAX(F44,H44)+0.1*MIN(F44,H44)) / 10</f>
+        <f t="shared" si="6"/>
         <v>6.3</v>
       </c>
       <c r="O44" s="6">
-        <f>(0.5*E44 + 0.25*G44 + 0.25*I44)/10</f>
+        <f t="shared" si="7"/>
         <v>6.45</v>
       </c>
       <c r="P44" s="1">
-        <f>ROUND(N44, 0)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="Q44" s="1">
-        <f>ROUND(O44, 0)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R44" s="1">
-        <f>P44+Q44</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="S44" s="1">
-        <f>ROUND((R44-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
@@ -6512,27 +6551,27 @@
         <v>875</v>
       </c>
       <c r="N45" s="6">
-        <f>(0.4*J45 + 0.5*MAX(F45,H45)+0.1*MIN(F45,H45)) / 10</f>
+        <f t="shared" si="6"/>
         <v>8.5</v>
       </c>
       <c r="O45" s="6">
-        <f>(0.5*E45 + 0.25*G45 + 0.25*I45)/10</f>
+        <f t="shared" si="7"/>
         <v>9.9499999999999993</v>
       </c>
       <c r="P45" s="1">
-        <f>ROUND(N45, 0)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="Q45" s="1">
-        <f>ROUND(O45, 0)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R45" s="1">
-        <f>P45+Q45</f>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="S45" s="1">
-        <f>ROUND((R45-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
@@ -6574,27 +6613,27 @@
         <v>875</v>
       </c>
       <c r="N46" s="6">
-        <f>(0.4*J46 + 0.5*MAX(F46,H46)+0.1*MIN(F46,H46)) / 10</f>
+        <f t="shared" si="6"/>
         <v>7.1400000000000006</v>
       </c>
       <c r="O46" s="6">
-        <f>(0.5*E46 + 0.25*G46 + 0.25*I46)/10</f>
+        <f t="shared" si="7"/>
         <v>5.25</v>
       </c>
       <c r="P46" s="1">
-        <f>ROUND(N46, 0)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="Q46" s="1">
-        <f>ROUND(O46, 0)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="R46" s="1">
-        <f>P46+Q46</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="S46" s="1">
-        <f>ROUND((R46-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
@@ -6636,27 +6675,27 @@
         <v>875</v>
       </c>
       <c r="N47" s="6">
-        <f>(0.4*J47 + 0.5*MAX(F47,H47)+0.1*MIN(F47,H47)) / 10</f>
+        <f t="shared" si="6"/>
         <v>8.5400000000000009</v>
       </c>
       <c r="O47" s="6">
-        <f>(0.5*E47 + 0.25*G47 + 0.25*I47)/10</f>
+        <f t="shared" si="7"/>
         <v>7.75</v>
       </c>
       <c r="P47" s="1">
-        <f>ROUND(N47, 0)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="Q47" s="1">
-        <f>ROUND(O47, 0)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="R47" s="1">
-        <f>P47+Q47</f>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="S47" s="1">
-        <f>ROUND((R47-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
@@ -6698,27 +6737,27 @@
         <v>874</v>
       </c>
       <c r="N48" s="6">
-        <f>(0.4*J48 + 0.5*MAX(F48,H48)+0.1*MIN(F48,H48)) / 10</f>
+        <f t="shared" si="6"/>
         <v>8.25</v>
       </c>
       <c r="O48" s="6">
-        <f>(0.5*E48 + 0.25*G48 + 0.25*I48)/10</f>
+        <f t="shared" si="7"/>
         <v>6.625</v>
       </c>
       <c r="P48" s="1">
-        <f>ROUND(N48, 0)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="Q48" s="1">
-        <f>ROUND(O48, 0)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R48" s="1">
-        <f>P48+Q48</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="S48" s="1">
-        <f>ROUND((R48-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
@@ -6760,27 +6799,27 @@
         <v>874</v>
       </c>
       <c r="N49" s="6">
-        <f>(0.4*J49 + 0.5*MAX(F49,H49)+0.1*MIN(F49,H49)) / 10</f>
+        <f t="shared" si="6"/>
         <v>10.050000000000001</v>
       </c>
       <c r="O49" s="6">
-        <f>(0.5*E49 + 0.25*G49 + 0.25*I49)/10</f>
+        <f t="shared" si="7"/>
         <v>7.125</v>
       </c>
       <c r="P49" s="1">
-        <f>ROUND(N49, 0)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="Q49" s="1">
-        <f>ROUND(O49, 0)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R49" s="1">
-        <f>P49+Q49</f>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="S49" s="1">
-        <f>ROUND((R49-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
@@ -6825,27 +6864,27 @@
         <v>874</v>
       </c>
       <c r="N50" s="6">
-        <f>(0.4*J50 + 0.5*MAX(F50,H50)+0.1*MIN(F50,H50)) / 10</f>
+        <f t="shared" si="6"/>
         <v>8.74</v>
       </c>
       <c r="O50" s="6">
-        <f>(0.5*E50 + 0.25*G50 + 0.25*I50)/10</f>
+        <f t="shared" si="7"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="P50" s="1">
-        <f>ROUND(N50, 0)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="Q50" s="1">
-        <f>ROUND(O50, 0)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="R50" s="1">
-        <f>P50+Q50</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="S50" s="1">
-        <f>ROUND((R50-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
@@ -6890,27 +6929,27 @@
         <v>874</v>
       </c>
       <c r="N51" s="6">
-        <f>(0.4*J51 + 0.5*MAX(F51,H51)+0.1*MIN(F51,H51)) / 10</f>
+        <f t="shared" si="6"/>
         <v>10.14</v>
       </c>
       <c r="O51" s="6">
-        <f>(0.5*E51 + 0.25*G51 + 0.25*I51)/10</f>
+        <f t="shared" si="7"/>
         <v>7.6</v>
       </c>
       <c r="P51" s="1">
-        <f>ROUND(N51, 0)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="Q51" s="1">
-        <f>ROUND(O51, 0)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="R51" s="1">
-        <f>P51+Q51</f>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="S51" s="1">
-        <f>ROUND((R51-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
@@ -6952,27 +6991,27 @@
         <v>877</v>
       </c>
       <c r="N52" s="6">
-        <f>(0.4*J52 + 0.5*MAX(F52,H52)+0.1*MIN(F52,H52)) / 10</f>
+        <f t="shared" si="6"/>
         <v>6.57</v>
       </c>
       <c r="O52" s="6">
-        <f>(0.5*E52 + 0.25*G52 + 0.25*I52)/10</f>
+        <f t="shared" si="7"/>
         <v>4.4249999999999998</v>
       </c>
       <c r="P52" s="1">
-        <f>ROUND(N52, 0)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="Q52" s="1">
-        <f>ROUND(O52, 0)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="R52" s="1">
-        <f>P52+Q52</f>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="S52" s="1">
-        <f>ROUND((R52-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
@@ -7014,27 +7053,27 @@
         <v>877</v>
       </c>
       <c r="N53" s="6">
-        <f>(0.4*J53 + 0.5*MAX(F53,H53)+0.1*MIN(F53,H53)) / 10</f>
+        <f t="shared" si="6"/>
         <v>9.2200000000000024</v>
       </c>
       <c r="O53" s="6">
-        <f>(0.5*E53 + 0.25*G53 + 0.25*I53)/10</f>
+        <f t="shared" si="7"/>
         <v>6.625</v>
       </c>
       <c r="P53" s="1">
-        <f>ROUND(N53, 0)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="Q53" s="1">
-        <f>ROUND(O53, 0)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R53" s="1">
-        <f>P53+Q53</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="S53" s="1">
-        <f>ROUND((R53-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
@@ -7076,27 +7115,27 @@
         <v>875</v>
       </c>
       <c r="N54" s="6">
-        <f>(0.4*J54 + 0.5*MAX(F54,H54)+0.1*MIN(F54,H54)) / 10</f>
+        <f t="shared" si="6"/>
         <v>5.35</v>
       </c>
       <c r="O54" s="6">
-        <f>(0.5*E54 + 0.25*G54 + 0.25*I54)/10</f>
+        <f t="shared" si="7"/>
         <v>4.75</v>
       </c>
       <c r="P54" s="1">
-        <f>ROUND(N54, 0)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="Q54" s="1">
-        <f>ROUND(O54, 0)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="R54" s="1">
-        <f>P54+Q54</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="S54" s="1">
-        <f>ROUND((R54-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="T54" t="s">
@@ -7141,27 +7180,27 @@
         <v>875</v>
       </c>
       <c r="N55" s="6">
-        <f>(0.4*J55 + 0.5*MAX(F55,H55)+0.1*MIN(F55,H55)) / 10</f>
+        <f t="shared" si="6"/>
         <v>7.85</v>
       </c>
       <c r="O55" s="6">
-        <f>(0.5*E55 + 0.25*G55 + 0.25*I55)/10</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="P55" s="1">
-        <f>ROUND(N55, 0)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="Q55" s="1">
-        <f>ROUND(O55, 0)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="R55" s="1">
-        <f>P55+Q55</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="S55" s="1">
-        <f>ROUND((R55-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="T55" t="s">
@@ -7209,27 +7248,27 @@
         <v>877</v>
       </c>
       <c r="N56" s="6">
-        <f>(0.4*J56 + 0.5*MAX(F56,H56)+0.1*MIN(F56,H56)) / 10</f>
+        <f t="shared" si="6"/>
         <v>6.5200000000000005</v>
       </c>
       <c r="O56" s="6">
-        <f>(0.5*E56 + 0.25*G56 + 0.25*I56)/10</f>
+        <f t="shared" si="7"/>
         <v>5.35</v>
       </c>
       <c r="P56" s="1">
-        <f>ROUND(N56, 0)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="Q56" s="1">
-        <f>ROUND(O56, 0)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="R56" s="1">
-        <f>P56+Q56</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="S56" s="1">
-        <f>ROUND((R56-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
@@ -7274,27 +7313,27 @@
         <v>877</v>
       </c>
       <c r="N57" s="6">
-        <f>(0.4*J57 + 0.5*MAX(F57,H57)+0.1*MIN(F57,H57)) / 10</f>
+        <f t="shared" si="6"/>
         <v>8.7199999999999989</v>
       </c>
       <c r="O57" s="6">
-        <f>(0.5*E57 + 0.25*G57 + 0.25*I57)/10</f>
+        <f t="shared" si="7"/>
         <v>8.35</v>
       </c>
       <c r="P57" s="1">
-        <f>ROUND(N57, 0)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="Q57" s="1">
-        <f>ROUND(O57, 0)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="R57" s="1">
-        <f>P57+Q57</f>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="S57" s="1">
-        <f>ROUND((R57-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
@@ -7339,27 +7378,27 @@
         <v>874</v>
       </c>
       <c r="N58" s="6">
-        <f>(0.4*J58 + 0.5*MAX(F58,H58)+0.1*MIN(F58,H58)) / 10</f>
+        <f t="shared" si="6"/>
         <v>2.3600000000000003</v>
       </c>
       <c r="O58" s="6">
-        <f>(0.5*E58 + 0.25*G58 + 0.25*I58)/10</f>
+        <f t="shared" si="7"/>
         <v>7.15</v>
       </c>
       <c r="P58" s="1">
-        <f>ROUND(N58, 0)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="Q58" s="1">
-        <f>ROUND(O58, 0)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R58" s="1">
-        <f>P58+Q58</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="S58" s="1">
-        <f>ROUND((R58-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -7404,27 +7443,27 @@
         <v>874</v>
       </c>
       <c r="N59" s="6">
-        <f>(0.4*J59 + 0.5*MAX(F59,H59)+0.1*MIN(F59,H59)) / 10</f>
+        <f t="shared" si="6"/>
         <v>6.5600000000000005</v>
       </c>
       <c r="O59" s="6">
-        <f>(0.5*E59 + 0.25*G59 + 0.25*I59)/10</f>
+        <f t="shared" si="7"/>
         <v>9.15</v>
       </c>
       <c r="P59" s="1">
-        <f>ROUND(N59, 0)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="Q59" s="1">
-        <f>ROUND(O59, 0)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="R59" s="1">
-        <f>P59+Q59</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="S59" s="1">
-        <f>ROUND((R59-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
@@ -7466,27 +7505,27 @@
         <v>875</v>
       </c>
       <c r="N60" s="6">
-        <f>(0.4*J60 + 0.5*MAX(F60,H60)+0.1*MIN(F60,H60)) / 10</f>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
       <c r="O60" s="6">
-        <f>(0.5*E60 + 0.25*G60 + 0.25*I60)/10</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="P60" s="1">
-        <f>ROUND(N60, 0)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="Q60" s="1">
-        <f>ROUND(O60, 0)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R60" s="1">
-        <f>P60+Q60</f>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="S60" s="1">
-        <f>ROUND((R60-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
@@ -7528,27 +7567,27 @@
         <v>875</v>
       </c>
       <c r="N61" s="6">
-        <f>(0.4*J61 + 0.5*MAX(F61,H61)+0.1*MIN(F61,H61)) / 10</f>
+        <f t="shared" si="6"/>
         <v>6.5</v>
       </c>
       <c r="O61" s="6">
-        <f>(0.5*E61 + 0.25*G61 + 0.25*I61)/10</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="P61" s="1">
-        <f>ROUND(N61, 0)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="Q61" s="1">
-        <f>ROUND(O61, 0)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="R61" s="1">
-        <f>P61+Q61</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="S61" s="1">
-        <f>ROUND((R61-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
@@ -7593,27 +7632,27 @@
         <v>874</v>
       </c>
       <c r="N62" s="6">
-        <f>(0.4*J62 + 0.5*MAX(F62,H62)+0.1*MIN(F62,H62)) / 10</f>
+        <f t="shared" si="6"/>
         <v>6.15</v>
       </c>
       <c r="O62" s="6">
-        <f>(0.5*E62 + 0.25*G62 + 0.25*I62)/10</f>
+        <f t="shared" si="7"/>
         <v>4.375</v>
       </c>
       <c r="P62" s="1">
-        <f>ROUND(N62, 0)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="Q62" s="1">
-        <f>ROUND(O62, 0)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="R62" s="1">
-        <f>P62+Q62</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="S62" s="1">
-        <f>ROUND((R62-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -7658,27 +7697,27 @@
         <v>874</v>
       </c>
       <c r="N63" s="6">
-        <f>(0.4*J63 + 0.5*MAX(F63,H63)+0.1*MIN(F63,H63)) / 10</f>
+        <f t="shared" si="6"/>
         <v>9.0500000000000007</v>
       </c>
       <c r="O63" s="6">
-        <f>(0.5*E63 + 0.25*G63 + 0.25*I63)/10</f>
+        <f t="shared" si="7"/>
         <v>6.625</v>
       </c>
       <c r="P63" s="1">
-        <f>ROUND(N63, 0)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="Q63" s="1">
-        <f>ROUND(O63, 0)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R63" s="1">
-        <f>P63+Q63</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="S63" s="1">
-        <f>ROUND((R63-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
@@ -7720,27 +7759,27 @@
         <v>877</v>
       </c>
       <c r="N64" s="6">
-        <f>(0.4*J64 + 0.5*MAX(F64,H64)+0.1*MIN(F64,H64)) / 10</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="O64" s="6">
-        <f>(0.5*E64 + 0.25*G64 + 0.25*I64)/10</f>
+        <f t="shared" si="7"/>
         <v>6.75</v>
       </c>
       <c r="P64" s="1">
-        <f>ROUND(N64, 0)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="Q64" s="1">
-        <f>ROUND(O64, 0)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R64" s="1">
-        <f>P64+Q64</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="S64" s="1">
-        <f>ROUND((R64-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -7782,27 +7821,27 @@
         <v>877</v>
       </c>
       <c r="N65" s="6">
-        <f>(0.4*J65 + 0.5*MAX(F65,H65)+0.1*MIN(F65,H65)) / 10</f>
+        <f t="shared" si="6"/>
         <v>3.8</v>
       </c>
       <c r="O65" s="6">
-        <f>(0.5*E65 + 0.25*G65 + 0.25*I65)/10</f>
+        <f t="shared" si="7"/>
         <v>15.25</v>
       </c>
       <c r="P65" s="1">
-        <f>ROUND(N65, 0)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="Q65" s="1">
-        <f>ROUND(O65, 0)</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="R65" s="1">
-        <f>P65+Q65</f>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="S65" s="1">
-        <f>ROUND((R65-4) / 2, 0)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
@@ -7844,27 +7883,27 @@
         <v>877</v>
       </c>
       <c r="N66" s="6">
-        <f>(0.4*J66 + 0.5*MAX(F66,H66)+0.1*MIN(F66,H66)) / 10</f>
+        <f t="shared" ref="N66:N97" si="12">(0.4*J66 + 0.5*MAX(F66,H66)+0.1*MIN(F66,H66)) / 10</f>
         <v>6.05</v>
       </c>
       <c r="O66" s="6">
-        <f>(0.5*E66 + 0.25*G66 + 0.25*I66)/10</f>
+        <f t="shared" ref="O66:O97" si="13">(0.5*E66 + 0.25*G66 + 0.25*I66)/10</f>
         <v>16.375</v>
       </c>
       <c r="P66" s="1">
-        <f>ROUND(N66, 0)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="Q66" s="1">
-        <f>ROUND(O66, 0)</f>
+        <f t="shared" ref="Q66:Q97" si="14">ROUND(O66, 0)</f>
         <v>16</v>
       </c>
       <c r="R66" s="1">
-        <f>P66+Q66</f>
+        <f t="shared" ref="R66:R97" si="15">P66+Q66</f>
         <v>22</v>
       </c>
       <c r="S66" s="1">
-        <f>ROUND((R66-4) / 2, 0)</f>
+        <f t="shared" ref="S66:S97" si="16">ROUND((R66-4) / 2, 0)</f>
         <v>9</v>
       </c>
     </row>
@@ -7909,27 +7948,27 @@
         <v>877</v>
       </c>
       <c r="N67" s="6">
-        <f>(0.4*J67 + 0.5*MAX(F67,H67)+0.1*MIN(F67,H67)) / 10</f>
+        <f t="shared" si="12"/>
         <v>8.89</v>
       </c>
       <c r="O67" s="6">
-        <f>(0.5*E67 + 0.25*G67 + 0.25*I67)/10</f>
+        <f t="shared" si="13"/>
         <v>5.9749999999999996</v>
       </c>
       <c r="P67" s="1">
-        <f>ROUND(N67, 0)</f>
+        <f t="shared" ref="P67:P98" si="17">ROUND(N67, 0)</f>
         <v>9</v>
       </c>
       <c r="Q67" s="1">
-        <f>ROUND(O67, 0)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="R67" s="1">
-        <f>P67+Q67</f>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="S67" s="1">
-        <f>ROUND((R67-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
     </row>
@@ -7974,27 +8013,27 @@
         <v>874</v>
       </c>
       <c r="N68" s="6">
-        <f>(0.4*J68 + 0.5*MAX(F68,H68)+0.1*MIN(F68,H68)) / 10</f>
+        <f t="shared" si="12"/>
         <v>6.92</v>
       </c>
       <c r="O68" s="6">
-        <f>(0.5*E68 + 0.25*G68 + 0.25*I68)/10</f>
+        <f t="shared" si="13"/>
         <v>7.9</v>
       </c>
       <c r="P68" s="1">
-        <f>ROUND(N68, 0)</f>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="Q68" s="1">
-        <f>ROUND(O68, 0)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="R68" s="1">
-        <f>P68+Q68</f>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="S68" s="1">
-        <f>ROUND((R68-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="T68" t="s">
@@ -8042,27 +8081,27 @@
         <v>875</v>
       </c>
       <c r="N69" s="6">
-        <f>(0.4*J69 + 0.5*MAX(F69,H69)+0.1*MIN(F69,H69)) / 10</f>
+        <f t="shared" si="12"/>
         <v>5.58</v>
       </c>
       <c r="O69" s="6">
-        <f>(0.5*E69 + 0.25*G69 + 0.25*I69)/10</f>
+        <f t="shared" si="13"/>
         <v>5.15</v>
       </c>
       <c r="P69" s="1">
-        <f>ROUND(N69, 0)</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="Q69" s="1">
-        <f>ROUND(O69, 0)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="R69" s="1">
-        <f>P69+Q69</f>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="S69" s="1">
-        <f>ROUND((R69-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
     </row>
@@ -8107,27 +8146,27 @@
         <v>875</v>
       </c>
       <c r="N70" s="6">
-        <f>(0.4*J70 + 0.5*MAX(F70,H70)+0.1*MIN(F70,H70)) / 10</f>
+        <f t="shared" si="12"/>
         <v>8.2800000000000011</v>
       </c>
       <c r="O70" s="6">
-        <f>(0.5*E70 + 0.25*G70 + 0.25*I70)/10</f>
+        <f t="shared" si="13"/>
         <v>6.4</v>
       </c>
       <c r="P70" s="1">
-        <f>ROUND(N70, 0)</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="Q70" s="1">
-        <f>ROUND(O70, 0)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="R70" s="1">
-        <f>P70+Q70</f>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="S70" s="1">
-        <f>ROUND((R70-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
     </row>
@@ -8172,27 +8211,27 @@
         <v>875</v>
       </c>
       <c r="N71" s="6">
-        <f>(0.4*J71 + 0.5*MAX(F71,H71)+0.1*MIN(F71,H71)) / 10</f>
+        <f t="shared" si="12"/>
         <v>11.38</v>
       </c>
       <c r="O71" s="6">
-        <f>(0.5*E71 + 0.25*G71 + 0.25*I71)/10</f>
+        <f t="shared" si="13"/>
         <v>9.9</v>
       </c>
       <c r="P71" s="1">
-        <f>ROUND(N71, 0)</f>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="Q71" s="1">
-        <f>ROUND(O71, 0)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="R71" s="1">
-        <f>P71+Q71</f>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="S71" s="1">
-        <f>ROUND((R71-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
     </row>
@@ -8234,27 +8273,27 @@
         <v>875</v>
       </c>
       <c r="N72" s="6">
-        <f>(0.4*J72 + 0.5*MAX(F72,H72)+0.1*MIN(F72,H72)) / 10</f>
+        <f t="shared" si="12"/>
         <v>4.8499999999999996</v>
       </c>
       <c r="O72" s="6">
-        <f>(0.5*E72 + 0.25*G72 + 0.25*I72)/10</f>
+        <f t="shared" si="13"/>
         <v>9.875</v>
       </c>
       <c r="P72" s="1">
-        <f>ROUND(N72, 0)</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="Q72" s="1">
-        <f>ROUND(O72, 0)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="R72" s="1">
-        <f>P72+Q72</f>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="S72" s="1">
-        <f>ROUND((R72-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
     </row>
@@ -8296,27 +8335,27 @@
         <v>875</v>
       </c>
       <c r="N73" s="6">
-        <f>(0.4*J73 + 0.5*MAX(F73,H73)+0.1*MIN(F73,H73)) / 10</f>
+        <f t="shared" si="12"/>
         <v>7.35</v>
       </c>
       <c r="O73" s="6">
-        <f>(0.5*E73 + 0.25*G73 + 0.25*I73)/10</f>
+        <f t="shared" si="13"/>
         <v>12.375</v>
       </c>
       <c r="P73" s="1">
-        <f>ROUND(N73, 0)</f>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="Q73" s="1">
-        <f>ROUND(O73, 0)</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="R73" s="1">
-        <f>P73+Q73</f>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="S73" s="1">
-        <f>ROUND((R73-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
     </row>
@@ -8358,27 +8397,27 @@
         <v>874</v>
       </c>
       <c r="N74" s="6">
-        <f>(0.4*J74 + 0.5*MAX(F74,H74)+0.1*MIN(F74,H74)) / 10</f>
+        <f t="shared" si="12"/>
         <v>6.25</v>
       </c>
       <c r="O74" s="6">
-        <f>(0.5*E74 + 0.25*G74 + 0.25*I74)/10</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P74" s="1">
-        <f>ROUND(N74, 0)</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="Q74" s="1">
-        <f>ROUND(O74, 0)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="R74" s="1">
-        <f>P74+Q74</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="S74" s="1">
-        <f>ROUND((R74-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
     </row>
@@ -8423,27 +8462,27 @@
         <v>874</v>
       </c>
       <c r="N75" s="6">
-        <f>(0.4*J75 + 0.5*MAX(F75,H75)+0.1*MIN(F75,H75)) / 10</f>
+        <f t="shared" si="12"/>
         <v>10.45</v>
       </c>
       <c r="O75" s="6">
-        <f>(0.5*E75 + 0.25*G75 + 0.25*I75)/10</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="P75" s="1">
-        <f>ROUND(N75, 0)</f>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="Q75" s="1">
-        <f>ROUND(O75, 0)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="R75" s="1">
-        <f>P75+Q75</f>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="S75" s="1">
-        <f>ROUND((R75-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -8485,27 +8524,27 @@
         <v>877</v>
       </c>
       <c r="N76" s="6">
-        <f>(0.4*J76 + 0.5*MAX(F76,H76)+0.1*MIN(F76,H76)) / 10</f>
+        <f t="shared" si="12"/>
         <v>5.26</v>
       </c>
       <c r="O76" s="6">
-        <f>(0.5*E76 + 0.25*G76 + 0.25*I76)/10</f>
+        <f t="shared" si="13"/>
         <v>6.4</v>
       </c>
       <c r="P76" s="1">
-        <f>ROUND(N76, 0)</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="Q76" s="1">
-        <f>ROUND(O76, 0)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="R76" s="1">
-        <f>P76+Q76</f>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="S76" s="1">
-        <f>ROUND((R76-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
     </row>
@@ -8547,27 +8586,27 @@
         <v>877</v>
       </c>
       <c r="N77" s="6">
-        <f>(0.4*J77 + 0.5*MAX(F77,H77)+0.1*MIN(F77,H77)) / 10</f>
+        <f t="shared" si="12"/>
         <v>8.16</v>
       </c>
       <c r="O77" s="6">
-        <f>(0.5*E77 + 0.25*G77 + 0.25*I77)/10</f>
+        <f t="shared" si="13"/>
         <v>10.15</v>
       </c>
       <c r="P77" s="1">
-        <f>ROUND(N77, 0)</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="Q77" s="1">
-        <f>ROUND(O77, 0)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="R77" s="1">
-        <f>P77+Q77</f>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
       <c r="S77" s="1">
-        <f>ROUND((R77-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -8612,27 +8651,27 @@
         <v>877</v>
       </c>
       <c r="N78" s="6">
-        <f>(0.4*J78 + 0.5*MAX(F78,H78)+0.1*MIN(F78,H78)) / 10</f>
+        <f t="shared" si="12"/>
         <v>5.4</v>
       </c>
       <c r="O78" s="6">
-        <f>(0.5*E78 + 0.25*G78 + 0.25*I78)/10</f>
+        <f t="shared" si="13"/>
         <v>5.625</v>
       </c>
       <c r="P78" s="1">
-        <f>ROUND(N78, 0)</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="Q78" s="1">
-        <f>ROUND(O78, 0)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="R78" s="1">
-        <f>P78+Q78</f>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="S78" s="1">
-        <f>ROUND((R78-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
     </row>
@@ -8677,27 +8716,27 @@
         <v>877</v>
       </c>
       <c r="N79" s="6">
-        <f>(0.4*J79 + 0.5*MAX(F79,H79)+0.1*MIN(F79,H79)) / 10</f>
+        <f t="shared" si="12"/>
         <v>8.9</v>
       </c>
       <c r="O79" s="6">
-        <f>(0.5*E79 + 0.25*G79 + 0.25*I79)/10</f>
+        <f t="shared" si="13"/>
         <v>8.125</v>
       </c>
       <c r="P79" s="1">
-        <f>ROUND(N79, 0)</f>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="Q79" s="1">
-        <f>ROUND(O79, 0)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="R79" s="1">
-        <f>P79+Q79</f>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="S79" s="1">
-        <f>ROUND((R79-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -8742,27 +8781,27 @@
         <v>877</v>
       </c>
       <c r="N80" s="6">
-        <f>(0.4*J80 + 0.5*MAX(F80,H80)+0.1*MIN(F80,H80)) / 10</f>
+        <f t="shared" si="12"/>
         <v>5.66</v>
       </c>
       <c r="O80" s="6">
-        <f>(0.5*E80 + 0.25*G80 + 0.25*I80)/10</f>
+        <f t="shared" si="13"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="P80" s="1">
-        <f>ROUND(N80, 0)</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="Q80" s="1">
-        <f>ROUND(O80, 0)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="R80" s="1">
-        <f>P80+Q80</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="S80" s="1">
-        <f>ROUND((R80-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
     </row>
@@ -8807,27 +8846,27 @@
         <v>877</v>
       </c>
       <c r="N81" s="6">
-        <f>(0.4*J81 + 0.5*MAX(F81,H81)+0.1*MIN(F81,H81)) / 10</f>
+        <f t="shared" si="12"/>
         <v>9.5599999999999987</v>
       </c>
       <c r="O81" s="6">
-        <f>(0.5*E81 + 0.25*G81 + 0.25*I81)/10</f>
+        <f t="shared" si="13"/>
         <v>7.4</v>
       </c>
       <c r="P81" s="1">
-        <f>ROUND(N81, 0)</f>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="Q81" s="1">
-        <f>ROUND(O81, 0)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="R81" s="1">
-        <f>P81+Q81</f>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="S81" s="1">
-        <f>ROUND((R81-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -8869,27 +8908,27 @@
         <v>877</v>
       </c>
       <c r="N82" s="6">
-        <f>(0.4*J82 + 0.5*MAX(F82,H82)+0.1*MIN(F82,H82)) / 10</f>
+        <f t="shared" si="12"/>
         <v>7.74</v>
       </c>
       <c r="O82" s="6">
-        <f>(0.5*E82 + 0.25*G82 + 0.25*I82)/10</f>
+        <f t="shared" si="13"/>
         <v>7.3</v>
       </c>
       <c r="P82" s="1">
-        <f>ROUND(N82, 0)</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="Q82" s="1">
-        <f>ROUND(O82, 0)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="R82" s="1">
-        <f>P82+Q82</f>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="S82" s="1">
-        <f>ROUND((R82-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
     </row>
@@ -8931,27 +8970,27 @@
         <v>877</v>
       </c>
       <c r="N83" s="6">
-        <f>(0.4*J83 + 0.5*MAX(F83,H83)+0.1*MIN(F83,H83)) / 10</f>
+        <f t="shared" si="12"/>
         <v>5.58</v>
       </c>
       <c r="O83" s="6">
-        <f>(0.5*E83 + 0.25*G83 + 0.25*I83)/10</f>
+        <f t="shared" si="13"/>
         <v>5.375</v>
       </c>
       <c r="P83" s="1">
-        <f>ROUND(N83, 0)</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="Q83" s="1">
-        <f>ROUND(O83, 0)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="R83" s="1">
-        <f>P83+Q83</f>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="S83" s="1">
-        <f>ROUND((R83-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
     </row>
@@ -8993,27 +9032,27 @@
         <v>877</v>
       </c>
       <c r="N84" s="6">
-        <f>(0.4*J84 + 0.5*MAX(F84,H84)+0.1*MIN(F84,H84)) / 10</f>
+        <f t="shared" si="12"/>
         <v>7.7800000000000011</v>
       </c>
       <c r="O84" s="6">
-        <f>(0.5*E84 + 0.25*G84 + 0.25*I84)/10</f>
+        <f t="shared" si="13"/>
         <v>7.5</v>
       </c>
       <c r="P84" s="1">
-        <f>ROUND(N84, 0)</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="Q84" s="1">
-        <f>ROUND(O84, 0)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="R84" s="1">
-        <f>P84+Q84</f>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="S84" s="1">
-        <f>ROUND((R84-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
     </row>
@@ -9058,27 +9097,27 @@
         <v>875</v>
       </c>
       <c r="N85" s="6">
-        <f>(0.4*J85 + 0.5*MAX(F85,H85)+0.1*MIN(F85,H85)) / 10</f>
+        <f t="shared" si="12"/>
         <v>5.2</v>
       </c>
       <c r="O85" s="6">
-        <f>(0.5*E85 + 0.25*G85 + 0.25*I85)/10</f>
+        <f t="shared" si="13"/>
         <v>6.5</v>
       </c>
       <c r="P85" s="1">
-        <f>ROUND(N85, 0)</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="Q85" s="1">
-        <f>ROUND(O85, 0)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="R85" s="1">
-        <f>P85+Q85</f>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="S85" s="1">
-        <f>ROUND((R85-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
     </row>
@@ -9123,27 +9162,27 @@
         <v>875</v>
       </c>
       <c r="N86" s="6">
-        <f>(0.4*J86 + 0.5*MAX(F86,H86)+0.1*MIN(F86,H86)) / 10</f>
+        <f t="shared" si="12"/>
         <v>7.2</v>
       </c>
       <c r="O86" s="6">
-        <f>(0.5*E86 + 0.25*G86 + 0.25*I86)/10</f>
+        <f t="shared" si="13"/>
         <v>9.5</v>
       </c>
       <c r="P86" s="1">
-        <f>ROUND(N86, 0)</f>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="Q86" s="1">
-        <f>ROUND(O86, 0)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="R86" s="1">
-        <f>P86+Q86</f>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="S86" s="1">
-        <f>ROUND((R86-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -9188,27 +9227,27 @@
         <v>874</v>
       </c>
       <c r="N87" s="6">
-        <f>(0.4*J87 + 0.5*MAX(F87,H87)+0.1*MIN(F87,H87)) / 10</f>
+        <f t="shared" si="12"/>
         <v>5.32</v>
       </c>
       <c r="O87" s="6">
-        <f>(0.5*E87 + 0.25*G87 + 0.25*I87)/10</f>
+        <f t="shared" si="13"/>
         <v>5.75</v>
       </c>
       <c r="P87" s="1">
-        <f>ROUND(N87, 0)</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="Q87" s="1">
-        <f>ROUND(O87, 0)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="R87" s="1">
-        <f>P87+Q87</f>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="S87" s="1">
-        <f>ROUND((R87-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
     </row>
@@ -9253,27 +9292,27 @@
         <v>874</v>
       </c>
       <c r="N88" s="6">
-        <f>(0.4*J88 + 0.5*MAX(F88,H88)+0.1*MIN(F88,H88)) / 10</f>
+        <f t="shared" si="12"/>
         <v>7.92</v>
       </c>
       <c r="O88" s="6">
-        <f>(0.5*E88 + 0.25*G88 + 0.25*I88)/10</f>
+        <f t="shared" si="13"/>
         <v>8.5</v>
       </c>
       <c r="P88" s="1">
-        <f>ROUND(N88, 0)</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="Q88" s="1">
-        <f>ROUND(O88, 0)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="R88" s="1">
-        <f>P88+Q88</f>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="S88" s="1">
-        <f>ROUND((R88-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -9318,27 +9357,27 @@
         <v>874</v>
       </c>
       <c r="N89" s="6">
-        <f>(0.4*J89 + 0.5*MAX(F89,H89)+0.1*MIN(F89,H89)) / 10</f>
+        <f t="shared" si="12"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="O89" s="6">
-        <f>(0.5*E89 + 0.25*G89 + 0.25*I89)/10</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="P89" s="1">
-        <f>ROUND(N89, 0)</f>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="Q89" s="1">
-        <f>ROUND(O89, 0)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="R89" s="1">
-        <f>P89+Q89</f>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="S89" s="1">
-        <f>ROUND((R89-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
     </row>
@@ -9383,27 +9422,27 @@
         <v>874</v>
       </c>
       <c r="N90" s="6">
-        <f>(0.4*J90 + 0.5*MAX(F90,H90)+0.1*MIN(F90,H90)) / 10</f>
+        <f t="shared" si="12"/>
         <v>11.45</v>
       </c>
       <c r="O90" s="6">
-        <f>(0.5*E90 + 0.25*G90 + 0.25*I90)/10</f>
+        <f t="shared" si="13"/>
         <v>7.25</v>
       </c>
       <c r="P90" s="1">
-        <f>ROUND(N90, 0)</f>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="Q90" s="1">
-        <f>ROUND(O90, 0)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="R90" s="1">
-        <f>P90+Q90</f>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
       <c r="S90" s="1">
-        <f>ROUND((R90-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -9448,27 +9487,27 @@
         <v>877</v>
       </c>
       <c r="N91" s="6">
-        <f>(0.4*J91 + 0.5*MAX(F91,H91)+0.1*MIN(F91,H91)) / 10</f>
+        <f t="shared" si="12"/>
         <v>6.9</v>
       </c>
       <c r="O91" s="6">
-        <f>(0.5*E91 + 0.25*G91 + 0.25*I91)/10</f>
+        <f t="shared" si="13"/>
         <v>4.375</v>
       </c>
       <c r="P91" s="1">
-        <f>ROUND(N91, 0)</f>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="Q91" s="1">
-        <f>ROUND(O91, 0)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="R91" s="1">
-        <f>P91+Q91</f>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="S91" s="1">
-        <f>ROUND((R91-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
     </row>
@@ -9513,27 +9552,27 @@
         <v>877</v>
       </c>
       <c r="N92" s="6">
-        <f>(0.4*J92 + 0.5*MAX(F92,H92)+0.1*MIN(F92,H92)) / 10</f>
+        <f t="shared" si="12"/>
         <v>9.4</v>
       </c>
       <c r="O92" s="6">
-        <f>(0.5*E92 + 0.25*G92 + 0.25*I92)/10</f>
+        <f t="shared" si="13"/>
         <v>6.625</v>
       </c>
       <c r="P92" s="1">
-        <f>ROUND(N92, 0)</f>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="Q92" s="1">
-        <f>ROUND(O92, 0)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="R92" s="1">
-        <f>P92+Q92</f>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="S92" s="1">
-        <f>ROUND((R92-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
     </row>
@@ -9578,27 +9617,27 @@
         <v>877</v>
       </c>
       <c r="N93" s="6">
-        <f>(0.4*J93 + 0.5*MAX(F93,H93)+0.1*MIN(F93,H93)) / 10</f>
+        <f t="shared" si="12"/>
         <v>9.6</v>
       </c>
       <c r="O93" s="6">
-        <f>(0.5*E93 + 0.25*G93 + 0.25*I93)/10</f>
+        <f t="shared" si="13"/>
         <v>8.625</v>
       </c>
       <c r="P93" s="1">
-        <f>ROUND(N93, 0)</f>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="Q93" s="1">
-        <f>ROUND(O93, 0)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="R93" s="1">
-        <f>P93+Q93</f>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="S93" s="1">
-        <f>ROUND((R93-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
     </row>
@@ -9640,27 +9679,27 @@
         <v>875</v>
       </c>
       <c r="N94" s="6">
-        <f>(0.4*J94 + 0.5*MAX(F94,H94)+0.1*MIN(F94,H94)) / 10</f>
+        <f t="shared" si="12"/>
         <v>4.75</v>
       </c>
       <c r="O94" s="6">
-        <f>(0.5*E94 + 0.25*G94 + 0.25*I94)/10</f>
+        <f t="shared" si="13"/>
         <v>8.25</v>
       </c>
       <c r="P94" s="1">
-        <f>ROUND(N94, 0)</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="Q94" s="1">
-        <f>ROUND(O94, 0)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="R94" s="1">
-        <f>P94+Q94</f>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="S94" s="1">
-        <f>ROUND((R94-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
     </row>
@@ -9702,27 +9741,27 @@
         <v>875</v>
       </c>
       <c r="N95" s="6">
-        <f>(0.4*J95 + 0.5*MAX(F95,H95)+0.1*MIN(F95,H95)) / 10</f>
+        <f t="shared" si="12"/>
         <v>7.05</v>
       </c>
       <c r="O95" s="6">
-        <f>(0.5*E95 + 0.25*G95 + 0.25*I95)/10</f>
+        <f t="shared" si="13"/>
         <v>10.25</v>
       </c>
       <c r="P95" s="1">
-        <f>ROUND(N95, 0)</f>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="Q95" s="1">
-        <f>ROUND(O95, 0)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="R95" s="1">
-        <f>P95+Q95</f>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="S95" s="1">
-        <f>ROUND((R95-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -9767,27 +9806,27 @@
         <v>875</v>
       </c>
       <c r="N96" s="6">
-        <f>(0.4*J96 + 0.5*MAX(F96,H96)+0.1*MIN(F96,H96)) / 10</f>
+        <f t="shared" si="12"/>
         <v>5.55</v>
       </c>
       <c r="O96" s="6">
-        <f>(0.5*E96 + 0.25*G96 + 0.25*I96)/10</f>
+        <f t="shared" si="13"/>
         <v>7.125</v>
       </c>
       <c r="P96" s="1">
-        <f>ROUND(N96, 0)</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="Q96" s="1">
-        <f>ROUND(O96, 0)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="R96" s="1">
-        <f>P96+Q96</f>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="S96" s="1">
-        <f>ROUND((R96-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
     </row>
@@ -9832,27 +9871,27 @@
         <v>875</v>
       </c>
       <c r="N97" s="6">
-        <f>(0.4*J97 + 0.5*MAX(F97,H97)+0.1*MIN(F97,H97)) / 10</f>
+        <f t="shared" si="12"/>
         <v>8.5500000000000007</v>
       </c>
       <c r="O97" s="6">
-        <f>(0.5*E97 + 0.25*G97 + 0.25*I97)/10</f>
+        <f t="shared" si="13"/>
         <v>9.375</v>
       </c>
       <c r="P97" s="1">
-        <f>ROUND(N97, 0)</f>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="Q97" s="1">
-        <f>ROUND(O97, 0)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="R97" s="1">
-        <f>P97+Q97</f>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
       <c r="S97" s="1">
-        <f>ROUND((R97-4) / 2, 0)</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -9897,27 +9936,27 @@
         <v>875</v>
       </c>
       <c r="N98" s="6">
-        <f>(0.4*J98 + 0.5*MAX(F98,H98)+0.1*MIN(F98,H98)) / 10</f>
+        <f t="shared" ref="N98:N129" si="18">(0.4*J98 + 0.5*MAX(F98,H98)+0.1*MIN(F98,H98)) / 10</f>
         <v>9.15</v>
       </c>
       <c r="O98" s="6">
-        <f>(0.5*E98 + 0.25*G98 + 0.25*I98)/10</f>
+        <f t="shared" ref="O98:O129" si="19">(0.5*E98 + 0.25*G98 + 0.25*I98)/10</f>
         <v>10.375</v>
       </c>
       <c r="P98" s="1">
-        <f>ROUND(N98, 0)</f>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="Q98" s="1">
-        <f>ROUND(O98, 0)</f>
+        <f t="shared" ref="Q98:Q116" si="20">ROUND(O98, 0)</f>
         <v>10</v>
       </c>
       <c r="R98" s="1">
-        <f>P98+Q98</f>
+        <f t="shared" ref="R98:R129" si="21">P98+Q98</f>
         <v>19</v>
       </c>
       <c r="S98" s="1">
-        <f>ROUND((R98-4) / 2, 0)</f>
+        <f t="shared" ref="S98:S129" si="22">ROUND((R98-4) / 2, 0)</f>
         <v>8</v>
       </c>
     </row>
@@ -9959,27 +9998,27 @@
         <v>877</v>
       </c>
       <c r="N99" s="6">
-        <f>(0.4*J99 + 0.5*MAX(F99,H99)+0.1*MIN(F99,H99)) / 10</f>
+        <f t="shared" si="18"/>
         <v>7.95</v>
       </c>
       <c r="O99" s="6">
-        <f>(0.5*E99 + 0.25*G99 + 0.25*I99)/10</f>
+        <f t="shared" si="19"/>
         <v>7.125</v>
       </c>
       <c r="P99" s="1">
-        <f>ROUND(N99, 0)</f>
+        <f t="shared" ref="P99:P112" si="23">ROUND(N99, 0)</f>
         <v>8</v>
       </c>
       <c r="Q99" s="1">
-        <f>ROUND(O99, 0)</f>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="R99" s="1">
-        <f>P99+Q99</f>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="S99" s="1">
-        <f>ROUND((R99-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
     </row>
@@ -10021,27 +10060,27 @@
         <v>877</v>
       </c>
       <c r="N100" s="6">
-        <f>(0.4*J100 + 0.5*MAX(F100,H100)+0.1*MIN(F100,H100)) / 10</f>
+        <f t="shared" si="18"/>
         <v>8.5</v>
       </c>
       <c r="O100" s="6">
-        <f>(0.5*E100 + 0.25*G100 + 0.25*I100)/10</f>
+        <f t="shared" si="19"/>
         <v>9.375</v>
       </c>
       <c r="P100" s="1">
-        <f>ROUND(N100, 0)</f>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="Q100" s="1">
-        <f>ROUND(O100, 0)</f>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="R100" s="1">
-        <f>P100+Q100</f>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="S100" s="1">
-        <f>ROUND((R100-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
     </row>
@@ -10083,27 +10122,27 @@
         <v>877</v>
       </c>
       <c r="N101" s="6">
-        <f>(0.4*J101 + 0.5*MAX(F101,H101)+0.1*MIN(F101,H101)) / 10</f>
+        <f t="shared" si="18"/>
         <v>7.68</v>
       </c>
       <c r="O101" s="6">
-        <f>(0.5*E101 + 0.25*G101 + 0.25*I101)/10</f>
+        <f t="shared" si="19"/>
         <v>4.55</v>
       </c>
       <c r="P101" s="1">
-        <f>ROUND(N101, 0)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="Q101" s="1">
-        <f>ROUND(O101, 0)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="R101" s="1">
-        <f>P101+Q101</f>
+        <f t="shared" si="21"/>
         <v>13</v>
       </c>
       <c r="S101" s="1">
-        <f>ROUND((R101-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
     </row>
@@ -10145,27 +10184,27 @@
         <v>877</v>
       </c>
       <c r="N102" s="6">
-        <f>(0.4*J102 + 0.5*MAX(F102,H102)+0.1*MIN(F102,H102)) / 10</f>
+        <f t="shared" si="18"/>
         <v>9.7799999999999994</v>
       </c>
       <c r="O102" s="6">
-        <f>(0.5*E102 + 0.25*G102 + 0.25*I102)/10</f>
+        <f t="shared" si="19"/>
         <v>6.8</v>
       </c>
       <c r="P102" s="1">
-        <f>ROUND(N102, 0)</f>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="Q102" s="1">
-        <f>ROUND(O102, 0)</f>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="R102" s="1">
-        <f>P102+Q102</f>
+        <f t="shared" si="21"/>
         <v>17</v>
       </c>
       <c r="S102" s="1">
-        <f>ROUND((R102-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
     </row>
@@ -10207,27 +10246,27 @@
         <v>877</v>
       </c>
       <c r="N103" s="6">
-        <f>(0.4*J103 + 0.5*MAX(F103,H103)+0.1*MIN(F103,H103)) / 10</f>
+        <f t="shared" si="18"/>
         <v>10.9</v>
       </c>
       <c r="O103" s="6">
-        <f>(0.5*E103 + 0.25*G103 + 0.25*I103)/10</f>
+        <f t="shared" si="19"/>
         <v>7.55</v>
       </c>
       <c r="P103" s="1">
-        <f>ROUND(N103, 0)</f>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="Q103" s="1">
-        <f>ROUND(O103, 0)</f>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="R103" s="1">
-        <f>P103+Q103</f>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="S103" s="1">
-        <f>ROUND((R103-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
     </row>
@@ -10269,27 +10308,27 @@
         <v>877</v>
       </c>
       <c r="N104" s="6">
-        <f>(0.4*J104 + 0.5*MAX(F104,H104)+0.1*MIN(F104,H104)) / 10</f>
+        <f t="shared" si="18"/>
         <v>7.7700000000000005</v>
       </c>
       <c r="O104" s="6">
-        <f>(0.5*E104 + 0.25*G104 + 0.25*I104)/10</f>
+        <f t="shared" si="19"/>
         <v>4.55</v>
       </c>
       <c r="P104" s="1">
-        <f>ROUND(N104, 0)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="Q104" s="1">
-        <f>ROUND(O104, 0)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="R104" s="1">
-        <f>P104+Q104</f>
+        <f t="shared" si="21"/>
         <v>13</v>
       </c>
       <c r="S104" s="1">
-        <f>ROUND((R104-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
     </row>
@@ -10331,27 +10370,27 @@
         <v>877</v>
       </c>
       <c r="N105" s="6">
-        <f>(0.4*J105 + 0.5*MAX(F105,H105)+0.1*MIN(F105,H105)) / 10</f>
+        <f t="shared" si="18"/>
         <v>9.67</v>
       </c>
       <c r="O105" s="6">
-        <f>(0.5*E105 + 0.25*G105 + 0.25*I105)/10</f>
+        <f t="shared" si="19"/>
         <v>6.8</v>
       </c>
       <c r="P105" s="1">
-        <f>ROUND(N105, 0)</f>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="Q105" s="1">
-        <f>ROUND(O105, 0)</f>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="R105" s="1">
-        <f>P105+Q105</f>
+        <f t="shared" si="21"/>
         <v>17</v>
       </c>
       <c r="S105" s="1">
-        <f>ROUND((R105-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
     </row>
@@ -10393,27 +10432,27 @@
         <v>877</v>
       </c>
       <c r="N106" s="6">
-        <f>(0.4*J106 + 0.5*MAX(F106,H106)+0.1*MIN(F106,H106)) / 10</f>
+        <f t="shared" si="18"/>
         <v>10.52</v>
       </c>
       <c r="O106" s="6">
-        <f>(0.5*E106 + 0.25*G106 + 0.25*I106)/10</f>
+        <f t="shared" si="19"/>
         <v>7.8</v>
       </c>
       <c r="P106" s="1">
-        <f>ROUND(N106, 0)</f>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="Q106" s="1">
-        <f>ROUND(O106, 0)</f>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="R106" s="1">
-        <f>P106+Q106</f>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="S106" s="1">
-        <f>ROUND((R106-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
     </row>
@@ -10455,27 +10494,27 @@
         <v>877</v>
       </c>
       <c r="N107" s="6">
-        <f>(0.4*J107 + 0.5*MAX(F107,H107)+0.1*MIN(F107,H107)) / 10</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="O107" s="6">
-        <f>(0.5*E107 + 0.25*G107 + 0.25*I107)/10</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="P107" s="1">
-        <f>ROUND(N107, 0)</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="Q107" s="1">
-        <f>ROUND(O107, 0)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="R107" s="1">
-        <f>P107+Q107</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="S107" s="1">
-        <f>ROUND((R107-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
     </row>
@@ -10520,27 +10559,27 @@
         <v>877</v>
       </c>
       <c r="N108" s="6">
-        <f>(0.4*J108 + 0.5*MAX(F108,H108)+0.1*MIN(F108,H108)) / 10</f>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="O108" s="6">
-        <f>(0.5*E108 + 0.25*G108 + 0.25*I108)/10</f>
+        <f t="shared" si="19"/>
         <v>7.5</v>
       </c>
       <c r="P108" s="1">
-        <f>ROUND(N108, 0)</f>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="Q108" s="1">
-        <f>ROUND(O108, 0)</f>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="R108" s="1">
-        <f>P108+Q108</f>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="S108" s="1">
-        <f>ROUND((R108-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
     </row>
@@ -10585,27 +10624,27 @@
         <v>877</v>
       </c>
       <c r="N109" s="6">
-        <f>(0.4*J109 + 0.5*MAX(F109,H109)+0.1*MIN(F109,H109)) / 10</f>
+        <f t="shared" si="18"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="O109" s="6">
-        <f>(0.5*E109 + 0.25*G109 + 0.25*I109)/10</f>
+        <f t="shared" si="19"/>
         <v>9.5</v>
       </c>
       <c r="P109" s="1">
-        <f>ROUND(N109, 0)</f>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="Q109" s="1">
-        <f>ROUND(O109, 0)</f>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="R109" s="1">
-        <f>P109+Q109</f>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
       <c r="S109" s="1">
-        <f>ROUND((R109-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
     </row>
@@ -10650,27 +10689,27 @@
         <v>877</v>
       </c>
       <c r="N110" s="6">
-        <f>(0.4*J110 + 0.5*MAX(F110,H110)+0.1*MIN(F110,H110)) / 10</f>
+        <f t="shared" si="18"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="O110" s="6">
-        <f>(0.5*E110 + 0.25*G110 + 0.25*I110)/10</f>
+        <f t="shared" si="19"/>
         <v>5.5</v>
       </c>
       <c r="P110" s="1">
-        <f>ROUND(N110, 0)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="Q110" s="1">
-        <f>ROUND(O110, 0)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="R110" s="1">
-        <f>P110+Q110</f>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="S110" s="1">
-        <f>ROUND((R110-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
     </row>
@@ -10715,27 +10754,27 @@
         <v>877</v>
       </c>
       <c r="N111" s="6">
-        <f>(0.4*J111 + 0.5*MAX(F111,H111)+0.1*MIN(F111,H111)) / 10</f>
+        <f t="shared" si="18"/>
         <v>10.36</v>
       </c>
       <c r="O111" s="6">
-        <f>(0.5*E111 + 0.25*G111 + 0.25*I111)/10</f>
+        <f t="shared" si="19"/>
         <v>7.85</v>
       </c>
       <c r="P111" s="1">
-        <f>ROUND(N111, 0)</f>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="Q111" s="1">
-        <f>ROUND(O111, 0)</f>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="R111" s="1">
-        <f>P111+Q111</f>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="S111" s="1">
-        <f>ROUND((R111-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
     </row>
@@ -10777,27 +10816,27 @@
         <v>875</v>
       </c>
       <c r="N112" s="6">
-        <f>(0.4*J112 + 0.5*MAX(F112,H112)+0.1*MIN(F112,H112)) / 10</f>
+        <f t="shared" si="18"/>
         <v>5.4</v>
       </c>
       <c r="O112" s="6">
-        <f>(0.5*E112 + 0.25*G112 + 0.25*I112)/10</f>
+        <f t="shared" si="19"/>
         <v>5.625</v>
       </c>
       <c r="P112" s="1">
-        <f>ROUND(N112, 0)</f>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="Q112" s="1">
-        <f>ROUND(O112, 0)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="R112" s="1">
-        <f>P112+Q112</f>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="S112" s="1">
-        <f>ROUND((R112-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
     </row>
@@ -10839,26 +10878,26 @@
         <v>877</v>
       </c>
       <c r="N113" s="6">
-        <f>(0.4*J113 + 0.5*MAX(F113,H113)+0.1*MIN(F113,H113)) / 10</f>
+        <f t="shared" si="18"/>
         <v>8.75</v>
       </c>
       <c r="O113" s="6">
-        <f>(0.5*E113 + 0.25*G113 + 0.25*I113)/10</f>
+        <f t="shared" si="19"/>
         <v>10.375</v>
       </c>
       <c r="P113" s="2">
         <v>8</v>
       </c>
       <c r="Q113" s="1">
-        <f>ROUND(O113, 0)</f>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="R113" s="3">
-        <f>P113+Q113</f>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="S113" s="1">
-        <f>ROUND((R113-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
     </row>
@@ -10900,11 +10939,11 @@
         <v>877</v>
       </c>
       <c r="N114" s="6">
-        <f>(0.4*J114 + 0.5*MAX(F114,H114)+0.1*MIN(F114,H114)) / 10</f>
+        <f t="shared" si="18"/>
         <v>11.35</v>
       </c>
       <c r="O114" s="6">
-        <f>(0.5*E114 + 0.25*G114 + 0.25*I114)/10</f>
+        <f t="shared" si="19"/>
         <v>7.125</v>
       </c>
       <c r="P114" s="1">
@@ -10912,15 +10951,15 @@
         <v>11</v>
       </c>
       <c r="Q114" s="1">
-        <f>ROUND(O114, 0)</f>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="R114" s="3">
-        <f>P114+Q114</f>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="S114" s="1">
-        <f>ROUND((R114-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
     </row>
@@ -10962,11 +11001,11 @@
         <v>877</v>
       </c>
       <c r="N115" s="6">
-        <f>(0.4*J115 + 0.5*MAX(F115,H115)+0.1*MIN(F115,H115)) / 10</f>
+        <f t="shared" si="18"/>
         <v>10.050000000000001</v>
       </c>
       <c r="O115" s="6">
-        <f>(0.5*E115 + 0.25*G115 + 0.25*I115)/10</f>
+        <f t="shared" si="19"/>
         <v>7.5</v>
       </c>
       <c r="P115" s="1">
@@ -10974,15 +11013,15 @@
         <v>10</v>
       </c>
       <c r="Q115" s="1">
-        <f>ROUND(O115, 0)</f>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="R115" s="3">
-        <f>P115+Q115</f>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="S115" s="1">
-        <f>ROUND((R115-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
     </row>
@@ -11024,26 +11063,26 @@
         <v>875</v>
       </c>
       <c r="N116" s="6">
-        <f>(0.4*J116 + 0.5*MAX(F116,H116)+0.1*MIN(F116,H116)) / 10</f>
+        <f t="shared" si="18"/>
         <v>11.55</v>
       </c>
       <c r="O116" s="6">
-        <f>(0.5*E116 + 0.25*G116 + 0.25*I116)/10</f>
+        <f t="shared" si="19"/>
         <v>7.125</v>
       </c>
       <c r="P116" s="2">
         <v>11</v>
       </c>
       <c r="Q116" s="1">
-        <f>ROUND(O116, 0)</f>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="R116" s="3">
-        <f>P116+Q116</f>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="S116" s="1">
-        <f>ROUND((R116-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
     </row>
@@ -11085,26 +11124,26 @@
         <v>875</v>
       </c>
       <c r="N117" s="6">
-        <f>(0.4*J117 + 0.5*MAX(F117,H117)+0.1*MIN(F117,H117)) / 10</f>
+        <f t="shared" si="18"/>
         <v>6.45</v>
       </c>
       <c r="O117" s="6">
-        <f>(0.5*E117 + 0.25*G117 + 0.25*I117)/10</f>
+        <f t="shared" si="19"/>
         <v>10.75</v>
       </c>
       <c r="P117" s="1">
-        <f>ROUND(N117, 0)</f>
+        <f t="shared" ref="P117:P157" si="24">ROUND(N117, 0)</f>
         <v>6</v>
       </c>
       <c r="Q117" s="2">
         <v>12</v>
       </c>
       <c r="R117" s="3">
-        <f>P117+Q117</f>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="S117" s="1">
-        <f>ROUND((R117-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
     </row>
@@ -11146,27 +11185,27 @@
         <v>874</v>
       </c>
       <c r="N118" s="6">
-        <f>(0.4*J118 + 0.5*MAX(F118,H118)+0.1*MIN(F118,H118)) / 10</f>
+        <f t="shared" si="18"/>
         <v>9.9</v>
       </c>
       <c r="O118" s="6">
-        <f>(0.5*E118 + 0.25*G118 + 0.25*I118)/10</f>
+        <f t="shared" si="19"/>
         <v>8.125</v>
       </c>
       <c r="P118" s="1">
-        <f>ROUND(N118, 0)</f>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="Q118" s="1">
-        <f>ROUND(O118, 0)</f>
+        <f t="shared" ref="Q118:Q146" si="25">ROUND(O118, 0)</f>
         <v>8</v>
       </c>
       <c r="R118" s="3">
-        <f>P118+Q118</f>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="S118" s="1">
-        <f>ROUND((R118-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
     </row>
@@ -11208,27 +11247,27 @@
         <v>874</v>
       </c>
       <c r="N119" s="6">
-        <f>(0.4*J119 + 0.5*MAX(F119,H119)+0.1*MIN(F119,H119)) / 10</f>
+        <f t="shared" si="18"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="O119" s="6">
-        <f>(0.5*E119 + 0.25*G119 + 0.25*I119)/10</f>
+        <f t="shared" si="19"/>
         <v>8.375</v>
       </c>
       <c r="P119" s="1">
-        <f>ROUND(N119, 0)</f>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="Q119" s="1">
-        <f>ROUND(O119, 0)</f>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="R119" s="3">
-        <f>P119+Q119</f>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="S119" s="1">
-        <f>ROUND((R119-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
     </row>
@@ -11273,27 +11312,27 @@
         <v>875</v>
       </c>
       <c r="N120" s="6">
-        <f>(0.4*J120 + 0.5*MAX(F120,H120)+0.1*MIN(F120,H120)) / 10</f>
+        <f t="shared" si="18"/>
         <v>7.5</v>
       </c>
       <c r="O120" s="6">
-        <f>(0.5*E120 + 0.25*G120 + 0.25*I120)/10</f>
+        <f t="shared" si="19"/>
         <v>7.5</v>
       </c>
       <c r="P120" s="1">
-        <f>ROUND(N120, 0)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="Q120" s="1">
-        <f>ROUND(O120, 0)</f>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="R120" s="1">
-        <f>P120+Q120</f>
+        <f t="shared" si="21"/>
         <v>16</v>
       </c>
       <c r="S120" s="1">
-        <f>ROUND((R120-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
     </row>
@@ -11338,27 +11377,27 @@
         <v>875</v>
       </c>
       <c r="N121" s="6">
-        <f>(0.4*J121 + 0.5*MAX(F121,H121)+0.1*MIN(F121,H121)) / 10</f>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="O121" s="6">
-        <f>(0.5*E121 + 0.25*G121 + 0.25*I121)/10</f>
+        <f t="shared" si="19"/>
         <v>8.75</v>
       </c>
       <c r="P121" s="1">
-        <f>ROUND(N121, 0)</f>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="Q121" s="1">
-        <f>ROUND(O121, 0)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="R121" s="1">
-        <f>P121+Q121</f>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="S121" s="1">
-        <f>ROUND((R121-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
     </row>
@@ -11403,27 +11442,27 @@
         <v>874</v>
       </c>
       <c r="N122" s="6">
-        <f>(0.4*J122 + 0.5*MAX(F122,H122)+0.1*MIN(F122,H122)) / 10</f>
+        <f t="shared" si="18"/>
         <v>4.8</v>
       </c>
       <c r="O122" s="6">
-        <f>(0.5*E122 + 0.25*G122 + 0.25*I122)/10</f>
+        <f t="shared" si="19"/>
         <v>4.25</v>
       </c>
       <c r="P122" s="1">
-        <f>ROUND(N122, 0)</f>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="Q122" s="1">
-        <f>ROUND(O122, 0)</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="R122" s="1">
-        <f>P122+Q122</f>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="S122" s="1">
-        <f>ROUND((R122-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
     </row>
@@ -11468,27 +11507,27 @@
         <v>874</v>
       </c>
       <c r="N123" s="6">
-        <f>(0.4*J123 + 0.5*MAX(F123,H123)+0.1*MIN(F123,H123)) / 10</f>
+        <f t="shared" si="18"/>
         <v>7.6</v>
       </c>
       <c r="O123" s="6">
-        <f>(0.5*E123 + 0.25*G123 + 0.25*I123)/10</f>
+        <f t="shared" si="19"/>
         <v>8.5</v>
       </c>
       <c r="P123" s="1">
-        <f>ROUND(N123, 0)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="Q123" s="1">
-        <f>ROUND(O123, 0)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="R123" s="1">
-        <f>P123+Q123</f>
+        <f t="shared" si="21"/>
         <v>17</v>
       </c>
       <c r="S123" s="1">
-        <f>ROUND((R123-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
     </row>
@@ -11533,27 +11572,27 @@
         <v>874</v>
       </c>
       <c r="N124" s="6">
-        <f>(0.4*J124 + 0.5*MAX(F124,H124)+0.1*MIN(F124,H124)) / 10</f>
+        <f t="shared" si="18"/>
         <v>10.4</v>
       </c>
       <c r="O124" s="6">
-        <f>(0.5*E124 + 0.25*G124 + 0.25*I124)/10</f>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="P124" s="1">
-        <f>ROUND(N124, 0)</f>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="Q124" s="1">
-        <f>ROUND(O124, 0)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="R124" s="1">
-        <f>P124+Q124</f>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="S124" s="1">
-        <f>ROUND((R124-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
     </row>
@@ -11595,27 +11634,27 @@
         <v>875</v>
       </c>
       <c r="N125" s="6">
-        <f>(0.4*J125 + 0.5*MAX(F125,H125)+0.1*MIN(F125,H125)) / 10</f>
+        <f t="shared" si="18"/>
         <v>11.15</v>
       </c>
       <c r="O125" s="6">
-        <f>(0.5*E125 + 0.25*G125 + 0.25*I125)/10</f>
+        <f t="shared" si="19"/>
         <v>7.875</v>
       </c>
       <c r="P125" s="1">
-        <f>ROUND(N125, 0)</f>
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
       <c r="Q125" s="1">
-        <f>ROUND(O125, 0)</f>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="R125" s="1">
-        <f>P125+Q125</f>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="S125" s="1">
-        <f>ROUND((R125-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
     </row>
@@ -11660,27 +11699,27 @@
         <v>875</v>
       </c>
       <c r="N126" s="6">
-        <f>(0.4*J126 + 0.5*MAX(F126,H126)+0.1*MIN(F126,H126)) / 10</f>
+        <f t="shared" si="18"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="O126" s="6">
-        <f>(0.5*E126 + 0.25*G126 + 0.25*I126)/10</f>
+        <f t="shared" si="19"/>
         <v>2.9</v>
       </c>
       <c r="P126" s="1">
-        <f>ROUND(N126, 0)</f>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="Q126" s="1">
-        <f>ROUND(O126, 0)</f>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="R126" s="1">
-        <f>P126+Q126</f>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="S126" s="1">
-        <f>ROUND((R126-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
     </row>
@@ -11725,27 +11764,27 @@
         <v>875</v>
       </c>
       <c r="N127" s="6">
-        <f>(0.4*J127 + 0.5*MAX(F127,H127)+0.1*MIN(F127,H127)) / 10</f>
+        <f t="shared" si="18"/>
         <v>5.6</v>
       </c>
       <c r="O127" s="6">
-        <f>(0.5*E127 + 0.25*G127 + 0.25*I127)/10</f>
+        <f t="shared" si="19"/>
         <v>4.1500000000000004</v>
       </c>
       <c r="P127" s="1">
-        <f>ROUND(N127, 0)</f>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="Q127" s="1">
-        <f>ROUND(O127, 0)</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="R127" s="1">
-        <f>P127+Q127</f>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="S127" s="1">
-        <f>ROUND((R127-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
     </row>
@@ -11790,27 +11829,27 @@
         <v>875</v>
       </c>
       <c r="N128" s="6">
-        <f>(0.4*J128 + 0.5*MAX(F128,H128)+0.1*MIN(F128,H128)) / 10</f>
+        <f t="shared" si="18"/>
         <v>10.1</v>
       </c>
       <c r="O128" s="6">
-        <f>(0.5*E128 + 0.25*G128 + 0.25*I128)/10</f>
+        <f t="shared" si="19"/>
         <v>7.9</v>
       </c>
       <c r="P128" s="1">
-        <f>ROUND(N128, 0)</f>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="Q128" s="1">
-        <f>ROUND(O128, 0)</f>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="R128" s="1">
-        <f>P128+Q128</f>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="S128" s="1">
-        <f>ROUND((R128-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
     </row>
@@ -11855,27 +11894,27 @@
         <v>875</v>
       </c>
       <c r="N129" s="6">
-        <f>(0.4*J129 + 0.5*MAX(F129,H129)+0.1*MIN(F129,H129)) / 10</f>
+        <f t="shared" si="18"/>
         <v>10.1</v>
       </c>
       <c r="O129" s="6">
-        <f>(0.5*E129 + 0.25*G129 + 0.25*I129)/10</f>
+        <f t="shared" si="19"/>
         <v>7.9</v>
       </c>
       <c r="P129" s="1">
-        <f>ROUND(N129, 0)</f>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="Q129" s="1">
-        <f>ROUND(O129, 0)</f>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="R129" s="1">
-        <f>P129+Q129</f>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="S129" s="1">
-        <f>ROUND((R129-4) / 2, 0)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
     </row>
@@ -11917,27 +11956,27 @@
         <v>874</v>
       </c>
       <c r="N130" s="6">
-        <f>(0.4*J130 + 0.5*MAX(F130,H130)+0.1*MIN(F130,H130)) / 10</f>
+        <f t="shared" ref="N130:N163" si="26">(0.4*J130 + 0.5*MAX(F130,H130)+0.1*MIN(F130,H130)) / 10</f>
         <v>3.9</v>
       </c>
       <c r="O130" s="6">
-        <f>(0.5*E130 + 0.25*G130 + 0.25*I130)/10</f>
+        <f t="shared" ref="O130:O163" si="27">(0.5*E130 + 0.25*G130 + 0.25*I130)/10</f>
         <v>7.125</v>
       </c>
       <c r="P130" s="1">
-        <f>ROUND(N130, 0)</f>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="Q130" s="1">
-        <f>ROUND(O130, 0)</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="R130" s="1">
-        <f>P130+Q130</f>
+        <f t="shared" ref="R130:R161" si="28">P130+Q130</f>
         <v>11</v>
       </c>
       <c r="S130" s="1">
-        <f>ROUND((R130-4) / 2, 0)</f>
+        <f t="shared" ref="S130:S161" si="29">ROUND((R130-4) / 2, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -11982,27 +12021,27 @@
         <v>874</v>
       </c>
       <c r="N131" s="6">
-        <f>(0.4*J131 + 0.5*MAX(F131,H131)+0.1*MIN(F131,H131)) / 10</f>
+        <f t="shared" si="26"/>
         <v>5.9</v>
       </c>
       <c r="O131" s="6">
-        <f>(0.5*E131 + 0.25*G131 + 0.25*I131)/10</f>
+        <f t="shared" si="27"/>
         <v>10.375</v>
       </c>
       <c r="P131" s="1">
-        <f>ROUND(N131, 0)</f>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="Q131" s="1">
-        <f>ROUND(O131, 0)</f>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="R131" s="1">
-        <f>P131+Q131</f>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="S131" s="1">
-        <f>ROUND((R131-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
     </row>
@@ -12044,27 +12083,27 @@
         <v>874</v>
       </c>
       <c r="N132" s="6">
-        <f>(0.4*J132 + 0.5*MAX(F132,H132)+0.1*MIN(F132,H132)) / 10</f>
+        <f t="shared" si="26"/>
         <v>3.3</v>
       </c>
       <c r="O132" s="6">
-        <f>(0.5*E132 + 0.25*G132 + 0.25*I132)/10</f>
+        <f t="shared" si="27"/>
         <v>5.5</v>
       </c>
       <c r="P132" s="1">
-        <f>ROUND(N132, 0)</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="Q132" s="1">
-        <f>ROUND(O132, 0)</f>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="R132" s="1">
-        <f>P132+Q132</f>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="S132" s="1">
-        <f>ROUND((R132-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
     </row>
@@ -12106,27 +12145,27 @@
         <v>874</v>
       </c>
       <c r="N133" s="6">
-        <f>(0.4*J133 + 0.5*MAX(F133,H133)+0.1*MIN(F133,H133)) / 10</f>
+        <f t="shared" si="26"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="O133" s="6">
-        <f>(0.5*E133 + 0.25*G133 + 0.25*I133)/10</f>
+        <f t="shared" si="27"/>
         <v>8.5</v>
       </c>
       <c r="P133" s="1">
-        <f>ROUND(N133, 0)</f>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="Q133" s="1">
-        <f>ROUND(O133, 0)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="R133" s="1">
-        <f>P133+Q133</f>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="S133" s="1">
-        <f>ROUND((R133-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
     </row>
@@ -12168,27 +12207,27 @@
         <v>874</v>
       </c>
       <c r="N134" s="6">
-        <f>(0.4*J134 + 0.5*MAX(F134,H134)+0.1*MIN(F134,H134)) / 10</f>
+        <f t="shared" si="26"/>
         <v>7.45</v>
       </c>
       <c r="O134" s="6">
-        <f>(0.5*E134 + 0.25*G134 + 0.25*I134)/10</f>
+        <f t="shared" si="27"/>
         <v>9</v>
       </c>
       <c r="P134" s="1">
-        <f>ROUND(N134, 0)</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="Q134" s="1">
-        <f>ROUND(O134, 0)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="R134" s="1">
-        <f>P134+Q134</f>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="S134" s="1">
-        <f>ROUND((R134-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
     </row>
@@ -12230,27 +12269,27 @@
         <v>874</v>
       </c>
       <c r="N135" s="6">
-        <f>(0.4*J135 + 0.5*MAX(F135,H135)+0.1*MIN(F135,H135)) / 10</f>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="O135" s="6">
-        <f>(0.5*E135 + 0.25*G135 + 0.25*I135)/10</f>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="P135" s="1">
-        <f>ROUND(N135, 0)</f>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="Q135" s="1">
-        <f>ROUND(O135, 0)</f>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="R135" s="1">
-        <f>P135+Q135</f>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="S135" s="1">
-        <f>ROUND((R135-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
     </row>
@@ -12292,27 +12331,27 @@
         <v>874</v>
       </c>
       <c r="N136" s="6">
-        <f>(0.4*J136 + 0.5*MAX(F136,H136)+0.1*MIN(F136,H136)) / 10</f>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="O136" s="6">
-        <f>(0.5*E136 + 0.25*G136 + 0.25*I136)/10</f>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="P136" s="1">
-        <f>ROUND(N136, 0)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="Q136" s="1">
-        <f>ROUND(O136, 0)</f>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="R136" s="1">
-        <f>P136+Q136</f>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="S136" s="1">
-        <f>ROUND((R136-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
     </row>
@@ -12357,27 +12396,27 @@
         <v>874</v>
       </c>
       <c r="N137" s="6">
-        <f>(0.4*J137 + 0.5*MAX(F137,H137)+0.1*MIN(F137,H137)) / 10</f>
+        <f t="shared" si="26"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="O137" s="6">
-        <f>(0.5*E137 + 0.25*G137 + 0.25*I137)/10</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="P137" s="1">
-        <f>ROUND(N137, 0)</f>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="Q137" s="1">
-        <f>ROUND(O137, 0)</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="R137" s="1">
-        <f>P137+Q137</f>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="S137" s="1">
-        <f>ROUND((R137-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
     </row>
@@ -12422,27 +12461,27 @@
         <v>874</v>
       </c>
       <c r="N138" s="6">
-        <f>(0.4*J138 + 0.5*MAX(F138,H138)+0.1*MIN(F138,H138)) / 10</f>
+        <f t="shared" si="26"/>
         <v>9.34</v>
       </c>
       <c r="O138" s="6">
-        <f>(0.5*E138 + 0.25*G138 + 0.25*I138)/10</f>
+        <f t="shared" si="27"/>
         <v>7.85</v>
       </c>
       <c r="P138" s="1">
-        <f>ROUND(N138, 0)</f>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="Q138" s="1">
-        <f>ROUND(O138, 0)</f>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="R138" s="1">
-        <f>P138+Q138</f>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
       <c r="S138" s="1">
-        <f>ROUND((R138-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>7</v>
       </c>
     </row>
@@ -12481,27 +12520,27 @@
         <v>909</v>
       </c>
       <c r="N139" s="6">
-        <f>(0.4*J139 + 0.5*MAX(F139,H139)+0.1*MIN(F139,H139)) / 10</f>
+        <f t="shared" si="26"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="O139" s="6">
-        <f>(0.5*E139 + 0.25*G139 + 0.25*I139)/10</f>
+        <f t="shared" si="27"/>
         <v>10.25</v>
       </c>
       <c r="P139" s="1">
-        <f>ROUND(N139, 0)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="Q139" s="1">
-        <f>ROUND(O139, 0)</f>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="R139" s="5">
-        <f>P139+Q139</f>
+        <f t="shared" si="28"/>
         <v>18</v>
       </c>
       <c r="S139" s="1">
-        <f>ROUND((R139-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>7</v>
       </c>
     </row>
@@ -12540,27 +12579,27 @@
         <v>909</v>
       </c>
       <c r="N140" s="6">
-        <f>(0.4*J140 + 0.5*MAX(F140,H140)+0.1*MIN(F140,H140)) / 10</f>
+        <f t="shared" si="26"/>
         <v>9.5</v>
       </c>
       <c r="O140" s="6">
-        <f>(0.5*E140 + 0.25*G140 + 0.25*I140)/10</f>
+        <f t="shared" si="27"/>
         <v>9.25</v>
       </c>
       <c r="P140" s="1">
-        <f>ROUND(N140, 0)</f>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="Q140" s="1">
-        <f>ROUND(O140, 0)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="R140" s="5">
-        <f>P140+Q140</f>
+        <f t="shared" si="28"/>
         <v>19</v>
       </c>
       <c r="S140" s="1">
-        <f>ROUND((R140-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
     </row>
@@ -12599,27 +12638,27 @@
         <v>909</v>
       </c>
       <c r="N141" s="6">
-        <f>(0.4*J141 + 0.5*MAX(F141,H141)+0.1*MIN(F141,H141)) / 10</f>
+        <f t="shared" si="26"/>
         <v>12.1</v>
       </c>
       <c r="O141" s="6">
-        <f>(0.5*E141 + 0.25*G141 + 0.25*I141)/10</f>
+        <f t="shared" si="27"/>
         <v>7.25</v>
       </c>
       <c r="P141" s="1">
-        <f>ROUND(N141, 0)</f>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="Q141" s="1">
-        <f>ROUND(O141, 0)</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="R141" s="5">
-        <f>P141+Q141</f>
+        <f t="shared" si="28"/>
         <v>19</v>
       </c>
       <c r="S141" s="1">
-        <f>ROUND((R141-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
     </row>
@@ -12661,27 +12700,27 @@
         <v>908</v>
       </c>
       <c r="N142" s="6">
-        <f>(0.4*J142 + 0.5*MAX(F142,H142)+0.1*MIN(F142,H142)) / 10</f>
+        <f t="shared" si="26"/>
         <v>12.3</v>
       </c>
       <c r="O142" s="6">
-        <f>(0.5*E142 + 0.25*G142 + 0.25*I142)/10</f>
+        <f t="shared" si="27"/>
         <v>10.5</v>
       </c>
       <c r="P142" s="1">
-        <f>ROUND(N142, 0)</f>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="Q142" s="1">
-        <f>ROUND(O142, 0)</f>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="R142" s="1">
-        <f>P142+Q142</f>
+        <f t="shared" si="28"/>
         <v>23</v>
       </c>
       <c r="S142" s="1">
-        <f>ROUND((R142-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
     </row>
@@ -12723,27 +12762,27 @@
         <v>908</v>
       </c>
       <c r="N143" s="6">
-        <f>(0.4*J143 + 0.5*MAX(F143,H143)+0.1*MIN(F143,H143)) / 10</f>
+        <f t="shared" si="26"/>
         <v>12.7</v>
       </c>
       <c r="O143" s="6">
-        <f>(0.5*E143 + 0.25*G143 + 0.25*I143)/10</f>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="P143" s="1">
-        <f>ROUND(N143, 0)</f>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="Q143" s="1">
-        <f>ROUND(O143, 0)</f>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="R143" s="1">
-        <f>P143+Q143</f>
+        <f t="shared" si="28"/>
         <v>23</v>
       </c>
       <c r="S143" s="1">
-        <f>ROUND((R143-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
     </row>
@@ -12785,27 +12824,27 @@
         <v>907</v>
       </c>
       <c r="N144" s="6">
-        <f>(0.4*J144 + 0.5*MAX(F144,H144)+0.1*MIN(F144,H144)) / 10</f>
+        <f t="shared" si="26"/>
         <v>10.48</v>
       </c>
       <c r="O144" s="6">
-        <f>(0.5*E144 + 0.25*G144 + 0.25*I144)/10</f>
+        <f t="shared" si="27"/>
         <v>9.85</v>
       </c>
       <c r="P144" s="1">
-        <f>ROUND(N144, 0)</f>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="Q144" s="1">
-        <f>ROUND(O144, 0)</f>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="R144" s="1">
-        <f>P144+Q144</f>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="S144" s="1">
-        <f>ROUND((R144-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
     </row>
@@ -12844,27 +12883,27 @@
         <v>908</v>
       </c>
       <c r="N145" s="6">
-        <f>(0.4*J145 + 0.5*MAX(F145,H145)+0.1*MIN(F145,H145)) / 10</f>
+        <f t="shared" si="26"/>
         <v>12.8</v>
       </c>
       <c r="O145" s="6">
-        <f>(0.5*E145 + 0.25*G145 + 0.25*I145)/10</f>
+        <f t="shared" si="27"/>
         <v>11</v>
       </c>
       <c r="P145" s="1">
-        <f>ROUND(N145, 0)</f>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="Q145" s="1">
-        <f>ROUND(O145, 0)</f>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="R145" s="1">
-        <f>P145+Q145</f>
+        <f t="shared" si="28"/>
         <v>24</v>
       </c>
       <c r="S145" s="1">
-        <f>ROUND((R145-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="T145" t="s">
@@ -12909,27 +12948,27 @@
         <v>908</v>
       </c>
       <c r="N146" s="6">
-        <f>(0.4*J146 + 0.5*MAX(F146,H146)+0.1*MIN(F146,H146)) / 10</f>
+        <f t="shared" si="26"/>
         <v>10.8</v>
       </c>
       <c r="O146" s="6">
-        <f>(0.5*E146 + 0.25*G146 + 0.25*I146)/10</f>
+        <f t="shared" si="27"/>
         <v>12.5</v>
       </c>
       <c r="P146" s="1">
-        <f>ROUND(N146, 0)</f>
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
       <c r="Q146" s="1">
-        <f>ROUND(O146, 0)</f>
+        <f t="shared" si="25"/>
         <v>13</v>
       </c>
       <c r="R146" s="1">
-        <f>P146+Q146</f>
+        <f t="shared" si="28"/>
         <v>24</v>
       </c>
       <c r="S146" s="1">
-        <f>ROUND((R146-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
     </row>
@@ -12968,26 +13007,26 @@
         <v>908</v>
       </c>
       <c r="N147" s="6">
-        <f>(0.4*J147 + 0.5*MAX(F147,H147)+0.1*MIN(F147,H147)) / 10</f>
+        <f t="shared" si="26"/>
         <v>7.85</v>
       </c>
       <c r="O147" s="6">
-        <f>(0.5*E147 + 0.25*G147 + 0.25*I147)/10</f>
+        <f t="shared" si="27"/>
         <v>12.25</v>
       </c>
       <c r="P147" s="1">
-        <f>ROUND(N147, 0)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="Q147" s="2">
         <v>13</v>
       </c>
       <c r="R147" s="1">
-        <f>P147+Q147</f>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
       <c r="S147" s="1">
-        <f>ROUND((R147-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
     </row>
@@ -13029,27 +13068,27 @@
         <v>877</v>
       </c>
       <c r="N148" s="6">
-        <f>(0.4*J148 + 0.5*MAX(F148,H148)+0.1*MIN(F148,H148)) / 10</f>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="O148" s="6">
-        <f>(0.5*E148 + 0.25*G148 + 0.25*I148)/10</f>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="P148" s="1">
-        <f>ROUND(N148, 0)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="Q148" s="1">
-        <f>ROUND(O148, 0)</f>
+        <f t="shared" ref="Q148:Q163" si="30">ROUND(O148, 0)</f>
         <v>8</v>
       </c>
       <c r="R148" s="1">
-        <f>P148+Q148</f>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="S148" s="1">
-        <f>ROUND((R148-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
     </row>
@@ -13088,27 +13127,27 @@
         <v>907</v>
       </c>
       <c r="N149" s="6">
-        <f>(0.4*J149 + 0.5*MAX(F149,H149)+0.1*MIN(F149,H149)) / 10</f>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="O149" s="6">
-        <f>(0.5*E149 + 0.25*G149 + 0.25*I149)/10</f>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="P149" s="1">
-        <f>ROUND(N149, 0)</f>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="Q149" s="1">
-        <f>ROUND(O149, 0)</f>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="R149" s="1">
-        <f>P149+Q149</f>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="S149" s="1">
-        <f>ROUND((R149-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
     </row>
@@ -13147,27 +13186,27 @@
         <v>908</v>
       </c>
       <c r="N150" s="6">
-        <f>(0.4*J150 + 0.5*MAX(F150,H150)+0.1*MIN(F150,H150)) / 10</f>
+        <f t="shared" si="26"/>
         <v>12.65</v>
       </c>
       <c r="O150" s="6">
-        <f>(0.5*E150 + 0.25*G150 + 0.25*I150)/10</f>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="P150" s="1">
-        <f>ROUND(N150, 0)</f>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="Q150" s="1">
-        <f>ROUND(O150, 0)</f>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="R150" s="1">
-        <f>P150+Q150</f>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
       <c r="S150" s="1">
-        <f>ROUND((R150-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
     </row>
@@ -13206,27 +13245,27 @@
         <v>907</v>
       </c>
       <c r="N151" s="6">
-        <f>(0.4*J151 + 0.5*MAX(F151,H151)+0.1*MIN(F151,H151)) / 10</f>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="O151" s="6">
-        <f>(0.5*E151 + 0.25*G151 + 0.25*I151)/10</f>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="P151" s="1">
-        <f>ROUND(N151, 0)</f>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="Q151" s="1">
-        <f>ROUND(O151, 0)</f>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="R151" s="1">
-        <f>P151+Q151</f>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="S151" s="1">
-        <f>ROUND((R151-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
     </row>
@@ -13265,27 +13304,27 @@
         <v>909</v>
       </c>
       <c r="N152" s="6">
-        <f>(0.4*J152 + 0.5*MAX(F152,H152)+0.1*MIN(F152,H152)) / 10</f>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="O152" s="6">
-        <f>(0.5*E152 + 0.25*G152 + 0.25*I152)/10</f>
+        <f t="shared" si="27"/>
         <v>12</v>
       </c>
       <c r="P152" s="1">
-        <f>ROUND(N152, 0)</f>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="Q152" s="1">
-        <f>ROUND(O152, 0)</f>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="R152" s="1">
-        <f>P152+Q152</f>
+        <f t="shared" si="28"/>
         <v>24</v>
       </c>
       <c r="S152" s="1">
-        <f>ROUND((R152-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
     </row>
@@ -13330,27 +13369,27 @@
         <v>877</v>
       </c>
       <c r="N153" s="6">
-        <f>(0.4*J153 + 0.5*MAX(F153,H153)+0.1*MIN(F153,H153)) / 10</f>
+        <f t="shared" si="26"/>
         <v>7.2</v>
       </c>
       <c r="O153" s="6">
-        <f>(0.5*E153 + 0.25*G153 + 0.25*I153)/10</f>
+        <f t="shared" si="27"/>
         <v>4.25</v>
       </c>
       <c r="P153" s="1">
-        <f>ROUND(N153, 0)</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="Q153" s="1">
-        <f>ROUND(O153, 0)</f>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="R153" s="1">
-        <f>P153+Q153</f>
+        <f t="shared" si="28"/>
         <v>11</v>
       </c>
       <c r="S153" s="1">
-        <f>ROUND((R153-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
     </row>
@@ -13395,27 +13434,27 @@
         <v>877</v>
       </c>
       <c r="N154" s="6">
-        <f>(0.4*J154 + 0.5*MAX(F154,H154)+0.1*MIN(F154,H154)) / 10</f>
+        <f t="shared" si="26"/>
         <v>10.199999999999999</v>
       </c>
       <c r="O154" s="6">
-        <f>(0.5*E154 + 0.25*G154 + 0.25*I154)/10</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="P154" s="1">
-        <f>ROUND(N154, 0)</f>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="Q154" s="1">
-        <f>ROUND(O154, 0)</f>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="R154" s="1">
-        <f>P154+Q154</f>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
       <c r="S154" s="1">
-        <f>ROUND((R154-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>7</v>
       </c>
     </row>
@@ -13454,27 +13493,27 @@
         <v>908</v>
       </c>
       <c r="N155" s="6">
-        <f>(0.4*J155 + 0.5*MAX(F155,H155)+0.1*MIN(F155,H155)) / 10</f>
+        <f t="shared" si="26"/>
         <v>10.25</v>
       </c>
       <c r="O155" s="6">
-        <f>(0.5*E155 + 0.25*G155 + 0.25*I155)/10</f>
+        <f t="shared" si="27"/>
         <v>6.25</v>
       </c>
       <c r="P155" s="1">
-        <f>ROUND(N155, 0)</f>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="Q155" s="1">
-        <f>ROUND(O155, 0)</f>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="R155" s="1">
-        <f>P155+Q155</f>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="S155" s="1">
-        <f>ROUND((R155-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
     </row>
@@ -13514,27 +13553,27 @@
       </c>
       <c r="M156" s="3"/>
       <c r="N156" s="6">
-        <f>(0.4*J156 + 0.5*MAX(F156,H156)+0.1*MIN(F156,H156)) / 10</f>
+        <f t="shared" si="26"/>
         <v>7.5</v>
       </c>
       <c r="O156" s="6">
-        <f>(0.5*E156 + 0.25*G156 + 0.25*I156)/10</f>
+        <f t="shared" si="27"/>
         <v>11.5</v>
       </c>
       <c r="P156" s="1">
-        <f>ROUND(N156, 0)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="Q156" s="1">
-        <f>ROUND(O156, 0)</f>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="R156" s="1">
-        <f>P156+Q156</f>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="S156" s="1">
-        <f>ROUND((R156-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="T156" t="s">
@@ -13577,27 +13616,27 @@
       </c>
       <c r="M157" s="3"/>
       <c r="N157" s="6">
-        <f>(0.4*J157 + 0.5*MAX(F157,H157)+0.1*MIN(F157,H157)) / 10</f>
+        <f t="shared" si="26"/>
         <v>7.5</v>
       </c>
       <c r="O157" s="6">
-        <f>(0.5*E157 + 0.25*G157 + 0.25*I157)/10</f>
+        <f t="shared" si="27"/>
         <v>11.5</v>
       </c>
       <c r="P157" s="1">
-        <f>ROUND(N157, 0)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="Q157" s="1">
-        <f>ROUND(O157, 0)</f>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="R157" s="1">
-        <f>P157+Q157</f>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="S157" s="1">
-        <f>ROUND((R157-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="T157" t="s">
@@ -13640,26 +13679,26 @@
       </c>
       <c r="M158" s="3"/>
       <c r="N158" s="6">
-        <f>(0.4*J158 + 0.5*MAX(F158,H158)+0.1*MIN(F158,H158)) / 10</f>
+        <f t="shared" si="26"/>
         <v>6.5</v>
       </c>
       <c r="O158" s="6">
-        <f>(0.5*E158 + 0.25*G158 + 0.25*I158)/10</f>
+        <f t="shared" si="27"/>
         <v>11.5</v>
       </c>
       <c r="P158" s="2">
         <v>8</v>
       </c>
       <c r="Q158" s="1">
-        <f>ROUND(O158, 0)</f>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="R158" s="1">
-        <f>P158+Q158</f>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="S158" s="1">
-        <f>ROUND((R158-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="T158" t="s">
@@ -13705,11 +13744,11 @@
         <v>875</v>
       </c>
       <c r="N159" s="6">
-        <f>(0.4*J159 + 0.5*MAX(F159,H159)+0.1*MIN(F159,H159)) / 10</f>
+        <f t="shared" si="26"/>
         <v>6.05</v>
       </c>
       <c r="O159" s="6">
-        <f>(0.5*E159 + 0.25*G159 + 0.25*I159)/10</f>
+        <f t="shared" si="27"/>
         <v>1.875</v>
       </c>
       <c r="P159" s="1">
@@ -13717,15 +13756,15 @@
         <v>6</v>
       </c>
       <c r="Q159" s="1">
-        <f>ROUND(O159, 0)</f>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="R159" s="1">
-        <f>P159+Q159</f>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="S159" s="1">
-        <f>ROUND((R159-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
     </row>
@@ -13770,11 +13809,11 @@
         <v>875</v>
       </c>
       <c r="N160" s="6">
-        <f>(0.4*J160 + 0.5*MAX(F160,H160)+0.1*MIN(F160,H160)) / 10</f>
+        <f t="shared" si="26"/>
         <v>10.09</v>
       </c>
       <c r="O160" s="6">
-        <f>(0.5*E160 + 0.25*G160 + 0.25*I160)/10</f>
+        <f t="shared" si="27"/>
         <v>9.2249999999999996</v>
       </c>
       <c r="P160" s="1">
@@ -13782,15 +13821,15 @@
         <v>10</v>
       </c>
       <c r="Q160" s="1">
-        <f>ROUND(O160, 0)</f>
+        <f t="shared" si="30"/>
         <v>9</v>
       </c>
       <c r="R160" s="1">
-        <f>P160+Q160</f>
+        <f t="shared" si="28"/>
         <v>19</v>
       </c>
       <c r="S160" s="1">
-        <f>ROUND((R160-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
     </row>
@@ -13835,11 +13874,11 @@
         <v>874</v>
       </c>
       <c r="N161" s="6">
-        <f>(0.4*J161 + 0.5*MAX(F161,H161)+0.1*MIN(F161,H161)) / 10</f>
+        <f t="shared" si="26"/>
         <v>4.1500000000000004</v>
       </c>
       <c r="O161" s="6">
-        <f>(0.5*E161 + 0.25*G161 + 0.25*I161)/10</f>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
       <c r="P161" s="1">
@@ -13847,15 +13886,15 @@
         <v>4</v>
       </c>
       <c r="Q161" s="1">
-        <f>ROUND(O161, 0)</f>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="R161" s="1">
-        <f>P161+Q161</f>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="S161" s="1">
-        <f>ROUND((R161-4) / 2, 0)</f>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
     </row>
@@ -13900,11 +13939,11 @@
         <v>874</v>
       </c>
       <c r="N162" s="6">
-        <f>(0.4*J162 + 0.5*MAX(F162,H162)+0.1*MIN(F162,H162)) / 10</f>
+        <f t="shared" si="26"/>
         <v>6.15</v>
       </c>
       <c r="O162" s="6">
-        <f>(0.5*E162 + 0.25*G162 + 0.25*I162)/10</f>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="P162" s="1">
@@ -13912,15 +13951,15 @@
         <v>6</v>
       </c>
       <c r="Q162" s="1">
-        <f>ROUND(O162, 0)</f>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="R162" s="1">
-        <f>P162+Q162</f>
+        <f t="shared" ref="R162:R193" si="31">P162+Q162</f>
         <v>14</v>
       </c>
       <c r="S162" s="1">
-        <f>ROUND((R162-4) / 2, 0)</f>
+        <f t="shared" ref="S162:S193" si="32">ROUND((R162-4) / 2, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -13965,11 +14004,11 @@
         <v>874</v>
       </c>
       <c r="N163" s="6">
-        <f>(0.4*J163 + 0.5*MAX(F163,H163)+0.1*MIN(F163,H163)) / 10</f>
+        <f t="shared" si="26"/>
         <v>8.15</v>
       </c>
       <c r="O163" s="6">
-        <f>(0.5*E163 + 0.25*G163 + 0.25*I163)/10</f>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="P163" s="1">
@@ -13977,15 +14016,15 @@
         <v>8</v>
       </c>
       <c r="Q163" s="1">
-        <f>ROUND(O163, 0)</f>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="R163" s="1">
-        <f>P163+Q163</f>
+        <f t="shared" si="31"/>
         <v>18</v>
       </c>
       <c r="S163" s="1">
-        <f>ROUND((R163-4) / 2, 0)</f>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
     </row>
@@ -14093,10 +14132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30A6FFA-AF35-447D-B0D3-E4B3ED9C1CA8}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14104,14 +14143,17 @@
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>876</v>
       </c>
@@ -14122,8 +14164,20 @@
         <f>COUNTIFS(sinnoh!L2:L163, A2, sinnoh!M2:M163, B2, sinnoh!S2:S163, "&gt;=1")</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>910</v>
+      </c>
+      <c r="F2" t="s">
+        <v>911</v>
+      </c>
+      <c r="G2" t="s">
+        <v>915</v>
+      </c>
+      <c r="H2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>876</v>
       </c>
@@ -14134,8 +14188,20 @@
         <f>COUNTIFS(sinnoh!L2:L163, A3, sinnoh!M2:M163, B3, sinnoh!S2:S163, "&gt;=1")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>912</v>
+      </c>
+      <c r="G3" t="s">
+        <v>916</v>
+      </c>
+      <c r="H3" t="s">
+        <v>914</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>876</v>
       </c>
@@ -14146,8 +14212,20 @@
         <f>COUNTIFS(sinnoh!L2:L163, A4, sinnoh!M2:M163, B4, sinnoh!S2:S163, "&gt;=1")</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>913</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>873</v>
       </c>
@@ -14159,7 +14237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>873</v>
       </c>
@@ -14171,7 +14249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>873</v>
       </c>
@@ -14183,7 +14261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>882</v>
       </c>
@@ -14195,7 +14273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>882</v>
       </c>
@@ -14207,7 +14285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>882</v>
       </c>
@@ -14219,7 +14297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>878</v>
       </c>
@@ -14231,7 +14309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>878</v>
       </c>
@@ -14243,7 +14321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>878</v>
       </c>
@@ -14255,7 +14333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>883</v>
       </c>
@@ -14267,7 +14345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>883</v>
       </c>
@@ -14279,7 +14357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>883</v>
       </c>
@@ -14292,6 +14370,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
     <cfRule type="colorScale" priority="8">
       <colorScale>

--- a/sinnoh_cube.xlsx
+++ b/sinnoh_cube.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levat\Documents\Tabletop Simulator\pokemon-legends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2E1427-8191-499A-9A03-84D9D831A4D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68466D47-E7CE-4DB2-B639-2ABA1C0497A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="936">
   <si>
     <t>attack</t>
   </si>
@@ -1721,9 +1721,6 @@
     <t>Hermit Crab Pokemon</t>
   </si>
   <si>
-    <t>Magnet Pokemon</t>
-  </si>
-  <si>
     <t>Wild Duck Pokemon</t>
   </si>
   <si>
@@ -1781,18 +1778,9 @@
     <t>Punching Pokemon</t>
   </si>
   <si>
-    <t>Licking Pokemon</t>
-  </si>
-  <si>
     <t>Poison Gas Pokemon</t>
   </si>
   <si>
-    <t>Spikes Pokemon</t>
-  </si>
-  <si>
-    <t>Vine Pokemon</t>
-  </si>
-  <si>
     <t>Parent Pokemon</t>
   </si>
   <si>
@@ -1808,9 +1796,6 @@
     <t>Mysterious Pokemon</t>
   </si>
   <si>
-    <t>Barrier Pokemon</t>
-  </si>
-  <si>
     <t>Mantis Pokemon</t>
   </si>
   <si>
@@ -1820,9 +1805,6 @@
     <t>Electric Pokemon</t>
   </si>
   <si>
-    <t>Spitfire Pokemon</t>
-  </si>
-  <si>
     <t>Stagbeetle Pokemon</t>
   </si>
   <si>
@@ -1832,21 +1814,12 @@
     <t>Fish Pokemon</t>
   </si>
   <si>
-    <t>Atrocious Pokemon</t>
-  </si>
-  <si>
     <t>Transport Pokemon</t>
   </si>
   <si>
     <t>Transform Pokemon</t>
   </si>
   <si>
-    <t>Evolution Pokemon</t>
-  </si>
-  <si>
-    <t>Bubble Jet Pokemon</t>
-  </si>
-  <si>
     <t>Lightning Pokemon</t>
   </si>
   <si>
@@ -1859,9 +1832,6 @@
     <t>Fossil Pokemon</t>
   </si>
   <si>
-    <t>Sleeping Pokemon</t>
-  </si>
-  <si>
     <t>Freeze Pokemon</t>
   </si>
   <si>
@@ -1916,12 +1886,6 @@
     <t>Star Shape Pokemon</t>
   </si>
   <si>
-    <t>Spike Ball Pokemon</t>
-  </si>
-  <si>
-    <t>Happiness Pokemon</t>
-  </si>
-  <si>
     <t>Little Bird Pokemon</t>
   </si>
   <si>
@@ -1937,39 +1901,24 @@
     <t>Aquarabbit Pokemon</t>
   </si>
   <si>
-    <t>Imitation Pokemon</t>
-  </si>
-  <si>
     <t>Frog Pokemon</t>
   </si>
   <si>
     <t>Cottonweed Pokemon</t>
   </si>
   <si>
-    <t>Long Tail Pokemon</t>
-  </si>
-  <si>
     <t>Sun Pokemon</t>
   </si>
   <si>
-    <t>Clear Wing Pokemon</t>
-  </si>
-  <si>
     <t>Water Fish Pokemon</t>
   </si>
   <si>
-    <t>Moonlight Pokemon</t>
-  </si>
-  <si>
     <t>Darkness Pokemon</t>
   </si>
   <si>
     <t>Royal Pokemon</t>
   </si>
   <si>
-    <t>Screech Pokemon</t>
-  </si>
-  <si>
     <t>Symbol Pokemon</t>
   </si>
   <si>
@@ -1985,9 +1934,6 @@
     <t>Land Snake Pokemon</t>
   </si>
   <si>
-    <t>Flyscorpion Pokemon</t>
-  </si>
-  <si>
     <t>Iron Snake Pokemon</t>
   </si>
   <si>
@@ -1997,9 +1943,6 @@
     <t>Singlehorn Pokemon</t>
   </si>
   <si>
-    <t>Sharp Claw Pokemon</t>
-  </si>
-  <si>
     <t>Little Bear Pokemon</t>
   </si>
   <si>
@@ -2009,12 +1952,6 @@
     <t>Lava Pokemon</t>
   </si>
   <si>
-    <t>Pig Pokemon</t>
-  </si>
-  <si>
-    <t>Swine Pokemon</t>
-  </si>
-  <si>
     <t>Coral Pokemon</t>
   </si>
   <si>
@@ -2024,15 +1961,9 @@
     <t>Delivery Pokemon</t>
   </si>
   <si>
-    <t>Kite Pokemon</t>
-  </si>
-  <si>
     <t>Armor Bird Pokemon</t>
   </si>
   <si>
-    <t>Dark Pokemon</t>
-  </si>
-  <si>
     <t>Long Nose Pokemon</t>
   </si>
   <si>
@@ -2054,9 +1985,6 @@
     <t>Kiss Pokemon</t>
   </si>
   <si>
-    <t>Live Coal Pokemon</t>
-  </si>
-  <si>
     <t>Milk Cow Pokemon</t>
   </si>
   <si>
@@ -2138,15 +2066,6 @@
     <t>Water Bird Pokemon</t>
   </si>
   <si>
-    <t>Feeling Pokemon</t>
-  </si>
-  <si>
-    <t>Emotion Pokemon</t>
-  </si>
-  <si>
-    <t>Embrace Pokemon</t>
-  </si>
-  <si>
     <t>Pond Skater Pokemon</t>
   </si>
   <si>
@@ -2189,9 +2108,6 @@
     <t>Polka Dot Pokemon</t>
   </si>
   <si>
-    <t>Compass Pokemon</t>
-  </si>
-  <si>
     <t>Kitten Pokemon</t>
   </si>
   <si>
@@ -2216,9 +2132,6 @@
     <t>Firefly Pokemon</t>
   </si>
   <si>
-    <t>Thorn Pokemon</t>
-  </si>
-  <si>
     <t>Stomach Pokemon</t>
   </si>
   <si>
@@ -2321,39 +2234,12 @@
     <t>Marionette Pokemon</t>
   </si>
   <si>
-    <t>Requiem Pokemon</t>
-  </si>
-  <si>
-    <t>Beckon Pokemon</t>
-  </si>
-  <si>
     <t>Fruit Pokemon</t>
   </si>
   <si>
-    <t>Wind Chime Pokemon</t>
-  </si>
-  <si>
-    <t>Disaster Pokemon</t>
-  </si>
-  <si>
     <t>Bright Pokemon</t>
   </si>
   <si>
-    <t>Snow Hat Pokemon</t>
-  </si>
-  <si>
-    <t>Face Pokemon</t>
-  </si>
-  <si>
-    <t>Clap Pokemon</t>
-  </si>
-  <si>
-    <t>Ball Roll Pokemon</t>
-  </si>
-  <si>
-    <t>Ice Break Pokemon</t>
-  </si>
-  <si>
     <t>Deep Sea Pokemon</t>
   </si>
   <si>
@@ -2381,15 +2267,6 @@
     <t>Iron Leg Pokemon</t>
   </si>
   <si>
-    <t>Rock Peak Pokemon</t>
-  </si>
-  <si>
-    <t>Iceberg Pokemon</t>
-  </si>
-  <si>
-    <t>Iron Pokemon</t>
-  </si>
-  <si>
     <t>Eon Pokemon</t>
   </si>
   <si>
@@ -2408,249 +2285,6 @@
     <t>DNA Pokemon</t>
   </si>
   <si>
-    <t>Tiny Leaf Pokemon</t>
-  </si>
-  <si>
-    <t>Grove Pokemon</t>
-  </si>
-  <si>
-    <t>Chimp Pokemon</t>
-  </si>
-  <si>
-    <t>Playful Pokemon</t>
-  </si>
-  <si>
-    <t>Penguin Pokemon</t>
-  </si>
-  <si>
-    <t>Emperor Pokemon</t>
-  </si>
-  <si>
-    <t>Starling Pokemon</t>
-  </si>
-  <si>
-    <t>Predator Pokemon</t>
-  </si>
-  <si>
-    <t>Plump Mouse Pokemon</t>
-  </si>
-  <si>
-    <t>Beaver Pokemon</t>
-  </si>
-  <si>
-    <t>Cricket Pokemon</t>
-  </si>
-  <si>
-    <t>Flash Pokemon</t>
-  </si>
-  <si>
-    <t>Spark Pokemon</t>
-  </si>
-  <si>
-    <t>Gleam Eyes Pokemon</t>
-  </si>
-  <si>
-    <t>Bud Pokemon</t>
-  </si>
-  <si>
-    <t>Bouquet Pokemon</t>
-  </si>
-  <si>
-    <t>Head Butt Pokemon</t>
-  </si>
-  <si>
-    <t>Shield Pokemon</t>
-  </si>
-  <si>
-    <t>Moth Pokemon</t>
-  </si>
-  <si>
-    <t>Tiny Bee Pokemon</t>
-  </si>
-  <si>
-    <t>Beehive Pokemon</t>
-  </si>
-  <si>
-    <t>EleSquirrel Pokemon</t>
-  </si>
-  <si>
-    <t>Sea Weasel Pokemon</t>
-  </si>
-  <si>
-    <t>Cherry Pokemon</t>
-  </si>
-  <si>
-    <t>Blossom Pokemon</t>
-  </si>
-  <si>
-    <t>Sea Slug Pokemon</t>
-  </si>
-  <si>
-    <t>Blimp Pokemon</t>
-  </si>
-  <si>
-    <t>Rabbit Pokemon</t>
-  </si>
-  <si>
-    <t>Magical Pokemon</t>
-  </si>
-  <si>
-    <t>Big Boss Pokemon</t>
-  </si>
-  <si>
-    <t>Catty Pokemon</t>
-  </si>
-  <si>
-    <t>Tiger Cat Pokemon</t>
-  </si>
-  <si>
-    <t>Bell Pokemon</t>
-  </si>
-  <si>
-    <t>Skunk Pokemon</t>
-  </si>
-  <si>
-    <t>Bronze Pokemon</t>
-  </si>
-  <si>
-    <t>Bronze Bell Pokemon</t>
-  </si>
-  <si>
-    <t>Bonsai Pokemon</t>
-  </si>
-  <si>
-    <t>Mime Pokemon</t>
-  </si>
-  <si>
-    <t>Playhouse Pokemon</t>
-  </si>
-  <si>
-    <t>Music Note Pokemon</t>
-  </si>
-  <si>
-    <t>Forbidden Pokemon</t>
-  </si>
-  <si>
-    <t>Land Shark Pokemon</t>
-  </si>
-  <si>
-    <t>Cave Pokemon</t>
-  </si>
-  <si>
-    <t>Mach Pokemon</t>
-  </si>
-  <si>
-    <t>Big Eater Pokemon</t>
-  </si>
-  <si>
-    <t>Emanation Pokemon</t>
-  </si>
-  <si>
-    <t>Aura Pokemon</t>
-  </si>
-  <si>
-    <t>Hippo Pokemon</t>
-  </si>
-  <si>
-    <t>Heavyweight Pokemon</t>
-  </si>
-  <si>
-    <t>Scorpion Pokemon</t>
-  </si>
-  <si>
-    <t>Ogre Scorp Pokemon</t>
-  </si>
-  <si>
-    <t>Toxic Mouth Pokemon</t>
-  </si>
-  <si>
-    <t>Bug Catcher Pokemon</t>
-  </si>
-  <si>
-    <t>Wing Fish Pokemon</t>
-  </si>
-  <si>
-    <t>Neon Pokemon</t>
-  </si>
-  <si>
-    <t>Frosted Tree Pokemon</t>
-  </si>
-  <si>
-    <t>Magnet Area Pokemon</t>
-  </si>
-  <si>
-    <t>Thunderbolt Pokemon</t>
-  </si>
-  <si>
-    <t>Blast Pokemon</t>
-  </si>
-  <si>
-    <t>Jubilee Pokemon</t>
-  </si>
-  <si>
-    <t>Ogre Darner Pokemon</t>
-  </si>
-  <si>
-    <t>Verdant Pokemon</t>
-  </si>
-  <si>
-    <t>Fresh Snow Pokemon</t>
-  </si>
-  <si>
-    <t>Fang Scorp Pokemon</t>
-  </si>
-  <si>
-    <t>Twin Tusk Pokemon</t>
-  </si>
-  <si>
-    <t>Blade Pokemon</t>
-  </si>
-  <si>
-    <t>Gripper Pokemon</t>
-  </si>
-  <si>
-    <t>Snow Land Pokemon</t>
-  </si>
-  <si>
-    <t>Knowledge Pokemon</t>
-  </si>
-  <si>
-    <t>Willpower Pokemon</t>
-  </si>
-  <si>
-    <t>Temporal Pokemon</t>
-  </si>
-  <si>
-    <t>Spatial Pokemon</t>
-  </si>
-  <si>
-    <t>Lava Dome Pokemon</t>
-  </si>
-  <si>
-    <t>Colossal Pokemon</t>
-  </si>
-  <si>
-    <t>Renegade Pokemon</t>
-  </si>
-  <si>
-    <t>Lunar Pokemon</t>
-  </si>
-  <si>
-    <t>Sea Drifter Pokemon</t>
-  </si>
-  <si>
-    <t>Seafaring Pokemon</t>
-  </si>
-  <si>
-    <t>Pitch-Black Pokemon</t>
-  </si>
-  <si>
-    <t>Gratitude Pokemon</t>
-  </si>
-  <si>
-    <t>Alpha Pokemon</t>
-  </si>
-  <si>
     <t>Nidoran</t>
   </si>
   <si>
@@ -2732,9 +2366,6 @@
     <t>stats</t>
   </si>
   <si>
-    <t>Prototype Pokemon</t>
-  </si>
-  <si>
     <t>Prankster</t>
   </si>
   <si>
@@ -2744,39 +2375,6 @@
     <t>Boss</t>
   </si>
   <si>
-    <t>Acuity</t>
-  </si>
-  <si>
-    <t>1st</t>
-  </si>
-  <si>
-    <t>2nd</t>
-  </si>
-  <si>
-    <t>3rd</t>
-  </si>
-  <si>
-    <t>3 - Snorant</t>
-  </si>
-  <si>
-    <t>3 - Swinub</t>
-  </si>
-  <si>
-    <t>7 - Piloswine</t>
-  </si>
-  <si>
-    <t>8 - Mamoswine</t>
-  </si>
-  <si>
-    <t>5 - Murkrow</t>
-  </si>
-  <si>
-    <t>7 - Honchkrow</t>
-  </si>
-  <si>
-    <t>6 - Froslass</t>
-  </si>
-  <si>
     <t>Ruins</t>
   </si>
   <si>
@@ -2798,9 +2396,6 @@
     <t>True Form</t>
   </si>
   <si>
-    <t>Prankster Pokemon</t>
-  </si>
-  <si>
     <t>Prankster Form</t>
   </si>
   <si>
@@ -2814,6 +2409,438 @@
   </si>
   <si>
     <t>East Ocean Form</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>9,10</t>
+  </si>
+  <si>
+    <t>Tier High</t>
+  </si>
+  <si>
+    <t>Tier Low</t>
+  </si>
+  <si>
+    <t>Tier Medium</t>
+  </si>
+  <si>
+    <t>Tier Uber</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>Tiny Leaf Pokémon</t>
+  </si>
+  <si>
+    <t>Grove Pokémon</t>
+  </si>
+  <si>
+    <t>Continent Pokémon</t>
+  </si>
+  <si>
+    <t>Chimp Pokémon</t>
+  </si>
+  <si>
+    <t>Playful Pokémon</t>
+  </si>
+  <si>
+    <t>Flame Pokémon</t>
+  </si>
+  <si>
+    <t>Penguin Pokémon</t>
+  </si>
+  <si>
+    <t>Emperor Pokémon</t>
+  </si>
+  <si>
+    <t>Starling Pokémon</t>
+  </si>
+  <si>
+    <t>Predator Pokémon</t>
+  </si>
+  <si>
+    <t>Plump Mouse Pokémon</t>
+  </si>
+  <si>
+    <t>Beaver Pokémon</t>
+  </si>
+  <si>
+    <t>Cricket Pokémon</t>
+  </si>
+  <si>
+    <t>Flash Pokémon</t>
+  </si>
+  <si>
+    <t>Spark Pokémon</t>
+  </si>
+  <si>
+    <t>Gleam Eyes Pokémon</t>
+  </si>
+  <si>
+    <t>Bud Pokémon</t>
+  </si>
+  <si>
+    <t>Thorn Pokémon</t>
+  </si>
+  <si>
+    <t>Bouquet Pokémon</t>
+  </si>
+  <si>
+    <t>Head Butt Pokémon</t>
+  </si>
+  <si>
+    <t>Shield Pokémon</t>
+  </si>
+  <si>
+    <t>Bagworm Pokémon</t>
+  </si>
+  <si>
+    <t>Moth Pokémon</t>
+  </si>
+  <si>
+    <t>Tiny Bee Pokémon</t>
+  </si>
+  <si>
+    <t>Beehive Pokémon</t>
+  </si>
+  <si>
+    <t>EleSquirrel Pokémon</t>
+  </si>
+  <si>
+    <t>Sea Weasel Pokémon</t>
+  </si>
+  <si>
+    <t>Cherry Pokémon</t>
+  </si>
+  <si>
+    <t>Blossom Pokémon</t>
+  </si>
+  <si>
+    <t>Sea Slug Pokémon</t>
+  </si>
+  <si>
+    <t>Long Tail Pokémon</t>
+  </si>
+  <si>
+    <t>Balloon Pokémon</t>
+  </si>
+  <si>
+    <t>Blimp Pokémon</t>
+  </si>
+  <si>
+    <t>Rabbit Pokémon</t>
+  </si>
+  <si>
+    <t>Screech Pokémon</t>
+  </si>
+  <si>
+    <t>Magical Pokémon</t>
+  </si>
+  <si>
+    <t>Darkness Pokémon</t>
+  </si>
+  <si>
+    <t>Big Boss Pokémon</t>
+  </si>
+  <si>
+    <t>Catty Pokémon</t>
+  </si>
+  <si>
+    <t>Tiger Cat Pokémon</t>
+  </si>
+  <si>
+    <t>Bell Pokémon</t>
+  </si>
+  <si>
+    <t>Wind Chime Pokémon</t>
+  </si>
+  <si>
+    <t>Skunk Pokémon</t>
+  </si>
+  <si>
+    <t>Bronze Pokémon</t>
+  </si>
+  <si>
+    <t>Bronze Bell Pokémon</t>
+  </si>
+  <si>
+    <t>Bonsai Pokémon</t>
+  </si>
+  <si>
+    <t>Imitation Pokémon</t>
+  </si>
+  <si>
+    <t>Mime Pokémon</t>
+  </si>
+  <si>
+    <t>Barrier Pokémon</t>
+  </si>
+  <si>
+    <t>Playhouse Pokémon</t>
+  </si>
+  <si>
+    <t>Egg Pokémon</t>
+  </si>
+  <si>
+    <t>Happiness Pokémon</t>
+  </si>
+  <si>
+    <t>Music Note Pokémon</t>
+  </si>
+  <si>
+    <t>Forbidden Pokémon</t>
+  </si>
+  <si>
+    <t>Land Shark Pokémon</t>
+  </si>
+  <si>
+    <t>Cave Pokémon</t>
+  </si>
+  <si>
+    <t>Mach Pokémon</t>
+  </si>
+  <si>
+    <t>Big Eater Pokémon</t>
+  </si>
+  <si>
+    <t>Sleeping Pokémon</t>
+  </si>
+  <si>
+    <t>Emanation Pokémon</t>
+  </si>
+  <si>
+    <t>Aura Pokémon</t>
+  </si>
+  <si>
+    <t>Hippo Pokémon</t>
+  </si>
+  <si>
+    <t>Heavyweight Pokémon</t>
+  </si>
+  <si>
+    <t>Scorpion Pokémon</t>
+  </si>
+  <si>
+    <t>Ogre Scorp Pokémon</t>
+  </si>
+  <si>
+    <t>Toxic Mouth Pokémon</t>
+  </si>
+  <si>
+    <t>Bug Catcher Pokémon</t>
+  </si>
+  <si>
+    <t>Wing Fish Pokémon</t>
+  </si>
+  <si>
+    <t>Neon Pokémon</t>
+  </si>
+  <si>
+    <t>Kite Pokémon</t>
+  </si>
+  <si>
+    <t>Frosted Tree Pokémon</t>
+  </si>
+  <si>
+    <t>Sharp Claw Pokémon</t>
+  </si>
+  <si>
+    <t>Magnet Pokémon</t>
+  </si>
+  <si>
+    <t>Magnet Area Pokémon</t>
+  </si>
+  <si>
+    <t>Licking Pokémon</t>
+  </si>
+  <si>
+    <t>Spikes Pokémon</t>
+  </si>
+  <si>
+    <t>Drill Pokémon</t>
+  </si>
+  <si>
+    <t>Vine Pokémon</t>
+  </si>
+  <si>
+    <t>Electric Pokémon</t>
+  </si>
+  <si>
+    <t>Thunderbolt Pokémon</t>
+  </si>
+  <si>
+    <t>Live Coal Pokémon</t>
+  </si>
+  <si>
+    <t>Spitfire Pokémon</t>
+  </si>
+  <si>
+    <t>Blast Pokémon</t>
+  </si>
+  <si>
+    <t>Spike Ball Pokémon</t>
+  </si>
+  <si>
+    <t>Jubilee Pokémon</t>
+  </si>
+  <si>
+    <t>Clear Wing Pokémon</t>
+  </si>
+  <si>
+    <t>Ogre Darner Pokémon</t>
+  </si>
+  <si>
+    <t>Evolution Pokémon</t>
+  </si>
+  <si>
+    <t>Bubble Jet Pokémon</t>
+  </si>
+  <si>
+    <t>Lightning Pokémon</t>
+  </si>
+  <si>
+    <t>Sun Pokémon</t>
+  </si>
+  <si>
+    <t>Moonlight Pokémon</t>
+  </si>
+  <si>
+    <t>Verdant Pokémon</t>
+  </si>
+  <si>
+    <t>Fresh Snow Pokémon</t>
+  </si>
+  <si>
+    <t>Flyscorpion Pokémon</t>
+  </si>
+  <si>
+    <t>Fang Scorp Pokémon</t>
+  </si>
+  <si>
+    <t>Pig Pokémon</t>
+  </si>
+  <si>
+    <t>Swine Pokémon</t>
+  </si>
+  <si>
+    <t>Twin Tusk Pokémon</t>
+  </si>
+  <si>
+    <t>Prototype Pokémon</t>
+  </si>
+  <si>
+    <t>Feeling Pokémon</t>
+  </si>
+  <si>
+    <t>Emotion Pokémon</t>
+  </si>
+  <si>
+    <t>Embrace Pokémon</t>
+  </si>
+  <si>
+    <t>Blade Pokémon</t>
+  </si>
+  <si>
+    <t>Compass Pokémon</t>
+  </si>
+  <si>
+    <t>Requiem Pokémon</t>
+  </si>
+  <si>
+    <t>Beckon Pokémon</t>
+  </si>
+  <si>
+    <t>Gripper Pokémon</t>
+  </si>
+  <si>
+    <t>Snow Hat Pokémon</t>
+  </si>
+  <si>
+    <t>Face Pokémon</t>
+  </si>
+  <si>
+    <t>Snow Land Pokémon</t>
+  </si>
+  <si>
+    <t>Prankster Pokémon</t>
+  </si>
+  <si>
+    <t>Knowledge Pokémon</t>
+  </si>
+  <si>
+    <t>Willpower Pokémon</t>
+  </si>
+  <si>
+    <t>Temporal Pokémon</t>
+  </si>
+  <si>
+    <t>Spatial Pokémon</t>
+  </si>
+  <si>
+    <t>Lava Dome Pokémon</t>
+  </si>
+  <si>
+    <t>Colossal Pokémon</t>
+  </si>
+  <si>
+    <t>Renegade Pokémon</t>
+  </si>
+  <si>
+    <t>Lunar Pokémon</t>
+  </si>
+  <si>
+    <t>Sea Drifter Pokémon</t>
+  </si>
+  <si>
+    <t>Seafaring Pokémon</t>
+  </si>
+  <si>
+    <t>Pitch-Black Pokémon</t>
+  </si>
+  <si>
+    <t>Gratitude Pokémon</t>
+  </si>
+  <si>
+    <t>Alpha Pokémon</t>
+  </si>
+  <si>
+    <t>Dark Pokémon</t>
+  </si>
+  <si>
+    <t>Disaster Pokémon</t>
+  </si>
+  <si>
+    <t>Rock Peak Pokémon</t>
+  </si>
+  <si>
+    <t>Iceberg Pokémon</t>
+  </si>
+  <si>
+    <t>Iron Pokémon</t>
+  </si>
+  <si>
+    <t>Fish Pokémon</t>
+  </si>
+  <si>
+    <t>Atrocious Pokémon</t>
+  </si>
+  <si>
+    <t>Clap Pokémon</t>
+  </si>
+  <si>
+    <t>Ball Roll Pokémon</t>
+  </si>
+  <si>
+    <t>Ice Break Pokémon</t>
   </si>
 </sst>
 </file>
@@ -3688,8 +3715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="N143" sqref="N143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3719,64 +3746,64 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>885</v>
+        <v>763</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>917</v>
+        <v>783</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>883</v>
+        <v>761</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>884</v>
+        <v>762</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>890</v>
+        <v>768</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>891</v>
+        <v>769</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>892</v>
+        <v>770</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>893</v>
+        <v>771</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>894</v>
+        <v>772</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>915</v>
+        <v>781</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>916</v>
+        <v>782</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>895</v>
+        <v>773</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>896</v>
+        <v>774</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>889</v>
+        <v>767</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>898</v>
+        <v>776</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>897</v>
+        <v>775</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>886</v>
+        <v>764</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -3808,13 +3835,13 @@
         <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O2" s="6">
         <f t="shared" ref="O2:O33" si="0">(0.4*K2 + 0.5*MAX(G2,I2)+0.1*MIN(G2,I2)) / 10</f>
@@ -3869,13 +3896,13 @@
         <v>36</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O3" s="6">
         <f t="shared" si="0"/>
@@ -3934,13 +3961,13 @@
         <v>56</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>787</v>
+        <v>803</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O4" s="6">
         <f t="shared" si="0"/>
@@ -3996,13 +4023,13 @@
         <v>61</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>793</v>
+        <v>804</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O5" s="6">
         <f t="shared" si="0"/>
@@ -4061,13 +4088,13 @@
         <v>81</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O6" s="6">
         <f t="shared" si="0"/>
@@ -4126,13 +4153,13 @@
         <v>108</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>519</v>
+        <v>806</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O7" s="6">
         <f t="shared" si="0"/>
@@ -4188,13 +4215,13 @@
         <v>40</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="0"/>
@@ -4250,13 +4277,13 @@
         <v>50</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="0"/>
@@ -4315,13 +4342,13 @@
         <v>60</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="0"/>
@@ -4380,13 +4407,13 @@
         <v>60</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" si="0"/>
@@ -4445,13 +4472,13 @@
         <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="0"/>
@@ -4510,13 +4537,13 @@
         <v>100</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="0"/>
@@ -4572,13 +4599,13 @@
         <v>31</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" si="0"/>
@@ -4637,13 +4664,13 @@
         <v>71</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" si="0"/>
@@ -4699,13 +4726,13 @@
         <v>25</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O16" s="6">
         <f t="shared" si="0"/>
@@ -4761,13 +4788,13 @@
         <v>65</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" si="0"/>
@@ -4823,13 +4850,13 @@
         <v>45</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" si="0"/>
@@ -4885,13 +4912,13 @@
         <v>60</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O19" s="6">
         <f t="shared" si="0"/>
@@ -4947,13 +4974,13 @@
         <v>70</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O20" s="6">
         <f t="shared" si="0"/>
@@ -5013,13 +5040,13 @@
         <v>55</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O21" s="6">
         <f t="shared" si="0"/>
@@ -5079,13 +5106,13 @@
         <v>65</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>727</v>
+        <v>818</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O22" s="6">
         <f t="shared" si="0"/>
@@ -5145,13 +5172,13 @@
         <v>90</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" si="0"/>
@@ -5186,7 +5213,7 @@
         <v>434</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>920</v>
+        <v>786</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>173</v>
@@ -5210,13 +5237,13 @@
         <v>58</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O24" s="6">
         <f t="shared" si="0"/>
@@ -5251,7 +5278,7 @@
         <v>435</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>920</v>
+        <v>786</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>173</v>
@@ -5275,13 +5302,13 @@
         <v>58</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="0"/>
@@ -5316,7 +5343,7 @@
         <v>436</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>920</v>
+        <v>786</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>105</v>
@@ -5340,13 +5367,13 @@
         <v>30</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O26" s="6">
         <f t="shared" si="0"/>
@@ -5379,7 +5406,7 @@
         <v>437</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>920</v>
+        <v>786</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>105</v>
@@ -5403,13 +5430,13 @@
         <v>30</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O27" s="6">
         <f t="shared" si="0"/>
@@ -5465,13 +5492,13 @@
         <v>36</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>648</v>
+        <v>822</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O28" s="6">
         <f t="shared" si="0"/>
@@ -5531,13 +5558,13 @@
         <v>36</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>648</v>
+        <v>822</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O29" s="6">
         <f t="shared" si="0"/>
@@ -5597,13 +5624,13 @@
         <v>66</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O30" s="6">
         <f t="shared" si="0"/>
@@ -5663,13 +5690,13 @@
         <v>70</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O31" s="6">
         <f t="shared" si="0"/>
@@ -5729,13 +5756,13 @@
         <v>40</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>811</v>
+        <v>825</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O32" s="6">
         <f t="shared" si="0"/>
@@ -5792,13 +5819,13 @@
         <v>95</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O33" s="6">
         <f t="shared" si="0"/>
@@ -5855,13 +5882,13 @@
         <v>85</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O34" s="6">
         <f t="shared" ref="O34:O65" si="6">(0.4*K34 + 0.5*MAX(G34,I34)+0.1*MIN(G34,I34)) / 10</f>
@@ -5918,13 +5945,13 @@
         <v>115</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O35" s="6">
         <f t="shared" si="6"/>
@@ -5981,13 +6008,13 @@
         <v>35</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O36" s="6">
         <f t="shared" si="6"/>
@@ -6044,13 +6071,13 @@
         <v>85</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>815</v>
+        <v>829</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O37" s="6">
         <f t="shared" si="6"/>
@@ -6082,10 +6109,10 @@
         <v>422</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>918</v>
+        <v>784</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>925</v>
+        <v>790</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>22</v>
@@ -6109,13 +6136,13 @@
         <v>34</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O38" s="6">
         <f t="shared" si="6"/>
@@ -6147,10 +6174,10 @@
         <v>423</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>919</v>
+        <v>785</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>925</v>
+        <v>790</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>22</v>
@@ -6177,13 +6204,13 @@
         <v>39</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O39" s="6">
         <f t="shared" si="6"/>
@@ -6215,10 +6242,10 @@
         <v>422</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>918</v>
+        <v>784</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>926</v>
+        <v>791</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>22</v>
@@ -6242,13 +6269,13 @@
         <v>34</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O40" s="6">
         <f t="shared" si="6"/>
@@ -6280,10 +6307,10 @@
         <v>423</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>919</v>
+        <v>785</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>926</v>
+        <v>791</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>22</v>
@@ -6310,13 +6337,13 @@
         <v>39</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O41" s="6">
         <f t="shared" si="6"/>
@@ -6373,13 +6400,13 @@
         <v>85</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>637</v>
+        <v>831</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O42" s="6">
         <f t="shared" si="6"/>
@@ -6436,13 +6463,13 @@
         <v>115</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>637</v>
+        <v>831</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O43" s="6">
         <f t="shared" si="6"/>
@@ -6502,13 +6529,13 @@
         <v>70</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>538</v>
+        <v>832</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O44" s="6">
         <f t="shared" si="6"/>
@@ -6568,13 +6595,13 @@
         <v>80</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>817</v>
+        <v>833</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O45" s="6">
         <f t="shared" si="6"/>
@@ -6631,13 +6658,13 @@
         <v>85</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>818</v>
+        <v>834</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O46" s="6">
         <f t="shared" si="6"/>
@@ -6694,13 +6721,13 @@
         <v>105</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>818</v>
+        <v>834</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O47" s="6">
         <f t="shared" si="6"/>
@@ -6757,13 +6784,13 @@
         <v>85</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>644</v>
+        <v>835</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O48" s="6">
         <f t="shared" si="6"/>
@@ -6820,13 +6847,13 @@
         <v>105</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>819</v>
+        <v>836</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O49" s="6">
         <f t="shared" si="6"/>
@@ -6886,13 +6913,13 @@
         <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>642</v>
+        <v>837</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O50" s="6">
         <f t="shared" si="6"/>
@@ -6952,13 +6979,13 @@
         <v>71</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>820</v>
+        <v>838</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O51" s="6">
         <f t="shared" si="6"/>
@@ -7015,13 +7042,13 @@
         <v>85</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O52" s="6">
         <f t="shared" si="6"/>
@@ -7078,13 +7105,13 @@
         <v>112</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>822</v>
+        <v>840</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O53" s="6">
         <f t="shared" si="6"/>
@@ -7141,13 +7168,13 @@
         <v>45</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O54" s="6">
         <f t="shared" si="6"/>
@@ -7174,7 +7201,7 @@
         <v>3</v>
       </c>
       <c r="U54" t="s">
-        <v>900</v>
+        <v>777</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
@@ -7207,13 +7234,13 @@
         <v>65</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>765</v>
+        <v>842</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O55" s="6">
         <f t="shared" si="6"/>
@@ -7240,7 +7267,7 @@
         <v>6</v>
       </c>
       <c r="U55" t="s">
-        <v>900</v>
+        <v>777</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
@@ -7276,13 +7303,13 @@
         <v>74</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>824</v>
+        <v>843</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O56" s="6">
         <f t="shared" si="6"/>
@@ -7342,13 +7369,13 @@
         <v>84</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>824</v>
+        <v>843</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O57" s="6">
         <f t="shared" si="6"/>
@@ -7408,13 +7435,13 @@
         <v>23</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O58" s="6">
         <f t="shared" si="6"/>
@@ -7474,13 +7501,13 @@
         <v>33</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>826</v>
+        <v>845</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O59" s="6">
         <f t="shared" si="6"/>
@@ -7537,13 +7564,13 @@
         <v>10</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>827</v>
+        <v>846</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O60" s="6">
         <f t="shared" si="6"/>
@@ -7600,13 +7627,13 @@
         <v>30</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>634</v>
+        <v>847</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O61" s="6">
         <f t="shared" si="6"/>
@@ -7666,13 +7693,13 @@
         <v>60</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>828</v>
+        <v>848</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O62" s="6">
         <f t="shared" si="6"/>
@@ -7732,13 +7759,13 @@
         <v>90</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>591</v>
+        <v>849</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O63" s="6">
         <f t="shared" si="6"/>
@@ -7795,13 +7822,13 @@
         <v>30</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>829</v>
+        <v>850</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O64" s="6">
         <f t="shared" si="6"/>
@@ -7858,13 +7885,13 @@
         <v>50</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>576</v>
+        <v>851</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O65" s="6">
         <f t="shared" si="6"/>
@@ -7921,13 +7948,13 @@
         <v>55</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>628</v>
+        <v>852</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O66" s="6">
         <f t="shared" ref="O66:O97" si="12">(0.4*K66 + 0.5*MAX(G66,I66)+0.1*MIN(G66,I66)) / 10</f>
@@ -7987,13 +8014,13 @@
         <v>91</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>830</v>
+        <v>853</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O67" s="6">
         <f t="shared" si="12"/>
@@ -8053,13 +8080,13 @@
         <v>35</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>831</v>
+        <v>854</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O68" s="6">
         <f t="shared" si="12"/>
@@ -8086,7 +8113,7 @@
         <v>6</v>
       </c>
       <c r="U68" t="s">
-        <v>888</v>
+        <v>766</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
@@ -8122,13 +8149,13 @@
         <v>42</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>832</v>
+        <v>855</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O69" s="6">
         <f t="shared" si="12"/>
@@ -8188,13 +8215,13 @@
         <v>82</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O70" s="6">
         <f t="shared" si="12"/>
@@ -8254,13 +8281,13 @@
         <v>102</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O71" s="6">
         <f t="shared" si="12"/>
@@ -8317,13 +8344,13 @@
         <v>5</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>835</v>
+        <v>858</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O72" s="6">
         <f t="shared" si="12"/>
@@ -8380,13 +8407,13 @@
         <v>30</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>608</v>
+        <v>859</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O73" s="6">
         <f t="shared" si="12"/>
@@ -8443,13 +8470,13 @@
         <v>60</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>836</v>
+        <v>860</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O74" s="6">
         <f t="shared" si="12"/>
@@ -8509,13 +8536,13 @@
         <v>90</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>837</v>
+        <v>861</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O75" s="6">
         <f t="shared" si="12"/>
@@ -8572,13 +8599,13 @@
         <v>32</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>838</v>
+        <v>862</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O76" s="6">
         <f t="shared" si="12"/>
@@ -8635,13 +8662,13 @@
         <v>47</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>839</v>
+        <v>863</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O77" s="6">
         <f t="shared" si="12"/>
@@ -8701,13 +8728,13 @@
         <v>65</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>840</v>
+        <v>864</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O78" s="6">
         <f t="shared" si="12"/>
@@ -8767,13 +8794,13 @@
         <v>95</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>841</v>
+        <v>865</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O79" s="6">
         <f t="shared" si="12"/>
@@ -8833,13 +8860,13 @@
         <v>50</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>842</v>
+        <v>866</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O80" s="6">
         <f t="shared" si="12"/>
@@ -8899,13 +8926,13 @@
         <v>85</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>842</v>
+        <v>866</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O81" s="6">
         <f t="shared" si="12"/>
@@ -8962,13 +8989,13 @@
         <v>46</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>843</v>
+        <v>867</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O82" s="6">
         <f t="shared" si="12"/>
@@ -9025,13 +9052,13 @@
         <v>66</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>844</v>
+        <v>868</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O83" s="6">
         <f t="shared" si="12"/>
@@ -9088,13 +9115,13 @@
         <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>845</v>
+        <v>869</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O84" s="6">
         <f t="shared" si="12"/>
@@ -9154,13 +9181,13 @@
         <v>50</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>663</v>
+        <v>870</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O85" s="6">
         <f t="shared" si="12"/>
@@ -9220,13 +9247,13 @@
         <v>70</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>663</v>
+        <v>870</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O86" s="6">
         <f t="shared" si="12"/>
@@ -9286,13 +9313,13 @@
         <v>40</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>846</v>
+        <v>871</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O87" s="6">
         <f t="shared" si="12"/>
@@ -9352,13 +9379,13 @@
         <v>60</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>846</v>
+        <v>871</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O88" s="6">
         <f t="shared" si="12"/>
@@ -9418,13 +9445,13 @@
         <v>115</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>654</v>
+        <v>872</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O89" s="6">
         <f t="shared" si="12"/>
@@ -9484,13 +9511,13 @@
         <v>125</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>654</v>
+        <v>872</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O90" s="6">
         <f t="shared" si="12"/>
@@ -9550,13 +9577,13 @@
         <v>45</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>562</v>
+        <v>873</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O91" s="6">
         <f t="shared" si="12"/>
@@ -9616,13 +9643,13 @@
         <v>70</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>562</v>
+        <v>873</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O92" s="6">
         <f t="shared" si="12"/>
@@ -9682,13 +9709,13 @@
         <v>60</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>847</v>
+        <v>874</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O93" s="6">
         <f t="shared" si="12"/>
@@ -9745,13 +9772,13 @@
         <v>30</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>582</v>
+        <v>875</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O94" s="6">
         <f t="shared" si="12"/>
@@ -9808,13 +9835,13 @@
         <v>50</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>582</v>
+        <v>875</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O95" s="6">
         <f t="shared" si="12"/>
@@ -9874,13 +9901,13 @@
         <v>25</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>584</v>
+        <v>876</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O96" s="6">
         <f t="shared" si="12"/>
@@ -9940,13 +9967,13 @@
         <v>40</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>535</v>
+        <v>877</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O97" s="6">
         <f t="shared" si="12"/>
@@ -10006,13 +10033,13 @@
         <v>40</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>535</v>
+        <v>877</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O98" s="6">
         <f t="shared" ref="O98:O129" si="18">(0.4*K98 + 0.5*MAX(G98,I98)+0.1*MIN(G98,I98)) / 10</f>
@@ -10069,13 +10096,13 @@
         <v>60</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>585</v>
+        <v>878</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O99" s="6">
         <f t="shared" si="18"/>
@@ -10132,13 +10159,13 @@
         <v>50</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>585</v>
+        <v>878</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O100" s="6">
         <f t="shared" si="18"/>
@@ -10195,13 +10222,13 @@
         <v>95</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>594</v>
+        <v>879</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O101" s="6">
         <f t="shared" si="18"/>
@@ -10258,13 +10285,13 @@
         <v>105</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>594</v>
+        <v>879</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O102" s="6">
         <f t="shared" si="18"/>
@@ -10321,13 +10348,13 @@
         <v>95</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>848</v>
+        <v>880</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O103" s="6">
         <f t="shared" si="18"/>
@@ -10384,13 +10411,13 @@
         <v>83</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>673</v>
+        <v>881</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O104" s="6">
         <f t="shared" si="18"/>
@@ -10447,13 +10474,13 @@
         <v>93</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>595</v>
+        <v>882</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O105" s="6">
         <f t="shared" si="18"/>
@@ -10510,13 +10537,13 @@
         <v>83</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>849</v>
+        <v>883</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O106" s="6">
         <f t="shared" si="18"/>
@@ -10573,13 +10600,13 @@
         <v>20</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>627</v>
+        <v>884</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O107" s="6">
         <f t="shared" si="18"/>
@@ -10639,13 +10666,13 @@
         <v>40</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>628</v>
+        <v>852</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O108" s="6">
         <f t="shared" si="18"/>
@@ -10705,13 +10732,13 @@
         <v>80</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>850</v>
+        <v>885</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O109" s="6">
         <f t="shared" si="18"/>
@@ -10771,13 +10798,13 @@
         <v>95</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>639</v>
+        <v>886</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O110" s="6">
         <f t="shared" si="18"/>
@@ -10837,13 +10864,13 @@
         <v>95</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O111" s="6">
         <f t="shared" si="18"/>
@@ -10900,13 +10927,13 @@
         <v>55</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>602</v>
+        <v>888</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O112" s="6">
         <f t="shared" si="18"/>
@@ -10963,13 +10990,13 @@
         <v>65</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>603</v>
+        <v>889</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O113" s="6">
         <f t="shared" si="18"/>
@@ -11025,13 +11052,13 @@
         <v>130</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>604</v>
+        <v>890</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O114" s="6">
         <f t="shared" si="18"/>
@@ -11088,13 +11115,13 @@
         <v>65</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>519</v>
+        <v>806</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O115" s="6">
         <f t="shared" si="18"/>
@@ -11151,13 +11178,13 @@
         <v>110</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>638</v>
+        <v>891</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O116" s="6">
         <f t="shared" si="18"/>
@@ -11213,13 +11240,13 @@
         <v>65</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>641</v>
+        <v>892</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O117" s="6">
         <f t="shared" si="18"/>
@@ -11275,13 +11302,13 @@
         <v>95</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>852</v>
+        <v>893</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O118" s="6">
         <f t="shared" si="18"/>
@@ -11338,13 +11365,13 @@
         <v>65</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>853</v>
+        <v>894</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O119" s="6">
         <f t="shared" si="18"/>
@@ -11404,13 +11431,13 @@
         <v>85</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>650</v>
+        <v>895</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O120" s="6">
         <f t="shared" si="18"/>
@@ -11470,13 +11497,13 @@
         <v>95</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O121" s="6">
         <f t="shared" si="18"/>
@@ -11536,13 +11563,13 @@
         <v>50</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>658</v>
+        <v>897</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O122" s="6">
         <f t="shared" si="18"/>
@@ -11602,13 +11629,13 @@
         <v>50</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>659</v>
+        <v>898</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O123" s="6">
         <f t="shared" si="18"/>
@@ -11668,13 +11695,13 @@
         <v>80</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>855</v>
+        <v>899</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O124" s="6">
         <f t="shared" si="18"/>
@@ -11706,10 +11733,10 @@
         <v>474</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>879</v>
+        <v>757</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>924</v>
+        <v>789</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>105</v>
@@ -11733,13 +11760,13 @@
         <v>90</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="N125" s="3" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O125" s="6">
         <f t="shared" si="18"/>
@@ -11799,13 +11826,13 @@
         <v>40</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>701</v>
+        <v>901</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O126" s="6">
         <f t="shared" si="18"/>
@@ -11865,13 +11892,13 @@
         <v>50</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>702</v>
+        <v>902</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O127" s="6">
         <f t="shared" si="18"/>
@@ -11931,13 +11958,13 @@
         <v>80</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>703</v>
+        <v>903</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O128" s="6">
         <f t="shared" si="18"/>
@@ -11997,13 +12024,13 @@
         <v>80</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>856</v>
+        <v>904</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N129" s="3" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O129" s="6">
         <f t="shared" si="18"/>
@@ -12060,13 +12087,13 @@
         <v>30</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>718</v>
+        <v>905</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="N130" s="3" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O130" s="6">
         <f t="shared" ref="O130:O163" si="26">(0.4*K130 + 0.5*MAX(G130,I130)+0.1*MIN(G130,I130)) / 10</f>
@@ -12126,13 +12153,13 @@
         <v>40</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>718</v>
+        <v>905</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="N131" s="3" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O131" s="6">
         <f t="shared" si="26"/>
@@ -12189,13 +12216,13 @@
         <v>25</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>762</v>
+        <v>906</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O132" s="6">
         <f t="shared" si="26"/>
@@ -12252,13 +12279,13 @@
         <v>25</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>763</v>
+        <v>907</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O133" s="6">
         <f t="shared" si="26"/>
@@ -12315,13 +12342,13 @@
         <v>45</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>857</v>
+        <v>908</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O134" s="6">
         <f t="shared" si="26"/>
@@ -12378,13 +12405,13 @@
         <v>50</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>768</v>
+        <v>909</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O135" s="6">
         <f t="shared" si="26"/>
@@ -12441,13 +12468,13 @@
         <v>80</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>769</v>
+        <v>910</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O136" s="6">
         <f t="shared" si="26"/>
@@ -12507,13 +12534,13 @@
         <v>110</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>858</v>
+        <v>911</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O137" s="6">
         <f t="shared" si="26"/>
@@ -12548,7 +12575,7 @@
         <v>502</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>922</v>
+        <v>787</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>55</v>
@@ -12575,13 +12602,13 @@
         <v>86</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O138" s="6">
         <f t="shared" si="26"/>
@@ -12638,10 +12665,10 @@
         <v>95</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>859</v>
+        <v>913</v>
       </c>
       <c r="M139" s="7" t="s">
-        <v>902</v>
+        <v>779</v>
       </c>
       <c r="O139" s="6">
         <f t="shared" si="26"/>
@@ -12651,15 +12678,15 @@
         <f t="shared" si="27"/>
         <v>10.25</v>
       </c>
-      <c r="Q139" s="1">
+      <c r="Q139" s="3">
         <f t="shared" si="24"/>
         <v>8</v>
       </c>
-      <c r="R139" s="1">
+      <c r="R139" s="3">
         <f t="shared" si="25"/>
         <v>10</v>
       </c>
-      <c r="S139" s="5">
+      <c r="S139" s="3">
         <f t="shared" si="28"/>
         <v>18</v>
       </c>
@@ -12698,10 +12725,10 @@
         <v>80</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>702</v>
+        <v>902</v>
       </c>
       <c r="M140" s="7" t="s">
-        <v>902</v>
+        <v>779</v>
       </c>
       <c r="O140" s="6">
         <f t="shared" si="26"/>
@@ -12711,21 +12738,20 @@
         <f t="shared" si="27"/>
         <v>9.25</v>
       </c>
-      <c r="Q140" s="1">
-        <f t="shared" si="24"/>
-        <v>10</v>
-      </c>
-      <c r="R140" s="1">
+      <c r="Q140" s="2">
+        <v>9</v>
+      </c>
+      <c r="R140" s="3">
         <f t="shared" si="25"/>
         <v>9</v>
       </c>
-      <c r="S140" s="5">
+      <c r="S140" s="3">
         <f t="shared" si="28"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T140" s="1">
         <f t="shared" si="29"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
@@ -12758,10 +12784,10 @@
         <v>115</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>860</v>
+        <v>914</v>
       </c>
       <c r="M141" s="7" t="s">
-        <v>902</v>
+        <v>779</v>
       </c>
       <c r="O141" s="6">
         <f t="shared" si="26"/>
@@ -12771,21 +12797,19 @@
         <f t="shared" si="27"/>
         <v>7.25</v>
       </c>
-      <c r="Q141" s="1">
-        <f t="shared" si="24"/>
-        <v>12</v>
-      </c>
-      <c r="R141" s="1">
-        <f t="shared" si="25"/>
-        <v>7</v>
-      </c>
-      <c r="S141" s="5">
+      <c r="Q141" s="2">
+        <v>10</v>
+      </c>
+      <c r="R141" s="2">
+        <v>8</v>
+      </c>
+      <c r="S141" s="3">
         <f t="shared" si="28"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T141" s="1">
         <f t="shared" si="29"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
@@ -12820,10 +12844,10 @@
         <v>90</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>861</v>
+        <v>915</v>
       </c>
       <c r="M142" s="5" t="s">
-        <v>901</v>
+        <v>778</v>
       </c>
       <c r="O142" s="6">
         <f t="shared" si="26"/>
@@ -12882,10 +12906,10 @@
         <v>100</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>862</v>
+        <v>916</v>
       </c>
       <c r="M143" s="5" t="s">
-        <v>901</v>
+        <v>778</v>
       </c>
       <c r="O143" s="6">
         <f t="shared" si="26"/>
@@ -12944,13 +12968,13 @@
         <v>77</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>863</v>
+        <v>917</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N144" s="3" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O144" s="6">
         <f t="shared" si="26"/>
@@ -12985,7 +13009,7 @@
         <v>509</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>923</v>
+        <v>788</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>33</v>
@@ -13009,13 +13033,13 @@
         <v>100</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>864</v>
+        <v>918</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N145" s="3" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O145" s="6">
         <f t="shared" si="26"/>
@@ -13042,7 +13066,7 @@
         <v>10</v>
       </c>
       <c r="U145" t="s">
-        <v>887</v>
+        <v>765</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.25">
@@ -13077,10 +13101,10 @@
         <v>90</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>865</v>
+        <v>919</v>
       </c>
       <c r="M146" s="5" t="s">
-        <v>901</v>
+        <v>778</v>
       </c>
       <c r="O146" s="6">
         <f t="shared" si="26"/>
@@ -13136,13 +13160,13 @@
         <v>85</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>866</v>
+        <v>920</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N147" s="3" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O147" s="6">
         <f t="shared" si="26"/>
@@ -13197,13 +13221,13 @@
         <v>80</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>867</v>
+        <v>921</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O148" s="6">
         <f t="shared" si="26"/>
@@ -13259,13 +13283,13 @@
         <v>100</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>868</v>
+        <v>922</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N149" s="3" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O149" s="6">
         <f t="shared" si="26"/>
@@ -13321,13 +13345,13 @@
         <v>125</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>869</v>
+        <v>923</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="N150" s="3" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O150" s="6">
         <f t="shared" si="26"/>
@@ -13383,13 +13407,13 @@
         <v>100</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>870</v>
+        <v>924</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="N151" s="3" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O151" s="6">
         <f t="shared" si="26"/>
@@ -13445,10 +13469,10 @@
         <v>120</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>871</v>
+        <v>925</v>
       </c>
       <c r="M152" s="7" t="s">
-        <v>902</v>
+        <v>779</v>
       </c>
       <c r="O152" s="6">
         <f t="shared" si="26"/>
@@ -13507,13 +13531,13 @@
         <v>65</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>665</v>
+        <v>926</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O153" s="6">
         <f t="shared" si="26"/>
@@ -13572,13 +13596,13 @@
         <v>95</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>665</v>
+        <v>926</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O154" s="6">
         <f t="shared" si="26"/>
@@ -13634,13 +13658,13 @@
         <v>75</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>766</v>
+        <v>927</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="N155" s="3" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O155" s="6">
         <f t="shared" si="26"/>
@@ -13697,13 +13721,13 @@
         <v>50</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>782</v>
+        <v>928</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="N156" s="3" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O156" s="6">
         <f t="shared" si="26"/>
@@ -13730,7 +13754,7 @@
         <v>8</v>
       </c>
       <c r="U156" t="s">
-        <v>887</v>
+        <v>765</v>
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.25">
@@ -13763,13 +13787,13 @@
         <v>50</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>783</v>
+        <v>929</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="N157" s="3" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O157" s="6">
         <f t="shared" si="26"/>
@@ -13796,7 +13820,7 @@
         <v>8</v>
       </c>
       <c r="U157" t="s">
-        <v>887</v>
+        <v>765</v>
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.25">
@@ -13829,13 +13853,13 @@
         <v>50</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>784</v>
+        <v>930</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="N158" s="3" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="O158" s="6">
         <f t="shared" si="26"/>
@@ -13861,7 +13885,7 @@
         <v>8</v>
       </c>
       <c r="U158" t="s">
-        <v>887</v>
+        <v>765</v>
       </c>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.25">
@@ -13895,13 +13919,13 @@
         <v>80</v>
       </c>
       <c r="L159" t="s">
-        <v>598</v>
+        <v>931</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O159" s="6">
         <f t="shared" si="26"/>
@@ -13961,13 +13985,13 @@
         <v>81</v>
       </c>
       <c r="L160" t="s">
-        <v>599</v>
+        <v>932</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="O160" s="6">
         <f t="shared" si="26"/>
@@ -14027,13 +14051,13 @@
         <v>25</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>770</v>
+        <v>933</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N161" s="3" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O161" s="6">
         <f t="shared" si="26"/>
@@ -14093,13 +14117,13 @@
         <v>45</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>771</v>
+        <v>934</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O162" s="6">
         <f t="shared" si="26"/>
@@ -14159,13 +14183,13 @@
         <v>65</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>772</v>
+        <v>935</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="O163" s="6">
         <f t="shared" si="26"/>
@@ -14299,7 +14323,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14308,7 +14332,7 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14319,94 +14343,84 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="C2" s="1">
         <f>COUNTIFS(sinnoh!M2:M163, A2, sinnoh!N2:N163, B2, sinnoh!T2:T163, "&gt;=1")</f>
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>903</v>
-      </c>
-      <c r="F2" t="s">
-        <v>904</v>
-      </c>
       <c r="G2" t="s">
-        <v>908</v>
+        <v>792</v>
       </c>
       <c r="H2" t="s">
-        <v>907</v>
+        <v>797</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="C3" s="1">
         <f>COUNTIFS(sinnoh!M2:M163, A3, sinnoh!N2:N163, B3, sinnoh!T2:T163, "&gt;=1")</f>
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>905</v>
-      </c>
       <c r="G3" t="s">
-        <v>909</v>
+        <v>793</v>
       </c>
       <c r="H3" t="s">
-        <v>907</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>911</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="C4" s="1">
         <f>COUNTIFS(sinnoh!M2:M163, A4, sinnoh!N2:N163, B4, sinnoh!T2:T163, "&gt;=1")</f>
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>906</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>910</v>
+        <v>794</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>912</v>
-      </c>
+        <v>796</v>
+      </c>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="C5" s="1">
         <f>COUNTIFS(sinnoh!M2:M163, A5, sinnoh!N2:N163, B5, sinnoh!T2:T163, "&gt;=1")</f>
         <v>15</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="H5" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="C6" s="1">
         <f>COUNTIFS(sinnoh!M2:M163, A6, sinnoh!N2:N163, B6, sinnoh!T2:T163, "&gt;=1")</f>
@@ -14415,10 +14429,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="C7" s="1">
         <f>COUNTIFS(sinnoh!M2:M163, A7, sinnoh!N2:N163, B7, sinnoh!T2:T163, "&gt;=1")</f>
@@ -14427,10 +14441,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="C8" s="1">
         <f>COUNTIFS(sinnoh!M2:M163, A8, sinnoh!N2:N163, B8, sinnoh!T2:T163, "&gt;=1")</f>
@@ -14439,10 +14453,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="C9" s="1">
         <f>COUNTIFS(sinnoh!M2:M163, A9, sinnoh!N2:N163, B9, sinnoh!T2:T163, "&gt;=1")</f>
@@ -14451,10 +14465,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="C10" s="1">
         <f>COUNTIFS(sinnoh!M2:M163, A10, sinnoh!N2:N163, B10, sinnoh!T2:T163, "&gt;=1")</f>
@@ -14463,10 +14477,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="C11" s="1">
         <f>COUNTIFS(sinnoh!M2:M163, A11, sinnoh!N2:N163, B11, sinnoh!T2:T163, "&gt;=1")</f>
@@ -14475,10 +14489,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="C12" s="1">
         <f>COUNTIFS(sinnoh!M2:M163, A12, sinnoh!N2:N163, B12, sinnoh!T2:T163, "&gt;=1")</f>
@@ -14487,10 +14501,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="C13" s="1">
         <f>COUNTIFS(sinnoh!M2:M163, A13, sinnoh!N2:N163, B13, sinnoh!T2:T163, "&gt;=1")</f>
@@ -14499,10 +14513,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="C14" s="1">
         <f>COUNTIFS(sinnoh!M2:M163, A14, sinnoh!N2:N163, B14, sinnoh!T2:T163, "&gt;=1")</f>
@@ -14511,10 +14525,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="C15" s="1">
         <f>COUNTIFS(sinnoh!M2:M163, A15, sinnoh!N2:N163, B15, sinnoh!T2:T163, "&gt;=1")</f>
@@ -14523,10 +14537,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="C16" s="1">
         <f>COUNTIFS(sinnoh!M2:M163, A16, sinnoh!N2:N163, B16, sinnoh!T2:T163, "&gt;=1")</f>
@@ -14634,10 +14648,10 @@
         <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>880</v>
+        <v>758</v>
       </c>
       <c r="M1" t="s">
-        <v>881</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -15595,7 +15609,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>872</v>
+        <v>750</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -15694,7 +15708,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>872</v>
+        <v>750</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -17376,7 +17390,7 @@
         <v>60</v>
       </c>
       <c r="K82" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -17411,7 +17425,7 @@
         <v>75</v>
       </c>
       <c r="K83" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -17446,7 +17460,7 @@
         <v>110</v>
       </c>
       <c r="K84" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -17478,7 +17492,7 @@
         <v>45</v>
       </c>
       <c r="K85" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -17513,7 +17527,7 @@
         <v>70</v>
       </c>
       <c r="K86" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -17548,7 +17562,7 @@
         <v>25</v>
       </c>
       <c r="K87" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -17583,7 +17597,7 @@
         <v>50</v>
       </c>
       <c r="K88" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -17615,7 +17629,7 @@
         <v>40</v>
       </c>
       <c r="K89" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -17650,7 +17664,7 @@
         <v>70</v>
       </c>
       <c r="K90" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -17685,7 +17699,7 @@
         <v>80</v>
       </c>
       <c r="K91" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -17720,7 +17734,7 @@
         <v>95</v>
       </c>
       <c r="K92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -17755,7 +17769,7 @@
         <v>130</v>
       </c>
       <c r="K93" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -17790,7 +17804,7 @@
         <v>70</v>
       </c>
       <c r="K94" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -17822,7 +17836,7 @@
         <v>42</v>
       </c>
       <c r="K95" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -17854,7 +17868,7 @@
         <v>67</v>
       </c>
       <c r="K96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -17886,7 +17900,7 @@
         <v>50</v>
       </c>
       <c r="K97" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -17918,7 +17932,7 @@
         <v>75</v>
       </c>
       <c r="K98" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -17950,7 +17964,7 @@
         <v>100</v>
       </c>
       <c r="K99" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -17982,7 +17996,7 @@
         <v>150</v>
       </c>
       <c r="K100" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -18017,7 +18031,7 @@
         <v>40</v>
       </c>
       <c r="K101" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -18052,7 +18066,7 @@
         <v>45</v>
       </c>
       <c r="K102" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -18084,7 +18098,7 @@
         <v>35</v>
       </c>
       <c r="K103" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -18119,7 +18133,7 @@
         <v>45</v>
       </c>
       <c r="K104" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -18151,7 +18165,7 @@
         <v>87</v>
       </c>
       <c r="K105" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -18183,7 +18197,7 @@
         <v>76</v>
       </c>
       <c r="K106" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -18215,7 +18229,7 @@
         <v>35</v>
       </c>
       <c r="K107" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -18247,7 +18261,7 @@
         <v>60</v>
       </c>
       <c r="K108" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -18279,7 +18293,7 @@
         <v>100</v>
       </c>
       <c r="K109" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -18311,7 +18325,7 @@
         <v>60</v>
       </c>
       <c r="K110" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -18343,7 +18357,7 @@
         <v>85</v>
       </c>
       <c r="K111" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -18375,7 +18389,7 @@
         <v>63</v>
       </c>
       <c r="K112" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -18407,7 +18421,7 @@
         <v>68</v>
       </c>
       <c r="K113" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -18439,7 +18453,7 @@
         <v>85</v>
       </c>
       <c r="K114" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -18474,7 +18488,7 @@
         <v>115</v>
       </c>
       <c r="K115" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -18509,7 +18523,7 @@
         <v>105</v>
       </c>
       <c r="K116" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -18544,7 +18558,7 @@
         <v>95</v>
       </c>
       <c r="K117" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -18576,7 +18590,7 @@
         <v>105</v>
       </c>
       <c r="K118" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -18608,7 +18622,7 @@
         <v>110</v>
       </c>
       <c r="K119" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -18643,7 +18657,7 @@
         <v>60</v>
       </c>
       <c r="K120" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -18675,7 +18689,7 @@
         <v>48</v>
       </c>
       <c r="K121" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -18707,7 +18721,7 @@
         <v>40</v>
       </c>
       <c r="K122" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -18742,7 +18756,7 @@
         <v>35</v>
       </c>
       <c r="K123" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -18777,7 +18791,7 @@
         <v>55</v>
       </c>
       <c r="K124" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -18882,7 +18896,7 @@
         <v>150</v>
       </c>
       <c r="K127" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -18917,7 +18931,7 @@
         <v>85</v>
       </c>
       <c r="K128" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -18952,7 +18966,7 @@
         <v>100</v>
       </c>
       <c r="K129" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -19019,7 +19033,7 @@
         <v>50</v>
       </c>
       <c r="K131" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -19051,7 +19065,7 @@
         <v>70</v>
       </c>
       <c r="K132" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -19086,7 +19100,7 @@
         <v>80</v>
       </c>
       <c r="K133" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -19118,7 +19132,7 @@
         <v>140</v>
       </c>
       <c r="K134" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -19150,7 +19164,7 @@
         <v>100</v>
       </c>
       <c r="K135" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -19182,7 +19196,7 @@
         <v>45</v>
       </c>
       <c r="K136" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -19214,7 +19228,7 @@
         <v>60</v>
       </c>
       <c r="K137" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -19246,7 +19260,7 @@
         <v>80</v>
       </c>
       <c r="K138" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -19278,7 +19292,7 @@
         <v>65</v>
       </c>
       <c r="K139" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -19310,7 +19324,7 @@
         <v>80</v>
       </c>
       <c r="K140" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -19342,7 +19356,7 @@
         <v>100</v>
       </c>
       <c r="K141" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -19374,7 +19388,7 @@
         <v>43</v>
       </c>
       <c r="K142" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -19406,7 +19420,7 @@
         <v>58</v>
       </c>
       <c r="K143" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -19438,7 +19452,7 @@
         <v>78</v>
       </c>
       <c r="K144" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -19470,7 +19484,7 @@
         <v>20</v>
       </c>
       <c r="K145" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -19502,7 +19516,7 @@
         <v>90</v>
       </c>
       <c r="K146" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -19537,7 +19551,7 @@
         <v>50</v>
       </c>
       <c r="K147" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -19572,7 +19586,7 @@
         <v>70</v>
       </c>
       <c r="K148" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -19607,7 +19621,7 @@
         <v>55</v>
       </c>
       <c r="K149" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -19642,7 +19656,7 @@
         <v>85</v>
       </c>
       <c r="K150" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -19677,7 +19691,7 @@
         <v>30</v>
       </c>
       <c r="K151" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -19712,7 +19726,7 @@
         <v>40</v>
       </c>
       <c r="K152" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -19782,7 +19796,7 @@
         <v>67</v>
       </c>
       <c r="K154" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -19817,7 +19831,7 @@
         <v>67</v>
       </c>
       <c r="K155" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -19849,7 +19863,7 @@
         <v>60</v>
       </c>
       <c r="K156" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -19881,7 +19895,7 @@
         <v>15</v>
       </c>
       <c r="K157" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -19951,7 +19965,7 @@
         <v>70</v>
       </c>
       <c r="K159" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -19986,7 +20000,7 @@
         <v>95</v>
       </c>
       <c r="K160" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -20018,7 +20032,7 @@
         <v>35</v>
       </c>
       <c r="K161" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -20050,7 +20064,7 @@
         <v>45</v>
       </c>
       <c r="K162" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -20082,7 +20096,7 @@
         <v>45</v>
       </c>
       <c r="K163" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -20149,7 +20163,7 @@
         <v>40</v>
       </c>
       <c r="K165" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -20184,7 +20198,7 @@
         <v>50</v>
       </c>
       <c r="K166" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -20216,7 +20230,7 @@
         <v>70</v>
       </c>
       <c r="K167" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -20251,7 +20265,7 @@
         <v>50</v>
       </c>
       <c r="K168" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -20286,7 +20300,7 @@
         <v>80</v>
       </c>
       <c r="K169" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -20321,7 +20335,7 @@
         <v>110</v>
       </c>
       <c r="K170" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -20385,7 +20399,7 @@
         <v>30</v>
       </c>
       <c r="K172" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -20420,7 +20434,7 @@
         <v>15</v>
       </c>
       <c r="K173" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -20455,7 +20469,7 @@
         <v>35</v>
       </c>
       <c r="K174" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -20490,7 +20504,7 @@
         <v>30</v>
       </c>
       <c r="K175" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -20522,7 +20536,7 @@
         <v>48</v>
       </c>
       <c r="K176" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -20554,7 +20568,7 @@
         <v>33</v>
       </c>
       <c r="K177" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -20589,7 +20603,7 @@
         <v>85</v>
       </c>
       <c r="K178" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -20621,7 +20635,7 @@
         <v>15</v>
       </c>
       <c r="K179" t="s">
-        <v>648</v>
+        <v>631</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -20656,7 +20670,7 @@
         <v>40</v>
       </c>
       <c r="K180" t="s">
-        <v>648</v>
+        <v>631</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -20688,7 +20702,7 @@
         <v>45</v>
       </c>
       <c r="K181" t="s">
-        <v>649</v>
+        <v>632</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -20723,7 +20737,7 @@
         <v>30</v>
       </c>
       <c r="K182" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -20857,7 +20871,7 @@
         <v>75</v>
       </c>
       <c r="K186" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -20892,7 +20906,7 @@
         <v>5</v>
       </c>
       <c r="K187" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -20927,7 +20941,7 @@
         <v>75</v>
       </c>
       <c r="K188" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -20959,7 +20973,7 @@
         <v>40</v>
       </c>
       <c r="K189" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -20991,7 +21005,7 @@
         <v>55</v>
       </c>
       <c r="K190" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -21023,7 +21037,7 @@
         <v>20</v>
       </c>
       <c r="K191" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -21058,7 +21072,7 @@
         <v>30</v>
       </c>
       <c r="K192" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -21093,7 +21107,7 @@
         <v>35</v>
       </c>
       <c r="K193" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -21125,7 +21139,7 @@
         <v>65</v>
       </c>
       <c r="K194" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -21157,7 +21171,7 @@
         <v>45</v>
       </c>
       <c r="K195" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -21192,7 +21206,7 @@
         <v>75</v>
       </c>
       <c r="K196" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -21227,7 +21241,7 @@
         <v>70</v>
       </c>
       <c r="K197" t="s">
-        <v>664</v>
+        <v>642</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -21262,7 +21276,7 @@
         <v>85</v>
       </c>
       <c r="K198" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -21294,7 +21308,7 @@
         <v>40</v>
       </c>
       <c r="K199" t="s">
-        <v>666</v>
+        <v>643</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -21326,7 +21340,7 @@
         <v>50</v>
       </c>
       <c r="K200" t="s">
-        <v>667</v>
+        <v>644</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -21358,7 +21372,7 @@
         <v>60</v>
       </c>
       <c r="K201" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -21390,7 +21404,7 @@
         <v>85</v>
       </c>
       <c r="K202" t="s">
-        <v>668</v>
+        <v>645</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -21422,7 +21436,7 @@
         <v>75</v>
       </c>
       <c r="K203" t="s">
-        <v>669</v>
+        <v>646</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -21454,7 +21468,7 @@
         <v>35</v>
       </c>
       <c r="K204" t="s">
-        <v>670</v>
+        <v>647</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -21486,7 +21500,7 @@
         <v>70</v>
       </c>
       <c r="K205" t="s">
-        <v>671</v>
+        <v>648</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -21521,7 +21535,7 @@
         <v>65</v>
       </c>
       <c r="K206" t="s">
-        <v>672</v>
+        <v>649</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -21553,7 +21567,7 @@
         <v>100</v>
       </c>
       <c r="K207" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -21585,7 +21599,7 @@
         <v>115</v>
       </c>
       <c r="K208" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -21617,7 +21631,7 @@
         <v>100</v>
       </c>
       <c r="K209" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -21649,7 +21663,7 @@
         <v>85</v>
       </c>
       <c r="K210" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -21684,7 +21698,7 @@
         <v>41</v>
       </c>
       <c r="K211" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -21719,7 +21733,7 @@
         <v>51</v>
       </c>
       <c r="K212" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -21754,7 +21768,7 @@
         <v>71</v>
       </c>
       <c r="K213" t="s">
-        <v>667</v>
+        <v>644</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -21789,7 +21803,7 @@
         <v>110</v>
       </c>
       <c r="K214" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -21824,7 +21838,7 @@
         <v>90</v>
       </c>
       <c r="K215" t="s">
-        <v>680</v>
+        <v>656</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -21859,7 +21873,7 @@
         <v>100</v>
       </c>
       <c r="K216" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -21891,7 +21905,7 @@
         <v>70</v>
       </c>
       <c r="K217" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -21923,7 +21937,7 @@
         <v>95</v>
       </c>
       <c r="K218" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -21955,7 +21969,7 @@
         <v>145</v>
       </c>
       <c r="K219" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -21987,7 +22001,7 @@
         <v>45</v>
       </c>
       <c r="K220" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -22022,7 +22036,7 @@
         <v>55</v>
       </c>
       <c r="K221" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -22057,7 +22071,7 @@
         <v>100</v>
       </c>
       <c r="K222" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -22089,7 +22103,7 @@
         <v>40</v>
       </c>
       <c r="K223" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -22124,7 +22138,7 @@
         <v>50</v>
       </c>
       <c r="K224" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -22159,7 +22173,7 @@
         <v>70</v>
       </c>
       <c r="K225" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -22191,7 +22205,7 @@
         <v>35</v>
       </c>
       <c r="K226" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -22223,7 +22237,7 @@
         <v>70</v>
       </c>
       <c r="K227" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -22255,7 +22269,7 @@
         <v>60</v>
       </c>
       <c r="K228" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -22287,7 +22301,7 @@
         <v>100</v>
       </c>
       <c r="K229" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -22488,7 +22502,7 @@
         <v>30</v>
       </c>
       <c r="K235" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -22523,7 +22537,7 @@
         <v>50</v>
       </c>
       <c r="K236" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -22558,7 +22572,7 @@
         <v>70</v>
       </c>
       <c r="K237" t="s">
-        <v>693</v>
+        <v>669</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -22590,7 +22604,7 @@
         <v>30</v>
       </c>
       <c r="K238" t="s">
-        <v>694</v>
+        <v>670</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -22625,7 +22639,7 @@
         <v>60</v>
       </c>
       <c r="K239" t="s">
-        <v>695</v>
+        <v>671</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -22660,7 +22674,7 @@
         <v>80</v>
       </c>
       <c r="K240" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -22695,7 +22709,7 @@
         <v>85</v>
       </c>
       <c r="K241" t="s">
-        <v>697</v>
+        <v>673</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -22730,7 +22744,7 @@
         <v>125</v>
       </c>
       <c r="K242" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -22765,7 +22779,7 @@
         <v>85</v>
       </c>
       <c r="K243" t="s">
-        <v>699</v>
+        <v>675</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -22800,7 +22814,7 @@
         <v>65</v>
       </c>
       <c r="K244" t="s">
-        <v>700</v>
+        <v>676</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -22835,7 +22849,7 @@
         <v>65</v>
       </c>
       <c r="K245" t="s">
-        <v>704</v>
+        <v>677</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -22870,7 +22884,7 @@
         <v>80</v>
       </c>
       <c r="K246" t="s">
-        <v>705</v>
+        <v>678</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -22969,7 +22983,7 @@
         <v>30</v>
       </c>
       <c r="K249" t="s">
-        <v>706</v>
+        <v>679</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
@@ -23001,7 +23015,7 @@
         <v>90</v>
       </c>
       <c r="K250" t="s">
-        <v>707</v>
+        <v>680</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -23033,7 +23047,7 @@
         <v>100</v>
       </c>
       <c r="K251" t="s">
-        <v>708</v>
+        <v>681</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -23068,7 +23082,7 @@
         <v>40</v>
       </c>
       <c r="K252" t="s">
-        <v>709</v>
+        <v>682</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -23103,7 +23117,7 @@
         <v>160</v>
       </c>
       <c r="K253" t="s">
-        <v>710</v>
+        <v>683</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -23138,7 +23152,7 @@
         <v>40</v>
       </c>
       <c r="K254" t="s">
-        <v>711</v>
+        <v>684</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -23170,7 +23184,7 @@
         <v>28</v>
       </c>
       <c r="K255" t="s">
-        <v>712</v>
+        <v>685</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
@@ -23202,7 +23216,7 @@
         <v>48</v>
       </c>
       <c r="K256" t="s">
-        <v>713</v>
+        <v>686</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -23234,7 +23248,7 @@
         <v>68</v>
       </c>
       <c r="K257" t="s">
-        <v>714</v>
+        <v>687</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -23266,7 +23280,7 @@
         <v>25</v>
       </c>
       <c r="K258" t="s">
-        <v>715</v>
+        <v>688</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
@@ -23298,7 +23312,7 @@
         <v>50</v>
       </c>
       <c r="K259" t="s">
-        <v>716</v>
+        <v>689</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -23333,7 +23347,7 @@
         <v>20</v>
       </c>
       <c r="K260" t="s">
-        <v>717</v>
+        <v>690</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
@@ -23365,7 +23379,7 @@
         <v>50</v>
       </c>
       <c r="K261" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
@@ -23397,7 +23411,7 @@
         <v>90</v>
       </c>
       <c r="K262" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -23432,7 +23446,7 @@
         <v>20</v>
       </c>
       <c r="K263" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
@@ -23467,7 +23481,7 @@
         <v>50</v>
       </c>
       <c r="K264" t="s">
-        <v>721</v>
+        <v>693</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
@@ -23502,7 +23516,7 @@
         <v>30</v>
       </c>
       <c r="K265" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -23537,7 +23551,7 @@
         <v>40</v>
       </c>
       <c r="K266" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -23572,7 +23586,7 @@
         <v>50</v>
       </c>
       <c r="K267" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -23607,7 +23621,7 @@
         <v>60</v>
       </c>
       <c r="K268" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -23642,7 +23656,7 @@
         <v>100</v>
       </c>
       <c r="K269" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -23674,7 +23688,7 @@
         <v>65</v>
       </c>
       <c r="K270" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
@@ -23706,7 +23720,7 @@
         <v>135</v>
       </c>
       <c r="K271" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -23738,7 +23752,7 @@
         <v>95</v>
       </c>
       <c r="K272" t="s">
-        <v>725</v>
+        <v>697</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
@@ -23770,7 +23784,7 @@
         <v>95</v>
       </c>
       <c r="K273" t="s">
-        <v>725</v>
+        <v>697</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
@@ -23802,7 +23816,7 @@
         <v>85</v>
       </c>
       <c r="K274" t="s">
-        <v>726</v>
+        <v>698</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -23834,7 +23848,7 @@
         <v>85</v>
       </c>
       <c r="K275" t="s">
-        <v>726</v>
+        <v>698</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
@@ -23866,7 +23880,7 @@
         <v>40</v>
       </c>
       <c r="K276" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -23898,7 +23912,7 @@
         <v>55</v>
       </c>
       <c r="K277" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -23933,7 +23947,7 @@
         <v>65</v>
       </c>
       <c r="K278" t="s">
-        <v>730</v>
+        <v>701</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -23968,7 +23982,7 @@
         <v>105</v>
       </c>
       <c r="K279" t="s">
-        <v>731</v>
+        <v>702</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -24000,7 +24014,7 @@
         <v>60</v>
       </c>
       <c r="K280" t="s">
-        <v>732</v>
+        <v>703</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -24032,7 +24046,7 @@
         <v>60</v>
       </c>
       <c r="K281" t="s">
-        <v>733</v>
+        <v>704</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
@@ -24067,7 +24081,7 @@
         <v>35</v>
       </c>
       <c r="K282" t="s">
-        <v>734</v>
+        <v>705</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
@@ -24102,7 +24116,7 @@
         <v>20</v>
       </c>
       <c r="K283" t="s">
-        <v>735</v>
+        <v>706</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
@@ -24134,7 +24148,7 @@
         <v>20</v>
       </c>
       <c r="K284" t="s">
-        <v>736</v>
+        <v>707</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
@@ -24166,7 +24180,7 @@
         <v>60</v>
       </c>
       <c r="K285" t="s">
-        <v>737</v>
+        <v>708</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
@@ -24198,7 +24212,7 @@
         <v>80</v>
       </c>
       <c r="K286" t="s">
-        <v>738</v>
+        <v>709</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
@@ -24230,7 +24244,7 @@
         <v>60</v>
       </c>
       <c r="K287" t="s">
-        <v>739</v>
+        <v>710</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
@@ -24262,7 +24276,7 @@
         <v>10</v>
       </c>
       <c r="K288" t="s">
-        <v>740</v>
+        <v>711</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
@@ -24297,7 +24311,7 @@
         <v>70</v>
       </c>
       <c r="K289" t="s">
-        <v>741</v>
+        <v>712</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
@@ -24332,7 +24346,7 @@
         <v>100</v>
       </c>
       <c r="K290" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
@@ -24364,7 +24378,7 @@
         <v>35</v>
       </c>
       <c r="K291" t="s">
-        <v>742</v>
+        <v>713</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
@@ -24399,7 +24413,7 @@
         <v>55</v>
       </c>
       <c r="K292" t="s">
-        <v>743</v>
+        <v>714</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
@@ -24434,7 +24448,7 @@
         <v>50</v>
       </c>
       <c r="K293" t="s">
-        <v>744</v>
+        <v>715</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
@@ -24469,7 +24483,7 @@
         <v>80</v>
       </c>
       <c r="K294" t="s">
-        <v>745</v>
+        <v>716</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
@@ -24501,7 +24515,7 @@
         <v>90</v>
       </c>
       <c r="K295" t="s">
-        <v>746</v>
+        <v>717</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
@@ -24533,7 +24547,7 @@
         <v>65</v>
       </c>
       <c r="K296" t="s">
-        <v>747</v>
+        <v>718</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
@@ -24568,7 +24582,7 @@
         <v>70</v>
       </c>
       <c r="K297" t="s">
-        <v>748</v>
+        <v>719</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
@@ -24603,7 +24617,7 @@
         <v>70</v>
       </c>
       <c r="K298" t="s">
-        <v>748</v>
+        <v>719</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
@@ -24638,7 +24652,7 @@
         <v>60</v>
       </c>
       <c r="K299" t="s">
-        <v>749</v>
+        <v>720</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
@@ -24673,7 +24687,7 @@
         <v>60</v>
       </c>
       <c r="K300" t="s">
-        <v>749</v>
+        <v>720</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
@@ -24705,7 +24719,7 @@
         <v>35</v>
       </c>
       <c r="K301" t="s">
-        <v>750</v>
+        <v>721</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
@@ -24740,7 +24754,7 @@
         <v>55</v>
       </c>
       <c r="K302" t="s">
-        <v>751</v>
+        <v>722</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
@@ -24775,7 +24789,7 @@
         <v>55</v>
       </c>
       <c r="K303" t="s">
-        <v>752</v>
+        <v>723</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
@@ -24810,7 +24824,7 @@
         <v>75</v>
       </c>
       <c r="K304" t="s">
-        <v>752</v>
+        <v>723</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
@@ -24845,7 +24859,7 @@
         <v>23</v>
       </c>
       <c r="K305" t="s">
-        <v>753</v>
+        <v>724</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
@@ -24880,7 +24894,7 @@
         <v>43</v>
       </c>
       <c r="K306" t="s">
-        <v>754</v>
+        <v>725</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
@@ -24915,7 +24929,7 @@
         <v>75</v>
       </c>
       <c r="K307" t="s">
-        <v>755</v>
+        <v>726</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
@@ -24950,7 +24964,7 @@
         <v>45</v>
       </c>
       <c r="K308" t="s">
-        <v>756</v>
+        <v>727</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
@@ -24982,7 +24996,7 @@
         <v>80</v>
       </c>
       <c r="K309" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
@@ -25014,7 +25028,7 @@
         <v>81</v>
       </c>
       <c r="K310" t="s">
-        <v>757</v>
+        <v>728</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
@@ -25046,7 +25060,7 @@
         <v>70</v>
       </c>
       <c r="K311" t="s">
-        <v>758</v>
+        <v>729</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
@@ -25078,7 +25092,7 @@
         <v>40</v>
       </c>
       <c r="K312" t="s">
-        <v>759</v>
+        <v>730</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
@@ -25110,7 +25124,7 @@
         <v>45</v>
       </c>
       <c r="K313" t="s">
-        <v>760</v>
+        <v>731</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
@@ -25142,7 +25156,7 @@
         <v>75</v>
       </c>
       <c r="K314" t="s">
-        <v>761</v>
+        <v>732</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
@@ -25177,7 +25191,7 @@
         <v>51</v>
       </c>
       <c r="K315" t="s">
-        <v>764</v>
+        <v>733</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
@@ -25209,7 +25223,7 @@
         <v>23</v>
       </c>
       <c r="K316" t="s">
-        <v>767</v>
+        <v>734</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
@@ -25241,7 +25255,7 @@
         <v>32</v>
       </c>
       <c r="K317" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
@@ -25273,7 +25287,7 @@
         <v>52</v>
       </c>
       <c r="K318" t="s">
-        <v>773</v>
+        <v>735</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
@@ -25305,7 +25319,7 @@
         <v>52</v>
       </c>
       <c r="K319" t="s">
-        <v>774</v>
+        <v>736</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
@@ -25340,7 +25354,7 @@
         <v>55</v>
       </c>
       <c r="K320" t="s">
-        <v>775</v>
+        <v>737</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
@@ -25372,7 +25386,7 @@
         <v>97</v>
       </c>
       <c r="K321" t="s">
-        <v>776</v>
+        <v>738</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
@@ -25404,7 +25418,7 @@
         <v>50</v>
       </c>
       <c r="K322" t="s">
-        <v>777</v>
+        <v>739</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
@@ -25436,7 +25450,7 @@
         <v>50</v>
       </c>
       <c r="K323" t="s">
-        <v>778</v>
+        <v>740</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
@@ -25471,7 +25485,7 @@
         <v>120</v>
       </c>
       <c r="K324" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
@@ -25506,7 +25520,7 @@
         <v>30</v>
       </c>
       <c r="K325" t="s">
-        <v>779</v>
+        <v>741</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
@@ -25541,7 +25555,7 @@
         <v>50</v>
       </c>
       <c r="K326" t="s">
-        <v>780</v>
+        <v>742</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
@@ -25576,7 +25590,7 @@
         <v>110</v>
       </c>
       <c r="K327" t="s">
-        <v>781</v>
+        <v>743</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
@@ -25611,7 +25625,7 @@
         <v>110</v>
       </c>
       <c r="K328" t="s">
-        <v>785</v>
+        <v>744</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
@@ -25646,7 +25660,7 @@
         <v>110</v>
       </c>
       <c r="K329" t="s">
-        <v>785</v>
+        <v>744</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
@@ -25678,7 +25692,7 @@
         <v>90</v>
       </c>
       <c r="K330" t="s">
-        <v>786</v>
+        <v>745</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
@@ -25710,7 +25724,7 @@
         <v>90</v>
       </c>
       <c r="K331" t="s">
-        <v>787</v>
+        <v>746</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
@@ -25745,7 +25759,7 @@
         <v>115</v>
       </c>
       <c r="K332" t="s">
-        <v>788</v>
+        <v>747</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
@@ -25780,7 +25794,7 @@
         <v>100</v>
       </c>
       <c r="K333" t="s">
-        <v>789</v>
+        <v>748</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
@@ -25812,7 +25826,7 @@
         <v>180</v>
       </c>
       <c r="K334" t="s">
-        <v>790</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>

--- a/sinnoh_cube.xlsx
+++ b/sinnoh_cube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levat\Documents\Tabletop Simulator\pokemon-legends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68466D47-E7CE-4DB2-B639-2ABA1C0497A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD52CE4-9621-4DA7-979D-EF2A7A9038F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3715,7 +3715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>

--- a/sinnoh_cube.xlsx
+++ b/sinnoh_cube.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levat\Documents\Tabletop Simulator\pokemon-legends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39AAEB7-4274-43D6-A995-54AEB60A109D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EFD327-A12E-44B3-B85E-2DBF94909193}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36705" yWindow="2910" windowWidth="21600" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sinnoh" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="932">
   <si>
     <t>attack</t>
   </si>
@@ -3704,8 +3704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="W65" sqref="W65"/>
+    <sheetView tabSelected="1" topLeftCell="B95" workbookViewId="0">
+      <selection activeCell="X144" sqref="X144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8483,8 +8483,11 @@
         <f t="shared" si="6"/>
         <v>normal</v>
       </c>
-      <c r="V65" s="8" t="s">
-        <v>77</v>
+      <c r="V65" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
@@ -8553,11 +8556,11 @@
         <f t="shared" si="6"/>
         <v>normal</v>
       </c>
-      <c r="V66" s="8" t="s">
+      <c r="V66" s="1" t="s">
         <v>77</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
@@ -13293,7 +13296,7 @@
         <v>6</v>
       </c>
       <c r="U130" s="1" t="str">
-        <f t="shared" ref="U130:V162" si="34">D130</f>
+        <f t="shared" ref="U130:U162" si="34">D130</f>
         <v>rock</v>
       </c>
       <c r="V130" s="1" t="str">

--- a/sinnoh_cube.xlsx
+++ b/sinnoh_cube.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levat\Documents\Tabletop Simulator\pokemon-legends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3333E7-D660-4CD6-AE39-63564EB19F7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71385FEA-1CE6-46CE-A528-9E3DA1B2395C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24375" yWindow="3870" windowWidth="21600" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sinnoh" sheetId="1" r:id="rId1"/>
@@ -3741,8 +3741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="T148" sqref="T148"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5240,7 +5240,7 @@
         <v>754</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="O18" s="5">
         <f t="shared" si="0"/>
@@ -5325,7 +5325,7 @@
         <v>754</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="O19" s="5">
         <f t="shared" si="0"/>
@@ -5413,7 +5413,7 @@
         <v>754</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="O20" s="5">
         <f t="shared" si="0"/>
@@ -13618,7 +13618,7 @@
         <v>10</v>
       </c>
       <c r="R118" s="1">
-        <f t="shared" ref="R118:R145" si="39">ROUND(P118, 0)</f>
+        <f t="shared" ref="R118:R144" si="39">ROUND(P118, 0)</f>
         <v>8</v>
       </c>
       <c r="S118" s="3">
@@ -17349,7 +17349,7 @@
       </c>
       <c r="C2" s="1">
         <f>COUNTIFS(sinnoh!M2:M162, A2, sinnoh!N2:N162, B2, sinnoh!T2:T162, "&gt;=1")</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>784</v>
@@ -17386,7 +17386,7 @@
       </c>
       <c r="C4" s="1">
         <f>COUNTIFS(sinnoh!M2:M162, A4, sinnoh!N2:N162, B4, sinnoh!T2:T162, "&gt;=1")</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>786</v>

--- a/sinnoh_cube.xlsx
+++ b/sinnoh_cube.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levat\Documents\Tabletop Simulator\pokemon-legends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE8AD50-B46B-41FD-BE53-71B2882831A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B0D709-158C-48C3-9A3F-FF170C88093C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36090" yWindow="5505" windowWidth="21600" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9330" yWindow="8055" windowWidth="19170" windowHeight="10320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sinnoh" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4710" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4601" uniqueCount="1207">
   <si>
     <t>attack</t>
   </si>
@@ -3004,9 +3004,6 @@
     <t>Swarm Song</t>
   </si>
   <si>
-    <t>X-Ray Vision</t>
-  </si>
-  <si>
     <t>Fairy Inhibitor</t>
   </si>
   <si>
@@ -3028,12 +3025,6 @@
     <t>Apricorn Powered</t>
   </si>
   <si>
-    <t>Life Guard</t>
-  </si>
-  <si>
-    <t>Sticky Ooze</t>
-  </si>
-  <si>
     <t>Big Boss</t>
   </si>
   <si>
@@ -3046,9 +3037,6 @@
     <t>Avenging Stench</t>
   </si>
   <si>
-    <t>At the start of a battle turn, this Pokémon may sacrifice itself to revive a fainted Pokémon.</t>
-  </si>
-  <si>
     <t>Water Aversion</t>
   </si>
   <si>
@@ -3058,718 +3046,616 @@
     <t>Snack Time</t>
   </si>
   <si>
-    <t>Aura Reader</t>
-  </si>
-  <si>
     <t>Bug Catcher</t>
   </si>
   <si>
-    <t>Sniper Precision</t>
-  </si>
-  <si>
     <t>Sand Stream</t>
   </si>
   <si>
     <t>Snow Warning</t>
   </si>
   <si>
+    <t>Naturally Crafty</t>
+  </si>
+  <si>
+    <t>Naturally Reckless</t>
+  </si>
+  <si>
+    <t>Rapid Regrowth</t>
+  </si>
+  <si>
+    <t>Magma Overdrive</t>
+  </si>
+  <si>
+    <t>Electrical Overload</t>
+  </si>
+  <si>
+    <t>Serene Grace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyper Cutter </t>
+  </si>
+  <si>
+    <t>Ability Tracer</t>
+  </si>
+  <si>
+    <t>Ability Nullifier</t>
+  </si>
+  <si>
+    <t>Mini Noses</t>
+  </si>
+  <si>
+    <t>Soul Grip</t>
+  </si>
+  <si>
+    <t>Deep Freeze</t>
+  </si>
+  <si>
+    <t>Barbed Grip</t>
+  </si>
+  <si>
+    <t>Tinted Lens</t>
+  </si>
+  <si>
+    <t>Victory Croak</t>
+  </si>
+  <si>
+    <t>Tectonic Shift</t>
+  </si>
+  <si>
+    <t>Disaster Reflex</t>
+  </si>
+  <si>
+    <t>Tail Glow</t>
+  </si>
+  <si>
+    <t>Eerie Howl</t>
+  </si>
+  <si>
+    <t>No Guard</t>
+  </si>
+  <si>
+    <t>Herd Leader</t>
+  </si>
+  <si>
+    <t>ability_name</t>
+  </si>
+  <si>
+    <t>ability_description</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>Plasma Pokémon</t>
+  </si>
+  <si>
+    <t>Wormadam/Mothim</t>
+  </si>
+  <si>
+    <t>Vaporeon/Jolteon/Flareon/Espeon/Umbreon/Leafeon/Glaceon</t>
+  </si>
+  <si>
+    <t>Gardevoir/Gallade</t>
+  </si>
+  <si>
+    <t>Glalie/Froslass</t>
+  </si>
+  <si>
+    <t>Blue/Yellow/Red/Pink/Black/Green/White</t>
+  </si>
+  <si>
+    <t>Red/Blue</t>
+  </si>
+  <si>
+    <t>Blue/Red</t>
+  </si>
+  <si>
+    <t>Eeveelution</t>
+  </si>
+  <si>
+    <t>Storm Form</t>
+  </si>
+  <si>
+    <t>Blizzard Form</t>
+  </si>
+  <si>
+    <t>Abundant Form</t>
+  </si>
+  <si>
+    <t>War Form</t>
+  </si>
+  <si>
+    <t>Plague Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsunami Form </t>
+  </si>
+  <si>
+    <t>Eruption Form</t>
+  </si>
+  <si>
+    <t>Hurricane Form</t>
+  </si>
+  <si>
+    <t>Earthquake Form</t>
+  </si>
+  <si>
+    <t>Swarm Form</t>
+  </si>
+  <si>
+    <t>Spectral Form</t>
+  </si>
+  <si>
+    <t>Draco Form</t>
+  </si>
+  <si>
+    <t>Meteor Form</t>
+  </si>
+  <si>
+    <t>Star Form</t>
+  </si>
+  <si>
+    <t>Clairvoyant Form</t>
+  </si>
+  <si>
+    <t>Sinister Form</t>
+  </si>
+  <si>
+    <t>Machine Form</t>
+  </si>
+  <si>
+    <t>Resourceful Beaver</t>
+  </si>
+  <si>
+    <t>Intimidating Rage</t>
+  </si>
+  <si>
+    <t>Lunar Blessing</t>
+  </si>
+  <si>
+    <t>Instant Barrier</t>
+  </si>
+  <si>
+    <t>Dubious Efficiency</t>
+  </si>
+  <si>
+    <t>Twin Tusks</t>
+  </si>
+  <si>
+    <t>Renewal Protocol</t>
+  </si>
+  <si>
+    <t>Combat Simulator</t>
+  </si>
+  <si>
+    <t>Huge Power</t>
+  </si>
+  <si>
+    <t>Tiny Alliance</t>
+  </si>
+  <si>
+    <t>Magic Guard</t>
+  </si>
+  <si>
+    <t>Ancient Form</t>
+  </si>
+  <si>
+    <t>Big Horn</t>
+  </si>
+  <si>
+    <t>Cross Poison</t>
+  </si>
+  <si>
+    <t>Aquatic Melody</t>
+  </si>
+  <si>
+    <t>Herd Protector</t>
+  </si>
+  <si>
+    <t>Dawn Chorus</t>
+  </si>
+  <si>
+    <t>Swimming Partner</t>
+  </si>
+  <si>
+    <t>Double Hit</t>
+  </si>
+  <si>
+    <t>Perfect World Grunt</t>
+  </si>
+  <si>
+    <t>Skunky</t>
+  </si>
+  <si>
+    <t>female_grunt</t>
+  </si>
+  <si>
+    <t>male_grunt</t>
+  </si>
+  <si>
+    <t>trainer</t>
+  </si>
+  <si>
+    <t>biome</t>
+  </si>
+  <si>
+    <t>climate</t>
+  </si>
+  <si>
+    <t>Chilling Acuity</t>
+  </si>
+  <si>
+    <t>Energising Verity</t>
+  </si>
+  <si>
+    <t>Blazing Valor</t>
+  </si>
+  <si>
+    <t>Surge Surfer</t>
+  </si>
+  <si>
+    <t>Gravity Manipulation</t>
+  </si>
+  <si>
+    <t>Unstoppable Rampage</t>
+  </si>
+  <si>
+    <t>Mutual Infatuation</t>
+  </si>
+  <si>
+    <t>Hidden Potential</t>
+  </si>
+  <si>
+    <t>Perfect World Jupiter</t>
+  </si>
+  <si>
+    <t>Perfect World Mars</t>
+  </si>
+  <si>
+    <t>Perfect World Saturn</t>
+  </si>
+  <si>
+    <t>Perfect World Cyrus</t>
+  </si>
+  <si>
+    <t>jupiter</t>
+  </si>
+  <si>
+    <t>mars</t>
+  </si>
+  <si>
+    <t>saturn</t>
+  </si>
+  <si>
+    <t>cyrus</t>
+  </si>
+  <si>
+    <t>Judgment Eternal</t>
+  </si>
+  <si>
+    <t>Unified Purpose</t>
+  </si>
+  <si>
+    <t>Add 1 bonus power for each other Perfect World Grunt involved in the battle.</t>
+  </si>
+  <si>
+    <t>Apex Predator</t>
+  </si>
+  <si>
+    <t>Temporal Roar</t>
+  </si>
+  <si>
+    <t>Spacial Rend</t>
+  </si>
+  <si>
+    <t>During action selection, your opponent must tell you whether they will attack or switch.</t>
+  </si>
+  <si>
+    <t>Magnet Pull</t>
+  </si>
+  <si>
+    <t>You and your opponent may only use Reckless attacks until neither can.</t>
+  </si>
+  <si>
+    <t>You and your opponent may only use Crafty attacks until neither can.</t>
+  </si>
+  <si>
+    <t>During combat resolution, may swap its attack token as long as the result of the combat remains the same.</t>
+  </si>
+  <si>
+    <t>Add 2 bonus power if the opposing Pokémon has lower base power.</t>
+  </si>
+  <si>
+    <t>Add 2 bonus power if the opposing Pokémon has higher base power.</t>
+  </si>
+  <si>
+    <t>At the start of the turn, you may reset your aura power.</t>
+  </si>
+  <si>
+    <t>At the start of the turn, you may consume an apricorn to add 2 bonus power.</t>
+  </si>
+  <si>
+    <t>Bad Dreams</t>
+  </si>
+  <si>
+    <t>Add 3 bonus power if sent in as the first Pokémon in this battle.</t>
+  </si>
+  <si>
+    <t>High Pressure</t>
+  </si>
+  <si>
+    <t>At the start of the turn, you may reset the aura power of you and your opponent.</t>
+  </si>
+  <si>
+    <t>The ability of this Pokémon is the ability of the opposing Pokémon.</t>
+  </si>
+  <si>
+    <t>The ability of the opposing Pokémon cannot be used.</t>
+  </si>
+  <si>
+    <t>Eeveelution Boost</t>
+  </si>
+  <si>
+    <t>Add 2 bonus power if there is a non-fainted Pokémon with the "Eeveelution Boost" ability in your party.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During combat resolution, the opposing Pokémon must win by 3 or more power for this Pokémon to faint. </t>
+  </si>
+  <si>
+    <t>Hunting Coordination</t>
+  </si>
+  <si>
+    <t>When switched in, increase your aura power by one stage.</t>
+  </si>
+  <si>
+    <t>Aura Storm</t>
+  </si>
+  <si>
+    <t>When switched out, you may reset your aura power.</t>
+  </si>
+  <si>
+    <t>When the opposing Pokémon switches out, increase your aura power by one stage.</t>
+  </si>
+  <si>
+    <t>Defiant Feline</t>
+  </si>
+  <si>
+    <t>Gleam Eyes</t>
+  </si>
+  <si>
+    <t>Sheer Force</t>
+  </si>
+  <si>
+    <t>This Pokémon prevents any changes to your aura power by your opponent.</t>
+  </si>
+  <si>
+    <t>Switch out immediately when attacked with a Water-type move.</t>
+  </si>
+  <si>
+    <t>This Pokémon ignores the Trap effect from opposing Crafty attacks.</t>
+  </si>
+  <si>
+    <t>This Pokémon ignores the Brace effect from opposing Crafty attacks.</t>
+  </si>
+  <si>
+    <t>Add 1 bonus power for each non-fainted Pokémon in your party with lower base power.</t>
+  </si>
+  <si>
+    <t>Add 2 bonus power immediately when attacked with a Fire-type move.</t>
+  </si>
+  <si>
+    <t>Add 2 bonus power immediately when attacked with a Ground-type move.</t>
+  </si>
+  <si>
+    <t>Flare Boost</t>
+  </si>
+  <si>
+    <t>At the start of the turn, you may immediately switch out.</t>
+  </si>
+  <si>
+    <t>This Pokémon counters Ground-type moves from opposing attacks.</t>
+  </si>
+  <si>
+    <t>This Pokémon counters Bug-type moves from opposing attacks.</t>
+  </si>
+  <si>
+    <t>This Pokémon counters Fairy-type moves from opposing attacks.</t>
+  </si>
+  <si>
+    <t>This Pokémon ignores the secondary effect from using Reckless attacks.</t>
+  </si>
+  <si>
+    <t>Soul Keeper</t>
+  </si>
+  <si>
+    <t>Add 2 bonus power if you have more fainted Pokémon than your opponent.</t>
+  </si>
+  <si>
+    <t>You and your opponent may use a second attack token if attacking.</t>
+  </si>
+  <si>
+    <t>Storm Drain</t>
+  </si>
+  <si>
+    <t>Add 2 bonus power immediately when attacked with a Water-type move.</t>
+  </si>
+  <si>
+    <t>The held item of the opposing Pokémon cannot be used.</t>
+  </si>
+  <si>
+    <t>Item Poltergeist</t>
+  </si>
+  <si>
+    <t>Distortion World</t>
+  </si>
+  <si>
+    <t>When switched out, increase your aura power by one stage.</t>
+  </si>
+  <si>
+    <t>Add 2 bonus power if there is a non-fainted Water-type Pokémon in your party.</t>
+  </si>
+  <si>
+    <t>During combat resolution, this Pokémon wins ties.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During combat resolution, the opposing Pokémon must win by 3 or less power for this Pokémon to faint. </t>
+  </si>
+  <si>
+    <t>This Pokémon prevents opposing Steel-type Pokémon from switching.</t>
+  </si>
+  <si>
+    <t>Neon Resonance</t>
+  </si>
+  <si>
     <t>Extra Reach</t>
   </si>
   <si>
-    <t>Naturally Crafty</t>
-  </si>
-  <si>
-    <t>Naturally Reckless</t>
-  </si>
-  <si>
-    <t>Rapid Regrowth</t>
-  </si>
-  <si>
-    <t>Magma Overdrive</t>
-  </si>
-  <si>
-    <t>Electrical Overload</t>
-  </si>
-  <si>
-    <t>Serene Grace</t>
-  </si>
-  <si>
-    <t>Water Evoboost</t>
-  </si>
-  <si>
-    <t>Psychic Evoboost</t>
-  </si>
-  <si>
-    <t>Dark Evoboost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyper Cutter </t>
-  </si>
-  <si>
-    <t>Ability Tracer</t>
-  </si>
-  <si>
-    <t>Ability Nullifier</t>
-  </si>
-  <si>
-    <t>Mini Noses</t>
-  </si>
-  <si>
-    <t>Soul Grip</t>
-  </si>
-  <si>
-    <t>Soul Collector</t>
-  </si>
-  <si>
-    <t>Deep Freeze</t>
-  </si>
-  <si>
-    <t>Barbed Grip</t>
-  </si>
-  <si>
-    <t>Tinted Lens</t>
-  </si>
-  <si>
-    <t>Victory Croak</t>
-  </si>
-  <si>
-    <t>Tectonic Shift</t>
-  </si>
-  <si>
-    <t>Disaster Reflex</t>
-  </si>
-  <si>
-    <t>Tail Glow</t>
-  </si>
-  <si>
-    <t>Eerie Howl</t>
-  </si>
-  <si>
-    <t>No Guard</t>
-  </si>
-  <si>
-    <t>Herd Leader</t>
-  </si>
-  <si>
-    <t>Stasis Protocol</t>
-  </si>
-  <si>
-    <t>Nightmare Feast</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>Utility</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <t>ability_name</t>
-  </si>
-  <si>
-    <t>ability_description</t>
-  </si>
-  <si>
-    <t>ability_tag</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>Plasma Pokémon</t>
-  </si>
-  <si>
-    <t>Wormadam/Mothim</t>
-  </si>
-  <si>
-    <t>Vaporeon/Jolteon/Flareon/Espeon/Umbreon/Leafeon/Glaceon</t>
-  </si>
-  <si>
-    <t>Gardevoir/Gallade</t>
-  </si>
-  <si>
-    <t>Glalie/Froslass</t>
-  </si>
-  <si>
-    <t>Blue/Yellow/Red/Pink/Black/Green/White</t>
-  </si>
-  <si>
-    <t>Red/Blue</t>
-  </si>
-  <si>
-    <t>Blue/Red</t>
-  </si>
-  <si>
-    <t>Eeveelution</t>
-  </si>
-  <si>
-    <t>Evolves into any Pokémon with an "Evoboost" ability using 5 Journey Points and an Apricorn matching its colour.</t>
-  </si>
-  <si>
-    <t>Storm Form</t>
-  </si>
-  <si>
-    <t>Blizzard Form</t>
-  </si>
-  <si>
-    <t>Abundant Form</t>
-  </si>
-  <si>
-    <t>War Form</t>
-  </si>
-  <si>
-    <t>Plague Form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tsunami Form </t>
-  </si>
-  <si>
-    <t>Eruption Form</t>
-  </si>
-  <si>
-    <t>Hurricane Form</t>
-  </si>
-  <si>
-    <t>Earthquake Form</t>
-  </si>
-  <si>
-    <t>Swarm Form</t>
-  </si>
-  <si>
-    <t>Spectral Form</t>
-  </si>
-  <si>
-    <t>Draco Form</t>
-  </si>
-  <si>
-    <t>Meteor Form</t>
-  </si>
-  <si>
-    <t>Star Form</t>
-  </si>
-  <si>
-    <t>Clairvoyant Form</t>
-  </si>
-  <si>
-    <t>Sinister Form</t>
-  </si>
-  <si>
-    <t>Machine Form</t>
-  </si>
-  <si>
-    <t>Resourceful Beaver</t>
-  </si>
-  <si>
-    <t>When switched in, you may steal a status effect from the opposing Pokémon.</t>
-  </si>
-  <si>
-    <t>When switched out, you may resolve combat before the selected Pokémon is switched in.</t>
-  </si>
-  <si>
-    <t>Unburdened Balloon</t>
-  </si>
-  <si>
-    <t>This Pokémon cannot be inflicted with the Petrified status effect.</t>
-  </si>
-  <si>
-    <t>When switched in, inflict the opposing Pokémon with the Petrified status effect.</t>
-  </si>
-  <si>
-    <t>Intimidating Rage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Light Show </t>
-  </si>
-  <si>
-    <t>Lunar Blessing</t>
-  </si>
-  <si>
-    <t>Instant Barrier</t>
-  </si>
-  <si>
-    <t>When switched in, gain the Braced status effect.</t>
-  </si>
-  <si>
-    <t>Soft-Boiled Gift</t>
-  </si>
-  <si>
-    <t>Garden Guardians</t>
-  </si>
-  <si>
-    <t>When attacking with a Bug-type move, gain the Focused status effect.</t>
-  </si>
-  <si>
-    <t>Dubious Efficiency</t>
-  </si>
-  <si>
-    <t>During combat resolution, may swap its stance as long as the result of the combat remains the same.</t>
-  </si>
-  <si>
-    <t>Rule Change</t>
-  </si>
-  <si>
-    <t>Switch Effect</t>
-  </si>
-  <si>
-    <t>Attack Effect</t>
-  </si>
-  <si>
-    <t>Passive Effect</t>
-  </si>
-  <si>
-    <t>Spooky Prankster</t>
-  </si>
-  <si>
-    <t>Before combat resolution, this Pokémon applies any status effects.</t>
-  </si>
-  <si>
-    <t>Limited Use</t>
-  </si>
-  <si>
-    <t>Temporary Bonus</t>
-  </si>
-  <si>
-    <t>Add 1 bonus power when the opposing Pokémon is from a Cold climate.</t>
-  </si>
-  <si>
-    <t>Twin Tusks</t>
-  </si>
-  <si>
-    <t>The ability of this Pokémon is the ability of the opposing Pokémon. Lasts until switched out.</t>
-  </si>
-  <si>
-    <t>The ability of the opposing Pokémon cannot be used. Lasts until switched out.</t>
-  </si>
-  <si>
-    <t>Renewal Protocol</t>
-  </si>
-  <si>
-    <t>Combat Simulator</t>
-  </si>
-  <si>
-    <t>Huge Power</t>
-  </si>
-  <si>
-    <t>Tiny Alliance</t>
-  </si>
-  <si>
-    <t>Magic Guard</t>
-  </si>
-  <si>
-    <t>Ancient Form</t>
-  </si>
-  <si>
-    <t>Must use a stance with lower power than the last used stance if possible.</t>
-  </si>
-  <si>
-    <t>Big Horn</t>
-  </si>
-  <si>
-    <t>Responsive Armour</t>
-  </si>
-  <si>
-    <t>Cursed Body</t>
-  </si>
-  <si>
-    <t>Cross Poison</t>
-  </si>
-  <si>
-    <t>Aquatic Melody</t>
-  </si>
-  <si>
-    <t>Herd Protector</t>
-  </si>
-  <si>
-    <t>Dawn Chorus</t>
-  </si>
-  <si>
-    <t>When the opposing Pokémon switches out, combat must be resolved first.</t>
-  </si>
-  <si>
-    <t>Swimming Partner</t>
-  </si>
-  <si>
-    <t>Double Hit</t>
-  </si>
-  <si>
-    <t>Icey Competitor</t>
-  </si>
-  <si>
-    <t>Shocking Defiance</t>
-  </si>
-  <si>
-    <t>Flaming Berserker</t>
-  </si>
-  <si>
-    <t>Angry Kitty</t>
-  </si>
-  <si>
-    <t>Perfect World Grunt</t>
-  </si>
-  <si>
-    <t>Skunky</t>
-  </si>
-  <si>
-    <t>female_grunt</t>
-  </si>
-  <si>
-    <t>male_grunt</t>
-  </si>
-  <si>
-    <t>trainer</t>
-  </si>
-  <si>
-    <t>biome</t>
-  </si>
-  <si>
-    <t>climate</t>
-  </si>
-  <si>
-    <t>When attacking with a Normal-type move, add 3 bonus power.</t>
-  </si>
-  <si>
-    <t>Chilling Acuity</t>
-  </si>
-  <si>
-    <t>Energising Verity</t>
-  </si>
-  <si>
-    <t>Blazing Valor</t>
-  </si>
-  <si>
-    <t>Gains the Fire typing. When attacking with a Fire-type move, add 2 bonus power.</t>
-  </si>
-  <si>
-    <t>Gains the Electric typing. When attacking with an Electric-type move, add 2 bonus power.</t>
-  </si>
-  <si>
-    <t>Gains the Ice typing. When attacking with an Ice-type move, add 2 bonus power</t>
-  </si>
-  <si>
-    <t>When attacking with a Poison-type move, Balanced stances are treated as Crafty stances.</t>
-  </si>
-  <si>
-    <t>When attacking with a Fire-type move, Balanced stances are treated as Crafty stances.</t>
-  </si>
-  <si>
-    <t>When attacking with a Electric-type move, Balanced stances are treated as Crafty stances.</t>
-  </si>
-  <si>
-    <t>Surge Surfer</t>
-  </si>
-  <si>
-    <t>Gravity Manipulation</t>
-  </si>
-  <si>
-    <t>Attack Counter</t>
-  </si>
-  <si>
-    <t>Grassy Evoboost</t>
-  </si>
-  <si>
-    <t>Icey Evoboost</t>
-  </si>
-  <si>
-    <t>Fiery Evoboost</t>
-  </si>
-  <si>
-    <t>Electro Evoboost</t>
-  </si>
-  <si>
-    <t>Unstoppable Rampage</t>
-  </si>
-  <si>
-    <t>Mutual Infatuation</t>
-  </si>
-  <si>
-    <t>Hidden Potential</t>
-  </si>
-  <si>
-    <t>Perfect World Jupiter</t>
-  </si>
-  <si>
-    <t>Perfect World Mars</t>
-  </si>
-  <si>
-    <t>Perfect World Saturn</t>
-  </si>
-  <si>
-    <t>Perfect World Cyrus</t>
-  </si>
-  <si>
-    <t>jupiter</t>
-  </si>
-  <si>
-    <t>mars</t>
-  </si>
-  <si>
-    <t>saturn</t>
-  </si>
-  <si>
-    <t>cyrus</t>
-  </si>
-  <si>
-    <t>Judgment Eternal</t>
-  </si>
-  <si>
-    <t>Unified Purpose</t>
-  </si>
-  <si>
-    <t>Add 1 bonus power for each other Perfect World Grunt involved in the battle.</t>
-  </si>
-  <si>
-    <t>At the start of a battle turn, may consume the Petrified status effect from the opposing Pokémon to heal itself.</t>
-  </si>
-  <si>
-    <t>At the start of a battle turn, may consume the Weakened status effect from the opposing Pokémon to heal itself.</t>
-  </si>
-  <si>
-    <t>When attacking with a Fairy-type move, Balanced stances are treated as Crafty stances.</t>
-  </si>
-  <si>
-    <t>Apex Predator</t>
-  </si>
-  <si>
-    <t>Phantom Force</t>
-  </si>
-  <si>
-    <t>Temporal Roar</t>
-  </si>
-  <si>
-    <t>Spacial Rend</t>
-  </si>
-  <si>
-    <t>When attacking with a Dragon-type move, add 3 bonus power but cannot select an action next battle turn.</t>
-  </si>
-  <si>
-    <t>When attacking with an Electric-type move, add 3 bonus power but cannot select an action next battle turn.</t>
-  </si>
-  <si>
-    <t>When attacking with a Fire-type move, add 3 bonus power but cannot select an action next battle turn.</t>
-  </si>
-  <si>
-    <t>When attacking with a Dragon-type move, Balanced stances are treated as Crafty stances.</t>
-  </si>
-  <si>
-    <t>At the start of a battle turn, may recover all used stances. May only be used once per battle.</t>
-  </si>
-  <si>
-    <t>At the start of a battle turn, may heal itself or another non-fainted Pokémon. May only be used once per battle.</t>
-  </si>
-  <si>
-    <t>At the start of a battle turn, may consume an Apricorn to heal itself. May only be used once per battle.</t>
-  </si>
-  <si>
-    <t>When switched out, may heal itself. May only be used once per battle.</t>
-  </si>
-  <si>
-    <t>During action selection, your opponent must tell you whether they will attack or switch.</t>
-  </si>
-  <si>
-    <t>During stance selection, your opponent must tell you whether they will use a Crafty, Balanced or Reckless stance.</t>
-  </si>
-  <si>
-    <t>Before combat resolution, if attacked with a Water-type move, you must switch out.</t>
-  </si>
-  <si>
-    <t>During stance selection, both Pokémon may only use stances of 3 or less power until both Pokémon cannot use stances.</t>
-  </si>
-  <si>
-    <t>During stance selection, both Pokémon may only use stances of 4 or more power until both Pokémon cannot use stances.</t>
-  </si>
-  <si>
-    <t>After defeating an opposing Pokémon, inflicts the next Pokémon switched in with the Petrified status effect.</t>
-  </si>
-  <si>
-    <t>After defeating an opposing Pokémon, inflicts the next Pokémon switched in with the Weakened status effect.</t>
-  </si>
-  <si>
-    <t>Add 3 bonus power if sent in as the first Pokémon in this battle. Lasts until switched out.</t>
-  </si>
-  <si>
-    <t>After defeating an opposing Pokémon, add 3 bonus power each time. Lasts until switched out.</t>
-  </si>
-  <si>
-    <t>After taking direct damage from a Fire-type move, gain the Focused and Braced status effects.</t>
-  </si>
-  <si>
-    <t>After taking direct damage, the opposing Pokémon cannot switch out next battle turn.</t>
-  </si>
-  <si>
-    <t>After taking direct damage, inflict the Petrified status effect on the opposing Pokémon.</t>
-  </si>
-  <si>
-    <t>After taking direct damage from a Fighting-type move, gain the Focused and Braced status effects.</t>
-  </si>
-  <si>
-    <t>After taking direct damage from a Ground-type move, gain the Focused and Braced status effects.</t>
-  </si>
-  <si>
-    <t>After taking direct damage, inflict the Weakened status effect on the opposing Pokémon.</t>
-  </si>
-  <si>
-    <t>After taking direct damage, the opposing Pokémon is forced to switch out.</t>
-  </si>
-  <si>
-    <t>During combat resolution, you may redirect any direct damage to this Pokémon in your party.</t>
-  </si>
-  <si>
-    <t>During combat resolution, you may redirect any direct damage to a full health Pokémon in your party.</t>
-  </si>
-  <si>
-    <t>After taking direct damage, gain the Focused status effect.</t>
-  </si>
-  <si>
-    <t>During combat resolution, if the opposing Pokémon wins with 2 or less power, take no direct damage.</t>
-  </si>
-  <si>
-    <t>During combat resolution, if attacked with a Ground-type move, take no direct damage.</t>
-  </si>
-  <si>
-    <t>During combat resolution, if attacked with a Fairy-type move, take no direct damage.</t>
-  </si>
-  <si>
-    <t>During combat resolution, if attacked with a Bug-type move, take no direct damage.</t>
-  </si>
-  <si>
-    <t>When attacking, the opposing Pokémon takes indirect damage if afflicted by the Weakened status effect.</t>
-  </si>
-  <si>
-    <t>When the opposing Pokémon switches out, it takes indirect damage if afflicted by the Weakened status effect.</t>
-  </si>
-  <si>
-    <t>When the opposing Pokémon switches out, it takes indirect damage if afflicted by the Petrified status effect.</t>
-  </si>
-  <si>
-    <t>May choose to not select an action, take no damage this battle turn and select a Ghost-type attack next battle turn.</t>
-  </si>
-  <si>
-    <t>During combat resolution, if the opposing Pokémon wins with 3 or more power, take no direct damage.</t>
-  </si>
-  <si>
-    <t>This Pokémon cannot be damaged by indirect damage.</t>
-  </si>
-  <si>
-    <t>This Pokémon cannot be damaged by recoil damage.</t>
-  </si>
-  <si>
-    <t>When attacking, add 1 bonus power if type effectiveness is greater than 0.</t>
-  </si>
-  <si>
-    <t>When attacking with a Water-type move, add 1 bonus power for each other "Evoboost" ability in your party.</t>
-  </si>
-  <si>
-    <t>When attacking with an Electric-type move, add 1 bonus power for each other "Evoboost" ability in your party.</t>
-  </si>
-  <si>
-    <t>When attacking with a Fire-type move, add 1 bonus power for each other "Evoboost" ability in your party.</t>
-  </si>
-  <si>
-    <t>When attacking with a Psychic-type move, add 1 bonus power for each other "Evoboost" ability in your party.</t>
-  </si>
-  <si>
-    <t>When attacking with a Dark-type move, add 1 bonus power for each other "Evoboost" ability in your party.</t>
-  </si>
-  <si>
-    <t>When attacking with a Grass-type move, add 1 bonus power for each other "Evoboost" ability in your party.</t>
-  </si>
-  <si>
-    <t>When attacking with an Ice-type move, add 1 bonus power for each other "Evoboost" ability in your party.</t>
-  </si>
-  <si>
-    <t>When attacking, add 2 bonus power if this attack type is different from your previous attack type.</t>
-  </si>
-  <si>
-    <t>When attacking, add 2 bonus power if type effectiveness is less than 0.</t>
-  </si>
-  <si>
-    <t>At the start of a battle turn, you may consume an Apricorn to add 2 bonus power each time. Lasts until switched out.</t>
-  </si>
-  <si>
-    <t>When switched in, inflict the opposing Pokémon with the Weakened status effect.</t>
-  </si>
-  <si>
-    <t>When switched in, add 2 bonus power for this battle turn.</t>
-  </si>
-  <si>
-    <t>When switched in, add 2 bonus power for the next battle turn.</t>
-  </si>
-  <si>
-    <t>Coordinated Hunter</t>
-  </si>
-  <si>
-    <t>At the start of a battle turn, you may immediately switch out for another Pokémon.</t>
-  </si>
-  <si>
-    <t>Magnet Pull</t>
-  </si>
-  <si>
-    <t>The opposing Pokémon may not switch out if it is a Steel-type.</t>
-  </si>
-  <si>
-    <t>At the start of a battle turn, this Pokémon removes any negative status effects.</t>
-  </si>
-  <si>
-    <t>Sturdy Steel</t>
-  </si>
-  <si>
-    <t>This Pokémon cannot receive greater than 1 damage in a single battle turn.</t>
-  </si>
-  <si>
-    <t>Before combat resolution, guess the value of the stance your opponent has selected. Add 2 bonus power if successful.</t>
-  </si>
-  <si>
-    <t>When attacking, add 2 bonus power when using a Crafty stance.</t>
-  </si>
-  <si>
-    <t>During combat resolution, this Pokémon immediately attacks again without a stance.</t>
-  </si>
-  <si>
-    <t>At the start of a battle turn, you may discard a stance to add half its power rounded up to this Pokémon for this turn.</t>
-  </si>
-  <si>
-    <t>When attacking, add 2 bonus power when using a Reckless stance.</t>
-  </si>
-  <si>
-    <t>When switched in, add 1 bonus power for each non-fainted Bug-type Pokémon in your party.</t>
-  </si>
-  <si>
-    <t>When switched in, add 1 bonus power for each non-fainted Water-type Pokémon in your party.</t>
-  </si>
-  <si>
-    <t>When switched in, add 1 bonus power for each non-fainted Flying-type Pokémon in your party.</t>
-  </si>
-  <si>
-    <t>When switched in, add 3 bonus power if there are more fainted Pokémon in your party than the party of your opponent.</t>
-  </si>
-  <si>
-    <t>When switched in, the opposing Pokémon loses the Focused and Braced status effects.</t>
-  </si>
-  <si>
-    <t>When attacking, add 2 bonus power when using a Balanced stance.</t>
-  </si>
-  <si>
-    <t>When switched in, add 2 bonus power if the Pokémon switched out was a Water-type.</t>
-  </si>
-  <si>
-    <t>When switched in, add 1 bonus power for each non-fainted Pokémon in your party with lower base power.</t>
-  </si>
-  <si>
-    <t>When attacking, add bonus power equal to the bonus power of the opposing Pokémon.</t>
-  </si>
-  <si>
-    <t>When attacking, add 2 bonus power if this Pokémon has a negative status effect applied.</t>
-  </si>
-  <si>
-    <t>When switched in, add 2 bonus power if this Pokémon has taken any damage.</t>
-  </si>
-  <si>
-    <t>When switched in, add 2 bonus power when the opposing Pokémon has higher base power.</t>
-  </si>
-  <si>
-    <t>When attacking, add 2 bonus power if the opposing Pokémon has lower base power.</t>
+    <t>May add 3 bonus power whilst attacking with an Electric-type move but cannot select an action next turn.</t>
+  </si>
+  <si>
+    <t>May add 3 bonus power whilst attacking with a Fire-type move but cannot select an action next turn.</t>
+  </si>
+  <si>
+    <t>May add 3 bonus power whilst attacking with a Dragon-type move but cannot select an action next turn.</t>
+  </si>
+  <si>
+    <t>Add 2 bonus power whilst attacking with a Bug-type move.</t>
+  </si>
+  <si>
+    <t>Add 1 bonus power whilst attacking with an Ice-type move. Gains the Ice typing.</t>
+  </si>
+  <si>
+    <t>Add 1 bonus power whilst attacking with an Electric-type move. Gains the Electric typing.</t>
+  </si>
+  <si>
+    <t>Add 1 bonus power whilst attacking with a Fire-type move. Gains the Fire typing.</t>
+  </si>
+  <si>
+    <t>Add 2 bonus power whilst attacking with a Normal-type move.</t>
+  </si>
+  <si>
+    <t>Add 2 bonus power whilst attacking with negative type effectiveness.</t>
+  </si>
+  <si>
+    <t>Add 1 bonus power whilst attacking with positive type effectiveness.</t>
+  </si>
+  <si>
+    <t>Add 2 bonus power whilst attacking with a Crafty attack.</t>
+  </si>
+  <si>
+    <t>Add 1 bonus power whilst attacking with a Reckless attack.</t>
+  </si>
+  <si>
+    <t>After defeating an opposing Pokémon, add 2 bonus power. Stacks with itself.</t>
+  </si>
+  <si>
+    <t>After defeating an opposing Pokémon, add 3 bonus power. Stacks with itself.</t>
+  </si>
+  <si>
+    <t>Shadow Infiltration</t>
+  </si>
+  <si>
+    <t>Garden Grace</t>
+  </si>
+  <si>
+    <t>Evolves into any Pokémon with the "Eeveelution Boost" ability using 5 Journey Points and an apricorn.</t>
+  </si>
+  <si>
+    <t>At the start of the turn, you may apply the Recover effect.</t>
+  </si>
+  <si>
+    <t>At the start of the turn, you may choose to faint this Pokémon to revive another fainted Pokémon.</t>
+  </si>
+  <si>
+    <t>At the start of the turn, you may convert your aura power into double bonus power. Lasts until end of the turn.</t>
+  </si>
+  <si>
+    <t>Add 2 bonus power if your aura power is negative.</t>
+  </si>
+  <si>
+    <t>When attacked, your opponent must discard another attack token. Prioritises highest power.</t>
+  </si>
+  <si>
+    <t>After defeating an opposing Pokémon, add 1 bonus power. Stacks with itself.</t>
+  </si>
+  <si>
+    <t>Swift Swimmer</t>
+  </si>
+  <si>
+    <t>Sniper Targeting</t>
+  </si>
+  <si>
+    <t>Soft-Boiled Gifts</t>
+  </si>
+  <si>
+    <t>At the start of the turn, you may consume an apricorn to add 1 bonus power.</t>
+  </si>
+  <si>
+    <t>Aggression Protocol</t>
+  </si>
+  <si>
+    <t>This Pokémon treats Crafty and Balanced attacks as Reckless attacks.</t>
+  </si>
+  <si>
+    <t>When attacking with a Fire-type move, your Balanced attacks are treated as Crafty attacks.</t>
+  </si>
+  <si>
+    <t>When attacking with a Fairy-type move, your Balanced attacks are treated as Crafty attacks.</t>
+  </si>
+  <si>
+    <t>When attacking with a Electric-type move, your Balanced attacks are treated as Crafty attacks.</t>
+  </si>
+  <si>
+    <t>When attacking with a Poison-type move, your Balanced attacks are treated as Crafty attacks.</t>
+  </si>
+  <si>
+    <t>When attacking with a Dragon-type move, your Balanced attacks are treated as Crafty attacks.</t>
+  </si>
+  <si>
+    <t>When switched in, increase your aura power by one stage for each non-fainted Bug-type Pokémon in your party.</t>
+  </si>
+  <si>
+    <t>When switched in, increase your aura power by one stage for each non-fainted Flying-type Pokémon in your party.</t>
+  </si>
+  <si>
+    <t>When switched in, increase your aura power by one stage for each non-fainted Water-type Pokémon in your party.</t>
+  </si>
+  <si>
+    <t>Add 2 bonus power if there is a non-fainted Bug-type Pokémon in your party.</t>
+  </si>
+  <si>
+    <t>Add 2 bonus power if there is a non-fainted Dark-type Pokémon in your party.</t>
+  </si>
+  <si>
+    <t>At the start of the turn, increase your aura power by one stage.</t>
+  </si>
+  <si>
+    <t>At the start of the turn, decrease opposing aura power by one stage.</t>
+  </si>
+  <si>
+    <t>When switched in, you may swap your aura power with opposing aura power.</t>
+  </si>
+  <si>
+    <t>Add 1 bonus power if opposing aura power is negative.</t>
+  </si>
+  <si>
+    <t>When attacked, decrease opposing aura power by one stage.</t>
+  </si>
+  <si>
+    <t>When this Pokémon faints, decrease opposing aura power by two stages.</t>
+  </si>
+  <si>
+    <t>When the opposing Pokémon switches out, decrease opposing aura power by one stage.</t>
+  </si>
+  <si>
+    <t>When switched in, decrease opposing aura power by one stage.</t>
+  </si>
+  <si>
+    <t>When switched in, steal opposing bonus power.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When switched in, remove opposing bonus power. </t>
   </si>
 </sst>
 </file>
@@ -3918,7 +3804,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4112,48 +3998,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAE1FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1E1FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1FAE1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAE1E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1E1E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1FAFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAFAE1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4319,7 +4163,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -4334,18 +4178,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4395,12 +4229,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFE1E1FA"/>
+      <color rgb="FFFAFAE1"/>
+      <color rgb="FFE1E1E1"/>
       <color rgb="FFFAE1E1"/>
       <color rgb="FFE1FAFA"/>
+      <color rgb="FFE1E1FA"/>
       <color rgb="FFE1FAE1"/>
-      <color rgb="FFFAFAE1"/>
-      <color rgb="FFE1E1E1"/>
       <color rgb="FFFAE1FA"/>
       <color rgb="FFC8E1FA"/>
       <color rgb="FFFAE1C8"/>
@@ -4717,8 +4551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA211"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R103" sqref="R103"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4782,13 +4616,13 @@
         <v>783</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1128</v>
+        <v>1080</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1129</v>
+        <v>1081</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1046</v>
+        <v>1029</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>902</v>
@@ -4821,13 +4655,13 @@
         <v>940</v>
       </c>
       <c r="Y1" t="s">
-        <v>1043</v>
+        <v>1027</v>
       </c>
       <c r="Z1" t="s">
-        <v>1044</v>
+        <v>1028</v>
       </c>
       <c r="AA1" t="s">
-        <v>1127</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -4897,11 +4731,11 @@
         <v>1</v>
       </c>
       <c r="Y2" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B2,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B2,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z2" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B2,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R2, " using ", T2, " Journey Points", IF(ISBLANK(S2), ".", _xlfn.CONCAT(" and a ", S2, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B2,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R2, " using ", T2, " Journey Points", IF(ISBLANK(S2), ".", _xlfn.CONCAT(" and a ", S2, " Apricorn."))))</f>
         <v>Evolves into Grotle using 3 Journey Points.</v>
       </c>
     </row>
@@ -4975,11 +4809,11 @@
         <v>2</v>
       </c>
       <c r="Y3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B3,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B3,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B3,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R3, " using ", T3, " Journey Points", IF(ISBLANK(S3), ".", _xlfn.CONCAT(" and a ", S3, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B3,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R3, " using ", T3, " Journey Points", IF(ISBLANK(S3), ".", _xlfn.CONCAT(" and a ", S3, " Apricorn."))))</f>
         <v>Evolves into Torterra using 5 Journey Points.</v>
       </c>
     </row>
@@ -5053,12 +4887,12 @@
         <v>3</v>
       </c>
       <c r="Y4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B4,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B4,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Moving Forest</v>
       </c>
       <c r="Z4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B4,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R4, " using ", T4, " Journey Points", IF(ISBLANK(S4), ".", _xlfn.CONCAT(" and a ", S4, " Apricorn."))))</f>
-        <v>At the start of a battle turn, you may immediately switch out for another Pokémon.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B4,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R4, " using ", T4, " Journey Points", IF(ISBLANK(S4), ".", _xlfn.CONCAT(" and a ", S4, " Apricorn."))))</f>
+        <v>At the start of the turn, you may immediately switch out.</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -5128,11 +4962,11 @@
         <v>1</v>
       </c>
       <c r="Y5" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B5,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B5,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z5" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B5,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R5, " using ", T5, " Journey Points", IF(ISBLANK(S5), ".", _xlfn.CONCAT(" and a ", S5, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B5,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R5, " using ", T5, " Journey Points", IF(ISBLANK(S5), ".", _xlfn.CONCAT(" and a ", S5, " Apricorn."))))</f>
         <v>Evolves into Monferno using 3 Journey Points.</v>
       </c>
     </row>
@@ -5210,11 +5044,11 @@
         <v>2</v>
       </c>
       <c r="Y6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B6,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B6,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B6,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R6, " using ", T6, " Journey Points", IF(ISBLANK(S6), ".", _xlfn.CONCAT(" and a ", S6, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B6,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R6, " using ", T6, " Journey Points", IF(ISBLANK(S6), ".", _xlfn.CONCAT(" and a ", S6, " Apricorn."))))</f>
         <v>Evolves into Infernape using 5 Journey Points.</v>
       </c>
     </row>
@@ -5288,12 +5122,12 @@
         <v>3</v>
       </c>
       <c r="Y7" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B7,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B7,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Fiery Combat</v>
       </c>
       <c r="Z7" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B7,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R7, " using ", T7, " Journey Points", IF(ISBLANK(S7), ".", _xlfn.CONCAT(" and a ", S7, " Apricorn."))))</f>
-        <v>When attacking with a Fire-type move, Balanced stances are treated as Crafty stances.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B7,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R7, " using ", T7, " Journey Points", IF(ISBLANK(S7), ".", _xlfn.CONCAT(" and a ", S7, " Apricorn."))))</f>
+        <v>When attacking with a Fire-type move, your Balanced attacks are treated as Crafty attacks.</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -5363,11 +5197,11 @@
         <v>1</v>
       </c>
       <c r="Y8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B8,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B8,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B8,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R8, " using ", T8, " Journey Points", IF(ISBLANK(S8), ".", _xlfn.CONCAT(" and a ", S8, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B8,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R8, " using ", T8, " Journey Points", IF(ISBLANK(S8), ".", _xlfn.CONCAT(" and a ", S8, " Apricorn."))))</f>
         <v>Evolves into Prinplup using 3 Journey Points.</v>
       </c>
     </row>
@@ -5441,11 +5275,11 @@
         <v>2</v>
       </c>
       <c r="Y9" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B9,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B9,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z9" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B9,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R9, " using ", T9, " Journey Points", IF(ISBLANK(S9), ".", _xlfn.CONCAT(" and a ", S9, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B9,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R9, " using ", T9, " Journey Points", IF(ISBLANK(S9), ".", _xlfn.CONCAT(" and a ", S9, " Apricorn."))))</f>
         <v>Evolves into Empoleon using 5 Journey Points.</v>
       </c>
     </row>
@@ -5518,12 +5352,12 @@
         <v>3</v>
       </c>
       <c r="Y10" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B10,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B10,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v xml:space="preserve">Ice Breaker </v>
       </c>
       <c r="Z10" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B10,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R10, " using ", T10, " Journey Points", IF(ISBLANK(S10), ".", _xlfn.CONCAT(" and a ", S10, " Apricorn."))))</f>
-        <v>Add 1 bonus power when the opposing Pokémon is from a Cold climate.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B10,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R10, " using ", T10, " Journey Points", IF(ISBLANK(S10), ".", _xlfn.CONCAT(" and a ", S10, " Apricorn."))))</f>
+        <v>During combat resolution, this Pokémon wins ties.</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -5597,11 +5431,11 @@
         <v>1</v>
       </c>
       <c r="Y11" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B11,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B11,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z11" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B11,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R11, " using ", T11, " Journey Points", IF(ISBLANK(S11), ".", _xlfn.CONCAT(" and a ", S11, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B11,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R11, " using ", T11, " Journey Points", IF(ISBLANK(S11), ".", _xlfn.CONCAT(" and a ", S11, " Apricorn."))))</f>
         <v>Evolves into Staravia using 2 Journey Points.</v>
       </c>
     </row>
@@ -5679,11 +5513,11 @@
         <v>2</v>
       </c>
       <c r="Y12" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B12,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B12,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z12" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B12,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R12, " using ", T12, " Journey Points", IF(ISBLANK(S12), ".", _xlfn.CONCAT(" and a ", S12, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B12,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R12, " using ", T12, " Journey Points", IF(ISBLANK(S12), ".", _xlfn.CONCAT(" and a ", S12, " Apricorn."))))</f>
         <v>Evolves into Staraptor using 6 Journey Points.</v>
       </c>
     </row>
@@ -5757,12 +5591,12 @@
         <v>3</v>
       </c>
       <c r="Y13" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B13,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B13,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Apex Predator</v>
       </c>
       <c r="Z13" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B13,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R13, " using ", T13, " Journey Points", IF(ISBLANK(S13), ".", _xlfn.CONCAT(" and a ", S13, " Apricorn."))))</f>
-        <v>When attacking, add 2 bonus power if the opposing Pokémon has lower base power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B13,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R13, " using ", T13, " Journey Points", IF(ISBLANK(S13), ".", _xlfn.CONCAT(" and a ", S13, " Apricorn."))))</f>
+        <v>Add 2 bonus power if the opposing Pokémon has lower base power.</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -5832,11 +5666,11 @@
         <v>1</v>
       </c>
       <c r="Y14" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B14,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B14,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z14" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B14,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R14, " using ", T14, " Journey Points", IF(ISBLANK(S14), ".", _xlfn.CONCAT(" and a ", S14, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B14,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R14, " using ", T14, " Journey Points", IF(ISBLANK(S14), ".", _xlfn.CONCAT(" and a ", S14, " Apricorn."))))</f>
         <v>Evolves into Bibarel using 3 Journey Points.</v>
       </c>
     </row>
@@ -5910,12 +5744,12 @@
         <v>2</v>
       </c>
       <c r="Y15" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B15,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B15,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Resourceful Beaver</v>
       </c>
       <c r="Z15" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B15,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R15, " using ", T15, " Journey Points", IF(ISBLANK(S15), ".", _xlfn.CONCAT(" and a ", S15, " Apricorn."))))</f>
-        <v>At the start of a battle turn, may recover all used stances. May only be used once per battle.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B15,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R15, " using ", T15, " Journey Points", IF(ISBLANK(S15), ".", _xlfn.CONCAT(" and a ", S15, " Apricorn."))))</f>
+        <v>At the start of the turn, you may apply the Recover effect.</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -5985,11 +5819,11 @@
         <v>1</v>
       </c>
       <c r="Y16" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B16,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B16,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z16" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B16,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R16, " using ", T16, " Journey Points", IF(ISBLANK(S16), ".", _xlfn.CONCAT(" and a ", S16, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B16,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R16, " using ", T16, " Journey Points", IF(ISBLANK(S16), ".", _xlfn.CONCAT(" and a ", S16, " Apricorn."))))</f>
         <v>Evolves into Kricketune using 3 Journey Points.</v>
       </c>
     </row>
@@ -6059,12 +5893,12 @@
         <v>2</v>
       </c>
       <c r="Y17" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B17,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B17,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Swarm Song</v>
       </c>
       <c r="Z17" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B17,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R17, " using ", T17, " Journey Points", IF(ISBLANK(S17), ".", _xlfn.CONCAT(" and a ", S17, " Apricorn."))))</f>
-        <v>When switched in, add 1 bonus power for each non-fainted Bug-type Pokémon in your party.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B17,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R17, " using ", T17, " Journey Points", IF(ISBLANK(S17), ".", _xlfn.CONCAT(" and a ", S17, " Apricorn."))))</f>
+        <v>When switched in, increase your aura power by one stage for each non-fainted Bug-type Pokémon in your party.</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -6134,11 +5968,11 @@
         <v>1</v>
       </c>
       <c r="Y18" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B18,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B18,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z18" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B18,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R18, " using ", T18, " Journey Points", IF(ISBLANK(S18), ".", _xlfn.CONCAT(" and a ", S18, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B18,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R18, " using ", T18, " Journey Points", IF(ISBLANK(S18), ".", _xlfn.CONCAT(" and a ", S18, " Apricorn."))))</f>
         <v>Evolves into Luxio using 1 Journey Points.</v>
       </c>
     </row>
@@ -6212,11 +6046,11 @@
         <v>2</v>
       </c>
       <c r="Y19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B19,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B19,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B19,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R19, " using ", T19, " Journey Points", IF(ISBLANK(S19), ".", _xlfn.CONCAT(" and a ", S19, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B19,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R19, " using ", T19, " Journey Points", IF(ISBLANK(S19), ".", _xlfn.CONCAT(" and a ", S19, " Apricorn."))))</f>
         <v>Evolves into Luxray using 6 Journey Points.</v>
       </c>
     </row>
@@ -6286,11 +6120,11 @@
         <v>3</v>
       </c>
       <c r="Y20" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B20,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>X-Ray Vision</v>
+        <f>_xlfn.IFNA(VLOOKUP(B20,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Gleam Eyes</v>
       </c>
       <c r="Z20" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B20,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R20, " using ", T20, " Journey Points", IF(ISBLANK(S20), ".", _xlfn.CONCAT(" and a ", S20, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B20,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R20, " using ", T20, " Journey Points", IF(ISBLANK(S20), ".", _xlfn.CONCAT(" and a ", S20, " Apricorn."))))</f>
         <v>During action selection, your opponent must tell you whether they will attack or switch.</v>
       </c>
     </row>
@@ -6366,11 +6200,11 @@
         <v>1</v>
       </c>
       <c r="Y21" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B21,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B21,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z21" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B21,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R21, " using ", T21, " Journey Points", IF(ISBLANK(S21), ".", _xlfn.CONCAT(" and a ", S21, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B21,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R21, " using ", T21, " Journey Points", IF(ISBLANK(S21), ".", _xlfn.CONCAT(" and a ", S21, " Apricorn."))))</f>
         <v>Evolves into Roselia using 3 Journey Points.</v>
       </c>
     </row>
@@ -6449,11 +6283,11 @@
         <v>2</v>
       </c>
       <c r="Y22" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B22,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B22,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z22" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B22,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R22, " using ", T22, " Journey Points", IF(ISBLANK(S22), ".", _xlfn.CONCAT(" and a ", S22, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B22,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R22, " using ", T22, " Journey Points", IF(ISBLANK(S22), ".", _xlfn.CONCAT(" and a ", S22, " Apricorn."))))</f>
         <v>Evolves into Roserade using 5 Journey Points.</v>
       </c>
     </row>
@@ -6528,12 +6362,12 @@
         <v>3</v>
       </c>
       <c r="Y23" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B23,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B23,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Toxic Thorns</v>
       </c>
       <c r="Z23" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B23,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R23, " using ", T23, " Journey Points", IF(ISBLANK(S23), ".", _xlfn.CONCAT(" and a ", S23, " Apricorn."))))</f>
-        <v>After taking direct damage, inflict the Weakened status effect on the opposing Pokémon.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B23,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R23, " using ", T23, " Journey Points", IF(ISBLANK(S23), ".", _xlfn.CONCAT(" and a ", S23, " Apricorn."))))</f>
+        <v>When attacked, decrease opposing aura power by one stage.</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -6597,7 +6431,7 @@
         <v>Cranidos</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>1107</v>
+        <v>1067</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -6606,11 +6440,11 @@
         <v>1</v>
       </c>
       <c r="Y24" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B24,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B24,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z24" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B24,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R24, " using ", T24, " Journey Points", IF(ISBLANK(S24), ".", _xlfn.CONCAT(" and a ", S24, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B24,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R24, " using ", T24, " Journey Points", IF(ISBLANK(S24), ".", _xlfn.CONCAT(" and a ", S24, " Apricorn."))))</f>
         <v>Evolves into Rampardos using 5 Journey Points.</v>
       </c>
     </row>
@@ -6674,7 +6508,7 @@
         <v>Rampardos</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>1107</v>
+        <v>1067</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -6683,12 +6517,12 @@
         <v>2</v>
       </c>
       <c r="Y25" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B25,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B25,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Unstoppable Rampage</v>
       </c>
       <c r="Z25" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B25,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R25, " using ", T25, " Journey Points", IF(ISBLANK(S25), ".", _xlfn.CONCAT(" and a ", S25, " Apricorn."))))</f>
-        <v>This Pokémon cannot be damaged by recoil damage.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B25,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R25, " using ", T25, " Journey Points", IF(ISBLANK(S25), ".", _xlfn.CONCAT(" and a ", S25, " Apricorn."))))</f>
+        <v>This Pokémon ignores the secondary effect from using Reckless attacks.</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -6752,7 +6586,7 @@
         <v>Shieldon</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>1107</v>
+        <v>1067</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -6761,11 +6595,11 @@
         <v>1</v>
       </c>
       <c r="Y26" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B26,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B26,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z26" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B26,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R26, " using ", T26, " Journey Points", IF(ISBLANK(S26), ".", _xlfn.CONCAT(" and a ", S26, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B26,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R26, " using ", T26, " Journey Points", IF(ISBLANK(S26), ".", _xlfn.CONCAT(" and a ", S26, " Apricorn."))))</f>
         <v>Evolves into Bastiodon using 4 Journey Points.</v>
       </c>
     </row>
@@ -6829,7 +6663,7 @@
         <v>Bastiodon</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>1107</v>
+        <v>1067</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -6838,12 +6672,12 @@
         <v>2</v>
       </c>
       <c r="Y27" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B27,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B27,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Shield Wall</v>
       </c>
       <c r="Z27" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B27,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R27, " using ", T27, " Journey Points", IF(ISBLANK(S27), ".", _xlfn.CONCAT(" and a ", S27, " Apricorn."))))</f>
-        <v>When switched out, you may resolve combat before the selected Pokémon is switched in.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B27,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R27, " using ", T27, " Journey Points", IF(ISBLANK(S27), ".", _xlfn.CONCAT(" and a ", S27, " Apricorn."))))</f>
+        <v>When switched out, increase your aura power by one stage.</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -6895,10 +6729,10 @@
         <v>33</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>1048</v>
+        <v>1031</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="T28">
         <f t="shared" si="2"/>
@@ -6916,11 +6750,11 @@
         <v>1</v>
       </c>
       <c r="Y28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B28,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B28,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B28,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R28, " using ", T28, " Journey Points", IF(ISBLANK(S28), ".", _xlfn.CONCAT(" and a ", S28, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B28,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R28, " using ", T28, " Journey Points", IF(ISBLANK(S28), ".", _xlfn.CONCAT(" and a ", S28, " Apricorn."))))</f>
         <v>Evolves into Wormadam/Mothim using 2 Journey Points and a Red/Blue Apricorn.</v>
       </c>
     </row>
@@ -6995,12 +6829,12 @@
         <v>2</v>
       </c>
       <c r="Y29" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B29,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B29,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Forest Cloaking</v>
       </c>
       <c r="Z29" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B29,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R29, " using ", T29, " Journey Points", IF(ISBLANK(S29), ".", _xlfn.CONCAT(" and a ", S29, " Apricorn."))))</f>
-        <v>During combat resolution, if the opposing Pokémon wins with 2 or less power, take no direct damage.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B29,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R29, " using ", T29, " Journey Points", IF(ISBLANK(S29), ".", _xlfn.CONCAT(" and a ", S29, " Apricorn."))))</f>
+        <v xml:space="preserve">During combat resolution, the opposing Pokémon must win by 3 or more power for this Pokémon to faint. </v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -7074,12 +6908,12 @@
         <v>2</v>
       </c>
       <c r="Y30" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B30,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B30,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Honey Thief</v>
       </c>
       <c r="Z30" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B30,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R30, " using ", T30, " Journey Points", IF(ISBLANK(S30), ".", _xlfn.CONCAT(" and a ", S30, " Apricorn."))))</f>
-        <v>When switched in, you may steal a status effect from the opposing Pokémon.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B30,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R30, " using ", T30, " Journey Points", IF(ISBLANK(S30), ".", _xlfn.CONCAT(" and a ", S30, " Apricorn."))))</f>
+        <v>When switched in, steal opposing bonus power.</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -7154,11 +6988,11 @@
         <v>1</v>
       </c>
       <c r="Y31" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B31,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B31,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z31" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B31,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R31, " using ", T31, " Journey Points", IF(ISBLANK(S31), ".", _xlfn.CONCAT(" and a ", S31, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B31,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R31, " using ", T31, " Journey Points", IF(ISBLANK(S31), ".", _xlfn.CONCAT(" and a ", S31, " Apricorn."))))</f>
         <v>Evolves into Vespiquen using 5 Journey Points.</v>
       </c>
     </row>
@@ -7233,12 +7067,12 @@
         <v>2</v>
       </c>
       <c r="Y32" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B32,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B32,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Hive Queen</v>
       </c>
       <c r="Z32" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B32,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R32, " using ", T32, " Journey Points", IF(ISBLANK(S32), ".", _xlfn.CONCAT(" and a ", S32, " Apricorn."))))</f>
-        <v>When switched in, inflict the opposing Pokémon with the Petrified status effect.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B32,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R32, " using ", T32, " Journey Points", IF(ISBLANK(S32), ".", _xlfn.CONCAT(" and a ", S32, " Apricorn."))))</f>
+        <v>Add 2 bonus power if there is a non-fainted Bug-type Pokémon in your party.</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
@@ -7308,12 +7142,12 @@
         <v>1</v>
       </c>
       <c r="Y33" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B33,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B33,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Apricorn Powered</v>
       </c>
       <c r="Z33" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B33,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R33, " using ", T33, " Journey Points", IF(ISBLANK(S33), ".", _xlfn.CONCAT(" and a ", S33, " Apricorn."))))</f>
-        <v>At the start of a battle turn, you may consume an Apricorn to add 2 bonus power each time. Lasts until switched out.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B33,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R33, " using ", T33, " Journey Points", IF(ISBLANK(S33), ".", _xlfn.CONCAT(" and a ", S33, " Apricorn."))))</f>
+        <v>At the start of the turn, you may consume an apricorn to add 2 bonus power.</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
@@ -7384,11 +7218,11 @@
         <v>1</v>
       </c>
       <c r="Y34" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B34,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B34,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z34" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B34,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R34, " using ", T34, " Journey Points", IF(ISBLANK(S34), ".", _xlfn.CONCAT(" and a ", S34, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B34,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R34, " using ", T34, " Journey Points", IF(ISBLANK(S34), ".", _xlfn.CONCAT(" and a ", S34, " Apricorn."))))</f>
         <v>Evolves into Floatzel using 6 Journey Points.</v>
       </c>
     </row>
@@ -7459,12 +7293,12 @@
         <v>2</v>
       </c>
       <c r="Y35" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B35,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Life Guard</v>
+        <f>_xlfn.IFNA(VLOOKUP(B35,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Swift Swimmer</v>
       </c>
       <c r="Z35" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B35,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R35, " using ", T35, " Journey Points", IF(ISBLANK(S35), ".", _xlfn.CONCAT(" and a ", S35, " Apricorn."))))</f>
-        <v>During combat resolution, you may redirect any direct damage to this Pokémon in your party.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B35,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R35, " using ", T35, " Journey Points", IF(ISBLANK(S35), ".", _xlfn.CONCAT(" and a ", S35, " Apricorn."))))</f>
+        <v>This Pokémon ignores the Trap effect from opposing Crafty attacks.</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
@@ -7535,11 +7369,11 @@
         <v>1</v>
       </c>
       <c r="Y36" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B36,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B36,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z36" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B36,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R36, " using ", T36, " Journey Points", IF(ISBLANK(S36), ".", _xlfn.CONCAT(" and a ", S36, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B36,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R36, " using ", T36, " Journey Points", IF(ISBLANK(S36), ".", _xlfn.CONCAT(" and a ", S36, " Apricorn."))))</f>
         <v>Evolves into Cherrim using 5 Journey Points.</v>
       </c>
     </row>
@@ -7610,12 +7444,12 @@
         <v>2</v>
       </c>
       <c r="Y37" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B37,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B37,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Full Bloom</v>
       </c>
       <c r="Z37" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B37,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R37, " using ", T37, " Journey Points", IF(ISBLANK(S37), ".", _xlfn.CONCAT(" and a ", S37, " Apricorn."))))</f>
-        <v>After taking direct damage from a Fire-type move, gain the Focused and Braced status effects.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B37,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R37, " using ", T37, " Journey Points", IF(ISBLANK(S37), ".", _xlfn.CONCAT(" and a ", S37, " Apricorn."))))</f>
+        <v>Add 2 bonus power immediately when attacked with a Fire-type move.</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
@@ -7687,11 +7521,11 @@
         <v>1</v>
       </c>
       <c r="Y38" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B38,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B38,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z38" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B38,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R38, " using ", T38, " Journey Points", IF(ISBLANK(S38), ".", _xlfn.CONCAT(" and a ", S38, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B38,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R38, " using ", T38, " Journey Points", IF(ISBLANK(S38), ".", _xlfn.CONCAT(" and a ", S38, " Apricorn."))))</f>
         <v>Evolves into West Ocean Gastrodon using 4 Journey Points.</v>
       </c>
     </row>
@@ -7767,12 +7601,12 @@
         <v>2</v>
       </c>
       <c r="Y39" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B39,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Sticky Ooze</v>
+        <f>_xlfn.IFNA(VLOOKUP(B39,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Storm Drain</v>
       </c>
       <c r="Z39" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B39,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R39, " using ", T39, " Journey Points", IF(ISBLANK(S39), ".", _xlfn.CONCAT(" and a ", S39, " Apricorn."))))</f>
-        <v>After taking direct damage, the opposing Pokémon cannot switch out next battle turn.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B39,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R39, " using ", T39, " Journey Points", IF(ISBLANK(S39), ".", _xlfn.CONCAT(" and a ", S39, " Apricorn."))))</f>
+        <v>Add 2 bonus power immediately when attacked with a Water-type move.</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
@@ -7844,11 +7678,11 @@
         <v>1</v>
       </c>
       <c r="Y40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B40,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B40,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B40,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R40, " using ", T40, " Journey Points", IF(ISBLANK(S40), ".", _xlfn.CONCAT(" and a ", S40, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B40,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R40, " using ", T40, " Journey Points", IF(ISBLANK(S40), ".", _xlfn.CONCAT(" and a ", S40, " Apricorn."))))</f>
         <v>Evolves into East Ocean Gastrodon using 4 Journey Points.</v>
       </c>
     </row>
@@ -7924,12 +7758,12 @@
         <v>2</v>
       </c>
       <c r="Y41" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B41,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Sticky Ooze</v>
+        <f>_xlfn.IFNA(VLOOKUP(B41,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Storm Drain</v>
       </c>
       <c r="Z41" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B41,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R41, " using ", T41, " Journey Points", IF(ISBLANK(S41), ".", _xlfn.CONCAT(" and a ", S41, " Apricorn."))))</f>
-        <v>After taking direct damage, the opposing Pokémon cannot switch out next battle turn.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B41,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R41, " using ", T41, " Journey Points", IF(ISBLANK(S41), ".", _xlfn.CONCAT(" and a ", S41, " Apricorn."))))</f>
+        <v>Add 2 bonus power immediately when attacked with a Water-type move.</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
@@ -8000,11 +7834,11 @@
         <v>1</v>
       </c>
       <c r="Y42" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B42,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B42,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z42" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B42,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R42, " using ", T42, " Journey Points", IF(ISBLANK(S42), ".", _xlfn.CONCAT(" and a ", S42, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B42,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R42, " using ", T42, " Journey Points", IF(ISBLANK(S42), ".", _xlfn.CONCAT(" and a ", S42, " Apricorn."))))</f>
         <v>Evolves into Ambipom using 6 Journey Points.</v>
       </c>
     </row>
@@ -8075,12 +7909,12 @@
         <v>2</v>
       </c>
       <c r="Y43" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B43,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B43,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Double Hit</v>
       </c>
       <c r="Z43" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B43,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R43, " using ", T43, " Journey Points", IF(ISBLANK(S43), ".", _xlfn.CONCAT(" and a ", S43, " Apricorn."))))</f>
-        <v>During combat resolution, this Pokémon immediately attacks again without a stance.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B43,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R43, " using ", T43, " Journey Points", IF(ISBLANK(S43), ".", _xlfn.CONCAT(" and a ", S43, " Apricorn."))))</f>
+        <v>You and your opponent may use a second attack token if attacking.</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
@@ -8155,11 +7989,11 @@
         <v>1</v>
       </c>
       <c r="Y44" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B44,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B44,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z44" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B44,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R44, " using ", T44, " Journey Points", IF(ISBLANK(S44), ".", _xlfn.CONCAT(" and a ", S44, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B44,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R44, " using ", T44, " Journey Points", IF(ISBLANK(S44), ".", _xlfn.CONCAT(" and a ", S44, " Apricorn."))))</f>
         <v>Evolves into Drifblim using 6 Journey Points.</v>
       </c>
     </row>
@@ -8234,12 +8068,12 @@
         <v>2</v>
       </c>
       <c r="Y45" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B45,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Unburdened Balloon</v>
+        <f>_xlfn.IFNA(VLOOKUP(B45,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Flare Boost</v>
       </c>
       <c r="Z45" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B45,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R45, " using ", T45, " Journey Points", IF(ISBLANK(S45), ".", _xlfn.CONCAT(" and a ", S45, " Apricorn."))))</f>
-        <v>At the start of a battle turn, you may discard a stance to add half its power rounded up to this Pokémon for this turn.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B45,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R45, " using ", T45, " Journey Points", IF(ISBLANK(S45), ".", _xlfn.CONCAT(" and a ", S45, " Apricorn."))))</f>
+        <v>Add 2 bonus power immediately when attacked with a Fire-type move.</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
@@ -8310,11 +8144,11 @@
         <v>1</v>
       </c>
       <c r="Y46" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B46,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B46,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z46" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B46,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R46, " using ", T46, " Journey Points", IF(ISBLANK(S46), ".", _xlfn.CONCAT(" and a ", S46, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B46,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R46, " using ", T46, " Journey Points", IF(ISBLANK(S46), ".", _xlfn.CONCAT(" and a ", S46, " Apricorn."))))</f>
         <v>Evolves into Lopunny using 4 Journey Points.</v>
       </c>
     </row>
@@ -8385,12 +8219,12 @@
         <v>2</v>
       </c>
       <c r="Y47" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B47,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B47,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Mutual Infatuation</v>
       </c>
       <c r="Z47" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B47,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R47, " using ", T47, " Journey Points", IF(ISBLANK(S47), ".", _xlfn.CONCAT(" and a ", S47, " Apricorn."))))</f>
-        <v>During stance selection, both Pokémon may only use stances of 3 or less power until both Pokémon cannot use stances.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B47,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R47, " using ", T47, " Journey Points", IF(ISBLANK(S47), ".", _xlfn.CONCAT(" and a ", S47, " Apricorn."))))</f>
+        <v>You and your opponent may only use Crafty attacks until neither can.</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
@@ -8460,11 +8294,11 @@
         <v>1</v>
       </c>
       <c r="Y48" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B48,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B48,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z48" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B48,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R48, " using ", T48, " Journey Points", IF(ISBLANK(S48), ".", _xlfn.CONCAT(" and a ", S48, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B48,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R48, " using ", T48, " Journey Points", IF(ISBLANK(S48), ".", _xlfn.CONCAT(" and a ", S48, " Apricorn."))))</f>
         <v>Evolves into Mismagius using 5 Journey Points.</v>
       </c>
     </row>
@@ -8535,12 +8369,12 @@
         <v>2</v>
       </c>
       <c r="Y49" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B49,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B49,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Naturally Crafty</v>
       </c>
       <c r="Z49" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B49,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R49, " using ", T49, " Journey Points", IF(ISBLANK(S49), ".", _xlfn.CONCAT(" and a ", S49, " Apricorn."))))</f>
-        <v>When attacking, add 2 bonus power when using a Crafty stance.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B49,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R49, " using ", T49, " Journey Points", IF(ISBLANK(S49), ".", _xlfn.CONCAT(" and a ", S49, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Crafty attack.</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
@@ -8614,11 +8448,11 @@
         <v>1</v>
       </c>
       <c r="Y50" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B50,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B50,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z50" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B50,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R50, " using ", T50, " Journey Points", IF(ISBLANK(S50), ".", _xlfn.CONCAT(" and a ", S50, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B50,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R50, " using ", T50, " Journey Points", IF(ISBLANK(S50), ".", _xlfn.CONCAT(" and a ", S50, " Apricorn."))))</f>
         <v>Evolves into Honchkrow using 4 Journey Points.</v>
       </c>
     </row>
@@ -8692,12 +8526,12 @@
         <v>2</v>
       </c>
       <c r="Y51" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B51,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B51,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Big Boss</v>
       </c>
       <c r="Z51" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B51,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R51, " using ", T51, " Journey Points", IF(ISBLANK(S51), ".", _xlfn.CONCAT(" and a ", S51, " Apricorn."))))</f>
-        <v>When switched in, inflict the opposing Pokémon with the Petrified status effect.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B51,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R51, " using ", T51, " Journey Points", IF(ISBLANK(S51), ".", _xlfn.CONCAT(" and a ", S51, " Apricorn."))))</f>
+        <v>Add 2 bonus power if there is a non-fainted Dark-type Pokémon in your party.</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
@@ -8768,11 +8602,11 @@
         <v>1</v>
       </c>
       <c r="Y52" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B52,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B52,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z52" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B52,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R52, " using ", T52, " Journey Points", IF(ISBLANK(S52), ".", _xlfn.CONCAT(" and a ", S52, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B52,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R52, " using ", T52, " Journey Points", IF(ISBLANK(S52), ".", _xlfn.CONCAT(" and a ", S52, " Apricorn."))))</f>
         <v>Evolves into Purugly using 5 Journey Points.</v>
       </c>
     </row>
@@ -8843,12 +8677,12 @@
         <v>2</v>
       </c>
       <c r="Y53" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B53,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Angry Kitty</v>
+        <f>_xlfn.IFNA(VLOOKUP(B53,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Defiant Feline</v>
       </c>
       <c r="Z53" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B53,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R53, " using ", T53, " Journey Points", IF(ISBLANK(S53), ".", _xlfn.CONCAT(" and a ", S53, " Apricorn."))))</f>
-        <v>After taking direct damage, gain the Focused status effect.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B53,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R53, " using ", T53, " Journey Points", IF(ISBLANK(S53), ".", _xlfn.CONCAT(" and a ", S53, " Apricorn."))))</f>
+        <v>Add 2 bonus power if your aura power is negative.</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
@@ -8883,7 +8717,7 @@
         <v>824</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>753</v>
@@ -8919,11 +8753,11 @@
         <v>1</v>
       </c>
       <c r="Y54" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B54,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B54,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z54" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B54,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R54, " using ", T54, " Journey Points", IF(ISBLANK(S54), ".", _xlfn.CONCAT(" and a ", S54, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B54,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R54, " using ", T54, " Journey Points", IF(ISBLANK(S54), ".", _xlfn.CONCAT(" and a ", S54, " Apricorn."))))</f>
         <v>Evolves into Chimecho using 5 Journey Points.</v>
       </c>
     </row>
@@ -8959,7 +8793,7 @@
         <v>825</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>753</v>
@@ -8994,12 +8828,12 @@
         <v>2</v>
       </c>
       <c r="Y55" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B55,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B55,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Final Chime</v>
       </c>
       <c r="Z55" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B55,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R55, " using ", T55, " Journey Points", IF(ISBLANK(S55), ".", _xlfn.CONCAT(" and a ", S55, " Apricorn."))))</f>
-        <v>At the start of a battle turn, this Pokémon may sacrifice itself to revive a fainted Pokémon.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B55,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R55, " using ", T55, " Journey Points", IF(ISBLANK(S55), ".", _xlfn.CONCAT(" and a ", S55, " Apricorn."))))</f>
+        <v>At the start of the turn, you may choose to faint this Pokémon to revive another fainted Pokémon.</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
@@ -9074,11 +8908,11 @@
         <v>1</v>
       </c>
       <c r="Y56" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B56,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B56,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z56" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B56,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R56, " using ", T56, " Journey Points", IF(ISBLANK(S56), ".", _xlfn.CONCAT(" and a ", S56, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B56,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R56, " using ", T56, " Journey Points", IF(ISBLANK(S56), ".", _xlfn.CONCAT(" and a ", S56, " Apricorn."))))</f>
         <v>Evolves into Skuntank using 4 Journey Points.</v>
       </c>
     </row>
@@ -9153,12 +8987,12 @@
         <v>2</v>
       </c>
       <c r="Y57" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B57,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B57,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Avenging Stench</v>
       </c>
       <c r="Z57" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B57,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R57, " using ", T57, " Journey Points", IF(ISBLANK(S57), ".", _xlfn.CONCAT(" and a ", S57, " Apricorn."))))</f>
-        <v>After taking direct damage, the opposing Pokémon is forced to switch out.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B57,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R57, " using ", T57, " Journey Points", IF(ISBLANK(S57), ".", _xlfn.CONCAT(" and a ", S57, " Apricorn."))))</f>
+        <v>When this Pokémon faints, decrease opposing aura power by two stages.</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
@@ -9233,11 +9067,11 @@
         <v>1</v>
       </c>
       <c r="Y58" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B58,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B58,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z58" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B58,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R58, " using ", T58, " Journey Points", IF(ISBLANK(S58), ".", _xlfn.CONCAT(" and a ", S58, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B58,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R58, " using ", T58, " Journey Points", IF(ISBLANK(S58), ".", _xlfn.CONCAT(" and a ", S58, " Apricorn."))))</f>
         <v>Evolves into Bronzong using 5 Journey Points.</v>
       </c>
     </row>
@@ -9312,12 +9146,12 @@
         <v>2</v>
       </c>
       <c r="Y59" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B59,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B59,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Gravity Manipulation</v>
       </c>
       <c r="Z59" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B59,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R59, " using ", T59, " Journey Points", IF(ISBLANK(S59), ".", _xlfn.CONCAT(" and a ", S59, " Apricorn."))))</f>
-        <v>During combat resolution, if attacked with a Ground-type move, take no direct damage.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B59,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R59, " using ", T59, " Journey Points", IF(ISBLANK(S59), ".", _xlfn.CONCAT(" and a ", S59, " Apricorn."))))</f>
+        <v>This Pokémon counters Ground-type moves from opposing attacks.</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
@@ -9355,7 +9189,7 @@
         <v>751</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="N60" s="1">
         <f t="shared" si="7"/>
@@ -9388,11 +9222,11 @@
         <v>1</v>
       </c>
       <c r="Y60" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B60,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B60,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z60" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B60,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R60, " using ", T60, " Journey Points", IF(ISBLANK(S60), ".", _xlfn.CONCAT(" and a ", S60, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B60,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R60, " using ", T60, " Journey Points", IF(ISBLANK(S60), ".", _xlfn.CONCAT(" and a ", S60, " Apricorn."))))</f>
         <v>Evolves into Sudowoodo using 3 Journey Points.</v>
       </c>
     </row>
@@ -9431,7 +9265,7 @@
         <v>751</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="N61" s="1">
         <f t="shared" si="7"/>
@@ -9463,12 +9297,12 @@
         <v>2</v>
       </c>
       <c r="Y61" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B61,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B61,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Water Aversion</v>
       </c>
       <c r="Z61" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B61,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R61, " using ", T61, " Journey Points", IF(ISBLANK(S61), ".", _xlfn.CONCAT(" and a ", S61, " Apricorn."))))</f>
-        <v>Before combat resolution, if attacked with a Water-type move, you must switch out.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B61,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R61, " using ", T61, " Journey Points", IF(ISBLANK(S61), ".", _xlfn.CONCAT(" and a ", S61, " Apricorn."))))</f>
+        <v>Switch out immediately when attacked with a Water-type move.</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
@@ -9543,11 +9377,11 @@
         <v>1</v>
       </c>
       <c r="Y62" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B62,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B62,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z62" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B62,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R62, " using ", T62, " Journey Points", IF(ISBLANK(S62), ".", _xlfn.CONCAT(" and a ", S62, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B62,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R62, " using ", T62, " Journey Points", IF(ISBLANK(S62), ".", _xlfn.CONCAT(" and a ", S62, " Apricorn."))))</f>
         <v>Evolves into Mr. Mime using 4 Journey Points.</v>
       </c>
     </row>
@@ -9622,12 +9456,12 @@
         <v>2</v>
       </c>
       <c r="Y63" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B63,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B63,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Instant Barrier</v>
       </c>
       <c r="Z63" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B63,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R63, " using ", T63, " Journey Points", IF(ISBLANK(S63), ".", _xlfn.CONCAT(" and a ", S63, " Apricorn."))))</f>
-        <v>When switched in, gain the Braced status effect.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B63,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R63, " using ", T63, " Journey Points", IF(ISBLANK(S63), ".", _xlfn.CONCAT(" and a ", S63, " Apricorn."))))</f>
+        <v>When switched in, increase your aura power by one stage.</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
@@ -9698,11 +9532,11 @@
         <v>1</v>
       </c>
       <c r="Y64" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B64,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B64,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z64" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B64,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R64, " using ", T64, " Journey Points", IF(ISBLANK(S64), ".", _xlfn.CONCAT(" and a ", S64, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B64,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R64, " using ", T64, " Journey Points", IF(ISBLANK(S64), ".", _xlfn.CONCAT(" and a ", S64, " Apricorn."))))</f>
         <v>Evolves into Chansey using 8 Journey Points.</v>
       </c>
     </row>
@@ -9777,11 +9611,11 @@
         <v>2</v>
       </c>
       <c r="Y65" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B65,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B65,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z65" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B65,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R65, " using ", T65, " Journey Points", IF(ISBLANK(S65), ".", _xlfn.CONCAT(" and a ", S65, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B65,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R65, " using ", T65, " Journey Points", IF(ISBLANK(S65), ".", _xlfn.CONCAT(" and a ", S65, " Apricorn."))))</f>
         <v>Evolves into Blissey using 3 Journey Points.</v>
       </c>
     </row>
@@ -9852,12 +9686,12 @@
         <v>3</v>
       </c>
       <c r="Y66" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B66,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Soft-Boiled Gift</v>
+        <f>_xlfn.IFNA(VLOOKUP(B66,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Soft-Boiled Gifts</v>
       </c>
       <c r="Z66" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B66,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R66, " using ", T66, " Journey Points", IF(ISBLANK(S66), ".", _xlfn.CONCAT(" and a ", S66, " Apricorn."))))</f>
-        <v>At the start of a battle turn, may heal itself or another non-fainted Pokémon. May only be used once per battle.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B66,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R66, " using ", T66, " Journey Points", IF(ISBLANK(S66), ".", _xlfn.CONCAT(" and a ", S66, " Apricorn."))))</f>
+        <v>At the start of the turn, you may reset the aura power of you and your opponent.</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
@@ -9931,12 +9765,12 @@
         <v>1</v>
       </c>
       <c r="Y67" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B67,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B67,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Dawn Chorus</v>
       </c>
       <c r="Z67" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B67,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R67, " using ", T67, " Journey Points", IF(ISBLANK(S67), ".", _xlfn.CONCAT(" and a ", S67, " Apricorn."))))</f>
-        <v>When switched in, add 1 bonus power for each non-fainted Flying-type Pokémon in your party.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B67,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R67, " using ", T67, " Journey Points", IF(ISBLANK(S67), ".", _xlfn.CONCAT(" and a ", S67, " Apricorn."))))</f>
+        <v>When switched in, increase your aura power by one stage for each non-fainted Flying-type Pokémon in your party.</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
@@ -10003,19 +9837,19 @@
         <v>Spiritomb</v>
       </c>
       <c r="V68" s="3"/>
-      <c r="W68" s="25">
+      <c r="W68" s="14">
         <v>1</v>
       </c>
       <c r="X68">
         <v>1</v>
       </c>
       <c r="Y68" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B68,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B68,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Fairy Inhibitor</v>
       </c>
       <c r="Z68" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B68,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R68, " using ", T68, " Journey Points", IF(ISBLANK(S68), ".", _xlfn.CONCAT(" and a ", S68, " Apricorn."))))</f>
-        <v>During combat resolution, if attacked with a Fairy-type move, take no direct damage.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B68,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R68, " using ", T68, " Journey Points", IF(ISBLANK(S68), ".", _xlfn.CONCAT(" and a ", S68, " Apricorn."))))</f>
+        <v>This Pokémon counters Fairy-type moves from opposing attacks.</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
@@ -10090,11 +9924,11 @@
         <v>1</v>
       </c>
       <c r="Y69" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B69,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B69,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z69" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B69,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R69, " using ", T69, " Journey Points", IF(ISBLANK(S69), ".", _xlfn.CONCAT(" and a ", S69, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B69,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R69, " using ", T69, " Journey Points", IF(ISBLANK(S69), ".", _xlfn.CONCAT(" and a ", S69, " Apricorn."))))</f>
         <v>Evolves into Gabite using 3 Journey Points.</v>
       </c>
     </row>
@@ -10173,11 +10007,11 @@
         <v>2</v>
       </c>
       <c r="Y70" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B70,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B70,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z70" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B70,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R70, " using ", T70, " Journey Points", IF(ISBLANK(S70), ".", _xlfn.CONCAT(" and a ", S70, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B70,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R70, " using ", T70, " Journey Points", IF(ISBLANK(S70), ".", _xlfn.CONCAT(" and a ", S70, " Apricorn."))))</f>
         <v>Evolves into Garchomp using 8 Journey Points.</v>
       </c>
     </row>
@@ -10251,12 +10085,12 @@
         <v>3</v>
       </c>
       <c r="Y71" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B71,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B71,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Mach Speed</v>
       </c>
       <c r="Z71" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B71,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R71, " using ", T71, " Journey Points", IF(ISBLANK(S71), ".", _xlfn.CONCAT(" and a ", S71, " Apricorn."))))</f>
-        <v>When the opposing Pokémon switches out, combat must be resolved first.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B71,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R71, " using ", T71, " Journey Points", IF(ISBLANK(S71), ".", _xlfn.CONCAT(" and a ", S71, " Apricorn."))))</f>
+        <v>This Pokémon ignores the Trap effect from opposing Crafty attacks.</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
@@ -10327,11 +10161,11 @@
         <v>1</v>
       </c>
       <c r="Y72" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B72,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B72,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z72" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B72,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R72, " using ", T72, " Journey Points", IF(ISBLANK(S72), ".", _xlfn.CONCAT(" and a ", S72, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B72,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R72, " using ", T72, " Journey Points", IF(ISBLANK(S72), ".", _xlfn.CONCAT(" and a ", S72, " Apricorn."))))</f>
         <v>Evolves into Snorlax using 8 Journey Points.</v>
       </c>
     </row>
@@ -10402,12 +10236,12 @@
         <v>2</v>
       </c>
       <c r="Y73" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B73,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B73,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Snack Time</v>
       </c>
       <c r="Z73" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B73,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R73, " using ", T73, " Journey Points", IF(ISBLANK(S73), ".", _xlfn.CONCAT(" and a ", S73, " Apricorn."))))</f>
-        <v>At the start of a battle turn, may consume an Apricorn to heal itself. May only be used once per battle.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B73,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R73, " using ", T73, " Journey Points", IF(ISBLANK(S73), ".", _xlfn.CONCAT(" and a ", S73, " Apricorn."))))</f>
+        <v>At the start of the turn, you may consume an apricorn to add 1 bonus power.</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
@@ -10478,11 +10312,11 @@
         <v>1</v>
       </c>
       <c r="Y74" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B74,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B74,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z74" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B74,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R74, " using ", T74, " Journey Points", IF(ISBLANK(S74), ".", _xlfn.CONCAT(" and a ", S74, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B74,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R74, " using ", T74, " Journey Points", IF(ISBLANK(S74), ".", _xlfn.CONCAT(" and a ", S74, " Apricorn."))))</f>
         <v>Evolves into Lucario using 7 Journey Points.</v>
       </c>
     </row>
@@ -10557,12 +10391,12 @@
         <v>2</v>
       </c>
       <c r="Y75" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B75,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Aura Reader</v>
+        <f>_xlfn.IFNA(VLOOKUP(B75,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Aura Storm</v>
       </c>
       <c r="Z75" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B75,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R75, " using ", T75, " Journey Points", IF(ISBLANK(S75), ".", _xlfn.CONCAT(" and a ", S75, " Apricorn."))))</f>
-        <v>Before combat resolution, guess the value of the stance your opponent has selected. Add 2 bonus power if successful.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B75,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R75, " using ", T75, " Journey Points", IF(ISBLANK(S75), ".", _xlfn.CONCAT(" and a ", S75, " Apricorn."))))</f>
+        <v>At the start of the turn, you may convert your aura power into double bonus power. Lasts until end of the turn.</v>
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
@@ -10633,11 +10467,11 @@
         <v>1</v>
       </c>
       <c r="Y76" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B76,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B76,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z76" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B76,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R76, " using ", T76, " Journey Points", IF(ISBLANK(S76), ".", _xlfn.CONCAT(" and a ", S76, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B76,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R76, " using ", T76, " Journey Points", IF(ISBLANK(S76), ".", _xlfn.CONCAT(" and a ", S76, " Apricorn."))))</f>
         <v>Evolves into Hippowdon using 6 Journey Points.</v>
       </c>
     </row>
@@ -10708,12 +10542,12 @@
         <v>2</v>
       </c>
       <c r="Y77" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B77,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B77,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Sand Stream</v>
       </c>
       <c r="Z77" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B77,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R77, " using ", T77, " Journey Points", IF(ISBLANK(S77), ".", _xlfn.CONCAT(" and a ", S77, " Apricorn."))))</f>
-        <v>When switched in, inflict the opposing Pokémon with the Weakened status effect.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B77,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R77, " using ", T77, " Journey Points", IF(ISBLANK(S77), ".", _xlfn.CONCAT(" and a ", S77, " Apricorn."))))</f>
+        <v>When switched in, decrease opposing aura power by one stage.</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
@@ -10788,11 +10622,11 @@
         <v>1</v>
       </c>
       <c r="Y78" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B78,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B78,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z78" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B78,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R78, " using ", T78, " Journey Points", IF(ISBLANK(S78), ".", _xlfn.CONCAT(" and a ", S78, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B78,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R78, " using ", T78, " Journey Points", IF(ISBLANK(S78), ".", _xlfn.CONCAT(" and a ", S78, " Apricorn."))))</f>
         <v>Evolves into Drapion using 6 Journey Points.</v>
       </c>
     </row>
@@ -10867,12 +10701,12 @@
         <v>2</v>
       </c>
       <c r="Y79" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B79,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B79,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Barbed Grip</v>
       </c>
       <c r="Z79" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B79,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R79, " using ", T79, " Journey Points", IF(ISBLANK(S79), ".", _xlfn.CONCAT(" and a ", S79, " Apricorn."))))</f>
-        <v>When the opposing Pokémon switches out, it takes indirect damage if afflicted by the Weakened status effect.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B79,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R79, " using ", T79, " Journey Points", IF(ISBLANK(S79), ".", _xlfn.CONCAT(" and a ", S79, " Apricorn."))))</f>
+        <v>When the opposing Pokémon switches out, decrease opposing aura power by one stage.</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
@@ -10947,11 +10781,11 @@
         <v>1</v>
       </c>
       <c r="Y80" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B80,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B80,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z80" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B80,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R80, " using ", T80, " Journey Points", IF(ISBLANK(S80), ".", _xlfn.CONCAT(" and a ", S80, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B80,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R80, " using ", T80, " Journey Points", IF(ISBLANK(S80), ".", _xlfn.CONCAT(" and a ", S80, " Apricorn."))))</f>
         <v>Evolves into Toxicroak using 5 Journey Points.</v>
       </c>
     </row>
@@ -11026,12 +10860,12 @@
         <v>2</v>
       </c>
       <c r="Y81" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B81,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B81,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Victory Croak</v>
       </c>
       <c r="Z81" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B81,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R81, " using ", T81, " Journey Points", IF(ISBLANK(S81), ".", _xlfn.CONCAT(" and a ", S81, " Apricorn."))))</f>
-        <v>After defeating an opposing Pokémon, inflicts the next Pokémon switched in with the Weakened status effect.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B81,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R81, " using ", T81, " Journey Points", IF(ISBLANK(S81), ".", _xlfn.CONCAT(" and a ", S81, " Apricorn."))))</f>
+        <v>After defeating an opposing Pokémon, add 2 bonus power. Stacks with itself.</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
@@ -11101,12 +10935,12 @@
         <v>1</v>
       </c>
       <c r="Y82" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B82,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B82,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Bug Catcher</v>
       </c>
       <c r="Z82" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B82,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R82, " using ", T82, " Journey Points", IF(ISBLANK(S82), ".", _xlfn.CONCAT(" and a ", S82, " Apricorn."))))</f>
-        <v>During combat resolution, if attacked with a Bug-type move, take no direct damage.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B82,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R82, " using ", T82, " Journey Points", IF(ISBLANK(S82), ".", _xlfn.CONCAT(" and a ", S82, " Apricorn."))))</f>
+        <v>This Pokémon counters Bug-type moves from opposing attacks.</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
@@ -11177,11 +11011,11 @@
         <v>1</v>
       </c>
       <c r="Y83" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B83,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B83,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z83" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B83,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R83, " using ", T83, " Journey Points", IF(ISBLANK(S83), ".", _xlfn.CONCAT(" and a ", S83, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B83,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R83, " using ", T83, " Journey Points", IF(ISBLANK(S83), ".", _xlfn.CONCAT(" and a ", S83, " Apricorn."))))</f>
         <v>Evolves into Lumineon using 4 Journey Points.</v>
       </c>
     </row>
@@ -11252,12 +11086,12 @@
         <v>2</v>
       </c>
       <c r="Y84" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B84,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v xml:space="preserve">Light Show </v>
+        <f>_xlfn.IFNA(VLOOKUP(B84,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Neon Resonance</v>
       </c>
       <c r="Z84" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B84,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R84, " using ", T84, " Journey Points", IF(ISBLANK(S84), ".", _xlfn.CONCAT(" and a ", S84, " Apricorn."))))</f>
-        <v>When attacking, add 2 bonus power if this attack type is different from your previous attack type.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B84,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R84, " using ", T84, " Journey Points", IF(ISBLANK(S84), ".", _xlfn.CONCAT(" and a ", S84, " Apricorn."))))</f>
+        <v>Add 1 bonus power whilst attacking with positive type effectiveness.</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
@@ -11332,11 +11166,11 @@
         <v>1</v>
       </c>
       <c r="Y85" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B85,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B85,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z85" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B85,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R85, " using ", T85, " Journey Points", IF(ISBLANK(S85), ".", _xlfn.CONCAT(" and a ", S85, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B85,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R85, " using ", T85, " Journey Points", IF(ISBLANK(S85), ".", _xlfn.CONCAT(" and a ", S85, " Apricorn."))))</f>
         <v>Evolves into Mantine using 4 Journey Points.</v>
       </c>
     </row>
@@ -11411,12 +11245,12 @@
         <v>2</v>
       </c>
       <c r="Y86" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B86,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B86,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Swimming Partner</v>
       </c>
       <c r="Z86" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B86,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R86, " using ", T86, " Journey Points", IF(ISBLANK(S86), ".", _xlfn.CONCAT(" and a ", S86, " Apricorn."))))</f>
-        <v>When switched in, add 2 bonus power if the Pokémon switched out was a Water-type.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B86,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R86, " using ", T86, " Journey Points", IF(ISBLANK(S86), ".", _xlfn.CONCAT(" and a ", S86, " Apricorn."))))</f>
+        <v>Add 2 bonus power if there is a non-fainted Water-type Pokémon in your party.</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
@@ -11490,11 +11324,11 @@
         <v>1</v>
       </c>
       <c r="Y87" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B87,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B87,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z87" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B87,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R87, " using ", T87, " Journey Points", IF(ISBLANK(S87), ".", _xlfn.CONCAT(" and a ", S87, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B87,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R87, " using ", T87, " Journey Points", IF(ISBLANK(S87), ".", _xlfn.CONCAT(" and a ", S87, " Apricorn."))))</f>
         <v>Evolves into Octillery using 5 Journey Points.</v>
       </c>
     </row>
@@ -11568,12 +11402,12 @@
         <v>2</v>
       </c>
       <c r="Y88" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B88,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Sniper Precision</v>
+        <f>_xlfn.IFNA(VLOOKUP(B88,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Sniper Targeting</v>
       </c>
       <c r="Z88" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B88,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R88, " using ", T88, " Journey Points", IF(ISBLANK(S88), ".", _xlfn.CONCAT(" and a ", S88, " Apricorn."))))</f>
-        <v>When attacking, the opposing Pokémon takes indirect damage if afflicted by the Weakened status effect.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B88,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R88, " using ", T88, " Journey Points", IF(ISBLANK(S88), ".", _xlfn.CONCAT(" and a ", S88, " Apricorn."))))</f>
+        <v>Add 1 bonus power if opposing aura power is negative.</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
@@ -11648,11 +11482,11 @@
         <v>1</v>
       </c>
       <c r="Y89" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B89,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B89,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z89" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B89,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R89, " using ", T89, " Journey Points", IF(ISBLANK(S89), ".", _xlfn.CONCAT(" and a ", S89, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B89,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R89, " using ", T89, " Journey Points", IF(ISBLANK(S89), ".", _xlfn.CONCAT(" and a ", S89, " Apricorn."))))</f>
         <v>Evolves into Abomasnow using 4 Journey Points.</v>
       </c>
     </row>
@@ -11727,12 +11561,12 @@
         <v>2</v>
       </c>
       <c r="Y90" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B90,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B90,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Snow Warning</v>
       </c>
       <c r="Z90" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B90,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R90, " using ", T90, " Journey Points", IF(ISBLANK(S90), ".", _xlfn.CONCAT(" and a ", S90, " Apricorn."))))</f>
-        <v>When switched in, inflict the opposing Pokémon with the Weakened status effect.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B90,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R90, " using ", T90, " Journey Points", IF(ISBLANK(S90), ".", _xlfn.CONCAT(" and a ", S90, " Apricorn."))))</f>
+        <v>When switched in, decrease opposing aura power by one stage.</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
@@ -11807,11 +11641,11 @@
         <v>1</v>
       </c>
       <c r="Y91" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B91,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B91,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z91" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B91,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R91, " using ", T91, " Journey Points", IF(ISBLANK(S91), ".", _xlfn.CONCAT(" and a ", S91, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B91,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R91, " using ", T91, " Journey Points", IF(ISBLANK(S91), ".", _xlfn.CONCAT(" and a ", S91, " Apricorn."))))</f>
         <v>Evolves into Weavile using 3 Journey Points.</v>
       </c>
     </row>
@@ -11886,12 +11720,12 @@
         <v>2</v>
       </c>
       <c r="Y92" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B92,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Coordinated Hunter</v>
+        <f>_xlfn.IFNA(VLOOKUP(B92,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Hunting Coordination</v>
       </c>
       <c r="Z92" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B92,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R92, " using ", T92, " Journey Points", IF(ISBLANK(S92), ".", _xlfn.CONCAT(" and a ", S92, " Apricorn."))))</f>
-        <v>When switched in, add 2 bonus power for the next battle turn.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B92,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R92, " using ", T92, " Journey Points", IF(ISBLANK(S92), ".", _xlfn.CONCAT(" and a ", S92, " Apricorn."))))</f>
+        <v>When switched in, increase your aura power by one stage.</v>
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
@@ -11966,11 +11800,11 @@
         <v>1</v>
       </c>
       <c r="Y93" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B93,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B93,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z93" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B93,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R93, " using ", T93, " Journey Points", IF(ISBLANK(S93), ".", _xlfn.CONCAT(" and a ", S93, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B93,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R93, " using ", T93, " Journey Points", IF(ISBLANK(S93), ".", _xlfn.CONCAT(" and a ", S93, " Apricorn."))))</f>
         <v>Evolves into Magneton using 4 Journey Points.</v>
       </c>
     </row>
@@ -12049,11 +11883,11 @@
         <v>2</v>
       </c>
       <c r="Y94" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B94,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B94,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z94" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B94,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R94, " using ", T94, " Journey Points", IF(ISBLANK(S94), ".", _xlfn.CONCAT(" and a ", S94, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B94,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R94, " using ", T94, " Journey Points", IF(ISBLANK(S94), ".", _xlfn.CONCAT(" and a ", S94, " Apricorn."))))</f>
         <v>Evolves into Magnezone using 3 Journey Points.</v>
       </c>
     </row>
@@ -12128,12 +11962,12 @@
         <v>3</v>
       </c>
       <c r="Y95" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B95,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B95,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Magnet Pull</v>
       </c>
       <c r="Z95" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B95,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R95, " using ", T95, " Journey Points", IF(ISBLANK(S95), ".", _xlfn.CONCAT(" and a ", S95, " Apricorn."))))</f>
-        <v>The opposing Pokémon may not switch out if it is a Steel-type.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B95,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R95, " using ", T95, " Journey Points", IF(ISBLANK(S95), ".", _xlfn.CONCAT(" and a ", S95, " Apricorn."))))</f>
+        <v>This Pokémon prevents opposing Steel-type Pokémon from switching.</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
@@ -12204,11 +12038,11 @@
         <v>1</v>
       </c>
       <c r="Y96" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B96,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B96,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z96" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B96,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R96, " using ", T96, " Journey Points", IF(ISBLANK(S96), ".", _xlfn.CONCAT(" and a ", S96, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B96,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R96, " using ", T96, " Journey Points", IF(ISBLANK(S96), ".", _xlfn.CONCAT(" and a ", S96, " Apricorn."))))</f>
         <v>Evolves into Lickilicky using 6 Journey Points.</v>
       </c>
     </row>
@@ -12279,12 +12113,12 @@
         <v>2</v>
       </c>
       <c r="Y97" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B97,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B97,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Extra Reach</v>
       </c>
       <c r="Z97" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B97,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R97, " using ", T97, " Journey Points", IF(ISBLANK(S97), ".", _xlfn.CONCAT(" and a ", S97, " Apricorn."))))</f>
-        <v>When attacking, add 2 bonus power when using a Balanced stance.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B97,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R97, " using ", T97, " Journey Points", IF(ISBLANK(S97), ".", _xlfn.CONCAT(" and a ", S97, " Apricorn."))))</f>
+        <v>During combat resolution, this Pokémon wins ties.</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
@@ -12359,11 +12193,11 @@
         <v>1</v>
       </c>
       <c r="Y98" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B98,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B98,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z98" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B98,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R98, " using ", T98, " Journey Points", IF(ISBLANK(S98), ".", _xlfn.CONCAT(" and a ", S98, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B98,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R98, " using ", T98, " Journey Points", IF(ISBLANK(S98), ".", _xlfn.CONCAT(" and a ", S98, " Apricorn."))))</f>
         <v>Evolves into Rhydon using 6 Journey Points.</v>
       </c>
     </row>
@@ -12442,11 +12276,11 @@
         <v>2</v>
       </c>
       <c r="Y99" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B99,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B99,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z99" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B99,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R99, " using ", T99, " Journey Points", IF(ISBLANK(S99), ".", _xlfn.CONCAT(" and a ", S99, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B99,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R99, " using ", T99, " Journey Points", IF(ISBLANK(S99), ".", _xlfn.CONCAT(" and a ", S99, " Apricorn."))))</f>
         <v>Evolves into Rhyperior using 3 Journey Points.</v>
       </c>
     </row>
@@ -12521,12 +12355,12 @@
         <v>3</v>
       </c>
       <c r="Y100" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B100,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B100,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Naturally Reckless</v>
       </c>
       <c r="Z100" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B100,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R100, " using ", T100, " Journey Points", IF(ISBLANK(S100), ".", _xlfn.CONCAT(" and a ", S100, " Apricorn."))))</f>
-        <v>When attacking, add 2 bonus power when using a Reckless stance.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B100,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R100, " using ", T100, " Journey Points", IF(ISBLANK(S100), ".", _xlfn.CONCAT(" and a ", S100, " Apricorn."))))</f>
+        <v>Add 1 bonus power whilst attacking with a Reckless attack.</v>
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
@@ -12597,11 +12431,11 @@
         <v>1</v>
       </c>
       <c r="Y101" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B101,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B101,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z101" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B101,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R101, " using ", T101, " Journey Points", IF(ISBLANK(S101), ".", _xlfn.CONCAT(" and a ", S101, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B101,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R101, " using ", T101, " Journey Points", IF(ISBLANK(S101), ".", _xlfn.CONCAT(" and a ", S101, " Apricorn."))))</f>
         <v>Evolves into Tangrowth using 3 Journey Points.</v>
       </c>
     </row>
@@ -12672,12 +12506,12 @@
         <v>2</v>
       </c>
       <c r="Y102" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B102,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B102,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Rapid Regrowth</v>
       </c>
       <c r="Z102" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B102,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R102, " using ", T102, " Journey Points", IF(ISBLANK(S102), ".", _xlfn.CONCAT(" and a ", S102, " Apricorn."))))</f>
-        <v>When switched out, may heal itself. May only be used once per battle.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B102,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R102, " using ", T102, " Journey Points", IF(ISBLANK(S102), ".", _xlfn.CONCAT(" and a ", S102, " Apricorn."))))</f>
+        <v>When switched out, you may reset your aura power.</v>
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
@@ -12748,11 +12582,11 @@
         <v>1</v>
       </c>
       <c r="Y103" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B103,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B103,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z103" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B103,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R103, " using ", T103, " Journey Points", IF(ISBLANK(S103), ".", _xlfn.CONCAT(" and a ", S103, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B103,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R103, " using ", T103, " Journey Points", IF(ISBLANK(S103), ".", _xlfn.CONCAT(" and a ", S103, " Apricorn."))))</f>
         <v>Evolves into Electabuzz using 4 Journey Points.</v>
       </c>
     </row>
@@ -12827,11 +12661,11 @@
         <v>2</v>
       </c>
       <c r="Y104" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B104,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B104,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z104" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B104,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R104, " using ", T104, " Journey Points", IF(ISBLANK(S104), ".", _xlfn.CONCAT(" and a ", S104, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B104,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R104, " using ", T104, " Journey Points", IF(ISBLANK(S104), ".", _xlfn.CONCAT(" and a ", S104, " Apricorn."))))</f>
         <v>Evolves into Electivire using 3 Journey Points.</v>
       </c>
     </row>
@@ -12902,12 +12736,12 @@
         <v>3</v>
       </c>
       <c r="Y105" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B105,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B105,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Electrical Overload</v>
       </c>
       <c r="Z105" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B105,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R105, " using ", T105, " Journey Points", IF(ISBLANK(S105), ".", _xlfn.CONCAT(" and a ", S105, " Apricorn."))))</f>
-        <v>When attacking with an Electric-type move, add 3 bonus power but cannot select an action next battle turn.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B105,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R105, " using ", T105, " Journey Points", IF(ISBLANK(S105), ".", _xlfn.CONCAT(" and a ", S105, " Apricorn."))))</f>
+        <v>May add 3 bonus power whilst attacking with an Electric-type move but cannot select an action next turn.</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
@@ -12978,11 +12812,11 @@
         <v>1</v>
       </c>
       <c r="Y106" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B106,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B106,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z106" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B106,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R106, " using ", T106, " Journey Points", IF(ISBLANK(S106), ".", _xlfn.CONCAT(" and a ", S106, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B106,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R106, " using ", T106, " Journey Points", IF(ISBLANK(S106), ".", _xlfn.CONCAT(" and a ", S106, " Apricorn."))))</f>
         <v>Evolves into Magmar using 4 Journey Points.</v>
       </c>
     </row>
@@ -13057,11 +12891,11 @@
         <v>2</v>
       </c>
       <c r="Y107" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B107,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B107,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z107" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B107,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R107, " using ", T107, " Journey Points", IF(ISBLANK(S107), ".", _xlfn.CONCAT(" and a ", S107, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B107,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R107, " using ", T107, " Journey Points", IF(ISBLANK(S107), ".", _xlfn.CONCAT(" and a ", S107, " Apricorn."))))</f>
         <v>Evolves into Magmortar using 3 Journey Points.</v>
       </c>
     </row>
@@ -13132,12 +12966,12 @@
         <v>3</v>
       </c>
       <c r="Y108" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B108,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B108,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Magma Overdrive</v>
       </c>
       <c r="Z108" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B108,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R108, " using ", T108, " Journey Points", IF(ISBLANK(S108), ".", _xlfn.CONCAT(" and a ", S108, " Apricorn."))))</f>
-        <v>When attacking with a Fire-type move, add 3 bonus power but cannot select an action next battle turn.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B108,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R108, " using ", T108, " Journey Points", IF(ISBLANK(S108), ".", _xlfn.CONCAT(" and a ", S108, " Apricorn."))))</f>
+        <v>May add 3 bonus power whilst attacking with a Fire-type move but cannot select an action next turn.</v>
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
@@ -13208,11 +13042,11 @@
         <v>1</v>
       </c>
       <c r="Y109" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B109,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B109,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z109" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B109,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R109, " using ", T109, " Journey Points", IF(ISBLANK(S109), ".", _xlfn.CONCAT(" and a ", S109, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B109,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R109, " using ", T109, " Journey Points", IF(ISBLANK(S109), ".", _xlfn.CONCAT(" and a ", S109, " Apricorn."))))</f>
         <v>Evolves into Togetic using 3 Journey Points.</v>
       </c>
     </row>
@@ -13291,11 +13125,11 @@
         <v>2</v>
       </c>
       <c r="Y110" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B110,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B110,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z110" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B110,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R110, " using ", T110, " Journey Points", IF(ISBLANK(S110), ".", _xlfn.CONCAT(" and a ", S110, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B110,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R110, " using ", T110, " Journey Points", IF(ISBLANK(S110), ".", _xlfn.CONCAT(" and a ", S110, " Apricorn."))))</f>
         <v>Evolves into Togekiss using 8 Journey Points.</v>
       </c>
     </row>
@@ -13370,12 +13204,12 @@
         <v>3</v>
       </c>
       <c r="Y111" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B111,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B111,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Serene Grace</v>
       </c>
       <c r="Z111" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B111,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R111, " using ", T111, " Journey Points", IF(ISBLANK(S111), ".", _xlfn.CONCAT(" and a ", S111, " Apricorn."))))</f>
-        <v>When attacking with a Fairy-type move, Balanced stances are treated as Crafty stances.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B111,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R111, " using ", T111, " Journey Points", IF(ISBLANK(S111), ".", _xlfn.CONCAT(" and a ", S111, " Apricorn."))))</f>
+        <v>When attacking with a Fairy-type move, your Balanced attacks are treated as Crafty attacks.</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
@@ -13450,11 +13284,11 @@
         <v>1</v>
       </c>
       <c r="Y112" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B112,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B112,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z112" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B112,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R112, " using ", T112, " Journey Points", IF(ISBLANK(S112), ".", _xlfn.CONCAT(" and a ", S112, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B112,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R112, " using ", T112, " Journey Points", IF(ISBLANK(S112), ".", _xlfn.CONCAT(" and a ", S112, " Apricorn."))))</f>
         <v>Evolves into Yanmega using 5 Journey Points.</v>
       </c>
     </row>
@@ -13529,12 +13363,12 @@
         <v>2</v>
       </c>
       <c r="Y113" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B113,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B113,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Tinted Lens</v>
       </c>
       <c r="Z113" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B113,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R113, " using ", T113, " Journey Points", IF(ISBLANK(S113), ".", _xlfn.CONCAT(" and a ", S113, " Apricorn."))))</f>
-        <v>When attacking, add 2 bonus power if type effectiveness is less than 0.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B113,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R113, " using ", T113, " Journey Points", IF(ISBLANK(S113), ".", _xlfn.CONCAT(" and a ", S113, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with negative type effectiveness.</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
@@ -13586,10 +13420,10 @@
         <v>37</v>
       </c>
       <c r="R114" s="1" t="s">
-        <v>1049</v>
+        <v>1032</v>
       </c>
       <c r="S114" s="1" t="s">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="T114">
         <f t="shared" si="14"/>
@@ -13607,12 +13441,12 @@
         <v>1</v>
       </c>
       <c r="Y114" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B114,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B114,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Eeveelution</v>
       </c>
       <c r="Z114" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B114,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R114, " using ", T114, " Journey Points", IF(ISBLANK(S114), ".", _xlfn.CONCAT(" and a ", S114, " Apricorn."))))</f>
-        <v>Evolves into any Pokémon with an "Evoboost" ability using 5 Journey Points and an Apricorn matching its colour.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B114,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R114, " using ", T114, " Journey Points", IF(ISBLANK(S114), ".", _xlfn.CONCAT(" and a ", S114, " Apricorn."))))</f>
+        <v>Evolves into any Pokémon with the "Eeveelution Boost" ability using 5 Journey Points and an apricorn.</v>
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
@@ -13682,12 +13516,12 @@
         <v>2</v>
       </c>
       <c r="Y115" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B115,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Water Evoboost</v>
+        <f>_xlfn.IFNA(VLOOKUP(B115,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Eeveelution Boost</v>
       </c>
       <c r="Z115" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B115,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R115, " using ", T115, " Journey Points", IF(ISBLANK(S115), ".", _xlfn.CONCAT(" and a ", S115, " Apricorn."))))</f>
-        <v>When attacking with a Water-type move, add 1 bonus power for each other "Evoboost" ability in your party.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B115,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R115, " using ", T115, " Journey Points", IF(ISBLANK(S115), ".", _xlfn.CONCAT(" and a ", S115, " Apricorn."))))</f>
+        <v>Add 2 bonus power if there is a non-fainted Pokémon with the "Eeveelution Boost" ability in your party.</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
@@ -13757,12 +13591,12 @@
         <v>2</v>
       </c>
       <c r="Y116" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B116,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Electro Evoboost</v>
+        <f>_xlfn.IFNA(VLOOKUP(B116,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Eeveelution Boost</v>
       </c>
       <c r="Z116" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B116,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R116, " using ", T116, " Journey Points", IF(ISBLANK(S116), ".", _xlfn.CONCAT(" and a ", S116, " Apricorn."))))</f>
-        <v>When attacking with an Electric-type move, add 1 bonus power for each other "Evoboost" ability in your party.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B116,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R116, " using ", T116, " Journey Points", IF(ISBLANK(S116), ".", _xlfn.CONCAT(" and a ", S116, " Apricorn."))))</f>
+        <v>Add 2 bonus power if there is a non-fainted Pokémon with the "Eeveelution Boost" ability in your party.</v>
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
@@ -13832,12 +13666,12 @@
         <v>2</v>
       </c>
       <c r="Y117" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B117,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Fiery Evoboost</v>
+        <f>_xlfn.IFNA(VLOOKUP(B117,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Eeveelution Boost</v>
       </c>
       <c r="Z117" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B117,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R117, " using ", T117, " Journey Points", IF(ISBLANK(S117), ".", _xlfn.CONCAT(" and a ", S117, " Apricorn."))))</f>
-        <v>When attacking with a Fire-type move, add 1 bonus power for each other "Evoboost" ability in your party.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B117,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R117, " using ", T117, " Journey Points", IF(ISBLANK(S117), ".", _xlfn.CONCAT(" and a ", S117, " Apricorn."))))</f>
+        <v>Add 2 bonus power if there is a non-fainted Pokémon with the "Eeveelution Boost" ability in your party.</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
@@ -13907,12 +13741,12 @@
         <v>2</v>
       </c>
       <c r="Y118" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B118,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Psychic Evoboost</v>
+        <f>_xlfn.IFNA(VLOOKUP(B118,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Eeveelution Boost</v>
       </c>
       <c r="Z118" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B118,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R118, " using ", T118, " Journey Points", IF(ISBLANK(S118), ".", _xlfn.CONCAT(" and a ", S118, " Apricorn."))))</f>
-        <v>When attacking with a Psychic-type move, add 1 bonus power for each other "Evoboost" ability in your party.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B118,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R118, " using ", T118, " Journey Points", IF(ISBLANK(S118), ".", _xlfn.CONCAT(" and a ", S118, " Apricorn."))))</f>
+        <v>Add 2 bonus power if there is a non-fainted Pokémon with the "Eeveelution Boost" ability in your party.</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
@@ -13982,12 +13816,12 @@
         <v>2</v>
       </c>
       <c r="Y119" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B119,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Dark Evoboost</v>
+        <f>_xlfn.IFNA(VLOOKUP(B119,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Eeveelution Boost</v>
       </c>
       <c r="Z119" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B119,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R119, " using ", T119, " Journey Points", IF(ISBLANK(S119), ".", _xlfn.CONCAT(" and a ", S119, " Apricorn."))))</f>
-        <v>When attacking with a Dark-type move, add 1 bonus power for each other "Evoboost" ability in your party.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B119,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R119, " using ", T119, " Journey Points", IF(ISBLANK(S119), ".", _xlfn.CONCAT(" and a ", S119, " Apricorn."))))</f>
+        <v>Add 2 bonus power if there is a non-fainted Pokémon with the "Eeveelution Boost" ability in your party.</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
@@ -14057,12 +13891,12 @@
         <v>2</v>
       </c>
       <c r="Y120" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B120,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Grassy Evoboost</v>
+        <f>_xlfn.IFNA(VLOOKUP(B120,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Eeveelution Boost</v>
       </c>
       <c r="Z120" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B120,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R120, " using ", T120, " Journey Points", IF(ISBLANK(S120), ".", _xlfn.CONCAT(" and a ", S120, " Apricorn."))))</f>
-        <v>When attacking with a Grass-type move, add 1 bonus power for each other "Evoboost" ability in your party.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B120,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R120, " using ", T120, " Journey Points", IF(ISBLANK(S120), ".", _xlfn.CONCAT(" and a ", S120, " Apricorn."))))</f>
+        <v>Add 2 bonus power if there is a non-fainted Pokémon with the "Eeveelution Boost" ability in your party.</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
@@ -14132,12 +13966,12 @@
         <v>2</v>
       </c>
       <c r="Y121" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B121,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Icey Evoboost</v>
+        <f>_xlfn.IFNA(VLOOKUP(B121,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Eeveelution Boost</v>
       </c>
       <c r="Z121" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B121,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R121, " using ", T121, " Journey Points", IF(ISBLANK(S121), ".", _xlfn.CONCAT(" and a ", S121, " Apricorn."))))</f>
-        <v>When attacking with an Ice-type move, add 1 bonus power for each other "Evoboost" ability in your party.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B121,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R121, " using ", T121, " Journey Points", IF(ISBLANK(S121), ".", _xlfn.CONCAT(" and a ", S121, " Apricorn."))))</f>
+        <v>Add 2 bonus power if there is a non-fainted Pokémon with the "Eeveelution Boost" ability in your party.</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
@@ -14212,11 +14046,11 @@
         <v>1</v>
       </c>
       <c r="Y122" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B122,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B122,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z122" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B122,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R122, " using ", T122, " Journey Points", IF(ISBLANK(S122), ".", _xlfn.CONCAT(" and a ", S122, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B122,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R122, " using ", T122, " Journey Points", IF(ISBLANK(S122), ".", _xlfn.CONCAT(" and a ", S122, " Apricorn."))))</f>
         <v>Evolves into Gliscor using 3 Journey Points.</v>
       </c>
     </row>
@@ -14291,12 +14125,12 @@
         <v>2</v>
       </c>
       <c r="Y123" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B123,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B123,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v xml:space="preserve">Hyper Cutter </v>
       </c>
       <c r="Z123" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B123,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R123, " using ", T123, " Journey Points", IF(ISBLANK(S123), ".", _xlfn.CONCAT(" and a ", S123, " Apricorn."))))</f>
-        <v>This Pokémon cannot be inflicted with the Petrified status effect.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B123,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R123, " using ", T123, " Journey Points", IF(ISBLANK(S123), ".", _xlfn.CONCAT(" and a ", S123, " Apricorn."))))</f>
+        <v>This Pokémon prevents any changes to your aura power by your opponent.</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.25">
@@ -14371,11 +14205,11 @@
         <v>1</v>
       </c>
       <c r="Y124" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B124,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B124,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z124" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B124,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R124, " using ", T124, " Journey Points", IF(ISBLANK(S124), ".", _xlfn.CONCAT(" and a ", S124, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B124,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R124, " using ", T124, " Journey Points", IF(ISBLANK(S124), ".", _xlfn.CONCAT(" and a ", S124, " Apricorn."))))</f>
         <v>Evolves into Piloswine using 5 Journey Points.</v>
       </c>
     </row>
@@ -14454,11 +14288,11 @@
         <v>2</v>
       </c>
       <c r="Y125" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B125,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B125,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z125" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B125,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R125, " using ", T125, " Journey Points", IF(ISBLANK(S125), ".", _xlfn.CONCAT(" and a ", S125, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B125,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R125, " using ", T125, " Journey Points", IF(ISBLANK(S125), ".", _xlfn.CONCAT(" and a ", S125, " Apricorn."))))</f>
         <v>Evolves into Mamoswine using 6 Journey Points.</v>
       </c>
     </row>
@@ -14533,12 +14367,12 @@
         <v>3</v>
       </c>
       <c r="Y126" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B126,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B126,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Twin Tusks</v>
       </c>
       <c r="Z126" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B126,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R126, " using ", T126, " Journey Points", IF(ISBLANK(S126), ".", _xlfn.CONCAT(" and a ", S126, " Apricorn."))))</f>
-        <v>During combat resolution, this Pokémon immediately attacks again without a stance.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B126,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R126, " using ", T126, " Journey Points", IF(ISBLANK(S126), ".", _xlfn.CONCAT(" and a ", S126, " Apricorn."))))</f>
+        <v>You and your opponent may use a second attack token if attacking.</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.25">
@@ -14613,11 +14447,11 @@
         <v>1</v>
       </c>
       <c r="Y127" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B127,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B127,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z127" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B127,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R127, " using ", T127, " Journey Points", IF(ISBLANK(S127), ".", _xlfn.CONCAT(" and a ", S127, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B127,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R127, " using ", T127, " Journey Points", IF(ISBLANK(S127), ".", _xlfn.CONCAT(" and a ", S127, " Apricorn."))))</f>
         <v>Evolves into Kirlia using 1 Journey Points.</v>
       </c>
     </row>
@@ -14677,10 +14511,10 @@
         <v>117</v>
       </c>
       <c r="R128" s="1" t="s">
-        <v>1050</v>
+        <v>1033</v>
       </c>
       <c r="S128" s="1" t="s">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="T128">
         <f t="shared" si="18"/>
@@ -14698,11 +14532,11 @@
         <v>2</v>
       </c>
       <c r="Y128" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B128,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B128,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z128" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B128,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R128, " using ", T128, " Journey Points", IF(ISBLANK(S128), ".", _xlfn.CONCAT(" and a ", S128, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B128,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R128, " using ", T128, " Journey Points", IF(ISBLANK(S128), ".", _xlfn.CONCAT(" and a ", S128, " Apricorn."))))</f>
         <v>Evolves into Gardevoir/Gallade using 6 Journey Points and a Red/Blue Apricorn.</v>
       </c>
     </row>
@@ -14777,12 +14611,12 @@
         <v>3</v>
       </c>
       <c r="Y129" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B129,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B129,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Ability Tracer</v>
       </c>
       <c r="Z129" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B129,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R129, " using ", T129, " Journey Points", IF(ISBLANK(S129), ".", _xlfn.CONCAT(" and a ", S129, " Apricorn."))))</f>
-        <v>The ability of this Pokémon is the ability of the opposing Pokémon. Lasts until switched out.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B129,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R129, " using ", T129, " Journey Points", IF(ISBLANK(S129), ".", _xlfn.CONCAT(" and a ", S129, " Apricorn."))))</f>
+        <v>The ability of this Pokémon is the ability of the opposing Pokémon.</v>
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
@@ -14856,12 +14690,12 @@
         <v>3</v>
       </c>
       <c r="Y130" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B130,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B130,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Ability Nullifier</v>
       </c>
       <c r="Z130" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B130,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R130, " using ", T130, " Journey Points", IF(ISBLANK(S130), ".", _xlfn.CONCAT(" and a ", S130, " Apricorn."))))</f>
-        <v>The ability of the opposing Pokémon cannot be used. Lasts until switched out.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B130,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R130, " using ", T130, " Journey Points", IF(ISBLANK(S130), ".", _xlfn.CONCAT(" and a ", S130, " Apricorn."))))</f>
+        <v>The ability of the opposing Pokémon cannot be used.</v>
       </c>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
@@ -14932,11 +14766,11 @@
         <v>1</v>
       </c>
       <c r="Y131" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B131,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B131,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z131" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B131,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R131, " using ", T131, " Journey Points", IF(ISBLANK(S131), ".", _xlfn.CONCAT(" and a ", S131, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B131,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R131, " using ", T131, " Journey Points", IF(ISBLANK(S131), ".", _xlfn.CONCAT(" and a ", S131, " Apricorn."))))</f>
         <v>Evolves into Probopass using 6 Journey Points.</v>
       </c>
     </row>
@@ -15011,12 +14845,12 @@
         <v>2</v>
       </c>
       <c r="Y132" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B132,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B132,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Mini Noses</v>
       </c>
       <c r="Z132" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B132,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R132, " using ", T132, " Journey Points", IF(ISBLANK(S132), ".", _xlfn.CONCAT(" and a ", S132, " Apricorn."))))</f>
-        <v>When switched in, the opposing Pokémon loses the Focused and Braced status effects.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B132,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R132, " using ", T132, " Journey Points", IF(ISBLANK(S132), ".", _xlfn.CONCAT(" and a ", S132, " Apricorn."))))</f>
+        <v>You and your opponent may use a second attack token if attacking.</v>
       </c>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
@@ -15087,11 +14921,11 @@
         <v>1</v>
       </c>
       <c r="Y133" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B133,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B133,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z133" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B133,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R133, " using ", T133, " Journey Points", IF(ISBLANK(S133), ".", _xlfn.CONCAT(" and a ", S133, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B133,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R133, " using ", T133, " Journey Points", IF(ISBLANK(S133), ".", _xlfn.CONCAT(" and a ", S133, " Apricorn."))))</f>
         <v>Evolves into Dusclops using 3 Journey Points.</v>
       </c>
     </row>
@@ -15163,11 +14997,11 @@
         <v>2</v>
       </c>
       <c r="Y134" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B134,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B134,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z134" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B134,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R134, " using ", T134, " Journey Points", IF(ISBLANK(S134), ".", _xlfn.CONCAT(" and a ", S134, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B134,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R134, " using ", T134, " Journey Points", IF(ISBLANK(S134), ".", _xlfn.CONCAT(" and a ", S134, " Apricorn."))))</f>
         <v>Evolves into Dusknoir using 5 Journey Points.</v>
       </c>
     </row>
@@ -15238,12 +15072,12 @@
         <v>3</v>
       </c>
       <c r="Y135" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B135,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B135,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Soul Grip</v>
       </c>
       <c r="Z135" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B135,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R135, " using ", T135, " Journey Points", IF(ISBLANK(S135), ".", _xlfn.CONCAT(" and a ", S135, " Apricorn."))))</f>
-        <v>When the opposing Pokémon switches out, it takes indirect damage if afflicted by the Petrified status effect.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B135,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R135, " using ", T135, " Journey Points", IF(ISBLANK(S135), ".", _xlfn.CONCAT(" and a ", S135, " Apricorn."))))</f>
+        <v>When the opposing Pokémon switches out, increase your aura power by one stage.</v>
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.25">
@@ -15295,10 +15129,10 @@
         <v>33</v>
       </c>
       <c r="R136" s="1" t="s">
-        <v>1051</v>
+        <v>1034</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>1054</v>
+        <v>1037</v>
       </c>
       <c r="T136">
         <f t="shared" si="18"/>
@@ -15316,11 +15150,11 @@
         <v>1</v>
       </c>
       <c r="Y136" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B136,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B136,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z136" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B136,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R136, " using ", T136, " Journey Points", IF(ISBLANK(S136), ".", _xlfn.CONCAT(" and a ", S136, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B136,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R136, " using ", T136, " Journey Points", IF(ISBLANK(S136), ".", _xlfn.CONCAT(" and a ", S136, " Apricorn."))))</f>
         <v>Evolves into Glalie/Froslass using 4 Journey Points and a Blue/Red Apricorn.</v>
       </c>
     </row>
@@ -15391,12 +15225,12 @@
         <v>2</v>
       </c>
       <c r="Y137" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B137,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B137,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Deep Freeze</v>
       </c>
       <c r="Z137" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B137,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R137, " using ", T137, " Journey Points", IF(ISBLANK(S137), ".", _xlfn.CONCAT(" and a ", S137, " Apricorn."))))</f>
-        <v>After taking direct damage, inflict the Weakened status effect on the opposing Pokémon.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B137,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R137, " using ", T137, " Journey Points", IF(ISBLANK(S137), ".", _xlfn.CONCAT(" and a ", S137, " Apricorn."))))</f>
+        <v>When this Pokémon faints, decrease opposing aura power by two stages.</v>
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
@@ -15470,12 +15304,12 @@
         <v>2</v>
       </c>
       <c r="Y138" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B138,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Soul Collector</v>
+        <f>_xlfn.IFNA(VLOOKUP(B138,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Soul Keeper</v>
       </c>
       <c r="Z138" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B138,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R138, " using ", T138, " Journey Points", IF(ISBLANK(S138), ".", _xlfn.CONCAT(" and a ", S138, " Apricorn."))))</f>
-        <v>When switched in, add 3 bonus power if there are more fainted Pokémon in your party than the party of your opponent.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B138,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R138, " using ", T138, " Journey Points", IF(ISBLANK(S138), ".", _xlfn.CONCAT(" and a ", S138, " Apricorn."))))</f>
+        <v>Add 2 bonus power if you have more fainted Pokémon than your opponent.</v>
       </c>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
@@ -15510,7 +15344,7 @@
         <v>86</v>
       </c>
       <c r="K139" s="10" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>751</v>
@@ -15542,19 +15376,19 @@
         <v>Rotom</v>
       </c>
       <c r="V139" s="3"/>
-      <c r="W139" s="25">
+      <c r="W139" s="14">
         <v>1</v>
       </c>
       <c r="X139">
         <v>1</v>
       </c>
       <c r="Y139" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B139,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Spooky Prankster</v>
+        <f>_xlfn.IFNA(VLOOKUP(B139,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Item Poltergeist</v>
       </c>
       <c r="Z139" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B139,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R139, " using ", T139, " Journey Points", IF(ISBLANK(S139), ".", _xlfn.CONCAT(" and a ", S139, " Apricorn."))))</f>
-        <v>Before combat resolution, this Pokémon applies any status effects.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B139,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R139, " using ", T139, " Journey Points", IF(ISBLANK(S139), ".", _xlfn.CONCAT(" and a ", S139, " Apricorn."))))</f>
+        <v>The held item of the opposing Pokémon cannot be used.</v>
       </c>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
@@ -15614,19 +15448,19 @@
         <f t="shared" si="20"/>
         <v>Dialga</v>
       </c>
-      <c r="W140" s="25">
+      <c r="W140" s="14">
         <v>1</v>
       </c>
       <c r="X140">
         <v>1</v>
       </c>
       <c r="Y140" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B140,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B140,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Temporal Roar</v>
       </c>
       <c r="Z140" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B140,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R140, " using ", T140, " Journey Points", IF(ISBLANK(S140), ".", _xlfn.CONCAT(" and a ", S140, " Apricorn."))))</f>
-        <v>When attacking with a Dragon-type move, add 3 bonus power but cannot select an action next battle turn.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B140,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R140, " using ", T140, " Journey Points", IF(ISBLANK(S140), ".", _xlfn.CONCAT(" and a ", S140, " Apricorn."))))</f>
+        <v>May add 3 bonus power whilst attacking with a Dragon-type move but cannot select an action next turn.</v>
       </c>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.25">
@@ -15686,19 +15520,19 @@
         <f t="shared" si="20"/>
         <v>Palkia</v>
       </c>
-      <c r="W141" s="25">
+      <c r="W141" s="14">
         <v>1</v>
       </c>
       <c r="X141">
         <v>1</v>
       </c>
       <c r="Y141" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B141,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B141,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Spacial Rend</v>
       </c>
       <c r="Z141" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B141,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R141, " using ", T141, " Journey Points", IF(ISBLANK(S141), ".", _xlfn.CONCAT(" and a ", S141, " Apricorn."))))</f>
-        <v>When attacking with a Dragon-type move, Balanced stances are treated as Crafty stances.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B141,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R141, " using ", T141, " Journey Points", IF(ISBLANK(S141), ".", _xlfn.CONCAT(" and a ", S141, " Apricorn."))))</f>
+        <v>When attacking with a Dragon-type move, your Balanced attacks are treated as Crafty attacks.</v>
       </c>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.25">
@@ -15764,19 +15598,19 @@
         <f t="shared" si="20"/>
         <v>Heatran</v>
       </c>
-      <c r="W142" s="25">
+      <c r="W142" s="14">
         <v>1</v>
       </c>
       <c r="X142">
         <v>1</v>
       </c>
       <c r="Y142" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B142,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B142,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Tectonic Shift</v>
       </c>
       <c r="Z142" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B142,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R142, " using ", T142, " Journey Points", IF(ISBLANK(S142), ".", _xlfn.CONCAT(" and a ", S142, " Apricorn."))))</f>
-        <v>After taking direct damage from a Ground-type move, gain the Focused and Braced status effects.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B142,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R142, " using ", T142, " Journey Points", IF(ISBLANK(S142), ".", _xlfn.CONCAT(" and a ", S142, " Apricorn."))))</f>
+        <v>Add 2 bonus power immediately when attacked with a Ground-type move.</v>
       </c>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.25">
@@ -15838,19 +15672,19 @@
         <f t="shared" si="20"/>
         <v>Regigigas</v>
       </c>
-      <c r="W143" s="25">
+      <c r="W143" s="14">
         <v>1</v>
       </c>
       <c r="X143">
         <v>1</v>
       </c>
       <c r="Y143" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B143,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Stasis Protocol</v>
+        <f>_xlfn.IFNA(VLOOKUP(B143,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Aggression Protocol</v>
       </c>
       <c r="Z143" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B143,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R143, " using ", T143, " Journey Points", IF(ISBLANK(S143), ".", _xlfn.CONCAT(" and a ", S143, " Apricorn."))))</f>
-        <v>Must use a stance with lower power than the last used stance if possible.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B143,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R143, " using ", T143, " Journey Points", IF(ISBLANK(S143), ".", _xlfn.CONCAT(" and a ", S143, " Apricorn."))))</f>
+        <v>This Pokémon treats Crafty and Balanced attacks as Reckless attacks.</v>
       </c>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.25">
@@ -15910,19 +15744,19 @@
         <f t="shared" si="20"/>
         <v>Giratina</v>
       </c>
-      <c r="W144" s="25">
+      <c r="W144" s="14">
         <v>1</v>
       </c>
       <c r="X144">
         <v>1</v>
       </c>
       <c r="Y144" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B144,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Phantom Force</v>
+        <f>_xlfn.IFNA(VLOOKUP(B144,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Distortion World</v>
       </c>
       <c r="Z144" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B144,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R144, " using ", T144, " Journey Points", IF(ISBLANK(S144), ".", _xlfn.CONCAT(" and a ", S144, " Apricorn."))))</f>
-        <v>May choose to not select an action, take no damage this battle turn and select a Ghost-type attack next battle turn.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B144,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R144, " using ", T144, " Journey Points", IF(ISBLANK(S144), ".", _xlfn.CONCAT(" and a ", S144, " Apricorn."))))</f>
+        <v>When switched in, you may swap your aura power with opposing aura power.</v>
       </c>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.25">
@@ -15983,19 +15817,19 @@
         <f t="shared" si="20"/>
         <v>Cresselia</v>
       </c>
-      <c r="W145" s="25">
+      <c r="W145" s="14">
         <v>1</v>
       </c>
       <c r="X145">
         <v>1</v>
       </c>
       <c r="Y145" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B145,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B145,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Lunar Blessing</v>
       </c>
       <c r="Z145" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B145,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R145, " using ", T145, " Journey Points", IF(ISBLANK(S145), ".", _xlfn.CONCAT(" and a ", S145, " Apricorn."))))</f>
-        <v>At the start of a battle turn, may consume the Weakened status effect from the opposing Pokémon to heal itself.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B145,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R145, " using ", T145, " Journey Points", IF(ISBLANK(S145), ".", _xlfn.CONCAT(" and a ", S145, " Apricorn."))))</f>
+        <v>At the start of the turn, increase your aura power by one stage.</v>
       </c>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.25">
@@ -16064,12 +15898,12 @@
         <v>1</v>
       </c>
       <c r="Y146" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B146,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B146,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Tiny Alliance</v>
       </c>
       <c r="Z146" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B146,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R146, " using ", T146, " Journey Points", IF(ISBLANK(S146), ".", _xlfn.CONCAT(" and a ", S146, " Apricorn."))))</f>
-        <v>When switched in, add 1 bonus power for each non-fainted Pokémon in your party with lower base power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B146,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R146, " using ", T146, " Journey Points", IF(ISBLANK(S146), ".", _xlfn.CONCAT(" and a ", S146, " Apricorn."))))</f>
+        <v>Add 1 bonus power for each non-fainted Pokémon in your party with lower base power.</v>
       </c>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.25">
@@ -16131,19 +15965,19 @@
         <f t="shared" si="20"/>
         <v>Manaphy</v>
       </c>
-      <c r="W147" s="25">
+      <c r="W147" s="14">
         <v>1</v>
       </c>
       <c r="X147">
         <v>1</v>
       </c>
       <c r="Y147" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B147,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B147,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Tail Glow</v>
       </c>
       <c r="Z147" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B147,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R147, " using ", T147, " Journey Points", IF(ISBLANK(S147), ".", _xlfn.CONCAT(" and a ", S147, " Apricorn."))))</f>
-        <v>When attacking with a Bug-type move, gain the Focused status effect.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B147,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R147, " using ", T147, " Journey Points", IF(ISBLANK(S147), ".", _xlfn.CONCAT(" and a ", S147, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Bug-type move.</v>
       </c>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.25">
@@ -16204,19 +16038,19 @@
         <f t="shared" si="20"/>
         <v>Darkrai</v>
       </c>
-      <c r="W148" s="25">
+      <c r="W148" s="14">
         <v>1</v>
       </c>
       <c r="X148">
         <v>1</v>
       </c>
       <c r="Y148" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B148,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Nightmare Feast</v>
+        <f>_xlfn.IFNA(VLOOKUP(B148,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Bad Dreams</v>
       </c>
       <c r="Z148" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B148,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R148, " using ", T148, " Journey Points", IF(ISBLANK(S148), ".", _xlfn.CONCAT(" and a ", S148, " Apricorn."))))</f>
-        <v>At the start of a battle turn, may consume the Petrified status effect from the opposing Pokémon to heal itself.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B148,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R148, " using ", T148, " Journey Points", IF(ISBLANK(S148), ".", _xlfn.CONCAT(" and a ", S148, " Apricorn."))))</f>
+        <v>At the start of the turn, decrease opposing aura power by one stage.</v>
       </c>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.25">
@@ -16278,19 +16112,19 @@
         <f t="shared" si="20"/>
         <v>Shaymin</v>
       </c>
-      <c r="W149" s="25">
+      <c r="W149" s="14">
         <v>1</v>
       </c>
       <c r="X149">
         <v>1</v>
       </c>
       <c r="Y149" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B149,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Garden Guardians</v>
+        <f>_xlfn.IFNA(VLOOKUP(B149,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Garden Grace</v>
       </c>
       <c r="Z149" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B149,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R149, " using ", T149, " Journey Points", IF(ISBLANK(S149), ".", _xlfn.CONCAT(" and a ", S149, " Apricorn."))))</f>
-        <v>During combat resolution, you may redirect any direct damage to a full health Pokémon in your party.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B149,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R149, " using ", T149, " Journey Points", IF(ISBLANK(S149), ".", _xlfn.CONCAT(" and a ", S149, " Apricorn."))))</f>
+        <v xml:space="preserve">During combat resolution, the opposing Pokémon must win by 3 or more power for this Pokémon to faint. </v>
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.25">
@@ -16364,11 +16198,11 @@
         <v>1</v>
       </c>
       <c r="Y150" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B150,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B150,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z150" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B150,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R150, " using ", T150, " Journey Points", IF(ISBLANK(S150), ".", _xlfn.CONCAT(" and a ", S150, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B150,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R150, " using ", T150, " Journey Points", IF(ISBLANK(S150), ".", _xlfn.CONCAT(" and a ", S150, " Apricorn."))))</f>
         <v>Evolves into Houndoom using 6 Journey Points.</v>
       </c>
     </row>
@@ -16442,12 +16276,12 @@
         <v>2</v>
       </c>
       <c r="Y151" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B151,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B151,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Eerie Howl</v>
       </c>
       <c r="Z151" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B151,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R151, " using ", T151, " Journey Points", IF(ISBLANK(S151), ".", _xlfn.CONCAT(" and a ", S151, " Apricorn."))))</f>
-        <v>After defeating an opposing Pokémon, inflicts the next Pokémon switched in with the Petrified status effect.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B151,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R151, " using ", T151, " Journey Points", IF(ISBLANK(S151), ".", _xlfn.CONCAT(" and a ", S151, " Apricorn."))))</f>
+        <v>After defeating an opposing Pokémon, add 1 bonus power. Stacks with itself.</v>
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.25">
@@ -16516,12 +16350,12 @@
         <v>1</v>
       </c>
       <c r="Y152" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B152,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B152,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Disaster Reflex</v>
       </c>
       <c r="Z152" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B152,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R152, " using ", T152, " Journey Points", IF(ISBLANK(S152), ".", _xlfn.CONCAT(" and a ", S152, " Apricorn."))))</f>
-        <v>During combat resolution, if the opposing Pokémon wins with 3 or more power, take no direct damage.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B152,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R152, " using ", T152, " Journey Points", IF(ISBLANK(S152), ".", _xlfn.CONCAT(" and a ", S152, " Apricorn."))))</f>
+        <v xml:space="preserve">During combat resolution, the opposing Pokémon must win by 3 or less power for this Pokémon to faint. </v>
       </c>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.25">
@@ -16584,19 +16418,19 @@
         <v>Regirock</v>
       </c>
       <c r="V153" s="3"/>
-      <c r="W153" s="25">
+      <c r="W153" s="14">
         <v>1</v>
       </c>
       <c r="X153">
         <v>1</v>
       </c>
       <c r="Y153" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B153,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B153,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Renewal Protocol</v>
       </c>
       <c r="Z153" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B153,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R153, " using ", T153, " Journey Points", IF(ISBLANK(S153), ".", _xlfn.CONCAT(" and a ", S153, " Apricorn."))))</f>
-        <v>At the start of a battle turn, this Pokémon removes any negative status effects.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B153,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R153, " using ", T153, " Journey Points", IF(ISBLANK(S153), ".", _xlfn.CONCAT(" and a ", S153, " Apricorn."))))</f>
+        <v>At the start of the turn, you may reset your aura power.</v>
       </c>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.25">
@@ -16659,19 +16493,19 @@
         <v>Regice</v>
       </c>
       <c r="V154" s="3"/>
-      <c r="W154" s="25">
+      <c r="W154" s="14">
         <v>1</v>
       </c>
       <c r="X154">
         <v>1</v>
       </c>
       <c r="Y154" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B154,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B154,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Renewal Protocol</v>
       </c>
       <c r="Z154" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B154,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R154, " using ", T154, " Journey Points", IF(ISBLANK(S154), ".", _xlfn.CONCAT(" and a ", S154, " Apricorn."))))</f>
-        <v>At the start of a battle turn, this Pokémon removes any negative status effects.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B154,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R154, " using ", T154, " Journey Points", IF(ISBLANK(S154), ".", _xlfn.CONCAT(" and a ", S154, " Apricorn."))))</f>
+        <v>At the start of the turn, you may reset your aura power.</v>
       </c>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.25">
@@ -16733,19 +16567,19 @@
         <v>Registeel</v>
       </c>
       <c r="V155" s="3"/>
-      <c r="W155" s="25">
+      <c r="W155" s="14">
         <v>1</v>
       </c>
       <c r="X155">
         <v>1</v>
       </c>
       <c r="Y155" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B155,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B155,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Renewal Protocol</v>
       </c>
       <c r="Z155" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B155,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R155, " using ", T155, " Journey Points", IF(ISBLANK(S155), ".", _xlfn.CONCAT(" and a ", S155, " Apricorn."))))</f>
-        <v>At the start of a battle turn, this Pokémon removes any negative status effects.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B155,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R155, " using ", T155, " Journey Points", IF(ISBLANK(S155), ".", _xlfn.CONCAT(" and a ", S155, " Apricorn."))))</f>
+        <v>At the start of the turn, you may reset your aura power.</v>
       </c>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.25">
@@ -16816,11 +16650,11 @@
         <v>1</v>
       </c>
       <c r="Y156" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B156,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B156,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z156" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B156,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R156, " using ", T156, " Journey Points", IF(ISBLANK(S156), ".", _xlfn.CONCAT(" and a ", S156, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B156,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R156, " using ", T156, " Journey Points", IF(ISBLANK(S156), ".", _xlfn.CONCAT(" and a ", S156, " Apricorn."))))</f>
         <v>Evolves into Gyarados using 11 Journey Points.</v>
       </c>
     </row>
@@ -16895,12 +16729,12 @@
         <v>2</v>
       </c>
       <c r="Y157" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B157,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B157,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Intimidating Rage</v>
       </c>
       <c r="Z157" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B157,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R157, " using ", T157, " Journey Points", IF(ISBLANK(S157), ".", _xlfn.CONCAT(" and a ", S157, " Apricorn."))))</f>
-        <v>When switched in, inflict the opposing Pokémon with the Petrified status effect.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B157,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R157, " using ", T157, " Journey Points", IF(ISBLANK(S157), ".", _xlfn.CONCAT(" and a ", S157, " Apricorn."))))</f>
+        <v xml:space="preserve">When switched in, remove opposing bonus power. </v>
       </c>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.25">
@@ -16974,11 +16808,11 @@
         <v>1</v>
       </c>
       <c r="Y158" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B158,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B158,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z158" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B158,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R158, " using ", T158, " Journey Points", IF(ISBLANK(S158), ".", _xlfn.CONCAT(" and a ", S158, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B158,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R158, " using ", T158, " Journey Points", IF(ISBLANK(S158), ".", _xlfn.CONCAT(" and a ", S158, " Apricorn."))))</f>
         <v>Evolves into Pikachu using 1 Journey Points.</v>
       </c>
     </row>
@@ -17055,11 +16889,11 @@
         <v>2</v>
       </c>
       <c r="Y159" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B159,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B159,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z159" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B159,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R159, " using ", T159, " Journey Points", IF(ISBLANK(S159), ".", _xlfn.CONCAT(" and a ", S159, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B159,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R159, " using ", T159, " Journey Points", IF(ISBLANK(S159), ".", _xlfn.CONCAT(" and a ", S159, " Apricorn."))))</f>
         <v>Evolves into Raichu using 5 Journey Points.</v>
       </c>
     </row>
@@ -17133,12 +16967,12 @@
         <v>3</v>
       </c>
       <c r="Y160" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B160,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B160,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Surge Surfer</v>
       </c>
       <c r="Z160" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B160,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R160, " using ", T160, " Journey Points", IF(ISBLANK(S160), ".", _xlfn.CONCAT(" and a ", S160, " Apricorn."))))</f>
-        <v>When attacking with a Electric-type move, Balanced stances are treated as Crafty stances.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B160,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R160, " using ", T160, " Journey Points", IF(ISBLANK(S160), ".", _xlfn.CONCAT(" and a ", S160, " Apricorn."))))</f>
+        <v>When attacking with a Electric-type move, your Balanced attacks are treated as Crafty attacks.</v>
       </c>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.25">
@@ -17215,11 +17049,11 @@
         <v>1</v>
       </c>
       <c r="Y161" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B161,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B161,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z161" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B161,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R161, " using ", T161, " Journey Points", IF(ISBLANK(S161), ".", _xlfn.CONCAT(" and a ", S161, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B161,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R161, " using ", T161, " Journey Points", IF(ISBLANK(S161), ".", _xlfn.CONCAT(" and a ", S161, " Apricorn."))))</f>
         <v>Evolves into Marill using 1 Journey Points.</v>
       </c>
     </row>
@@ -17298,11 +17132,11 @@
         <v>2</v>
       </c>
       <c r="Y162" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B162,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B162,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z162" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B162,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R162, " using ", T162, " Journey Points", IF(ISBLANK(S162), ".", _xlfn.CONCAT(" and a ", S162, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B162,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R162, " using ", T162, " Journey Points", IF(ISBLANK(S162), ".", _xlfn.CONCAT(" and a ", S162, " Apricorn."))))</f>
         <v>Evolves into Azumarill using 3 Journey Points.</v>
       </c>
     </row>
@@ -17378,12 +17212,12 @@
         <v>3</v>
       </c>
       <c r="Y163" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B163,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B163,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Huge Power</v>
       </c>
       <c r="Z163" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B163,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R163, " using ", T163, " Journey Points", IF(ISBLANK(S163), ".", _xlfn.CONCAT(" and a ", S163, " Apricorn."))))</f>
-        <v>When switched in, add 2 bonus power when the opposing Pokémon has higher base power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B163,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R163, " using ", T163, " Journey Points", IF(ISBLANK(S163), ".", _xlfn.CONCAT(" and a ", S163, " Apricorn."))))</f>
+        <v>Add 2 bonus power if the opposing Pokémon has higher base power.</v>
       </c>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.25">
@@ -17421,10 +17255,10 @@
         <v>539</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="N164" s="1">
         <v>3</v>
@@ -17459,11 +17293,11 @@
         <v>1</v>
       </c>
       <c r="Y164" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B164,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B164,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z164" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B164,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R164, " using ", T164, " Journey Points", IF(ISBLANK(S164), ".", _xlfn.CONCAT(" and a ", S164, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B164,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R164, " using ", T164, " Journey Points", IF(ISBLANK(S164), ".", _xlfn.CONCAT(" and a ", S164, " Apricorn."))))</f>
         <v>Evolves into Golbat using 5 Journey Points.</v>
       </c>
     </row>
@@ -17502,10 +17336,10 @@
         <v>539</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="N165" s="1">
         <f t="shared" ref="N165:N195" si="28">ROUND((0.4*J165 + 0.5*MAX(F165,H165) + 0.1*MIN(F165,H165) + 0.4*E165 + 0.3*G165 + 0.3*I165) / 20, 0) - 2</f>
@@ -17543,11 +17377,11 @@
         <v>2</v>
       </c>
       <c r="Y165" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B165,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B165,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z165" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B165,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R165, " using ", T165, " Journey Points", IF(ISBLANK(S165), ".", _xlfn.CONCAT(" and a ", S165, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B165,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R165, " using ", T165, " Journey Points", IF(ISBLANK(S165), ".", _xlfn.CONCAT(" and a ", S165, " Apricorn."))))</f>
         <v>Evolves into Crobat using 3 Journey Points.</v>
       </c>
     </row>
@@ -17586,10 +17420,10 @@
         <v>539</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="N166" s="1">
         <f t="shared" si="28"/>
@@ -17623,12 +17457,12 @@
         <v>3</v>
       </c>
       <c r="Y166" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B166,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B166,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Cross Poison</v>
       </c>
       <c r="Z166" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B166,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R166, " using ", T166, " Journey Points", IF(ISBLANK(S166), ".", _xlfn.CONCAT(" and a ", S166, " Apricorn."))))</f>
-        <v>When attacking with a Poison-type move, Balanced stances are treated as Crafty stances.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B166,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R166, " using ", T166, " Journey Points", IF(ISBLANK(S166), ".", _xlfn.CONCAT(" and a ", S166, " Apricorn."))))</f>
+        <v>When attacking with a Poison-type move, your Balanced attacks are treated as Crafty attacks.</v>
       </c>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.25">
@@ -17702,11 +17536,11 @@
         <v>1</v>
       </c>
       <c r="Y167" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B167,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B167,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z167" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B167,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R167, " using ", T167, " Journey Points", IF(ISBLANK(S167), ".", _xlfn.CONCAT(" and a ", S167, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B167,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R167, " using ", T167, " Journey Points", IF(ISBLANK(S167), ".", _xlfn.CONCAT(" and a ", S167, " Apricorn."))))</f>
         <v>Evolves into Machoke using 2 Journey Points.</v>
       </c>
     </row>
@@ -17783,11 +17617,11 @@
         <v>2</v>
       </c>
       <c r="Y168" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B168,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B168,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z168" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B168,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R168, " using ", T168, " Journey Points", IF(ISBLANK(S168), ".", _xlfn.CONCAT(" and a ", S168, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B168,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R168, " using ", T168, " Journey Points", IF(ISBLANK(S168), ".", _xlfn.CONCAT(" and a ", S168, " Apricorn."))))</f>
         <v>Evolves into Machamp using 5 Journey Points.</v>
       </c>
     </row>
@@ -17860,12 +17694,12 @@
         <v>3</v>
       </c>
       <c r="Y169" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B169,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B169,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>No Guard</v>
       </c>
       <c r="Z169" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B169,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R169, " using ", T169, " Journey Points", IF(ISBLANK(S169), ".", _xlfn.CONCAT(" and a ", S169, " Apricorn."))))</f>
-        <v>During stance selection, both Pokémon may only use stances of 4 or more power until both Pokémon cannot use stances.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B169,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R169, " using ", T169, " Journey Points", IF(ISBLANK(S169), ".", _xlfn.CONCAT(" and a ", S169, " Apricorn."))))</f>
+        <v>You and your opponent may only use Reckless attacks until neither can.</v>
       </c>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.25">
@@ -17939,11 +17773,11 @@
         <v>1</v>
       </c>
       <c r="Y170" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B170,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B170,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z170" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B170,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R170, " using ", T170, " Journey Points", IF(ISBLANK(S170), ".", _xlfn.CONCAT(" and a ", S170, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B170,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R170, " using ", T170, " Journey Points", IF(ISBLANK(S170), ".", _xlfn.CONCAT(" and a ", S170, " Apricorn."))))</f>
         <v>Evolves into Rapidash using 5 Journey Points.</v>
       </c>
     </row>
@@ -18016,12 +17850,12 @@
         <v>2</v>
       </c>
       <c r="Y171" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B171,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B171,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Herd Leader</v>
       </c>
       <c r="Z171" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B171,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R171, " using ", T171, " Journey Points", IF(ISBLANK(S171), ".", _xlfn.CONCAT(" and a ", S171, " Apricorn."))))</f>
-        <v>Add 3 bonus power if sent in as the first Pokémon in this battle. Lasts until switched out.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B171,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R171, " using ", T171, " Journey Points", IF(ISBLANK(S171), ".", _xlfn.CONCAT(" and a ", S171, " Apricorn."))))</f>
+        <v>Add 3 bonus power if sent in as the first Pokémon in this battle.</v>
       </c>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.25">
@@ -18097,12 +17931,12 @@
         <v>1</v>
       </c>
       <c r="Y172" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B172,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B172,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Big Horn</v>
       </c>
       <c r="Z172" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B172,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R172, " using ", T172, " Journey Points", IF(ISBLANK(S172), ".", _xlfn.CONCAT(" and a ", S172, " Apricorn."))))</f>
-        <v>When attacking, add 1 bonus power if type effectiveness is greater than 0.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B172,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R172, " using ", T172, " Journey Points", IF(ISBLANK(S172), ".", _xlfn.CONCAT(" and a ", S172, " Apricorn."))))</f>
+        <v>Add 1 bonus power whilst attacking with positive type effectiveness.</v>
       </c>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.25">
@@ -18171,19 +18005,19 @@
         <v>Articuno</v>
       </c>
       <c r="V173"/>
-      <c r="W173" s="25">
+      <c r="W173" s="14">
         <v>1</v>
       </c>
       <c r="X173">
         <v>1</v>
       </c>
       <c r="Y173" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B173,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Icey Competitor</v>
+        <f>_xlfn.IFNA(VLOOKUP(B173,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>High Pressure</v>
       </c>
       <c r="Z173" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B173,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R173, " using ", T173, " Journey Points", IF(ISBLANK(S173), ".", _xlfn.CONCAT(" and a ", S173, " Apricorn."))))</f>
-        <v>When attacking, add bonus power equal to the bonus power of the opposing Pokémon.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B173,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R173, " using ", T173, " Journey Points", IF(ISBLANK(S173), ".", _xlfn.CONCAT(" and a ", S173, " Apricorn."))))</f>
+        <v>When attacked, your opponent must discard another attack token. Prioritises highest power.</v>
       </c>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.25">
@@ -18252,19 +18086,19 @@
         <v>Zapdos</v>
       </c>
       <c r="V174"/>
-      <c r="W174" s="25">
+      <c r="W174" s="14">
         <v>1</v>
       </c>
       <c r="X174">
         <v>1</v>
       </c>
       <c r="Y174" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B174,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Shocking Defiance</v>
+        <f>_xlfn.IFNA(VLOOKUP(B174,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>High Pressure</v>
       </c>
       <c r="Z174" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B174,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R174, " using ", T174, " Journey Points", IF(ISBLANK(S174), ".", _xlfn.CONCAT(" and a ", S174, " Apricorn."))))</f>
-        <v>When attacking, add 2 bonus power if this Pokémon has a negative status effect applied.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B174,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R174, " using ", T174, " Journey Points", IF(ISBLANK(S174), ".", _xlfn.CONCAT(" and a ", S174, " Apricorn."))))</f>
+        <v>When attacked, your opponent must discard another attack token. Prioritises highest power.</v>
       </c>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.25">
@@ -18333,19 +18167,19 @@
         <v>Moltres</v>
       </c>
       <c r="V175"/>
-      <c r="W175" s="25">
+      <c r="W175" s="14">
         <v>1</v>
       </c>
       <c r="X175">
         <v>1</v>
       </c>
       <c r="Y175" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B175,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Flaming Berserker</v>
+        <f>_xlfn.IFNA(VLOOKUP(B175,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>High Pressure</v>
       </c>
       <c r="Z175" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B175,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R175, " using ", T175, " Journey Points", IF(ISBLANK(S175), ".", _xlfn.CONCAT(" and a ", S175, " Apricorn."))))</f>
-        <v>When switched in, add 2 bonus power if this Pokémon has taken any damage.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B175,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R175, " using ", T175, " Journey Points", IF(ISBLANK(S175), ".", _xlfn.CONCAT(" and a ", S175, " Apricorn."))))</f>
+        <v>When attacked, your opponent must discard another attack token. Prioritises highest power.</v>
       </c>
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.25">
@@ -18422,11 +18256,11 @@
         <v>1</v>
       </c>
       <c r="Y176" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B176,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B176,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z176" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B176,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R176, " using ", T176, " Journey Points", IF(ISBLANK(S176), ".", _xlfn.CONCAT(" and a ", S176, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B176,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R176, " using ", T176, " Journey Points", IF(ISBLANK(S176), ".", _xlfn.CONCAT(" and a ", S176, " Apricorn."))))</f>
         <v>Evolves into Pupitar using 3 Journey Points.</v>
       </c>
     </row>
@@ -18506,11 +18340,11 @@
         <v>2</v>
       </c>
       <c r="Y177" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B177,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B177,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z177" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B177,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R177, " using ", T177, " Journey Points", IF(ISBLANK(S177), ".", _xlfn.CONCAT(" and a ", S177, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B177,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R177, " using ", T177, " Journey Points", IF(ISBLANK(S177), ".", _xlfn.CONCAT(" and a ", S177, " Apricorn."))))</f>
         <v>Evolves into Tyranitar using 8 Journey Points.</v>
       </c>
     </row>
@@ -18586,12 +18420,12 @@
         <v>3</v>
       </c>
       <c r="Y178" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B178,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Responsive Armour</v>
+        <f>_xlfn.IFNA(VLOOKUP(B178,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Sand Stream</v>
       </c>
       <c r="Z178" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B178,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R178, " using ", T178, " Journey Points", IF(ISBLANK(S178), ".", _xlfn.CONCAT(" and a ", S178, " Apricorn."))))</f>
-        <v>After taking direct damage from a Fighting-type move, gain the Focused and Braced status effects.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B178,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R178, " using ", T178, " Journey Points", IF(ISBLANK(S178), ".", _xlfn.CONCAT(" and a ", S178, " Apricorn."))))</f>
+        <v>When switched in, decrease opposing aura power by one stage.</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.25">
@@ -18668,11 +18502,11 @@
         <v>1</v>
       </c>
       <c r="Y179" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B179,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B179,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z179" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B179,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R179, " using ", T179, " Journey Points", IF(ISBLANK(S179), ".", _xlfn.CONCAT(" and a ", S179, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B179,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R179, " using ", T179, " Journey Points", IF(ISBLANK(S179), ".", _xlfn.CONCAT(" and a ", S179, " Apricorn."))))</f>
         <v>Evolves into Metang using 3 Journey Points.</v>
       </c>
     </row>
@@ -18752,11 +18586,11 @@
         <v>2</v>
       </c>
       <c r="Y180" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B180,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B180,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z180" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B180,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R180, " using ", T180, " Journey Points", IF(ISBLANK(S180), ".", _xlfn.CONCAT(" and a ", S180, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B180,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R180, " using ", T180, " Journey Points", IF(ISBLANK(S180), ".", _xlfn.CONCAT(" and a ", S180, " Apricorn."))))</f>
         <v>Evolves into Metagross using 8 Journey Points.</v>
       </c>
     </row>
@@ -18832,12 +18666,12 @@
         <v>3</v>
       </c>
       <c r="Y181" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B181,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B181,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Combat Simulator</v>
       </c>
       <c r="Z181" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B181,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R181, " using ", T181, " Journey Points", IF(ISBLANK(S181), ".", _xlfn.CONCAT(" and a ", S181, " Apricorn."))))</f>
-        <v>During stance selection, your opponent must tell you whether they will use a Crafty, Balanced or Reckless stance.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B181,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R181, " using ", T181, " Journey Points", IF(ISBLANK(S181), ".", _xlfn.CONCAT(" and a ", S181, " Apricorn."))))</f>
+        <v>During action selection, your opponent must tell you whether they will attack or switch.</v>
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.25">
@@ -18909,12 +18743,12 @@
         <v>1</v>
       </c>
       <c r="Y182" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B182,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B182,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Hidden Potential</v>
       </c>
       <c r="Z182" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B182,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R182, " using ", T182, " Journey Points", IF(ISBLANK(S182), ".", _xlfn.CONCAT(" and a ", S182, " Apricorn."))))</f>
-        <v>After defeating an opposing Pokémon, add 3 bonus power each time. Lasts until switched out.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B182,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R182, " using ", T182, " Journey Points", IF(ISBLANK(S182), ".", _xlfn.CONCAT(" and a ", S182, " Apricorn."))))</f>
+        <v>After defeating an opposing Pokémon, add 3 bonus power. Stacks with itself.</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.25">
@@ -18952,7 +18786,7 @@
         <v>568</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="M183" s="3" t="s">
         <v>752</v>
@@ -18991,11 +18825,11 @@
         <v>1</v>
       </c>
       <c r="Y183" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B183,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B183,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z183" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B183,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R183, " using ", T183, " Journey Points", IF(ISBLANK(S183), ".", _xlfn.CONCAT(" and a ", S183, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B183,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R183, " using ", T183, " Journey Points", IF(ISBLANK(S183), ".", _xlfn.CONCAT(" and a ", S183, " Apricorn."))))</f>
         <v>Evolves into Haunter using 2 Journey Points.</v>
       </c>
     </row>
@@ -19034,7 +18868,7 @@
         <v>568</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="M184" s="3" t="s">
         <v>752</v>
@@ -19075,11 +18909,11 @@
         <v>2</v>
       </c>
       <c r="Y184" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B184,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B184,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z184" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B184,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R184, " using ", T184, " Journey Points", IF(ISBLANK(S184), ".", _xlfn.CONCAT(" and a ", S184, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B184,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R184, " using ", T184, " Journey Points", IF(ISBLANK(S184), ".", _xlfn.CONCAT(" and a ", S184, " Apricorn."))))</f>
         <v>Evolves into Gengar using 5 Journey Points.</v>
       </c>
     </row>
@@ -19118,7 +18952,7 @@
         <v>569</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="M185" s="3" t="s">
         <v>752</v>
@@ -19155,12 +18989,12 @@
         <v>3</v>
       </c>
       <c r="Y185" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B185,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Cursed Body</v>
+        <f>_xlfn.IFNA(VLOOKUP(B185,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Shadow Infiltration</v>
       </c>
       <c r="Z185" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B185,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R185, " using ", T185, " Journey Points", IF(ISBLANK(S185), ".", _xlfn.CONCAT(" and a ", S185, " Apricorn."))))</f>
-        <v>After taking direct damage, inflict the Petrified status effect on the opposing Pokémon.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B185,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R185, " using ", T185, " Journey Points", IF(ISBLANK(S185), ".", _xlfn.CONCAT(" and a ", S185, " Apricorn."))))</f>
+        <v>This Pokémon ignores the Brace effect from opposing Crafty attacks.</v>
       </c>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.25">
@@ -19198,7 +19032,7 @@
         <v>570</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="M186" t="s">
         <v>755</v>
@@ -19237,11 +19071,11 @@
         <v>1</v>
       </c>
       <c r="Y186" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B186,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B186,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z186" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B186,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R186, " using ", T186, " Journey Points", IF(ISBLANK(S186), ".", _xlfn.CONCAT(" and a ", S186, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B186,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R186, " using ", T186, " Journey Points", IF(ISBLANK(S186), ".", _xlfn.CONCAT(" and a ", S186, " Apricorn."))))</f>
         <v>Evolves into Steelix using 4 Journey Points.</v>
       </c>
     </row>
@@ -19280,7 +19114,7 @@
         <v>633</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="M187" t="s">
         <v>755</v>
@@ -19317,12 +19151,12 @@
         <v>2</v>
       </c>
       <c r="Y187" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B187,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Sturdy Steel</v>
+        <f>_xlfn.IFNA(VLOOKUP(B187,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Sheer Force</v>
       </c>
       <c r="Z187" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B187,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R187, " using ", T187, " Journey Points", IF(ISBLANK(S187), ".", _xlfn.CONCAT(" and a ", S187, " Apricorn."))))</f>
-        <v>This Pokémon cannot receive greater than 1 damage in a single battle turn.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B187,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R187, " using ", T187, " Journey Points", IF(ISBLANK(S187), ".", _xlfn.CONCAT(" and a ", S187, " Apricorn."))))</f>
+        <v>This Pokémon ignores the Brace effect from opposing Crafty attacks.</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.25">
@@ -19396,11 +19230,11 @@
         <v>1</v>
       </c>
       <c r="Y188" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B188,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B188,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z188" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B188,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R188, " using ", T188, " Journey Points", IF(ISBLANK(S188), ".", _xlfn.CONCAT(" and a ", S188, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B188,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R188, " using ", T188, " Journey Points", IF(ISBLANK(S188), ".", _xlfn.CONCAT(" and a ", S188, " Apricorn."))))</f>
         <v>Evolves into Clefairy using 2 Journey Points.</v>
       </c>
     </row>
@@ -19477,11 +19311,11 @@
         <v>2</v>
       </c>
       <c r="Y189" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B189,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B189,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z189" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B189,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R189, " using ", T189, " Journey Points", IF(ISBLANK(S189), ".", _xlfn.CONCAT(" and a ", S189, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B189,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R189, " using ", T189, " Journey Points", IF(ISBLANK(S189), ".", _xlfn.CONCAT(" and a ", S189, " Apricorn."))))</f>
         <v>Evolves into Clefable using 4 Journey Points.</v>
       </c>
     </row>
@@ -19554,12 +19388,12 @@
         <v>3</v>
       </c>
       <c r="Y190" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B190,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B190,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Magic Guard</v>
       </c>
       <c r="Z190" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B190,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R190, " using ", T190, " Journey Points", IF(ISBLANK(S190), ".", _xlfn.CONCAT(" and a ", S190, " Apricorn."))))</f>
-        <v>This Pokémon cannot be damaged by indirect damage.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B190,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R190, " using ", T190, " Journey Points", IF(ISBLANK(S190), ".", _xlfn.CONCAT(" and a ", S190, " Apricorn."))))</f>
+        <v>This Pokémon prevents any changes to your aura power by your opponent.</v>
       </c>
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.25">
@@ -19636,11 +19470,11 @@
         <v>1</v>
       </c>
       <c r="Y191" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B191,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B191,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z191" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B191,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R191, " using ", T191, " Journey Points", IF(ISBLANK(S191), ".", _xlfn.CONCAT(" and a ", S191, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B191,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R191, " using ", T191, " Journey Points", IF(ISBLANK(S191), ".", _xlfn.CONCAT(" and a ", S191, " Apricorn."))))</f>
         <v>Evolves into Quagsire using 3 Journey Points.</v>
       </c>
     </row>
@@ -19716,12 +19550,12 @@
         <v>2</v>
       </c>
       <c r="Y192" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B192,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B192,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Aquatic Melody</v>
       </c>
       <c r="Z192" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B192,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R192, " using ", T192, " Journey Points", IF(ISBLANK(S192), ".", _xlfn.CONCAT(" and a ", S192, " Apricorn."))))</f>
-        <v>When switched in, add 1 bonus power for each non-fainted Water-type Pokémon in your party.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B192,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R192, " using ", T192, " Journey Points", IF(ISBLANK(S192), ".", _xlfn.CONCAT(" and a ", S192, " Apricorn."))))</f>
+        <v>When switched in, increase your aura power by one stage for each non-fainted Water-type Pokémon in your party.</v>
       </c>
     </row>
     <row r="193" spans="1:27" x14ac:dyDescent="0.25">
@@ -19796,11 +19630,11 @@
         <v>1</v>
       </c>
       <c r="Y193" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B193,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B193,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z193" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B193,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R193, " using ", T193, " Journey Points", IF(ISBLANK(S193), ".", _xlfn.CONCAT(" and a ", S193, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B193,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R193, " using ", T193, " Journey Points", IF(ISBLANK(S193), ".", _xlfn.CONCAT(" and a ", S193, " Apricorn."))))</f>
         <v>Evolves into Sealeo using 3 Journey Points.</v>
       </c>
     </row>
@@ -19879,11 +19713,11 @@
         <v>2</v>
       </c>
       <c r="Y194" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B194,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B194,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z194" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B194,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R194, " using ", T194, " Journey Points", IF(ISBLANK(S194), ".", _xlfn.CONCAT(" and a ", S194, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B194,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R194, " using ", T194, " Journey Points", IF(ISBLANK(S194), ".", _xlfn.CONCAT(" and a ", S194, " Apricorn."))))</f>
         <v>Evolves into Walrein using 5 Journey Points.</v>
       </c>
     </row>
@@ -19958,12 +19792,12 @@
         <v>3</v>
       </c>
       <c r="Y195" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B195,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B195,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Herd Protector</v>
       </c>
       <c r="Z195" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B195,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R195, " using ", T195, " Journey Points", IF(ISBLANK(S195), ".", _xlfn.CONCAT(" and a ", S195, " Apricorn."))))</f>
-        <v>When switched in, add 2 bonus power for this battle turn.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B195,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R195, " using ", T195, " Journey Points", IF(ISBLANK(S195), ".", _xlfn.CONCAT(" and a ", S195, " Apricorn."))))</f>
+        <v>Add 3 bonus power if sent in as the first Pokémon in this battle.</v>
       </c>
     </row>
     <row r="196" spans="1:27" x14ac:dyDescent="0.25">
@@ -19995,7 +19829,7 @@
         <v>Zubat</v>
       </c>
       <c r="V196" s="1" t="s">
-        <v>1123</v>
+        <v>1075</v>
       </c>
       <c r="W196">
         <v>0</v>
@@ -20004,13 +19838,13 @@
         <v>1</v>
       </c>
       <c r="Y196" t="s">
-        <v>1159</v>
+        <v>1099</v>
       </c>
       <c r="Z196" t="s">
-        <v>1160</v>
+        <v>1100</v>
       </c>
       <c r="AA196" t="s">
-        <v>1125</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="197" spans="1:27" x14ac:dyDescent="0.25">
@@ -20038,7 +19872,7 @@
         <v>Glameow</v>
       </c>
       <c r="V197" s="1" t="s">
-        <v>1123</v>
+        <v>1075</v>
       </c>
       <c r="W197">
         <v>0</v>
@@ -20047,13 +19881,13 @@
         <v>1</v>
       </c>
       <c r="Y197" t="s">
-        <v>1159</v>
+        <v>1099</v>
       </c>
       <c r="Z197" t="s">
-        <v>1160</v>
+        <v>1100</v>
       </c>
       <c r="AA197" t="s">
-        <v>1125</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="198" spans="1:27" x14ac:dyDescent="0.25">
@@ -20085,7 +19919,7 @@
         <v>Croagunk</v>
       </c>
       <c r="V198" s="1" t="s">
-        <v>1123</v>
+        <v>1075</v>
       </c>
       <c r="W198">
         <v>0</v>
@@ -20094,13 +19928,13 @@
         <v>1</v>
       </c>
       <c r="Y198" t="s">
-        <v>1159</v>
+        <v>1099</v>
       </c>
       <c r="Z198" t="s">
-        <v>1160</v>
+        <v>1100</v>
       </c>
       <c r="AA198" t="s">
-        <v>1126</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.25">
@@ -20132,7 +19966,7 @@
         <v>Bronzor</v>
       </c>
       <c r="V199" s="1" t="s">
-        <v>1123</v>
+        <v>1075</v>
       </c>
       <c r="W199">
         <v>0</v>
@@ -20141,13 +19975,13 @@
         <v>1</v>
       </c>
       <c r="Y199" t="s">
-        <v>1159</v>
+        <v>1099</v>
       </c>
       <c r="Z199" t="s">
-        <v>1160</v>
+        <v>1100</v>
       </c>
       <c r="AA199" t="s">
-        <v>1126</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="200" spans="1:27" x14ac:dyDescent="0.25">
@@ -20155,7 +19989,7 @@
         <v>434</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1124</v>
+        <v>1076</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>13</v>
@@ -20179,7 +20013,7 @@
         <v>Skunky</v>
       </c>
       <c r="V200" s="1" t="s">
-        <v>1123</v>
+        <v>1075</v>
       </c>
       <c r="W200">
         <v>0</v>
@@ -20188,13 +20022,13 @@
         <v>1</v>
       </c>
       <c r="Y200" t="s">
-        <v>1159</v>
+        <v>1099</v>
       </c>
       <c r="Z200" t="s">
-        <v>1160</v>
+        <v>1100</v>
       </c>
       <c r="AA200" t="s">
-        <v>1125</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="201" spans="1:27" x14ac:dyDescent="0.25">
@@ -20226,7 +20060,7 @@
         <v>Murkrow</v>
       </c>
       <c r="V201" s="1" t="s">
-        <v>1123</v>
+        <v>1075</v>
       </c>
       <c r="W201">
         <v>0</v>
@@ -20235,13 +20069,13 @@
         <v>1</v>
       </c>
       <c r="Y201" t="s">
-        <v>1159</v>
+        <v>1099</v>
       </c>
       <c r="Z201" t="s">
-        <v>1160</v>
+        <v>1100</v>
       </c>
       <c r="AA201" t="s">
-        <v>1125</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="202" spans="1:27" x14ac:dyDescent="0.25">
@@ -20273,7 +20107,7 @@
         <v>Skorupi</v>
       </c>
       <c r="V202" s="1" t="s">
-        <v>1123</v>
+        <v>1075</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -20282,13 +20116,13 @@
         <v>1</v>
       </c>
       <c r="Y202" t="s">
-        <v>1159</v>
+        <v>1099</v>
       </c>
       <c r="Z202" t="s">
-        <v>1160</v>
+        <v>1100</v>
       </c>
       <c r="AA202" t="s">
-        <v>1126</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="203" spans="1:27" x14ac:dyDescent="0.25">
@@ -20320,7 +20154,7 @@
         <v>Houndour</v>
       </c>
       <c r="V203" s="1" t="s">
-        <v>1123</v>
+        <v>1075</v>
       </c>
       <c r="W203">
         <v>0</v>
@@ -20329,13 +20163,13 @@
         <v>1</v>
       </c>
       <c r="Y203" t="s">
-        <v>1159</v>
+        <v>1099</v>
       </c>
       <c r="Z203" t="s">
-        <v>1160</v>
+        <v>1100</v>
       </c>
       <c r="AA203" t="s">
-        <v>1126</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="204" spans="1:27" x14ac:dyDescent="0.25">
@@ -20370,7 +20204,7 @@
         <v>Skuntank</v>
       </c>
       <c r="V204" s="1" t="s">
-        <v>1150</v>
+        <v>1090</v>
       </c>
       <c r="W204">
         <v>0</v>
@@ -20379,15 +20213,15 @@
         <v>1</v>
       </c>
       <c r="Y204" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B204,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B204,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Avenging Stench</v>
       </c>
       <c r="Z204" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B204,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R204, " using ", T204, " Journey Points", IF(ISBLANK(S204), ".", _xlfn.CONCAT(" and a ", S204, " Apricorn."))))</f>
-        <v>After taking direct damage, the opposing Pokémon is forced to switch out.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B204,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R204, " using ", T204, " Journey Points", IF(ISBLANK(S204), ".", _xlfn.CONCAT(" and a ", S204, " Apricorn."))))</f>
+        <v>When this Pokémon faints, decrease opposing aura power by two stages.</v>
       </c>
       <c r="AA204" t="s">
-        <v>1154</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="205" spans="1:27" x14ac:dyDescent="0.25">
@@ -20422,24 +20256,24 @@
         <v>Uxie</v>
       </c>
       <c r="V205" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="W205" s="25">
+        <v>1090</v>
+      </c>
+      <c r="W205" s="14">
         <v>1</v>
       </c>
       <c r="X205">
         <v>1</v>
       </c>
       <c r="Y205" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B205,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B205,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Chilling Acuity</v>
       </c>
       <c r="Z205" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B205,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R205, " using ", T205, " Journey Points", IF(ISBLANK(S205), ".", _xlfn.CONCAT(" and a ", S205, " Apricorn."))))</f>
-        <v>Gains the Ice typing. When attacking with an Ice-type move, add 2 bonus power</v>
+        <f>_xlfn.IFNA(VLOOKUP(B205,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R205, " using ", T205, " Journey Points", IF(ISBLANK(S205), ".", _xlfn.CONCAT(" and a ", S205, " Apricorn."))))</f>
+        <v>Add 1 bonus power whilst attacking with an Ice-type move. Gains the Ice typing.</v>
       </c>
       <c r="AA205" t="s">
-        <v>1154</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="206" spans="1:27" x14ac:dyDescent="0.25">
@@ -20470,7 +20304,7 @@
         <v>Purugly</v>
       </c>
       <c r="V206" s="1" t="s">
-        <v>1151</v>
+        <v>1091</v>
       </c>
       <c r="W206">
         <v>0</v>
@@ -20479,15 +20313,15 @@
         <v>1</v>
       </c>
       <c r="Y206" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B206,abilities!$A$2:$C$107,2,0), "Evolution")</f>
-        <v>Angry Kitty</v>
+        <f>_xlfn.IFNA(VLOOKUP(B206,abilities!$A$2:$C$121,2,0), "Evolution")</f>
+        <v>Defiant Feline</v>
       </c>
       <c r="Z206" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B206,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R206, " using ", T206, " Journey Points", IF(ISBLANK(S206), ".", _xlfn.CONCAT(" and a ", S206, " Apricorn."))))</f>
-        <v>After taking direct damage, gain the Focused status effect.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B206,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R206, " using ", T206, " Journey Points", IF(ISBLANK(S206), ".", _xlfn.CONCAT(" and a ", S206, " Apricorn."))))</f>
+        <v>Add 2 bonus power if your aura power is negative.</v>
       </c>
       <c r="AA206" t="s">
-        <v>1155</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="207" spans="1:27" x14ac:dyDescent="0.25">
@@ -20522,24 +20356,24 @@
         <v>Mesprit</v>
       </c>
       <c r="V207" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="W207" s="25">
+        <v>1091</v>
+      </c>
+      <c r="W207" s="14">
         <v>1</v>
       </c>
       <c r="X207">
         <v>1</v>
       </c>
       <c r="Y207" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B207,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B207,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Energising Verity</v>
       </c>
       <c r="Z207" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B207,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R207, " using ", T207, " Journey Points", IF(ISBLANK(S207), ".", _xlfn.CONCAT(" and a ", S207, " Apricorn."))))</f>
-        <v>Gains the Electric typing. When attacking with an Electric-type move, add 2 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B207,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R207, " using ", T207, " Journey Points", IF(ISBLANK(S207), ".", _xlfn.CONCAT(" and a ", S207, " Apricorn."))))</f>
+        <v>Add 1 bonus power whilst attacking with an Electric-type move. Gains the Electric typing.</v>
       </c>
       <c r="AA207" t="s">
-        <v>1155</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="208" spans="1:27" x14ac:dyDescent="0.25">
@@ -20574,7 +20408,7 @@
         <v>Toxicroak</v>
       </c>
       <c r="V208" s="1" t="s">
-        <v>1152</v>
+        <v>1092</v>
       </c>
       <c r="W208">
         <v>0</v>
@@ -20583,15 +20417,15 @@
         <v>1</v>
       </c>
       <c r="Y208" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B208,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B208,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Victory Croak</v>
       </c>
       <c r="Z208" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B208,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R208, " using ", T208, " Journey Points", IF(ISBLANK(S208), ".", _xlfn.CONCAT(" and a ", S208, " Apricorn."))))</f>
-        <v>After defeating an opposing Pokémon, inflicts the next Pokémon switched in with the Weakened status effect.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B208,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R208, " using ", T208, " Journey Points", IF(ISBLANK(S208), ".", _xlfn.CONCAT(" and a ", S208, " Apricorn."))))</f>
+        <v>After defeating an opposing Pokémon, add 2 bonus power. Stacks with itself.</v>
       </c>
       <c r="AA208" t="s">
-        <v>1156</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="209" spans="1:27" x14ac:dyDescent="0.25">
@@ -20626,24 +20460,24 @@
         <v>Azelf</v>
       </c>
       <c r="V209" s="1" t="s">
-        <v>1152</v>
-      </c>
-      <c r="W209" s="25">
+        <v>1092</v>
+      </c>
+      <c r="W209" s="14">
         <v>1</v>
       </c>
       <c r="X209">
         <v>1</v>
       </c>
       <c r="Y209" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B209,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B209,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Blazing Valor</v>
       </c>
       <c r="Z209" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B209,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R209, " using ", T209, " Journey Points", IF(ISBLANK(S209), ".", _xlfn.CONCAT(" and a ", S209, " Apricorn."))))</f>
-        <v>Gains the Fire typing. When attacking with a Fire-type move, add 2 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B209,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R209, " using ", T209, " Journey Points", IF(ISBLANK(S209), ".", _xlfn.CONCAT(" and a ", S209, " Apricorn."))))</f>
+        <v>Add 1 bonus power whilst attacking with a Fire-type move. Gains the Fire typing.</v>
       </c>
       <c r="AA209" t="s">
-        <v>1156</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="210" spans="1:27" x14ac:dyDescent="0.25">
@@ -20673,7 +20507,7 @@
         <v>Porygon-Z</v>
       </c>
       <c r="V210" s="1" t="s">
-        <v>1153</v>
+        <v>1093</v>
       </c>
       <c r="W210">
         <v>0</v>
@@ -20682,15 +20516,15 @@
         <v>1</v>
       </c>
       <c r="Y210" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B210,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B210,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Dubious Efficiency</v>
       </c>
       <c r="Z210" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B210,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R210, " using ", T210, " Journey Points", IF(ISBLANK(S210), ".", _xlfn.CONCAT(" and a ", S210, " Apricorn."))))</f>
-        <v>During combat resolution, may swap its stance as long as the result of the combat remains the same.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B210,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R210, " using ", T210, " Journey Points", IF(ISBLANK(S210), ".", _xlfn.CONCAT(" and a ", S210, " Apricorn."))))</f>
+        <v>During combat resolution, may swap its attack token as long as the result of the combat remains the same.</v>
       </c>
       <c r="AA210" t="s">
-        <v>1157</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="211" spans="1:27" x14ac:dyDescent="0.25">
@@ -20721,24 +20555,24 @@
         <v>Arceus</v>
       </c>
       <c r="V211" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="W211" s="25">
+        <v>1093</v>
+      </c>
+      <c r="W211" s="14">
         <v>1</v>
       </c>
       <c r="X211">
         <v>1</v>
       </c>
       <c r="Y211" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B211,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B211,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Judgment Eternal</v>
       </c>
       <c r="Z211" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B211,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R211, " using ", T211, " Journey Points", IF(ISBLANK(S211), ".", _xlfn.CONCAT(" and a ", S211, " Apricorn."))))</f>
-        <v>When attacking with a Normal-type move, add 3 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(B211,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R211, " using ", T211, " Journey Points", IF(ISBLANK(S211), ".", _xlfn.CONCAT(" and a ", S211, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Normal-type move.</v>
       </c>
       <c r="AA211" t="s">
-        <v>1157</v>
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
@@ -20870,1513 +20704,1232 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D290746-C13D-4DE9-BA8F-31AB6461E97D}">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="114.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.140625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>762</v>
       </c>
       <c r="B1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1027</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="B2" t="s">
-        <v>985</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1128</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s">
-        <v>986</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1063</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>421</v>
       </c>
       <c r="B4" t="s">
         <v>987</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="15" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" t="s">
+        <v>992</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B11" t="s">
+        <v>999</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>440</v>
+      </c>
+      <c r="B20" t="s">
+        <v>993</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>437</v>
+      </c>
+      <c r="B24" t="s">
+        <v>991</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>442</v>
+      </c>
+      <c r="B37" t="s">
+        <v>994</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>454</v>
+      </c>
+      <c r="B38" t="s">
+        <v>996</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B47" t="s">
         <v>1098</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C47" s="15" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>453</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>778</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>447</v>
+      </c>
+      <c r="B55" t="s">
+        <v>997</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>450</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>428</v>
+      </c>
+      <c r="B60" t="s">
+        <v>988</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>221</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>424</v>
       </c>
-      <c r="B5" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B64" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>456</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>433</v>
+      </c>
+      <c r="B72" t="s">
+        <v>990</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>169</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>227</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>268</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>443</v>
+      </c>
+      <c r="B86" t="s">
+        <v>995</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>384</v>
+      </c>
+      <c r="B87" t="s">
+        <v>998</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>426</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B88" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>415</v>
+      </c>
+      <c r="B89" t="s">
+        <v>985</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="9"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>418</v>
+      </c>
+      <c r="B94" t="s">
+        <v>986</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>45</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
+      <c r="B104" s="8"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>461</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B107" t="s">
+        <v>989</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>445</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>234</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>435</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>56</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="8"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>448</v>
+      </c>
+      <c r="B117" t="s">
         <v>1074</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>428</v>
-      </c>
-      <c r="B7" t="s">
-        <v>988</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>431</v>
-      </c>
-      <c r="B8" t="s">
-        <v>989</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>433</v>
-      </c>
-      <c r="B9" t="s">
-        <v>991</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>435</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B11" t="s">
-        <v>992</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>439</v>
-      </c>
-      <c r="B12" t="s">
-        <v>993</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>440</v>
-      </c>
-      <c r="B13" t="s">
-        <v>994</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B14" t="s">
-        <v>995</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>443</v>
-      </c>
-      <c r="B15" t="s">
-        <v>996</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>445</v>
-      </c>
-      <c r="B16" t="s">
-        <v>997</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>447</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>778</v>
-      </c>
-      <c r="B18" t="s">
-        <v>998</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>448</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>450</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C117" s="15" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>452</v>
       </c>
-      <c r="B21" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>453</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>454</v>
-      </c>
-      <c r="B23" t="s">
-        <v>999</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>456</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>384</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>459</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>461</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>211</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>268</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="B32" t="s">
-        <v>990</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>978</v>
-      </c>
-      <c r="B63" s="8" t="s">
+      <c r="B120" t="s">
         <v>1088</v>
       </c>
-      <c r="C63" s="22" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="B66" s="8" t="s">
+      <c r="C120" s="9" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>90</v>
+      </c>
+      <c r="B121" t="s">
         <v>1025</v>
       </c>
-      <c r="C66" s="19" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D86" s="22" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D87" s="22" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D88" s="22" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>155</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D90" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>45</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>210</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>195</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>90</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C94" s="23" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D94" s="23" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>101</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>240</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>169</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>170</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>171</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D99" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>274</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>402</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>227</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D102" s="24" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>119</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>234</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C104" s="22" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D104" s="23" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>56</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="C121" s="9" t="s">
         <v>1106</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D105" s="23" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>221</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C107" s="19" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D107" s="19" t="s">
-        <v>1091</v>
       </c>
     </row>
   </sheetData>
@@ -22387,10 +21940,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30A6FFA-AF35-447D-B0D3-E4B3ED9C1CA8}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22402,16 +21955,14 @@
     <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.28515625" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>754</v>
       </c>
@@ -22437,15 +21988,8 @@
         <f>SUM(F2,G2)</f>
         <v>22</v>
       </c>
-      <c r="J2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="K2">
-        <f>COUNTIF(abilities!D2:D107, J2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>754</v>
       </c>
@@ -22472,15 +22016,8 @@
         <v>13</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" t="s">
-        <v>1041</v>
-      </c>
-      <c r="K3">
-        <f>COUNTIF(abilities!D2:D107, J3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>754</v>
       </c>
@@ -22507,15 +22044,8 @@
         <v>29</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" t="s">
-        <v>1042</v>
-      </c>
-      <c r="K4">
-        <f>COUNTIF(abilities!D2:D107, J4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>751</v>
       </c>
@@ -22524,7 +22054,7 @@
       </c>
       <c r="C5" s="1">
         <f>COUNTIFS(sinnoh!L2:L195, A5, sinnoh!M2:M195, B5)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -22542,7 +22072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>751</v>
       </c>
@@ -22551,7 +22081,7 @@
       </c>
       <c r="C6" s="1">
         <f>COUNTIFS(sinnoh!L2:L195, A6, sinnoh!M2:M195, B6)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -22569,7 +22099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>751</v>
       </c>
@@ -22578,7 +22108,7 @@
       </c>
       <c r="C7" s="1">
         <f>COUNTIFS(sinnoh!L2:L195, A7, sinnoh!M2:M195, B7)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
@@ -22596,7 +22126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>759</v>
       </c>
@@ -22605,7 +22135,7 @@
       </c>
       <c r="C8" s="1">
         <f>COUNTIFS(sinnoh!L2:L195, A8, sinnoh!M2:M195, B8)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>77</v>
@@ -22623,7 +22153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>759</v>
       </c>
@@ -22632,7 +22162,7 @@
       </c>
       <c r="C9" s="1">
         <f>COUNTIFS(sinnoh!L2:L195, A9, sinnoh!M2:M195, B9)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -22650,7 +22180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>759</v>
       </c>
@@ -22659,7 +22189,7 @@
       </c>
       <c r="C10" s="1">
         <f>COUNTIFS(sinnoh!L2:L195, A10, sinnoh!M2:M195, B10)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>47</v>
@@ -22677,7 +22207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>756</v>
       </c>
@@ -22704,7 +22234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>756</v>
       </c>
@@ -22731,7 +22261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>756</v>
       </c>
@@ -22758,7 +22288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>773</v>
       </c>
@@ -22767,7 +22297,7 @@
       </c>
       <c r="C14" s="1">
         <f>COUNTIFS(sinnoh!L2:L195, A14, sinnoh!M2:M195, B14)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>97</v>
@@ -22785,7 +22315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>773</v>
       </c>
@@ -22794,7 +22324,7 @@
       </c>
       <c r="C15" s="1">
         <f>COUNTIFS(sinnoh!L2:L195, A15, sinnoh!M2:M195, B15)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
         <v>117</v>
@@ -22812,7 +22342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>773</v>
       </c>
@@ -22821,7 +22351,7 @@
       </c>
       <c r="C16" s="1">
         <f>COUNTIFS(sinnoh!L2:L195, A16, sinnoh!M2:M195, B16)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
         <v>173</v>
@@ -53119,12 +52649,12 @@
         <v>480</v>
       </c>
       <c r="Z225" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A225,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A225,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Chilling Acuity</v>
       </c>
       <c r="AA225" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A225,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q225, " using ", S225, " Journey Points", IF(ISBLANK(R225), ".", _xlfn.CONCAT(" and a ", R225, " Apricorn."))))</f>
-        <v>Gains the Ice typing. When attacking with an Ice-type move, add 2 bonus power</v>
+        <f>_xlfn.IFNA(VLOOKUP(A225,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q225, " using ", S225, " Journey Points", IF(ISBLANK(R225), ".", _xlfn.CONCAT(" and a ", R225, " Apricorn."))))</f>
+        <v>Add 1 bonus power whilst attacking with an Ice-type move. Gains the Ice typing.</v>
       </c>
       <c r="AD225"/>
     </row>
@@ -53204,12 +52734,12 @@
         <v>481</v>
       </c>
       <c r="Z226" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A226,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A226,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Energising Verity</v>
       </c>
       <c r="AA226" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A226,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q226, " using ", S226, " Journey Points", IF(ISBLANK(R226), ".", _xlfn.CONCAT(" and a ", R226, " Apricorn."))))</f>
-        <v>Gains the Electric typing. When attacking with an Electric-type move, add 2 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A226,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q226, " using ", S226, " Journey Points", IF(ISBLANK(R226), ".", _xlfn.CONCAT(" and a ", R226, " Apricorn."))))</f>
+        <v>Add 1 bonus power whilst attacking with an Electric-type move. Gains the Electric typing.</v>
       </c>
       <c r="AD226"/>
     </row>
@@ -53289,12 +52819,12 @@
         <v>482</v>
       </c>
       <c r="Z227" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A227,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A227,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Blazing Valor</v>
       </c>
       <c r="AA227" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A227,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q227, " using ", S227, " Journey Points", IF(ISBLANK(R227), ".", _xlfn.CONCAT(" and a ", R227, " Apricorn."))))</f>
-        <v>Gains the Fire typing. When attacking with a Fire-type move, add 2 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A227,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q227, " using ", S227, " Journey Points", IF(ISBLANK(R227), ".", _xlfn.CONCAT(" and a ", R227, " Apricorn."))))</f>
+        <v>Add 1 bonus power whilst attacking with a Fire-type move. Gains the Fire typing.</v>
       </c>
       <c r="AD227"/>
     </row>
@@ -53362,12 +52892,12 @@
         <v>493</v>
       </c>
       <c r="Z228" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A228,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A228,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Judgment Eternal</v>
       </c>
       <c r="AA228" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A228,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q228, " using ", S228, " Journey Points", IF(ISBLANK(R228), ".", _xlfn.CONCAT(" and a ", R228, " Apricorn."))))</f>
-        <v>When attacking with a Normal-type move, add 3 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A228,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q228, " using ", S228, " Journey Points", IF(ISBLANK(R228), ".", _xlfn.CONCAT(" and a ", R228, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Normal-type move.</v>
       </c>
       <c r="AD228"/>
     </row>
@@ -53423,7 +52953,7 @@
         <v>949</v>
       </c>
       <c r="U229" s="1" t="s">
-        <v>1063</v>
+        <v>1045</v>
       </c>
       <c r="V229">
         <v>0</v>
@@ -53438,12 +52968,12 @@
         <v>493</v>
       </c>
       <c r="Z229" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A229,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A229,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Judgment Eternal</v>
       </c>
       <c r="AA229" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A229,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q229, " using ", S229, " Journey Points", IF(ISBLANK(R229), ".", _xlfn.CONCAT(" and a ", R229, " Apricorn."))))</f>
-        <v>When attacking with a Normal-type move, add 3 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A229,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q229, " using ", S229, " Journey Points", IF(ISBLANK(R229), ".", _xlfn.CONCAT(" and a ", R229, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Normal-type move.</v>
       </c>
       <c r="AD229"/>
     </row>
@@ -53499,7 +53029,7 @@
         <v>950</v>
       </c>
       <c r="U230" s="1" t="s">
-        <v>1062</v>
+        <v>1044</v>
       </c>
       <c r="V230">
         <v>0</v>
@@ -53514,12 +53044,12 @@
         <v>493</v>
       </c>
       <c r="Z230" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A230,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A230,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Judgment Eternal</v>
       </c>
       <c r="AA230" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A230,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q230, " using ", S230, " Journey Points", IF(ISBLANK(R230), ".", _xlfn.CONCAT(" and a ", R230, " Apricorn."))))</f>
-        <v>When attacking with a Normal-type move, add 3 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A230,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q230, " using ", S230, " Journey Points", IF(ISBLANK(R230), ".", _xlfn.CONCAT(" and a ", R230, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Normal-type move.</v>
       </c>
       <c r="AD230"/>
     </row>
@@ -53575,7 +53105,7 @@
         <v>951</v>
       </c>
       <c r="U231" s="1" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="V231">
         <v>0</v>
@@ -53590,12 +53120,12 @@
         <v>493</v>
       </c>
       <c r="Z231" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A231,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A231,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Judgment Eternal</v>
       </c>
       <c r="AA231" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A231,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q231, " using ", S231, " Journey Points", IF(ISBLANK(R231), ".", _xlfn.CONCAT(" and a ", R231, " Apricorn."))))</f>
-        <v>When attacking with a Normal-type move, add 3 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A231,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q231, " using ", S231, " Journey Points", IF(ISBLANK(R231), ".", _xlfn.CONCAT(" and a ", R231, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Normal-type move.</v>
       </c>
       <c r="AD231"/>
     </row>
@@ -53651,7 +53181,7 @@
         <v>952</v>
       </c>
       <c r="U232" s="1" t="s">
-        <v>1059</v>
+        <v>1041</v>
       </c>
       <c r="V232">
         <v>0</v>
@@ -53666,12 +53196,12 @@
         <v>493</v>
       </c>
       <c r="Z232" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A232,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A232,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Judgment Eternal</v>
       </c>
       <c r="AA232" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A232,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q232, " using ", S232, " Journey Points", IF(ISBLANK(R232), ".", _xlfn.CONCAT(" and a ", R232, " Apricorn."))))</f>
-        <v>When attacking with a Normal-type move, add 3 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A232,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q232, " using ", S232, " Journey Points", IF(ISBLANK(R232), ".", _xlfn.CONCAT(" and a ", R232, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Normal-type move.</v>
       </c>
       <c r="AD232"/>
     </row>
@@ -53727,7 +53257,7 @@
         <v>953</v>
       </c>
       <c r="U233" s="1" t="s">
-        <v>1058</v>
+        <v>1040</v>
       </c>
       <c r="V233">
         <v>0</v>
@@ -53742,12 +53272,12 @@
         <v>493</v>
       </c>
       <c r="Z233" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A233,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A233,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Judgment Eternal</v>
       </c>
       <c r="AA233" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A233,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q233, " using ", S233, " Journey Points", IF(ISBLANK(R233), ".", _xlfn.CONCAT(" and a ", R233, " Apricorn."))))</f>
-        <v>When attacking with a Normal-type move, add 3 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A233,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q233, " using ", S233, " Journey Points", IF(ISBLANK(R233), ".", _xlfn.CONCAT(" and a ", R233, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Normal-type move.</v>
       </c>
       <c r="AD233"/>
     </row>
@@ -53803,7 +53333,7 @@
         <v>954</v>
       </c>
       <c r="U234" s="1" t="s">
-        <v>1060</v>
+        <v>1042</v>
       </c>
       <c r="V234">
         <v>0</v>
@@ -53818,12 +53348,12 @@
         <v>493</v>
       </c>
       <c r="Z234" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A234,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A234,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Judgment Eternal</v>
       </c>
       <c r="AA234" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A234,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q234, " using ", S234, " Journey Points", IF(ISBLANK(R234), ".", _xlfn.CONCAT(" and a ", R234, " Apricorn."))))</f>
-        <v>When attacking with a Normal-type move, add 3 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A234,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q234, " using ", S234, " Journey Points", IF(ISBLANK(R234), ".", _xlfn.CONCAT(" and a ", R234, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Normal-type move.</v>
       </c>
       <c r="AD234"/>
     </row>
@@ -53879,7 +53409,7 @@
         <v>955</v>
       </c>
       <c r="U235" s="1" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="V235">
         <v>0</v>
@@ -53894,12 +53424,12 @@
         <v>493</v>
       </c>
       <c r="Z235" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A235,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A235,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Judgment Eternal</v>
       </c>
       <c r="AA235" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A235,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q235, " using ", S235, " Journey Points", IF(ISBLANK(R235), ".", _xlfn.CONCAT(" and a ", R235, " Apricorn."))))</f>
-        <v>When attacking with a Normal-type move, add 3 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A235,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q235, " using ", S235, " Journey Points", IF(ISBLANK(R235), ".", _xlfn.CONCAT(" and a ", R235, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Normal-type move.</v>
       </c>
       <c r="AD235"/>
     </row>
@@ -53955,7 +53485,7 @@
         <v>956</v>
       </c>
       <c r="U236" s="1" t="s">
-        <v>1065</v>
+        <v>1047</v>
       </c>
       <c r="V236">
         <v>0</v>
@@ -53970,12 +53500,12 @@
         <v>493</v>
       </c>
       <c r="Z236" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A236,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A236,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Judgment Eternal</v>
       </c>
       <c r="AA236" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A236,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q236, " using ", S236, " Journey Points", IF(ISBLANK(R236), ".", _xlfn.CONCAT(" and a ", R236, " Apricorn."))))</f>
-        <v>When attacking with a Normal-type move, add 3 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A236,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q236, " using ", S236, " Journey Points", IF(ISBLANK(R236), ".", _xlfn.CONCAT(" and a ", R236, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Normal-type move.</v>
       </c>
       <c r="AD236"/>
     </row>
@@ -54031,7 +53561,7 @@
         <v>957</v>
       </c>
       <c r="U237" s="1" t="s">
-        <v>1064</v>
+        <v>1046</v>
       </c>
       <c r="V237">
         <v>0</v>
@@ -54046,12 +53576,12 @@
         <v>493</v>
       </c>
       <c r="Z237" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A237,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A237,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Judgment Eternal</v>
       </c>
       <c r="AA237" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A237,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q237, " using ", S237, " Journey Points", IF(ISBLANK(R237), ".", _xlfn.CONCAT(" and a ", R237, " Apricorn."))))</f>
-        <v>When attacking with a Normal-type move, add 3 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A237,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q237, " using ", S237, " Journey Points", IF(ISBLANK(R237), ".", _xlfn.CONCAT(" and a ", R237, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Normal-type move.</v>
       </c>
       <c r="AD237"/>
     </row>
@@ -54107,7 +53637,7 @@
         <v>958</v>
       </c>
       <c r="U238" s="1" t="s">
-        <v>1071</v>
+        <v>1053</v>
       </c>
       <c r="V238">
         <v>0</v>
@@ -54122,12 +53652,12 @@
         <v>493</v>
       </c>
       <c r="Z238" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A238,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A238,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Judgment Eternal</v>
       </c>
       <c r="AA238" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A238,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q238, " using ", S238, " Journey Points", IF(ISBLANK(R238), ".", _xlfn.CONCAT(" and a ", R238, " Apricorn."))))</f>
-        <v>When attacking with a Normal-type move, add 3 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A238,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q238, " using ", S238, " Journey Points", IF(ISBLANK(R238), ".", _xlfn.CONCAT(" and a ", R238, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Normal-type move.</v>
       </c>
       <c r="AD238"/>
     </row>
@@ -54183,7 +53713,7 @@
         <v>959</v>
       </c>
       <c r="U239" s="1" t="s">
-        <v>1066</v>
+        <v>1048</v>
       </c>
       <c r="V239">
         <v>0</v>
@@ -54198,12 +53728,12 @@
         <v>493</v>
       </c>
       <c r="Z239" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A239,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A239,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Judgment Eternal</v>
       </c>
       <c r="AA239" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A239,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q239, " using ", S239, " Journey Points", IF(ISBLANK(R239), ".", _xlfn.CONCAT(" and a ", R239, " Apricorn."))))</f>
-        <v>When attacking with a Normal-type move, add 3 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A239,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q239, " using ", S239, " Journey Points", IF(ISBLANK(R239), ".", _xlfn.CONCAT(" and a ", R239, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Normal-type move.</v>
       </c>
       <c r="AD239"/>
     </row>
@@ -54259,7 +53789,7 @@
         <v>960</v>
       </c>
       <c r="U240" s="1" t="s">
-        <v>1069</v>
+        <v>1051</v>
       </c>
       <c r="V240">
         <v>0</v>
@@ -54274,12 +53804,12 @@
         <v>493</v>
       </c>
       <c r="Z240" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A240,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A240,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Judgment Eternal</v>
       </c>
       <c r="AA240" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A240,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q240, " using ", S240, " Journey Points", IF(ISBLANK(R240), ".", _xlfn.CONCAT(" and a ", R240, " Apricorn."))))</f>
-        <v>When attacking with a Normal-type move, add 3 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A240,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q240, " using ", S240, " Journey Points", IF(ISBLANK(R240), ".", _xlfn.CONCAT(" and a ", R240, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Normal-type move.</v>
       </c>
       <c r="AD240"/>
     </row>
@@ -54335,7 +53865,7 @@
         <v>961</v>
       </c>
       <c r="U241" s="1" t="s">
-        <v>1067</v>
+        <v>1049</v>
       </c>
       <c r="V241">
         <v>0</v>
@@ -54350,12 +53880,12 @@
         <v>493</v>
       </c>
       <c r="Z241" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A241,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A241,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Judgment Eternal</v>
       </c>
       <c r="AA241" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A241,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q241, " using ", S241, " Journey Points", IF(ISBLANK(R241), ".", _xlfn.CONCAT(" and a ", R241, " Apricorn."))))</f>
-        <v>When attacking with a Normal-type move, add 3 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A241,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q241, " using ", S241, " Journey Points", IF(ISBLANK(R241), ".", _xlfn.CONCAT(" and a ", R241, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Normal-type move.</v>
       </c>
       <c r="AD241"/>
     </row>
@@ -54411,7 +53941,7 @@
         <v>962</v>
       </c>
       <c r="U242" s="1" t="s">
-        <v>1068</v>
+        <v>1050</v>
       </c>
       <c r="V242">
         <v>0</v>
@@ -54426,12 +53956,12 @@
         <v>493</v>
       </c>
       <c r="Z242" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A242,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A242,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Judgment Eternal</v>
       </c>
       <c r="AA242" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A242,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q242, " using ", S242, " Journey Points", IF(ISBLANK(R242), ".", _xlfn.CONCAT(" and a ", R242, " Apricorn."))))</f>
-        <v>When attacking with a Normal-type move, add 3 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A242,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q242, " using ", S242, " Journey Points", IF(ISBLANK(R242), ".", _xlfn.CONCAT(" and a ", R242, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Normal-type move.</v>
       </c>
       <c r="AD242"/>
     </row>
@@ -54487,7 +54017,7 @@
         <v>963</v>
       </c>
       <c r="U243" s="1" t="s">
-        <v>1072</v>
+        <v>1054</v>
       </c>
       <c r="V243">
         <v>0</v>
@@ -54502,12 +54032,12 @@
         <v>493</v>
       </c>
       <c r="Z243" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A243,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A243,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Judgment Eternal</v>
       </c>
       <c r="AA243" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A243,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q243, " using ", S243, " Journey Points", IF(ISBLANK(R243), ".", _xlfn.CONCAT(" and a ", R243, " Apricorn."))))</f>
-        <v>When attacking with a Normal-type move, add 3 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A243,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q243, " using ", S243, " Journey Points", IF(ISBLANK(R243), ".", _xlfn.CONCAT(" and a ", R243, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Normal-type move.</v>
       </c>
       <c r="AD243"/>
     </row>
@@ -54563,7 +54093,7 @@
         <v>964</v>
       </c>
       <c r="U244" s="1" t="s">
-        <v>1073</v>
+        <v>1055</v>
       </c>
       <c r="V244">
         <v>0</v>
@@ -54578,12 +54108,12 @@
         <v>493</v>
       </c>
       <c r="Z244" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A244,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A244,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Judgment Eternal</v>
       </c>
       <c r="AA244" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A244,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q244, " using ", S244, " Journey Points", IF(ISBLANK(R244), ".", _xlfn.CONCAT(" and a ", R244, " Apricorn."))))</f>
-        <v>When attacking with a Normal-type move, add 3 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A244,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q244, " using ", S244, " Journey Points", IF(ISBLANK(R244), ".", _xlfn.CONCAT(" and a ", R244, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Normal-type move.</v>
       </c>
       <c r="AD244"/>
     </row>
@@ -54639,7 +54169,7 @@
         <v>965</v>
       </c>
       <c r="U245" s="1" t="s">
-        <v>1070</v>
+        <v>1052</v>
       </c>
       <c r="V245">
         <v>0</v>
@@ -54654,12 +54184,12 @@
         <v>493</v>
       </c>
       <c r="Z245" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A245,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A245,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Judgment Eternal</v>
       </c>
       <c r="AA245" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A245,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q245, " using ", S245, " Journey Points", IF(ISBLANK(R245), ".", _xlfn.CONCAT(" and a ", R245, " Apricorn."))))</f>
-        <v>When attacking with a Normal-type move, add 3 bonus power.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A245,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q245, " using ", S245, " Journey Points", IF(ISBLANK(R245), ".", _xlfn.CONCAT(" and a ", R245, " Apricorn."))))</f>
+        <v>Add 2 bonus power whilst attacking with a Normal-type move.</v>
       </c>
       <c r="AD245"/>
     </row>
@@ -54729,12 +54259,12 @@
         <v>474</v>
       </c>
       <c r="Z246" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A246,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(A246,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Dubious Efficiency</v>
       </c>
       <c r="AA246" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A246,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", Q246, " using ", S246, " Journey Points", IF(ISBLANK(R246), ".", _xlfn.CONCAT(" and a ", R246, " Apricorn."))))</f>
-        <v>During combat resolution, may swap its stance as long as the result of the combat remains the same.</v>
+        <f>_xlfn.IFNA(VLOOKUP(A246,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", Q246, " using ", S246, " Journey Points", IF(ISBLANK(R246), ".", _xlfn.CONCAT(" and a ", R246, " Apricorn."))))</f>
+        <v>During combat resolution, may swap its attack token as long as the result of the combat remains the same.</v>
       </c>
       <c r="AD246"/>
     </row>
@@ -54811,11 +54341,11 @@
         <v>1</v>
       </c>
       <c r="Z247" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B247,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B247,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="AA247" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B247,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R247, " using ", T247, " Journey Points", IF(ISBLANK(S247), ".", _xlfn.CONCAT(" and a ", S247, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B247,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R247, " using ", T247, " Journey Points", IF(ISBLANK(S247), ".", _xlfn.CONCAT(" and a ", S247, " Apricorn."))))</f>
         <v>Evolves into Pelipper using 3 Journey Points.</v>
       </c>
       <c r="AD247"/>
@@ -54893,11 +54423,11 @@
         <v>2</v>
       </c>
       <c r="Z248" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B248,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B248,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="AA248" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B248,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R248, " using ", T248, " Journey Points", IF(ISBLANK(S248), ".", _xlfn.CONCAT(" and a ", S248, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B248,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R248, " using ", T248, " Journey Points", IF(ISBLANK(S248), ".", _xlfn.CONCAT(" and a ", S248, " Apricorn."))))</f>
         <v>Evolves into  using  Journey Points.</v>
       </c>
       <c r="AD248"/>
@@ -54975,11 +54505,11 @@
         <v>1</v>
       </c>
       <c r="Y249" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B249,abilities!$A$2:$C$107,2,0), "Evolution")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B249,abilities!$A$2:$C$121,2,0), "Evolution")</f>
         <v>Evolution</v>
       </c>
       <c r="Z249" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B249,abilities!$A$2:$C$108,3,0), _xlfn.CONCAT("Evolves into ", R249, " using ", T249, " Journey Points", IF(ISBLANK(S249), ".", _xlfn.CONCAT(" and a ", S249, " Apricorn."))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(B249,abilities!$A$2:$C$123,3,0), _xlfn.CONCAT("Evolves into ", R249, " using ", T249, " Journey Points", IF(ISBLANK(S249), ".", _xlfn.CONCAT(" and a ", S249, " Apricorn."))))</f>
         <v>Evolves into  using  Journey Points.</v>
       </c>
       <c r="AD249"/>

--- a/sinnoh_cube.xlsx
+++ b/sinnoh_cube.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lev\PycharmProjects\pokemon-legends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1DCA27-3A8F-4568-B4F0-6D6F5B1CA686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7343B5-ED77-489F-B695-F6673A956928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35325" yWindow="5595" windowWidth="21600" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sinnoh" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5409" uniqueCount="1362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5411" uniqueCount="1362">
   <si>
     <t>attack</t>
   </si>
@@ -5151,8 +5151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z224"/>
   <sheetViews>
-    <sheetView topLeftCell="G130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T200" sqref="T200"/>
+    <sheetView tabSelected="1" topLeftCell="G172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L211" sqref="L211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21094,6 +21094,9 @@
       <c r="D208" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="M208" s="3" t="s">
+        <v>1354</v>
+      </c>
       <c r="N208" s="1">
         <v>3</v>
       </c>
@@ -21128,6 +21131,9 @@
       <c r="C209" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="M209" s="3" t="s">
+        <v>1354</v>
+      </c>
       <c r="N209" s="1">
         <v>3</v>
       </c>
@@ -21165,6 +21171,9 @@
       <c r="D210" s="6" t="s">
         <v>77</v>
       </c>
+      <c r="M210" s="3" t="s">
+        <v>1354</v>
+      </c>
       <c r="N210" s="1">
         <v>3</v>
       </c>
@@ -21202,6 +21211,9 @@
       <c r="D211" s="6" t="s">
         <v>105</v>
       </c>
+      <c r="M211" s="3" t="s">
+        <v>1354</v>
+      </c>
       <c r="N211" s="1">
         <v>3</v>
       </c>
@@ -21239,6 +21251,9 @@
       <c r="D212" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="M212" s="3" t="s">
+        <v>1354</v>
+      </c>
       <c r="N212" s="1">
         <v>4</v>
       </c>
@@ -21275,6 +21290,9 @@
       <c r="D213" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="M213" s="3" t="s">
+        <v>1354</v>
+      </c>
       <c r="N213" s="1">
         <v>4</v>
       </c>
@@ -21312,6 +21330,9 @@
       <c r="D214" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="M214" s="3" t="s">
+        <v>1354</v>
+      </c>
       <c r="N214" s="1">
         <v>4</v>
       </c>
@@ -21349,6 +21370,9 @@
       <c r="D215" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="M215" s="3" t="s">
+        <v>1354</v>
+      </c>
       <c r="N215" s="1">
         <v>4</v>
       </c>
@@ -21386,11 +21410,8 @@
       <c r="D216" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L216" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="M216" s="1" t="s">
-        <v>752</v>
+      <c r="M216" s="3" t="s">
+        <v>1354</v>
       </c>
       <c r="N216" s="1">
         <v>6</v>
@@ -21429,11 +21450,8 @@
       <c r="D217" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L217" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="M217" s="1" t="s">
-        <v>752</v>
+      <c r="M217" s="3" t="s">
+        <v>1354</v>
       </c>
       <c r="N217" s="1">
         <v>8</v>
@@ -21468,11 +21486,8 @@
       <c r="C218" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L218" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="M218" s="1" t="s">
-        <v>753</v>
+      <c r="M218" s="3" t="s">
+        <v>1354</v>
       </c>
       <c r="N218" s="1">
         <v>6</v>
@@ -21511,11 +21526,8 @@
       <c r="D219" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L219" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="M219" s="1" t="s">
-        <v>753</v>
+      <c r="M219" s="3" t="s">
+        <v>1354</v>
       </c>
       <c r="N219" s="1">
         <v>8</v>
@@ -21553,11 +21565,8 @@
       <c r="D220" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L220" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="M220" s="1" t="s">
-        <v>755</v>
+      <c r="M220" s="3" t="s">
+        <v>1354</v>
       </c>
       <c r="N220" s="1">
         <v>6</v>
@@ -21596,11 +21605,8 @@
       <c r="D221" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L221" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="M221" s="1" t="s">
-        <v>755</v>
+      <c r="M221" s="3" t="s">
+        <v>1354</v>
       </c>
       <c r="N221" s="1">
         <v>8</v>
@@ -21928,8 +21934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41F625C-F9FA-42D6-A0B3-21764E3166C5}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView topLeftCell="A48" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sinnoh_cube.xlsx
+++ b/sinnoh_cube.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lev\PycharmProjects\pokemon-legends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70E3261-F020-4ADB-9018-C8B96539B131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7871ED87-C692-42FE-A3D9-FB68DEA87C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40770" yWindow="5415" windowWidth="21600" windowHeight="7200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40770" yWindow="5415" windowWidth="21600" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pokemon" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="728">
   <si>
     <t>hp</t>
   </si>
@@ -2023,9 +2023,6 @@
   </si>
   <si>
     <t>The user is forced to switch out.</t>
-  </si>
-  <si>
-    <t>When the user is next attacked, deal +2 damage.</t>
   </si>
   <si>
     <t>When the target is next attacked, add a regular hit to the roll.</t>
@@ -3393,8 +3390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF267"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K273" sqref="K273"/>
+    <sheetView tabSelected="1" topLeftCell="E189" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA217" sqref="AA217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3609,7 +3606,7 @@
         <v>Turtwig</v>
       </c>
       <c r="AA2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AB2" s="6">
         <v>1</v>
@@ -4207,7 +4204,7 @@
         <v>Piplup</v>
       </c>
       <c r="AA8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AB8" s="6">
         <v>1</v>
@@ -4306,7 +4303,7 @@
         <v>Prinplup</v>
       </c>
       <c r="AA9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AB9" s="6">
         <v>0</v>
@@ -6699,7 +6696,7 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AB33" s="6">
         <v>0</v>
@@ -6799,7 +6796,7 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AB34" s="6">
         <v>0</v>
@@ -10185,7 +10182,7 @@
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AB68" s="6">
         <v>0</v>
@@ -10789,7 +10786,7 @@
       </c>
       <c r="Z74" s="2"/>
       <c r="AA74" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AB74" s="6">
         <v>0</v>
@@ -12090,7 +12087,7 @@
       </c>
       <c r="Z87"/>
       <c r="AA87" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AB87" s="6">
         <v>0</v>
@@ -12596,7 +12593,7 @@
       </c>
       <c r="Z92" s="2"/>
       <c r="AA92" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AB92" s="6">
         <v>0</v>
@@ -14704,7 +14701,7 @@
       </c>
       <c r="Z113" s="2"/>
       <c r="AA113" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AB113" s="6">
         <v>0</v>
@@ -16890,7 +16887,7 @@
       </c>
       <c r="Z135" s="2"/>
       <c r="AA135" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AB135" s="6">
         <v>0</v>
@@ -19132,7 +19129,7 @@
       </c>
       <c r="Z158"/>
       <c r="AA158" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AB158" s="6">
         <v>0</v>
@@ -21565,7 +21562,7 @@
       </c>
       <c r="Z182"/>
       <c r="AA182" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AB182" s="6">
         <v>0</v>
@@ -23579,7 +23576,7 @@
       </c>
       <c r="Z202"/>
       <c r="AA202" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AB202" s="6">
         <v>0</v>
@@ -25472,7 +25469,7 @@
       </c>
       <c r="Z221"/>
       <c r="AA221" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AB221" s="6">
         <v>0</v>
@@ -25896,7 +25893,7 @@
         <v>163</v>
       </c>
       <c r="B226" s="43" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C226" s="43" t="s">
         <v>8</v>
@@ -25923,7 +25920,7 @@
         <v>50</v>
       </c>
       <c r="K226" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L226" s="45" t="s">
         <v>298</v>
@@ -25999,7 +25996,7 @@
         <v>164</v>
       </c>
       <c r="B227" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C227" s="43" t="s">
         <v>8</v>
@@ -26026,7 +26023,7 @@
         <v>70</v>
       </c>
       <c r="K227" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L227" s="45" t="s">
         <v>298</v>
@@ -26099,7 +26096,7 @@
         <v>278</v>
       </c>
       <c r="B228" s="43" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C228" s="43" t="s">
         <v>6</v>
@@ -26126,7 +26123,7 @@
         <v>85</v>
       </c>
       <c r="K228" s="43" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L228" s="45" t="s">
         <v>303</v>
@@ -26181,7 +26178,7 @@
         <v>Wingull</v>
       </c>
       <c r="AA228" s="43" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AB228" s="46">
         <v>0</v>
@@ -26202,7 +26199,7 @@
         <v>279</v>
       </c>
       <c r="B229" s="43" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C229" s="43" t="s">
         <v>6</v>
@@ -26229,7 +26226,7 @@
         <v>65</v>
       </c>
       <c r="K229" s="43" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L229" s="45" t="s">
         <v>303</v>
@@ -26281,7 +26278,7 @@
         <v>Pelipper</v>
       </c>
       <c r="AA229" s="43" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AB229" s="46">
         <v>0</v>
@@ -26302,7 +26299,7 @@
         <v>203</v>
       </c>
       <c r="B230" s="43" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C230" s="43" t="s">
         <v>8</v>
@@ -26329,7 +26326,7 @@
         <v>85</v>
       </c>
       <c r="K230" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L230" s="45" t="s">
         <v>301</v>
@@ -26402,7 +26399,7 @@
         <v>72</v>
       </c>
       <c r="B231" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C231" s="43" t="s">
         <v>6</v>
@@ -26429,7 +26426,7 @@
         <v>70</v>
       </c>
       <c r="K231" s="43" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L231" s="45" t="s">
         <v>303</v>
@@ -26505,7 +26502,7 @@
         <v>73</v>
       </c>
       <c r="B232" s="43" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C232" s="43" t="s">
         <v>6</v>
@@ -26532,7 +26529,7 @@
         <v>100</v>
       </c>
       <c r="K232" s="43" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L232" s="45" t="s">
         <v>303</v>
@@ -26584,7 +26581,7 @@
         <v>Tentacruel</v>
       </c>
       <c r="AA232" s="43" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AB232" s="46">
         <v>0</v>
@@ -26605,7 +26602,7 @@
         <v>339</v>
       </c>
       <c r="B233" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C233" s="43" t="s">
         <v>6</v>
@@ -26632,7 +26629,7 @@
         <v>60</v>
       </c>
       <c r="K233" s="43" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="L233" s="45" t="s">
         <v>303</v>
@@ -26687,7 +26684,7 @@
         <v>Barboach</v>
       </c>
       <c r="AA233" s="43" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AB233" s="46">
         <v>0</v>
@@ -26708,7 +26705,7 @@
         <v>340</v>
       </c>
       <c r="B234" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C234" s="43" t="s">
         <v>6</v>
@@ -26735,7 +26732,7 @@
         <v>60</v>
       </c>
       <c r="K234" s="43" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="L234" s="45" t="s">
         <v>303</v>
@@ -26808,7 +26805,7 @@
         <v>54</v>
       </c>
       <c r="B235" s="43" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C235" s="43" t="s">
         <v>6</v>
@@ -26832,7 +26829,7 @@
         <v>55</v>
       </c>
       <c r="K235" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L235" s="45" t="s">
         <v>301</v>
@@ -26907,7 +26904,7 @@
         <v>55</v>
       </c>
       <c r="B236" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C236" s="43" t="s">
         <v>6</v>
@@ -26931,7 +26928,7 @@
         <v>85</v>
       </c>
       <c r="K236" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L236" s="45" t="s">
         <v>301</v>
@@ -27003,7 +27000,7 @@
         <v>118</v>
       </c>
       <c r="B237" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C237" s="43" t="s">
         <v>6</v>
@@ -27027,7 +27024,7 @@
         <v>63</v>
       </c>
       <c r="K237" s="43" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L237" s="45" t="s">
         <v>303</v>
@@ -27102,7 +27099,7 @@
         <v>119</v>
       </c>
       <c r="B238" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C238" s="43" t="s">
         <v>6</v>
@@ -27126,7 +27123,7 @@
         <v>68</v>
       </c>
       <c r="K238" s="43" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L238" s="45" t="s">
         <v>303</v>
@@ -28496,7 +28493,7 @@
         <v>95</v>
       </c>
       <c r="K253" s="30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M253" s="2" t="s">
         <v>574</v>
@@ -29208,7 +29205,7 @@
         <v>115</v>
       </c>
       <c r="K261" s="26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M261" s="2" t="s">
         <v>574</v>
@@ -29665,7 +29662,7 @@
         <v>90</v>
       </c>
       <c r="K266" s="36" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M266" s="2" t="s">
         <v>574</v>
@@ -29753,7 +29750,7 @@
         <v>120</v>
       </c>
       <c r="K267" s="36" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M267" s="2" t="s">
         <v>574</v>
@@ -29858,8 +29855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41F625C-F9FA-42D6-A0B3-21764E3166C5}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29919,7 +29916,7 @@
         <v>?</v>
       </c>
       <c r="E2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F2">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A2)</f>
@@ -29953,7 +29950,7 @@
         <v>?</v>
       </c>
       <c r="E3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F3">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A3)</f>
@@ -30089,7 +30086,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F7">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A7)</f>
@@ -30123,7 +30120,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F8">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A8)</f>
@@ -30191,7 +30188,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F10">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A10)</f>
@@ -30259,7 +30256,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F12">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A12)</f>
@@ -30327,7 +30324,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F14">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A14)</f>
@@ -30429,7 +30426,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F17">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A17)</f>
@@ -30463,7 +30460,7 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F18">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A18)</f>
@@ -30497,7 +30494,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F19">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A19)</f>
@@ -30565,7 +30562,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F21">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A21)</f>
@@ -30599,7 +30596,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F22">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A22)</f>
@@ -30654,7 +30651,7 @@
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B24" s="49" t="s">
         <v>8</v>
@@ -30667,7 +30664,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F24" s="43">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A24)</f>
@@ -30926,17 +30923,17 @@
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="45">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D32" s="44">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="43" t="s">
         <v>654</v>
@@ -30994,7 +30991,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>6</v>
@@ -31007,7 +31004,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F34">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A34)</f>
@@ -31041,7 +31038,7 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F35">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A35)</f>
@@ -31109,7 +31106,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F37">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A37)</f>
@@ -31198,7 +31195,7 @@
     </row>
     <row r="40" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>11</v>
@@ -31211,7 +31208,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F40" s="43">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A40)</f>
@@ -31436,7 +31433,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>2</v>
@@ -31483,7 +31480,7 @@
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F48">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A48)</f>
@@ -31517,7 +31514,7 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F49">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A49)</f>
@@ -31585,7 +31582,7 @@
         <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F51">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A51)</f>
@@ -31606,7 +31603,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>2</v>
@@ -31619,7 +31616,7 @@
         <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F52">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A52)</f>
@@ -31653,7 +31650,7 @@
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F53">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A53)</f>
@@ -31742,7 +31739,7 @@
     </row>
     <row r="56" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="43" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B56" s="47" t="s">
         <v>14</v>
@@ -31755,7 +31752,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F56" s="43">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A56)</f>
@@ -31776,7 +31773,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>14</v>
@@ -31925,7 +31922,7 @@
         <v>6</v>
       </c>
       <c r="E61" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F61">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A61)</f>
@@ -31959,7 +31956,7 @@
         <v>6</v>
       </c>
       <c r="E62" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F62">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A62)</f>
@@ -32060,8 +32057,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E65" t="s">
-        <v>656</v>
+      <c r="E65" s="43" t="s">
+        <v>658</v>
       </c>
       <c r="F65">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A65)</f>
@@ -32231,7 +32228,7 @@
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F70">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A70)</f>
@@ -32252,7 +32249,7 @@
     </row>
     <row r="71" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="43" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B71" s="48" t="s">
         <v>3</v>
@@ -32333,7 +32330,7 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F73">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A73)</f>
@@ -32367,7 +32364,7 @@
         <v>3</v>
       </c>
       <c r="E74" s="43" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F74">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A74)</f>
@@ -32401,7 +32398,7 @@
         <v>5</v>
       </c>
       <c r="E75" s="43" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F75">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A75)</f>
@@ -32469,7 +32466,7 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F77">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A77)</f>
@@ -32673,7 +32670,7 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F83">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A83)</f>
@@ -32741,7 +32738,7 @@
         <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F85">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A85)</f>
@@ -32775,7 +32772,7 @@
         <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F86">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A86)</f>
@@ -32877,7 +32874,7 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F89">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A89)</f>
@@ -32932,7 +32929,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B91" s="17" t="s">
         <v>7</v>
@@ -32945,7 +32942,7 @@
         <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F91">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A91)</f>
@@ -32979,7 +32976,7 @@
         <v>6</v>
       </c>
       <c r="E92" s="43" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F92">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A92)</f>
@@ -33047,7 +33044,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F94">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A94)</f>
@@ -33081,7 +33078,7 @@
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F95">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A95)</f>
@@ -33183,7 +33180,7 @@
         <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F98">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A98)</f>
@@ -33285,7 +33282,7 @@
         <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F101">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A101)</f>
@@ -33319,7 +33316,7 @@
         <v>5</v>
       </c>
       <c r="E102" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F102">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A102)</f>
@@ -33591,7 +33588,7 @@
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F110">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A110)</f>
@@ -33659,7 +33656,7 @@
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F112">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A112)</f>
@@ -33714,7 +33711,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B114" s="21" t="s">
         <v>9</v>
@@ -33727,7 +33724,7 @@
         <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F114">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A114)</f>
@@ -33795,7 +33792,7 @@
         <v>4</v>
       </c>
       <c r="E116" s="43" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F116">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A116)</f>
@@ -33850,7 +33847,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B118" s="22" t="s">
         <v>39</v>
@@ -33897,7 +33894,7 @@
         <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F119">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A119)</f>
@@ -33931,7 +33928,7 @@
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F120">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A120)</f>
@@ -33965,7 +33962,7 @@
         <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F121">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A121)</f>
@@ -33999,7 +33996,7 @@
         <v>6</v>
       </c>
       <c r="E122" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F122">
         <f>COUNTIF(pokemon!$AA$2:$AA$241, A122)</f>
@@ -34090,13 +34087,13 @@
       <c r="A1" s="43"/>
       <c r="B1" s="43"/>
       <c r="C1" s="43" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1" s="43" t="s">
         <v>690</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>691</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>692</v>
       </c>
       <c r="F1" t="s">
         <v>582</v>
@@ -34413,13 +34410,13 @@
     </row>
     <row r="16" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D16" s="43" t="s">
+        <v>718</v>
+      </c>
+      <c r="E16" s="43" t="s">
         <v>719</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="F16" s="43" t="s">
         <v>720</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">

--- a/sinnoh_cube.xlsx
+++ b/sinnoh_cube.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lev\PycharmProjects\pokemon-legends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5145D014-0E0A-4DE0-B333-35CF1EFB4000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA344B8-C3A6-42A9-8A6D-96D7BD534AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="7770" windowWidth="21600" windowHeight="7200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="7770" windowWidth="21600" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pokemon" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3623" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3624" uniqueCount="942">
   <si>
     <t>hp</t>
   </si>
@@ -2376,9 +2376,6 @@
     <t>Seismic Toss</t>
   </si>
   <si>
-    <t>Attack strength is equal to half the base health of the target, rounded down.</t>
-  </si>
-  <si>
     <t>Vital Throw</t>
   </si>
   <si>
@@ -2490,9 +2487,6 @@
     <t>When the target is next attacked, add a critical hit to the roll.</t>
   </si>
   <si>
-    <t>Darkrix</t>
-  </si>
-  <si>
     <t>Decidueye</t>
   </si>
   <si>
@@ -2580,9 +2574,6 @@
     <t>Parasect</t>
   </si>
   <si>
-    <t>Quilfish</t>
-  </si>
-  <si>
     <t>Barb Barrage</t>
   </si>
   <si>
@@ -2643,12 +2634,6 @@
     <t>Critical hits deal +1 damage but for each critical hit rolled: The user takes 3 damage.</t>
   </si>
   <si>
-    <t>Attack strength is equal to half the current initiative of the user, rounded down.</t>
-  </si>
-  <si>
-    <t>Attack strength is equal to half the base health of the user, rounded down.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deals 4 extra damage to Flying-type Pokémon. For each status symbol rolled: The user takes 2 damage. </t>
   </si>
   <si>
@@ -2682,9 +2667,6 @@
     <t>If the target has a status effect, attack strength is increased to 6.</t>
   </si>
   <si>
-    <t>If the target has higher initiative than the user, attack strength is increased to 6.</t>
-  </si>
-  <si>
     <t>Inflict the Burned status on the target. If the target is already Burned, attack strength is increased to 3.</t>
   </si>
   <si>
@@ -2868,9 +2850,6 @@
     <t>When the user and target are next attacked, remove a critical hit to the roll.</t>
   </si>
   <si>
-    <t>Attack strength is equal to half the current initiative of the target, rounded down.</t>
-  </si>
-  <si>
     <t>Deals 1 extra damage for each Prism Armour token that remains attached to the Ultra Burst.</t>
   </si>
   <si>
@@ -2884,6 +2863,24 @@
   </si>
   <si>
     <t>Until the user or target switches out, it skips its turn if it does not use its signature move.</t>
+  </si>
+  <si>
+    <t>Qwilfish</t>
+  </si>
+  <si>
+    <t>Attack strength is equal to half the base health of the target, rounded down. Maximum 6 attack strength.</t>
+  </si>
+  <si>
+    <t>Attack strength is equal to half the base health of the user, rounded down. Maximum 6 attack strength.</t>
+  </si>
+  <si>
+    <t>Attack strength is equal to half the current initiative of the target, rounded down. Maximum 6 attack strength.</t>
+  </si>
+  <si>
+    <t>Attack strength is equal to half the current initiative of the user, rounded down. Maximum 6 attack strength.</t>
+  </si>
+  <si>
+    <t>Dartrix</t>
   </si>
 </sst>
 </file>
@@ -4000,8 +3997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI332"/>
   <sheetViews>
-    <sheetView topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R290" sqref="R290"/>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M276" sqref="M276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4086,10 +4083,10 @@
         <v>617</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="R1" s="24" t="s">
         <v>572</v>
@@ -4143,7 +4140,7 @@
         <v>461</v>
       </c>
       <c r="AI1" s="22" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -4451,7 +4448,7 @@
         <v>Torterra</v>
       </c>
       <c r="AC4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AD4" s="6">
         <v>0</v>
@@ -4671,7 +4668,7 @@
         <v>Monferno</v>
       </c>
       <c r="AC6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AD6" s="6">
         <v>0</v>
@@ -4779,7 +4776,7 @@
         <v>Infernape</v>
       </c>
       <c r="AC7" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="AD7" s="6">
         <v>0</v>
@@ -5102,7 +5099,7 @@
         <v>Empoleon</v>
       </c>
       <c r="AC10" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="AD10" s="6">
         <v>0</v>
@@ -6408,7 +6405,7 @@
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AD22" s="6">
         <v>0</v>
@@ -8360,7 +8357,7 @@
         <v>318</v>
       </c>
       <c r="AC40" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AD40" s="6">
         <v>0</v>
@@ -15996,7 +15993,7 @@
       </c>
       <c r="AB110" s="2"/>
       <c r="AC110" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AD110" s="6">
         <v>0</v>
@@ -16435,7 +16432,7 @@
       </c>
       <c r="AB114" s="2"/>
       <c r="AC114" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AD114" s="6">
         <v>0</v>
@@ -22377,7 +22374,7 @@
       </c>
       <c r="AB169"/>
       <c r="AC169" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AD169" s="6">
         <v>0</v>
@@ -24577,7 +24574,7 @@
       </c>
       <c r="AB189"/>
       <c r="AC189" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AD189" s="6">
         <v>0</v>
@@ -27742,7 +27739,7 @@
       </c>
       <c r="AB218"/>
       <c r="AC218" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AD218" s="6">
         <v>0</v>
@@ -32005,7 +32002,7 @@
         <v>137</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>8</v>
@@ -32089,7 +32086,7 @@
       </c>
       <c r="AB258" s="10"/>
       <c r="AC258" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AD258" s="11">
         <v>1</v>
@@ -32113,7 +32110,7 @@
         <v>233</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>8</v>
@@ -32197,7 +32194,7 @@
       </c>
       <c r="AB259" s="10"/>
       <c r="AC259" s="8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AD259" s="11">
         <v>0</v>
@@ -32326,7 +32323,7 @@
         <v>46</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>7</v>
@@ -32353,7 +32350,7 @@
         <v>25</v>
       </c>
       <c r="K261" s="9" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="L261" s="9" t="s">
         <v>298</v>
@@ -32415,7 +32412,7 @@
       </c>
       <c r="AB261" s="10"/>
       <c r="AC261" s="8" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="AD261" s="11">
         <v>0</v>
@@ -32439,7 +32436,7 @@
         <v>47</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>7</v>
@@ -32466,7 +32463,7 @@
         <v>30</v>
       </c>
       <c r="K262" s="9" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="L262" s="9" t="s">
         <v>298</v>
@@ -32549,7 +32546,7 @@
         <v>704</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>67</v>
@@ -32574,7 +32571,7 @@
         <v>40</v>
       </c>
       <c r="K263" s="9" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="L263" s="9" t="s">
         <v>298</v>
@@ -32635,7 +32632,7 @@
       </c>
       <c r="AB263" s="10"/>
       <c r="AC263" s="8" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="AD263" s="11">
         <v>0</v>
@@ -32659,7 +32656,7 @@
         <v>705</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>67</v>
@@ -32684,7 +32681,7 @@
         <v>60</v>
       </c>
       <c r="K264" s="9" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="L264" s="9" t="s">
         <v>298</v>
@@ -32769,7 +32766,7 @@
         <v>706</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>67</v>
@@ -32852,7 +32849,7 @@
       </c>
       <c r="AB265" s="10"/>
       <c r="AC265" s="8" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="AD265" s="11">
         <v>0</v>
@@ -32876,7 +32873,7 @@
         <v>548</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>2</v>
@@ -32901,7 +32898,7 @@
         <v>30</v>
       </c>
       <c r="K266" s="9" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="L266" s="9" t="s">
         <v>298</v>
@@ -32962,7 +32959,7 @@
       </c>
       <c r="AB266" s="10"/>
       <c r="AC266" s="8" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="AD266" s="11">
         <v>0</v>
@@ -32986,7 +32983,7 @@
         <v>549</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>2</v>
@@ -33011,7 +33008,7 @@
         <v>90</v>
       </c>
       <c r="K267" s="9" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="L267" s="9" t="s">
         <v>298</v>
@@ -33093,7 +33090,7 @@
         <v>211</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>841</v>
+        <v>936</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>6</v>
@@ -33175,11 +33172,11 @@
       </c>
       <c r="AA268" s="8" t="str">
         <f t="shared" si="38"/>
-        <v>Quilfish</v>
+        <v>Qwilfish</v>
       </c>
       <c r="AB268" s="10"/>
       <c r="AC268" s="8" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="AD268" s="11">
         <v>0</v>
@@ -33203,7 +33200,7 @@
         <v>607</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>42</v>
@@ -33230,7 +33227,7 @@
         <v>20</v>
       </c>
       <c r="K269" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L269" s="9" t="s">
         <v>298</v>
@@ -33292,7 +33289,7 @@
       </c>
       <c r="AB269" s="10"/>
       <c r="AC269" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AD269" s="11">
         <v>1</v>
@@ -33316,7 +33313,7 @@
         <v>608</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>42</v>
@@ -33343,7 +33340,7 @@
         <v>55</v>
       </c>
       <c r="K270" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L270" s="9" t="s">
         <v>298</v>
@@ -33429,7 +33426,7 @@
         <v>609</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>42</v>
@@ -33456,7 +33453,7 @@
         <v>80</v>
       </c>
       <c r="K271" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L271" s="9" t="s">
         <v>298</v>
@@ -33515,7 +33512,7 @@
       </c>
       <c r="AB271" s="10"/>
       <c r="AC271" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AD271" s="11">
         <v>0</v>
@@ -33539,7 +33536,7 @@
         <v>722</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>2</v>
@@ -33566,7 +33563,7 @@
         <v>42</v>
       </c>
       <c r="K272" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L272" s="9" t="s">
         <v>298</v>
@@ -33614,10 +33611,13 @@
       <c r="X272" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Y272" s="9"/>
-      <c r="Z272" s="12" t="str">
+      <c r="Y272" s="9" t="str">
+        <f t="shared" ref="Y271:Y273" si="59">B273</f>
+        <v>Dartrix</v>
+      </c>
+      <c r="Z272" s="12">
         <f t="shared" si="54"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="AA272" s="8" t="str">
         <f t="shared" si="38"/>
@@ -33625,7 +33625,7 @@
       </c>
       <c r="AB272" s="10"/>
       <c r="AC272" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AD272" s="11">
         <v>1</v>
@@ -33649,7 +33649,7 @@
         <v>723</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>811</v>
+        <v>941</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>2</v>
@@ -33676,7 +33676,7 @@
         <v>52</v>
       </c>
       <c r="K273" s="9" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="L273" s="9" t="s">
         <v>298</v>
@@ -33685,11 +33685,11 @@
         <v>300</v>
       </c>
       <c r="N273" s="9">
-        <f t="shared" ref="N273:N274" si="59">(0.4*J273 + 0.5*MAX(F273,H273) + 0.1*MIN(F273,H273)) / 10</f>
+        <f t="shared" ref="N273:N274" si="60">(0.4*J273 + 0.5*MAX(F273,H273) + 0.1*MIN(F273,H273)) / 10</f>
         <v>6.5299999999999994</v>
       </c>
       <c r="O273" s="9">
-        <f t="shared" ref="O273:O274" si="60">(0.4*E273 + 0.3*G273 + 0.3*I273) / 10</f>
+        <f t="shared" ref="O273:O274" si="61">(0.4*E273 + 0.3*G273 + 0.3*I273) / 10</f>
         <v>7.4700000000000006</v>
       </c>
       <c r="P273" s="9">
@@ -33707,7 +33707,7 @@
         <v>7</v>
       </c>
       <c r="T273" s="12">
-        <f t="shared" ref="T273:T274" si="61">SUM(ROUND(R273,0),ROUND(S273,0))</f>
+        <f t="shared" ref="T273:T274" si="62">SUM(ROUND(R273,0),ROUND(S273,0))</f>
         <v>14</v>
       </c>
       <c r="U273" s="9" t="str">
@@ -33724,18 +33724,21 @@
       <c r="X273" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Y273" s="9"/>
-      <c r="Z273" s="12" t="str">
+      <c r="Y273" s="9" t="str">
+        <f t="shared" si="59"/>
+        <v>Decidueye</v>
+      </c>
+      <c r="Z273" s="12">
         <f t="shared" si="54"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="AA273" s="8" t="str">
         <f t="shared" si="38"/>
-        <v>Darkrix</v>
+        <v>Dartrix</v>
       </c>
       <c r="AB273" s="10"/>
       <c r="AC273" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AD273" s="11">
         <v>0</v>
@@ -33759,7 +33762,7 @@
         <v>724</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>2</v>
@@ -33786,7 +33789,7 @@
         <v>70</v>
       </c>
       <c r="K274" s="9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L274" s="9" t="s">
         <v>298</v>
@@ -33795,11 +33798,11 @@
         <v>300</v>
       </c>
       <c r="N274" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>9.15</v>
       </c>
       <c r="O274" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>8.370000000000001</v>
       </c>
       <c r="P274" s="9">
@@ -33817,7 +33820,7 @@
         <v>9</v>
       </c>
       <c r="T274" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>18</v>
       </c>
       <c r="U274" s="9" t="str">
@@ -33845,7 +33848,7 @@
       </c>
       <c r="AB274" s="10"/>
       <c r="AC274" s="8" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AD274" s="11">
         <v>0</v>
@@ -33869,7 +33872,7 @@
         <v>155</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>4</v>
@@ -33894,7 +33897,7 @@
         <v>65</v>
       </c>
       <c r="K275" s="9" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="L275" s="9" t="s">
         <v>304</v>
@@ -33955,7 +33958,7 @@
       </c>
       <c r="AB275" s="10"/>
       <c r="AC275" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AD275" s="11">
         <v>1</v>
@@ -33979,7 +33982,7 @@
         <v>156</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>4</v>
@@ -34004,7 +34007,7 @@
         <v>80</v>
       </c>
       <c r="K276" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="L276" s="9" t="s">
         <v>304</v>
@@ -34065,7 +34068,7 @@
       </c>
       <c r="AB276" s="10"/>
       <c r="AC276" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AD276" s="11">
         <v>0</v>
@@ -34089,7 +34092,7 @@
         <v>157</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>4</v>
@@ -34114,7 +34117,7 @@
         <v>100</v>
       </c>
       <c r="K277" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="L277" s="9" t="s">
         <v>304</v>
@@ -34123,11 +34126,11 @@
         <v>302</v>
       </c>
       <c r="N277" s="9">
-        <f t="shared" ref="N277:N285" si="62">(0.4*J277 + 0.5*MAX(F277,H277) + 0.1*MIN(F277,H277)) / 10</f>
+        <f t="shared" ref="N277:N285" si="63">(0.4*J277 + 0.5*MAX(F277,H277) + 0.1*MIN(F277,H277)) / 10</f>
         <v>10.290000000000001</v>
       </c>
       <c r="O277" s="9">
-        <f t="shared" ref="O277:O285" si="63">(0.4*E277 + 0.3*G277 + 0.3*I277) / 10</f>
+        <f t="shared" ref="O277:O285" si="64">(0.4*E277 + 0.3*G277 + 0.3*I277) / 10</f>
         <v>8.01</v>
       </c>
       <c r="P277" s="9">
@@ -34145,7 +34148,7 @@
         <v>8</v>
       </c>
       <c r="T277" s="12">
-        <f t="shared" ref="T277:T285" si="64">SUM(ROUND(R277,0),ROUND(S277,0))</f>
+        <f t="shared" ref="T277:T285" si="65">SUM(ROUND(R277,0),ROUND(S277,0))</f>
         <v>18</v>
       </c>
       <c r="U277" s="9" t="str">
@@ -34172,7 +34175,7 @@
       </c>
       <c r="AB277" s="10"/>
       <c r="AC277" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AD277" s="11">
         <v>0</v>
@@ -34196,7 +34199,7 @@
         <v>501</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>6</v>
@@ -34221,7 +34224,7 @@
         <v>45</v>
       </c>
       <c r="K278" s="9" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="L278" s="9" t="s">
         <v>303</v>
@@ -34230,11 +34233,11 @@
         <v>299</v>
       </c>
       <c r="N278" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>5.5</v>
       </c>
       <c r="O278" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="P278" s="9">
@@ -34252,7 +34255,7 @@
         <v>5</v>
       </c>
       <c r="T278" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="U278" s="9" t="str">
@@ -34306,7 +34309,7 @@
         <v>502</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>6</v>
@@ -34331,7 +34334,7 @@
         <v>60</v>
       </c>
       <c r="K279" s="9" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="L279" s="9" t="s">
         <v>303</v>
@@ -34340,11 +34343,11 @@
         <v>299</v>
       </c>
       <c r="N279" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>7.3</v>
       </c>
       <c r="O279" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>6.6</v>
       </c>
       <c r="P279" s="9">
@@ -34362,7 +34365,7 @@
         <v>7</v>
       </c>
       <c r="T279" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>14</v>
       </c>
       <c r="U279" s="9" t="str">
@@ -34392,7 +34395,7 @@
       </c>
       <c r="AB279" s="10"/>
       <c r="AC279" s="8" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AD279" s="11">
         <v>0</v>
@@ -34416,7 +34419,7 @@
         <v>503</v>
       </c>
       <c r="B280" s="25" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C280" s="47" t="s">
         <v>6</v>
@@ -34441,7 +34444,7 @@
         <v>85</v>
       </c>
       <c r="K280" s="29" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="L280" s="29" t="s">
         <v>303</v>
@@ -34450,11 +34453,11 @@
         <v>299</v>
       </c>
       <c r="N280" s="29">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="O280" s="29">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>7.95</v>
       </c>
       <c r="P280" s="29">
@@ -34472,7 +34475,7 @@
         <v>8</v>
       </c>
       <c r="T280" s="48">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>18</v>
       </c>
       <c r="U280" s="29" t="str">
@@ -34524,7 +34527,7 @@
         <v>803</v>
       </c>
       <c r="B281" s="25" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="C281" s="47" t="s">
         <v>3</v>
@@ -34549,18 +34552,18 @@
         <v>73</v>
       </c>
       <c r="K281" s="25" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="L281" s="29"/>
       <c r="M281" s="25" t="s">
         <v>565</v>
       </c>
       <c r="N281" s="25">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>7.3</v>
       </c>
       <c r="O281" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>6.7</v>
       </c>
       <c r="P281" s="25">
@@ -34578,7 +34581,7 @@
         <v>7</v>
       </c>
       <c r="T281" s="48">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>14</v>
       </c>
       <c r="U281" s="25" t="str">
@@ -34595,7 +34598,7 @@
         <v>5</v>
       </c>
       <c r="Y281" s="9" t="str">
-        <f t="shared" ref="Y281" si="65">B282</f>
+        <f t="shared" ref="Y281" si="66">B282</f>
         <v>Naganadel</v>
       </c>
       <c r="Z281" s="12">
@@ -34633,7 +34636,7 @@
         <v>804</v>
       </c>
       <c r="B282" s="25" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C282" s="47" t="s">
         <v>3</v>
@@ -34660,18 +34663,18 @@
         <v>121</v>
       </c>
       <c r="K282" s="25" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="L282" s="29"/>
       <c r="M282" s="25" t="s">
         <v>565</v>
       </c>
       <c r="N282" s="25">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>11.92</v>
       </c>
       <c r="O282" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>7.3</v>
       </c>
       <c r="P282" s="25">
@@ -34689,7 +34692,7 @@
         <v>7</v>
       </c>
       <c r="T282" s="48">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>19</v>
       </c>
       <c r="U282" s="25" t="str">
@@ -34717,7 +34720,7 @@
       </c>
       <c r="AB282" s="25"/>
       <c r="AC282" s="27" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="AD282" s="27">
         <v>0</v>
@@ -34778,11 +34781,11 @@
         <v>299</v>
       </c>
       <c r="N283" s="29">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="O283" s="29">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>10.8</v>
       </c>
       <c r="P283" s="29">
@@ -34792,15 +34795,15 @@
         <v>0</v>
       </c>
       <c r="R283" s="48">
-        <f t="shared" ref="R283:R285" si="66">ROUND(N283,0)+P283</f>
+        <f t="shared" ref="R283:R285" si="67">ROUND(N283,0)+P283</f>
         <v>8</v>
       </c>
       <c r="S283" s="48">
-        <f t="shared" ref="S283:S285" si="67">ROUND(O283,0)+Q283</f>
+        <f t="shared" ref="S283:S285" si="68">ROUND(O283,0)+Q283</f>
         <v>11</v>
       </c>
       <c r="T283" s="48">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>19</v>
       </c>
       <c r="U283" s="29" t="str">
@@ -34819,7 +34822,7 @@
       </c>
       <c r="Y283" s="29"/>
       <c r="Z283" s="48" t="str">
-        <f t="shared" ref="Z283:Z285" si="68">IF(ISBLANK(Y283), "", ROUND(( (T284-6)*(T284-7) - (T283-6)*(T283-7) )/15, 0) + 1)</f>
+        <f t="shared" ref="Z283:Z285" si="69">IF(ISBLANK(Y283), "", ROUND(( (T284-6)*(T284-7) - (T283-6)*(T283-7) )/15, 0) + 1)</f>
         <v/>
       </c>
       <c r="AA283" s="26" t="str">
@@ -34827,7 +34830,7 @@
         <v>Uxie</v>
       </c>
       <c r="AB283" s="29" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="AC283" s="26" t="s">
         <v>474</v>
@@ -34891,13 +34894,13 @@
         <v>300</v>
       </c>
       <c r="N284" s="29">
-        <f t="shared" si="62"/>
-        <v>9.5</v>
-      </c>
-      <c r="O284" s="29">
         <f t="shared" si="63"/>
         <v>9.5</v>
       </c>
+      <c r="O284" s="29">
+        <f t="shared" si="64"/>
+        <v>9.5</v>
+      </c>
       <c r="P284" s="29">
         <v>0</v>
       </c>
@@ -34905,15 +34908,15 @@
         <v>-1</v>
       </c>
       <c r="R284" s="48">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>10</v>
       </c>
       <c r="S284" s="48">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>9</v>
       </c>
       <c r="T284" s="48">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>19</v>
       </c>
       <c r="U284" s="29" t="str">
@@ -34921,7 +34924,7 @@
         <v>psychic</v>
       </c>
       <c r="V284" s="9" t="str">
-        <f t="shared" ref="V284:V285" si="69">IF(D284 = 0, "", D284)</f>
+        <f t="shared" ref="V284:V285" si="70">IF(D284 = 0, "", D284)</f>
         <v>electric</v>
       </c>
       <c r="W284" s="25" t="s">
@@ -34932,7 +34935,7 @@
       </c>
       <c r="Y284" s="29"/>
       <c r="Z284" s="48" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AA284" s="26" t="str">
@@ -34940,7 +34943,7 @@
         <v>Mesprit</v>
       </c>
       <c r="AB284" s="29" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="AC284" s="26" t="s">
         <v>589</v>
@@ -35004,11 +35007,11 @@
         <v>302</v>
       </c>
       <c r="N285" s="29">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>12.1</v>
       </c>
       <c r="O285" s="29">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>7.2</v>
       </c>
       <c r="P285" s="29">
@@ -35018,15 +35021,15 @@
         <v>0</v>
       </c>
       <c r="R285" s="48">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>12</v>
       </c>
       <c r="S285" s="48">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>7</v>
       </c>
       <c r="T285" s="48">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>19</v>
       </c>
       <c r="U285" s="29" t="str">
@@ -35034,7 +35037,7 @@
         <v>psychic</v>
       </c>
       <c r="V285" s="9" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>fire</v>
       </c>
       <c r="W285" s="25" t="s">
@@ -35045,7 +35048,7 @@
       </c>
       <c r="Y285" s="29"/>
       <c r="Z285" s="48" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AA285" s="26" t="str">
@@ -35053,7 +35056,7 @@
         <v>Azelf</v>
       </c>
       <c r="AB285" s="29" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="AC285" s="26" t="s">
         <v>475</v>
@@ -35081,7 +35084,7 @@
         <v>773</v>
       </c>
       <c r="B286" s="25" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C286" s="47" t="s">
         <v>564</v>
@@ -35106,7 +35109,7 @@
         <v>95</v>
       </c>
       <c r="K286" s="25" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="L286" s="25" t="s">
         <v>313</v>
@@ -35115,11 +35118,11 @@
         <v>565</v>
       </c>
       <c r="N286" s="25">
-        <f t="shared" ref="N286" si="70">(0.4*J286 + 0.5*MAX(F286,H286) + 0.1*MIN(F286,H286)) / 10</f>
+        <f t="shared" ref="N286" si="71">(0.4*J286 + 0.5*MAX(F286,H286) + 0.1*MIN(F286,H286)) / 10</f>
         <v>9.5</v>
       </c>
       <c r="O286" s="25">
-        <f t="shared" ref="O286" si="71">(0.4*E286 + 0.3*G286 + 0.3*I286) / 10</f>
+        <f t="shared" ref="O286" si="72">(0.4*E286 + 0.3*G286 + 0.3*I286) / 10</f>
         <v>9.5</v>
       </c>
       <c r="P286" s="25">
@@ -35129,15 +35132,15 @@
         <v>0</v>
       </c>
       <c r="R286" s="48">
-        <f t="shared" ref="R286" si="72">ROUND(N286,0)+P286</f>
+        <f t="shared" ref="R286" si="73">ROUND(N286,0)+P286</f>
         <v>10</v>
       </c>
       <c r="S286" s="48">
-        <f t="shared" ref="S286" si="73">ROUND(O286,0)+Q286</f>
+        <f t="shared" ref="S286" si="74">ROUND(O286,0)+Q286</f>
         <v>10</v>
       </c>
       <c r="T286" s="48">
-        <f t="shared" ref="T286" si="74">SUM(ROUND(R286,0),ROUND(S286,0))</f>
+        <f t="shared" ref="T286" si="75">SUM(ROUND(R286,0),ROUND(S286,0))</f>
         <v>20</v>
       </c>
       <c r="U286" s="25" t="s">
@@ -35163,7 +35166,7 @@
       </c>
       <c r="AB286" s="25"/>
       <c r="AC286" s="27" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="AD286" s="27">
         <v>0</v>
@@ -35246,11 +35249,11 @@
         <v>19</v>
       </c>
       <c r="T287" s="12">
-        <f t="shared" ref="T287" si="75">SUM(ROUND(R287,0),ROUND(S287,0))</f>
+        <f t="shared" ref="T287" si="76">SUM(ROUND(R287,0),ROUND(S287,0))</f>
         <v>28</v>
       </c>
       <c r="U287" s="9" t="str">
-        <f t="shared" ref="U287" si="76">C287</f>
+        <f t="shared" ref="U287" si="77">C287</f>
         <v>rock</v>
       </c>
       <c r="V287" s="9" t="str">
@@ -35269,11 +35272,11 @@
         <v/>
       </c>
       <c r="AA287" s="8" t="str">
-        <f t="shared" ref="AA287" si="77">B287</f>
+        <f t="shared" ref="AA287" si="78">B287</f>
         <v>Nihilego</v>
       </c>
       <c r="AB287" s="25" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="AC287" s="8" t="s">
         <v>747</v>
@@ -35285,7 +35288,7 @@
         <v>0</v>
       </c>
       <c r="AF287" s="8" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="AH287" s="8">
         <v>1</v>
@@ -35357,15 +35360,15 @@
         <v>20</v>
       </c>
       <c r="T288" s="12">
-        <f t="shared" ref="T288:T289" si="78">SUM(ROUND(R288,0),ROUND(S288,0))</f>
+        <f t="shared" ref="T288:T289" si="79">SUM(ROUND(R288,0),ROUND(S288,0))</f>
         <v>28</v>
       </c>
       <c r="U288" s="9" t="str">
-        <f t="shared" ref="U288:U289" si="79">C288</f>
+        <f t="shared" ref="U288:U289" si="80">C288</f>
         <v>bug</v>
       </c>
       <c r="V288" s="9" t="str">
-        <f t="shared" ref="V288:V289" si="80">IF(D288 = 0, "", D288)</f>
+        <f t="shared" ref="V288:V289" si="81">IF(D288 = 0, "", D288)</f>
         <v>fighting</v>
       </c>
       <c r="W288" s="9" t="s">
@@ -35380,11 +35383,11 @@
         <v/>
       </c>
       <c r="AA288" s="8" t="str">
-        <f t="shared" ref="AA288:AA289" si="81">B288</f>
+        <f t="shared" ref="AA288:AA289" si="82">B288</f>
         <v>Buzzwole</v>
       </c>
       <c r="AB288" s="25" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="AC288" s="8" t="s">
         <v>765</v>
@@ -35396,7 +35399,7 @@
         <v>0</v>
       </c>
       <c r="AF288" s="8" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="AH288" s="8">
         <v>1</v>
@@ -35468,15 +35471,15 @@
         <v>15</v>
       </c>
       <c r="T289" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>28</v>
       </c>
       <c r="U289" s="9" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>bug</v>
       </c>
       <c r="V289" s="9" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>fighting</v>
       </c>
       <c r="W289" s="9" t="s">
@@ -35491,11 +35494,11 @@
         <v/>
       </c>
       <c r="AA289" s="8" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>Pheromosa</v>
       </c>
       <c r="AB289" s="25" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="AC289" s="8" t="s">
         <v>767</v>
@@ -35507,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="AF289" s="8" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="AH289" s="8">
         <v>1</v>
@@ -35577,11 +35580,11 @@
         <v>18</v>
       </c>
       <c r="T290" s="12">
-        <f t="shared" ref="T290:T293" si="82">SUM(ROUND(R290,0),ROUND(S290,0))</f>
+        <f t="shared" ref="T290:T293" si="83">SUM(ROUND(R290,0),ROUND(S290,0))</f>
         <v>28</v>
       </c>
       <c r="U290" s="9" t="str">
-        <f t="shared" ref="U290:U293" si="83">C290</f>
+        <f t="shared" ref="U290:U293" si="84">C290</f>
         <v>electric</v>
       </c>
       <c r="V290" s="9" t="s">
@@ -35599,11 +35602,11 @@
         <v/>
       </c>
       <c r="AA290" s="8" t="str">
-        <f t="shared" ref="AA290:AA293" si="84">B290</f>
+        <f t="shared" ref="AA290:AA293" si="85">B290</f>
         <v>Xurkitree</v>
       </c>
       <c r="AB290" s="25" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="AC290" s="8" t="s">
         <v>766</v>
@@ -35615,7 +35618,7 @@
         <v>0</v>
       </c>
       <c r="AF290" s="8" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="AH290" s="8">
         <v>1</v>
@@ -35687,15 +35690,15 @@
         <v>21</v>
       </c>
       <c r="T291" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>28</v>
       </c>
       <c r="U291" s="9" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>steel</v>
       </c>
       <c r="V291" s="9" t="str">
-        <f t="shared" ref="V291:V293" si="85">IF(D291 = 0, "", D291)</f>
+        <f t="shared" ref="V291:V293" si="86">IF(D291 = 0, "", D291)</f>
         <v>flying</v>
       </c>
       <c r="W291" s="9" t="s">
@@ -35710,11 +35713,11 @@
         <v/>
       </c>
       <c r="AA291" s="8" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>Celesteela</v>
       </c>
       <c r="AB291" s="25" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="AC291" s="8" t="s">
         <v>768</v>
@@ -35726,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="AF291" s="8" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="AH291" s="8">
         <v>1</v>
@@ -35798,15 +35801,15 @@
         <v>16</v>
       </c>
       <c r="T292" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>28</v>
       </c>
       <c r="U292" s="9" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>grass</v>
       </c>
       <c r="V292" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>steel</v>
       </c>
       <c r="W292" s="9" t="s">
@@ -35821,11 +35824,11 @@
         <v/>
       </c>
       <c r="AA292" s="8" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>Kartana</v>
       </c>
       <c r="AB292" s="25" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="AC292" s="8" t="s">
         <v>769</v>
@@ -35837,7 +35840,7 @@
         <v>0</v>
       </c>
       <c r="AF292" s="8" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="AH292" s="8">
         <v>1</v>
@@ -35909,15 +35912,15 @@
         <v>23</v>
       </c>
       <c r="T293" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>28</v>
       </c>
       <c r="U293" s="9" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>dark</v>
       </c>
       <c r="V293" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>dragon</v>
       </c>
       <c r="W293" s="9" t="s">
@@ -35932,11 +35935,11 @@
         <v/>
       </c>
       <c r="AA293" s="8" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>Guzzlord</v>
       </c>
       <c r="AB293" s="25" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="AC293" s="8" t="s">
         <v>746</v>
@@ -35948,7 +35951,7 @@
         <v>0</v>
       </c>
       <c r="AF293" s="8" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="AH293" s="8">
         <v>1</v>
@@ -36020,15 +36023,15 @@
         <v>22</v>
       </c>
       <c r="T294" s="12">
-        <f t="shared" ref="T294:T304" si="86">SUM(ROUND(R294,0),ROUND(S294,0))</f>
+        <f t="shared" ref="T294:T304" si="87">SUM(ROUND(R294,0),ROUND(S294,0))</f>
         <v>28</v>
       </c>
       <c r="U294" s="9" t="str">
-        <f t="shared" ref="U294" si="87">C294</f>
+        <f t="shared" ref="U294" si="88">C294</f>
         <v>rock</v>
       </c>
       <c r="V294" s="9" t="str">
-        <f t="shared" ref="V294" si="88">IF(D294 = 0, "", D294)</f>
+        <f t="shared" ref="V294" si="89">IF(D294 = 0, "", D294)</f>
         <v>steel</v>
       </c>
       <c r="W294" s="9" t="s">
@@ -36043,11 +36046,11 @@
         <v/>
       </c>
       <c r="AA294" s="8" t="str">
-        <f t="shared" ref="AA294" si="89">B294</f>
+        <f t="shared" ref="AA294" si="90">B294</f>
         <v>Stakataka</v>
       </c>
       <c r="AB294" s="25" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="AC294" s="8" t="s">
         <v>770</v>
@@ -36059,7 +36062,7 @@
         <v>0</v>
       </c>
       <c r="AF294" s="8" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="AH294" s="8">
         <v>1</v>
@@ -36131,15 +36134,15 @@
         <v>17</v>
       </c>
       <c r="T295" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>28</v>
       </c>
       <c r="U295" s="9" t="str">
-        <f t="shared" ref="U295:U304" si="90">C295</f>
+        <f t="shared" ref="U295:U304" si="91">C295</f>
         <v>fire</v>
       </c>
       <c r="V295" s="9" t="str">
-        <f t="shared" ref="V295:V296" si="91">IF(D295 = 0, "", D295)</f>
+        <f t="shared" ref="V295:V296" si="92">IF(D295 = 0, "", D295)</f>
         <v>ghost</v>
       </c>
       <c r="W295" s="9" t="s">
@@ -36154,11 +36157,11 @@
         <v/>
       </c>
       <c r="AA295" s="8" t="str">
-        <f t="shared" ref="AA295" si="92">B295</f>
+        <f t="shared" ref="AA295" si="93">B295</f>
         <v>Blacephalon</v>
       </c>
       <c r="AB295" s="25" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="AC295" s="8" t="s">
         <v>764</v>
@@ -36170,7 +36173,7 @@
         <v>0</v>
       </c>
       <c r="AF295" s="8" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="AH295" s="8">
         <v>1</v>
@@ -36181,10 +36184,10 @@
     </row>
     <row r="296" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="29" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="B296" s="25" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="C296" s="47" t="s">
         <v>26</v>
@@ -36211,7 +36214,7 @@
         <v>129</v>
       </c>
       <c r="K296" s="29" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="L296" s="29"/>
       <c r="M296" s="25" t="s">
@@ -36232,23 +36235,23 @@
         <v>20</v>
       </c>
       <c r="R296" s="48">
-        <f t="shared" ref="R296:R304" si="93">ROUND(N296,0)+P296</f>
+        <f t="shared" ref="R296:R304" si="94">ROUND(N296,0)+P296</f>
         <v>15</v>
       </c>
       <c r="S296" s="48">
-        <f t="shared" ref="S296:S304" si="94">ROUND(O296,0)+Q296</f>
+        <f t="shared" ref="S296:S304" si="95">ROUND(O296,0)+Q296</f>
         <v>30</v>
       </c>
       <c r="T296" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>45</v>
       </c>
       <c r="U296" s="29" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>psychic</v>
       </c>
       <c r="V296" s="29" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>dragon</v>
       </c>
       <c r="W296" s="29" t="s">
@@ -36264,10 +36267,10 @@
         <v>Ultra Necrozma</v>
       </c>
       <c r="AB296" s="25" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="AC296" s="26" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AD296" s="27">
         <v>0</v>
@@ -36276,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="AF296" s="8" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="AG296" s="26"/>
       <c r="AH296" s="26">
@@ -36288,7 +36291,7 @@
     </row>
     <row r="297" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A297" s="29" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="B297" s="29" t="s">
         <v>145</v>
@@ -36322,7 +36325,7 @@
       </c>
       <c r="L297" s="25"/>
       <c r="M297" s="25" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="N297" s="29">
         <f t="shared" si="55"/>
@@ -36339,19 +36342,19 @@
         <v>7</v>
       </c>
       <c r="R297" s="48">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>8</v>
       </c>
       <c r="S297" s="48">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>17</v>
       </c>
       <c r="T297" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>25</v>
       </c>
       <c r="U297" s="9" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>grass</v>
       </c>
       <c r="V297" s="9" t="str">
@@ -36367,11 +36370,11 @@
       <c r="Y297" s="29"/>
       <c r="Z297" s="48"/>
       <c r="AA297" s="26" t="str">
-        <f t="shared" ref="AA297:AA304" si="95">B297</f>
+        <f t="shared" ref="AA297:AA304" si="96">B297</f>
         <v>Torterra</v>
       </c>
       <c r="AB297" s="25" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="AC297" s="26" t="s">
         <v>592</v>
@@ -36383,7 +36386,7 @@
         <v>0</v>
       </c>
       <c r="AF297" s="26" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="AG297" s="26"/>
       <c r="AH297" s="26">
@@ -36395,7 +36398,7 @@
     </row>
     <row r="298" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="B298" s="9" t="s">
         <v>148</v>
@@ -36429,7 +36432,7 @@
       </c>
       <c r="L298" s="25"/>
       <c r="M298" s="25" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="N298" s="29">
         <f t="shared" si="55"/>
@@ -36446,19 +36449,19 @@
         <v>7</v>
       </c>
       <c r="R298" s="48">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>11</v>
       </c>
       <c r="S298" s="48">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>14</v>
       </c>
       <c r="T298" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>25</v>
       </c>
       <c r="U298" s="9" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>fire</v>
       </c>
       <c r="V298" s="9" t="str">
@@ -36472,11 +36475,11 @@
         <v>5</v>
       </c>
       <c r="AA298" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>Infernape</v>
       </c>
       <c r="AB298" s="25" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="AC298" t="s">
         <v>590</v>
@@ -36488,7 +36491,7 @@
         <v>0</v>
       </c>
       <c r="AF298" s="26" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="AG298" s="8"/>
       <c r="AH298" s="8">
@@ -36500,7 +36503,7 @@
     </row>
     <row r="299" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="B299" s="9" t="s">
         <v>151</v>
@@ -36534,7 +36537,7 @@
       </c>
       <c r="L299" s="25"/>
       <c r="M299" s="25" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="N299" s="29">
         <f t="shared" si="55"/>
@@ -36551,19 +36554,19 @@
         <v>7</v>
       </c>
       <c r="R299" s="48">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>9</v>
       </c>
       <c r="S299" s="48">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>16</v>
       </c>
       <c r="T299" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>25</v>
       </c>
       <c r="U299" s="9" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>water</v>
       </c>
       <c r="V299" s="9" t="s">
@@ -36576,11 +36579,11 @@
         <v>14</v>
       </c>
       <c r="AA299" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>Empoleon</v>
       </c>
       <c r="AB299" s="25" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="AC299" t="s">
         <v>591</v>
@@ -36592,7 +36595,7 @@
         <v>0</v>
       </c>
       <c r="AF299" s="26" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="AG299" s="8"/>
       <c r="AH299" s="8">
@@ -36604,7 +36607,7 @@
     </row>
     <row r="300" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="B300" s="9" t="s">
         <v>154</v>
@@ -36638,7 +36641,7 @@
       </c>
       <c r="L300" s="25"/>
       <c r="M300" s="25" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="N300" s="29">
         <f t="shared" si="55"/>
@@ -36655,19 +36658,19 @@
         <v>7</v>
       </c>
       <c r="R300" s="48">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>11</v>
       </c>
       <c r="S300" s="48">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>14</v>
       </c>
       <c r="T300" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>25</v>
       </c>
       <c r="U300" s="9" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>normal</v>
       </c>
       <c r="V300" s="9" t="str">
@@ -36681,14 +36684,14 @@
         <v>39</v>
       </c>
       <c r="AA300" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>Staraptor</v>
       </c>
       <c r="AB300" s="25" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="AC300" s="8" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="AD300" s="27">
         <v>0</v>
@@ -36697,7 +36700,7 @@
         <v>0</v>
       </c>
       <c r="AF300" s="26" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="AG300" s="8"/>
       <c r="AH300" s="8">
@@ -36709,7 +36712,7 @@
     </row>
     <row r="301" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="B301" s="9" t="s">
         <v>161</v>
@@ -36740,7 +36743,7 @@
       </c>
       <c r="L301" s="25"/>
       <c r="M301" s="25" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="N301" s="29">
         <f t="shared" si="55"/>
@@ -36757,19 +36760,19 @@
         <v>7</v>
       </c>
       <c r="R301" s="48">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>10</v>
       </c>
       <c r="S301" s="48">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>15</v>
       </c>
       <c r="T301" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>25</v>
       </c>
       <c r="U301" s="9" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>electric</v>
       </c>
       <c r="V301" s="9" t="s">
@@ -36782,11 +36785,11 @@
         <v>22</v>
       </c>
       <c r="AA301" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>Luxray</v>
       </c>
       <c r="AB301" s="25" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="AC301" s="8" t="s">
         <v>595</v>
@@ -36798,7 +36801,7 @@
         <v>0</v>
       </c>
       <c r="AF301" s="26" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="AG301" s="8"/>
       <c r="AH301" s="8">
@@ -36810,7 +36813,7 @@
     </row>
     <row r="302" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="B302" s="10" t="s">
         <v>222</v>
@@ -36844,7 +36847,7 @@
       </c>
       <c r="L302" s="25"/>
       <c r="M302" s="25" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="N302" s="29">
         <f t="shared" si="55"/>
@@ -36861,19 +36864,19 @@
         <v>7</v>
       </c>
       <c r="R302" s="48">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>10</v>
       </c>
       <c r="S302" s="48">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>17</v>
       </c>
       <c r="T302" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>27</v>
       </c>
       <c r="U302" s="9" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>fairy</v>
       </c>
       <c r="V302" s="9" t="str">
@@ -36887,11 +36890,11 @@
         <v>22</v>
       </c>
       <c r="AA302" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>Togekiss</v>
       </c>
       <c r="AB302" s="25" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="AC302" s="8" t="s">
         <v>596</v>
@@ -36903,7 +36906,7 @@
         <v>0</v>
       </c>
       <c r="AF302" s="26" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="AG302" s="8"/>
       <c r="AH302" s="8">
@@ -36915,7 +36918,7 @@
     </row>
     <row r="303" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="B303" s="10" t="s">
         <v>227</v>
@@ -36949,7 +36952,7 @@
       </c>
       <c r="L303" s="25"/>
       <c r="M303" s="25" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="N303" s="29">
         <f t="shared" si="55"/>
@@ -36966,23 +36969,23 @@
         <v>7</v>
       </c>
       <c r="R303" s="48">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>10</v>
       </c>
       <c r="S303" s="48">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>16</v>
       </c>
       <c r="T303" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>26</v>
       </c>
       <c r="U303" s="9" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>ice</v>
       </c>
       <c r="V303" s="9" t="str">
-        <f t="shared" ref="V303" si="96">IF(D303 = 0, "", D303)</f>
+        <f t="shared" ref="V303" si="97">IF(D303 = 0, "", D303)</f>
         <v>ground</v>
       </c>
       <c r="W303" s="9" t="s">
@@ -36992,11 +36995,11 @@
         <v>22</v>
       </c>
       <c r="AA303" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>Mamoswine</v>
       </c>
       <c r="AB303" s="25" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="AC303" s="8" t="s">
         <v>593</v>
@@ -37008,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="AF303" s="26" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="AG303" s="8"/>
       <c r="AH303" s="8">
@@ -37020,7 +37023,7 @@
     </row>
     <row r="304" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="14" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="B304" s="15" t="s">
         <v>230</v>
@@ -37052,7 +37055,7 @@
       </c>
       <c r="L304" s="15"/>
       <c r="M304" s="15" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="N304" s="14">
         <f t="shared" si="55"/>
@@ -37069,19 +37072,19 @@
         <v>7</v>
       </c>
       <c r="R304" s="17">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>7</v>
       </c>
       <c r="S304" s="17">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>17</v>
       </c>
       <c r="T304" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>24</v>
       </c>
       <c r="U304" s="14" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>ghost</v>
       </c>
       <c r="V304" s="14" t="s">
@@ -37096,14 +37099,14 @@
       <c r="Y304" s="14"/>
       <c r="Z304" s="17"/>
       <c r="AA304" s="18" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>Dusknoir</v>
       </c>
       <c r="AB304" s="15" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="AC304" s="18" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="AD304" s="19">
         <v>0</v>
@@ -37112,7 +37115,7 @@
         <v>0</v>
       </c>
       <c r="AF304" s="18" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="AG304" s="18"/>
       <c r="AH304" s="18">
@@ -37300,7 +37303,7 @@
         <v>567</v>
       </c>
       <c r="AC306" s="8" t="str">
-        <f t="shared" ref="AC306:AC331" si="97">VLOOKUP(AA306,$AA$2:$AC$296,3,FALSE)</f>
+        <f t="shared" ref="AC306:AC331" si="98">VLOOKUP(AA306,$AA$2:$AC$296,3,FALSE)</f>
         <v>Play Rough</v>
       </c>
       <c r="AD306" s="6">
@@ -37382,7 +37385,7 @@
         <v>6</v>
       </c>
       <c r="T307" s="12">
-        <f t="shared" ref="T307:T332" si="98">SUM(ROUND(R307,0),ROUND(S307,0))</f>
+        <f t="shared" ref="T307:T332" si="99">SUM(ROUND(R307,0),ROUND(S307,0))</f>
         <v>12</v>
       </c>
       <c r="U307" s="1" t="str">
@@ -37401,7 +37404,7 @@
         <v>567</v>
       </c>
       <c r="AC307" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Revenge</v>
       </c>
       <c r="AD307" s="6">
@@ -37483,7 +37486,7 @@
         <v>9</v>
       </c>
       <c r="T308" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>11</v>
       </c>
       <c r="U308" s="1" t="str">
@@ -37502,7 +37505,7 @@
         <v>567</v>
       </c>
       <c r="AC308" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Confusion</v>
       </c>
       <c r="AD308" s="6">
@@ -37584,7 +37587,7 @@
         <v>7</v>
       </c>
       <c r="T309" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>14</v>
       </c>
       <c r="U309" s="1" t="str">
@@ -37602,7 +37605,7 @@
         <v>567</v>
       </c>
       <c r="AC309" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Toxic</v>
       </c>
       <c r="AD309" s="6">
@@ -37684,7 +37687,7 @@
         <v>7</v>
       </c>
       <c r="T310" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>16</v>
       </c>
       <c r="U310" s="1" t="str">
@@ -37696,14 +37699,14 @@
         <v/>
       </c>
       <c r="AA310" t="str">
-        <f t="shared" ref="AA310:AA328" si="99">B310</f>
+        <f t="shared" ref="AA310:AA328" si="100">B310</f>
         <v>Murkrow</v>
       </c>
       <c r="AB310" s="1" t="s">
         <v>567</v>
       </c>
       <c r="AC310" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Wing Attack</v>
       </c>
       <c r="AD310" s="6">
@@ -37785,7 +37788,7 @@
         <v>8</v>
       </c>
       <c r="T311" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>13</v>
       </c>
       <c r="U311" s="1" t="str">
@@ -37797,14 +37800,14 @@
         <v/>
       </c>
       <c r="AA311" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>Skorupi</v>
       </c>
       <c r="AB311" s="1" t="s">
         <v>567</v>
       </c>
       <c r="AC311" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Bug Bite</v>
       </c>
       <c r="AD311" s="6">
@@ -37887,7 +37890,7 @@
         <v>6</v>
       </c>
       <c r="T312" s="17">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>13</v>
       </c>
       <c r="U312" s="14" t="str">
@@ -37903,14 +37906,14 @@
         <v/>
       </c>
       <c r="AA312" s="18" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>Houndour</v>
       </c>
       <c r="AB312" s="14" t="s">
         <v>567</v>
       </c>
       <c r="AC312" s="18" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Bite</v>
       </c>
       <c r="AD312" s="19">
@@ -37992,7 +37995,7 @@
         <v>9</v>
       </c>
       <c r="T313" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>17</v>
       </c>
       <c r="U313" s="1" t="str">
@@ -38004,14 +38007,14 @@
         <v/>
       </c>
       <c r="AA313" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>Golbat</v>
       </c>
       <c r="AB313" s="1" t="s">
         <v>568</v>
       </c>
       <c r="AC313" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Air Slash</v>
       </c>
       <c r="AD313" s="6">
@@ -38091,7 +38094,7 @@
         <v>11</v>
       </c>
       <c r="T314" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>20</v>
       </c>
       <c r="U314" s="1" t="str">
@@ -38103,14 +38106,14 @@
         <v/>
       </c>
       <c r="AA314" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>Tangrowth</v>
       </c>
       <c r="AB314" s="1" t="s">
         <v>568</v>
       </c>
       <c r="AC314" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Giga Drain</v>
       </c>
       <c r="AD314" s="6">
@@ -38192,7 +38195,7 @@
         <v>10</v>
       </c>
       <c r="T315" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>19</v>
       </c>
       <c r="U315" s="1" t="str">
@@ -38204,14 +38207,14 @@
         <v/>
       </c>
       <c r="AA315" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>Skuntank</v>
       </c>
       <c r="AB315" s="1" t="s">
         <v>568</v>
       </c>
       <c r="AC315" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Crunch</v>
       </c>
       <c r="AD315" s="6">
@@ -38235,7 +38238,7 @@
     </row>
     <row r="316" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="15" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="B316" s="15" t="s">
         <v>233</v>
@@ -38294,7 +38297,7 @@
         <v>11</v>
       </c>
       <c r="T316" s="17">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>19</v>
       </c>
       <c r="U316" s="14" t="str">
@@ -38310,14 +38313,14 @@
         <v/>
       </c>
       <c r="AA316" s="18" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>Uxie</v>
       </c>
       <c r="AB316" s="14" t="s">
         <v>568</v>
       </c>
       <c r="AC316" s="18" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Chilling Acuity</v>
       </c>
       <c r="AD316" s="19">
@@ -38399,7 +38402,7 @@
         <v>12</v>
       </c>
       <c r="T317" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>19</v>
       </c>
       <c r="U317" s="1" t="str">
@@ -38411,14 +38414,14 @@
         <v/>
       </c>
       <c r="AA317" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>Bronzong</v>
       </c>
       <c r="AB317" s="1" t="s">
         <v>569</v>
       </c>
       <c r="AC317" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Heavy Slam</v>
       </c>
       <c r="AD317" s="6">
@@ -38498,7 +38501,7 @@
         <v>9</v>
       </c>
       <c r="T318" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>19</v>
       </c>
       <c r="U318" s="1" t="str">
@@ -38513,14 +38516,14 @@
         <v/>
       </c>
       <c r="AA318" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>Electabuzz</v>
       </c>
       <c r="AB318" s="1" t="s">
         <v>569</v>
       </c>
       <c r="AC318" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Thunderbolt</v>
       </c>
       <c r="AD318" s="6">
@@ -38600,7 +38603,7 @@
         <v>9</v>
       </c>
       <c r="T319" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>18</v>
       </c>
       <c r="U319" s="1" t="str">
@@ -38615,14 +38618,14 @@
         <v/>
       </c>
       <c r="AA319" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>Purugly</v>
       </c>
       <c r="AB319" s="1" t="s">
         <v>569</v>
       </c>
       <c r="AC319" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Slash</v>
       </c>
       <c r="AD319" s="6">
@@ -38646,7 +38649,7 @@
     </row>
     <row r="320" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="15" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="B320" s="15" t="s">
         <v>234</v>
@@ -38705,7 +38708,7 @@
         <v>9</v>
       </c>
       <c r="T320" s="17">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>19</v>
       </c>
       <c r="U320" s="14" t="str">
@@ -38721,14 +38724,14 @@
         <v/>
       </c>
       <c r="AA320" s="18" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>Mesprit</v>
       </c>
       <c r="AB320" s="14" t="s">
         <v>569</v>
       </c>
       <c r="AC320" s="18" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Shocking Verity</v>
       </c>
       <c r="AD320" s="19">
@@ -38808,7 +38811,7 @@
         <v>7</v>
       </c>
       <c r="T321" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>18</v>
       </c>
       <c r="U321" s="1" t="str">
@@ -38820,14 +38823,14 @@
         <v/>
       </c>
       <c r="AA321" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>Kadabra</v>
       </c>
       <c r="AB321" s="1" t="s">
         <v>570</v>
       </c>
       <c r="AC321" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Disable</v>
       </c>
       <c r="AD321" s="6">
@@ -38907,7 +38910,7 @@
         <v>9</v>
       </c>
       <c r="T322" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>19</v>
       </c>
       <c r="U322" s="1" t="str">
@@ -38922,14 +38925,14 @@
         <v/>
       </c>
       <c r="AA322" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>Magmar</v>
       </c>
       <c r="AB322" s="1" t="s">
         <v>570</v>
       </c>
       <c r="AC322" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Flamethrower</v>
       </c>
       <c r="AD322" s="6">
@@ -39011,7 +39014,7 @@
         <v>9</v>
       </c>
       <c r="T323" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>19</v>
       </c>
       <c r="U323" s="1" t="str">
@@ -39026,14 +39029,14 @@
         <v/>
       </c>
       <c r="AA323" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>Toxicroak</v>
       </c>
       <c r="AB323" s="1" t="s">
         <v>570</v>
       </c>
       <c r="AC323" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Sludge Bomb</v>
       </c>
       <c r="AD323" s="6">
@@ -39057,7 +39060,7 @@
     </row>
     <row r="324" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="15" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="B324" s="15" t="s">
         <v>235</v>
@@ -39116,7 +39119,7 @@
         <v>7</v>
       </c>
       <c r="T324" s="17">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>19</v>
       </c>
       <c r="U324" s="14" t="str">
@@ -39132,14 +39135,14 @@
         <v/>
       </c>
       <c r="AA324" s="18" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>Azelf</v>
       </c>
       <c r="AB324" s="14" t="s">
         <v>570</v>
       </c>
       <c r="AC324" s="18" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Blazing Valor</v>
       </c>
       <c r="AD324" s="19">
@@ -39221,7 +39224,7 @@
         <v>9</v>
       </c>
       <c r="T325" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>19</v>
       </c>
       <c r="U325" s="1" t="str">
@@ -39236,14 +39239,14 @@
         <v/>
       </c>
       <c r="AA325" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>Houndoom</v>
       </c>
       <c r="AB325" s="1" t="s">
         <v>603</v>
       </c>
       <c r="AC325" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Flamethrower</v>
       </c>
       <c r="AD325" s="6">
@@ -39325,7 +39328,7 @@
         <v>9</v>
       </c>
       <c r="T326" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>19</v>
       </c>
       <c r="U326" s="1" t="str">
@@ -39340,14 +39343,14 @@
         <v/>
       </c>
       <c r="AA326" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>Honchkrow</v>
       </c>
       <c r="AB326" s="1" t="s">
         <v>603</v>
       </c>
       <c r="AC326" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Night Slash</v>
       </c>
       <c r="AD326" s="6">
@@ -39430,7 +39433,7 @@
         <v>9</v>
       </c>
       <c r="T327" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>20</v>
       </c>
       <c r="U327" s="1" t="str">
@@ -39445,14 +39448,14 @@
         <v/>
       </c>
       <c r="AA327" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>Weavile</v>
       </c>
       <c r="AB327" s="1" t="s">
         <v>603</v>
       </c>
       <c r="AC327" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Ice Punch</v>
       </c>
       <c r="AD327" s="6">
@@ -39534,7 +39537,7 @@
         <v>11</v>
       </c>
       <c r="T328" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>21</v>
       </c>
       <c r="U328" s="1" t="str">
@@ -39549,14 +39552,14 @@
         <v/>
       </c>
       <c r="AA328" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>Gyarados</v>
       </c>
       <c r="AB328" s="1" t="s">
         <v>603</v>
       </c>
       <c r="AC328" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Outrage</v>
       </c>
       <c r="AD328" s="6">
@@ -39637,7 +39640,7 @@
         <v>12</v>
       </c>
       <c r="T329" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>20</v>
       </c>
       <c r="U329" s="9" t="str">
@@ -39653,14 +39656,14 @@
         <v/>
       </c>
       <c r="AA329" s="8" t="str">
-        <f t="shared" ref="AA329" si="100">B329</f>
+        <f t="shared" ref="AA329" si="101">B329</f>
         <v>Hippowdon</v>
       </c>
       <c r="AB329" s="9" t="s">
         <v>603</v>
       </c>
       <c r="AC329" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Earthquake</v>
       </c>
       <c r="AD329" s="11">
@@ -39743,7 +39746,7 @@
         <v>13</v>
       </c>
       <c r="T330" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>19</v>
       </c>
       <c r="U330" s="9" t="str">
@@ -39759,14 +39762,14 @@
         <v/>
       </c>
       <c r="AA330" s="8" t="str">
-        <f t="shared" ref="AA330" si="101">B330</f>
+        <f t="shared" ref="AA330" si="102">B330</f>
         <v>Probopass</v>
       </c>
       <c r="AB330" s="9" t="s">
         <v>603</v>
       </c>
       <c r="AC330" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Flash Cannon</v>
       </c>
       <c r="AD330" s="11">
@@ -39846,7 +39849,7 @@
         <v>10</v>
       </c>
       <c r="T331" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>21</v>
       </c>
       <c r="U331" s="1" t="str">
@@ -39868,7 +39871,7 @@
         <v>603</v>
       </c>
       <c r="AC331" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>Tri Attack</v>
       </c>
       <c r="AD331" s="6">
@@ -39892,7 +39895,7 @@
     </row>
     <row r="332" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="B332" s="10" t="s">
         <v>246</v>
@@ -39948,7 +39951,7 @@
         <v>12</v>
       </c>
       <c r="T332" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>24</v>
       </c>
       <c r="V332" s="2"/>
@@ -40030,8 +40033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41F625C-F9FA-42D6-A0B3-21764E3166C5}">
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40078,7 +40081,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>4</v>
@@ -40091,7 +40094,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="F2" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A2)</f>
@@ -40125,7 +40128,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="F3" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A3)</f>
@@ -40159,7 +40162,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="F4" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A4)</f>
@@ -40193,7 +40196,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="F5" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A5)</f>
@@ -40227,7 +40230,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="F6" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A6)</f>
@@ -40248,7 +40251,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>2</v>
@@ -40261,7 +40264,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="F7" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A7)</f>
@@ -40295,7 +40298,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="F8" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A8)</f>
@@ -40329,7 +40332,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F9" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A9)</f>
@@ -40363,7 +40366,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="F10" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A10)</f>
@@ -40397,7 +40400,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="F11" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A11)</f>
@@ -40452,7 +40455,7 @@
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B13" s="45" t="s">
         <v>39</v>
@@ -40465,7 +40468,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F13" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A13)</f>
@@ -40533,7 +40536,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F15" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A15)</f>
@@ -40567,7 +40570,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F16" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A16)</f>
@@ -40601,7 +40604,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F17" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A17)</f>
@@ -40724,7 +40727,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>22</v>
@@ -40758,7 +40761,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>8</v>
@@ -40805,7 +40808,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F23" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A23)</f>
@@ -40839,7 +40842,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="F24" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A24)</f>
@@ -40894,7 +40897,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B26" s="34" t="s">
         <v>2</v>
@@ -40907,7 +40910,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F26" s="26">
         <v>1</v>
@@ -40940,7 +40943,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F27" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A27)</f>
@@ -40974,7 +40977,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F28" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A28)</f>
@@ -41042,7 +41045,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F30" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A30)</f>
@@ -41144,7 +41147,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="F33" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A33)</f>
@@ -41165,7 +41168,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B34" s="38" t="s">
         <v>5</v>
@@ -41178,7 +41181,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F34" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A34)</f>
@@ -41212,7 +41215,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F35" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A35)</f>
@@ -41246,7 +41249,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F36" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A36)</f>
@@ -41314,7 +41317,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="F38" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A38)</f>
@@ -41335,7 +41338,7 @@
     </row>
     <row r="39" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>8</v>
@@ -41348,7 +41351,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F39" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A39)</f>
@@ -41552,7 +41555,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="F45" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A45)</f>
@@ -41586,7 +41589,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F46" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A46)</f>
@@ -41675,7 +41678,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>4</v>
@@ -41790,7 +41793,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="F52" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A52)</f>
@@ -41811,7 +41814,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B53" s="36" t="s">
         <v>3</v>
@@ -41824,7 +41827,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="F53" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A53)</f>
@@ -41845,20 +41848,20 @@
     </row>
     <row r="54" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
-        <v>774</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>22</v>
+        <v>608</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>5</v>
       </c>
       <c r="C54" s="25">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D54" s="29">
         <f>IF(NOT(ISBLANK(C54)), IF(ISNUMBER(C54), ROUND((C54 - 5)/20, 0), C54), "")</f>
         <v>3</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="F54" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A54)</f>
@@ -41866,11 +41869,11 @@
       </c>
       <c r="G54" s="26" cm="1">
         <f t="array" ref="G54">MIN(IF($A54=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H54" s="26" cm="1">
         <f t="array" ref="H54">MAX(IF($A54=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I54" s="26">
         <f>H54-G54</f>
@@ -41879,20 +41882,20 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
-        <v>608</v>
-      </c>
-      <c r="B55" s="38" t="s">
-        <v>5</v>
+        <v>767</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>7</v>
       </c>
       <c r="C55" s="25">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D55" s="29">
         <f>IF(NOT(ISBLANK(C55)), IF(ISNUMBER(C55), ROUND((C55 - 5)/20, 0), C55), "")</f>
         <v>3</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="F55" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A55)</f>
@@ -41900,11 +41903,11 @@
       </c>
       <c r="G55" s="26" cm="1">
         <f t="array" ref="G55">MIN(IF($A55=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H55" s="26" cm="1">
         <f t="array" ref="H55">MAX(IF($A55=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I55" s="26">
         <f>H55-G55</f>
@@ -41913,10 +41916,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
-        <v>767</v>
-      </c>
-      <c r="B56" s="40" t="s">
-        <v>7</v>
+        <v>747</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="C56" s="25">
         <v>60</v>
@@ -41926,7 +41929,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="F56" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A56)</f>
@@ -41947,20 +41950,20 @@
     </row>
     <row r="57" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
-        <v>747</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>3</v>
+        <v>610</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C57" s="25">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D57" s="29">
         <f>IF(NOT(ISBLANK(C57)), IF(ISNUMBER(C57), ROUND((C57 - 5)/20, 0), C57), "")</f>
         <v>3</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>889</v>
+        <v>721</v>
       </c>
       <c r="F57" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A57)</f>
@@ -41968,11 +41971,11 @@
       </c>
       <c r="G57" s="26" cm="1">
         <f t="array" ref="G57">MIN(IF($A57=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H57" s="26" cm="1">
         <f t="array" ref="H57">MAX(IF($A57=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I57" s="26">
         <f>H57-G57</f>
@@ -41981,20 +41984,20 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
-        <v>610</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>4</v>
+        <v>768</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="C58" s="25">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D58" s="29">
         <f>IF(NOT(ISBLANK(C58)), IF(ISNUMBER(C58), ROUND((C58 - 5)/20, 0), C58), "")</f>
         <v>3</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>721</v>
+        <v>906</v>
       </c>
       <c r="F58" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A58)</f>
@@ -42002,11 +42005,11 @@
       </c>
       <c r="G58" s="26" cm="1">
         <f t="array" ref="G58">MIN(IF($A58=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H58" s="26" cm="1">
         <f t="array" ref="H58">MAX(IF($A58=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I58" s="26">
         <f>H58-G58</f>
@@ -42015,20 +42018,20 @@
     </row>
     <row r="59" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="B59" s="45" t="s">
-        <v>39</v>
+        <v>535</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>5</v>
       </c>
       <c r="C59" s="25">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D59" s="29">
         <f>IF(NOT(ISBLANK(C59)), IF(ISNUMBER(C59), ROUND((C59 - 5)/20, 0), C59), "")</f>
         <v>3</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>912</v>
+        <v>672</v>
       </c>
       <c r="F59" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A59)</f>
@@ -42036,11 +42039,11 @@
       </c>
       <c r="G59" s="26" cm="1">
         <f t="array" ref="G59">MIN(IF($A59=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H59" s="26" cm="1">
         <f t="array" ref="H59">MAX(IF($A59=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I59" s="26">
         <f>H59-G59</f>
@@ -42049,20 +42052,20 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
-        <v>535</v>
-      </c>
-      <c r="B60" s="38" t="s">
-        <v>5</v>
+        <v>515</v>
+      </c>
+      <c r="B60" s="44" t="s">
+        <v>9</v>
       </c>
       <c r="C60" s="25">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D60" s="29">
         <f>IF(NOT(ISBLANK(C60)), IF(ISNUMBER(C60), ROUND((C60 - 5)/20, 0), C60), "")</f>
         <v>3</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>672</v>
+        <v>787</v>
       </c>
       <c r="F60" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A60)</f>
@@ -42070,11 +42073,11 @@
       </c>
       <c r="G60" s="26" cm="1">
         <f t="array" ref="G60">MIN(IF($A60=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H60" s="26" cm="1">
         <f t="array" ref="H60">MAX(IF($A60=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I60" s="26">
         <f>H60-G60</f>
@@ -42083,10 +42086,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="B61" s="44" t="s">
-        <v>9</v>
+        <v>606</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="C61" s="25">
         <v>60</v>
@@ -42096,7 +42099,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>788</v>
+        <v>856</v>
       </c>
       <c r="F61" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A61)</f>
@@ -42104,11 +42107,11 @@
       </c>
       <c r="G61" s="26" cm="1">
         <f t="array" ref="G61">MIN(IF($A61=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H61" s="26" cm="1">
         <f t="array" ref="H61">MAX(IF($A61=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I61" s="26">
         <f>H61-G61</f>
@@ -42117,10 +42120,10 @@
     </row>
     <row r="62" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
-        <v>606</v>
-      </c>
-      <c r="B62" s="28" t="s">
-        <v>22</v>
+        <v>839</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="C62" s="25">
         <v>60</v>
@@ -42130,7 +42133,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>859</v>
+        <v>875</v>
       </c>
       <c r="F62" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A62)</f>
@@ -42138,11 +42141,11 @@
       </c>
       <c r="G62" s="26" cm="1">
         <f t="array" ref="G62">MIN(IF($A62=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H62" s="26" cm="1">
         <f t="array" ref="H62">MAX(IF($A62=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I62" s="26">
         <f>H62-G62</f>
@@ -42151,10 +42154,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
-        <v>842</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>3</v>
+        <v>585</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="C63" s="25">
         <v>60</v>
@@ -42164,7 +42167,7 @@
         <v>3</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>881</v>
+        <v>828</v>
       </c>
       <c r="F63" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A63)</f>
@@ -42185,58 +42188,58 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
-        <v>585</v>
-      </c>
-      <c r="B64" s="28" t="s">
-        <v>22</v>
+        <v>630</v>
+      </c>
+      <c r="B64" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="C64" s="25">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D64" s="29">
         <f>IF(NOT(ISBLANK(C64)), IF(ISNUMBER(C64), ROUND((C64 - 5)/20, 0), C64), "")</f>
         <v>3</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>830</v>
+        <v>601</v>
       </c>
       <c r="F64" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A64)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="26" cm="1">
         <f t="array" ref="G64">MIN(IF($A64=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H64" s="26" cm="1">
         <f t="array" ref="H64">MAX(IF($A64=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I64" s="26">
         <f>H64-G64</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
-        <v>630</v>
-      </c>
-      <c r="B65" s="45" t="s">
-        <v>39</v>
+        <v>674</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="C65" s="25">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D65" s="29">
         <f>IF(NOT(ISBLANK(C65)), IF(ISNUMBER(C65), ROUND((C65 - 5)/20, 0), C65), "")</f>
         <v>3</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>601</v>
+        <v>679</v>
       </c>
       <c r="F65" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A65)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65" s="26" cm="1">
         <f t="array" ref="G65">MIN(IF($A65=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
@@ -42244,22 +42247,22 @@
       </c>
       <c r="H65" s="26" cm="1">
         <f t="array" ref="H65">MAX(IF($A65=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" s="26">
         <f>H65-G65</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
-        <v>674</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>6</v>
+        <v>487</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>7</v>
       </c>
       <c r="C66" s="25">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D66" s="29">
         <f>IF(NOT(ISBLANK(C66)), IF(ISNUMBER(C66), ROUND((C66 - 5)/20, 0), C66), "")</f>
@@ -42270,27 +42273,27 @@
       </c>
       <c r="F66" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A66)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G66" s="26" cm="1">
         <f t="array" ref="G66">MIN(IF($A66=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H66" s="26" cm="1">
         <f t="array" ref="H66">MAX(IF($A66=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I66" s="26">
         <f>H66-G66</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
-        <v>487</v>
-      </c>
-      <c r="B67" s="40" t="s">
-        <v>7</v>
+        <v>486</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="C67" s="25">
         <v>70</v>
@@ -42304,37 +42307,37 @@
       </c>
       <c r="F67" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A67)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" s="26" cm="1">
         <f t="array" ref="G67">MIN(IF($A67=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H67" s="26" cm="1">
         <f t="array" ref="H67">MAX(IF($A67=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I67" s="26">
         <f>H67-G67</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="B68" s="33" t="s">
-        <v>11</v>
+        <v>511</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="C68" s="25">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D68" s="29">
         <f>IF(NOT(ISBLANK(C68)), IF(ISNUMBER(C68), ROUND((C68 - 5)/20, 0), C68), "")</f>
         <v>3</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>679</v>
+        <v>935</v>
       </c>
       <c r="F68" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A68)</f>
@@ -42342,11 +42345,11 @@
       </c>
       <c r="G68" s="26" cm="1">
         <f t="array" ref="G68">MIN(IF($A68=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H68" s="26" cm="1">
         <f t="array" ref="H68">MAX(IF($A68=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I68" s="26">
         <f>H68-G68</f>
@@ -42355,12 +42358,12 @@
     </row>
     <row r="69" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="B69" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="25">
+        <v>832</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="26">
         <v>60</v>
       </c>
       <c r="D69" s="29">
@@ -42368,7 +42371,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>942</v>
+        <v>908</v>
       </c>
       <c r="F69" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A69)</f>
@@ -42376,11 +42379,11 @@
       </c>
       <c r="G69" s="26" cm="1">
         <f t="array" ref="G69">MIN(IF($A69=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H69" s="26" cm="1">
         <f t="array" ref="H69">MAX(IF($A69=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I69" s="26">
         <f>H69-G69</f>
@@ -42389,12 +42392,12 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
-        <v>834</v>
-      </c>
-      <c r="B70" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="26">
+        <v>770</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="25">
         <v>60</v>
       </c>
       <c r="D70" s="29">
@@ -42402,7 +42405,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="F70" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A70)</f>
@@ -42410,11 +42413,11 @@
       </c>
       <c r="G70" s="26" cm="1">
         <f t="array" ref="G70">MIN(IF($A70=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H70" s="26" cm="1">
         <f t="array" ref="H70">MAX(IF($A70=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I70" s="26">
         <f>H70-G70</f>
@@ -42423,10 +42426,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
-        <v>770</v>
-      </c>
-      <c r="B71" s="41" t="s">
-        <v>33</v>
+        <v>538</v>
+      </c>
+      <c r="B71" s="44" t="s">
+        <v>9</v>
       </c>
       <c r="C71" s="25">
         <v>60</v>
@@ -42436,45 +42439,45 @@
         <v>3</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>914</v>
+        <v>623</v>
       </c>
       <c r="F71" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A71)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G71" s="26" cm="1">
         <f t="array" ref="G71">MIN(IF($A71=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H71" s="26" cm="1">
         <f t="array" ref="H71">MAX(IF($A71=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I71" s="26">
         <f>H71-G71</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
-        <v>538</v>
-      </c>
-      <c r="B72" s="44" t="s">
-        <v>9</v>
+        <v>666</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="C72" s="25">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D72" s="29">
         <f>IF(NOT(ISBLANK(C72)), IF(ISNUMBER(C72), ROUND((C72 - 5)/20, 0), C72), "")</f>
         <v>3</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>623</v>
+        <v>707</v>
       </c>
       <c r="F72" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A72)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G72" s="26" cm="1">
         <f t="array" ref="G72">MIN(IF($A72=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
@@ -42482,22 +42485,22 @@
       </c>
       <c r="H72" s="26" cm="1">
         <f t="array" ref="H72">MAX(IF($A72=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I72" s="26">
         <f>H72-G72</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
-        <v>666</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>14</v>
+        <v>518</v>
+      </c>
+      <c r="B73" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="C73" s="25">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D73" s="29">
         <f>IF(NOT(ISBLANK(C73)), IF(ISNUMBER(C73), ROUND((C73 - 5)/20, 0), C73), "")</f>
@@ -42508,11 +42511,11 @@
       </c>
       <c r="F73" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A73)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G73" s="26" cm="1">
         <f t="array" ref="G73">MIN(IF($A73=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H73" s="26" cm="1">
         <f t="array" ref="H73">MAX(IF($A73=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
@@ -42520,29 +42523,29 @@
       </c>
       <c r="I73" s="26">
         <f>H73-G73</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="26" t="s">
-        <v>518</v>
-      </c>
-      <c r="B74" s="46" t="s">
-        <v>16</v>
+        <v>503</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>5</v>
       </c>
       <c r="C74" s="25">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D74" s="29">
         <f>IF(NOT(ISBLANK(C74)), IF(ISNUMBER(C74), ROUND((C74 - 5)/20, 0), C74), "")</f>
         <v>3</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>707</v>
+        <v>681</v>
       </c>
       <c r="F74" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A74)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G74" s="26" cm="1">
         <f t="array" ref="G74">MIN(IF($A74=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
@@ -42550,41 +42553,41 @@
       </c>
       <c r="H74" s="26" cm="1">
         <f t="array" ref="H74">MAX(IF($A74=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I74" s="26">
         <f>H74-G74</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="B75" s="38" t="s">
-        <v>5</v>
+        <v>791</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="C75" s="25">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D75" s="29">
         <f>IF(NOT(ISBLANK(C75)), IF(ISNUMBER(C75), ROUND((C75 - 5)/20, 0), C75), "")</f>
         <v>3</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
       <c r="F75" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A75)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G75" s="26" cm="1">
         <f t="array" ref="G75">MIN(IF($A75=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H75" s="26" cm="1">
         <f t="array" ref="H75">MAX(IF($A75=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I75" s="26">
         <f>H75-G75</f>
@@ -42593,44 +42596,44 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
-        <v>792</v>
-      </c>
-      <c r="B76" s="37" t="s">
-        <v>13</v>
+        <v>719</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="C76" s="25">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D76" s="29">
         <f>IF(NOT(ISBLANK(C76)), IF(ISNUMBER(C76), ROUND((C76 - 5)/20, 0), C76), "")</f>
         <v>3</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>708</v>
+        <v>624</v>
       </c>
       <c r="F76" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A76)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" s="26" cm="1">
         <f t="array" ref="G76">MIN(IF($A76=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H76" s="26" cm="1">
         <f t="array" ref="H76">MAX(IF($A76=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I76" s="26">
         <f>H76-G76</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
-        <v>719</v>
-      </c>
-      <c r="B77" s="42" t="s">
-        <v>42</v>
+        <v>612</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="C77" s="25">
         <v>60</v>
@@ -42640,19 +42643,19 @@
         <v>3</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="F77" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A77)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" s="26" cm="1">
         <f t="array" ref="G77">MIN(IF($A77=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H77" s="26" cm="1">
         <f t="array" ref="H77">MAX(IF($A77=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I77" s="26">
         <f>H77-G77</f>
@@ -42661,32 +42664,32 @@
     </row>
     <row r="78" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="B78" s="37" t="s">
-        <v>13</v>
+        <v>774</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>564</v>
       </c>
       <c r="C78" s="25">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D78" s="29">
         <f>IF(NOT(ISBLANK(C78)), IF(ISNUMBER(C78), ROUND((C78 - 5)/20, 0), C78), "")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>636</v>
+        <v>578</v>
       </c>
       <c r="F78" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A78)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" s="26" cm="1">
         <f t="array" ref="G78">MIN(IF($A78=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H78" s="26" cm="1">
         <f t="array" ref="H78">MAX(IF($A78=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I78" s="26">
         <f>H78-G78</f>
@@ -42694,79 +42697,79 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="26" t="s">
-        <v>775</v>
+      <c r="A79" s="27" t="s">
+        <v>862</v>
       </c>
       <c r="B79" s="27" t="s">
         <v>564</v>
       </c>
       <c r="C79" s="25">
-        <v>75</v>
-      </c>
-      <c r="D79" s="29">
+        <v>90</v>
+      </c>
+      <c r="D79" s="25">
         <f>IF(NOT(ISBLANK(C79)), IF(ISNUMBER(C79), ROUND((C79 - 5)/20, 0), C79), "")</f>
         <v>4</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>578</v>
+        <v>932</v>
       </c>
       <c r="F79" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A79)</f>
         <v>1</v>
       </c>
-      <c r="G79" s="26" cm="1">
+      <c r="G79" s="27" cm="1">
         <f t="array" ref="G79">MIN(IF($A79=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
-      </c>
-      <c r="H79" s="26" cm="1">
+        <v>20</v>
+      </c>
+      <c r="H79" s="27" cm="1">
         <f t="array" ref="H79">MAX(IF($A79=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
-      </c>
-      <c r="I79" s="26">
+        <v>20</v>
+      </c>
+      <c r="I79" s="27">
         <f>H79-G79</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="27" t="s">
-        <v>867</v>
-      </c>
-      <c r="B80" s="27" t="s">
-        <v>564</v>
+      <c r="A80" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="C80" s="25">
-        <v>90</v>
-      </c>
-      <c r="D80" s="25">
+        <v>75</v>
+      </c>
+      <c r="D80" s="29">
         <f>IF(NOT(ISBLANK(C80)), IF(ISNUMBER(C80), ROUND((C80 - 5)/20, 0), C80), "")</f>
         <v>4</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>939</v>
+        <v>771</v>
       </c>
       <c r="F80" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A80)</f>
         <v>1</v>
       </c>
-      <c r="G80" s="27" cm="1">
+      <c r="G80" s="26" cm="1">
         <f t="array" ref="G80">MIN(IF($A80=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>20</v>
-      </c>
-      <c r="H80" s="27" cm="1">
+        <v>28</v>
+      </c>
+      <c r="H80" s="26" cm="1">
         <f t="array" ref="H80">MAX(IF($A80=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>20</v>
-      </c>
-      <c r="I80" s="27">
+        <v>28</v>
+      </c>
+      <c r="I80" s="26">
         <f>H80-G80</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
-        <v>765</v>
-      </c>
-      <c r="B81" s="28" t="s">
-        <v>22</v>
+        <v>467</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="C81" s="25">
         <v>75</v>
@@ -42776,34 +42779,34 @@
         <v>4</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>771</v>
+        <v>600</v>
       </c>
       <c r="F81" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A81)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G81" s="26" cm="1">
         <f t="array" ref="G81">MIN(IF($A81=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H81" s="26" cm="1">
         <f t="array" ref="H81">MAX(IF($A81=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I81" s="26">
         <f>H81-G81</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="B82" s="36" t="s">
-        <v>3</v>
+        <v>808</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>2</v>
       </c>
       <c r="C82" s="25">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D82" s="29">
         <f>IF(NOT(ISBLANK(C82)), IF(ISNUMBER(C82), ROUND((C82 - 5)/20, 0), C82), "")</f>
@@ -42814,30 +42817,30 @@
       </c>
       <c r="F82" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A82)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82" s="26" cm="1">
         <f t="array" ref="G82">MIN(IF($A82=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H82" s="26" cm="1">
         <f t="array" ref="H82">MAX(IF($A82=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I82" s="26">
         <f>H82-G82</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
-        <v>809</v>
-      </c>
-      <c r="B83" s="34" t="s">
-        <v>2</v>
+        <v>532</v>
+      </c>
+      <c r="B83" s="44" t="s">
+        <v>9</v>
       </c>
       <c r="C83" s="25">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D83" s="29">
         <f>IF(NOT(ISBLANK(C83)), IF(ISNUMBER(C83), ROUND((C83 - 5)/20, 0), C83), "")</f>
@@ -42848,27 +42851,27 @@
       </c>
       <c r="F83" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A83)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" s="26" cm="1">
         <f t="array" ref="G83">MIN(IF($A83=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H83" s="26" cm="1">
         <f t="array" ref="H83">MAX(IF($A83=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I83" s="26">
         <f>H83-G83</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
-        <v>532</v>
-      </c>
-      <c r="B84" s="44" t="s">
-        <v>9</v>
+        <v>542</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C84" s="25">
         <v>75</v>
@@ -42890,22 +42893,22 @@
       </c>
       <c r="H84" s="26" cm="1">
         <f t="array" ref="H84">MAX(IF($A84=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I84" s="26">
         <f>H84-G84</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>542</v>
-      </c>
-      <c r="B85" s="30" t="s">
-        <v>8</v>
+        <v>690</v>
+      </c>
+      <c r="B85" s="40" t="s">
+        <v>7</v>
       </c>
       <c r="C85" s="25">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D85" s="29">
         <f>IF(NOT(ISBLANK(C85)), IF(ISNUMBER(C85), ROUND((C85 - 5)/20, 0), C85), "")</f>
@@ -42920,105 +42923,105 @@
       </c>
       <c r="G85" s="26" cm="1">
         <f t="array" ref="G85">MIN(IF($A85=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H85" s="26" cm="1">
         <f t="array" ref="H85">MAX(IF($A85=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I85" s="26">
         <f>H85-G85</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
-        <v>690</v>
-      </c>
-      <c r="B86" s="40" t="s">
-        <v>7</v>
+        <v>521</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C86" s="25">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D86" s="29">
         <f>IF(NOT(ISBLANK(C86)), IF(ISNUMBER(C86), ROUND((C86 - 5)/20, 0), C86), "")</f>
         <v>4</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>600</v>
+        <v>737</v>
       </c>
       <c r="F86" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A86)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G86" s="26" cm="1">
         <f t="array" ref="G86">MIN(IF($A86=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H86" s="26" cm="1">
         <f t="array" ref="H86">MAX(IF($A86=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I86" s="26">
         <f>H86-G86</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="B87" s="30" t="s">
-        <v>8</v>
+        <v>720</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="C87" s="25">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D87" s="29">
         <f>IF(NOT(ISBLANK(C87)), IF(ISNUMBER(C87), ROUND((C87 - 5)/20, 0), C87), "")</f>
         <v>4</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>737</v>
+        <v>876</v>
       </c>
       <c r="F87" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A87)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87" s="26" cm="1">
         <f t="array" ref="G87">MIN(IF($A87=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H87" s="26" cm="1">
         <f t="array" ref="H87">MAX(IF($A87=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I87" s="26">
         <f>H87-G87</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>720</v>
-      </c>
-      <c r="B88" s="33" t="s">
-        <v>11</v>
+        <v>804</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C88" s="25">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D88" s="29">
         <f>IF(NOT(ISBLANK(C88)), IF(ISNUMBER(C88), ROUND((C88 - 5)/20, 0), C88), "")</f>
         <v>4</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="F88" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A88)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88" s="26" cm="1">
         <f t="array" ref="G88">MIN(IF($A88=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
@@ -43026,29 +43029,29 @@
       </c>
       <c r="H88" s="26" cm="1">
         <f t="array" ref="H88">MAX(IF($A88=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I88" s="26">
         <f>H88-G88</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>805</v>
-      </c>
-      <c r="B89" s="31" t="s">
-        <v>4</v>
+        <v>526</v>
+      </c>
+      <c r="B89" s="40" t="s">
+        <v>7</v>
       </c>
       <c r="C89" s="25">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D89" s="29">
         <f>IF(NOT(ISBLANK(C89)), IF(ISNUMBER(C89), ROUND((C89 - 5)/20, 0), C89), "")</f>
         <v>4</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="F89" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A89)</f>
@@ -43056,11 +43059,11 @@
       </c>
       <c r="G89" s="26" cm="1">
         <f t="array" ref="G89">MIN(IF($A89=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H89" s="26" cm="1">
         <f t="array" ref="H89">MAX(IF($A89=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I89" s="26">
         <f>H89-G89</f>
@@ -43069,88 +43072,88 @@
     </row>
     <row r="90" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
-        <v>526</v>
-      </c>
-      <c r="B90" s="40" t="s">
-        <v>7</v>
+        <v>605</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="C90" s="25">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D90" s="29">
         <f>IF(NOT(ISBLANK(C90)), IF(ISNUMBER(C90), ROUND((C90 - 5)/20, 0), C90), "")</f>
         <v>4</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="F90" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A90)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G90" s="26" cm="1">
         <f t="array" ref="G90">MIN(IF($A90=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H90" s="26" cm="1">
         <f t="array" ref="H90">MAX(IF($A90=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I90" s="26">
         <f>H90-G90</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>605</v>
-      </c>
-      <c r="B91" s="32" t="s">
-        <v>6</v>
+        <v>528</v>
+      </c>
+      <c r="B91" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="C91" s="25">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D91" s="29">
         <f>IF(NOT(ISBLANK(C91)), IF(ISNUMBER(C91), ROUND((C91 - 5)/20, 0), C91), "")</f>
         <v>4</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="F91" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A91)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G91" s="26" cm="1">
         <f t="array" ref="G91">MIN(IF($A91=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H91" s="26" cm="1">
         <f t="array" ref="H91">MAX(IF($A91=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I91" s="26">
         <f>H91-G91</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>528</v>
-      </c>
-      <c r="B92" s="39" t="s">
-        <v>26</v>
+        <v>852</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="C92" s="25">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D92" s="29">
         <f>IF(NOT(ISBLANK(C92)), IF(ISNUMBER(C92), ROUND((C92 - 5)/20, 0), C92), "")</f>
         <v>4</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="F92" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A92)</f>
@@ -43158,11 +43161,11 @@
       </c>
       <c r="G92" s="26" cm="1">
         <f t="array" ref="G92">MIN(IF($A92=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H92" s="26" cm="1">
         <f t="array" ref="H92">MAX(IF($A92=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I92" s="26">
         <f>H92-G92</f>
@@ -43171,20 +43174,20 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>855</v>
-      </c>
-      <c r="B93" s="32" t="s">
-        <v>6</v>
+        <v>475</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C93" s="25">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D93" s="29">
         <f>IF(NOT(ISBLANK(C93)), IF(ISNUMBER(C93), ROUND((C93 - 5)/20, 0), C93), "")</f>
         <v>4</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>887</v>
+        <v>711</v>
       </c>
       <c r="F93" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A93)</f>
@@ -43192,11 +43195,11 @@
       </c>
       <c r="G93" s="26" cm="1">
         <f t="array" ref="G93">MIN(IF($A93=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H93" s="26" cm="1">
         <f t="array" ref="H93">MAX(IF($A93=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I93" s="26">
         <f>H93-G93</f>
@@ -43205,10 +43208,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>475</v>
-      </c>
-      <c r="B94" s="31" t="s">
-        <v>4</v>
+        <v>474</v>
+      </c>
+      <c r="B94" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="C94" s="25">
         <v>90</v>
@@ -43218,7 +43221,7 @@
         <v>4</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F94" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A94)</f>
@@ -43239,10 +43242,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="B95" s="35" t="s">
-        <v>14</v>
+        <v>589</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="C95" s="25">
         <v>90</v>
@@ -43252,7 +43255,7 @@
         <v>4</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F95" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A95)</f>
@@ -43273,78 +43276,78 @@
     </row>
     <row r="96" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>589</v>
-      </c>
-      <c r="B96" s="33" t="s">
-        <v>11</v>
+        <v>525</v>
+      </c>
+      <c r="B96" s="38" t="s">
+        <v>5</v>
       </c>
       <c r="C96" s="25">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D96" s="29">
         <f>IF(NOT(ISBLANK(C96)), IF(ISNUMBER(C96), ROUND((C96 - 5)/20, 0), C96), "")</f>
         <v>4</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>710</v>
+        <v>602</v>
       </c>
       <c r="F96" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A96)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G96" s="26" cm="1">
         <f t="array" ref="G96">MIN(IF($A96=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H96" s="26" cm="1">
         <f t="array" ref="H96">MAX(IF($A96=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I96" s="26">
         <f>H96-G96</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>525</v>
-      </c>
-      <c r="B97" s="38" t="s">
-        <v>5</v>
+        <v>485</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C97" s="25">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D97" s="29">
         <f>IF(NOT(ISBLANK(C97)), IF(ISNUMBER(C97), ROUND((C97 - 5)/20, 0), C97), "")</f>
         <v>4</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="F97" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A97)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G97" s="26" cm="1">
         <f t="array" ref="G97">MIN(IF($A97=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H97" s="26" cm="1">
         <f t="array" ref="H97">MAX(IF($A97=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I97" s="26">
         <f>H97-G97</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="B98" s="31" t="s">
-        <v>4</v>
+        <v>488</v>
+      </c>
+      <c r="B98" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="C98" s="25">
         <v>80</v>
@@ -43362,23 +43365,23 @@
       </c>
       <c r="G98" s="26" cm="1">
         <f t="array" ref="G98">MIN(IF($A98=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H98" s="26" cm="1">
         <f t="array" ref="H98">MAX(IF($A98=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I98" s="26">
         <f>H98-G98</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="B99" s="32" t="s">
-        <v>6</v>
+        <v>504</v>
+      </c>
+      <c r="B99" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="C99" s="25">
         <v>80</v>
@@ -43388,19 +43391,19 @@
         <v>4</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F99" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A99)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G99" s="26" cm="1">
         <f t="array" ref="G99">MIN(IF($A99=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H99" s="26" cm="1">
         <f t="array" ref="H99">MAX(IF($A99=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I99" s="26">
         <f>H99-G99</f>
@@ -43409,10 +43412,10 @@
     </row>
     <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="B100" s="39" t="s">
-        <v>26</v>
+        <v>497</v>
+      </c>
+      <c r="B100" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="C100" s="25">
         <v>80</v>
@@ -43422,11 +43425,11 @@
         <v>4</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F100" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A100)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G100" s="26" cm="1">
         <f t="array" ref="G100">MIN(IF($A100=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
@@ -43434,22 +43437,22 @@
       </c>
       <c r="H100" s="26" cm="1">
         <f t="array" ref="H100">MAX(IF($A100=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I100" s="26">
         <f>H100-G100</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
-        <v>497</v>
+        <v>632</v>
       </c>
       <c r="B101" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C101" s="25">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D101" s="29">
         <f>IF(NOT(ISBLANK(C101)), IF(ISNUMBER(C101), ROUND((C101 - 5)/20, 0), C101), "")</f>
@@ -43460,15 +43463,15 @@
       </c>
       <c r="F101" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A101)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101" s="26" cm="1">
         <f t="array" ref="G101">MIN(IF($A101=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H101" s="26" cm="1">
         <f t="array" ref="H101">MAX(IF($A101=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I101" s="26">
         <f>H101-G101</f>
@@ -43477,20 +43480,20 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
-        <v>632</v>
-      </c>
-      <c r="B102" s="35" t="s">
-        <v>14</v>
+        <v>537</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C102" s="25">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D102" s="29">
         <f>IF(NOT(ISBLANK(C102)), IF(ISNUMBER(C102), ROUND((C102 - 5)/20, 0), C102), "")</f>
         <v>4</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F102" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A102)</f>
@@ -43498,11 +43501,11 @@
       </c>
       <c r="G102" s="26" cm="1">
         <f t="array" ref="G102">MIN(IF($A102=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H102" s="26" cm="1">
         <f t="array" ref="H102">MAX(IF($A102=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I102" s="26">
         <f>H102-G102</f>
@@ -43511,13 +43514,13 @@
     </row>
     <row r="103" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
-        <v>537</v>
-      </c>
-      <c r="B103" s="30" t="s">
-        <v>8</v>
+        <v>491</v>
+      </c>
+      <c r="B103" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="C103" s="25">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D103" s="29">
         <f>IF(NOT(ISBLANK(C103)), IF(ISNUMBER(C103), ROUND((C103 - 5)/20, 0), C103), "")</f>
@@ -43528,15 +43531,15 @@
       </c>
       <c r="F103" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A103)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G103" s="26" cm="1">
         <f t="array" ref="G103">MIN(IF($A103=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H103" s="26" cm="1">
         <f t="array" ref="H103">MAX(IF($A103=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I103" s="26">
         <f>H103-G103</f>
@@ -43545,10 +43548,10 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="B104" s="33" t="s">
-        <v>11</v>
+        <v>502</v>
+      </c>
+      <c r="B104" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="C104" s="25">
         <v>80</v>
@@ -43558,7 +43561,7 @@
         <v>4</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>621</v>
+        <v>671</v>
       </c>
       <c r="F104" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A104)</f>
@@ -43579,10 +43582,10 @@
     </row>
     <row r="105" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="B105" s="36" t="s">
-        <v>3</v>
+        <v>543</v>
+      </c>
+      <c r="B105" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C105" s="25">
         <v>80</v>
@@ -43592,31 +43595,31 @@
         <v>4</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F105" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A105)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G105" s="26" cm="1">
         <f t="array" ref="G105">MIN(IF($A105=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H105" s="26" cm="1">
         <f t="array" ref="H105">MAX(IF($A105=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I105" s="26">
         <f>H105-G105</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
-        <v>543</v>
-      </c>
-      <c r="B106" s="30" t="s">
-        <v>8</v>
+        <v>769</v>
+      </c>
+      <c r="B106" s="34" t="s">
+        <v>2</v>
       </c>
       <c r="C106" s="25">
         <v>80</v>
@@ -43626,41 +43629,41 @@
         <v>4</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>673</v>
+        <v>907</v>
       </c>
       <c r="F106" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A106)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106" s="26" cm="1">
         <f t="array" ref="G106">MIN(IF($A106=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H106" s="26" cm="1">
         <f t="array" ref="H106">MAX(IF($A106=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I106" s="26">
         <f>H106-G106</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
-        <v>769</v>
-      </c>
-      <c r="B107" s="34" t="s">
-        <v>2</v>
+        <v>562</v>
+      </c>
+      <c r="B107" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="C107" s="25">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D107" s="29">
         <f>IF(NOT(ISBLANK(C107)), IF(ISNUMBER(C107), ROUND((C107 - 5)/20, 0), C107), "")</f>
         <v>4</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>913</v>
+        <v>882</v>
       </c>
       <c r="F107" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A107)</f>
@@ -43668,11 +43671,11 @@
       </c>
       <c r="G107" s="26" cm="1">
         <f t="array" ref="G107">MIN(IF($A107=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H107" s="26" cm="1">
         <f t="array" ref="H107">MAX(IF($A107=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I107" s="26">
         <f>H107-G107</f>
@@ -43681,10 +43684,10 @@
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
-        <v>562</v>
-      </c>
-      <c r="B108" s="42" t="s">
-        <v>42</v>
+        <v>547</v>
+      </c>
+      <c r="B108" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C108" s="25">
         <v>90</v>
@@ -43694,7 +43697,7 @@
         <v>4</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>888</v>
+        <v>854</v>
       </c>
       <c r="F108" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A108)</f>
@@ -43702,11 +43705,11 @@
       </c>
       <c r="G108" s="26" cm="1">
         <f t="array" ref="G108">MIN(IF($A108=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H108" s="26" cm="1">
         <f t="array" ref="H108">MAX(IF($A108=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I108" s="26">
         <f>H108-G108</f>
@@ -43715,20 +43718,20 @@
     </row>
     <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
-        <v>547</v>
-      </c>
-      <c r="B109" s="31" t="s">
-        <v>4</v>
+        <v>499</v>
+      </c>
+      <c r="B109" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="C109" s="25">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D109" s="29">
         <f>IF(NOT(ISBLANK(C109)), IF(ISNUMBER(C109), ROUND((C109 - 5)/20, 0), C109), "")</f>
         <v>4</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>857</v>
+        <v>601</v>
       </c>
       <c r="F109" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A109)</f>
@@ -43736,11 +43739,11 @@
       </c>
       <c r="G109" s="26" cm="1">
         <f t="array" ref="G109">MIN(IF($A109=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H109" s="26" cm="1">
         <f t="array" ref="H109">MAX(IF($A109=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I109" s="26">
         <f>H109-G109</f>
@@ -43749,10 +43752,10 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="B110" s="28" t="s">
-        <v>22</v>
+        <v>844</v>
+      </c>
+      <c r="B110" s="43" t="s">
+        <v>67</v>
       </c>
       <c r="C110" s="25">
         <v>80</v>
@@ -43766,27 +43769,27 @@
       </c>
       <c r="F110" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A110)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G110" s="26" cm="1">
         <f t="array" ref="G110">MIN(IF($A110=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H110" s="26" cm="1">
         <f t="array" ref="H110">MAX(IF($A110=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I110" s="26">
         <f>H110-G110</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
-        <v>847</v>
-      </c>
-      <c r="B111" s="43" t="s">
-        <v>67</v>
+        <v>734</v>
+      </c>
+      <c r="B111" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="C111" s="25">
         <v>80</v>
@@ -43796,31 +43799,31 @@
         <v>4</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>601</v>
+        <v>739</v>
       </c>
       <c r="F111" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A111)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G111" s="26" cm="1">
         <f t="array" ref="G111">MIN(IF($A111=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H111" s="26" cm="1">
         <f t="array" ref="H111">MAX(IF($A111=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I111" s="26">
         <f>H111-G111</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
-        <v>734</v>
-      </c>
-      <c r="B112" s="45" t="s">
-        <v>39</v>
+        <v>813</v>
+      </c>
+      <c r="B112" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="C112" s="25">
         <v>80</v>
@@ -43851,78 +43854,78 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
-        <v>815</v>
-      </c>
-      <c r="B113" s="42" t="s">
-        <v>42</v>
+        <v>494</v>
+      </c>
+      <c r="B113" s="34" t="s">
+        <v>2</v>
       </c>
       <c r="C113" s="25">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D113" s="29">
         <f>IF(NOT(ISBLANK(C113)), IF(ISNUMBER(C113), ROUND((C113 - 5)/20, 0), C113), "")</f>
         <v>4</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>739</v>
+        <v>659</v>
       </c>
       <c r="F113" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A113)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G113" s="26" cm="1">
         <f t="array" ref="G113">MIN(IF($A113=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H113" s="26" cm="1">
         <f t="array" ref="H113">MAX(IF($A113=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I113" s="26">
         <f>H113-G113</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
-        <v>494</v>
-      </c>
-      <c r="B114" s="34" t="s">
-        <v>2</v>
+        <v>766</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="C114" s="25">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D114" s="29">
         <f>IF(NOT(ISBLANK(C114)), IF(ISNUMBER(C114), ROUND((C114 - 5)/20, 0), C114), "")</f>
         <v>4</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>659</v>
+        <v>909</v>
       </c>
       <c r="F114" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A114)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G114" s="26" cm="1">
         <f t="array" ref="G114">MIN(IF($A114=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H114" s="26" cm="1">
         <f t="array" ref="H114">MAX(IF($A114=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I114" s="26">
         <f>H114-G114</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
-        <v>766</v>
-      </c>
-      <c r="B115" s="33" t="s">
-        <v>11</v>
+        <v>633</v>
+      </c>
+      <c r="B115" s="40" t="s">
+        <v>7</v>
       </c>
       <c r="C115" s="25">
         <v>80</v>
@@ -43932,31 +43935,31 @@
         <v>4</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>915</v>
+        <v>623</v>
       </c>
       <c r="F115" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A115)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G115" s="26" cm="1">
         <f t="array" ref="G115">MIN(IF($A115=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H115" s="26" cm="1">
         <f t="array" ref="H115">MAX(IF($A115=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I115" s="26">
         <f>H115-G115</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="26" t="s">
-        <v>633</v>
-      </c>
-      <c r="B116" s="40" t="s">
-        <v>7</v>
+        <v>514</v>
+      </c>
+      <c r="B116" s="44" t="s">
+        <v>9</v>
       </c>
       <c r="C116" s="25">
         <v>80</v>
@@ -43970,11 +43973,11 @@
       </c>
       <c r="F116" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A116)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G116" s="26" cm="1">
         <f t="array" ref="G116">MIN(IF($A116=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H116" s="26" cm="1">
         <f t="array" ref="H116">MAX(IF($A116=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
@@ -43982,15 +43985,15 @@
       </c>
       <c r="I116" s="26">
         <f>H116-G116</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
-        <v>514</v>
-      </c>
-      <c r="B117" s="44" t="s">
-        <v>9</v>
+        <v>495</v>
+      </c>
+      <c r="B117" s="34" t="s">
+        <v>2</v>
       </c>
       <c r="C117" s="25">
         <v>80</v>
@@ -44008,26 +44011,26 @@
       </c>
       <c r="G117" s="26" cm="1">
         <f t="array" ref="G117">MIN(IF($A117=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H117" s="26" cm="1">
         <f t="array" ref="H117">MAX(IF($A117=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I117" s="26">
         <f>H117-G117</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="B118" s="34" t="s">
-        <v>2</v>
+        <v>516</v>
+      </c>
+      <c r="B118" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="C118" s="25">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D118" s="29">
         <f>IF(NOT(ISBLANK(C118)), IF(ISNUMBER(C118), ROUND((C118 - 5)/20, 0), C118), "")</f>
@@ -44038,7 +44041,7 @@
       </c>
       <c r="F118" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A118)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G118" s="26" cm="1">
         <f t="array" ref="G118">MIN(IF($A118=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
@@ -44046,22 +44049,22 @@
       </c>
       <c r="H118" s="26" cm="1">
         <f t="array" ref="H118">MAX(IF($A118=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I118" s="26">
         <f>H118-G118</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="B119" s="45" t="s">
-        <v>39</v>
+        <v>820</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="C119" s="25">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D119" s="29">
         <f>IF(NOT(ISBLANK(C119)), IF(ISNUMBER(C119), ROUND((C119 - 5)/20, 0), C119), "")</f>
@@ -44072,7 +44075,7 @@
       </c>
       <c r="F119" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A119)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G119" s="26" cm="1">
         <f t="array" ref="G119">MIN(IF($A119=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
@@ -44080,22 +44083,22 @@
       </c>
       <c r="H119" s="26" cm="1">
         <f t="array" ref="H119">MAX(IF($A119=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I119" s="26">
         <f>H119-G119</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
-        <v>822</v>
-      </c>
-      <c r="B120" s="32" t="s">
-        <v>6</v>
+        <v>583</v>
+      </c>
+      <c r="B120" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="C120" s="25">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D120" s="29">
         <f>IF(NOT(ISBLANK(C120)), IF(ISNUMBER(C120), ROUND((C120 - 5)/20, 0), C120), "")</f>
@@ -44110,11 +44113,11 @@
       </c>
       <c r="G120" s="26" cm="1">
         <f t="array" ref="G120">MIN(IF($A120=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H120" s="26" cm="1">
         <f t="array" ref="H120">MAX(IF($A120=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I120" s="26">
         <f>H120-G120</f>
@@ -44123,88 +44126,88 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="26" t="s">
-        <v>583</v>
-      </c>
-      <c r="B121" s="42" t="s">
-        <v>42</v>
+        <v>546</v>
+      </c>
+      <c r="B121" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="C121" s="25">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D121" s="29">
         <f>IF(NOT(ISBLANK(C121)), IF(ISNUMBER(C121), ROUND((C121 - 5)/20, 0), C121), "")</f>
         <v>4</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>623</v>
+        <v>707</v>
       </c>
       <c r="F121" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A121)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G121" s="26" cm="1">
         <f t="array" ref="G121">MIN(IF($A121=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H121" s="26" cm="1">
         <f t="array" ref="H121">MAX(IF($A121=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I121" s="26">
         <f>H121-G121</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
-        <v>546</v>
-      </c>
-      <c r="B122" s="46" t="s">
-        <v>16</v>
+        <v>637</v>
+      </c>
+      <c r="B122" s="44" t="s">
+        <v>9</v>
       </c>
       <c r="C122" s="25">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D122" s="29">
         <f>IF(NOT(ISBLANK(C122)), IF(ISNUMBER(C122), ROUND((C122 - 5)/20, 0), C122), "")</f>
         <v>4</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>707</v>
+        <v>638</v>
       </c>
       <c r="F122" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A122)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G122" s="26" cm="1">
         <f t="array" ref="G122">MIN(IF($A122=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H122" s="26" cm="1">
         <f t="array" ref="H122">MAX(IF($A122=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I122" s="26">
         <f>H122-G122</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
-        <v>637</v>
-      </c>
-      <c r="B123" s="44" t="s">
-        <v>9</v>
+        <v>775</v>
+      </c>
+      <c r="B123" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="C123" s="25">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D123" s="29">
         <f>IF(NOT(ISBLANK(C123)), IF(ISNUMBER(C123), ROUND((C123 - 5)/20, 0), C123), "")</f>
         <v>4</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>638</v>
+        <v>708</v>
       </c>
       <c r="F123" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A123)</f>
@@ -44212,11 +44215,11 @@
       </c>
       <c r="G123" s="26" cm="1">
         <f t="array" ref="G123">MIN(IF($A123=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H123" s="26" cm="1">
         <f t="array" ref="H123">MAX(IF($A123=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I123" s="26">
         <f>H123-G123</f>
@@ -44225,13 +44228,13 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
-        <v>776</v>
-      </c>
-      <c r="B124" s="46" t="s">
-        <v>16</v>
+        <v>517</v>
+      </c>
+      <c r="B124" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="C124" s="25">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D124" s="29">
         <f>IF(NOT(ISBLANK(C124)), IF(ISNUMBER(C124), ROUND((C124 - 5)/20, 0), C124), "")</f>
@@ -44242,30 +44245,30 @@
       </c>
       <c r="F124" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A124)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G124" s="26" cm="1">
         <f t="array" ref="G124">MIN(IF($A124=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H124" s="26" cm="1">
         <f t="array" ref="H124">MAX(IF($A124=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I124" s="26">
         <f>H124-G124</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="B125" s="45" t="s">
-        <v>39</v>
+        <v>706</v>
+      </c>
+      <c r="B125" s="44" t="s">
+        <v>9</v>
       </c>
       <c r="C125" s="25">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D125" s="29">
         <f>IF(NOT(ISBLANK(C125)), IF(ISNUMBER(C125), ROUND((C125 - 5)/20, 0), C125), "")</f>
@@ -44276,7 +44279,7 @@
       </c>
       <c r="F125" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A125)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G125" s="26" cm="1">
         <f t="array" ref="G125">MIN(IF($A125=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
@@ -44284,41 +44287,41 @@
       </c>
       <c r="H125" s="26" cm="1">
         <f t="array" ref="H125">MAX(IF($A125=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I125" s="26">
         <f>H125-G125</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="26" t="s">
-        <v>706</v>
-      </c>
-      <c r="B126" s="44" t="s">
-        <v>9</v>
+        <v>561</v>
+      </c>
+      <c r="B126" s="27" t="s">
+        <v>564</v>
       </c>
       <c r="C126" s="25">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D126" s="29">
         <f>IF(NOT(ISBLANK(C126)), IF(ISNUMBER(C126), ROUND((C126 - 5)/20, 0), C126), "")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>708</v>
+        <v>676</v>
       </c>
       <c r="F126" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A126)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" s="26" cm="1">
         <f t="array" ref="G126">MIN(IF($A126=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H126" s="26" cm="1">
         <f t="array" ref="H126">MAX(IF($A126=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I126" s="26">
         <f>H126-G126</f>
@@ -44327,10 +44330,10 @@
     </row>
     <row r="127" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="26" t="s">
-        <v>561</v>
-      </c>
-      <c r="B127" s="27" t="s">
-        <v>564</v>
+        <v>716</v>
+      </c>
+      <c r="B127" s="38" t="s">
+        <v>5</v>
       </c>
       <c r="C127" s="25">
         <v>100</v>
@@ -44340,19 +44343,19 @@
         <v>5</v>
       </c>
       <c r="E127" s="26" t="s">
-        <v>676</v>
+        <v>857</v>
       </c>
       <c r="F127" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A127)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" s="26" cm="1">
         <f t="array" ref="G127">MIN(IF($A127=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H127" s="26" cm="1">
         <f t="array" ref="H127">MAX(IF($A127=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I127" s="26">
         <f>H127-G127</f>
@@ -44361,10 +44364,10 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="26" t="s">
-        <v>716</v>
-      </c>
-      <c r="B128" s="38" t="s">
-        <v>5</v>
+        <v>609</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C128" s="25">
         <v>100</v>
@@ -44374,15 +44377,15 @@
         <v>5</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F128" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A128)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128" s="26" cm="1">
         <f t="array" ref="G128">MIN(IF($A128=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H128" s="26" cm="1">
         <f t="array" ref="H128">MAX(IF($A128=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
@@ -44390,15 +44393,15 @@
       </c>
       <c r="I128" s="26">
         <f>H128-G128</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="B129" s="30" t="s">
-        <v>8</v>
+        <v>731</v>
+      </c>
+      <c r="B129" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C129" s="25">
         <v>100</v>
@@ -44408,7 +44411,7 @@
         <v>5</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F129" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A129)</f>
@@ -44420,19 +44423,19 @@
       </c>
       <c r="H129" s="26" cm="1">
         <f t="array" ref="H129">MAX(IF($A129=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I129" s="26">
         <f>H129-G129</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="B130" s="31" t="s">
-        <v>4</v>
+        <v>541</v>
+      </c>
+      <c r="B130" s="34" t="s">
+        <v>2</v>
       </c>
       <c r="C130" s="25">
         <v>100</v>
@@ -44442,31 +44445,31 @@
         <v>5</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F130" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A130)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G130" s="26" cm="1">
         <f t="array" ref="G130">MIN(IF($A130=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H130" s="26" cm="1">
         <f t="array" ref="H130">MAX(IF($A130=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I130" s="26">
         <f>H130-G130</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="26" t="s">
-        <v>541</v>
-      </c>
-      <c r="B131" s="34" t="s">
-        <v>2</v>
+        <v>506</v>
+      </c>
+      <c r="B131" s="40" t="s">
+        <v>7</v>
       </c>
       <c r="C131" s="25">
         <v>100</v>
@@ -44476,11 +44479,11 @@
         <v>5</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>860</v>
+        <v>678</v>
       </c>
       <c r="F131" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A131)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G131" s="26" cm="1">
         <f t="array" ref="G131">MIN(IF($A131=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
@@ -44488,19 +44491,19 @@
       </c>
       <c r="H131" s="26" cm="1">
         <f t="array" ref="H131">MAX(IF($A131=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I131" s="26">
         <f>H131-G131</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="B132" s="40" t="s">
-        <v>7</v>
+        <v>507</v>
+      </c>
+      <c r="B132" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="C132" s="25">
         <v>100</v>
@@ -44514,83 +44517,83 @@
       </c>
       <c r="F132" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A132)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G132" s="26" cm="1">
         <f t="array" ref="G132">MIN(IF($A132=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H132" s="26" cm="1">
         <f t="array" ref="H132">MAX(IF($A132=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I132" s="26">
         <f>H132-G132</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="B133" s="41" t="s">
-        <v>33</v>
+        <v>480</v>
+      </c>
+      <c r="B133" s="43" t="s">
+        <v>67</v>
       </c>
       <c r="C133" s="25">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D133" s="29">
         <f>IF(NOT(ISBLANK(C133)), IF(ISNUMBER(C133), ROUND((C133 - 5)/20, 0), C133), "")</f>
         <v>5</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>678</v>
+        <v>600</v>
       </c>
       <c r="F133" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A133)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G133" s="26" cm="1">
         <f t="array" ref="G133">MIN(IF($A133=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H133" s="26" cm="1">
         <f t="array" ref="H133">MAX(IF($A133=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I133" s="26">
         <f>H133-G133</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="B134" s="43" t="s">
-        <v>67</v>
+        <v>826</v>
+      </c>
+      <c r="B134" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="C134" s="25">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D134" s="29">
         <f>IF(NOT(ISBLANK(C134)), IF(ISNUMBER(C134), ROUND((C134 - 5)/20, 0), C134), "")</f>
         <v>5</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>600</v>
+        <v>931</v>
       </c>
       <c r="F134" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A134)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" s="26" cm="1">
         <f t="array" ref="G134">MIN(IF($A134=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H134" s="26" cm="1">
         <f t="array" ref="H134">MAX(IF($A134=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I134" s="26">
         <f>H134-G134</f>
@@ -44599,10 +44602,10 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="26" t="s">
-        <v>828</v>
-      </c>
-      <c r="B135" s="39" t="s">
-        <v>26</v>
+        <v>584</v>
+      </c>
+      <c r="B135" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="C135" s="25">
         <v>100</v>
@@ -44612,31 +44615,31 @@
         <v>5</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>938</v>
+        <v>859</v>
       </c>
       <c r="F135" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A135)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G135" s="26" cm="1">
         <f t="array" ref="G135">MIN(IF($A135=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H135" s="26" cm="1">
         <f t="array" ref="H135">MAX(IF($A135=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I135" s="26">
         <f>H135-G135</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="26" t="s">
-        <v>584</v>
-      </c>
-      <c r="B136" s="28" t="s">
-        <v>22</v>
+        <v>490</v>
+      </c>
+      <c r="B136" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="C136" s="25">
         <v>100</v>
@@ -44650,7 +44653,7 @@
       </c>
       <c r="F136" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A136)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G136" s="26" cm="1">
         <f t="array" ref="G136">MIN(IF($A136=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
@@ -44658,19 +44661,19 @@
       </c>
       <c r="H136" s="26" cm="1">
         <f t="array" ref="H136">MAX(IF($A136=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I136" s="26">
         <f>H136-G136</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="B137" s="37" t="s">
-        <v>13</v>
+        <v>483</v>
+      </c>
+      <c r="B137" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C137" s="25">
         <v>100</v>
@@ -44680,19 +44683,19 @@
         <v>5</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>869</v>
+        <v>580</v>
       </c>
       <c r="F137" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A137)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G137" s="26" cm="1">
         <f t="array" ref="G137">MIN(IF($A137=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H137" s="26" cm="1">
         <f t="array" ref="H137">MAX(IF($A137=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I137" s="26">
         <f>H137-G137</f>
@@ -44701,10 +44704,10 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="B138" s="31" t="s">
-        <v>4</v>
+        <v>484</v>
+      </c>
+      <c r="B138" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="C138" s="25">
         <v>100</v>
@@ -44714,7 +44717,7 @@
         <v>5</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>580</v>
+        <v>863</v>
       </c>
       <c r="F138" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A138)</f>
@@ -44726,19 +44729,19 @@
       </c>
       <c r="H138" s="26" cm="1">
         <f t="array" ref="H138">MAX(IF($A138=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I138" s="26">
         <f>H138-G138</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="B139" s="32" t="s">
-        <v>6</v>
+        <v>496</v>
+      </c>
+      <c r="B139" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="C139" s="25">
         <v>100</v>
@@ -44748,7 +44751,7 @@
         <v>5</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>868</v>
+        <v>581</v>
       </c>
       <c r="F139" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A139)</f>
@@ -44756,11 +44759,11 @@
       </c>
       <c r="G139" s="26" cm="1">
         <f t="array" ref="G139">MIN(IF($A139=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H139" s="26" cm="1">
         <f t="array" ref="H139">MAX(IF($A139=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I139" s="26">
         <f>H139-G139</f>
@@ -44769,10 +44772,10 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="B140" s="35" t="s">
-        <v>14</v>
+        <v>492</v>
+      </c>
+      <c r="B140" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="C140" s="25">
         <v>100</v>
@@ -44782,11 +44785,11 @@
         <v>5</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F140" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A140)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G140" s="26" cm="1">
         <f t="array" ref="G140">MIN(IF($A140=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
@@ -44803,24 +44806,24 @@
     </row>
     <row r="141" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="B141" s="33" t="s">
-        <v>11</v>
+        <v>655</v>
+      </c>
+      <c r="B141" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="C141" s="25">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D141" s="29">
         <f>IF(NOT(ISBLANK(C141)), IF(ISNUMBER(C141), ROUND((C141 - 5)/20, 0), C141), "")</f>
         <v>5</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="F141" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A141)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G141" s="26" cm="1">
         <f t="array" ref="G141">MIN(IF($A141=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
@@ -44828,29 +44831,29 @@
       </c>
       <c r="H141" s="26" cm="1">
         <f t="array" ref="H141">MAX(IF($A141=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I141" s="26">
         <f>H141-G141</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="26" t="s">
-        <v>655</v>
-      </c>
-      <c r="B142" s="36" t="s">
-        <v>3</v>
+        <v>614</v>
+      </c>
+      <c r="B142" s="43" t="s">
+        <v>67</v>
       </c>
       <c r="C142" s="25">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D142" s="29">
         <f>IF(NOT(ISBLANK(C142)), IF(ISNUMBER(C142), ROUND((C142 - 5)/20, 0), C142), "")</f>
         <v>5</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="F142" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A142)</f>
@@ -44858,11 +44861,11 @@
       </c>
       <c r="G142" s="26" cm="1">
         <f t="array" ref="G142">MIN(IF($A142=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H142" s="26" cm="1">
         <f t="array" ref="H142">MAX(IF($A142=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I142" s="26">
         <f>H142-G142</f>
@@ -44871,20 +44874,20 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="26" t="s">
-        <v>614</v>
+        <v>512</v>
       </c>
       <c r="B143" s="43" t="s">
         <v>67</v>
       </c>
       <c r="C143" s="25">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D143" s="29">
         <f>IF(NOT(ISBLANK(C143)), IF(ISNUMBER(C143), ROUND((C143 - 5)/20, 0), C143), "")</f>
         <v>5</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>602</v>
+        <v>865</v>
       </c>
       <c r="F143" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A143)</f>
@@ -44892,7 +44895,7 @@
       </c>
       <c r="G143" s="26" cm="1">
         <f t="array" ref="G143">MIN(IF($A143=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H143" s="26" cm="1">
         <f t="array" ref="H143">MAX(IF($A143=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
@@ -44900,15 +44903,15 @@
       </c>
       <c r="I143" s="26">
         <f>H143-G143</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="B144" s="43" t="s">
-        <v>67</v>
+        <v>853</v>
+      </c>
+      <c r="B144" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C144" s="25">
         <v>95</v>
@@ -44918,31 +44921,31 @@
         <v>5</v>
       </c>
       <c r="E144" s="26" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="F144" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A144)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G144" s="26" cm="1">
         <f t="array" ref="G144">MIN(IF($A144=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H144" s="26" cm="1">
         <f t="array" ref="H144">MAX(IF($A144=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I144" s="26">
         <f>H144-G144</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="26" t="s">
-        <v>856</v>
-      </c>
-      <c r="B145" s="31" t="s">
-        <v>4</v>
+        <v>587</v>
+      </c>
+      <c r="B145" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C145" s="25">
         <v>95</v>
@@ -44952,7 +44955,7 @@
         <v>5</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="F145" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A145)</f>
@@ -44960,11 +44963,11 @@
       </c>
       <c r="G145" s="26" cm="1">
         <f t="array" ref="G145">MIN(IF($A145=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H145" s="26" cm="1">
         <f t="array" ref="H145">MAX(IF($A145=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I145" s="26">
         <f>H145-G145</f>
@@ -44973,20 +44976,20 @@
     </row>
     <row r="146" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="26" t="s">
-        <v>587</v>
-      </c>
-      <c r="B146" s="30" t="s">
-        <v>8</v>
+        <v>801</v>
+      </c>
+      <c r="B146" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C146" s="25">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D146" s="29">
         <f>IF(NOT(ISBLANK(C146)), IF(ISNUMBER(C146), ROUND((C146 - 5)/20, 0), C146), "")</f>
         <v>5</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>870</v>
+        <v>802</v>
       </c>
       <c r="F146" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A146)</f>
@@ -44994,11 +44997,11 @@
       </c>
       <c r="G146" s="26" cm="1">
         <f t="array" ref="G146">MIN(IF($A146=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H146" s="26" cm="1">
         <f t="array" ref="H146">MAX(IF($A146=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I146" s="26">
         <f>H146-G146</f>
@@ -45007,10 +45010,10 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="26" t="s">
-        <v>802</v>
-      </c>
-      <c r="B147" s="31" t="s">
-        <v>4</v>
+        <v>593</v>
+      </c>
+      <c r="B147" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="C147" s="25">
         <v>110</v>
@@ -45020,7 +45023,7 @@
         <v>5</v>
       </c>
       <c r="E147" s="26" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="F147" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A147)</f>
@@ -45028,11 +45031,11 @@
       </c>
       <c r="G147" s="26" cm="1">
         <f t="array" ref="G147">MIN(IF($A147=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H147" s="26" cm="1">
         <f t="array" ref="H147">MAX(IF($A147=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I147" s="26">
         <f>H147-G147</f>
@@ -45041,10 +45044,10 @@
     </row>
     <row r="148" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="B148" s="35" t="s">
-        <v>14</v>
+        <v>595</v>
+      </c>
+      <c r="B148" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="C148" s="25">
         <v>110</v>
@@ -45054,19 +45057,19 @@
         <v>5</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F148" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A148)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148" s="26" cm="1">
         <f t="array" ref="G148">MIN(IF($A148=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H148" s="26" cm="1">
         <f t="array" ref="H148">MAX(IF($A148=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I148" s="26">
         <f>H148-G148</f>
@@ -45075,44 +45078,44 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="26" t="s">
-        <v>595</v>
-      </c>
-      <c r="B149" s="33" t="s">
-        <v>11</v>
+        <v>509</v>
+      </c>
+      <c r="B149" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="C149" s="25">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D149" s="29">
         <f>IF(NOT(ISBLANK(C149)), IF(ISNUMBER(C149), ROUND((C149 - 5)/20, 0), C149), "")</f>
         <v>5</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>786</v>
+        <v>829</v>
       </c>
       <c r="F149" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A149)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G149" s="26" cm="1">
         <f t="array" ref="G149">MIN(IF($A149=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H149" s="26" cm="1">
         <f t="array" ref="H149">MAX(IF($A149=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I149" s="26">
         <f>H149-G149</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="B150" s="41" t="s">
-        <v>33</v>
+        <v>549</v>
+      </c>
+      <c r="B150" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="C150" s="25">
         <v>100</v>
@@ -45122,31 +45125,31 @@
         <v>5</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>831</v>
+        <v>659</v>
       </c>
       <c r="F150" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A150)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G150" s="26" cm="1">
         <f t="array" ref="G150">MIN(IF($A150=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H150" s="26" cm="1">
         <f t="array" ref="H150">MAX(IF($A150=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I150" s="26">
         <f>H150-G150</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="26" t="s">
-        <v>549</v>
-      </c>
-      <c r="B151" s="39" t="s">
-        <v>26</v>
+        <v>533</v>
+      </c>
+      <c r="B151" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="C151" s="25">
         <v>100</v>
@@ -45156,7 +45159,7 @@
         <v>5</v>
       </c>
       <c r="E151" s="26" t="s">
-        <v>659</v>
+        <v>738</v>
       </c>
       <c r="F151" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A151)</f>
@@ -45164,11 +45167,11 @@
       </c>
       <c r="G151" s="26" cm="1">
         <f t="array" ref="G151">MIN(IF($A151=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H151" s="26" cm="1">
         <f t="array" ref="H151">MAX(IF($A151=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I151" s="26">
         <f>H151-G151</f>
@@ -45177,10 +45180,10 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="26" t="s">
-        <v>533</v>
-      </c>
-      <c r="B152" s="42" t="s">
-        <v>42</v>
+        <v>746</v>
+      </c>
+      <c r="B152" s="44" t="s">
+        <v>9</v>
       </c>
       <c r="C152" s="25">
         <v>100</v>
@@ -45190,7 +45193,7 @@
         <v>5</v>
       </c>
       <c r="E152" s="26" t="s">
-        <v>738</v>
+        <v>623</v>
       </c>
       <c r="F152" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A152)</f>
@@ -45198,11 +45201,11 @@
       </c>
       <c r="G152" s="26" cm="1">
         <f t="array" ref="G152">MIN(IF($A152=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H152" s="26" cm="1">
         <f t="array" ref="H152">MAX(IF($A152=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I152" s="26">
         <f>H152-G152</f>
@@ -45211,10 +45214,10 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="26" t="s">
-        <v>746</v>
-      </c>
-      <c r="B153" s="44" t="s">
-        <v>9</v>
+        <v>550</v>
+      </c>
+      <c r="B153" s="34" t="s">
+        <v>2</v>
       </c>
       <c r="C153" s="25">
         <v>100</v>
@@ -45232,11 +45235,11 @@
       </c>
       <c r="G153" s="26" cm="1">
         <f t="array" ref="G153">MIN(IF($A153=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H153" s="26" cm="1">
         <f t="array" ref="H153">MAX(IF($A153=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I153" s="26">
         <f>H153-G153</f>
@@ -45245,10 +45248,10 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="26" t="s">
-        <v>550</v>
-      </c>
-      <c r="B154" s="34" t="s">
-        <v>2</v>
+        <v>500</v>
+      </c>
+      <c r="B154" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="C154" s="25">
         <v>100</v>
@@ -45258,19 +45261,19 @@
         <v>5</v>
       </c>
       <c r="E154" s="26" t="s">
-        <v>623</v>
+        <v>913</v>
       </c>
       <c r="F154" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A154)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G154" s="26" cm="1">
         <f t="array" ref="G154">MIN(IF($A154=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H154" s="26" cm="1">
         <f t="array" ref="H154">MAX(IF($A154=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I154" s="26">
         <f>H154-G154</f>
@@ -45279,10 +45282,10 @@
     </row>
     <row r="155" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="B155" s="28" t="s">
-        <v>22</v>
+        <v>596</v>
+      </c>
+      <c r="B155" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="C155" s="25">
         <v>100</v>
@@ -45292,19 +45295,19 @@
         <v>5</v>
       </c>
       <c r="E155" s="26" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="F155" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A155)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G155" s="26" cm="1">
         <f t="array" ref="G155">MIN(IF($A155=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H155" s="26" cm="1">
         <f t="array" ref="H155">MAX(IF($A155=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I155" s="26">
         <f>H155-G155</f>
@@ -45313,10 +45316,10 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="26" t="s">
-        <v>596</v>
-      </c>
-      <c r="B156" s="46" t="s">
-        <v>16</v>
+        <v>792</v>
+      </c>
+      <c r="B156" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="C156" s="25">
         <v>100</v>
@@ -45326,19 +45329,19 @@
         <v>5</v>
       </c>
       <c r="E156" s="26" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="F156" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A156)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G156" s="26" cm="1">
         <f t="array" ref="G156">MIN(IF($A156=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H156" s="26" cm="1">
         <f t="array" ref="H156">MAX(IF($A156=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I156" s="26">
         <f>H156-G156</f>
@@ -45347,58 +45350,58 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="26" t="s">
-        <v>793</v>
-      </c>
-      <c r="B157" s="37" t="s">
-        <v>13</v>
+        <v>631</v>
+      </c>
+      <c r="B157" s="34" t="s">
+        <v>2</v>
       </c>
       <c r="C157" s="25">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D157" s="29">
         <f>IF(NOT(ISBLANK(C157)), IF(ISNUMBER(C157), ROUND((C157 - 5)/20, 0), C157), "")</f>
         <v>5</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
       <c r="F157" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A157)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G157" s="26" cm="1">
         <f t="array" ref="G157">MIN(IF($A157=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H157" s="26" cm="1">
         <f t="array" ref="H157">MAX(IF($A157=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I157" s="26">
         <f>H157-G157</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="26" t="s">
-        <v>631</v>
-      </c>
-      <c r="B158" s="34" t="s">
-        <v>2</v>
+        <v>527</v>
+      </c>
+      <c r="B158" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C158" s="25">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D158" s="29">
         <f>IF(NOT(ISBLANK(C158)), IF(ISNUMBER(C158), ROUND((C158 - 5)/20, 0), C158), "")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E158" s="26" t="s">
-        <v>936</v>
+        <v>858</v>
       </c>
       <c r="F158" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A158)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G158" s="26" cm="1">
         <f t="array" ref="G158">MIN(IF($A158=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
@@ -45406,19 +45409,19 @@
       </c>
       <c r="H158" s="26" cm="1">
         <f t="array" ref="H158">MAX(IF($A158=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I158" s="26">
         <f>H158-G158</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="B159" s="30" t="s">
-        <v>8</v>
+        <v>523</v>
+      </c>
+      <c r="B159" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="C159" s="25">
         <v>120</v>
@@ -45428,15 +45431,15 @@
         <v>6</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="F159" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A159)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G159" s="26" cm="1">
         <f t="array" ref="G159">MIN(IF($A159=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H159" s="26" cm="1">
         <f t="array" ref="H159">MAX(IF($A159=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
@@ -45444,15 +45447,15 @@
       </c>
       <c r="I159" s="26">
         <f>H159-G159</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="26" t="s">
-        <v>523</v>
-      </c>
-      <c r="B160" s="41" t="s">
-        <v>33</v>
+        <v>764</v>
+      </c>
+      <c r="B160" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C160" s="25">
         <v>120</v>
@@ -45462,7 +45465,7 @@
         <v>6</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="F160" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A160)</f>
@@ -45470,11 +45473,11 @@
       </c>
       <c r="G160" s="26" cm="1">
         <f t="array" ref="G160">MIN(IF($A160=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H160" s="26" cm="1">
         <f t="array" ref="H160">MAX(IF($A160=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I160" s="26">
         <f>H160-G160</f>
@@ -45482,78 +45485,78 @@
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="26" t="s">
-        <v>764</v>
-      </c>
-      <c r="B161" s="31" t="s">
-        <v>4</v>
+      <c r="A161" s="27" t="s">
+        <v>898</v>
+      </c>
+      <c r="B161" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="C161" s="25">
         <v>120</v>
       </c>
-      <c r="D161" s="29">
+      <c r="D161" s="25">
         <f>IF(NOT(ISBLANK(C161)), IF(ISNUMBER(C161), ROUND((C161 - 5)/20, 0), C161), "")</f>
         <v>6</v>
       </c>
       <c r="E161" s="26" t="s">
-        <v>861</v>
+        <v>784</v>
       </c>
       <c r="F161" s="26">
-        <f>COUNTIF(pokemon!$AC$2:$AC$295, A161)</f>
         <v>1</v>
       </c>
-      <c r="G161" s="26" cm="1">
+      <c r="G161" s="27" cm="1">
         <f t="array" ref="G161">MIN(IF($A161=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>28</v>
-      </c>
-      <c r="H161" s="26" cm="1">
+        <v>0</v>
+      </c>
+      <c r="H161" s="27" cm="1">
         <f t="array" ref="H161">MAX(IF($A161=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>28</v>
-      </c>
-      <c r="I161" s="26">
+        <v>0</v>
+      </c>
+      <c r="I161" s="27">
         <f>H161-G161</f>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="27" t="s">
-        <v>904</v>
-      </c>
-      <c r="B162" s="42" t="s">
-        <v>42</v>
+      <c r="A162" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="B162" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C162" s="25">
         <v>120</v>
       </c>
-      <c r="D162" s="25">
+      <c r="D162" s="29">
         <f>IF(NOT(ISBLANK(C162)), IF(ISNUMBER(C162), ROUND((C162 - 5)/20, 0), C162), "")</f>
         <v>6</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F162" s="26">
-        <v>1</v>
-      </c>
-      <c r="G162" s="27" cm="1">
+        <f>COUNTIF(pokemon!$AC$2:$AC$295, A162)</f>
+        <v>0</v>
+      </c>
+      <c r="G162" s="26" cm="1">
         <f t="array" ref="G162">MIN(IF($A162=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
         <v>0</v>
       </c>
-      <c r="H162" s="27" cm="1">
+      <c r="H162" s="26" cm="1">
         <f t="array" ref="H162">MAX(IF($A162=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
         <v>0</v>
       </c>
-      <c r="I162" s="27">
+      <c r="I162" s="26">
         <f>H162-G162</f>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="26" t="s">
-        <v>590</v>
-      </c>
-      <c r="B163" s="31" t="s">
-        <v>4</v>
+        <v>592</v>
+      </c>
+      <c r="B163" s="34" t="s">
+        <v>2</v>
       </c>
       <c r="C163" s="25">
         <v>120</v>
@@ -45563,7 +45566,7 @@
         <v>6</v>
       </c>
       <c r="E163" s="26" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F163" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A163)</f>
@@ -45584,10 +45587,10 @@
     </row>
     <row r="164" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="26" t="s">
-        <v>592</v>
-      </c>
-      <c r="B164" s="34" t="s">
-        <v>2</v>
+        <v>591</v>
+      </c>
+      <c r="B164" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="C164" s="25">
         <v>120</v>
@@ -45597,7 +45600,7 @@
         <v>6</v>
       </c>
       <c r="E164" s="26" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F164" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A164)</f>
@@ -45618,10 +45621,10 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="26" t="s">
-        <v>591</v>
-      </c>
-      <c r="B165" s="32" t="s">
-        <v>6</v>
+        <v>827</v>
+      </c>
+      <c r="B165" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="C165" s="25">
         <v>120</v>
@@ -45631,7 +45634,7 @@
         <v>6</v>
       </c>
       <c r="E165" s="26" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F165" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A165)</f>
@@ -45652,10 +45655,10 @@
     </row>
     <row r="166" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="26" t="s">
-        <v>829</v>
-      </c>
-      <c r="B166" s="28" t="s">
-        <v>22</v>
+        <v>508</v>
+      </c>
+      <c r="B166" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="C166" s="25">
         <v>120</v>
@@ -45665,19 +45668,19 @@
         <v>6</v>
       </c>
       <c r="E166" s="26" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F166" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A166)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166" s="26" cm="1">
         <f t="array" ref="G166">MIN(IF($A166=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H166" s="26" cm="1">
         <f t="array" ref="H166">MAX(IF($A166=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I166" s="26">
         <f>H166-G166</f>
@@ -45686,20 +45689,20 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="B167" s="41" t="s">
-        <v>33</v>
+        <v>513</v>
+      </c>
+      <c r="B167" s="43" t="s">
+        <v>67</v>
       </c>
       <c r="C167" s="25">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D167" s="29">
         <f>IF(NOT(ISBLANK(C167)), IF(ISNUMBER(C167), ROUND((C167 - 5)/20, 0), C167), "")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E167" s="26" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F167" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A167)</f>
@@ -45707,11 +45710,11 @@
       </c>
       <c r="G167" s="26" cm="1">
         <f t="array" ref="G167">MIN(IF($A167=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H167" s="26" cm="1">
         <f t="array" ref="H167">MAX(IF($A167=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I167" s="26">
         <f>H167-G167</f>
@@ -45720,20 +45723,20 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="B168" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C168" s="25">
-        <v>150</v>
-      </c>
-      <c r="D168" s="29">
+        <v>548</v>
+      </c>
+      <c r="B168" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="D168" s="29" t="str">
         <f>IF(NOT(ISBLANK(C168)), IF(ISNUMBER(C168), ROUND((C168 - 5)/20, 0), C168), "")</f>
-        <v>7</v>
+        <v>?</v>
       </c>
       <c r="E168" s="26" t="s">
-        <v>785</v>
+        <v>937</v>
       </c>
       <c r="F168" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A168)</f>
@@ -45741,11 +45744,11 @@
       </c>
       <c r="G168" s="26" cm="1">
         <f t="array" ref="G168">MIN(IF($A168=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H168" s="26" cm="1">
         <f t="array" ref="H168">MAX(IF($A168=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I168" s="26">
         <f>H168-G168</f>
@@ -45754,10 +45757,10 @@
     </row>
     <row r="169" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="26" t="s">
-        <v>548</v>
-      </c>
-      <c r="B169" s="30" t="s">
-        <v>8</v>
+        <v>772</v>
+      </c>
+      <c r="B169" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="C169" s="25" t="s">
         <v>522</v>
@@ -45767,7 +45770,7 @@
         <v>?</v>
       </c>
       <c r="E169" s="26" t="s">
-        <v>773</v>
+        <v>937</v>
       </c>
       <c r="F169" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A169)</f>
@@ -45775,11 +45778,11 @@
       </c>
       <c r="G169" s="26" cm="1">
         <f t="array" ref="G169">MIN(IF($A169=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H169" s="26" cm="1">
         <f t="array" ref="H169">MAX(IF($A169=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I169" s="26">
         <f>H169-G169</f>
@@ -45788,10 +45791,10 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="26" t="s">
-        <v>772</v>
-      </c>
-      <c r="B170" s="28" t="s">
-        <v>22</v>
+        <v>577</v>
+      </c>
+      <c r="B170" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="C170" s="25" t="s">
         <v>522</v>
@@ -45801,31 +45804,31 @@
         <v>?</v>
       </c>
       <c r="E170" s="26" t="s">
-        <v>773</v>
+        <v>938</v>
       </c>
       <c r="F170" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A170)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G170" s="26" cm="1">
         <f t="array" ref="G170">MIN(IF($A170=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H170" s="26" cm="1">
         <f t="array" ref="H170">MAX(IF($A170=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I170" s="26">
         <f>H170-G170</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="26" t="s">
-        <v>577</v>
-      </c>
-      <c r="B171" s="45" t="s">
-        <v>39</v>
+        <v>728</v>
+      </c>
+      <c r="B171" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="C171" s="25" t="s">
         <v>522</v>
@@ -45835,31 +45838,31 @@
         <v>?</v>
       </c>
       <c r="E171" s="26" t="s">
-        <v>863</v>
+        <v>939</v>
       </c>
       <c r="F171" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A171)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G171" s="26" cm="1">
         <f t="array" ref="G171">MIN(IF($A171=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H171" s="26" cm="1">
         <f t="array" ref="H171">MAX(IF($A171=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I171" s="26">
         <f>H171-G171</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="26" t="s">
-        <v>728</v>
-      </c>
-      <c r="B172" s="35" t="s">
-        <v>14</v>
+        <v>773</v>
+      </c>
+      <c r="B172" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="C172" s="25" t="s">
         <v>522</v>
@@ -45869,7 +45872,7 @@
         <v>?</v>
       </c>
       <c r="E172" s="26" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F172" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A172)</f>
@@ -45877,11 +45880,11 @@
       </c>
       <c r="G172" s="26" cm="1">
         <f t="array" ref="G172">MIN(IF($A172=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H172" s="26" cm="1">
         <f t="array" ref="H172">MAX(IF($A172=pokemon!$AC$2:$AC$295, pokemon!$T$2:$T$295))</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I172" s="26">
         <f>H172-G172</f>
@@ -45903,7 +45906,7 @@
         <v>?</v>
       </c>
       <c r="E173" s="26" t="s">
-        <v>862</v>
+        <v>940</v>
       </c>
       <c r="F173" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A173)</f>

--- a/sinnoh_cube.xlsx
+++ b/sinnoh_cube.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lev\PycharmProjects\pokemon-legends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA344B8-C3A6-42A9-8A6D-96D7BD534AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D75A61-DBAF-4E0B-BB73-165B4D670B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="7770" windowWidth="21600" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="2625" windowWidth="21600" windowHeight="7200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pokemon" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3624" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3624" uniqueCount="941">
   <si>
     <t>hp</t>
   </si>
@@ -2845,9 +2845,6 @@
   </si>
   <si>
     <t>The Ultra Burst</t>
-  </si>
-  <si>
-    <t>When the user and target are next attacked, remove a critical hit to the roll.</t>
   </si>
   <si>
     <t>Deals 1 extra damage for each Prism Armour token that remains attached to the Ultra Burst.</t>
@@ -3997,7 +3994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M276" sqref="M276"/>
     </sheetView>
   </sheetViews>
@@ -33090,7 +33087,7 @@
         <v>211</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>6</v>
@@ -33612,7 +33609,7 @@
         <v>8</v>
       </c>
       <c r="Y272" s="9" t="str">
-        <f t="shared" ref="Y271:Y273" si="59">B273</f>
+        <f t="shared" ref="Y272:Y273" si="59">B273</f>
         <v>Dartrix</v>
       </c>
       <c r="Z272" s="12">
@@ -33649,7 +33646,7 @@
         <v>723</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>2</v>
@@ -40033,8 +40030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41F625C-F9FA-42D6-A0B3-21764E3166C5}">
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E163" sqref="E163"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40090,7 +40087,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="29">
-        <f>IF(NOT(ISBLANK(C2)), IF(ISNUMBER(C2), ROUND((C2 - 5)/20, 0), C2), "")</f>
+        <f t="shared" ref="D2:D33" si="0">IF(NOT(ISBLANK(C2)), IF(ISNUMBER(C2), ROUND((C2 - 5)/20, 0), C2), "")</f>
         <v>1</v>
       </c>
       <c r="E2" s="26" t="s">
@@ -40109,7 +40106,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="26">
-        <f>H2-G2</f>
+        <f t="shared" ref="I2:I33" si="1">H2-G2</f>
         <v>0</v>
       </c>
     </row>
@@ -40124,7 +40121,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="29">
-        <f>IF(NOT(ISBLANK(C3)), IF(ISNUMBER(C3), ROUND((C3 - 5)/20, 0), C3), "")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E3" s="26" t="s">
@@ -40143,7 +40140,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="26">
-        <f>H3-G3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -40158,7 +40155,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="29">
-        <f>IF(NOT(ISBLANK(C4)), IF(ISNUMBER(C4), ROUND((C4 - 5)/20, 0), C4), "")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4" s="26" t="s">
@@ -40177,7 +40174,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="26">
-        <f>H4-G4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -40192,7 +40189,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="29">
-        <f>IF(NOT(ISBLANK(C5)), IF(ISNUMBER(C5), ROUND((C5 - 5)/20, 0), C5), "")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E5" s="26" t="s">
@@ -40211,7 +40208,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="26">
-        <f>H5-G5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -40226,7 +40223,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="29">
-        <f>IF(NOT(ISBLANK(C6)), IF(ISNUMBER(C6), ROUND((C6 - 5)/20, 0), C6), "")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E6" s="26" t="s">
@@ -40245,7 +40242,7 @@
         <v>14</v>
       </c>
       <c r="I6" s="26">
-        <f>H6-G6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -40260,7 +40257,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="29">
-        <f>IF(NOT(ISBLANK(C7)), IF(ISNUMBER(C7), ROUND((C7 - 5)/20, 0), C7), "")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E7" s="26" t="s">
@@ -40279,7 +40276,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="26">
-        <f>H7-G7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -40294,7 +40291,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="29">
-        <f>IF(NOT(ISBLANK(C8)), IF(ISNUMBER(C8), ROUND((C8 - 5)/20, 0), C8), "")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8" s="26" t="s">
@@ -40313,7 +40310,7 @@
         <v>14</v>
       </c>
       <c r="I8" s="26">
-        <f>H8-G8</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -40328,7 +40325,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="29">
-        <f>IF(NOT(ISBLANK(C9)), IF(ISNUMBER(C9), ROUND((C9 - 5)/20, 0), C9), "")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9" s="26" t="s">
@@ -40347,7 +40344,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="26">
-        <f>H9-G9</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -40362,7 +40359,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="29">
-        <f>IF(NOT(ISBLANK(C10)), IF(ISNUMBER(C10), ROUND((C10 - 5)/20, 0), C10), "")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10" s="26" t="s">
@@ -40381,7 +40378,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="26">
-        <f>H10-G10</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -40396,11 +40393,11 @@
         <v>20</v>
       </c>
       <c r="D11" s="29">
-        <f>IF(NOT(ISBLANK(C11)), IF(ISNUMBER(C11), ROUND((C11 - 5)/20, 0), C11), "")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F11" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A11)</f>
@@ -40415,7 +40412,7 @@
         <v>8</v>
       </c>
       <c r="I11" s="26">
-        <f>H11-G11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -40430,7 +40427,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="29">
-        <f>IF(NOT(ISBLANK(C12)), IF(ISNUMBER(C12), ROUND((C12 - 5)/20, 0), C12), "")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12" s="26" t="s">
@@ -40449,7 +40446,7 @@
         <v>13</v>
       </c>
       <c r="I12" s="26">
-        <f>H12-G12</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -40464,7 +40461,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="29">
-        <f>IF(NOT(ISBLANK(C13)), IF(ISNUMBER(C13), ROUND((C13 - 5)/20, 0), C13), "")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13" s="26" t="s">
@@ -40483,7 +40480,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="27">
-        <f>H13-G13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -40498,7 +40495,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="29">
-        <f>IF(NOT(ISBLANK(C14)), IF(ISNUMBER(C14), ROUND((C14 - 5)/20, 0), C14), "")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E14" s="26" t="s">
@@ -40517,7 +40514,7 @@
         <v>11</v>
       </c>
       <c r="I14" s="26">
-        <f>H14-G14</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -40532,7 +40529,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="29">
-        <f>IF(NOT(ISBLANK(C15)), IF(ISNUMBER(C15), ROUND((C15 - 5)/20, 0), C15), "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E15" s="26" t="s">
@@ -40551,7 +40548,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="26">
-        <f>H15-G15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -40566,7 +40563,7 @@
         <v>40</v>
       </c>
       <c r="D16" s="29">
-        <f>IF(NOT(ISBLANK(C16)), IF(ISNUMBER(C16), ROUND((C16 - 5)/20, 0), C16), "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E16" s="26" t="s">
@@ -40585,7 +40582,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="26">
-        <f>H16-G16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -40600,7 +40597,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="29">
-        <f>IF(NOT(ISBLANK(C17)), IF(ISNUMBER(C17), ROUND((C17 - 5)/20, 0), C17), "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E17" s="26" t="s">
@@ -40619,7 +40616,7 @@
         <v>16</v>
       </c>
       <c r="I17" s="26">
-        <f>H17-G17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -40634,7 +40631,7 @@
         <v>45</v>
       </c>
       <c r="D18" s="29">
-        <f>IF(NOT(ISBLANK(C18)), IF(ISNUMBER(C18), ROUND((C18 - 5)/20, 0), C18), "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E18" s="26" t="s">
@@ -40653,7 +40650,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="26">
-        <f>H18-G18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -40668,7 +40665,7 @@
         <v>40</v>
       </c>
       <c r="D19" s="29">
-        <f>IF(NOT(ISBLANK(C19)), IF(ISNUMBER(C19), ROUND((C19 - 5)/20, 0), C19), "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E19" s="26" t="s">
@@ -40687,7 +40684,7 @@
         <v>18</v>
       </c>
       <c r="I19" s="26">
-        <f>H19-G19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -40702,7 +40699,7 @@
         <v>40</v>
       </c>
       <c r="D20" s="29">
-        <f>IF(NOT(ISBLANK(C20)), IF(ISNUMBER(C20), ROUND((C20 - 5)/20, 0), C20), "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E20" s="26" t="s">
@@ -40721,7 +40718,7 @@
         <v>19</v>
       </c>
       <c r="I20" s="26">
-        <f>H20-G20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -40736,7 +40733,7 @@
         <v>40</v>
       </c>
       <c r="D21" s="29">
-        <f>IF(NOT(ISBLANK(C21)), IF(ISNUMBER(C21), ROUND((C21 - 5)/20, 0), C21), "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E21" s="26" t="s">
@@ -40755,7 +40752,7 @@
         <v>14</v>
       </c>
       <c r="I21" s="26">
-        <f>H21-G21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -40770,7 +40767,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="29">
-        <f>IF(NOT(ISBLANK(C22)), IF(ISNUMBER(C22), ROUND((C22 - 5)/20, 0), C22), "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E22" s="26" t="s">
@@ -40789,7 +40786,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="26">
-        <f>H22-G22</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -40804,7 +40801,7 @@
         <v>40</v>
       </c>
       <c r="D23" s="29">
-        <f>IF(NOT(ISBLANK(C23)), IF(ISNUMBER(C23), ROUND((C23 - 5)/20, 0), C23), "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E23" s="26" t="s">
@@ -40823,7 +40820,7 @@
         <v>13</v>
       </c>
       <c r="I23" s="26">
-        <f>H23-G23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -40838,7 +40835,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="29">
-        <f>IF(NOT(ISBLANK(C24)), IF(ISNUMBER(C24), ROUND((C24 - 5)/20, 0), C24), "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E24" s="26" t="s">
@@ -40857,7 +40854,7 @@
         <v>16</v>
       </c>
       <c r="I24" s="26">
-        <f>H24-G24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -40872,7 +40869,7 @@
         <v>50</v>
       </c>
       <c r="D25" s="29">
-        <f>IF(NOT(ISBLANK(C25)), IF(ISNUMBER(C25), ROUND((C25 - 5)/20, 0), C25), "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E25" s="26" t="s">
@@ -40891,7 +40888,7 @@
         <v>12</v>
       </c>
       <c r="I25" s="26">
-        <f>H25-G25</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -40906,7 +40903,7 @@
         <v>40</v>
       </c>
       <c r="D26" s="29">
-        <f>IF(NOT(ISBLANK(C26)), IF(ISNUMBER(C26), ROUND((C26 - 5)/20, 0), C26), "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E26" s="26" t="s">
@@ -40924,7 +40921,7 @@
         <v>10</v>
       </c>
       <c r="I26" s="26">
-        <f>H26-G26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -40939,7 +40936,7 @@
         <v>40</v>
       </c>
       <c r="D27" s="29">
-        <f>IF(NOT(ISBLANK(C27)), IF(ISNUMBER(C27), ROUND((C27 - 5)/20, 0), C27), "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E27" s="26" t="s">
@@ -40958,7 +40955,7 @@
         <v>11</v>
       </c>
       <c r="I27" s="26">
-        <f>H27-G27</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -40973,7 +40970,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="29">
-        <f>IF(NOT(ISBLANK(C28)), IF(ISNUMBER(C28), ROUND((C28 - 5)/20, 0), C28), "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E28" s="26" t="s">
@@ -40992,7 +40989,7 @@
         <v>13</v>
       </c>
       <c r="I28" s="26">
-        <f>H28-G28</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -41007,7 +41004,7 @@
         <v>50</v>
       </c>
       <c r="D29" s="29">
-        <f>IF(NOT(ISBLANK(C29)), IF(ISNUMBER(C29), ROUND((C29 - 5)/20, 0), C29), "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E29" s="26" t="s">
@@ -41026,7 +41023,7 @@
         <v>9</v>
       </c>
       <c r="I29" s="26">
-        <f>H29-G29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -41041,7 +41038,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="29">
-        <f>IF(NOT(ISBLANK(C30)), IF(ISNUMBER(C30), ROUND((C30 - 5)/20, 0), C30), "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E30" s="26" t="s">
@@ -41060,7 +41057,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="26">
-        <f>H30-G30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -41075,7 +41072,7 @@
         <v>35</v>
       </c>
       <c r="D31" s="29">
-        <f>IF(NOT(ISBLANK(C31)), IF(ISNUMBER(C31), ROUND((C31 - 5)/20, 0), C31), "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E31" s="26" t="s">
@@ -41094,7 +41091,7 @@
         <v>13</v>
       </c>
       <c r="I31" s="26">
-        <f>H31-G31</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -41109,7 +41106,7 @@
         <v>35</v>
       </c>
       <c r="D32" s="29">
-        <f>IF(NOT(ISBLANK(C32)), IF(ISNUMBER(C32), ROUND((C32 - 5)/20, 0), C32), "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E32" s="26" t="s">
@@ -41128,7 +41125,7 @@
         <v>11</v>
       </c>
       <c r="I32" s="26">
-        <f>H32-G32</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -41143,11 +41140,11 @@
         <v>40</v>
       </c>
       <c r="D33" s="29">
-        <f>IF(NOT(ISBLANK(C33)), IF(ISNUMBER(C33), ROUND((C33 - 5)/20, 0), C33), "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F33" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A33)</f>
@@ -41162,7 +41159,7 @@
         <v>11</v>
       </c>
       <c r="I33" s="26">
-        <f>H33-G33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -41177,7 +41174,7 @@
         <v>35</v>
       </c>
       <c r="D34" s="29">
-        <f>IF(NOT(ISBLANK(C34)), IF(ISNUMBER(C34), ROUND((C34 - 5)/20, 0), C34), "")</f>
+        <f t="shared" ref="D34:D65" si="2">IF(NOT(ISBLANK(C34)), IF(ISNUMBER(C34), ROUND((C34 - 5)/20, 0), C34), "")</f>
         <v>2</v>
       </c>
       <c r="E34" s="26" t="s">
@@ -41196,7 +41193,7 @@
         <v>10</v>
       </c>
       <c r="I34" s="26">
-        <f>H34-G34</f>
+        <f t="shared" ref="I34:I65" si="3">H34-G34</f>
         <v>0</v>
       </c>
     </row>
@@ -41211,7 +41208,7 @@
         <v>50</v>
       </c>
       <c r="D35" s="29">
-        <f>IF(NOT(ISBLANK(C35)), IF(ISNUMBER(C35), ROUND((C35 - 5)/20, 0), C35), "")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E35" s="26" t="s">
@@ -41230,7 +41227,7 @@
         <v>13</v>
       </c>
       <c r="I35" s="26">
-        <f>H35-G35</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -41245,7 +41242,7 @@
         <v>40</v>
       </c>
       <c r="D36" s="29">
-        <f>IF(NOT(ISBLANK(C36)), IF(ISNUMBER(C36), ROUND((C36 - 5)/20, 0), C36), "")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E36" s="26" t="s">
@@ -41264,7 +41261,7 @@
         <v>11</v>
       </c>
       <c r="I36" s="26">
-        <f>H36-G36</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -41279,7 +41276,7 @@
         <v>40</v>
       </c>
       <c r="D37" s="29">
-        <f>IF(NOT(ISBLANK(C37)), IF(ISNUMBER(C37), ROUND((C37 - 5)/20, 0), C37), "")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E37" s="26" t="s">
@@ -41298,7 +41295,7 @@
         <v>10</v>
       </c>
       <c r="I37" s="26">
-        <f>H37-G37</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -41313,7 +41310,7 @@
         <v>40</v>
       </c>
       <c r="D38" s="29">
-        <f>IF(NOT(ISBLANK(C38)), IF(ISNUMBER(C38), ROUND((C38 - 5)/20, 0), C38), "")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E38" s="26" t="s">
@@ -41332,7 +41329,7 @@
         <v>16</v>
       </c>
       <c r="I38" s="26">
-        <f>H38-G38</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41347,7 +41344,7 @@
         <v>40</v>
       </c>
       <c r="D39" s="29">
-        <f>IF(NOT(ISBLANK(C39)), IF(ISNUMBER(C39), ROUND((C39 - 5)/20, 0), C39), "")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E39" s="26" t="s">
@@ -41366,7 +41363,7 @@
         <v>13</v>
       </c>
       <c r="I39" s="26">
-        <f>H39-G39</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41381,7 +41378,7 @@
         <v>60</v>
       </c>
       <c r="D40" s="29">
-        <f>IF(NOT(ISBLANK(C40)), IF(ISNUMBER(C40), ROUND((C40 - 5)/20, 0), C40), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E40" s="26" t="s">
@@ -41400,7 +41397,7 @@
         <v>15</v>
       </c>
       <c r="I40" s="26">
-        <f>H40-G40</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -41415,7 +41412,7 @@
         <v>60</v>
       </c>
       <c r="D41" s="29">
-        <f>IF(NOT(ISBLANK(C41)), IF(ISNUMBER(C41), ROUND((C41 - 5)/20, 0), C41), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E41" s="26" t="s">
@@ -41434,7 +41431,7 @@
         <v>12</v>
       </c>
       <c r="I41" s="26">
-        <f>H41-G41</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41449,7 +41446,7 @@
         <v>55</v>
       </c>
       <c r="D42" s="29">
-        <f>IF(NOT(ISBLANK(C42)), IF(ISNUMBER(C42), ROUND((C42 - 5)/20, 0), C42), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E42" s="26" t="s">
@@ -41468,7 +41465,7 @@
         <v>11</v>
       </c>
       <c r="I42" s="26">
-        <f>H42-G42</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41483,7 +41480,7 @@
         <v>60</v>
       </c>
       <c r="D43" s="29">
-        <f>IF(NOT(ISBLANK(C43)), IF(ISNUMBER(C43), ROUND((C43 - 5)/20, 0), C43), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E43" s="27" t="s">
@@ -41502,7 +41499,7 @@
         <v>11</v>
       </c>
       <c r="I43" s="26">
-        <f>H43-G43</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -41517,7 +41514,7 @@
         <v>55</v>
       </c>
       <c r="D44" s="29">
-        <f>IF(NOT(ISBLANK(C44)), IF(ISNUMBER(C44), ROUND((C44 - 5)/20, 0), C44), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E44" s="26" t="s">
@@ -41536,7 +41533,7 @@
         <v>10</v>
       </c>
       <c r="I44" s="26">
-        <f>H44-G44</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41551,7 +41548,7 @@
         <v>60</v>
       </c>
       <c r="D45" s="29">
-        <f>IF(NOT(ISBLANK(C45)), IF(ISNUMBER(C45), ROUND((C45 - 5)/20, 0), C45), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E45" s="26" t="s">
@@ -41570,7 +41567,7 @@
         <v>16</v>
       </c>
       <c r="I45" s="26">
-        <f>H45-G45</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41585,7 +41582,7 @@
         <v>65</v>
       </c>
       <c r="D46" s="29">
-        <f>IF(NOT(ISBLANK(C46)), IF(ISNUMBER(C46), ROUND((C46 - 5)/20, 0), C46), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E46" s="26" t="s">
@@ -41604,7 +41601,7 @@
         <v>16</v>
       </c>
       <c r="I46" s="26">
-        <f>H46-G46</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41619,7 +41616,7 @@
         <v>70</v>
       </c>
       <c r="D47" s="29">
-        <f>IF(NOT(ISBLANK(C47)), IF(ISNUMBER(C47), ROUND((C47 - 5)/20, 0), C47), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E47" s="26" t="s">
@@ -41638,7 +41635,7 @@
         <v>14</v>
       </c>
       <c r="I47" s="26">
-        <f>H47-G47</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -41653,7 +41650,7 @@
         <v>65</v>
       </c>
       <c r="D48" s="29">
-        <f>IF(NOT(ISBLANK(C48)), IF(ISNUMBER(C48), ROUND((C48 - 5)/20, 0), C48), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E48" s="26" t="s">
@@ -41672,7 +41669,7 @@
         <v>12</v>
       </c>
       <c r="I48" s="26">
-        <f>H48-G48</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41687,7 +41684,7 @@
         <v>60</v>
       </c>
       <c r="D49" s="29">
-        <f>IF(NOT(ISBLANK(C49)), IF(ISNUMBER(C49), ROUND((C49 - 5)/20, 0), C49), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E49" s="26" t="s">
@@ -41706,7 +41703,7 @@
         <v>14</v>
       </c>
       <c r="I49" s="26">
-        <f>H49-G49</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41721,7 +41718,7 @@
         <v>60</v>
       </c>
       <c r="D50" s="29">
-        <f>IF(NOT(ISBLANK(C50)), IF(ISNUMBER(C50), ROUND((C50 - 5)/20, 0), C50), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E50" s="26" t="s">
@@ -41740,7 +41737,7 @@
         <v>16</v>
       </c>
       <c r="I50" s="26">
-        <f>H50-G50</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -41755,7 +41752,7 @@
         <v>65</v>
       </c>
       <c r="D51" s="29">
-        <f>IF(NOT(ISBLANK(C51)), IF(ISNUMBER(C51), ROUND((C51 - 5)/20, 0), C51), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E51" s="26" t="s">
@@ -41774,7 +41771,7 @@
         <v>15</v>
       </c>
       <c r="I51" s="26">
-        <f>H51-G51</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41789,7 +41786,7 @@
         <v>65</v>
       </c>
       <c r="D52" s="29">
-        <f>IF(NOT(ISBLANK(C52)), IF(ISNUMBER(C52), ROUND((C52 - 5)/20, 0), C52), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E52" s="26" t="s">
@@ -41808,7 +41805,7 @@
         <v>15</v>
       </c>
       <c r="I52" s="26">
-        <f>H52-G52</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -41823,7 +41820,7 @@
         <v>65</v>
       </c>
       <c r="D53" s="29">
-        <f>IF(NOT(ISBLANK(C53)), IF(ISNUMBER(C53), ROUND((C53 - 5)/20, 0), C53), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E53" s="26" t="s">
@@ -41842,7 +41839,7 @@
         <v>14</v>
       </c>
       <c r="I53" s="26">
-        <f>H53-G53</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41857,7 +41854,7 @@
         <v>55</v>
       </c>
       <c r="D54" s="29">
-        <f>IF(NOT(ISBLANK(C54)), IF(ISNUMBER(C54), ROUND((C54 - 5)/20, 0), C54), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E54" s="26" t="s">
@@ -41876,7 +41873,7 @@
         <v>16</v>
       </c>
       <c r="I54" s="26">
-        <f>H54-G54</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41891,7 +41888,7 @@
         <v>60</v>
       </c>
       <c r="D55" s="29">
-        <f>IF(NOT(ISBLANK(C55)), IF(ISNUMBER(C55), ROUND((C55 - 5)/20, 0), C55), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E55" s="26" t="s">
@@ -41910,7 +41907,7 @@
         <v>28</v>
       </c>
       <c r="I55" s="26">
-        <f>H55-G55</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41925,7 +41922,7 @@
         <v>60</v>
       </c>
       <c r="D56" s="29">
-        <f>IF(NOT(ISBLANK(C56)), IF(ISNUMBER(C56), ROUND((C56 - 5)/20, 0), C56), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E56" s="26" t="s">
@@ -41944,7 +41941,7 @@
         <v>28</v>
       </c>
       <c r="I56" s="26">
-        <f>H56-G56</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41959,7 +41956,7 @@
         <v>70</v>
       </c>
       <c r="D57" s="29">
-        <f>IF(NOT(ISBLANK(C57)), IF(ISNUMBER(C57), ROUND((C57 - 5)/20, 0), C57), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E57" s="26" t="s">
@@ -41978,7 +41975,7 @@
         <v>17</v>
       </c>
       <c r="I57" s="26">
-        <f>H57-G57</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -41993,7 +41990,7 @@
         <v>60</v>
       </c>
       <c r="D58" s="29">
-        <f>IF(NOT(ISBLANK(C58)), IF(ISNUMBER(C58), ROUND((C58 - 5)/20, 0), C58), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E58" s="26" t="s">
@@ -42012,7 +42009,7 @@
         <v>28</v>
       </c>
       <c r="I58" s="26">
-        <f>H58-G58</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -42027,7 +42024,7 @@
         <v>65</v>
       </c>
       <c r="D59" s="29">
-        <f>IF(NOT(ISBLANK(C59)), IF(ISNUMBER(C59), ROUND((C59 - 5)/20, 0), C59), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E59" s="26" t="s">
@@ -42046,7 +42043,7 @@
         <v>15</v>
       </c>
       <c r="I59" s="26">
-        <f>H59-G59</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -42061,7 +42058,7 @@
         <v>60</v>
       </c>
       <c r="D60" s="29">
-        <f>IF(NOT(ISBLANK(C60)), IF(ISNUMBER(C60), ROUND((C60 - 5)/20, 0), C60), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E60" s="26" t="s">
@@ -42080,7 +42077,7 @@
         <v>21</v>
       </c>
       <c r="I60" s="26">
-        <f>H60-G60</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -42095,7 +42092,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="29">
-        <f>IF(NOT(ISBLANK(C61)), IF(ISNUMBER(C61), ROUND((C61 - 5)/20, 0), C61), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E61" s="26" t="s">
@@ -42114,7 +42111,7 @@
         <v>17</v>
       </c>
       <c r="I61" s="26">
-        <f>H61-G61</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -42129,7 +42126,7 @@
         <v>60</v>
       </c>
       <c r="D62" s="29">
-        <f>IF(NOT(ISBLANK(C62)), IF(ISNUMBER(C62), ROUND((C62 - 5)/20, 0), C62), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E62" s="26" t="s">
@@ -42148,7 +42145,7 @@
         <v>16</v>
       </c>
       <c r="I62" s="26">
-        <f>H62-G62</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -42163,7 +42160,7 @@
         <v>60</v>
       </c>
       <c r="D63" s="29">
-        <f>IF(NOT(ISBLANK(C63)), IF(ISNUMBER(C63), ROUND((C63 - 5)/20, 0), C63), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E63" s="26" t="s">
@@ -42182,7 +42179,7 @@
         <v>16</v>
       </c>
       <c r="I63" s="26">
-        <f>H63-G63</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -42197,7 +42194,7 @@
         <v>55</v>
       </c>
       <c r="D64" s="29">
-        <f>IF(NOT(ISBLANK(C64)), IF(ISNUMBER(C64), ROUND((C64 - 5)/20, 0), C64), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E64" s="26" t="s">
@@ -42216,7 +42213,7 @@
         <v>14</v>
       </c>
       <c r="I64" s="26">
-        <f>H64-G64</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -42231,7 +42228,7 @@
         <v>60</v>
       </c>
       <c r="D65" s="29">
-        <f>IF(NOT(ISBLANK(C65)), IF(ISNUMBER(C65), ROUND((C65 - 5)/20, 0), C65), "")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E65" s="26" t="s">
@@ -42250,7 +42247,7 @@
         <v>15</v>
       </c>
       <c r="I65" s="26">
-        <f>H65-G65</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -42265,7 +42262,7 @@
         <v>70</v>
       </c>
       <c r="D66" s="29">
-        <f>IF(NOT(ISBLANK(C66)), IF(ISNUMBER(C66), ROUND((C66 - 5)/20, 0), C66), "")</f>
+        <f t="shared" ref="D66:D97" si="4">IF(NOT(ISBLANK(C66)), IF(ISNUMBER(C66), ROUND((C66 - 5)/20, 0), C66), "")</f>
         <v>3</v>
       </c>
       <c r="E66" s="26" t="s">
@@ -42284,7 +42281,7 @@
         <v>11</v>
       </c>
       <c r="I66" s="26">
-        <f>H66-G66</f>
+        <f t="shared" ref="I66:I97" si="5">H66-G66</f>
         <v>4</v>
       </c>
     </row>
@@ -42299,7 +42296,7 @@
         <v>70</v>
       </c>
       <c r="D67" s="29">
-        <f>IF(NOT(ISBLANK(C67)), IF(ISNUMBER(C67), ROUND((C67 - 5)/20, 0), C67), "")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E67" s="26" t="s">
@@ -42318,7 +42315,7 @@
         <v>10</v>
       </c>
       <c r="I67" s="26">
-        <f>H67-G67</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -42333,11 +42330,11 @@
         <v>60</v>
       </c>
       <c r="D68" s="29">
-        <f>IF(NOT(ISBLANK(C68)), IF(ISNUMBER(C68), ROUND((C68 - 5)/20, 0), C68), "")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F68" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A68)</f>
@@ -42352,7 +42349,7 @@
         <v>16</v>
       </c>
       <c r="I68" s="26">
-        <f>H68-G68</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -42367,7 +42364,7 @@
         <v>60</v>
       </c>
       <c r="D69" s="29">
-        <f>IF(NOT(ISBLANK(C69)), IF(ISNUMBER(C69), ROUND((C69 - 5)/20, 0), C69), "")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E69" s="26" t="s">
@@ -42386,7 +42383,7 @@
         <v>17</v>
       </c>
       <c r="I69" s="26">
-        <f>H69-G69</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -42401,7 +42398,7 @@
         <v>60</v>
       </c>
       <c r="D70" s="29">
-        <f>IF(NOT(ISBLANK(C70)), IF(ISNUMBER(C70), ROUND((C70 - 5)/20, 0), C70), "")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E70" s="26" t="s">
@@ -42420,7 +42417,7 @@
         <v>28</v>
       </c>
       <c r="I70" s="26">
-        <f>H70-G70</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -42435,7 +42432,7 @@
         <v>60</v>
       </c>
       <c r="D71" s="29">
-        <f>IF(NOT(ISBLANK(C71)), IF(ISNUMBER(C71), ROUND((C71 - 5)/20, 0), C71), "")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E71" s="26" t="s">
@@ -42454,7 +42451,7 @@
         <v>14</v>
       </c>
       <c r="I71" s="26">
-        <f>H71-G71</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -42469,7 +42466,7 @@
         <v>65</v>
       </c>
       <c r="D72" s="29">
-        <f>IF(NOT(ISBLANK(C72)), IF(ISNUMBER(C72), ROUND((C72 - 5)/20, 0), C72), "")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E72" s="26" t="s">
@@ -42488,7 +42485,7 @@
         <v>11</v>
       </c>
       <c r="I72" s="26">
-        <f>H72-G72</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -42503,7 +42500,7 @@
         <v>70</v>
       </c>
       <c r="D73" s="29">
-        <f>IF(NOT(ISBLANK(C73)), IF(ISNUMBER(C73), ROUND((C73 - 5)/20, 0), C73), "")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E73" s="26" t="s">
@@ -42522,7 +42519,7 @@
         <v>11</v>
       </c>
       <c r="I73" s="26">
-        <f>H73-G73</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -42537,7 +42534,7 @@
         <v>60</v>
       </c>
       <c r="D74" s="29">
-        <f>IF(NOT(ISBLANK(C74)), IF(ISNUMBER(C74), ROUND((C74 - 5)/20, 0), C74), "")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E74" s="26" t="s">
@@ -42556,7 +42553,7 @@
         <v>14</v>
       </c>
       <c r="I74" s="26">
-        <f>H74-G74</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -42571,7 +42568,7 @@
         <v>65</v>
       </c>
       <c r="D75" s="29">
-        <f>IF(NOT(ISBLANK(C75)), IF(ISNUMBER(C75), ROUND((C75 - 5)/20, 0), C75), "")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E75" s="26" t="s">
@@ -42590,7 +42587,7 @@
         <v>11</v>
       </c>
       <c r="I75" s="26">
-        <f>H75-G75</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -42605,7 +42602,7 @@
         <v>60</v>
       </c>
       <c r="D76" s="29">
-        <f>IF(NOT(ISBLANK(C76)), IF(ISNUMBER(C76), ROUND((C76 - 5)/20, 0), C76), "")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E76" s="26" t="s">
@@ -42624,7 +42621,7 @@
         <v>17</v>
       </c>
       <c r="I76" s="26">
-        <f>H76-G76</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -42639,7 +42636,7 @@
         <v>60</v>
       </c>
       <c r="D77" s="29">
-        <f>IF(NOT(ISBLANK(C77)), IF(ISNUMBER(C77), ROUND((C77 - 5)/20, 0), C77), "")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E77" s="26" t="s">
@@ -42658,7 +42655,7 @@
         <v>14</v>
       </c>
       <c r="I77" s="26">
-        <f>H77-G77</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -42673,7 +42670,7 @@
         <v>75</v>
       </c>
       <c r="D78" s="29">
-        <f>IF(NOT(ISBLANK(C78)), IF(ISNUMBER(C78), ROUND((C78 - 5)/20, 0), C78), "")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E78" s="26" t="s">
@@ -42692,7 +42689,7 @@
         <v>16</v>
       </c>
       <c r="I78" s="26">
-        <f>H78-G78</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -42707,11 +42704,11 @@
         <v>90</v>
       </c>
       <c r="D79" s="25">
-        <f>IF(NOT(ISBLANK(C79)), IF(ISNUMBER(C79), ROUND((C79 - 5)/20, 0), C79), "")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F79" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A79)</f>
@@ -42726,7 +42723,7 @@
         <v>20</v>
       </c>
       <c r="I79" s="27">
-        <f>H79-G79</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -42741,7 +42738,7 @@
         <v>75</v>
       </c>
       <c r="D80" s="29">
-        <f>IF(NOT(ISBLANK(C80)), IF(ISNUMBER(C80), ROUND((C80 - 5)/20, 0), C80), "")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E80" s="26" t="s">
@@ -42760,7 +42757,7 @@
         <v>28</v>
       </c>
       <c r="I80" s="26">
-        <f>H80-G80</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -42775,7 +42772,7 @@
         <v>75</v>
       </c>
       <c r="D81" s="29">
-        <f>IF(NOT(ISBLANK(C81)), IF(ISNUMBER(C81), ROUND((C81 - 5)/20, 0), C81), "")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E81" s="26" t="s">
@@ -42794,7 +42791,7 @@
         <v>19</v>
       </c>
       <c r="I81" s="26">
-        <f>H81-G81</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -42809,7 +42806,7 @@
         <v>85</v>
       </c>
       <c r="D82" s="29">
-        <f>IF(NOT(ISBLANK(C82)), IF(ISNUMBER(C82), ROUND((C82 - 5)/20, 0), C82), "")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E82" s="26" t="s">
@@ -42828,7 +42825,7 @@
         <v>14</v>
       </c>
       <c r="I82" s="26">
-        <f>H82-G82</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -42843,7 +42840,7 @@
         <v>75</v>
       </c>
       <c r="D83" s="29">
-        <f>IF(NOT(ISBLANK(C83)), IF(ISNUMBER(C83), ROUND((C83 - 5)/20, 0), C83), "")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E83" s="26" t="s">
@@ -42862,7 +42859,7 @@
         <v>17</v>
       </c>
       <c r="I83" s="26">
-        <f>H83-G83</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -42877,7 +42874,7 @@
         <v>75</v>
       </c>
       <c r="D84" s="29">
-        <f>IF(NOT(ISBLANK(C84)), IF(ISNUMBER(C84), ROUND((C84 - 5)/20, 0), C84), "")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E84" s="26" t="s">
@@ -42896,7 +42893,7 @@
         <v>16</v>
       </c>
       <c r="I84" s="26">
-        <f>H84-G84</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -42911,7 +42908,7 @@
         <v>80</v>
       </c>
       <c r="D85" s="29">
-        <f>IF(NOT(ISBLANK(C85)), IF(ISNUMBER(C85), ROUND((C85 - 5)/20, 0), C85), "")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E85" s="26" t="s">
@@ -42930,7 +42927,7 @@
         <v>18</v>
       </c>
       <c r="I85" s="26">
-        <f>H85-G85</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -42945,7 +42942,7 @@
         <v>90</v>
       </c>
       <c r="D86" s="29">
-        <f>IF(NOT(ISBLANK(C86)), IF(ISNUMBER(C86), ROUND((C86 - 5)/20, 0), C86), "")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E86" s="26" t="s">
@@ -42964,7 +42961,7 @@
         <v>16</v>
       </c>
       <c r="I86" s="26">
-        <f>H86-G86</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -42979,7 +42976,7 @@
         <v>85</v>
       </c>
       <c r="D87" s="29">
-        <f>IF(NOT(ISBLANK(C87)), IF(ISNUMBER(C87), ROUND((C87 - 5)/20, 0), C87), "")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E87" s="26" t="s">
@@ -42998,7 +42995,7 @@
         <v>19</v>
       </c>
       <c r="I87" s="26">
-        <f>H87-G87</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -43013,7 +43010,7 @@
         <v>90</v>
       </c>
       <c r="D88" s="29">
-        <f>IF(NOT(ISBLANK(C88)), IF(ISNUMBER(C88), ROUND((C88 - 5)/20, 0), C88), "")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E88" s="26" t="s">
@@ -43032,7 +43029,7 @@
         <v>18</v>
       </c>
       <c r="I88" s="26">
-        <f>H88-G88</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -43047,7 +43044,7 @@
         <v>80</v>
       </c>
       <c r="D89" s="29">
-        <f>IF(NOT(ISBLANK(C89)), IF(ISNUMBER(C89), ROUND((C89 - 5)/20, 0), C89), "")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E89" s="26" t="s">
@@ -43066,7 +43063,7 @@
         <v>15</v>
       </c>
       <c r="I89" s="26">
-        <f>H89-G89</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -43081,7 +43078,7 @@
         <v>90</v>
       </c>
       <c r="D90" s="29">
-        <f>IF(NOT(ISBLANK(C90)), IF(ISNUMBER(C90), ROUND((C90 - 5)/20, 0), C90), "")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E90" s="26" t="s">
@@ -43100,7 +43097,7 @@
         <v>17</v>
       </c>
       <c r="I90" s="26">
-        <f>H90-G90</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -43115,7 +43112,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="29">
-        <f>IF(NOT(ISBLANK(C91)), IF(ISNUMBER(C91), ROUND((C91 - 5)/20, 0), C91), "")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E91" s="26" t="s">
@@ -43134,7 +43131,7 @@
         <v>20</v>
       </c>
       <c r="I91" s="26">
-        <f>H91-G91</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -43149,7 +43146,7 @@
         <v>75</v>
       </c>
       <c r="D92" s="29">
-        <f>IF(NOT(ISBLANK(C92)), IF(ISNUMBER(C92), ROUND((C92 - 5)/20, 0), C92), "")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E92" s="26" t="s">
@@ -43168,7 +43165,7 @@
         <v>18</v>
       </c>
       <c r="I92" s="26">
-        <f>H92-G92</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -43183,7 +43180,7 @@
         <v>90</v>
       </c>
       <c r="D93" s="29">
-        <f>IF(NOT(ISBLANK(C93)), IF(ISNUMBER(C93), ROUND((C93 - 5)/20, 0), C93), "")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E93" s="26" t="s">
@@ -43202,7 +43199,7 @@
         <v>19</v>
       </c>
       <c r="I93" s="26">
-        <f>H93-G93</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -43217,7 +43214,7 @@
         <v>90</v>
       </c>
       <c r="D94" s="29">
-        <f>IF(NOT(ISBLANK(C94)), IF(ISNUMBER(C94), ROUND((C94 - 5)/20, 0), C94), "")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E94" s="26" t="s">
@@ -43236,7 +43233,7 @@
         <v>19</v>
       </c>
       <c r="I94" s="26">
-        <f>H94-G94</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -43251,7 +43248,7 @@
         <v>90</v>
       </c>
       <c r="D95" s="29">
-        <f>IF(NOT(ISBLANK(C95)), IF(ISNUMBER(C95), ROUND((C95 - 5)/20, 0), C95), "")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E95" s="26" t="s">
@@ -43270,7 +43267,7 @@
         <v>19</v>
       </c>
       <c r="I95" s="26">
-        <f>H95-G95</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -43285,7 +43282,7 @@
         <v>75</v>
       </c>
       <c r="D96" s="29">
-        <f>IF(NOT(ISBLANK(C96)), IF(ISNUMBER(C96), ROUND((C96 - 5)/20, 0), C96), "")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E96" s="26" t="s">
@@ -43304,7 +43301,7 @@
         <v>20</v>
       </c>
       <c r="I96" s="26">
-        <f>H96-G96</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -43319,7 +43316,7 @@
         <v>80</v>
       </c>
       <c r="D97" s="29">
-        <f>IF(NOT(ISBLANK(C97)), IF(ISNUMBER(C97), ROUND((C97 - 5)/20, 0), C97), "")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E97" s="26" t="s">
@@ -43338,7 +43335,7 @@
         <v>17</v>
       </c>
       <c r="I97" s="26">
-        <f>H97-G97</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -43353,7 +43350,7 @@
         <v>80</v>
       </c>
       <c r="D98" s="29">
-        <f>IF(NOT(ISBLANK(C98)), IF(ISNUMBER(C98), ROUND((C98 - 5)/20, 0), C98), "")</f>
+        <f t="shared" ref="D98:D129" si="6">IF(NOT(ISBLANK(C98)), IF(ISNUMBER(C98), ROUND((C98 - 5)/20, 0), C98), "")</f>
         <v>4</v>
       </c>
       <c r="E98" s="26" t="s">
@@ -43372,7 +43369,7 @@
         <v>16</v>
       </c>
       <c r="I98" s="26">
-        <f>H98-G98</f>
+        <f t="shared" ref="I98:I129" si="7">H98-G98</f>
         <v>2</v>
       </c>
     </row>
@@ -43387,7 +43384,7 @@
         <v>80</v>
       </c>
       <c r="D99" s="29">
-        <f>IF(NOT(ISBLANK(C99)), IF(ISNUMBER(C99), ROUND((C99 - 5)/20, 0), C99), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E99" s="26" t="s">
@@ -43406,7 +43403,7 @@
         <v>18</v>
       </c>
       <c r="I99" s="26">
-        <f>H99-G99</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -43421,7 +43418,7 @@
         <v>80</v>
       </c>
       <c r="D100" s="29">
-        <f>IF(NOT(ISBLANK(C100)), IF(ISNUMBER(C100), ROUND((C100 - 5)/20, 0), C100), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E100" s="26" t="s">
@@ -43440,7 +43437,7 @@
         <v>16</v>
       </c>
       <c r="I100" s="26">
-        <f>H100-G100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -43455,7 +43452,7 @@
         <v>75</v>
       </c>
       <c r="D101" s="29">
-        <f>IF(NOT(ISBLANK(C101)), IF(ISNUMBER(C101), ROUND((C101 - 5)/20, 0), C101), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E101" s="26" t="s">
@@ -43474,7 +43471,7 @@
         <v>18</v>
       </c>
       <c r="I101" s="26">
-        <f>H101-G101</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -43489,7 +43486,7 @@
         <v>85</v>
       </c>
       <c r="D102" s="29">
-        <f>IF(NOT(ISBLANK(C102)), IF(ISNUMBER(C102), ROUND((C102 - 5)/20, 0), C102), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E102" s="26" t="s">
@@ -43508,7 +43505,7 @@
         <v>14</v>
       </c>
       <c r="I102" s="26">
-        <f>H102-G102</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -43523,7 +43520,7 @@
         <v>80</v>
       </c>
       <c r="D103" s="29">
-        <f>IF(NOT(ISBLANK(C103)), IF(ISNUMBER(C103), ROUND((C103 - 5)/20, 0), C103), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E103" s="26" t="s">
@@ -43542,7 +43539,7 @@
         <v>17</v>
       </c>
       <c r="I103" s="26">
-        <f>H103-G103</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -43557,7 +43554,7 @@
         <v>80</v>
       </c>
       <c r="D104" s="29">
-        <f>IF(NOT(ISBLANK(C104)), IF(ISNUMBER(C104), ROUND((C104 - 5)/20, 0), C104), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E104" s="26" t="s">
@@ -43576,7 +43573,7 @@
         <v>17</v>
       </c>
       <c r="I104" s="26">
-        <f>H104-G104</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -43591,7 +43588,7 @@
         <v>80</v>
       </c>
       <c r="D105" s="29">
-        <f>IF(NOT(ISBLANK(C105)), IF(ISNUMBER(C105), ROUND((C105 - 5)/20, 0), C105), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E105" s="26" t="s">
@@ -43610,7 +43607,7 @@
         <v>19</v>
       </c>
       <c r="I105" s="26">
-        <f>H105-G105</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -43625,7 +43622,7 @@
         <v>80</v>
       </c>
       <c r="D106" s="29">
-        <f>IF(NOT(ISBLANK(C106)), IF(ISNUMBER(C106), ROUND((C106 - 5)/20, 0), C106), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E106" s="26" t="s">
@@ -43644,7 +43641,7 @@
         <v>28</v>
       </c>
       <c r="I106" s="26">
-        <f>H106-G106</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -43659,7 +43656,7 @@
         <v>90</v>
       </c>
       <c r="D107" s="29">
-        <f>IF(NOT(ISBLANK(C107)), IF(ISNUMBER(C107), ROUND((C107 - 5)/20, 0), C107), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E107" s="26" t="s">
@@ -43678,7 +43675,7 @@
         <v>19</v>
       </c>
       <c r="I107" s="26">
-        <f>H107-G107</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -43693,7 +43690,7 @@
         <v>90</v>
       </c>
       <c r="D108" s="29">
-        <f>IF(NOT(ISBLANK(C108)), IF(ISNUMBER(C108), ROUND((C108 - 5)/20, 0), C108), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E108" s="26" t="s">
@@ -43712,7 +43709,7 @@
         <v>20</v>
       </c>
       <c r="I108" s="26">
-        <f>H108-G108</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -43727,7 +43724,7 @@
         <v>80</v>
       </c>
       <c r="D109" s="29">
-        <f>IF(NOT(ISBLANK(C109)), IF(ISNUMBER(C109), ROUND((C109 - 5)/20, 0), C109), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E109" s="26" t="s">
@@ -43746,7 +43743,7 @@
         <v>18</v>
       </c>
       <c r="I109" s="26">
-        <f>H109-G109</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -43761,7 +43758,7 @@
         <v>80</v>
       </c>
       <c r="D110" s="29">
-        <f>IF(NOT(ISBLANK(C110)), IF(ISNUMBER(C110), ROUND((C110 - 5)/20, 0), C110), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E110" s="26" t="s">
@@ -43780,7 +43777,7 @@
         <v>20</v>
       </c>
       <c r="I110" s="26">
-        <f>H110-G110</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -43795,7 +43792,7 @@
         <v>80</v>
       </c>
       <c r="D111" s="29">
-        <f>IF(NOT(ISBLANK(C111)), IF(ISNUMBER(C111), ROUND((C111 - 5)/20, 0), C111), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E111" s="26" t="s">
@@ -43814,7 +43811,7 @@
         <v>18</v>
       </c>
       <c r="I111" s="26">
-        <f>H111-G111</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -43829,7 +43826,7 @@
         <v>80</v>
       </c>
       <c r="D112" s="29">
-        <f>IF(NOT(ISBLANK(C112)), IF(ISNUMBER(C112), ROUND((C112 - 5)/20, 0), C112), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E112" s="26" t="s">
@@ -43848,7 +43845,7 @@
         <v>18</v>
       </c>
       <c r="I112" s="26">
-        <f>H112-G112</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -43863,7 +43860,7 @@
         <v>75</v>
       </c>
       <c r="D113" s="29">
-        <f>IF(NOT(ISBLANK(C113)), IF(ISNUMBER(C113), ROUND((C113 - 5)/20, 0), C113), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E113" s="26" t="s">
@@ -43882,7 +43879,7 @@
         <v>19</v>
       </c>
       <c r="I113" s="26">
-        <f>H113-G113</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -43897,7 +43894,7 @@
         <v>80</v>
       </c>
       <c r="D114" s="29">
-        <f>IF(NOT(ISBLANK(C114)), IF(ISNUMBER(C114), ROUND((C114 - 5)/20, 0), C114), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E114" s="26" t="s">
@@ -43916,7 +43913,7 @@
         <v>28</v>
       </c>
       <c r="I114" s="26">
-        <f>H114-G114</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -43931,7 +43928,7 @@
         <v>80</v>
       </c>
       <c r="D115" s="29">
-        <f>IF(NOT(ISBLANK(C115)), IF(ISNUMBER(C115), ROUND((C115 - 5)/20, 0), C115), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E115" s="26" t="s">
@@ -43950,7 +43947,7 @@
         <v>18</v>
       </c>
       <c r="I115" s="26">
-        <f>H115-G115</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
@@ -43965,7 +43962,7 @@
         <v>80</v>
       </c>
       <c r="D116" s="29">
-        <f>IF(NOT(ISBLANK(C116)), IF(ISNUMBER(C116), ROUND((C116 - 5)/20, 0), C116), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E116" s="26" t="s">
@@ -43984,7 +43981,7 @@
         <v>18</v>
       </c>
       <c r="I116" s="26">
-        <f>H116-G116</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -43999,7 +43996,7 @@
         <v>80</v>
       </c>
       <c r="D117" s="29">
-        <f>IF(NOT(ISBLANK(C117)), IF(ISNUMBER(C117), ROUND((C117 - 5)/20, 0), C117), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E117" s="26" t="s">
@@ -44018,7 +44015,7 @@
         <v>15</v>
       </c>
       <c r="I117" s="26">
-        <f>H117-G117</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -44033,7 +44030,7 @@
         <v>90</v>
       </c>
       <c r="D118" s="29">
-        <f>IF(NOT(ISBLANK(C118)), IF(ISNUMBER(C118), ROUND((C118 - 5)/20, 0), C118), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E118" s="26" t="s">
@@ -44052,7 +44049,7 @@
         <v>17</v>
       </c>
       <c r="I118" s="26">
-        <f>H118-G118</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -44067,7 +44064,7 @@
         <v>75</v>
       </c>
       <c r="D119" s="29">
-        <f>IF(NOT(ISBLANK(C119)), IF(ISNUMBER(C119), ROUND((C119 - 5)/20, 0), C119), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E119" s="26" t="s">
@@ -44086,7 +44083,7 @@
         <v>14</v>
       </c>
       <c r="I119" s="26">
-        <f>H119-G119</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -44101,7 +44098,7 @@
         <v>80</v>
       </c>
       <c r="D120" s="29">
-        <f>IF(NOT(ISBLANK(C120)), IF(ISNUMBER(C120), ROUND((C120 - 5)/20, 0), C120), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E120" s="26" t="s">
@@ -44120,7 +44117,7 @@
         <v>16</v>
       </c>
       <c r="I120" s="26">
-        <f>H120-G120</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -44135,7 +44132,7 @@
         <v>85</v>
       </c>
       <c r="D121" s="29">
-        <f>IF(NOT(ISBLANK(C121)), IF(ISNUMBER(C121), ROUND((C121 - 5)/20, 0), C121), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E121" s="26" t="s">
@@ -44154,7 +44151,7 @@
         <v>18</v>
       </c>
       <c r="I121" s="26">
-        <f>H121-G121</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -44169,7 +44166,7 @@
         <v>90</v>
       </c>
       <c r="D122" s="29">
-        <f>IF(NOT(ISBLANK(C122)), IF(ISNUMBER(C122), ROUND((C122 - 5)/20, 0), C122), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E122" s="26" t="s">
@@ -44188,7 +44185,7 @@
         <v>19</v>
       </c>
       <c r="I122" s="26">
-        <f>H122-G122</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -44203,7 +44200,7 @@
         <v>75</v>
       </c>
       <c r="D123" s="29">
-        <f>IF(NOT(ISBLANK(C123)), IF(ISNUMBER(C123), ROUND((C123 - 5)/20, 0), C123), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E123" s="26" t="s">
@@ -44222,7 +44219,7 @@
         <v>14</v>
       </c>
       <c r="I123" s="26">
-        <f>H123-G123</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -44237,7 +44234,7 @@
         <v>80</v>
       </c>
       <c r="D124" s="29">
-        <f>IF(NOT(ISBLANK(C124)), IF(ISNUMBER(C124), ROUND((C124 - 5)/20, 0), C124), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E124" s="26" t="s">
@@ -44256,7 +44253,7 @@
         <v>19</v>
       </c>
       <c r="I124" s="26">
-        <f>H124-G124</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -44271,7 +44268,7 @@
         <v>85</v>
       </c>
       <c r="D125" s="29">
-        <f>IF(NOT(ISBLANK(C125)), IF(ISNUMBER(C125), ROUND((C125 - 5)/20, 0), C125), "")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E125" s="26" t="s">
@@ -44290,7 +44287,7 @@
         <v>17</v>
       </c>
       <c r="I125" s="26">
-        <f>H125-G125</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -44305,7 +44302,7 @@
         <v>100</v>
       </c>
       <c r="D126" s="29">
-        <f>IF(NOT(ISBLANK(C126)), IF(ISNUMBER(C126), ROUND((C126 - 5)/20, 0), C126), "")</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="E126" s="26" t="s">
@@ -44324,7 +44321,7 @@
         <v>0</v>
       </c>
       <c r="I126" s="26">
-        <f>H126-G126</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -44339,7 +44336,7 @@
         <v>100</v>
       </c>
       <c r="D127" s="29">
-        <f>IF(NOT(ISBLANK(C127)), IF(ISNUMBER(C127), ROUND((C127 - 5)/20, 0), C127), "")</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="E127" s="26" t="s">
@@ -44358,7 +44355,7 @@
         <v>19</v>
       </c>
       <c r="I127" s="26">
-        <f>H127-G127</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -44373,7 +44370,7 @@
         <v>100</v>
       </c>
       <c r="D128" s="29">
-        <f>IF(NOT(ISBLANK(C128)), IF(ISNUMBER(C128), ROUND((C128 - 5)/20, 0), C128), "")</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="E128" s="26" t="s">
@@ -44392,7 +44389,7 @@
         <v>19</v>
       </c>
       <c r="I128" s="26">
-        <f>H128-G128</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -44407,7 +44404,7 @@
         <v>100</v>
       </c>
       <c r="D129" s="29">
-        <f>IF(NOT(ISBLANK(C129)), IF(ISNUMBER(C129), ROUND((C129 - 5)/20, 0), C129), "")</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="E129" s="26" t="s">
@@ -44426,7 +44423,7 @@
         <v>18</v>
       </c>
       <c r="I129" s="26">
-        <f>H129-G129</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -44441,7 +44438,7 @@
         <v>100</v>
       </c>
       <c r="D130" s="29">
-        <f>IF(NOT(ISBLANK(C130)), IF(ISNUMBER(C130), ROUND((C130 - 5)/20, 0), C130), "")</f>
+        <f t="shared" ref="D130:D161" si="8">IF(NOT(ISBLANK(C130)), IF(ISNUMBER(C130), ROUND((C130 - 5)/20, 0), C130), "")</f>
         <v>5</v>
       </c>
       <c r="E130" s="26" t="s">
@@ -44460,7 +44457,7 @@
         <v>16</v>
       </c>
       <c r="I130" s="26">
-        <f>H130-G130</f>
+        <f t="shared" ref="I130:I161" si="9">H130-G130</f>
         <v>0</v>
       </c>
     </row>
@@ -44475,7 +44472,7 @@
         <v>100</v>
       </c>
       <c r="D131" s="29">
-        <f>IF(NOT(ISBLANK(C131)), IF(ISNUMBER(C131), ROUND((C131 - 5)/20, 0), C131), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E131" s="26" t="s">
@@ -44494,7 +44491,7 @@
         <v>18</v>
       </c>
       <c r="I131" s="26">
-        <f>H131-G131</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -44509,7 +44506,7 @@
         <v>100</v>
       </c>
       <c r="D132" s="29">
-        <f>IF(NOT(ISBLANK(C132)), IF(ISNUMBER(C132), ROUND((C132 - 5)/20, 0), C132), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E132" s="26" t="s">
@@ -44528,7 +44525,7 @@
         <v>21</v>
       </c>
       <c r="I132" s="26">
-        <f>H132-G132</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
     </row>
@@ -44543,7 +44540,7 @@
         <v>95</v>
       </c>
       <c r="D133" s="29">
-        <f>IF(NOT(ISBLANK(C133)), IF(ISNUMBER(C133), ROUND((C133 - 5)/20, 0), C133), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E133" s="26" t="s">
@@ -44562,7 +44559,7 @@
         <v>23</v>
       </c>
       <c r="I133" s="26">
-        <f>H133-G133</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -44577,11 +44574,11 @@
         <v>100</v>
       </c>
       <c r="D134" s="29">
-        <f>IF(NOT(ISBLANK(C134)), IF(ISNUMBER(C134), ROUND((C134 - 5)/20, 0), C134), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F134" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A134)</f>
@@ -44596,7 +44593,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="26">
-        <f>H134-G134</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -44611,7 +44608,7 @@
         <v>100</v>
       </c>
       <c r="D135" s="29">
-        <f>IF(NOT(ISBLANK(C135)), IF(ISNUMBER(C135), ROUND((C135 - 5)/20, 0), C135), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E135" s="26" t="s">
@@ -44630,7 +44627,7 @@
         <v>17</v>
       </c>
       <c r="I135" s="26">
-        <f>H135-G135</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -44645,7 +44642,7 @@
         <v>100</v>
       </c>
       <c r="D136" s="29">
-        <f>IF(NOT(ISBLANK(C136)), IF(ISNUMBER(C136), ROUND((C136 - 5)/20, 0), C136), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E136" s="26" t="s">
@@ -44664,7 +44661,7 @@
         <v>19</v>
       </c>
       <c r="I136" s="26">
-        <f>H136-G136</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -44679,7 +44676,7 @@
         <v>100</v>
       </c>
       <c r="D137" s="29">
-        <f>IF(NOT(ISBLANK(C137)), IF(ISNUMBER(C137), ROUND((C137 - 5)/20, 0), C137), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E137" s="26" t="s">
@@ -44698,7 +44695,7 @@
         <v>20</v>
       </c>
       <c r="I137" s="26">
-        <f>H137-G137</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -44713,7 +44710,7 @@
         <v>100</v>
       </c>
       <c r="D138" s="29">
-        <f>IF(NOT(ISBLANK(C138)), IF(ISNUMBER(C138), ROUND((C138 - 5)/20, 0), C138), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E138" s="26" t="s">
@@ -44732,7 +44729,7 @@
         <v>19</v>
       </c>
       <c r="I138" s="26">
-        <f>H138-G138</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -44747,7 +44744,7 @@
         <v>100</v>
       </c>
       <c r="D139" s="29">
-        <f>IF(NOT(ISBLANK(C139)), IF(ISNUMBER(C139), ROUND((C139 - 5)/20, 0), C139), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E139" s="26" t="s">
@@ -44766,7 +44763,7 @@
         <v>20</v>
       </c>
       <c r="I139" s="26">
-        <f>H139-G139</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -44781,7 +44778,7 @@
         <v>100</v>
       </c>
       <c r="D140" s="29">
-        <f>IF(NOT(ISBLANK(C140)), IF(ISNUMBER(C140), ROUND((C140 - 5)/20, 0), C140), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E140" s="26" t="s">
@@ -44800,7 +44797,7 @@
         <v>20</v>
       </c>
       <c r="I140" s="26">
-        <f>H140-G140</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -44815,7 +44812,7 @@
         <v>95</v>
       </c>
       <c r="D141" s="29">
-        <f>IF(NOT(ISBLANK(C141)), IF(ISNUMBER(C141), ROUND((C141 - 5)/20, 0), C141), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E141" s="26" t="s">
@@ -44834,7 +44831,7 @@
         <v>18</v>
       </c>
       <c r="I141" s="26">
-        <f>H141-G141</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -44849,7 +44846,7 @@
         <v>100</v>
       </c>
       <c r="D142" s="29">
-        <f>IF(NOT(ISBLANK(C142)), IF(ISNUMBER(C142), ROUND((C142 - 5)/20, 0), C142), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E142" s="26" t="s">
@@ -44868,7 +44865,7 @@
         <v>21</v>
       </c>
       <c r="I142" s="26">
-        <f>H142-G142</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -44883,7 +44880,7 @@
         <v>95</v>
       </c>
       <c r="D143" s="29">
-        <f>IF(NOT(ISBLANK(C143)), IF(ISNUMBER(C143), ROUND((C143 - 5)/20, 0), C143), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E143" s="26" t="s">
@@ -44902,7 +44899,7 @@
         <v>21</v>
       </c>
       <c r="I143" s="26">
-        <f>H143-G143</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -44917,7 +44914,7 @@
         <v>95</v>
       </c>
       <c r="D144" s="29">
-        <f>IF(NOT(ISBLANK(C144)), IF(ISNUMBER(C144), ROUND((C144 - 5)/20, 0), C144), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E144" s="26" t="s">
@@ -44936,7 +44933,7 @@
         <v>18</v>
       </c>
       <c r="I144" s="26">
-        <f>H144-G144</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -44951,7 +44948,7 @@
         <v>95</v>
       </c>
       <c r="D145" s="29">
-        <f>IF(NOT(ISBLANK(C145)), IF(ISNUMBER(C145), ROUND((C145 - 5)/20, 0), C145), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E145" s="26" t="s">
@@ -44970,7 +44967,7 @@
         <v>17</v>
       </c>
       <c r="I145" s="26">
-        <f>H145-G145</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -44985,7 +44982,7 @@
         <v>110</v>
       </c>
       <c r="D146" s="29">
-        <f>IF(NOT(ISBLANK(C146)), IF(ISNUMBER(C146), ROUND((C146 - 5)/20, 0), C146), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E146" s="26" t="s">
@@ -45004,7 +45001,7 @@
         <v>19</v>
       </c>
       <c r="I146" s="26">
-        <f>H146-G146</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -45019,7 +45016,7 @@
         <v>110</v>
       </c>
       <c r="D147" s="29">
-        <f>IF(NOT(ISBLANK(C147)), IF(ISNUMBER(C147), ROUND((C147 - 5)/20, 0), C147), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E147" s="26" t="s">
@@ -45038,7 +45035,7 @@
         <v>18</v>
       </c>
       <c r="I147" s="26">
-        <f>H147-G147</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -45053,7 +45050,7 @@
         <v>110</v>
       </c>
       <c r="D148" s="29">
-        <f>IF(NOT(ISBLANK(C148)), IF(ISNUMBER(C148), ROUND((C148 - 5)/20, 0), C148), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E148" s="26" t="s">
@@ -45072,7 +45069,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="26">
-        <f>H148-G148</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -45087,7 +45084,7 @@
         <v>100</v>
       </c>
       <c r="D149" s="29">
-        <f>IF(NOT(ISBLANK(C149)), IF(ISNUMBER(C149), ROUND((C149 - 5)/20, 0), C149), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E149" s="26" t="s">
@@ -45106,7 +45103,7 @@
         <v>13</v>
       </c>
       <c r="I149" s="26">
-        <f>H149-G149</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -45121,7 +45118,7 @@
         <v>100</v>
       </c>
       <c r="D150" s="29">
-        <f>IF(NOT(ISBLANK(C150)), IF(ISNUMBER(C150), ROUND((C150 - 5)/20, 0), C150), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E150" s="26" t="s">
@@ -45140,7 +45137,7 @@
         <v>20</v>
       </c>
       <c r="I150" s="26">
-        <f>H150-G150</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -45155,7 +45152,7 @@
         <v>100</v>
       </c>
       <c r="D151" s="29">
-        <f>IF(NOT(ISBLANK(C151)), IF(ISNUMBER(C151), ROUND((C151 - 5)/20, 0), C151), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E151" s="26" t="s">
@@ -45174,7 +45171,7 @@
         <v>23</v>
       </c>
       <c r="I151" s="26">
-        <f>H151-G151</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -45189,7 +45186,7 @@
         <v>100</v>
       </c>
       <c r="D152" s="29">
-        <f>IF(NOT(ISBLANK(C152)), IF(ISNUMBER(C152), ROUND((C152 - 5)/20, 0), C152), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E152" s="26" t="s">
@@ -45208,7 +45205,7 @@
         <v>28</v>
       </c>
       <c r="I152" s="26">
-        <f>H152-G152</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -45223,7 +45220,7 @@
         <v>100</v>
       </c>
       <c r="D153" s="29">
-        <f>IF(NOT(ISBLANK(C153)), IF(ISNUMBER(C153), ROUND((C153 - 5)/20, 0), C153), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E153" s="26" t="s">
@@ -45242,7 +45239,7 @@
         <v>20</v>
       </c>
       <c r="I153" s="26">
-        <f>H153-G153</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -45257,7 +45254,7 @@
         <v>100</v>
       </c>
       <c r="D154" s="29">
-        <f>IF(NOT(ISBLANK(C154)), IF(ISNUMBER(C154), ROUND((C154 - 5)/20, 0), C154), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E154" s="26" t="s">
@@ -45276,7 +45273,7 @@
         <v>18</v>
       </c>
       <c r="I154" s="26">
-        <f>H154-G154</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -45291,7 +45288,7 @@
         <v>100</v>
       </c>
       <c r="D155" s="29">
-        <f>IF(NOT(ISBLANK(C155)), IF(ISNUMBER(C155), ROUND((C155 - 5)/20, 0), C155), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E155" s="26" t="s">
@@ -45310,7 +45307,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="26">
-        <f>H155-G155</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -45325,7 +45322,7 @@
         <v>100</v>
       </c>
       <c r="D156" s="29">
-        <f>IF(NOT(ISBLANK(C156)), IF(ISNUMBER(C156), ROUND((C156 - 5)/20, 0), C156), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E156" s="26" t="s">
@@ -45344,7 +45341,7 @@
         <v>18</v>
       </c>
       <c r="I156" s="26">
-        <f>H156-G156</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -45359,11 +45356,11 @@
         <v>110</v>
       </c>
       <c r="D157" s="29">
-        <f>IF(NOT(ISBLANK(C157)), IF(ISNUMBER(C157), ROUND((C157 - 5)/20, 0), C157), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>930</v>
+        <v>913</v>
       </c>
       <c r="F157" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A157)</f>
@@ -45378,7 +45375,7 @@
         <v>20</v>
       </c>
       <c r="I157" s="26">
-        <f>H157-G157</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -45393,7 +45390,7 @@
         <v>120</v>
       </c>
       <c r="D158" s="29">
-        <f>IF(NOT(ISBLANK(C158)), IF(ISNUMBER(C158), ROUND((C158 - 5)/20, 0), C158), "")</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="E158" s="26" t="s">
@@ -45412,7 +45409,7 @@
         <v>18</v>
       </c>
       <c r="I158" s="26">
-        <f>H158-G158</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -45427,7 +45424,7 @@
         <v>120</v>
       </c>
       <c r="D159" s="29">
-        <f>IF(NOT(ISBLANK(C159)), IF(ISNUMBER(C159), ROUND((C159 - 5)/20, 0), C159), "")</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="E159" s="26" t="s">
@@ -45446,7 +45443,7 @@
         <v>18</v>
       </c>
       <c r="I159" s="26">
-        <f>H159-G159</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -45461,7 +45458,7 @@
         <v>120</v>
       </c>
       <c r="D160" s="29">
-        <f>IF(NOT(ISBLANK(C160)), IF(ISNUMBER(C160), ROUND((C160 - 5)/20, 0), C160), "")</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="E160" s="26" t="s">
@@ -45480,7 +45477,7 @@
         <v>28</v>
       </c>
       <c r="I160" s="26">
-        <f>H160-G160</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -45495,7 +45492,7 @@
         <v>120</v>
       </c>
       <c r="D161" s="25">
-        <f>IF(NOT(ISBLANK(C161)), IF(ISNUMBER(C161), ROUND((C161 - 5)/20, 0), C161), "")</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="E161" s="26" t="s">
@@ -45513,7 +45510,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="27">
-        <f>H161-G161</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -45528,7 +45525,7 @@
         <v>120</v>
       </c>
       <c r="D162" s="29">
-        <f>IF(NOT(ISBLANK(C162)), IF(ISNUMBER(C162), ROUND((C162 - 5)/20, 0), C162), "")</f>
+        <f t="shared" ref="D162:D175" si="10">IF(NOT(ISBLANK(C162)), IF(ISNUMBER(C162), ROUND((C162 - 5)/20, 0), C162), "")</f>
         <v>6</v>
       </c>
       <c r="E162" s="26" t="s">
@@ -45547,7 +45544,7 @@
         <v>0</v>
       </c>
       <c r="I162" s="26">
-        <f>H162-G162</f>
+        <f t="shared" ref="I162:I175" si="11">H162-G162</f>
         <v>0</v>
       </c>
     </row>
@@ -45562,7 +45559,7 @@
         <v>120</v>
       </c>
       <c r="D163" s="29">
-        <f>IF(NOT(ISBLANK(C163)), IF(ISNUMBER(C163), ROUND((C163 - 5)/20, 0), C163), "")</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="E163" s="26" t="s">
@@ -45581,7 +45578,7 @@
         <v>0</v>
       </c>
       <c r="I163" s="26">
-        <f>H163-G163</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -45596,7 +45593,7 @@
         <v>120</v>
       </c>
       <c r="D164" s="29">
-        <f>IF(NOT(ISBLANK(C164)), IF(ISNUMBER(C164), ROUND((C164 - 5)/20, 0), C164), "")</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="E164" s="26" t="s">
@@ -45615,7 +45612,7 @@
         <v>0</v>
       </c>
       <c r="I164" s="26">
-        <f>H164-G164</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -45630,7 +45627,7 @@
         <v>120</v>
       </c>
       <c r="D165" s="29">
-        <f>IF(NOT(ISBLANK(C165)), IF(ISNUMBER(C165), ROUND((C165 - 5)/20, 0), C165), "")</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="E165" s="26" t="s">
@@ -45649,7 +45646,7 @@
         <v>0</v>
       </c>
       <c r="I165" s="26">
-        <f>H165-G165</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -45664,7 +45661,7 @@
         <v>120</v>
       </c>
       <c r="D166" s="29">
-        <f>IF(NOT(ISBLANK(C166)), IF(ISNUMBER(C166), ROUND((C166 - 5)/20, 0), C166), "")</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="E166" s="26" t="s">
@@ -45683,7 +45680,7 @@
         <v>19</v>
       </c>
       <c r="I166" s="26">
-        <f>H166-G166</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -45698,7 +45695,7 @@
         <v>150</v>
       </c>
       <c r="D167" s="29">
-        <f>IF(NOT(ISBLANK(C167)), IF(ISNUMBER(C167), ROUND((C167 - 5)/20, 0), C167), "")</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="E167" s="26" t="s">
@@ -45717,7 +45714,7 @@
         <v>23</v>
       </c>
       <c r="I167" s="26">
-        <f>H167-G167</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -45732,11 +45729,11 @@
         <v>522</v>
       </c>
       <c r="D168" s="29" t="str">
-        <f>IF(NOT(ISBLANK(C168)), IF(ISNUMBER(C168), ROUND((C168 - 5)/20, 0), C168), "")</f>
+        <f t="shared" si="10"/>
         <v>?</v>
       </c>
       <c r="E168" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F168" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A168)</f>
@@ -45751,7 +45748,7 @@
         <v>20</v>
       </c>
       <c r="I168" s="26">
-        <f>H168-G168</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -45766,11 +45763,11 @@
         <v>522</v>
       </c>
       <c r="D169" s="29" t="str">
-        <f>IF(NOT(ISBLANK(C169)), IF(ISNUMBER(C169), ROUND((C169 - 5)/20, 0), C169), "")</f>
+        <f t="shared" si="10"/>
         <v>?</v>
       </c>
       <c r="E169" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F169" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A169)</f>
@@ -45785,7 +45782,7 @@
         <v>18</v>
       </c>
       <c r="I169" s="26">
-        <f>H169-G169</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -45800,11 +45797,11 @@
         <v>522</v>
       </c>
       <c r="D170" s="29" t="str">
-        <f>IF(NOT(ISBLANK(C170)), IF(ISNUMBER(C170), ROUND((C170 - 5)/20, 0), C170), "")</f>
+        <f t="shared" si="10"/>
         <v>?</v>
       </c>
       <c r="E170" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F170" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A170)</f>
@@ -45819,7 +45816,7 @@
         <v>20</v>
       </c>
       <c r="I170" s="26">
-        <f>H170-G170</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -45834,11 +45831,11 @@
         <v>522</v>
       </c>
       <c r="D171" s="29" t="str">
-        <f>IF(NOT(ISBLANK(C171)), IF(ISNUMBER(C171), ROUND((C171 - 5)/20, 0), C171), "")</f>
+        <f t="shared" si="10"/>
         <v>?</v>
       </c>
       <c r="E171" s="26" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F171" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A171)</f>
@@ -45853,7 +45850,7 @@
         <v>18</v>
       </c>
       <c r="I171" s="26">
-        <f>H171-G171</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -45868,11 +45865,11 @@
         <v>522</v>
       </c>
       <c r="D172" s="29" t="str">
-        <f>IF(NOT(ISBLANK(C172)), IF(ISNUMBER(C172), ROUND((C172 - 5)/20, 0), C172), "")</f>
+        <f t="shared" si="10"/>
         <v>?</v>
       </c>
       <c r="E172" s="26" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F172" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A172)</f>
@@ -45887,7 +45884,7 @@
         <v>14</v>
       </c>
       <c r="I172" s="26">
-        <f>H172-G172</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -45902,11 +45899,11 @@
         <v>522</v>
       </c>
       <c r="D173" s="29" t="str">
-        <f>IF(NOT(ISBLANK(C173)), IF(ISNUMBER(C173), ROUND((C173 - 5)/20, 0), C173), "")</f>
+        <f t="shared" si="10"/>
         <v>?</v>
       </c>
       <c r="E173" s="26" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F173" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$295, A173)</f>
@@ -45921,7 +45918,7 @@
         <v>12</v>
       </c>
       <c r="I173" s="26">
-        <f>H173-G173</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -45936,7 +45933,7 @@
         <v>522</v>
       </c>
       <c r="D174" s="29" t="str">
-        <f>IF(NOT(ISBLANK(C174)), IF(ISNUMBER(C174), ROUND((C174 - 5)/20, 0), C174), "")</f>
+        <f t="shared" si="10"/>
         <v>?</v>
       </c>
       <c r="E174" s="26" t="s">
@@ -45955,7 +45952,7 @@
         <v>11</v>
       </c>
       <c r="I174" s="26">
-        <f>H174-G174</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -45970,7 +45967,7 @@
         <v>522</v>
       </c>
       <c r="D175" s="29" t="str">
-        <f>IF(NOT(ISBLANK(C175)), IF(ISNUMBER(C175), ROUND((C175 - 5)/20, 0), C175), "")</f>
+        <f t="shared" si="10"/>
         <v>?</v>
       </c>
       <c r="E175" s="26" t="s">
@@ -45989,7 +45986,7 @@
         <v>11</v>
       </c>
       <c r="I175" s="26">
-        <f>H175-G175</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>

--- a/sinnoh_cube.xlsx
+++ b/sinnoh_cube.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lev\PycharmProjects\pokemon-legends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A101A6-D3A9-43BE-9E97-C50DC0800534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381ACB77-877F-4CDF-9ACA-899D5D96886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9345" windowWidth="21600" windowHeight="7200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9345" windowWidth="21600" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pokemon" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="1034">
   <si>
     <t>hp</t>
   </si>
@@ -2805,9 +2805,6 @@
     <t>Dawn Wings Necrozma</t>
   </si>
   <si>
-    <t>Heal 3 damage from the user or from any non-fainted Pokémon in your party.</t>
-  </si>
-  <si>
     <t>Searing Sunraze</t>
   </si>
   <si>
@@ -2880,9 +2877,6 @@
     <t>When the user is next attacked, remove a regular hit from the roll.</t>
   </si>
   <si>
-    <t>Status symbols deal -1 damage. The user may use another move but cannot use this effect again this turn.</t>
-  </si>
-  <si>
     <t>Psyshield Bash</t>
   </si>
   <si>
@@ -2901,9 +2895,6 @@
     <t>Attack strength is equal to half the current initiative of the user, rounded down. Maximum 5 attack strength.</t>
   </si>
   <si>
-    <t>Reset your battle fatigue to 0. Heal all status effects from the user and from all Pokémon in your party.</t>
-  </si>
-  <si>
     <t>Inkay</t>
   </si>
   <si>
@@ -3015,12 +3006,6 @@
     <t>Melody of the Moon</t>
   </si>
   <si>
-    <t>Inflict the Poisoned status on the target. If the target is already Poisoned, this move deals double damage.</t>
-  </si>
-  <si>
-    <t>Inflict the Confused status on the target. If the target is already Confused, this move deals double damage.</t>
-  </si>
-  <si>
     <t>Effect may be used once per battle: The user faints to fully restore another Pokémon in your party.</t>
   </si>
   <si>
@@ -3145,6 +3130,33 @@
   </si>
   <si>
     <t>Effect may be used once per battle: Deals 1 extra damage for every 2 damage taken by the user.</t>
+  </si>
+  <si>
+    <t>If a status symbol is rolled: Inflict the Burned status on the target. Status symbols deal +1 damage.</t>
+  </si>
+  <si>
+    <t>Effect may be used once until the user switches out: Use another move this turn.</t>
+  </si>
+  <si>
+    <t>Heal damage equal to your current battle fatigue and then reset your battle fatigue to 0.</t>
+  </si>
+  <si>
+    <t>Heal all status effects from the user and from all Pokémon in your party. The user may switch out.</t>
+  </si>
+  <si>
+    <t>If a status symbol is rolled: Inflict the Paralysed status on the target. Status symbols deal +1 damage.</t>
+  </si>
+  <si>
+    <t>Inflict the Burned status on the target. If the target is already Burned, attack strength is increased to 5.</t>
+  </si>
+  <si>
+    <t>Inflict the Confused status on the target. If the target is already Confused, attack strength is increased to 5.</t>
+  </si>
+  <si>
+    <t>Inflict the Poisoned status on the target. If the target is already Poisoned, attack strength is increased to 5.</t>
+  </si>
+  <si>
+    <t>Whirlpool</t>
   </si>
 </sst>
 </file>
@@ -4261,8 +4273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI344"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q145" sqref="Q145"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I290" sqref="I290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4820,7 +4832,7 @@
         <v>Chimchar</v>
       </c>
       <c r="AC5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AD5" s="6">
         <v>1</v>
@@ -5148,7 +5160,7 @@
         <v>Piplup</v>
       </c>
       <c r="AC8" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AD8" s="6">
         <v>1</v>
@@ -5587,7 +5599,7 @@
         <v>Staravia</v>
       </c>
       <c r="AC12" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AD12" s="6">
         <v>0</v>
@@ -6019,7 +6031,7 @@
         <v>Kricketot</v>
       </c>
       <c r="AC16" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="AD16" s="6">
         <v>0</v>
@@ -7651,7 +7663,7 @@
       </c>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="AD31" s="6">
         <v>0</v>
@@ -7954,11 +7966,11 @@
       <c r="V34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W34" s="1" t="s">
+      <c r="W34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="X34" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="Y34" s="1" t="str">
         <f>B35</f>
@@ -8063,11 +8075,11 @@
       <c r="V35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="W35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="X35" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="Z35" s="12" t="str">
         <f t="shared" si="1"/>
@@ -8188,7 +8200,7 @@
       </c>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="AD36" s="6">
         <v>0</v>
@@ -8293,7 +8305,7 @@
       </c>
       <c r="AB37" s="2"/>
       <c r="AC37" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="AD37" s="6">
         <v>0</v>
@@ -9488,7 +9500,7 @@
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="AD48" s="6">
         <v>0</v>
@@ -10465,7 +10477,7 @@
       </c>
       <c r="AB57" s="2"/>
       <c r="AC57" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="AD57" s="6">
         <v>0</v>
@@ -11123,7 +11135,7 @@
       </c>
       <c r="AB63" s="2"/>
       <c r="AC63" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="AD63" s="6">
         <v>0</v>
@@ -11232,7 +11244,7 @@
       </c>
       <c r="AB64" s="2"/>
       <c r="AC64" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="AD64" s="6">
         <v>0</v>
@@ -12108,7 +12120,7 @@
       </c>
       <c r="AB72" s="2"/>
       <c r="AC72" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="AD72" s="6">
         <v>0</v>
@@ -13089,7 +13101,7 @@
       </c>
       <c r="AB81" s="2"/>
       <c r="AC81" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="AD81" s="6">
         <v>0</v>
@@ -13194,7 +13206,7 @@
       </c>
       <c r="AB82" s="2"/>
       <c r="AC82" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="AD82" s="6">
         <v>0</v>
@@ -13408,7 +13420,7 @@
       </c>
       <c r="AB84" s="2"/>
       <c r="AC84" t="s">
-        <v>553</v>
+        <v>1033</v>
       </c>
       <c r="AD84" s="6">
         <v>0</v>
@@ -15821,7 +15833,7 @@
       </c>
       <c r="AB106" s="2"/>
       <c r="AC106" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AD106" s="6">
         <v>0</v>
@@ -16035,7 +16047,7 @@
       </c>
       <c r="AB108" s="2"/>
       <c r="AC108" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AD108" s="6">
         <v>0</v>
@@ -24953,7 +24965,7 @@
       </c>
       <c r="AB190"/>
       <c r="AC190" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AD190" s="6">
         <v>0</v>
@@ -25173,7 +25185,7 @@
       </c>
       <c r="AB192"/>
       <c r="AC192" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AD192" s="6">
         <v>0</v>
@@ -25389,7 +25401,7 @@
       </c>
       <c r="AB194"/>
       <c r="AC194" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AD194" s="6">
         <v>0</v>
@@ -26049,7 +26061,7 @@
       </c>
       <c r="AB200"/>
       <c r="AC200" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="AD200" s="6">
         <v>0</v>
@@ -26268,7 +26280,7 @@
       </c>
       <c r="AB202"/>
       <c r="AC202" s="8" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="AD202" s="6">
         <v>0</v>
@@ -27135,7 +27147,7 @@
       </c>
       <c r="AB210"/>
       <c r="AC210" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="AD210" s="6">
         <v>0</v>
@@ -27249,7 +27261,7 @@
       </c>
       <c r="AB211"/>
       <c r="AC211" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="AD211" s="6">
         <v>0</v>
@@ -30943,7 +30955,7 @@
         <v>Zorua</v>
       </c>
       <c r="AC245" s="8" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AD245" s="11">
         <v>0</v>
@@ -31589,7 +31601,7 @@
         <v>Bergmite</v>
       </c>
       <c r="AC251" s="8" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="AD251" s="11">
         <v>0</v>
@@ -34228,7 +34240,7 @@
       </c>
       <c r="AB275" s="10"/>
       <c r="AC275" s="8" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AD275" s="11">
         <v>1</v>
@@ -35015,7 +35027,7 @@
         <v>686</v>
       </c>
       <c r="B283" s="25" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C283" s="47" t="s">
         <v>9</v>
@@ -35042,7 +35054,7 @@
         <v>45</v>
       </c>
       <c r="K283" s="25" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="L283" s="25" t="s">
         <v>303</v>
@@ -35104,7 +35116,7 @@
       </c>
       <c r="AB283" s="25"/>
       <c r="AC283" s="27" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="AD283" s="27">
         <v>0</v>
@@ -35129,7 +35141,7 @@
         <v>687</v>
       </c>
       <c r="B284" s="25" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C284" s="47" t="s">
         <v>9</v>
@@ -35156,7 +35168,7 @@
         <v>73</v>
       </c>
       <c r="K284" s="25" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="L284" s="25" t="s">
         <v>303</v>
@@ -35215,7 +35227,7 @@
       </c>
       <c r="AB284" s="25"/>
       <c r="AC284" s="27" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="AD284" s="27">
         <v>0</v>
@@ -35240,7 +35252,7 @@
         <v>602</v>
       </c>
       <c r="B285" s="25" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C285" s="47" t="s">
         <v>11</v>
@@ -35265,7 +35277,7 @@
         <v>60</v>
       </c>
       <c r="K285" s="25" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="L285" s="25" t="s">
         <v>303</v>
@@ -35326,7 +35338,7 @@
       </c>
       <c r="AB285" s="25"/>
       <c r="AC285" s="27" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="AD285" s="27">
         <v>0</v>
@@ -35351,7 +35363,7 @@
         <v>603</v>
       </c>
       <c r="B286" s="25" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C286" s="47" t="s">
         <v>11</v>
@@ -35376,7 +35388,7 @@
         <v>40</v>
       </c>
       <c r="K286" s="25" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="L286" s="25" t="s">
         <v>303</v>
@@ -35437,7 +35449,7 @@
       </c>
       <c r="AB286" s="25"/>
       <c r="AC286" s="27" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="AD286" s="27">
         <v>0</v>
@@ -35462,7 +35474,7 @@
         <v>604</v>
       </c>
       <c r="B287" s="25" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C287" s="47" t="s">
         <v>11</v>
@@ -35487,7 +35499,7 @@
         <v>50</v>
       </c>
       <c r="K287" s="25" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="L287" s="25" t="s">
         <v>303</v>
@@ -35545,7 +35557,7 @@
       </c>
       <c r="AB287" s="25"/>
       <c r="AC287" s="27" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="AD287" s="27">
         <v>0</v>
@@ -35570,7 +35582,7 @@
         <v>605</v>
       </c>
       <c r="B288" s="25" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C288" s="47" t="s">
         <v>26</v>
@@ -35595,7 +35607,7 @@
         <v>30</v>
       </c>
       <c r="K288" s="25" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="L288" s="25"/>
       <c r="M288" s="25" t="s">
@@ -35654,7 +35666,7 @@
       </c>
       <c r="AB288" s="25"/>
       <c r="AC288" s="27" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="AD288" s="27">
         <v>0</v>
@@ -35679,7 +35691,7 @@
         <v>606</v>
       </c>
       <c r="B289" s="25" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C289" s="47" t="s">
         <v>26</v>
@@ -35704,7 +35716,7 @@
         <v>40</v>
       </c>
       <c r="K289" s="25" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="L289" s="25"/>
       <c r="M289" s="25" t="s">
@@ -35760,7 +35772,7 @@
       </c>
       <c r="AB289" s="25"/>
       <c r="AC289" s="27" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="AD289" s="27">
         <v>0</v>
@@ -35785,7 +35797,7 @@
         <v>755</v>
       </c>
       <c r="B290" s="25" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C290" s="47" t="s">
         <v>2</v>
@@ -35812,7 +35824,7 @@
         <v>15</v>
       </c>
       <c r="K290" s="25" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="L290" s="25" t="s">
         <v>298</v>
@@ -35899,7 +35911,7 @@
         <v>756</v>
       </c>
       <c r="B291" s="25" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C291" s="47" t="s">
         <v>2</v>
@@ -35926,7 +35938,7 @@
         <v>30</v>
       </c>
       <c r="K291" s="25" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="L291" s="25" t="s">
         <v>298</v>
@@ -35976,7 +35988,7 @@
       </c>
       <c r="Y291" s="9"/>
       <c r="Z291" s="12" t="str">
-        <f t="shared" si="54"/>
+        <f>IF(ISBLANK(Y291), "", ROUND(( (T292-6)*(T292-7) - (T291-6)*(T291-7) )/15, 0) + 1)</f>
         <v/>
       </c>
       <c r="AA291" s="27" t="str">
@@ -35985,7 +35997,7 @@
       </c>
       <c r="AB291" s="25"/>
       <c r="AC291" s="27" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="AD291" s="27">
         <v>0</v>
@@ -37634,10 +37646,10 @@
         <v>914</v>
       </c>
       <c r="AB306" s="25" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="AC306" s="27" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AD306" s="11">
         <v>0</v>
@@ -37739,10 +37751,10 @@
         <v>915</v>
       </c>
       <c r="AB307" s="25" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AC307" s="27" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AD307" s="11">
         <v>0</v>
@@ -37843,10 +37855,10 @@
         <v>900</v>
       </c>
       <c r="AB308" s="25" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AC308" s="27" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AD308" s="27">
         <v>0</v>
@@ -37953,7 +37965,7 @@
         <v>888</v>
       </c>
       <c r="AC309" s="26" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="AD309" s="27">
         <v>0</v>
@@ -38058,7 +38070,7 @@
         <v>889</v>
       </c>
       <c r="AC310" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="AD310" s="27">
         <v>0</v>
@@ -38162,7 +38174,7 @@
         <v>890</v>
       </c>
       <c r="AC311" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="AD311" s="27">
         <v>0</v>
@@ -38267,7 +38279,7 @@
         <v>891</v>
       </c>
       <c r="AC312" s="8" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="AD312" s="27">
         <v>0</v>
@@ -38368,7 +38380,7 @@
         <v>892</v>
       </c>
       <c r="AC313" s="8" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="AD313" s="27">
         <v>0</v>
@@ -38473,7 +38485,7 @@
         <v>893</v>
       </c>
       <c r="AC314" s="8" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="AD314" s="27">
         <v>0</v>
@@ -38578,7 +38590,7 @@
         <v>894</v>
       </c>
       <c r="AC315" s="8" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="AD315" s="27">
         <v>0</v>
@@ -38682,7 +38694,7 @@
         <v>895</v>
       </c>
       <c r="AC316" s="18" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="AD316" s="19">
         <v>0</v>
@@ -38879,7 +38891,7 @@
         <v>563</v>
       </c>
       <c r="AC318" s="8" t="str">
-        <f t="shared" ref="AC318:AC343" si="104">VLOOKUP(AA318,$AA$2:$AC$308,3,FALSE)</f>
+        <f>VLOOKUP(AA318,$AA$2:$AC$308,3,FALSE)</f>
         <v>Play Rough</v>
       </c>
       <c r="AD318" s="6">
@@ -38961,7 +38973,7 @@
         <v>6</v>
       </c>
       <c r="T319" s="12">
-        <f t="shared" ref="T319:T344" si="105">SUM(ROUND(R319,0),ROUND(S319,0))</f>
+        <f t="shared" ref="T319:T344" si="104">SUM(ROUND(R319,0),ROUND(S319,0))</f>
         <v>12</v>
       </c>
       <c r="U319" s="1" t="str">
@@ -38980,7 +38992,7 @@
         <v>563</v>
       </c>
       <c r="AC319" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA319,$AA$2:$AC$308,3,FALSE)</f>
         <v>Revenge</v>
       </c>
       <c r="AD319" s="6">
@@ -39062,7 +39074,7 @@
         <v>9</v>
       </c>
       <c r="T320" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>11</v>
       </c>
       <c r="U320" s="1" t="str">
@@ -39081,7 +39093,7 @@
         <v>563</v>
       </c>
       <c r="AC320" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA320,$AA$2:$AC$308,3,FALSE)</f>
         <v>Confusion</v>
       </c>
       <c r="AD320" s="6">
@@ -39163,7 +39175,7 @@
         <v>7</v>
       </c>
       <c r="T321" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>14</v>
       </c>
       <c r="U321" s="1" t="str">
@@ -39181,7 +39193,7 @@
         <v>563</v>
       </c>
       <c r="AC321" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA321,$AA$2:$AC$308,3,FALSE)</f>
         <v>Bite</v>
       </c>
       <c r="AD321" s="6">
@@ -39263,7 +39275,7 @@
         <v>7</v>
       </c>
       <c r="T322" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>16</v>
       </c>
       <c r="U322" s="1" t="str">
@@ -39275,14 +39287,14 @@
         <v/>
       </c>
       <c r="AA322" t="str">
-        <f t="shared" ref="AA322:AA340" si="106">B322</f>
+        <f t="shared" ref="AA322:AA340" si="105">B322</f>
         <v>Murkrow</v>
       </c>
       <c r="AB322" s="1" t="s">
         <v>563</v>
       </c>
       <c r="AC322" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA322,$AA$2:$AC$308,3,FALSE)</f>
         <v>Wing Attack</v>
       </c>
       <c r="AD322" s="6">
@@ -39364,7 +39376,7 @@
         <v>8</v>
       </c>
       <c r="T323" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>13</v>
       </c>
       <c r="U323" s="1" t="str">
@@ -39376,14 +39388,14 @@
         <v/>
       </c>
       <c r="AA323" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>Skorupi</v>
       </c>
       <c r="AB323" s="1" t="s">
         <v>563</v>
       </c>
       <c r="AC323" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA323,$AA$2:$AC$308,3,FALSE)</f>
         <v>Bug Bite</v>
       </c>
       <c r="AD323" s="6">
@@ -39466,7 +39478,7 @@
         <v>6</v>
       </c>
       <c r="T324" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>13</v>
       </c>
       <c r="U324" s="14" t="str">
@@ -39482,14 +39494,14 @@
         <v/>
       </c>
       <c r="AA324" s="18" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>Houndour</v>
       </c>
       <c r="AB324" s="14" t="s">
         <v>563</v>
       </c>
       <c r="AC324" s="18" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA324,$AA$2:$AC$308,3,FALSE)</f>
         <v>Bite</v>
       </c>
       <c r="AD324" s="19">
@@ -39571,7 +39583,7 @@
         <v>9</v>
       </c>
       <c r="T325" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>17</v>
       </c>
       <c r="U325" s="1" t="str">
@@ -39583,14 +39595,14 @@
         <v/>
       </c>
       <c r="AA325" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>Golbat</v>
       </c>
       <c r="AB325" s="1" t="s">
         <v>564</v>
       </c>
       <c r="AC325" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA325,$AA$2:$AC$308,3,FALSE)</f>
         <v>Air Slash</v>
       </c>
       <c r="AD325" s="6">
@@ -39670,7 +39682,7 @@
         <v>11</v>
       </c>
       <c r="T326" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>20</v>
       </c>
       <c r="U326" s="1" t="str">
@@ -39682,14 +39694,14 @@
         <v/>
       </c>
       <c r="AA326" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>Tangrowth</v>
       </c>
       <c r="AB326" s="1" t="s">
         <v>564</v>
       </c>
       <c r="AC326" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA326,$AA$2:$AC$308,3,FALSE)</f>
         <v>Giga Drain</v>
       </c>
       <c r="AD326" s="6">
@@ -39771,7 +39783,7 @@
         <v>10</v>
       </c>
       <c r="T327" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>19</v>
       </c>
       <c r="U327" s="1" t="str">
@@ -39783,14 +39795,14 @@
         <v/>
       </c>
       <c r="AA327" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>Skuntank</v>
       </c>
       <c r="AB327" s="1" t="s">
         <v>564</v>
       </c>
       <c r="AC327" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA327,$AA$2:$AC$308,3,FALSE)</f>
         <v>Belch</v>
       </c>
       <c r="AD327" s="6">
@@ -39873,7 +39885,7 @@
         <v>11</v>
       </c>
       <c r="T328" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>19</v>
       </c>
       <c r="U328" s="14" t="str">
@@ -39889,14 +39901,14 @@
         <v/>
       </c>
       <c r="AA328" s="18" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>Uxie</v>
       </c>
       <c r="AB328" s="14" t="s">
         <v>564</v>
       </c>
       <c r="AC328" s="18" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA328,$AA$2:$AC$308,3,FALSE)</f>
         <v>Chilling Acuity</v>
       </c>
       <c r="AD328" s="19">
@@ -39978,7 +39990,7 @@
         <v>12</v>
       </c>
       <c r="T329" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>19</v>
       </c>
       <c r="U329" s="1" t="str">
@@ -39990,14 +40002,14 @@
         <v/>
       </c>
       <c r="AA329" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>Bronzong</v>
       </c>
       <c r="AB329" s="1" t="s">
         <v>565</v>
       </c>
       <c r="AC329" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA329,$AA$2:$AC$308,3,FALSE)</f>
         <v>Heavy Slam</v>
       </c>
       <c r="AD329" s="6">
@@ -40077,7 +40089,7 @@
         <v>9</v>
       </c>
       <c r="T330" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>19</v>
       </c>
       <c r="U330" s="1" t="str">
@@ -40092,14 +40104,14 @@
         <v/>
       </c>
       <c r="AA330" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>Electabuzz</v>
       </c>
       <c r="AB330" s="1" t="s">
         <v>565</v>
       </c>
       <c r="AC330" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA330,$AA$2:$AC$308,3,FALSE)</f>
         <v>Thunderbolt</v>
       </c>
       <c r="AD330" s="6">
@@ -40179,7 +40191,7 @@
         <v>9</v>
       </c>
       <c r="T331" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>18</v>
       </c>
       <c r="U331" s="1" t="str">
@@ -40194,14 +40206,14 @@
         <v/>
       </c>
       <c r="AA331" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>Purugly</v>
       </c>
       <c r="AB331" s="1" t="s">
         <v>565</v>
       </c>
       <c r="AC331" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA331,$AA$2:$AC$308,3,FALSE)</f>
         <v>Slash</v>
       </c>
       <c r="AD331" s="6">
@@ -40284,7 +40296,7 @@
         <v>9</v>
       </c>
       <c r="T332" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>19</v>
       </c>
       <c r="U332" s="14" t="str">
@@ -40300,14 +40312,14 @@
         <v/>
       </c>
       <c r="AA332" s="18" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>Mesprit</v>
       </c>
       <c r="AB332" s="14" t="s">
         <v>565</v>
       </c>
       <c r="AC332" s="18" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA332,$AA$2:$AC$308,3,FALSE)</f>
         <v>Shocking Verity</v>
       </c>
       <c r="AD332" s="19">
@@ -40387,7 +40399,7 @@
         <v>7</v>
       </c>
       <c r="T333" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>18</v>
       </c>
       <c r="U333" s="1" t="str">
@@ -40399,14 +40411,14 @@
         <v/>
       </c>
       <c r="AA333" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>Kadabra</v>
       </c>
       <c r="AB333" s="1" t="s">
         <v>566</v>
       </c>
       <c r="AC333" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA333,$AA$2:$AC$308,3,FALSE)</f>
         <v>Kinesis</v>
       </c>
       <c r="AD333" s="6">
@@ -40486,7 +40498,7 @@
         <v>9</v>
       </c>
       <c r="T334" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>19</v>
       </c>
       <c r="U334" s="1" t="str">
@@ -40501,14 +40513,14 @@
         <v/>
       </c>
       <c r="AA334" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>Magmar</v>
       </c>
       <c r="AB334" s="1" t="s">
         <v>566</v>
       </c>
       <c r="AC334" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA334,$AA$2:$AC$308,3,FALSE)</f>
         <v>Flamethrower</v>
       </c>
       <c r="AD334" s="6">
@@ -40590,7 +40602,7 @@
         <v>9</v>
       </c>
       <c r="T335" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>19</v>
       </c>
       <c r="U335" s="1" t="str">
@@ -40605,14 +40617,14 @@
         <v/>
       </c>
       <c r="AA335" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>Toxicroak</v>
       </c>
       <c r="AB335" s="1" t="s">
         <v>566</v>
       </c>
       <c r="AC335" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA335,$AA$2:$AC$308,3,FALSE)</f>
         <v>Poison Jab</v>
       </c>
       <c r="AD335" s="6">
@@ -40695,7 +40707,7 @@
         <v>7</v>
       </c>
       <c r="T336" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>19</v>
       </c>
       <c r="U336" s="14" t="str">
@@ -40711,14 +40723,14 @@
         <v/>
       </c>
       <c r="AA336" s="18" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>Azelf</v>
       </c>
       <c r="AB336" s="14" t="s">
         <v>566</v>
       </c>
       <c r="AC336" s="18" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA336,$AA$2:$AC$308,3,FALSE)</f>
         <v>Blazing Valor</v>
       </c>
       <c r="AD336" s="19">
@@ -40800,7 +40812,7 @@
         <v>9</v>
       </c>
       <c r="T337" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>19</v>
       </c>
       <c r="U337" s="1" t="str">
@@ -40815,14 +40827,14 @@
         <v/>
       </c>
       <c r="AA337" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>Houndoom</v>
       </c>
       <c r="AB337" s="1" t="s">
         <v>595</v>
       </c>
       <c r="AC337" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA337,$AA$2:$AC$308,3,FALSE)</f>
         <v>Flamethrower</v>
       </c>
       <c r="AD337" s="6">
@@ -40904,7 +40916,7 @@
         <v>9</v>
       </c>
       <c r="T338" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>19</v>
       </c>
       <c r="U338" s="1" t="str">
@@ -40919,14 +40931,14 @@
         <v/>
       </c>
       <c r="AA338" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>Honchkrow</v>
       </c>
       <c r="AB338" s="1" t="s">
         <v>595</v>
       </c>
       <c r="AC338" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA338,$AA$2:$AC$308,3,FALSE)</f>
         <v>Night Slash</v>
       </c>
       <c r="AD338" s="6">
@@ -41009,7 +41021,7 @@
         <v>9</v>
       </c>
       <c r="T339" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>20</v>
       </c>
       <c r="U339" s="1" t="str">
@@ -41024,14 +41036,14 @@
         <v/>
       </c>
       <c r="AA339" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>Weavile</v>
       </c>
       <c r="AB339" s="1" t="s">
         <v>595</v>
       </c>
       <c r="AC339" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA339,$AA$2:$AC$308,3,FALSE)</f>
         <v>Ice Punch</v>
       </c>
       <c r="AD339" s="6">
@@ -41113,7 +41125,7 @@
         <v>11</v>
       </c>
       <c r="T340" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>21</v>
       </c>
       <c r="U340" s="1" t="str">
@@ -41128,14 +41140,14 @@
         <v/>
       </c>
       <c r="AA340" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>Gyarados</v>
       </c>
       <c r="AB340" s="1" t="s">
         <v>595</v>
       </c>
       <c r="AC340" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA340,$AA$2:$AC$308,3,FALSE)</f>
         <v>Outrage</v>
       </c>
       <c r="AD340" s="6">
@@ -41216,7 +41228,7 @@
         <v>12</v>
       </c>
       <c r="T341" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>20</v>
       </c>
       <c r="U341" s="9" t="str">
@@ -41232,14 +41244,14 @@
         <v/>
       </c>
       <c r="AA341" s="8" t="str">
-        <f t="shared" ref="AA341" si="107">B341</f>
+        <f t="shared" ref="AA341" si="106">B341</f>
         <v>Hippowdon</v>
       </c>
       <c r="AB341" s="9" t="s">
         <v>595</v>
       </c>
       <c r="AC341" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA341,$AA$2:$AC$308,3,FALSE)</f>
         <v>Earthquake</v>
       </c>
       <c r="AD341" s="11">
@@ -41322,7 +41334,7 @@
         <v>13</v>
       </c>
       <c r="T342" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>19</v>
       </c>
       <c r="U342" s="9" t="str">
@@ -41338,14 +41350,14 @@
         <v/>
       </c>
       <c r="AA342" s="8" t="str">
-        <f t="shared" ref="AA342" si="108">B342</f>
+        <f t="shared" ref="AA342" si="107">B342</f>
         <v>Probopass</v>
       </c>
       <c r="AB342" s="9" t="s">
         <v>595</v>
       </c>
       <c r="AC342" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA342,$AA$2:$AC$308,3,FALSE)</f>
         <v>Zap Cannon</v>
       </c>
       <c r="AD342" s="11">
@@ -41425,7 +41437,7 @@
         <v>10</v>
       </c>
       <c r="T343" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>21</v>
       </c>
       <c r="U343" s="1" t="str">
@@ -41447,7 +41459,7 @@
         <v>595</v>
       </c>
       <c r="AC343" s="8" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(AA343,$AA$2:$AC$308,3,FALSE)</f>
         <v>Tri Attack</v>
       </c>
       <c r="AD343" s="6">
@@ -41527,7 +41539,7 @@
         <v>12</v>
       </c>
       <c r="T344" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>24</v>
       </c>
       <c r="V344" s="2"/>
@@ -41607,10 +41619,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41F625C-F9FA-42D6-A0B3-21764E3166C5}">
-  <dimension ref="A1:I206"/>
+  <dimension ref="A1:I207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E163" sqref="E163"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41657,7 +41669,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>8</v>
@@ -41670,7 +41682,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="F2" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A2)</f>
@@ -41691,7 +41703,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>9</v>
@@ -41704,7 +41716,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="F3" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A3)</f>
@@ -41793,7 +41805,7 @@
     </row>
     <row r="6" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>16</v>
@@ -41894,7 +41906,7 @@
     </row>
     <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>14</v>
@@ -41907,7 +41919,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F9" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A9)</f>
@@ -42030,7 +42042,7 @@
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>3</v>
@@ -42043,7 +42055,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="F13" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A13)</f>
@@ -42200,7 +42212,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B18" s="39" t="s">
         <v>26</v>
@@ -42213,7 +42225,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="F18" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A18)</f>
@@ -42234,32 +42246,32 @@
     </row>
     <row r="19" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>22</v>
+        <v>676</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="C19" s="25">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D19" s="29">
         <f>IF(NOT(ISBLANK(C19)), IF(ISNUMBER(C19), ROUND((C19 - 5)/20, 0), C19), "")</f>
         <v>2</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>850</v>
+        <v>1026</v>
       </c>
       <c r="F19" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A19)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="26" cm="1">
         <f t="array" ref="G19">MIN(IF($A19=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H19" s="26" cm="1">
         <f t="array" ref="H19">MAX(IF($A19=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I19" s="26">
         <f>H19-G19</f>
@@ -42268,10 +42280,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>531</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>8</v>
+        <v>682</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="25">
         <v>40</v>
@@ -42281,7 +42293,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>916</v>
+        <v>1026</v>
       </c>
       <c r="F20" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A20)</f>
@@ -42289,11 +42301,11 @@
       </c>
       <c r="G20" s="26" cm="1">
         <f t="array" ref="G20">MIN(IF($A20=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H20" s="26" cm="1">
         <f t="array" ref="H20">MAX(IF($A20=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I20" s="26">
         <f>H20-G20</f>
@@ -42302,20 +42314,20 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>605</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>67</v>
+        <v>779</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="C21" s="25">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D21" s="29">
         <f>IF(NOT(ISBLANK(C21)), IF(ISNUMBER(C21), ROUND((C21 - 5)/20, 0), C21), "")</f>
         <v>2</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="F21" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A21)</f>
@@ -42323,11 +42335,11 @@
       </c>
       <c r="G21" s="26" cm="1">
         <f t="array" ref="G21">MIN(IF($A21=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H21" s="26" cm="1">
         <f t="array" ref="H21">MAX(IF($A21=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I21" s="26">
         <f>H21-G21</f>
@@ -42336,7 +42348,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>725</v>
+        <v>785</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>8</v>
@@ -42349,7 +42361,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>934</v>
+        <v>1026</v>
       </c>
       <c r="F22" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A22)</f>
@@ -42357,11 +42369,11 @@
       </c>
       <c r="G22" s="26" cm="1">
         <f t="array" ref="G22">MIN(IF($A22=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H22" s="26" cm="1">
         <f t="array" ref="H22">MAX(IF($A22=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I22" s="26">
         <f>H22-G22</f>
@@ -42369,67 +42381,67 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>541</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>33</v>
+      <c r="A23" s="27" t="s">
+        <v>941</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="C23" s="25">
         <v>40</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="25">
         <f>IF(NOT(ISBLANK(C23)), IF(ISNUMBER(C23), ROUND((C23 - 5)/20, 0), C23), "")</f>
         <v>2</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>851</v>
+        <v>1026</v>
       </c>
       <c r="F23" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A23)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="26" cm="1">
+      <c r="G23" s="27" cm="1">
         <f t="array" ref="G23">MIN(IF($A23=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>13</v>
-      </c>
-      <c r="H23" s="26" cm="1">
+        <v>15</v>
+      </c>
+      <c r="H23" s="27" cm="1">
         <f t="array" ref="H23">MAX(IF($A23=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>13</v>
-      </c>
-      <c r="I23" s="26">
+        <v>15</v>
+      </c>
+      <c r="I23" s="27">
         <f>H23-G23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>640</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>8</v>
+        <v>536</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="C24" s="25">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D24" s="29">
         <f>IF(NOT(ISBLANK(C24)), IF(ISNUMBER(C24), ROUND((C24 - 5)/20, 0), C24), "")</f>
         <v>2</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>925</v>
+        <v>850</v>
       </c>
       <c r="F24" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A24)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="26" cm="1">
         <f t="array" ref="G24">MIN(IF($A24=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H24" s="26" cm="1">
         <f t="array" ref="H24">MAX(IF($A24=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I24" s="26">
         <f>H24-G24</f>
@@ -42437,147 +42449,147 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>3</v>
+      <c r="A25" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C25" s="25">
         <v>40</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="29">
         <f>IF(NOT(ISBLANK(C25)), IF(ISNUMBER(C25), ROUND((C25 - 5)/20, 0), C25), "")</f>
         <v>2</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>964</v>
+        <v>1028</v>
       </c>
       <c r="F25" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A25)</f>
         <v>1</v>
       </c>
-      <c r="G25" s="27" cm="1">
+      <c r="G25" s="26" cm="1">
         <f t="array" ref="G25">MIN(IF($A25=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
-      </c>
-      <c r="H25" s="27" cm="1">
+        <v>16</v>
+      </c>
+      <c r="H25" s="26" cm="1">
         <f t="array" ref="H25">MAX(IF($A25=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
-      </c>
-      <c r="I25" s="27">
+        <v>16</v>
+      </c>
+      <c r="I25" s="26">
         <f>H25-G25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>962</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>11</v>
+      <c r="A26" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C26" s="25">
         <v>40</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="29">
         <f>IF(NOT(ISBLANK(C26)), IF(ISNUMBER(C26), ROUND((C26 - 5)/20, 0), C26), "")</f>
         <v>2</v>
       </c>
-      <c r="E26" s="26" t="s">
-        <v>965</v>
+      <c r="E26" s="27" t="s">
+        <v>1027</v>
       </c>
       <c r="F26" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A26)</f>
         <v>1</v>
       </c>
-      <c r="G26" s="27" cm="1">
+      <c r="G26" s="26" cm="1">
         <f t="array" ref="G26">MIN(IF($A26=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
-      </c>
-      <c r="H26" s="27" cm="1">
+        <v>15</v>
+      </c>
+      <c r="H26" s="26" cm="1">
         <f t="array" ref="H26">MAX(IF($A26=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
-      </c>
-      <c r="I26" s="27">
+        <v>15</v>
+      </c>
+      <c r="I26" s="26">
         <f>H26-G26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>928</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>4</v>
+      <c r="A27" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>67</v>
       </c>
       <c r="C27" s="25">
-        <v>40</v>
-      </c>
-      <c r="D27" s="25">
+        <v>45</v>
+      </c>
+      <c r="D27" s="29">
         <f>IF(NOT(ISBLANK(C27)), IF(ISNUMBER(C27), ROUND((C27 - 5)/20, 0), C27), "")</f>
         <v>2</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>711</v>
+        <v>1015</v>
       </c>
       <c r="F27" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A27)</f>
-        <v>2</v>
-      </c>
-      <c r="G27" s="27" cm="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="26" cm="1">
         <f t="array" ref="G27">MIN(IF($A27=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
         <v>10</v>
       </c>
-      <c r="H27" s="27" cm="1">
+      <c r="H27" s="26" cm="1">
         <f t="array" ref="H27">MAX(IF($A27=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>11</v>
-      </c>
-      <c r="I27" s="27">
+        <v>10</v>
+      </c>
+      <c r="I27" s="26">
         <f>H27-G27</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>26</v>
+        <v>725</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C28" s="25">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D28" s="29">
         <f>IF(NOT(ISBLANK(C28)), IF(ISNUMBER(C28), ROUND((C28 - 5)/20, 0), C28), "")</f>
         <v>2</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>663</v>
+        <v>933</v>
       </c>
       <c r="F28" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A28)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G28" s="26" cm="1">
         <f t="array" ref="G28">MIN(IF($A28=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H28" s="26" cm="1">
         <f t="array" ref="H28">MAX(IF($A28=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I28" s="26">
         <f>H28-G28</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>9</v>
+        <v>541</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="C29" s="25">
         <v>40</v>
@@ -42587,7 +42599,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>956</v>
+        <v>851</v>
       </c>
       <c r="F29" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A29)</f>
@@ -42595,11 +42607,11 @@
       </c>
       <c r="G29" s="26" cm="1">
         <f t="array" ref="G29">MIN(IF($A29=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H29" s="26" cm="1">
         <f t="array" ref="H29">MAX(IF($A29=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I29" s="26">
         <f>H29-G29</f>
@@ -42608,10 +42620,10 @@
     </row>
     <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>822</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>2</v>
+        <v>640</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C30" s="25">
         <v>40</v>
@@ -42621,19 +42633,19 @@
         <v>2</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>773</v>
+        <v>924</v>
       </c>
       <c r="F30" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A30)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="26" cm="1">
         <f t="array" ref="G30">MIN(IF($A30=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H30" s="26" cm="1">
         <f t="array" ref="H30">MAX(IF($A30=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I30" s="26">
         <f>H30-G30</f>
@@ -42641,42 +42653,42 @@
       </c>
     </row>
     <row r="31" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>14</v>
+      <c r="A31" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="C31" s="25">
         <v>40</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="25">
         <f>IF(NOT(ISBLANK(C31)), IF(ISNUMBER(C31), ROUND((C31 - 5)/20, 0), C31), "")</f>
         <v>2</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>776</v>
+        <v>961</v>
       </c>
       <c r="F31" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A31)</f>
-        <v>2</v>
-      </c>
-      <c r="G31" s="26" cm="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="27" cm="1">
         <f t="array" ref="G31">MIN(IF($A31=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>10</v>
-      </c>
-      <c r="H31" s="26" cm="1">
+        <v>14</v>
+      </c>
+      <c r="H31" s="27" cm="1">
         <f t="array" ref="H31">MAX(IF($A31=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>11</v>
-      </c>
-      <c r="I31" s="26">
+        <v>14</v>
+      </c>
+      <c r="I31" s="27">
         <f>H31-G31</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
-        <v>584</v>
+      <c r="A32" s="27" t="s">
+        <v>959</v>
       </c>
       <c r="B32" s="33" t="s">
         <v>11</v>
@@ -42684,114 +42696,114 @@
       <c r="C32" s="25">
         <v>40</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="25">
         <f>IF(NOT(ISBLANK(C32)), IF(ISNUMBER(C32), ROUND((C32 - 5)/20, 0), C32), "")</f>
         <v>2</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>841</v>
+        <v>962</v>
       </c>
       <c r="F32" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A32)</f>
-        <v>2</v>
-      </c>
-      <c r="G32" s="26" cm="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="27" cm="1">
         <f t="array" ref="G32">MIN(IF($A32=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>12</v>
-      </c>
-      <c r="H32" s="26" cm="1">
+        <v>17</v>
+      </c>
+      <c r="H32" s="27" cm="1">
         <f t="array" ref="H32">MAX(IF($A32=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>13</v>
-      </c>
-      <c r="I32" s="26">
+        <v>17</v>
+      </c>
+      <c r="I32" s="27">
         <f>H32-G32</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
-        <v>690</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>3</v>
+      <c r="A33" s="27" t="s">
+        <v>927</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C33" s="25">
-        <v>50</v>
-      </c>
-      <c r="D33" s="29">
+        <v>40</v>
+      </c>
+      <c r="D33" s="25">
         <f>IF(NOT(ISBLANK(C33)), IF(ISNUMBER(C33), ROUND((C33 - 5)/20, 0), C33), "")</f>
         <v>2</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>691</v>
+        <v>711</v>
       </c>
       <c r="F33" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A33)</f>
+        <v>2</v>
+      </c>
+      <c r="G33" s="27" cm="1">
+        <f t="array" ref="G33">MIN(IF($A33=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
+        <v>10</v>
+      </c>
+      <c r="H33" s="27" cm="1">
+        <f t="array" ref="H33">MAX(IF($A33=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
+        <v>11</v>
+      </c>
+      <c r="I33" s="27">
+        <f>H33-G33</f>
         <v>1</v>
       </c>
-      <c r="G33" s="26" cm="1">
-        <f t="array" ref="G33">MIN(IF($A33=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>9</v>
-      </c>
-      <c r="H33" s="26" cm="1">
-        <f t="array" ref="H33">MAX(IF($A33=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>9</v>
-      </c>
-      <c r="I33" s="26">
-        <f>H33-G33</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="34" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>993</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>8</v>
+      <c r="A34" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="C34" s="25">
-        <v>40</v>
-      </c>
-      <c r="D34" s="25">
+        <v>50</v>
+      </c>
+      <c r="D34" s="29">
         <f>IF(NOT(ISBLANK(C34)), IF(ISNUMBER(C34), ROUND((C34 - 5)/20, 0), C34), "")</f>
         <v>2</v>
       </c>
-      <c r="E34" s="27" t="s">
-        <v>1016</v>
+      <c r="E34" s="26" t="s">
+        <v>663</v>
       </c>
       <c r="F34" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A34)</f>
-        <v>1</v>
-      </c>
-      <c r="G34" s="27" cm="1">
+        <v>5</v>
+      </c>
+      <c r="G34" s="26" cm="1">
         <f t="array" ref="G34">MIN(IF($A34=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
         <v>9</v>
       </c>
-      <c r="H34" s="27" cm="1">
+      <c r="H34" s="26" cm="1">
         <f t="array" ref="H34">MAX(IF($A34=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>9</v>
-      </c>
-      <c r="I34" s="27">
+        <v>11</v>
+      </c>
+      <c r="I34" s="26">
         <f>H34-G34</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>8</v>
+        <v>512</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>9</v>
       </c>
       <c r="C35" s="25">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D35" s="29">
         <f>IF(NOT(ISBLANK(C35)), IF(ISNUMBER(C35), ROUND((C35 - 5)/20, 0), C35), "")</f>
         <v>2</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>813</v>
+        <v>953</v>
       </c>
       <c r="F35" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A35)</f>
@@ -42799,57 +42811,57 @@
       </c>
       <c r="G35" s="26" cm="1">
         <f t="array" ref="G35">MIN(IF($A35=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H35" s="26" cm="1">
         <f t="array" ref="H35">MAX(IF($A35=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I35" s="26">
         <f>H35-G35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
-        <v>526</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>8</v>
+    <row r="36" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="C36" s="25">
-        <v>40</v>
-      </c>
-      <c r="D36" s="29">
+        <v>80</v>
+      </c>
+      <c r="D36" s="25">
         <f>IF(NOT(ISBLANK(C36)), IF(ISNUMBER(C36), ROUND((C36 - 5)/20, 0), C36), "")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>948</v>
+        <v>999</v>
       </c>
       <c r="F36" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A36)</f>
         <v>1</v>
       </c>
-      <c r="G36" s="26" cm="1">
+      <c r="G36" s="27" cm="1">
         <f t="array" ref="G36">MIN(IF($A36=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
         <v>16</v>
       </c>
-      <c r="H36" s="26" cm="1">
+      <c r="H36" s="27" cm="1">
         <f t="array" ref="H36">MAX(IF($A36=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
         <v>16</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="27">
         <f>H36-G36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>676</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>6</v>
+        <v>822</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>2</v>
       </c>
       <c r="C37" s="25">
         <v>40</v>
@@ -42859,19 +42871,19 @@
         <v>2</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>941</v>
+        <v>773</v>
       </c>
       <c r="F37" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A37)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="26" cm="1">
         <f t="array" ref="G37">MIN(IF($A37=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H37" s="26" cm="1">
         <f t="array" ref="H37">MAX(IF($A37=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I37" s="26">
         <f>H37-G37</f>
@@ -42880,10 +42892,10 @@
     </row>
     <row r="38" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>682</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>39</v>
+        <v>497</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="C38" s="25">
         <v>40</v>
@@ -42893,31 +42905,31 @@
         <v>2</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>941</v>
+        <v>776</v>
       </c>
       <c r="F38" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A38)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="26" cm="1">
         <f t="array" ref="G38">MIN(IF($A38=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H38" s="26" cm="1">
         <f t="array" ref="H38">MAX(IF($A38=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I38" s="26">
         <f>H38-G38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>779</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>22</v>
+        <v>584</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="C39" s="25">
         <v>40</v>
@@ -42927,41 +42939,41 @@
         <v>2</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>941</v>
+        <v>841</v>
       </c>
       <c r="F39" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A39)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="26" cm="1">
         <f t="array" ref="G39">MIN(IF($A39=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H39" s="26" cm="1">
         <f t="array" ref="H39">MAX(IF($A39=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I39" s="26">
         <f>H39-G39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>785</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>8</v>
+        <v>690</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="C40" s="25">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D40" s="29">
         <f>IF(NOT(ISBLANK(C40)), IF(ISNUMBER(C40), ROUND((C40 - 5)/20, 0), C40), "")</f>
         <v>2</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>941</v>
+        <v>691</v>
       </c>
       <c r="F40" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A40)</f>
@@ -42969,11 +42981,11 @@
       </c>
       <c r="G40" s="26" cm="1">
         <f t="array" ref="G40">MIN(IF($A40=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H40" s="26" cm="1">
         <f t="array" ref="H40">MAX(IF($A40=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I40" s="26">
         <f>H40-G40</f>
@@ -42982,10 +42994,10 @@
     </row>
     <row r="41" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>943</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>42</v>
+        <v>988</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C41" s="25">
         <v>40</v>
@@ -42994,8 +43006,8 @@
         <f>IF(NOT(ISBLANK(C41)), IF(ISNUMBER(C41), ROUND((C41 - 5)/20, 0), C41), "")</f>
         <v>2</v>
       </c>
-      <c r="E41" s="26" t="s">
-        <v>941</v>
+      <c r="E41" s="27" t="s">
+        <v>1011</v>
       </c>
       <c r="F41" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A41)</f>
@@ -43003,11 +43015,11 @@
       </c>
       <c r="G41" s="27" cm="1">
         <f t="array" ref="G41">MIN(IF($A41=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H41" s="27" cm="1">
         <f t="array" ref="H41">MAX(IF($A41=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I41" s="27">
         <f>H41-G41</f>
@@ -43016,10 +43028,10 @@
     </row>
     <row r="42" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
-        <v>533</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>13</v>
+        <v>468</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C42" s="25">
         <v>35</v>
@@ -43029,65 +43041,65 @@
         <v>2</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>727</v>
+        <v>813</v>
       </c>
       <c r="F42" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A42)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="26" cm="1">
         <f t="array" ref="G42">MIN(IF($A42=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H42" s="26" cm="1">
         <f t="array" ref="H42">MAX(IF($A42=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I42" s="26">
         <f>H42-G42</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
-        <v>969</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>26</v>
+      <c r="A43" s="26" t="s">
+        <v>533</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="C43" s="25">
-        <v>40</v>
-      </c>
-      <c r="D43" s="25">
+        <v>35</v>
+      </c>
+      <c r="D43" s="29">
         <f>IF(NOT(ISBLANK(C43)), IF(ISNUMBER(C43), ROUND((C43 - 5)/20, 0), C43), "")</f>
         <v>2</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>971</v>
+        <v>727</v>
       </c>
       <c r="F43" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A43)</f>
+        <v>2</v>
+      </c>
+      <c r="G43" s="26" cm="1">
+        <f t="array" ref="G43">MIN(IF($A43=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
+        <v>10</v>
+      </c>
+      <c r="H43" s="26" cm="1">
+        <f t="array" ref="H43">MAX(IF($A43=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
+        <v>11</v>
+      </c>
+      <c r="I43" s="26">
+        <f>H43-G43</f>
         <v>1</v>
       </c>
-      <c r="G43" s="27" cm="1">
-        <f t="array" ref="G43">MIN(IF($A43=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>12</v>
-      </c>
-      <c r="H43" s="27" cm="1">
-        <f t="array" ref="H43">MAX(IF($A43=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>12</v>
-      </c>
-      <c r="I43" s="27">
-        <f>H43-G43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>976</v>
-      </c>
-      <c r="B44" s="46" t="s">
-        <v>16</v>
+        <v>966</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="C44" s="25">
         <v>40</v>
@@ -43097,7 +43109,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>883</v>
+        <v>968</v>
       </c>
       <c r="F44" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A44)</f>
@@ -43105,33 +43117,33 @@
       </c>
       <c r="G44" s="27" cm="1">
         <f t="array" ref="G44">MIN(IF($A44=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H44" s="27" cm="1">
         <f t="array" ref="H44">MAX(IF($A44=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I44" s="27">
         <f>H44-G44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>11</v>
+        <v>973</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="C45" s="25">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D45" s="25">
         <f>IF(NOT(ISBLANK(C45)), IF(ISNUMBER(C45), ROUND((C45 - 5)/20, 0), C45), "")</f>
         <v>2</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>795</v>
+        <v>883</v>
       </c>
       <c r="F45" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A45)</f>
@@ -43139,11 +43151,11 @@
       </c>
       <c r="G45" s="27" cm="1">
         <f t="array" ref="G45">MIN(IF($A45=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H45" s="27" cm="1">
         <f t="array" ref="H45">MAX(IF($A45=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I45" s="27">
         <f>H45-G45</f>
@@ -43151,16 +43163,16 @@
       </c>
     </row>
     <row r="46" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
-        <v>793</v>
-      </c>
-      <c r="B46" s="38" t="s">
-        <v>5</v>
+      <c r="A46" s="27" t="s">
+        <v>958</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="C46" s="25">
-        <v>35</v>
-      </c>
-      <c r="D46" s="29">
+        <v>50</v>
+      </c>
+      <c r="D46" s="25">
         <f>IF(NOT(ISBLANK(C46)), IF(ISNUMBER(C46), ROUND((C46 - 5)/20, 0), C46), "")</f>
         <v>2</v>
       </c>
@@ -43171,81 +43183,81 @@
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A46)</f>
         <v>1</v>
       </c>
-      <c r="G46" s="26" cm="1">
+      <c r="G46" s="27" cm="1">
         <f t="array" ref="G46">MIN(IF($A46=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
         <v>10</v>
       </c>
-      <c r="H46" s="26" cm="1">
+      <c r="H46" s="27" cm="1">
         <f t="array" ref="H46">MAX(IF($A46=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
         <v>10</v>
       </c>
-      <c r="I46" s="26">
+      <c r="I46" s="27">
         <f>H46-G46</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
-        <v>671</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>33</v>
+        <v>793</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>5</v>
       </c>
       <c r="C47" s="25">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D47" s="29">
         <f>IF(NOT(ISBLANK(C47)), IF(ISNUMBER(C47), ROUND((C47 - 5)/20, 0), C47), "")</f>
         <v>2</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="F47" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A47)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="26" cm="1">
         <f t="array" ref="G47">MIN(IF($A47=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H47" s="26" cm="1">
         <f t="array" ref="H47">MAX(IF($A47=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I47" s="26">
         <f>H47-G47</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
-        <v>626</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>6</v>
+        <v>671</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="C48" s="25">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D48" s="29">
         <f>IF(NOT(ISBLANK(C48)), IF(ISNUMBER(C48), ROUND((C48 - 5)/20, 0), C48), "")</f>
         <v>2</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F48" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A48)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G48" s="26" cm="1">
         <f t="array" ref="G48">MIN(IF($A48=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H48" s="26" cm="1">
         <f t="array" ref="H48">MAX(IF($A48=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I48" s="26">
         <f>H48-G48</f>
@@ -43254,10 +43266,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>8</v>
+        <v>626</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="C49" s="25">
         <v>40</v>
@@ -43267,62 +43279,62 @@
         <v>2</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>672</v>
+        <v>774</v>
       </c>
       <c r="F49" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A49)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G49" s="26" cm="1">
         <f t="array" ref="G49">MIN(IF($A49=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H49" s="26" cm="1">
         <f t="array" ref="H49">MAX(IF($A49=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I49" s="26">
         <f>H49-G49</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
-        <v>929</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>4</v>
+      <c r="A50" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C50" s="25">
         <v>40</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="29">
         <f>IF(NOT(ISBLANK(C50)), IF(ISNUMBER(C50), ROUND((C50 - 5)/20, 0), C50), "")</f>
         <v>2</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>930</v>
+        <v>672</v>
       </c>
       <c r="F50" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A50)</f>
         <v>2</v>
       </c>
-      <c r="G50" s="27" cm="1">
+      <c r="G50" s="26" cm="1">
         <f t="array" ref="G50">MIN(IF($A50=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>10</v>
-      </c>
-      <c r="H50" s="27" cm="1">
+        <v>8</v>
+      </c>
+      <c r="H50" s="26" cm="1">
         <f t="array" ref="H50">MAX(IF($A50=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>13</v>
-      </c>
-      <c r="I50" s="27">
+        <v>9</v>
+      </c>
+      <c r="I50" s="26">
         <f>H50-G50</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="B51" s="46" t="s">
         <v>16</v>
@@ -43335,7 +43347,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="F51" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A51)</f>
@@ -43356,7 +43368,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="B52" s="40" t="s">
         <v>7</v>
@@ -43369,7 +43381,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="F52" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A52)</f>
@@ -43388,7 +43400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>728</v>
       </c>
@@ -43403,7 +43415,7 @@
         <v>2</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="F53" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A53)</f>
@@ -43424,7 +43436,7 @@
     </row>
     <row r="54" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>6</v>
@@ -43437,7 +43449,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F54" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A54)</f>
@@ -43490,7 +43502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>542</v>
       </c>
@@ -43524,7 +43536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>719</v>
       </c>
@@ -43628,7 +43640,7 @@
     </row>
     <row r="60" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B60" s="39" t="s">
         <v>26</v>
@@ -43641,7 +43653,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F60" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A60)</f>
@@ -43811,7 +43823,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>610</v>
+        <v>1025</v>
       </c>
       <c r="F65" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A65)</f>
@@ -43830,7 +43842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
         <v>553</v>
       </c>
@@ -43849,7 +43861,7 @@
       </c>
       <c r="F66" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A66)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G66" s="26" cm="1">
         <f t="array" ref="G66">MIN(IF($A66=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
@@ -43857,11 +43869,11 @@
       </c>
       <c r="H66" s="26" cm="1">
         <f t="array" ref="H66">MAX(IF($A66=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I66" s="26">
         <f>H66-G66</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -43900,54 +43912,54 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
-        <v>603</v>
-      </c>
-      <c r="B68" s="30" t="s">
-        <v>8</v>
+        <v>598</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="C68" s="25">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D68" s="29">
         <f>IF(NOT(ISBLANK(C68)), IF(ISNUMBER(C68), ROUND((C68 - 5)/20, 0), C68), "")</f>
         <v>3</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>1019</v>
+        <v>1029</v>
       </c>
       <c r="F68" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A68)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G68" s="26" cm="1">
         <f t="array" ref="G68">MIN(IF($A68=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H68" s="26" cm="1">
         <f t="array" ref="H68">MAX(IF($A68=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I68" s="26">
         <f>H68-G68</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="B69" s="42" t="s">
-        <v>42</v>
+        <v>603</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C69" s="25">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D69" s="29">
         <f>IF(NOT(ISBLANK(C69)), IF(ISNUMBER(C69), ROUND((C69 - 5)/20, 0), C69), "")</f>
         <v>3</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>908</v>
+        <v>1014</v>
       </c>
       <c r="F69" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A69)</f>
@@ -43955,23 +43967,23 @@
       </c>
       <c r="G69" s="26" cm="1">
         <f t="array" ref="G69">MIN(IF($A69=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H69" s="26" cm="1">
         <f t="array" ref="H69">MAX(IF($A69=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I69" s="26">
         <f>H69-G69</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
-        <v>807</v>
-      </c>
-      <c r="B70" s="36" t="s">
-        <v>3</v>
+        <v>508</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="C70" s="25">
         <v>65</v>
@@ -43985,7 +43997,7 @@
       </c>
       <c r="F70" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A70)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G70" s="26" cm="1">
         <f t="array" ref="G70">MIN(IF($A70=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
@@ -43993,29 +44005,29 @@
       </c>
       <c r="H70" s="26" cm="1">
         <f t="array" ref="H70">MAX(IF($A70=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" s="26">
         <f>H70-G70</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
-        <v>600</v>
-      </c>
-      <c r="B71" s="38" t="s">
-        <v>5</v>
+        <v>807</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="C71" s="25">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D71" s="29">
         <f>IF(NOT(ISBLANK(C71)), IF(ISNUMBER(C71), ROUND((C71 - 5)/20, 0), C71), "")</f>
         <v>3</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>852</v>
+        <v>908</v>
       </c>
       <c r="F71" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A71)</f>
@@ -44023,91 +44035,91 @@
       </c>
       <c r="G71" s="26" cm="1">
         <f t="array" ref="G71">MIN(IF($A71=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H71" s="26" cm="1">
         <f t="array" ref="H71">MAX(IF($A71=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I71" s="26">
         <f>H71-G71</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
-        <v>994</v>
-      </c>
-      <c r="B72" s="34" t="s">
-        <v>2</v>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="26" t="s">
+        <v>600</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>5</v>
       </c>
       <c r="C72" s="25">
-        <v>60</v>
-      </c>
-      <c r="D72" s="25">
+        <v>55</v>
+      </c>
+      <c r="D72" s="29">
         <f>IF(NOT(ISBLANK(C72)), IF(ISNUMBER(C72), ROUND((C72 - 5)/20, 0), C72), "")</f>
         <v>3</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>995</v>
+        <v>852</v>
       </c>
       <c r="F72" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A72)</f>
         <v>1</v>
       </c>
-      <c r="G72" s="27" cm="1">
+      <c r="G72" s="26" cm="1">
         <f t="array" ref="G72">MIN(IF($A72=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>15</v>
-      </c>
-      <c r="H72" s="27" cm="1">
+        <v>16</v>
+      </c>
+      <c r="H72" s="26" cm="1">
         <f t="array" ref="H72">MAX(IF($A72=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>15</v>
-      </c>
-      <c r="I72" s="27">
+        <v>16</v>
+      </c>
+      <c r="I72" s="26">
         <f>H72-G72</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
-        <v>755</v>
-      </c>
-      <c r="B73" s="40" t="s">
-        <v>7</v>
+    <row r="73" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="27" t="s">
+        <v>989</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>2</v>
       </c>
       <c r="C73" s="25">
         <v>60</v>
       </c>
-      <c r="D73" s="29">
+      <c r="D73" s="25">
         <f>IF(NOT(ISBLANK(C73)), IF(ISNUMBER(C73), ROUND((C73 - 5)/20, 0), C73), "")</f>
         <v>3</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>906</v>
+        <v>990</v>
       </c>
       <c r="F73" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A73)</f>
         <v>1</v>
       </c>
-      <c r="G73" s="26" cm="1">
+      <c r="G73" s="27" cm="1">
         <f t="array" ref="G73">MIN(IF($A73=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>28</v>
-      </c>
-      <c r="H73" s="26" cm="1">
+        <v>15</v>
+      </c>
+      <c r="H73" s="27" cm="1">
         <f t="array" ref="H73">MAX(IF($A73=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>28</v>
-      </c>
-      <c r="I73" s="26">
+        <v>15</v>
+      </c>
+      <c r="I73" s="27">
         <f>H73-G73</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="26" t="s">
-        <v>735</v>
-      </c>
-      <c r="B74" s="36" t="s">
-        <v>3</v>
+        <v>755</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>7</v>
       </c>
       <c r="C74" s="25">
         <v>60</v>
@@ -44117,7 +44129,7 @@
         <v>3</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F74" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A74)</f>
@@ -44136,22 +44148,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
-        <v>602</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>4</v>
+        <v>735</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="C75" s="25">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D75" s="29">
         <f>IF(NOT(ISBLANK(C75)), IF(ISNUMBER(C75), ROUND((C75 - 5)/20, 0), C75), "")</f>
         <v>3</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
       <c r="F75" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A75)</f>
@@ -44159,33 +44171,33 @@
       </c>
       <c r="G75" s="26" cm="1">
         <f t="array" ref="G75">MIN(IF($A75=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H75" s="26" cm="1">
         <f t="array" ref="H75">MAX(IF($A75=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I75" s="26">
         <f>H75-G75</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
-        <v>756</v>
-      </c>
-      <c r="B76" s="45" t="s">
-        <v>39</v>
+        <v>602</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C76" s="25">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D76" s="29">
         <f>IF(NOT(ISBLANK(C76)), IF(ISNUMBER(C76), ROUND((C76 - 5)/20, 0), C76), "")</f>
         <v>3</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>880</v>
+        <v>1030</v>
       </c>
       <c r="F76" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A76)</f>
@@ -44193,33 +44205,33 @@
       </c>
       <c r="G76" s="26" cm="1">
         <f t="array" ref="G76">MIN(IF($A76=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H76" s="26" cm="1">
         <f t="array" ref="H76">MAX(IF($A76=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I76" s="26">
         <f>H76-G76</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
-        <v>532</v>
-      </c>
-      <c r="B77" s="38" t="s">
-        <v>5</v>
+        <v>756</v>
+      </c>
+      <c r="B77" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="C77" s="25">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D77" s="29">
         <f>IF(NOT(ISBLANK(C77)), IF(ISNUMBER(C77), ROUND((C77 - 5)/20, 0), C77), "")</f>
         <v>3</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>987</v>
+        <v>880</v>
       </c>
       <c r="F77" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A77)</f>
@@ -44227,33 +44239,33 @@
       </c>
       <c r="G77" s="26" cm="1">
         <f t="array" ref="G77">MIN(IF($A77=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H77" s="26" cm="1">
         <f t="array" ref="H77">MAX(IF($A77=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I77" s="26">
         <f>H77-G77</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
-        <v>598</v>
-      </c>
-      <c r="B78" s="28" t="s">
-        <v>22</v>
+        <v>532</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>5</v>
       </c>
       <c r="C78" s="25">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D78" s="29">
         <f>IF(NOT(ISBLANK(C78)), IF(ISNUMBER(C78), ROUND((C78 - 5)/20, 0), C78), "")</f>
         <v>3</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>841</v>
+        <v>1031</v>
       </c>
       <c r="F78" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A78)</f>
@@ -44261,11 +44273,11 @@
       </c>
       <c r="G78" s="26" cm="1">
         <f t="array" ref="G78">MIN(IF($A78=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H78" s="26" cm="1">
         <f t="array" ref="H78">MAX(IF($A78=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I78" s="26">
         <f>H78-G78</f>
@@ -44287,7 +44299,7 @@
         <v>3</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>986</v>
+        <v>1032</v>
       </c>
       <c r="F79" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A79)</f>
@@ -44306,7 +44318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
         <v>581</v>
       </c>
@@ -44340,7 +44352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
         <v>621</v>
       </c>
@@ -44442,7 +44454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
         <v>486</v>
       </c>
@@ -44544,7 +44556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
         <v>535</v>
       </c>
@@ -44578,7 +44590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
         <v>657</v>
       </c>
@@ -44714,12 +44726,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
-        <v>989</v>
-      </c>
-      <c r="B92" s="39" t="s">
-        <v>26</v>
+        <v>928</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C92" s="25">
         <v>60</v>
@@ -44728,42 +44740,42 @@
         <f>IF(NOT(ISBLANK(C92)), IF(ISNUMBER(C92), ROUND((C92 - 5)/20, 0), C92), "")</f>
         <v>3</v>
       </c>
-      <c r="E92" s="27" t="s">
-        <v>990</v>
+      <c r="E92" s="26" t="s">
+        <v>929</v>
       </c>
       <c r="F92" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A92)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" s="27" cm="1">
         <f t="array" ref="G92">MIN(IF($A92=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H92" s="27" cm="1">
         <f t="array" ref="H92">MAX(IF($A92=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I92" s="27">
         <f>H92-G92</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
-        <v>939</v>
-      </c>
-      <c r="B93" s="45" t="s">
-        <v>39</v>
+        <v>984</v>
+      </c>
+      <c r="B93" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="C93" s="25">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D93" s="25">
         <f>IF(NOT(ISBLANK(C93)), IF(ISNUMBER(C93), ROUND((C93 - 5)/20, 0), C93), "")</f>
         <v>3</v>
       </c>
-      <c r="E93" s="26" t="s">
-        <v>940</v>
+      <c r="E93" s="27" t="s">
+        <v>985</v>
       </c>
       <c r="F93" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A93)</f>
@@ -44771,11 +44783,11 @@
       </c>
       <c r="G93" s="27" cm="1">
         <f t="array" ref="G93">MIN(IF($A93=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H93" s="27" cm="1">
         <f t="array" ref="H93">MAX(IF($A93=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I93" s="27">
         <f>H93-G93</f>
@@ -44783,45 +44795,45 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="26" t="s">
-        <v>709</v>
-      </c>
-      <c r="B94" s="42" t="s">
-        <v>42</v>
+      <c r="A94" s="27" t="s">
+        <v>938</v>
+      </c>
+      <c r="B94" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="C94" s="25">
-        <v>60</v>
-      </c>
-      <c r="D94" s="29">
+        <v>70</v>
+      </c>
+      <c r="D94" s="25">
         <f>IF(NOT(ISBLANK(C94)), IF(ISNUMBER(C94), ROUND((C94 - 5)/20, 0), C94), "")</f>
         <v>3</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>615</v>
+        <v>939</v>
       </c>
       <c r="F94" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A94)</f>
         <v>1</v>
       </c>
-      <c r="G94" s="26" cm="1">
+      <c r="G94" s="27" cm="1">
         <f t="array" ref="G94">MIN(IF($A94=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
-      </c>
-      <c r="H94" s="26" cm="1">
+        <v>13</v>
+      </c>
+      <c r="H94" s="27" cm="1">
         <f t="array" ref="H94">MAX(IF($A94=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
-      </c>
-      <c r="I94" s="26">
+        <v>13</v>
+      </c>
+      <c r="I94" s="27">
         <f>H94-G94</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>604</v>
-      </c>
-      <c r="B95" s="37" t="s">
-        <v>13</v>
+        <v>709</v>
+      </c>
+      <c r="B95" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="C95" s="25">
         <v>60</v>
@@ -44831,19 +44843,19 @@
         <v>3</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="F95" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A95)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95" s="26" cm="1">
         <f t="array" ref="G95">MIN(IF($A95=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H95" s="26" cm="1">
         <f t="array" ref="H95">MAX(IF($A95=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I95" s="26">
         <f>H95-G95</f>
@@ -44852,122 +44864,122 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>762</v>
-      </c>
-      <c r="B96" s="27" t="s">
-        <v>560</v>
+        <v>604</v>
+      </c>
+      <c r="B96" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="C96" s="25">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D96" s="29">
         <f>IF(NOT(ISBLANK(C96)), IF(ISNUMBER(C96), ROUND((C96 - 5)/20, 0), C96), "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>574</v>
+        <v>627</v>
       </c>
       <c r="F96" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A96)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96" s="26" cm="1">
         <f t="array" ref="G96">MIN(IF($A96=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H96" s="26" cm="1">
         <f t="array" ref="H96">MAX(IF($A96=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I96" s="26">
         <f>H96-G96</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="27" t="s">
-        <v>847</v>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="26" t="s">
+        <v>762</v>
       </c>
       <c r="B97" s="27" t="s">
         <v>560</v>
       </c>
       <c r="C97" s="25">
-        <v>90</v>
-      </c>
-      <c r="D97" s="25">
+        <v>75</v>
+      </c>
+      <c r="D97" s="29">
         <f>IF(NOT(ISBLANK(C97)), IF(ISNUMBER(C97), ROUND((C97 - 5)/20, 0), C97), "")</f>
         <v>4</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>903</v>
+        <v>574</v>
       </c>
       <c r="F97" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A97)</f>
         <v>1</v>
       </c>
-      <c r="G97" s="27" cm="1">
+      <c r="G97" s="26" cm="1">
         <f t="array" ref="G97">MIN(IF($A97=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>20</v>
-      </c>
-      <c r="H97" s="27" cm="1">
+        <v>16</v>
+      </c>
+      <c r="H97" s="26" cm="1">
         <f t="array" ref="H97">MAX(IF($A97=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>20</v>
-      </c>
-      <c r="I97" s="27">
+        <v>16</v>
+      </c>
+      <c r="I97" s="26">
         <f>H97-G97</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="26" t="s">
-        <v>753</v>
-      </c>
-      <c r="B98" s="28" t="s">
-        <v>22</v>
+    <row r="98" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="27" t="s">
+        <v>847</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>560</v>
       </c>
       <c r="C98" s="25">
-        <v>75</v>
-      </c>
-      <c r="D98" s="29">
+        <v>90</v>
+      </c>
+      <c r="D98" s="25">
         <f>IF(NOT(ISBLANK(C98)), IF(ISNUMBER(C98), ROUND((C98 - 5)/20, 0), C98), "")</f>
         <v>4</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>759</v>
+        <v>903</v>
       </c>
       <c r="F98" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A98)</f>
         <v>1</v>
       </c>
-      <c r="G98" s="26" cm="1">
+      <c r="G98" s="27" cm="1">
         <f t="array" ref="G98">MIN(IF($A98=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>28</v>
-      </c>
-      <c r="H98" s="26" cm="1">
+        <v>20</v>
+      </c>
+      <c r="H98" s="27" cm="1">
         <f t="array" ref="H98">MAX(IF($A98=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>28</v>
-      </c>
-      <c r="I98" s="26">
+        <v>20</v>
+      </c>
+      <c r="I98" s="27">
         <f>H98-G98</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
-        <v>518</v>
-      </c>
-      <c r="B99" s="30" t="s">
-        <v>8</v>
+        <v>753</v>
+      </c>
+      <c r="B99" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="C99" s="25">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D99" s="29">
         <f>IF(NOT(ISBLANK(C99)), IF(ISNUMBER(C99), ROUND((C99 - 5)/20, 0), C99), "")</f>
         <v>4</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>937</v>
+        <v>759</v>
       </c>
       <c r="F99" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A99)</f>
@@ -44975,57 +44987,57 @@
       </c>
       <c r="G99" s="26" cm="1">
         <f t="array" ref="G99">MIN(IF($A99=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H99" s="26" cm="1">
         <f t="array" ref="H99">MAX(IF($A99=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I99" s="26">
         <f>H99-G99</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
-        <v>522</v>
-      </c>
-      <c r="B100" s="38" t="s">
-        <v>5</v>
+        <v>518</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C100" s="25">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D100" s="29">
         <f>IF(NOT(ISBLANK(C100)), IF(ISNUMBER(C100), ROUND((C100 - 5)/20, 0), C100), "")</f>
         <v>4</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>592</v>
+        <v>936</v>
       </c>
       <c r="F100" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A100)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G100" s="26" cm="1">
         <f t="array" ref="G100">MIN(IF($A100=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H100" s="26" cm="1">
         <f t="array" ref="H100">MAX(IF($A100=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I100" s="26">
         <f>H100-G100</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="B101" s="36" t="s">
-        <v>3</v>
+        <v>522</v>
+      </c>
+      <c r="B101" s="38" t="s">
+        <v>5</v>
       </c>
       <c r="C101" s="25">
         <v>75</v>
@@ -45039,30 +45051,30 @@
       </c>
       <c r="F101" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A101)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G101" s="26" cm="1">
         <f t="array" ref="G101">MIN(IF($A101=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H101" s="26" cm="1">
         <f t="array" ref="H101">MAX(IF($A101=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I101" s="26">
         <f>H101-G101</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
-        <v>794</v>
-      </c>
-      <c r="B102" s="34" t="s">
-        <v>2</v>
+        <v>467</v>
+      </c>
+      <c r="B102" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="C102" s="25">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D102" s="29">
         <f>IF(NOT(ISBLANK(C102)), IF(ISNUMBER(C102), ROUND((C102 - 5)/20, 0), C102), "")</f>
@@ -45077,26 +45089,26 @@
       </c>
       <c r="G102" s="26" cm="1">
         <f t="array" ref="G102">MIN(IF($A102=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H102" s="26" cm="1">
         <f t="array" ref="H102">MAX(IF($A102=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I102" s="26">
         <f>H102-G102</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
-        <v>529</v>
-      </c>
-      <c r="B103" s="44" t="s">
-        <v>9</v>
+        <v>794</v>
+      </c>
+      <c r="B103" s="34" t="s">
+        <v>2</v>
       </c>
       <c r="C103" s="25">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D103" s="29">
         <f>IF(NOT(ISBLANK(C103)), IF(ISNUMBER(C103), ROUND((C103 - 5)/20, 0), C103), "")</f>
@@ -45111,28 +45123,28 @@
       </c>
       <c r="G103" s="26" cm="1">
         <f t="array" ref="G103">MIN(IF($A103=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H103" s="26" cm="1">
         <f t="array" ref="H103">MAX(IF($A103=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I103" s="26">
         <f>H103-G103</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="27" t="s">
-        <v>955</v>
-      </c>
-      <c r="B104" s="39" t="s">
-        <v>26</v>
+      <c r="A104" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="B104" s="44" t="s">
+        <v>9</v>
       </c>
       <c r="C104" s="25">
         <v>75</v>
       </c>
-      <c r="D104" s="25">
+      <c r="D104" s="29">
         <f>IF(NOT(ISBLANK(C104)), IF(ISNUMBER(C104), ROUND((C104 - 5)/20, 0), C104), "")</f>
         <v>4</v>
       </c>
@@ -45141,32 +45153,32 @@
       </c>
       <c r="F104" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A104)</f>
-        <v>1</v>
-      </c>
-      <c r="G104" s="27" cm="1">
+        <v>2</v>
+      </c>
+      <c r="G104" s="26" cm="1">
         <f t="array" ref="G104">MIN(IF($A104=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
         <v>16</v>
       </c>
-      <c r="H104" s="27" cm="1">
+      <c r="H104" s="26" cm="1">
         <f t="array" ref="H104">MAX(IF($A104=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
-      </c>
-      <c r="I104" s="27">
+        <v>17</v>
+      </c>
+      <c r="I104" s="26">
         <f>H104-G104</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="26" t="s">
-        <v>539</v>
-      </c>
-      <c r="B105" s="30" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="B105" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="C105" s="25">
         <v>75</v>
       </c>
-      <c r="D105" s="29">
+      <c r="D105" s="25">
         <f>IF(NOT(ISBLANK(C105)), IF(ISNUMBER(C105), ROUND((C105 - 5)/20, 0), C105), "")</f>
         <v>4</v>
       </c>
@@ -45175,30 +45187,30 @@
       </c>
       <c r="F105" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A105)</f>
-        <v>2</v>
-      </c>
-      <c r="G105" s="26" cm="1">
+        <v>1</v>
+      </c>
+      <c r="G105" s="27" cm="1">
         <f t="array" ref="G105">MIN(IF($A105=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
         <v>16</v>
       </c>
-      <c r="H105" s="26" cm="1">
+      <c r="H105" s="27" cm="1">
         <f t="array" ref="H105">MAX(IF($A105=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
         <v>16</v>
       </c>
-      <c r="I105" s="26">
+      <c r="I105" s="27">
         <f>H105-G105</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
-        <v>681</v>
-      </c>
-      <c r="B106" s="40" t="s">
-        <v>7</v>
+        <v>539</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C106" s="25">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D106" s="29">
         <f>IF(NOT(ISBLANK(C106)), IF(ISNUMBER(C106), ROUND((C106 - 5)/20, 0), C106), "")</f>
@@ -45213,23 +45225,23 @@
       </c>
       <c r="G106" s="26" cm="1">
         <f t="array" ref="G106">MIN(IF($A106=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H106" s="26" cm="1">
         <f t="array" ref="H106">MAX(IF($A106=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I106" s="26">
         <f>H106-G106</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
-        <v>799</v>
-      </c>
-      <c r="B107" s="42" t="s">
-        <v>42</v>
+        <v>681</v>
+      </c>
+      <c r="B107" s="40" t="s">
+        <v>7</v>
       </c>
       <c r="C107" s="25">
         <v>80</v>
@@ -45239,15 +45251,15 @@
         <v>4</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>1005</v>
+        <v>592</v>
       </c>
       <c r="F107" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A107)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G107" s="26" cm="1">
         <f t="array" ref="G107">MIN(IF($A107=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H107" s="26" cm="1">
         <f t="array" ref="H107">MAX(IF($A107=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
@@ -45255,117 +45267,117 @@
       </c>
       <c r="I107" s="26">
         <f>H107-G107</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B108" s="34" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="26" t="s">
+        <v>799</v>
+      </c>
+      <c r="B108" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="C108" s="25">
         <v>80</v>
       </c>
-      <c r="D108" s="25">
+      <c r="D108" s="29">
         <f>IF(NOT(ISBLANK(C108)), IF(ISNUMBER(C108), ROUND((C108 - 5)/20, 0), C108), "")</f>
         <v>4</v>
       </c>
-      <c r="E108" s="27" t="s">
-        <v>1003</v>
+      <c r="E108" s="26" t="s">
+        <v>1000</v>
       </c>
       <c r="F108" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A108)</f>
         <v>1</v>
       </c>
-      <c r="G108" s="27" cm="1">
+      <c r="G108" s="26" cm="1">
         <f t="array" ref="G108">MIN(IF($A108=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>15</v>
-      </c>
-      <c r="H108" s="27" cm="1">
+        <v>18</v>
+      </c>
+      <c r="H108" s="26" cm="1">
         <f t="array" ref="H108">MAX(IF($A108=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>15</v>
-      </c>
-      <c r="I108" s="27">
+        <v>18</v>
+      </c>
+      <c r="I108" s="26">
         <f>H108-G108</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="26" t="s">
-        <v>724</v>
-      </c>
-      <c r="B109" s="45" t="s">
-        <v>39</v>
+      <c r="A109" s="27" t="s">
+        <v>997</v>
+      </c>
+      <c r="B109" s="34" t="s">
+        <v>2</v>
       </c>
       <c r="C109" s="25">
         <v>80</v>
       </c>
-      <c r="D109" s="29">
+      <c r="D109" s="25">
         <f>IF(NOT(ISBLANK(C109)), IF(ISNUMBER(C109), ROUND((C109 - 5)/20, 0), C109), "")</f>
         <v>4</v>
       </c>
-      <c r="E109" s="26" t="s">
-        <v>1004</v>
+      <c r="E109" s="27" t="s">
+        <v>998</v>
       </c>
       <c r="F109" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A109)</f>
         <v>1</v>
       </c>
-      <c r="G109" s="26" cm="1">
+      <c r="G109" s="27" cm="1">
         <f t="array" ref="G109">MIN(IF($A109=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
-      </c>
-      <c r="H109" s="26" cm="1">
+        <v>15</v>
+      </c>
+      <c r="H109" s="27" cm="1">
         <f t="array" ref="H109">MAX(IF($A109=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
-      </c>
-      <c r="I109" s="26">
+        <v>15</v>
+      </c>
+      <c r="I109" s="27">
         <f>H109-G109</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="27" t="s">
-        <v>982</v>
-      </c>
-      <c r="B110" s="42" t="s">
-        <v>42</v>
+      <c r="A110" s="26" t="s">
+        <v>724</v>
+      </c>
+      <c r="B110" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="C110" s="25">
         <v>80</v>
       </c>
-      <c r="D110" s="25">
+      <c r="D110" s="29">
         <f>IF(NOT(ISBLANK(C110)), IF(ISNUMBER(C110), ROUND((C110 - 5)/20, 0), C110), "")</f>
         <v>4</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="F110" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A110)</f>
-        <v>0</v>
-      </c>
-      <c r="G110" s="27" cm="1">
+        <v>1</v>
+      </c>
+      <c r="G110" s="26" cm="1">
         <f t="array" ref="G110">MIN(IF($A110=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>0</v>
-      </c>
-      <c r="H110" s="27" cm="1">
+        <v>18</v>
+      </c>
+      <c r="H110" s="26" cm="1">
         <f t="array" ref="H110">MAX(IF($A110=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>0</v>
-      </c>
-      <c r="I110" s="27">
+        <v>18</v>
+      </c>
+      <c r="I110" s="26">
         <f>H110-G110</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="27" t="s">
         <v>979</v>
       </c>
-      <c r="B111" s="32" t="s">
-        <v>6</v>
+      <c r="B111" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="C111" s="25">
         <v>80</v>
@@ -45375,7 +45387,7 @@
         <v>4</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="F111" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A111)</f>
@@ -45394,12 +45406,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="B112" s="33" t="s">
-        <v>11</v>
+        <v>976</v>
+      </c>
+      <c r="B112" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="C112" s="25">
         <v>80</v>
@@ -45428,12 +45440,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="27" t="s">
         <v>978</v>
       </c>
-      <c r="B113" s="34" t="s">
-        <v>2</v>
+      <c r="B113" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="C113" s="25">
         <v>80</v>
@@ -45443,7 +45455,7 @@
         <v>4</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="F113" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A113)</f>
@@ -45464,10 +45476,10 @@
     </row>
     <row r="114" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="27" t="s">
-        <v>977</v>
-      </c>
-      <c r="B114" s="28" t="s">
-        <v>22</v>
+        <v>975</v>
+      </c>
+      <c r="B114" s="34" t="s">
+        <v>2</v>
       </c>
       <c r="C114" s="25">
         <v>80</v>
@@ -45477,7 +45489,7 @@
         <v>4</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="F114" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A114)</f>
@@ -45496,12 +45508,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="B115" s="35" t="s">
-        <v>14</v>
+        <v>974</v>
+      </c>
+      <c r="B115" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="C115" s="25">
         <v>80</v>
@@ -45511,7 +45523,7 @@
         <v>4</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="F115" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A115)</f>
@@ -45532,10 +45544,10 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="27" t="s">
-        <v>985</v>
-      </c>
-      <c r="B116" s="46" t="s">
-        <v>16</v>
+        <v>977</v>
+      </c>
+      <c r="B116" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="C116" s="25">
         <v>80</v>
@@ -45545,7 +45557,7 @@
         <v>4</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>988</v>
+        <v>1021</v>
       </c>
       <c r="F116" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A116)</f>
@@ -45566,10 +45578,10 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
-        <v>983</v>
-      </c>
-      <c r="B117" s="31" t="s">
-        <v>4</v>
+        <v>982</v>
+      </c>
+      <c r="B117" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="C117" s="25">
         <v>80</v>
@@ -45579,7 +45591,7 @@
         <v>4</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>1011</v>
+        <v>983</v>
       </c>
       <c r="F117" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A117)</f>
@@ -45599,190 +45611,190 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="26" t="s">
-        <v>710</v>
-      </c>
-      <c r="B118" s="33" t="s">
-        <v>11</v>
+      <c r="A118" s="27" t="s">
+        <v>980</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C118" s="25">
-        <v>85</v>
-      </c>
-      <c r="D118" s="29">
+        <v>80</v>
+      </c>
+      <c r="D118" s="25">
         <f>IF(NOT(ISBLANK(C118)), IF(ISNUMBER(C118), ROUND((C118 - 5)/20, 0), C118), "")</f>
         <v>4</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>858</v>
+        <v>1006</v>
       </c>
       <c r="F118" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A118)</f>
-        <v>2</v>
-      </c>
-      <c r="G118" s="26" cm="1">
+        <v>0</v>
+      </c>
+      <c r="G118" s="27" cm="1">
         <f t="array" ref="G118">MIN(IF($A118=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
-      </c>
-      <c r="H118" s="26" cm="1">
+        <v>0</v>
+      </c>
+      <c r="H118" s="27" cm="1">
         <f t="array" ref="H118">MAX(IF($A118=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>19</v>
-      </c>
-      <c r="I118" s="26">
+        <v>0</v>
+      </c>
+      <c r="I118" s="27">
         <f>H118-G118</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="27" t="s">
-        <v>931</v>
-      </c>
-      <c r="B119" s="31" t="s">
-        <v>4</v>
+      <c r="A119" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="C119" s="25">
-        <v>80</v>
-      </c>
-      <c r="D119" s="25">
+        <v>85</v>
+      </c>
+      <c r="D119" s="29">
         <f>IF(NOT(ISBLANK(C119)), IF(ISNUMBER(C119), ROUND((C119 - 5)/20, 0), C119), "")</f>
         <v>4</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F119" s="26">
-        <v>1</v>
-      </c>
-      <c r="G119" s="27" cm="1">
+        <f>COUNTIF(pokemon!$AC$2:$AC$304, A119)</f>
+        <v>2</v>
+      </c>
+      <c r="G119" s="26" cm="1">
         <f t="array" ref="G119">MIN(IF($A119=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>19</v>
-      </c>
-      <c r="H119" s="27" cm="1">
+        <v>18</v>
+      </c>
+      <c r="H119" s="26" cm="1">
         <f t="array" ref="H119">MAX(IF($A119=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
         <v>19</v>
       </c>
-      <c r="I119" s="27">
+      <c r="I119" s="26">
         <f>H119-G119</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="26" t="s">
-        <v>523</v>
-      </c>
-      <c r="B120" s="40" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="27" t="s">
+        <v>930</v>
+      </c>
+      <c r="B120" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C120" s="25">
         <v>80</v>
       </c>
-      <c r="D120" s="29">
+      <c r="D120" s="25">
         <f>IF(NOT(ISBLANK(C120)), IF(ISNUMBER(C120), ROUND((C120 - 5)/20, 0), C120), "")</f>
         <v>4</v>
       </c>
       <c r="E120" s="26" t="s">
-        <v>1008</v>
+        <v>859</v>
       </c>
       <c r="F120" s="26">
-        <f>COUNTIF(pokemon!$AC$2:$AC$304, A120)</f>
         <v>1</v>
       </c>
-      <c r="G120" s="26" cm="1">
+      <c r="G120" s="27" cm="1">
         <f t="array" ref="G120">MIN(IF($A120=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>15</v>
-      </c>
-      <c r="H120" s="26" cm="1">
+        <v>19</v>
+      </c>
+      <c r="H120" s="27" cm="1">
         <f t="array" ref="H120">MAX(IF($A120=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>15</v>
-      </c>
-      <c r="I120" s="26">
+        <v>19</v>
+      </c>
+      <c r="I120" s="27">
         <f>H120-G120</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="26" t="s">
-        <v>597</v>
-      </c>
-      <c r="B121" s="32" t="s">
-        <v>6</v>
+        <v>523</v>
+      </c>
+      <c r="B121" s="40" t="s">
+        <v>7</v>
       </c>
       <c r="C121" s="25">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D121" s="29">
         <f>IF(NOT(ISBLANK(C121)), IF(ISNUMBER(C121), ROUND((C121 - 5)/20, 0), C121), "")</f>
         <v>4</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>860</v>
+        <v>1003</v>
       </c>
       <c r="F121" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A121)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G121" s="26" cm="1">
         <f t="array" ref="G121">MIN(IF($A121=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H121" s="26" cm="1">
         <f t="array" ref="H121">MAX(IF($A121=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I121" s="26">
         <f>H121-G121</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
-        <v>525</v>
-      </c>
-      <c r="B122" s="39" t="s">
-        <v>26</v>
+        <v>597</v>
+      </c>
+      <c r="B122" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="C122" s="25">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D122" s="29">
         <f>IF(NOT(ISBLANK(C122)), IF(ISNUMBER(C122), ROUND((C122 - 5)/20, 0), C122), "")</f>
         <v>4</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>1009</v>
+        <v>860</v>
       </c>
       <c r="F122" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A122)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G122" s="26" cm="1">
         <f t="array" ref="G122">MIN(IF($A122=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H122" s="26" cm="1">
         <f t="array" ref="H122">MAX(IF($A122=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I122" s="26">
         <f>H122-G122</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
-        <v>837</v>
-      </c>
-      <c r="B123" s="32" t="s">
-        <v>6</v>
+        <v>525</v>
+      </c>
+      <c r="B123" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="C123" s="25">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D123" s="29">
         <f>IF(NOT(ISBLANK(C123)), IF(ISNUMBER(C123), ROUND((C123 - 5)/20, 0), C123), "")</f>
         <v>4</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>861</v>
+        <v>1004</v>
       </c>
       <c r="F123" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A123)</f>
@@ -45790,33 +45802,33 @@
       </c>
       <c r="G123" s="26" cm="1">
         <f t="array" ref="G123">MIN(IF($A123=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H123" s="26" cm="1">
         <f t="array" ref="H123">MAX(IF($A123=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I123" s="26">
         <f>H123-G123</f>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
-        <v>475</v>
-      </c>
-      <c r="B124" s="31" t="s">
-        <v>4</v>
+        <v>837</v>
+      </c>
+      <c r="B124" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="C124" s="25">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D124" s="29">
         <f>IF(NOT(ISBLANK(C124)), IF(ISNUMBER(C124), ROUND((C124 - 5)/20, 0), C124), "")</f>
         <v>4</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>701</v>
+        <v>861</v>
       </c>
       <c r="F124" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A124)</f>
@@ -45824,11 +45836,11 @@
       </c>
       <c r="G124" s="26" cm="1">
         <f t="array" ref="G124">MIN(IF($A124=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H124" s="26" cm="1">
         <f t="array" ref="H124">MAX(IF($A124=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I124" s="26">
         <f>H124-G124</f>
@@ -45837,10 +45849,10 @@
     </row>
     <row r="125" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="B125" s="35" t="s">
-        <v>14</v>
+        <v>475</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C125" s="25">
         <v>90</v>
@@ -45850,7 +45862,7 @@
         <v>4</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F125" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A125)</f>
@@ -45869,12 +45881,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="26" t="s">
-        <v>585</v>
-      </c>
-      <c r="B126" s="33" t="s">
-        <v>11</v>
+        <v>474</v>
+      </c>
+      <c r="B126" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="C126" s="25">
         <v>90</v>
@@ -45884,7 +45896,7 @@
         <v>4</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F126" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A126)</f>
@@ -45903,46 +45915,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="B127" s="31" t="s">
-        <v>4</v>
+        <v>585</v>
+      </c>
+      <c r="B127" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="C127" s="25">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D127" s="29">
         <f>IF(NOT(ISBLANK(C127)), IF(ISNUMBER(C127), ROUND((C127 - 5)/20, 0), C127), "")</f>
         <v>4</v>
       </c>
       <c r="E127" s="26" t="s">
-        <v>610</v>
+        <v>700</v>
       </c>
       <c r="F127" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A127)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G127" s="26" cm="1">
         <f t="array" ref="G127">MIN(IF($A127=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H127" s="26" cm="1">
         <f t="array" ref="H127">MAX(IF($A127=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I127" s="26">
         <f>H127-G127</f>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="B128" s="32" t="s">
-        <v>6</v>
+        <v>485</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C128" s="25">
         <v>80</v>
@@ -45956,27 +45968,27 @@
       </c>
       <c r="F128" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A128)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128" s="26" cm="1">
         <f t="array" ref="G128">MIN(IF($A128=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H128" s="26" cm="1">
         <f t="array" ref="H128">MAX(IF($A128=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I128" s="26">
         <f>H128-G128</f>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="B129" s="39" t="s">
-        <v>26</v>
+        <v>488</v>
+      </c>
+      <c r="B129" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="C129" s="25">
         <v>80</v>
@@ -45986,11 +45998,11 @@
         <v>4</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F129" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A129)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G129" s="26" cm="1">
         <f t="array" ref="G129">MIN(IF($A129=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
@@ -45998,19 +46010,19 @@
       </c>
       <c r="H129" s="26" cm="1">
         <f t="array" ref="H129">MAX(IF($A129=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I129" s="26">
         <f>H129-G129</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="B130" s="35" t="s">
-        <v>14</v>
+        <v>502</v>
+      </c>
+      <c r="B130" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="C130" s="25">
         <v>80</v>
@@ -46020,11 +46032,11 @@
         <v>4</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F130" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A130)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G130" s="26" cm="1">
         <f t="array" ref="G130">MIN(IF($A130=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
@@ -46032,22 +46044,22 @@
       </c>
       <c r="H130" s="26" cm="1">
         <f t="array" ref="H130">MAX(IF($A130=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I130" s="26">
         <f>H130-G130</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="26" t="s">
-        <v>623</v>
+        <v>496</v>
       </c>
       <c r="B131" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C131" s="25">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D131" s="29">
         <f>IF(NOT(ISBLANK(C131)), IF(ISNUMBER(C131), ROUND((C131 - 5)/20, 0), C131), "")</f>
@@ -46058,37 +46070,37 @@
       </c>
       <c r="F131" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A131)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G131" s="26" cm="1">
         <f t="array" ref="G131">MIN(IF($A131=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H131" s="26" cm="1">
         <f t="array" ref="H131">MAX(IF($A131=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I131" s="26">
         <f>H131-G131</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="26" t="s">
-        <v>534</v>
-      </c>
-      <c r="B132" s="30" t="s">
-        <v>8</v>
+        <v>623</v>
+      </c>
+      <c r="B132" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="C132" s="25">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D132" s="29">
         <f>IF(NOT(ISBLANK(C132)), IF(ISNUMBER(C132), ROUND((C132 - 5)/20, 0), C132), "")</f>
         <v>4</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F132" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A132)</f>
@@ -46096,26 +46108,26 @@
       </c>
       <c r="G132" s="26" cm="1">
         <f t="array" ref="G132">MIN(IF($A132=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H132" s="26" cm="1">
         <f t="array" ref="H132">MAX(IF($A132=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I132" s="26">
         <f>H132-G132</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="B133" s="33" t="s">
-        <v>11</v>
+        <v>534</v>
+      </c>
+      <c r="B133" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C133" s="25">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D133" s="29">
         <f>IF(NOT(ISBLANK(C133)), IF(ISNUMBER(C133), ROUND((C133 - 5)/20, 0), C133), "")</f>
@@ -46126,27 +46138,27 @@
       </c>
       <c r="F133" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A133)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G133" s="26" cm="1">
         <f t="array" ref="G133">MIN(IF($A133=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H133" s="26" cm="1">
         <f t="array" ref="H133">MAX(IF($A133=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I133" s="26">
         <f>H133-G133</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="26" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B134" s="36" t="s">
-        <v>3</v>
+        <v>491</v>
+      </c>
+      <c r="B134" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="C134" s="25">
         <v>80</v>
@@ -46156,7 +46168,7 @@
         <v>4</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>662</v>
+        <v>612</v>
       </c>
       <c r="F134" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A134)</f>
@@ -46175,12 +46187,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="B135" s="30" t="s">
-        <v>8</v>
+        <v>1002</v>
+      </c>
+      <c r="B135" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="C135" s="25">
         <v>80</v>
@@ -46190,31 +46202,31 @@
         <v>4</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F135" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A135)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G135" s="26" cm="1">
         <f t="array" ref="G135">MIN(IF($A135=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H135" s="26" cm="1">
         <f t="array" ref="H135">MAX(IF($A135=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I135" s="26">
         <f>H135-G135</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="B136" s="34" t="s">
-        <v>2</v>
+        <v>540</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C136" s="25">
         <v>80</v>
@@ -46224,41 +46236,41 @@
         <v>4</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>881</v>
+        <v>664</v>
       </c>
       <c r="F136" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A136)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G136" s="26" cm="1">
         <f t="array" ref="G136">MIN(IF($A136=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H136" s="26" cm="1">
         <f t="array" ref="H136">MAX(IF($A136=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I136" s="26">
         <f>H136-G136</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="26" t="s">
-        <v>558</v>
-      </c>
-      <c r="B137" s="42" t="s">
-        <v>42</v>
+        <v>757</v>
+      </c>
+      <c r="B137" s="34" t="s">
+        <v>2</v>
       </c>
       <c r="C137" s="25">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D137" s="29">
         <f>IF(NOT(ISBLANK(C137)), IF(ISNUMBER(C137), ROUND((C137 - 5)/20, 0), C137), "")</f>
         <v>4</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>862</v>
+        <v>881</v>
       </c>
       <c r="F137" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A137)</f>
@@ -46266,23 +46278,23 @@
       </c>
       <c r="G137" s="26" cm="1">
         <f t="array" ref="G137">MIN(IF($A137=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H137" s="26" cm="1">
         <f t="array" ref="H137">MAX(IF($A137=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I137" s="26">
         <f>H137-G137</f>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="26" t="s">
-        <v>544</v>
-      </c>
-      <c r="B138" s="31" t="s">
-        <v>4</v>
+        <v>558</v>
+      </c>
+      <c r="B138" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="C138" s="25">
         <v>90</v>
@@ -46292,7 +46304,7 @@
         <v>4</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>839</v>
+        <v>862</v>
       </c>
       <c r="F138" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A138)</f>
@@ -46300,11 +46312,11 @@
       </c>
       <c r="G138" s="26" cm="1">
         <f t="array" ref="G138">MIN(IF($A138=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H138" s="26" cm="1">
         <f t="array" ref="H138">MAX(IF($A138=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I138" s="26">
         <f>H138-G138</f>
@@ -46313,20 +46325,20 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="B139" s="28" t="s">
-        <v>22</v>
+        <v>544</v>
+      </c>
+      <c r="B139" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C139" s="25">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D139" s="29">
         <f>IF(NOT(ISBLANK(C139)), IF(ISNUMBER(C139), ROUND((C139 - 5)/20, 0), C139), "")</f>
         <v>4</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>593</v>
+        <v>839</v>
       </c>
       <c r="F139" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A139)</f>
@@ -46334,11 +46346,11 @@
       </c>
       <c r="G139" s="26" cm="1">
         <f t="array" ref="G139">MIN(IF($A139=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H139" s="26" cm="1">
         <f t="array" ref="H139">MAX(IF($A139=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I139" s="26">
         <f>H139-G139</f>
@@ -46347,10 +46359,10 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="26" t="s">
-        <v>829</v>
-      </c>
-      <c r="B140" s="43" t="s">
-        <v>67</v>
+        <v>498</v>
+      </c>
+      <c r="B140" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="C140" s="25">
         <v>80</v>
@@ -46364,95 +46376,95 @@
       </c>
       <c r="F140" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A140)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G140" s="26" cm="1">
         <f t="array" ref="G140">MIN(IF($A140=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H140" s="26" cm="1">
         <f t="array" ref="H140">MAX(IF($A140=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I140" s="26">
         <f>H140-G140</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="26" t="s">
-        <v>493</v>
-      </c>
-      <c r="B141" s="34" t="s">
-        <v>2</v>
+        <v>829</v>
+      </c>
+      <c r="B141" s="43" t="s">
+        <v>67</v>
       </c>
       <c r="C141" s="25">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D141" s="29">
         <f>IF(NOT(ISBLANK(C141)), IF(ISNUMBER(C141), ROUND((C141 - 5)/20, 0), C141), "")</f>
         <v>4</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>650</v>
+        <v>593</v>
       </c>
       <c r="F141" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A141)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G141" s="26" cm="1">
         <f t="array" ref="G141">MIN(IF($A141=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H141" s="26" cm="1">
         <f t="array" ref="H141">MAX(IF($A141=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I141" s="26">
         <f>H141-G141</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="26" t="s">
-        <v>754</v>
-      </c>
-      <c r="B142" s="33" t="s">
-        <v>11</v>
+        <v>493</v>
+      </c>
+      <c r="B142" s="34" t="s">
+        <v>2</v>
       </c>
       <c r="C142" s="25">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D142" s="29">
         <f>IF(NOT(ISBLANK(C142)), IF(ISNUMBER(C142), ROUND((C142 - 5)/20, 0), C142), "")</f>
         <v>4</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>984</v>
+        <v>650</v>
       </c>
       <c r="F142" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A142)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G142" s="26" cm="1">
         <f t="array" ref="G142">MIN(IF($A142=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H142" s="26" cm="1">
         <f t="array" ref="H142">MAX(IF($A142=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I142" s="26">
         <f>H142-G142</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="B143" s="40" t="s">
-        <v>7</v>
+        <v>754</v>
+      </c>
+      <c r="B143" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="C143" s="25">
         <v>80</v>
@@ -46462,31 +46474,31 @@
         <v>4</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>614</v>
+        <v>981</v>
       </c>
       <c r="F143" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A143)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G143" s="26" cm="1">
         <f t="array" ref="G143">MIN(IF($A143=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H143" s="26" cm="1">
         <f t="array" ref="H143">MAX(IF($A143=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I143" s="26">
         <f>H143-G143</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="B144" s="44" t="s">
-        <v>9</v>
+        <v>624</v>
+      </c>
+      <c r="B144" s="40" t="s">
+        <v>7</v>
       </c>
       <c r="C144" s="25">
         <v>80</v>
@@ -46504,7 +46516,7 @@
       </c>
       <c r="G144" s="26" cm="1">
         <f t="array" ref="G144">MIN(IF($A144=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H144" s="26" cm="1">
         <f t="array" ref="H144">MAX(IF($A144=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
@@ -46512,15 +46524,15 @@
       </c>
       <c r="I144" s="26">
         <f>H144-G144</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="26" t="s">
-        <v>494</v>
-      </c>
-      <c r="B145" s="34" t="s">
-        <v>2</v>
+        <v>511</v>
+      </c>
+      <c r="B145" s="44" t="s">
+        <v>9</v>
       </c>
       <c r="C145" s="25">
         <v>80</v>
@@ -46534,30 +46546,30 @@
       </c>
       <c r="F145" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A145)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G145" s="26" cm="1">
         <f t="array" ref="G145">MIN(IF($A145=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H145" s="26" cm="1">
         <f t="array" ref="H145">MAX(IF($A145=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I145" s="26">
         <f>H145-G145</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="B146" s="45" t="s">
-        <v>39</v>
+        <v>494</v>
+      </c>
+      <c r="B146" s="34" t="s">
+        <v>2</v>
       </c>
       <c r="C146" s="25">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D146" s="29">
         <f>IF(NOT(ISBLANK(C146)), IF(ISNUMBER(C146), ROUND((C146 - 5)/20, 0), C146), "")</f>
@@ -46568,7 +46580,7 @@
       </c>
       <c r="F146" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A146)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G146" s="26" cm="1">
         <f t="array" ref="G146">MIN(IF($A146=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
@@ -46576,22 +46588,22 @@
       </c>
       <c r="H146" s="26" cm="1">
         <f t="array" ref="H146">MAX(IF($A146=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I146" s="26">
         <f>H146-G146</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="26" t="s">
-        <v>806</v>
-      </c>
-      <c r="B147" s="32" t="s">
-        <v>6</v>
+        <v>513</v>
+      </c>
+      <c r="B147" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="C147" s="25">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D147" s="29">
         <f>IF(NOT(ISBLANK(C147)), IF(ISNUMBER(C147), ROUND((C147 - 5)/20, 0), C147), "")</f>
@@ -46602,7 +46614,7 @@
       </c>
       <c r="F147" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A147)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G147" s="26" cm="1">
         <f t="array" ref="G147">MIN(IF($A147=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
@@ -46610,22 +46622,22 @@
       </c>
       <c r="H147" s="26" cm="1">
         <f t="array" ref="H147">MAX(IF($A147=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I147" s="26">
         <f>H147-G147</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="26" t="s">
-        <v>579</v>
-      </c>
-      <c r="B148" s="42" t="s">
-        <v>42</v>
+        <v>806</v>
+      </c>
+      <c r="B148" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="C148" s="25">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D148" s="29">
         <f>IF(NOT(ISBLANK(C148)), IF(ISNUMBER(C148), ROUND((C148 - 5)/20, 0), C148), "")</f>
@@ -46640,11 +46652,11 @@
       </c>
       <c r="G148" s="26" cm="1">
         <f t="array" ref="G148">MIN(IF($A148=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H148" s="26" cm="1">
         <f t="array" ref="H148">MAX(IF($A148=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I148" s="26">
         <f>H148-G148</f>
@@ -46653,88 +46665,88 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="26" t="s">
-        <v>543</v>
-      </c>
-      <c r="B149" s="46" t="s">
-        <v>16</v>
+        <v>579</v>
+      </c>
+      <c r="B149" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="C149" s="25">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D149" s="29">
         <f>IF(NOT(ISBLANK(C149)), IF(ISNUMBER(C149), ROUND((C149 - 5)/20, 0), C149), "")</f>
         <v>4</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>697</v>
+        <v>614</v>
       </c>
       <c r="F149" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A149)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G149" s="26" cm="1">
         <f t="array" ref="G149">MIN(IF($A149=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H149" s="26" cm="1">
         <f t="array" ref="H149">MAX(IF($A149=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I149" s="26">
         <f>H149-G149</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="26" t="s">
-        <v>628</v>
-      </c>
-      <c r="B150" s="44" t="s">
-        <v>9</v>
+        <v>543</v>
+      </c>
+      <c r="B150" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="C150" s="25">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D150" s="29">
         <f>IF(NOT(ISBLANK(C150)), IF(ISNUMBER(C150), ROUND((C150 - 5)/20, 0), C150), "")</f>
         <v>4</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>629</v>
+        <v>697</v>
       </c>
       <c r="F150" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A150)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G150" s="26" cm="1">
         <f t="array" ref="G150">MIN(IF($A150=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H150" s="26" cm="1">
         <f t="array" ref="H150">MAX(IF($A150=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I150" s="26">
         <f>H150-G150</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="26" t="s">
-        <v>763</v>
-      </c>
-      <c r="B151" s="46" t="s">
-        <v>16</v>
+        <v>628</v>
+      </c>
+      <c r="B151" s="44" t="s">
+        <v>9</v>
       </c>
       <c r="C151" s="25">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D151" s="29">
         <f>IF(NOT(ISBLANK(C151)), IF(ISNUMBER(C151), ROUND((C151 - 5)/20, 0), C151), "")</f>
         <v>4</v>
       </c>
       <c r="E151" s="26" t="s">
-        <v>698</v>
+        <v>629</v>
       </c>
       <c r="F151" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A151)</f>
@@ -46742,26 +46754,26 @@
       </c>
       <c r="G151" s="26" cm="1">
         <f t="array" ref="G151">MIN(IF($A151=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H151" s="26" cm="1">
         <f t="array" ref="H151">MAX(IF($A151=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I151" s="26">
         <f>H151-G151</f>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="26" t="s">
-        <v>514</v>
-      </c>
-      <c r="B152" s="45" t="s">
-        <v>39</v>
+        <v>763</v>
+      </c>
+      <c r="B152" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="C152" s="25">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D152" s="29">
         <f>IF(NOT(ISBLANK(C152)), IF(ISNUMBER(C152), ROUND((C152 - 5)/20, 0), C152), "")</f>
@@ -46776,28 +46788,28 @@
       </c>
       <c r="G152" s="26" cm="1">
         <f t="array" ref="G152">MIN(IF($A152=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H152" s="26" cm="1">
         <f t="array" ref="H152">MAX(IF($A152=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I152" s="26">
         <f>H152-G152</f>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="27" t="s">
-        <v>938</v>
-      </c>
-      <c r="B153" s="32" t="s">
-        <v>6</v>
+    <row r="153" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="B153" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="C153" s="25">
-        <v>90</v>
-      </c>
-      <c r="D153" s="25">
+        <v>80</v>
+      </c>
+      <c r="D153" s="29">
         <f>IF(NOT(ISBLANK(C153)), IF(ISNUMBER(C153), ROUND((C153 - 5)/20, 0), C153), "")</f>
         <v>4</v>
       </c>
@@ -46808,30 +46820,30 @@
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A153)</f>
         <v>1</v>
       </c>
-      <c r="G153" s="27" cm="1">
+      <c r="G153" s="26" cm="1">
         <f t="array" ref="G153">MIN(IF($A153=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
-      </c>
-      <c r="H153" s="27" cm="1">
+        <v>19</v>
+      </c>
+      <c r="H153" s="26" cm="1">
         <f t="array" ref="H153">MAX(IF($A153=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
-      </c>
-      <c r="I153" s="27">
+        <v>19</v>
+      </c>
+      <c r="I153" s="26">
         <f>H153-G153</f>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="26" t="s">
-        <v>696</v>
-      </c>
-      <c r="B154" s="44" t="s">
-        <v>9</v>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="27" t="s">
+        <v>937</v>
+      </c>
+      <c r="B154" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="C154" s="25">
-        <v>85</v>
-      </c>
-      <c r="D154" s="29">
+        <v>90</v>
+      </c>
+      <c r="D154" s="25">
         <f>IF(NOT(ISBLANK(C154)), IF(ISNUMBER(C154), ROUND((C154 - 5)/20, 0), C154), "")</f>
         <v>4</v>
       </c>
@@ -46842,122 +46854,122 @@
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A154)</f>
         <v>1</v>
       </c>
-      <c r="G154" s="26" cm="1">
+      <c r="G154" s="27" cm="1">
         <f t="array" ref="G154">MIN(IF($A154=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
-      </c>
-      <c r="H154" s="26" cm="1">
+        <v>14</v>
+      </c>
+      <c r="H154" s="27" cm="1">
         <f t="array" ref="H154">MAX(IF($A154=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
-      </c>
-      <c r="I154" s="26">
+        <v>14</v>
+      </c>
+      <c r="I154" s="27">
         <f>H154-G154</f>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="27" t="s">
-        <v>942</v>
-      </c>
-      <c r="B155" s="39" t="s">
-        <v>26</v>
+    <row r="155" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="B155" s="44" t="s">
+        <v>9</v>
       </c>
       <c r="C155" s="25">
-        <v>75</v>
-      </c>
-      <c r="D155" s="25">
+        <v>85</v>
+      </c>
+      <c r="D155" s="29">
         <f>IF(NOT(ISBLANK(C155)), IF(ISNUMBER(C155), ROUND((C155 - 5)/20, 0), C155), "")</f>
         <v>4</v>
       </c>
       <c r="E155" s="26" t="s">
-        <v>940</v>
+        <v>698</v>
       </c>
       <c r="F155" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A155)</f>
         <v>1</v>
       </c>
-      <c r="G155" s="27" cm="1">
+      <c r="G155" s="26" cm="1">
         <f t="array" ref="G155">MIN(IF($A155=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
-      </c>
-      <c r="H155" s="27" cm="1">
+        <v>17</v>
+      </c>
+      <c r="H155" s="26" cm="1">
         <f t="array" ref="H155">MAX(IF($A155=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
-      </c>
-      <c r="I155" s="27">
+        <v>17</v>
+      </c>
+      <c r="I155" s="26">
         <f>H155-G155</f>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="26" t="s">
-        <v>557</v>
-      </c>
-      <c r="B156" s="27" t="s">
-        <v>560</v>
+      <c r="A156" s="27" t="s">
+        <v>940</v>
+      </c>
+      <c r="B156" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="C156" s="25">
-        <v>100</v>
-      </c>
-      <c r="D156" s="29">
+        <v>75</v>
+      </c>
+      <c r="D156" s="25">
         <f>IF(NOT(ISBLANK(C156)), IF(ISNUMBER(C156), ROUND((C156 - 5)/20, 0), C156), "")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E156" s="26" t="s">
-        <v>667</v>
+        <v>939</v>
       </c>
       <c r="F156" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A156)</f>
-        <v>0</v>
-      </c>
-      <c r="G156" s="26" cm="1">
+        <v>1</v>
+      </c>
+      <c r="G156" s="27" cm="1">
         <f t="array" ref="G156">MIN(IF($A156=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>0</v>
-      </c>
-      <c r="H156" s="26" cm="1">
+        <v>16</v>
+      </c>
+      <c r="H156" s="27" cm="1">
         <f t="array" ref="H156">MAX(IF($A156=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>0</v>
-      </c>
-      <c r="I156" s="26">
+        <v>16</v>
+      </c>
+      <c r="I156" s="27">
         <f>H156-G156</f>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="27" t="s">
-        <v>997</v>
-      </c>
-      <c r="B157" s="36" t="s">
-        <v>3</v>
+      <c r="A157" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="B157" s="27" t="s">
+        <v>560</v>
       </c>
       <c r="C157" s="25">
         <v>100</v>
       </c>
-      <c r="D157" s="25">
+      <c r="D157" s="29">
         <f>IF(NOT(ISBLANK(C157)), IF(ISNUMBER(C157), ROUND((C157 - 5)/20, 0), C157), "")</f>
         <v>5</v>
       </c>
-      <c r="E157" s="27" t="s">
-        <v>998</v>
+      <c r="E157" s="26" t="s">
+        <v>667</v>
       </c>
       <c r="F157" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A157)</f>
-        <v>1</v>
-      </c>
-      <c r="G157" s="27" cm="1">
+        <v>0</v>
+      </c>
+      <c r="G157" s="26" cm="1">
         <f t="array" ref="G157">MIN(IF($A157=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
-      </c>
-      <c r="H157" s="27" cm="1">
+        <v>0</v>
+      </c>
+      <c r="H157" s="26" cm="1">
         <f t="array" ref="H157">MAX(IF($A157=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
-      </c>
-      <c r="I157" s="27">
+        <v>0</v>
+      </c>
+      <c r="I157" s="26">
         <f>H157-G157</f>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="26" t="s">
         <v>706</v>
       </c>
@@ -47093,7 +47105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="26" t="s">
         <v>504</v>
       </c>
@@ -47161,7 +47173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="26" t="s">
         <v>480</v>
       </c>
@@ -47195,7 +47207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="26" t="s">
         <v>580</v>
       </c>
@@ -47331,7 +47343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="26" t="s">
         <v>495</v>
       </c>
@@ -47365,7 +47377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="26" t="s">
         <v>492</v>
       </c>
@@ -47433,7 +47445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="26" t="s">
         <v>606</v>
       </c>
@@ -47482,7 +47494,7 @@
         <v>5</v>
       </c>
       <c r="E173" s="26" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F173" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A173)</f>
@@ -47501,7 +47513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="26" t="s">
         <v>838</v>
       </c>
@@ -47516,7 +47528,7 @@
         <v>5</v>
       </c>
       <c r="E174" s="26" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F174" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A174)</f>
@@ -47535,7 +47547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="26" t="s">
         <v>583</v>
       </c>
@@ -47550,7 +47562,7 @@
         <v>5</v>
       </c>
       <c r="E175" s="26" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F175" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A175)</f>
@@ -47569,9 +47581,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="26" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B176" s="27" t="s">
         <v>560</v>
@@ -47584,7 +47596,7 @@
         <v>5</v>
       </c>
       <c r="E176" s="26" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="F176" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A176)</f>
@@ -47603,7 +47615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="26" t="s">
         <v>787</v>
       </c>
@@ -47637,7 +47649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="26" t="s">
         <v>586</v>
       </c>
@@ -47671,7 +47683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="27" t="s">
         <v>588</v>
       </c>
@@ -47688,7 +47700,10 @@
       <c r="E179" s="26" t="s">
         <v>771</v>
       </c>
-      <c r="F179" s="26"/>
+      <c r="F179" s="26">
+        <f>COUNTIF(pokemon!$AC$2:$AC$304, A179)</f>
+        <v>1</v>
+      </c>
       <c r="G179" s="27" cm="1">
         <f t="array" ref="G179">MIN(IF($A179=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
         <v>17</v>
@@ -47702,7 +47717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="26" t="s">
         <v>507</v>
       </c>
@@ -47770,7 +47785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="26" t="s">
         <v>530</v>
       </c>
@@ -47804,7 +47819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="26" t="s">
         <v>734</v>
       </c>
@@ -47838,7 +47853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="26" t="s">
         <v>547</v>
       </c>
@@ -47940,7 +47955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="26" t="s">
         <v>622</v>
       </c>
@@ -47974,46 +47989,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="26" t="s">
-        <v>524</v>
-      </c>
-      <c r="B188" s="30" t="s">
-        <v>8</v>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="27" t="s">
+        <v>992</v>
+      </c>
+      <c r="B188" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="C188" s="25">
-        <v>120</v>
-      </c>
-      <c r="D188" s="29">
+        <v>115</v>
+      </c>
+      <c r="D188" s="25">
         <f>IF(NOT(ISBLANK(C188)), IF(ISNUMBER(C188), ROUND((C188 - 5)/20, 0), C188), "")</f>
         <v>6</v>
       </c>
-      <c r="E188" s="26" t="s">
-        <v>843</v>
+      <c r="E188" s="27" t="s">
+        <v>993</v>
       </c>
       <c r="F188" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A188)</f>
-        <v>4</v>
-      </c>
-      <c r="G188" s="26" cm="1">
+        <v>1</v>
+      </c>
+      <c r="G188" s="27" cm="1">
         <f t="array" ref="G188">MIN(IF($A188=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
         <v>17</v>
       </c>
-      <c r="H188" s="26" cm="1">
+      <c r="H188" s="27" cm="1">
         <f t="array" ref="H188">MAX(IF($A188=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
-      </c>
-      <c r="I188" s="26">
+        <v>17</v>
+      </c>
+      <c r="I188" s="27">
         <f>H188-G188</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="26" t="s">
-        <v>520</v>
-      </c>
-      <c r="B189" s="41" t="s">
-        <v>33</v>
+        <v>524</v>
+      </c>
+      <c r="B189" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C189" s="25">
         <v>120</v>
@@ -48027,11 +48042,11 @@
       </c>
       <c r="F189" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A189)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G189" s="26" cm="1">
         <f t="array" ref="G189">MIN(IF($A189=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H189" s="26" cm="1">
         <f t="array" ref="H189">MAX(IF($A189=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
@@ -48039,15 +48054,15 @@
       </c>
       <c r="I189" s="26">
         <f>H189-G189</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="26" t="s">
-        <v>752</v>
-      </c>
-      <c r="B190" s="31" t="s">
-        <v>4</v>
+        <v>520</v>
+      </c>
+      <c r="B190" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="C190" s="25">
         <v>120</v>
@@ -48065,11 +48080,11 @@
       </c>
       <c r="G190" s="26" cm="1">
         <f t="array" ref="G190">MIN(IF($A190=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H190" s="26" cm="1">
         <f t="array" ref="H190">MAX(IF($A190=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I190" s="26">
         <f>H190-G190</f>
@@ -48077,45 +48092,45 @@
       </c>
     </row>
     <row r="191" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="27" t="s">
-        <v>917</v>
-      </c>
-      <c r="B191" s="45" t="s">
-        <v>39</v>
+      <c r="A191" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="B191" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C191" s="25">
         <v>120</v>
       </c>
-      <c r="D191" s="25">
+      <c r="D191" s="29">
         <f>IF(NOT(ISBLANK(C191)), IF(ISNUMBER(C191), ROUND((C191 - 5)/20, 0), C191), "")</f>
         <v>6</v>
       </c>
       <c r="E191" s="26" t="s">
-        <v>921</v>
+        <v>843</v>
       </c>
       <c r="F191" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A191)</f>
-        <v>0</v>
-      </c>
-      <c r="G191" s="27" cm="1">
+        <v>1</v>
+      </c>
+      <c r="G191" s="26" cm="1">
         <f t="array" ref="G191">MIN(IF($A191=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>0</v>
-      </c>
-      <c r="H191" s="27" cm="1">
+        <v>28</v>
+      </c>
+      <c r="H191" s="26" cm="1">
         <f t="array" ref="H191">MAX(IF($A191=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>0</v>
-      </c>
-      <c r="I191" s="27">
+        <v>28</v>
+      </c>
+      <c r="I191" s="26">
         <f>H191-G191</f>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="27" t="s">
-        <v>918</v>
-      </c>
-      <c r="B192" s="42" t="s">
-        <v>42</v>
+        <v>916</v>
+      </c>
+      <c r="B192" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="C192" s="25">
         <v>120</v>
@@ -48145,101 +48160,101 @@
       </c>
     </row>
     <row r="193" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="B193" s="41" t="s">
-        <v>33</v>
+      <c r="A193" s="27" t="s">
+        <v>917</v>
+      </c>
+      <c r="B193" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="C193" s="25">
         <v>120</v>
       </c>
-      <c r="D193" s="29">
+      <c r="D193" s="25">
         <f>IF(NOT(ISBLANK(C193)), IF(ISNUMBER(C193), ROUND((C193 - 5)/20, 0), C193), "")</f>
         <v>6</v>
       </c>
       <c r="E193" s="26" t="s">
-        <v>770</v>
+        <v>919</v>
       </c>
       <c r="F193" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A193)</f>
-        <v>1</v>
-      </c>
-      <c r="G193" s="26" cm="1">
+        <v>0</v>
+      </c>
+      <c r="G193" s="27" cm="1">
         <f t="array" ref="G193">MIN(IF($A193=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>19</v>
-      </c>
-      <c r="H193" s="26" cm="1">
+        <v>0</v>
+      </c>
+      <c r="H193" s="27" cm="1">
         <f t="array" ref="H193">MAX(IF($A193=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>19</v>
-      </c>
-      <c r="I193" s="26">
+        <v>0</v>
+      </c>
+      <c r="I193" s="27">
         <f>H193-G193</f>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="27" t="s">
-        <v>970</v>
-      </c>
-      <c r="B194" s="39" t="s">
-        <v>26</v>
+      <c r="A194" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="B194" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="C194" s="25">
         <v>120</v>
       </c>
-      <c r="D194" s="25">
+      <c r="D194" s="29">
         <f>IF(NOT(ISBLANK(C194)), IF(ISNUMBER(C194), ROUND((C194 - 5)/20, 0), C194), "")</f>
         <v>6</v>
       </c>
-      <c r="E194" s="27" t="s">
-        <v>972</v>
+      <c r="E194" s="26" t="s">
+        <v>770</v>
       </c>
       <c r="F194" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A194)</f>
         <v>1</v>
       </c>
-      <c r="G194" s="27" cm="1">
+      <c r="G194" s="26" cm="1">
         <f t="array" ref="G194">MIN(IF($A194=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
-      </c>
-      <c r="H194" s="27" cm="1">
+        <v>19</v>
+      </c>
+      <c r="H194" s="26" cm="1">
         <f t="array" ref="H194">MAX(IF($A194=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>17</v>
-      </c>
-      <c r="I194" s="27">
+        <v>19</v>
+      </c>
+      <c r="I194" s="26">
         <f>H194-G194</f>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="26" t="s">
-        <v>812</v>
+      <c r="A195" s="27" t="s">
+        <v>967</v>
       </c>
       <c r="B195" s="39" t="s">
         <v>26</v>
       </c>
       <c r="C195" s="25">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D195" s="25">
         <f>IF(NOT(ISBLANK(C195)), IF(ISNUMBER(C195), ROUND((C195 - 5)/20, 0), C195), "")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E195" s="27" t="s">
-        <v>1023</v>
+        <v>969</v>
       </c>
       <c r="F195" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A195)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195" s="27" cm="1">
         <f t="array" ref="G195">MIN(IF($A195=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H195" s="27" cm="1">
         <f t="array" ref="H195">MAX(IF($A195=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I195" s="27">
         <f>H195-G195</f>
@@ -48248,54 +48263,54 @@
     </row>
     <row r="196" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="B196" s="43" t="s">
-        <v>67</v>
+        <v>812</v>
+      </c>
+      <c r="B196" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="C196" s="25">
         <v>150</v>
       </c>
-      <c r="D196" s="29">
+      <c r="D196" s="25">
         <f>IF(NOT(ISBLANK(C196)), IF(ISNUMBER(C196), ROUND((C196 - 5)/20, 0), C196), "")</f>
         <v>7</v>
       </c>
-      <c r="E196" s="26" t="s">
-        <v>770</v>
+      <c r="E196" s="27" t="s">
+        <v>1018</v>
       </c>
       <c r="F196" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A196)</f>
-        <v>1</v>
-      </c>
-      <c r="G196" s="26" cm="1">
+        <v>0</v>
+      </c>
+      <c r="G196" s="27" cm="1">
         <f t="array" ref="G196">MIN(IF($A196=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>23</v>
-      </c>
-      <c r="H196" s="26" cm="1">
+        <v>0</v>
+      </c>
+      <c r="H196" s="27" cm="1">
         <f t="array" ref="H196">MAX(IF($A196=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>23</v>
-      </c>
-      <c r="I196" s="26">
+        <v>0</v>
+      </c>
+      <c r="I196" s="27">
         <f>H196-G196</f>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="26" t="s">
-        <v>545</v>
-      </c>
-      <c r="B197" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C197" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="D197" s="29" t="str">
+        <v>510</v>
+      </c>
+      <c r="B197" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C197" s="25">
+        <v>150</v>
+      </c>
+      <c r="D197" s="29">
         <f>IF(NOT(ISBLANK(C197)), IF(ISNUMBER(C197), ROUND((C197 - 5)/20, 0), C197), "")</f>
-        <v>?</v>
+        <v>7</v>
       </c>
       <c r="E197" s="26" t="s">
-        <v>944</v>
+        <v>770</v>
       </c>
       <c r="F197" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A197)</f>
@@ -48303,23 +48318,23 @@
       </c>
       <c r="G197" s="26" cm="1">
         <f t="array" ref="G197">MIN(IF($A197=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H197" s="26" cm="1">
         <f t="array" ref="H197">MAX(IF($A197=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I197" s="26">
         <f>H197-G197</f>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="26" t="s">
-        <v>760</v>
-      </c>
-      <c r="B198" s="28" t="s">
-        <v>22</v>
+        <v>545</v>
+      </c>
+      <c r="B198" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C198" s="25" t="s">
         <v>519</v>
@@ -48329,7 +48344,7 @@
         <v>?</v>
       </c>
       <c r="E198" s="26" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F198" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A198)</f>
@@ -48337,11 +48352,11 @@
       </c>
       <c r="G198" s="26" cm="1">
         <f t="array" ref="G198">MIN(IF($A198=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H198" s="26" cm="1">
         <f t="array" ref="H198">MAX(IF($A198=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I198" s="26">
         <f>H198-G198</f>
@@ -48350,10 +48365,10 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="26" t="s">
-        <v>573</v>
-      </c>
-      <c r="B199" s="45" t="s">
-        <v>39</v>
+        <v>760</v>
+      </c>
+      <c r="B199" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="C199" s="25" t="s">
         <v>519</v>
@@ -48363,31 +48378,31 @@
         <v>?</v>
       </c>
       <c r="E199" s="26" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F199" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A199)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G199" s="26" cm="1">
         <f t="array" ref="G199">MIN(IF($A199=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H199" s="26" cm="1">
         <f t="array" ref="H199">MAX(IF($A199=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I199" s="26">
         <f>H199-G199</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="26" t="s">
-        <v>718</v>
-      </c>
-      <c r="B200" s="35" t="s">
-        <v>14</v>
+        <v>573</v>
+      </c>
+      <c r="B200" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="C200" s="25" t="s">
         <v>519</v>
@@ -48397,31 +48412,31 @@
         <v>?</v>
       </c>
       <c r="E200" s="26" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="F200" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A200)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G200" s="26" cm="1">
         <f t="array" ref="G200">MIN(IF($A200=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H200" s="26" cm="1">
         <f t="array" ref="H200">MAX(IF($A200=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I200" s="26">
         <f>H200-G200</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="26" t="s">
-        <v>761</v>
-      </c>
-      <c r="B201" s="28" t="s">
-        <v>22</v>
+        <v>718</v>
+      </c>
+      <c r="B201" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="C201" s="25" t="s">
         <v>519</v>
@@ -48431,7 +48446,7 @@
         <v>?</v>
       </c>
       <c r="E201" s="26" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F201" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A201)</f>
@@ -48439,23 +48454,23 @@
       </c>
       <c r="G201" s="26" cm="1">
         <f t="array" ref="G201">MIN(IF($A201=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H201" s="26" cm="1">
         <f t="array" ref="H201">MAX(IF($A201=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I201" s="26">
         <f>H201-G201</f>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="26" t="s">
-        <v>689</v>
-      </c>
-      <c r="B202" s="33" t="s">
-        <v>11</v>
+        <v>761</v>
+      </c>
+      <c r="B202" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="C202" s="25" t="s">
         <v>519</v>
@@ -48465,7 +48480,7 @@
         <v>?</v>
       </c>
       <c r="E202" s="26" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F202" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A202)</f>
@@ -48473,23 +48488,23 @@
       </c>
       <c r="G202" s="26" cm="1">
         <f t="array" ref="G202">MIN(IF($A202=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H202" s="26" cm="1">
         <f t="array" ref="H202">MAX(IF($A202=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I202" s="26">
         <f>H202-G202</f>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="26" t="s">
-        <v>790</v>
-      </c>
-      <c r="B203" s="31" t="s">
-        <v>4</v>
+        <v>689</v>
+      </c>
+      <c r="B203" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="C203" s="25" t="s">
         <v>519</v>
@@ -48499,7 +48514,7 @@
         <v>?</v>
       </c>
       <c r="E203" s="26" t="s">
-        <v>1022</v>
+        <v>945</v>
       </c>
       <c r="F203" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A203)</f>
@@ -48507,11 +48522,11 @@
       </c>
       <c r="G203" s="26" cm="1">
         <f t="array" ref="G203">MIN(IF($A203=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H203" s="26" cm="1">
         <f t="array" ref="H203">MAX(IF($A203=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I203" s="26">
         <f>H203-G203</f>
@@ -48520,10 +48535,10 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="26" t="s">
-        <v>932</v>
-      </c>
-      <c r="B204" s="44" t="s">
-        <v>9</v>
+        <v>790</v>
+      </c>
+      <c r="B204" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C204" s="25" t="s">
         <v>519</v>
@@ -48533,7 +48548,7 @@
         <v>?</v>
       </c>
       <c r="E204" s="26" t="s">
-        <v>933</v>
+        <v>1017</v>
       </c>
       <c r="F204" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A204)</f>
@@ -48541,11 +48556,11 @@
       </c>
       <c r="G204" s="26" cm="1">
         <f t="array" ref="G204">MIN(IF($A204=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H204" s="26" cm="1">
         <f t="array" ref="H204">MAX(IF($A204=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I204" s="26">
         <f>H204-G204</f>
@@ -48554,10 +48569,10 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="B205" s="27" t="s">
-        <v>560</v>
+        <v>931</v>
+      </c>
+      <c r="B205" s="44" t="s">
+        <v>9</v>
       </c>
       <c r="C205" s="25" t="s">
         <v>519</v>
@@ -48567,11 +48582,11 @@
         <v>?</v>
       </c>
       <c r="E205" s="26" t="s">
-        <v>666</v>
+        <v>932</v>
       </c>
       <c r="F205" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A205)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G205" s="26" cm="1">
         <f t="array" ref="G205">MIN(IF($A205=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
@@ -48588,7 +48603,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="26" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="B206" s="27" t="s">
         <v>560</v>
@@ -48601,7 +48616,7 @@
         <v>?</v>
       </c>
       <c r="E206" s="26" t="s">
-        <v>712</v>
+        <v>666</v>
       </c>
       <c r="F206" s="26">
         <f>COUNTIF(pokemon!$AC$2:$AC$304, A206)</f>
@@ -48609,7 +48624,7 @@
       </c>
       <c r="G206" s="26" cm="1">
         <f t="array" ref="G206">MIN(IF($A206=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H206" s="26" cm="1">
         <f t="array" ref="H206">MAX(IF($A206=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
@@ -48617,27 +48632,61 @@
       </c>
       <c r="I206" s="26">
         <f>H206-G206</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="26" t="s">
+        <v>552</v>
+      </c>
+      <c r="B207" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="C207" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="D207" s="29" t="str">
+        <f>IF(NOT(ISBLANK(C207)), IF(ISNUMBER(C207), ROUND((C207 - 5)/20, 0), C207), "")</f>
+        <v>?</v>
+      </c>
+      <c r="E207" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="F207" s="26">
+        <f>COUNTIF(pokemon!$AC$2:$AC$304, A207)</f>
+        <v>2</v>
+      </c>
+      <c r="G207" s="26" cm="1">
+        <f t="array" ref="G207">MIN(IF($A207=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
+        <v>10</v>
+      </c>
+      <c r="H207" s="26" cm="1">
+        <f t="array" ref="H207">MAX(IF($A207=pokemon!$AC$2:$AC$304, pokemon!$T$2:$T$304))</f>
+        <v>11</v>
+      </c>
+      <c r="I207" s="26">
+        <f>H207-G207</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I206">
-    <sortCondition ref="D2:D206"/>
-    <sortCondition ref="E2:E206"/>
-    <sortCondition ref="A2:A206"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I207">
+    <sortCondition ref="D2:D207"/>
+    <sortCondition ref="E2:E207"/>
+    <sortCondition ref="A2:A207"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="A112:A115">
+  <conditionalFormatting sqref="A113:A116">
     <cfRule type="expression" dxfId="1" priority="17">
-      <formula>NOT(ISNA(VLOOKUP(A112,XEH:XEH,1,FALSE)))</formula>
+      <formula>NOT(ISNA(VLOOKUP(A113,XEH:XEH,1,FALSE)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C182 C2:C11">
+  <conditionalFormatting sqref="C183 C2:C11">
     <cfRule type="expression" priority="10">
       <formula>MOD((C2-10),20)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6 C12:C206">
+  <conditionalFormatting sqref="C6 C12:C207">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>MOD((C6-10),20)=0</formula>
     </cfRule>
@@ -49098,11 +49147,11 @@
       </c>
       <c r="E20" s="8">
         <f>SUMIF(moves!B:B, A20, moves!F:F)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" si="2"/>
-        <v>0.88888888888888884</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">

--- a/sinnoh_cube.xlsx
+++ b/sinnoh_cube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lev\PycharmProjects\pokemon-legends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE5142F-F844-4030-9D25-D1F710F50D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF1E70B-3C2E-4978-8D4B-1DD00086B546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36255" yWindow="4245" windowWidth="21600" windowHeight="7200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41938,8 +41938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41F625C-F9FA-42D6-A0B3-21764E3166C5}">
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E159" sqref="E159"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42014,7 +42014,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="27">
-        <f>H2-G2</f>
+        <f t="shared" ref="I2:I65" si="0">H2-G2</f>
         <v>0</v>
       </c>
     </row>
@@ -42048,7 +42048,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="27">
-        <f>H3-G3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42082,7 +42082,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="26">
-        <f>H4-G4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42116,7 +42116,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="26">
-        <f>H5-G5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42149,7 +42149,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="26">
-        <f>H6-G6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42164,7 +42164,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="29">
-        <f>IF(NOT(ISBLANK(C7)), IF(ISNUMBER(C7), ROUND((C7 - 5)/20, 0), C7), "")</f>
+        <f t="shared" ref="D7:D70" si="1">IF(NOT(ISBLANK(C7)), IF(ISNUMBER(C7), ROUND((C7 - 5)/20, 0), C7), "")</f>
         <v>1</v>
       </c>
       <c r="E7" s="26" t="s">
@@ -42183,7 +42183,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="26">
-        <f>H7-G7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42198,7 +42198,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="29">
-        <f>IF(NOT(ISBLANK(C8)), IF(ISNUMBER(C8), ROUND((C8 - 5)/20, 0), C8), "")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E8" s="26" t="s">
@@ -42217,7 +42217,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="26">
-        <f>H8-G8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42232,7 +42232,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="25">
-        <f>IF(NOT(ISBLANK(C9)), IF(ISNUMBER(C9), ROUND((C9 - 5)/20, 0), C9), "")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E9" s="26" t="s">
@@ -42251,7 +42251,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="27">
-        <f>H9-G9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42266,7 +42266,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="29">
-        <f>IF(NOT(ISBLANK(C10)), IF(ISNUMBER(C10), ROUND((C10 - 5)/20, 0), C10), "")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E10" s="26" t="s">
@@ -42285,7 +42285,7 @@
         <v>14</v>
       </c>
       <c r="I10" s="26">
-        <f>H10-G10</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -42300,7 +42300,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="29">
-        <f>IF(NOT(ISBLANK(C11)), IF(ISNUMBER(C11), ROUND((C11 - 5)/20, 0), C11), "")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -42319,7 +42319,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="26">
-        <f>H11-G11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42334,7 +42334,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="29">
-        <f>IF(NOT(ISBLANK(C12)), IF(ISNUMBER(C12), ROUND((C12 - 5)/20, 0), C12), "")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E12" s="26" t="s">
@@ -42353,7 +42353,7 @@
         <v>14</v>
       </c>
       <c r="I12" s="26">
-        <f>H12-G12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42368,7 +42368,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="25">
-        <f>IF(NOT(ISBLANK(C13)), IF(ISNUMBER(C13), ROUND((C13 - 5)/20, 0), C13), "")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E13" s="26" t="s">
@@ -42387,7 +42387,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="27">
-        <f>H13-G13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42402,7 +42402,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="29">
-        <f>IF(NOT(ISBLANK(C14)), IF(ISNUMBER(C14), ROUND((C14 - 5)/20, 0), C14), "")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E14" s="26" t="s">
@@ -42421,7 +42421,7 @@
         <v>8</v>
       </c>
       <c r="I14" s="26">
-        <f>H14-G14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -42436,7 +42436,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="29">
-        <f>IF(NOT(ISBLANK(C15)), IF(ISNUMBER(C15), ROUND((C15 - 5)/20, 0), C15), "")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E15" s="26" t="s">
@@ -42455,7 +42455,7 @@
         <v>12</v>
       </c>
       <c r="I15" s="26">
-        <f>H15-G15</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -42470,7 +42470,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="29">
-        <f>IF(NOT(ISBLANK(C16)), IF(ISNUMBER(C16), ROUND((C16 - 5)/20, 0), C16), "")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E16" s="26" t="s">
@@ -42489,7 +42489,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="26">
-        <f>H16-G16</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -42504,7 +42504,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="29">
-        <f>IF(NOT(ISBLANK(C17)), IF(ISNUMBER(C17), ROUND((C17 - 5)/20, 0), C17), "")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E17" s="26" t="s">
@@ -42523,7 +42523,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="27">
-        <f>H17-G17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42538,7 +42538,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="25">
-        <f>IF(NOT(ISBLANK(C18)), IF(ISNUMBER(C18), ROUND((C18 - 5)/20, 0), C18), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E18" s="27" t="s">
@@ -42557,7 +42557,7 @@
         <v>12</v>
       </c>
       <c r="I18" s="27">
-        <f>H18-G18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42572,7 +42572,7 @@
         <v>40</v>
       </c>
       <c r="D19" s="29">
-        <f>IF(NOT(ISBLANK(C19)), IF(ISNUMBER(C19), ROUND((C19 - 5)/20, 0), C19), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E19" s="26" t="s">
@@ -42591,7 +42591,7 @@
         <v>18</v>
       </c>
       <c r="I19" s="26">
-        <f>H19-G19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42606,7 +42606,7 @@
         <v>40</v>
       </c>
       <c r="D20" s="29">
-        <f>IF(NOT(ISBLANK(C20)), IF(ISNUMBER(C20), ROUND((C20 - 5)/20, 0), C20), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E20" s="26" t="s">
@@ -42625,7 +42625,7 @@
         <v>19</v>
       </c>
       <c r="I20" s="26">
-        <f>H20-G20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42640,7 +42640,7 @@
         <v>40</v>
       </c>
       <c r="D21" s="29">
-        <f>IF(NOT(ISBLANK(C21)), IF(ISNUMBER(C21), ROUND((C21 - 5)/20, 0), C21), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E21" s="26" t="s">
@@ -42659,7 +42659,7 @@
         <v>14</v>
       </c>
       <c r="I21" s="26">
-        <f>H21-G21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42674,7 +42674,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="29">
-        <f>IF(NOT(ISBLANK(C22)), IF(ISNUMBER(C22), ROUND((C22 - 5)/20, 0), C22), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E22" s="26" t="s">
@@ -42693,7 +42693,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="26">
-        <f>H22-G22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42708,7 +42708,7 @@
         <v>40</v>
       </c>
       <c r="D23" s="25">
-        <f>IF(NOT(ISBLANK(C23)), IF(ISNUMBER(C23), ROUND((C23 - 5)/20, 0), C23), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E23" s="26" t="s">
@@ -42727,7 +42727,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="27">
-        <f>H23-G23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42742,7 +42742,7 @@
         <v>50</v>
       </c>
       <c r="D24" s="29">
-        <f>IF(NOT(ISBLANK(C24)), IF(ISNUMBER(C24), ROUND((C24 - 5)/20, 0), C24), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E24" s="26" t="s">
@@ -42761,7 +42761,7 @@
         <v>10</v>
       </c>
       <c r="I24" s="26">
-        <f>H24-G24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42776,7 +42776,7 @@
         <v>40</v>
       </c>
       <c r="D25" s="29">
-        <f>IF(NOT(ISBLANK(C25)), IF(ISNUMBER(C25), ROUND((C25 - 5)/20, 0), C25), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E25" s="26" t="s">
@@ -42795,7 +42795,7 @@
         <v>16</v>
       </c>
       <c r="I25" s="26">
-        <f>H25-G25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42810,7 +42810,7 @@
         <v>40</v>
       </c>
       <c r="D26" s="29">
-        <f>IF(NOT(ISBLANK(C26)), IF(ISNUMBER(C26), ROUND((C26 - 5)/20, 0), C26), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E26" s="27" t="s">
@@ -42829,7 +42829,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="26">
-        <f>H26-G26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42844,7 +42844,7 @@
         <v>45</v>
       </c>
       <c r="D27" s="29">
-        <f>IF(NOT(ISBLANK(C27)), IF(ISNUMBER(C27), ROUND((C27 - 5)/20, 0), C27), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E27" s="26" t="s">
@@ -42863,7 +42863,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="26">
-        <f>H27-G27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42878,7 +42878,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="29">
-        <f>IF(NOT(ISBLANK(C28)), IF(ISNUMBER(C28), ROUND((C28 - 5)/20, 0), C28), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E28" s="26" t="s">
@@ -42897,7 +42897,7 @@
         <v>8</v>
       </c>
       <c r="I28" s="26">
-        <f>H28-G28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42912,7 +42912,7 @@
         <v>40</v>
       </c>
       <c r="D29" s="29">
-        <f>IF(NOT(ISBLANK(C29)), IF(ISNUMBER(C29), ROUND((C29 - 5)/20, 0), C29), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E29" s="26" t="s">
@@ -42931,7 +42931,7 @@
         <v>13</v>
       </c>
       <c r="I29" s="26">
-        <f>H29-G29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42946,7 +42946,7 @@
         <v>40</v>
       </c>
       <c r="D30" s="29">
-        <f>IF(NOT(ISBLANK(C30)), IF(ISNUMBER(C30), ROUND((C30 - 5)/20, 0), C30), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E30" s="26" t="s">
@@ -42965,7 +42965,7 @@
         <v>16</v>
       </c>
       <c r="I30" s="26">
-        <f>H30-G30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42980,7 +42980,7 @@
         <v>40</v>
       </c>
       <c r="D31" s="25">
-        <f>IF(NOT(ISBLANK(C31)), IF(ISNUMBER(C31), ROUND((C31 - 5)/20, 0), C31), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E31" s="26" t="s">
@@ -42999,7 +42999,7 @@
         <v>14</v>
       </c>
       <c r="I31" s="27">
-        <f>H31-G31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43014,7 +43014,7 @@
         <v>40</v>
       </c>
       <c r="D32" s="25">
-        <f>IF(NOT(ISBLANK(C32)), IF(ISNUMBER(C32), ROUND((C32 - 5)/20, 0), C32), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E32" s="26" t="s">
@@ -43033,7 +43033,7 @@
         <v>17</v>
       </c>
       <c r="I32" s="27">
-        <f>H32-G32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43048,7 +43048,7 @@
         <v>40</v>
       </c>
       <c r="D33" s="25">
-        <f>IF(NOT(ISBLANK(C33)), IF(ISNUMBER(C33), ROUND((C33 - 5)/20, 0), C33), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E33" s="26" t="s">
@@ -43067,7 +43067,7 @@
         <v>11</v>
       </c>
       <c r="I33" s="27">
-        <f>H33-G33</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -43082,7 +43082,7 @@
         <v>50</v>
       </c>
       <c r="D34" s="29">
-        <f>IF(NOT(ISBLANK(C34)), IF(ISNUMBER(C34), ROUND((C34 - 5)/20, 0), C34), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E34" s="26" t="s">
@@ -43101,7 +43101,7 @@
         <v>11</v>
       </c>
       <c r="I34" s="26">
-        <f>H34-G34</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -43116,7 +43116,7 @@
         <v>40</v>
       </c>
       <c r="D35" s="29">
-        <f>IF(NOT(ISBLANK(C35)), IF(ISNUMBER(C35), ROUND((C35 - 5)/20, 0), C35), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E35" s="26" t="s">
@@ -43135,7 +43135,7 @@
         <v>10</v>
       </c>
       <c r="I35" s="26">
-        <f>H35-G35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43150,7 +43150,7 @@
         <v>40</v>
       </c>
       <c r="D36" s="29">
-        <f>IF(NOT(ISBLANK(C36)), IF(ISNUMBER(C36), ROUND((C36 - 5)/20, 0), C36), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E36" s="26" t="s">
@@ -43169,7 +43169,7 @@
         <v>21</v>
       </c>
       <c r="I36" s="26">
-        <f>H36-G36</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43184,7 +43184,7 @@
         <v>40</v>
       </c>
       <c r="D37" s="29">
-        <f>IF(NOT(ISBLANK(C37)), IF(ISNUMBER(C37), ROUND((C37 - 5)/20, 0), C37), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E37" s="26" t="s">
@@ -43203,7 +43203,7 @@
         <v>11</v>
       </c>
       <c r="I37" s="26">
-        <f>H37-G37</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -43218,7 +43218,7 @@
         <v>40</v>
       </c>
       <c r="D38" s="29">
-        <f>IF(NOT(ISBLANK(C38)), IF(ISNUMBER(C38), ROUND((C38 - 5)/20, 0), C38), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E38" s="26" t="s">
@@ -43237,7 +43237,7 @@
         <v>13</v>
       </c>
       <c r="I38" s="26">
-        <f>H38-G38</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -43252,7 +43252,7 @@
         <v>50</v>
       </c>
       <c r="D39" s="29">
-        <f>IF(NOT(ISBLANK(C39)), IF(ISNUMBER(C39), ROUND((C39 - 5)/20, 0), C39), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E39" s="26" t="s">
@@ -43271,7 +43271,7 @@
         <v>9</v>
       </c>
       <c r="I39" s="26">
-        <f>H39-G39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43286,7 +43286,7 @@
         <v>40</v>
       </c>
       <c r="D40" s="25">
-        <f>IF(NOT(ISBLANK(C40)), IF(ISNUMBER(C40), ROUND((C40 - 5)/20, 0), C40), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E40" s="27" t="s">
@@ -43305,7 +43305,7 @@
         <v>9</v>
       </c>
       <c r="I40" s="27">
-        <f>H40-G40</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43320,7 +43320,7 @@
         <v>35</v>
       </c>
       <c r="D41" s="29">
-        <f>IF(NOT(ISBLANK(C41)), IF(ISNUMBER(C41), ROUND((C41 - 5)/20, 0), C41), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E41" s="26" t="s">
@@ -43339,7 +43339,7 @@
         <v>13</v>
       </c>
       <c r="I41" s="26">
-        <f>H41-G41</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43354,7 +43354,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="29">
-        <f>IF(NOT(ISBLANK(C42)), IF(ISNUMBER(C42), ROUND((C42 - 5)/20, 0), C42), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E42" s="26" t="s">
@@ -43373,7 +43373,7 @@
         <v>11</v>
       </c>
       <c r="I42" s="26">
-        <f>H42-G42</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -43388,7 +43388,7 @@
         <v>40</v>
       </c>
       <c r="D43" s="25">
-        <f>IF(NOT(ISBLANK(C43)), IF(ISNUMBER(C43), ROUND((C43 - 5)/20, 0), C43), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E43" s="26" t="s">
@@ -43407,7 +43407,7 @@
         <v>12</v>
       </c>
       <c r="I43" s="27">
-        <f>H43-G43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43422,7 +43422,7 @@
         <v>40</v>
       </c>
       <c r="D44" s="25">
-        <f>IF(NOT(ISBLANK(C44)), IF(ISNUMBER(C44), ROUND((C44 - 5)/20, 0), C44), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E44" s="26" t="s">
@@ -43441,7 +43441,7 @@
         <v>14</v>
       </c>
       <c r="I44" s="27">
-        <f>H44-G44</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43456,7 +43456,7 @@
         <v>50</v>
       </c>
       <c r="D45" s="25">
-        <f>IF(NOT(ISBLANK(C45)), IF(ISNUMBER(C45), ROUND((C45 - 5)/20, 0), C45), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E45" s="26" t="s">
@@ -43475,7 +43475,7 @@
         <v>10</v>
       </c>
       <c r="I45" s="27">
-        <f>H45-G45</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43490,7 +43490,7 @@
         <v>35</v>
       </c>
       <c r="D46" s="29">
-        <f>IF(NOT(ISBLANK(C46)), IF(ISNUMBER(C46), ROUND((C46 - 5)/20, 0), C46), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E46" s="26" t="s">
@@ -43509,7 +43509,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="26">
-        <f>H46-G46</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43524,7 +43524,7 @@
         <v>50</v>
       </c>
       <c r="D47" s="29">
-        <f>IF(NOT(ISBLANK(C47)), IF(ISNUMBER(C47), ROUND((C47 - 5)/20, 0), C47), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E47" s="26" t="s">
@@ -43543,7 +43543,7 @@
         <v>13</v>
       </c>
       <c r="I47" s="26">
-        <f>H47-G47</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -43558,7 +43558,7 @@
         <v>40</v>
       </c>
       <c r="D48" s="29">
-        <f>IF(NOT(ISBLANK(C48)), IF(ISNUMBER(C48), ROUND((C48 - 5)/20, 0), C48), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E48" s="26" t="s">
@@ -43577,7 +43577,7 @@
         <v>11</v>
       </c>
       <c r="I48" s="26">
-        <f>H48-G48</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -43592,7 +43592,7 @@
         <v>40</v>
       </c>
       <c r="D49" s="29">
-        <f>IF(NOT(ISBLANK(C49)), IF(ISNUMBER(C49), ROUND((C49 - 5)/20, 0), C49), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E49" s="26" t="s">
@@ -43611,7 +43611,7 @@
         <v>9</v>
       </c>
       <c r="I49" s="26">
-        <f>H49-G49</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -43626,7 +43626,7 @@
         <v>40</v>
       </c>
       <c r="D50" s="25">
-        <f>IF(NOT(ISBLANK(C50)), IF(ISNUMBER(C50), ROUND((C50 - 5)/20, 0), C50), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E50" s="26" t="s">
@@ -43645,7 +43645,7 @@
         <v>10</v>
       </c>
       <c r="I50" s="27">
-        <f>H50-G50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43660,7 +43660,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="25">
-        <f>IF(NOT(ISBLANK(C51)), IF(ISNUMBER(C51), ROUND((C51 - 5)/20, 0), C51), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E51" s="26" t="s">
@@ -43679,7 +43679,7 @@
         <v>7</v>
       </c>
       <c r="I51" s="27">
-        <f>H51-G51</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43694,7 +43694,7 @@
         <v>40</v>
       </c>
       <c r="D52" s="29">
-        <f>IF(NOT(ISBLANK(C52)), IF(ISNUMBER(C52), ROUND((C52 - 5)/20, 0), C52), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E52" s="26" t="s">
@@ -43713,7 +43713,7 @@
         <v>16</v>
       </c>
       <c r="I52" s="26">
-        <f>H52-G52</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43728,7 +43728,7 @@
         <v>40</v>
       </c>
       <c r="D53" s="25">
-        <f>IF(NOT(ISBLANK(C53)), IF(ISNUMBER(C53), ROUND((C53 - 5)/20, 0), C53), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E53" s="26" t="s">
@@ -43747,7 +43747,7 @@
         <v>10</v>
       </c>
       <c r="I53" s="27">
-        <f>H53-G53</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43762,7 +43762,7 @@
         <v>40</v>
       </c>
       <c r="D54" s="29">
-        <f>IF(NOT(ISBLANK(C54)), IF(ISNUMBER(C54), ROUND((C54 - 5)/20, 0), C54), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E54" s="26" t="s">
@@ -43781,7 +43781,7 @@
         <v>13</v>
       </c>
       <c r="I54" s="26">
-        <f>H54-G54</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43796,7 +43796,7 @@
         <v>60</v>
       </c>
       <c r="D55" s="29">
-        <f>IF(NOT(ISBLANK(C55)), IF(ISNUMBER(C55), ROUND((C55 - 5)/20, 0), C55), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E55" s="26" t="s">
@@ -43815,7 +43815,7 @@
         <v>15</v>
       </c>
       <c r="I55" s="26">
-        <f>H55-G55</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -43830,7 +43830,7 @@
         <v>60</v>
       </c>
       <c r="D56" s="29">
-        <f>IF(NOT(ISBLANK(C56)), IF(ISNUMBER(C56), ROUND((C56 - 5)/20, 0), C56), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E56" s="26" t="s">
@@ -43849,7 +43849,7 @@
         <v>12</v>
       </c>
       <c r="I56" s="26">
-        <f>H56-G56</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43864,7 +43864,7 @@
         <v>55</v>
       </c>
       <c r="D57" s="29">
-        <f>IF(NOT(ISBLANK(C57)), IF(ISNUMBER(C57), ROUND((C57 - 5)/20, 0), C57), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E57" s="26" t="s">
@@ -43883,7 +43883,7 @@
         <v>11</v>
       </c>
       <c r="I57" s="26">
-        <f>H57-G57</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43898,7 +43898,7 @@
         <v>60</v>
       </c>
       <c r="D58" s="29">
-        <f>IF(NOT(ISBLANK(C58)), IF(ISNUMBER(C58), ROUND((C58 - 5)/20, 0), C58), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E58" s="27" t="s">
@@ -43917,7 +43917,7 @@
         <v>11</v>
       </c>
       <c r="I58" s="26">
-        <f>H58-G58</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -43932,7 +43932,7 @@
         <v>60</v>
       </c>
       <c r="D59" s="29">
-        <f>IF(NOT(ISBLANK(C59)), IF(ISNUMBER(C59), ROUND((C59 - 5)/20, 0), C59), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E59" s="26" t="s">
@@ -43951,7 +43951,7 @@
         <v>16</v>
       </c>
       <c r="I59" s="26">
-        <f>H59-G59</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43966,7 +43966,7 @@
         <v>55</v>
       </c>
       <c r="D60" s="29">
-        <f>IF(NOT(ISBLANK(C60)), IF(ISNUMBER(C60), ROUND((C60 - 5)/20, 0), C60), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E60" s="26" t="s">
@@ -43985,7 +43985,7 @@
         <v>10</v>
       </c>
       <c r="I60" s="26">
-        <f>H60-G60</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -44000,7 +44000,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="29">
-        <f>IF(NOT(ISBLANK(C61)), IF(ISNUMBER(C61), ROUND((C61 - 5)/20, 0), C61), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E61" s="26" t="s">
@@ -44019,7 +44019,7 @@
         <v>16</v>
       </c>
       <c r="I61" s="26">
-        <f>H61-G61</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -44034,7 +44034,7 @@
         <v>65</v>
       </c>
       <c r="D62" s="29">
-        <f>IF(NOT(ISBLANK(C62)), IF(ISNUMBER(C62), ROUND((C62 - 5)/20, 0), C62), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E62" s="26" t="s">
@@ -44053,7 +44053,7 @@
         <v>12</v>
       </c>
       <c r="I62" s="26">
-        <f>H62-G62</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -44068,7 +44068,7 @@
         <v>60</v>
       </c>
       <c r="D63" s="29">
-        <f>IF(NOT(ISBLANK(C63)), IF(ISNUMBER(C63), ROUND((C63 - 5)/20, 0), C63), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E63" s="26" t="s">
@@ -44087,7 +44087,7 @@
         <v>14</v>
       </c>
       <c r="I63" s="26">
-        <f>H63-G63</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -44102,7 +44102,7 @@
         <v>60</v>
       </c>
       <c r="D64" s="29">
-        <f>IF(NOT(ISBLANK(C64)), IF(ISNUMBER(C64), ROUND((C64 - 5)/20, 0), C64), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E64" s="26" t="s">
@@ -44121,7 +44121,7 @@
         <v>14</v>
       </c>
       <c r="I64" s="26">
-        <f>H64-G64</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -44136,7 +44136,7 @@
         <v>65</v>
       </c>
       <c r="D65" s="29">
-        <f>IF(NOT(ISBLANK(C65)), IF(ISNUMBER(C65), ROUND((C65 - 5)/20, 0), C65), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E65" s="26" t="s">
@@ -44155,7 +44155,7 @@
         <v>15</v>
       </c>
       <c r="I65" s="26">
-        <f>H65-G65</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -44170,7 +44170,7 @@
         <v>60</v>
       </c>
       <c r="D66" s="29">
-        <f>IF(NOT(ISBLANK(C66)), IF(ISNUMBER(C66), ROUND((C66 - 5)/20, 0), C66), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E66" s="26" t="s">
@@ -44189,7 +44189,7 @@
         <v>17</v>
       </c>
       <c r="I66" s="26">
-        <f>H66-G66</f>
+        <f t="shared" ref="I66:I129" si="2">H66-G66</f>
         <v>0</v>
       </c>
     </row>
@@ -44204,7 +44204,7 @@
         <v>70</v>
       </c>
       <c r="D67" s="29">
-        <f>IF(NOT(ISBLANK(C67)), IF(ISNUMBER(C67), ROUND((C67 - 5)/20, 0), C67), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E67" s="26" t="s">
@@ -44223,7 +44223,7 @@
         <v>14</v>
       </c>
       <c r="I67" s="26">
-        <f>H67-G67</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -44238,7 +44238,7 @@
         <v>65</v>
       </c>
       <c r="D68" s="29">
-        <f>IF(NOT(ISBLANK(C68)), IF(ISNUMBER(C68), ROUND((C68 - 5)/20, 0), C68), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E68" s="26" t="s">
@@ -44257,7 +44257,7 @@
         <v>15</v>
       </c>
       <c r="I68" s="26">
-        <f>H68-G68</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -44272,7 +44272,7 @@
         <v>65</v>
       </c>
       <c r="D69" s="29">
-        <f>IF(NOT(ISBLANK(C69)), IF(ISNUMBER(C69), ROUND((C69 - 5)/20, 0), C69), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E69" s="26" t="s">
@@ -44291,7 +44291,7 @@
         <v>14</v>
       </c>
       <c r="I69" s="26">
-        <f>H69-G69</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -44306,7 +44306,7 @@
         <v>55</v>
       </c>
       <c r="D70" s="29">
-        <f>IF(NOT(ISBLANK(C70)), IF(ISNUMBER(C70), ROUND((C70 - 5)/20, 0), C70), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E70" s="26" t="s">
@@ -44325,7 +44325,7 @@
         <v>16</v>
       </c>
       <c r="I70" s="26">
-        <f>H70-G70</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -44340,7 +44340,7 @@
         <v>60</v>
       </c>
       <c r="D71" s="25">
-        <f>IF(NOT(ISBLANK(C71)), IF(ISNUMBER(C71), ROUND((C71 - 5)/20, 0), C71), "")</f>
+        <f t="shared" ref="D71:D134" si="3">IF(NOT(ISBLANK(C71)), IF(ISNUMBER(C71), ROUND((C71 - 5)/20, 0), C71), "")</f>
         <v>3</v>
       </c>
       <c r="E71" s="26" t="s">
@@ -44359,7 +44359,7 @@
         <v>15</v>
       </c>
       <c r="I71" s="27">
-        <f>H71-G71</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -44374,7 +44374,7 @@
         <v>60</v>
       </c>
       <c r="D72" s="29">
-        <f>IF(NOT(ISBLANK(C72)), IF(ISNUMBER(C72), ROUND((C72 - 5)/20, 0), C72), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E72" s="26" t="s">
@@ -44393,7 +44393,7 @@
         <v>28</v>
       </c>
       <c r="I72" s="26">
-        <f>H72-G72</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -44408,7 +44408,7 @@
         <v>60</v>
       </c>
       <c r="D73" s="29">
-        <f>IF(NOT(ISBLANK(C73)), IF(ISNUMBER(C73), ROUND((C73 - 5)/20, 0), C73), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E73" s="26" t="s">
@@ -44427,7 +44427,7 @@
         <v>28</v>
       </c>
       <c r="I73" s="26">
-        <f>H73-G73</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -44442,7 +44442,7 @@
         <v>70</v>
       </c>
       <c r="D74" s="29">
-        <f>IF(NOT(ISBLANK(C74)), IF(ISNUMBER(C74), ROUND((C74 - 5)/20, 0), C74), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E74" s="26" t="s">
@@ -44461,7 +44461,7 @@
         <v>17</v>
       </c>
       <c r="I74" s="26">
-        <f>H74-G74</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -44476,7 +44476,7 @@
         <v>60</v>
       </c>
       <c r="D75" s="29">
-        <f>IF(NOT(ISBLANK(C75)), IF(ISNUMBER(C75), ROUND((C75 - 5)/20, 0), C75), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E75" s="26" t="s">
@@ -44495,7 +44495,7 @@
         <v>28</v>
       </c>
       <c r="I75" s="26">
-        <f>H75-G75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -44510,7 +44510,7 @@
         <v>65</v>
       </c>
       <c r="D76" s="29">
-        <f>IF(NOT(ISBLANK(C76)), IF(ISNUMBER(C76), ROUND((C76 - 5)/20, 0), C76), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E76" s="26" t="s">
@@ -44529,7 +44529,7 @@
         <v>15</v>
       </c>
       <c r="I76" s="26">
-        <f>H76-G76</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -44544,7 +44544,7 @@
         <v>60</v>
       </c>
       <c r="D77" s="29">
-        <f>IF(NOT(ISBLANK(C77)), IF(ISNUMBER(C77), ROUND((C77 - 5)/20, 0), C77), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E77" s="26" t="s">
@@ -44563,7 +44563,7 @@
         <v>16</v>
       </c>
       <c r="I77" s="26">
-        <f>H77-G77</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -44578,7 +44578,7 @@
         <v>60</v>
       </c>
       <c r="D78" s="29">
-        <f>IF(NOT(ISBLANK(C78)), IF(ISNUMBER(C78), ROUND((C78 - 5)/20, 0), C78), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E78" s="26" t="s">
@@ -44597,7 +44597,7 @@
         <v>16</v>
       </c>
       <c r="I78" s="26">
-        <f>H78-G78</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -44612,7 +44612,7 @@
         <v>55</v>
       </c>
       <c r="D79" s="29">
-        <f>IF(NOT(ISBLANK(C79)), IF(ISNUMBER(C79), ROUND((C79 - 5)/20, 0), C79), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E79" s="26" t="s">
@@ -44631,7 +44631,7 @@
         <v>14</v>
       </c>
       <c r="I79" s="26">
-        <f>H79-G79</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -44646,7 +44646,7 @@
         <v>60</v>
       </c>
       <c r="D80" s="29">
-        <f>IF(NOT(ISBLANK(C80)), IF(ISNUMBER(C80), ROUND((C80 - 5)/20, 0), C80), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E80" s="26" t="s">
@@ -44665,7 +44665,7 @@
         <v>15</v>
       </c>
       <c r="I80" s="26">
-        <f>H80-G80</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -44680,7 +44680,7 @@
         <v>70</v>
       </c>
       <c r="D81" s="29">
-        <f>IF(NOT(ISBLANK(C81)), IF(ISNUMBER(C81), ROUND((C81 - 5)/20, 0), C81), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E81" s="26" t="s">
@@ -44699,7 +44699,7 @@
         <v>11</v>
       </c>
       <c r="I81" s="26">
-        <f>H81-G81</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -44714,7 +44714,7 @@
         <v>70</v>
       </c>
       <c r="D82" s="29">
-        <f>IF(NOT(ISBLANK(C82)), IF(ISNUMBER(C82), ROUND((C82 - 5)/20, 0), C82), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E82" s="26" t="s">
@@ -44733,7 +44733,7 @@
         <v>10</v>
       </c>
       <c r="I82" s="26">
-        <f>H82-G82</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -44748,7 +44748,7 @@
         <v>60</v>
       </c>
       <c r="D83" s="29">
-        <f>IF(NOT(ISBLANK(C83)), IF(ISNUMBER(C83), ROUND((C83 - 5)/20, 0), C83), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E83" s="26" t="s">
@@ -44767,7 +44767,7 @@
         <v>17</v>
       </c>
       <c r="I83" s="26">
-        <f>H83-G83</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -44782,7 +44782,7 @@
         <v>60</v>
       </c>
       <c r="D84" s="29">
-        <f>IF(NOT(ISBLANK(C84)), IF(ISNUMBER(C84), ROUND((C84 - 5)/20, 0), C84), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E84" s="26" t="s">
@@ -44801,7 +44801,7 @@
         <v>28</v>
       </c>
       <c r="I84" s="26">
-        <f>H84-G84</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -44816,7 +44816,7 @@
         <v>60</v>
       </c>
       <c r="D85" s="29">
-        <f>IF(NOT(ISBLANK(C85)), IF(ISNUMBER(C85), ROUND((C85 - 5)/20, 0), C85), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E85" s="26" t="s">
@@ -44835,7 +44835,7 @@
         <v>14</v>
       </c>
       <c r="I85" s="26">
-        <f>H85-G85</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -44850,7 +44850,7 @@
         <v>65</v>
       </c>
       <c r="D86" s="29">
-        <f>IF(NOT(ISBLANK(C86)), IF(ISNUMBER(C86), ROUND((C86 - 5)/20, 0), C86), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E86" s="26" t="s">
@@ -44869,7 +44869,7 @@
         <v>11</v>
       </c>
       <c r="I86" s="26">
-        <f>H86-G86</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -44884,7 +44884,7 @@
         <v>70</v>
       </c>
       <c r="D87" s="29">
-        <f>IF(NOT(ISBLANK(C87)), IF(ISNUMBER(C87), ROUND((C87 - 5)/20, 0), C87), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E87" s="26" t="s">
@@ -44903,7 +44903,7 @@
         <v>11</v>
       </c>
       <c r="I87" s="26">
-        <f>H87-G87</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -44918,7 +44918,7 @@
         <v>60</v>
       </c>
       <c r="D88" s="29">
-        <f>IF(NOT(ISBLANK(C88)), IF(ISNUMBER(C88), ROUND((C88 - 5)/20, 0), C88), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E88" s="26" t="s">
@@ -44937,7 +44937,7 @@
         <v>14</v>
       </c>
       <c r="I88" s="26">
-        <f>H88-G88</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -44952,7 +44952,7 @@
         <v>65</v>
       </c>
       <c r="D89" s="29">
-        <f>IF(NOT(ISBLANK(C89)), IF(ISNUMBER(C89), ROUND((C89 - 5)/20, 0), C89), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E89" s="26" t="s">
@@ -44971,7 +44971,7 @@
         <v>11</v>
       </c>
       <c r="I89" s="26">
-        <f>H89-G89</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -44986,7 +44986,7 @@
         <v>60</v>
       </c>
       <c r="D90" s="25">
-        <f>IF(NOT(ISBLANK(C90)), IF(ISNUMBER(C90), ROUND((C90 - 5)/20, 0), C90), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E90" s="26" t="s">
@@ -45005,7 +45005,7 @@
         <v>13</v>
       </c>
       <c r="I90" s="27">
-        <f>H90-G90</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -45020,7 +45020,7 @@
         <v>60</v>
       </c>
       <c r="D91" s="25">
-        <f>IF(NOT(ISBLANK(C91)), IF(ISNUMBER(C91), ROUND((C91 - 5)/20, 0), C91), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E91" s="27" t="s">
@@ -45039,7 +45039,7 @@
         <v>16</v>
       </c>
       <c r="I91" s="27">
-        <f>H91-G91</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45054,7 +45054,7 @@
         <v>70</v>
       </c>
       <c r="D92" s="25">
-        <f>IF(NOT(ISBLANK(C92)), IF(ISNUMBER(C92), ROUND((C92 - 5)/20, 0), C92), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E92" s="26" t="s">
@@ -45073,7 +45073,7 @@
         <v>13</v>
       </c>
       <c r="I92" s="27">
-        <f>H92-G92</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45088,7 +45088,7 @@
         <v>60</v>
       </c>
       <c r="D93" s="29">
-        <f>IF(NOT(ISBLANK(C93)), IF(ISNUMBER(C93), ROUND((C93 - 5)/20, 0), C93), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E93" s="26" t="s">
@@ -45107,7 +45107,7 @@
         <v>17</v>
       </c>
       <c r="I93" s="26">
-        <f>H93-G93</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45122,7 +45122,7 @@
         <v>60</v>
       </c>
       <c r="D94" s="29">
-        <f>IF(NOT(ISBLANK(C94)), IF(ISNUMBER(C94), ROUND((C94 - 5)/20, 0), C94), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E94" s="26" t="s">
@@ -45141,7 +45141,7 @@
         <v>14</v>
       </c>
       <c r="I94" s="26">
-        <f>H94-G94</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45156,7 +45156,7 @@
         <v>75</v>
       </c>
       <c r="D95" s="29">
-        <f>IF(NOT(ISBLANK(C95)), IF(ISNUMBER(C95), ROUND((C95 - 5)/20, 0), C95), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E95" s="26" t="s">
@@ -45175,7 +45175,7 @@
         <v>16</v>
       </c>
       <c r="I95" s="26">
-        <f>H95-G95</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45190,7 +45190,7 @@
         <v>90</v>
       </c>
       <c r="D96" s="25">
-        <f>IF(NOT(ISBLANK(C96)), IF(ISNUMBER(C96), ROUND((C96 - 5)/20, 0), C96), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E96" s="26" t="s">
@@ -45209,7 +45209,7 @@
         <v>20</v>
       </c>
       <c r="I96" s="27">
-        <f>H96-G96</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45224,7 +45224,7 @@
         <v>75</v>
       </c>
       <c r="D97" s="29">
-        <f>IF(NOT(ISBLANK(C97)), IF(ISNUMBER(C97), ROUND((C97 - 5)/20, 0), C97), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E97" s="26" t="s">
@@ -45243,7 +45243,7 @@
         <v>28</v>
       </c>
       <c r="I97" s="26">
-        <f>H97-G97</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45258,7 +45258,7 @@
         <v>90</v>
       </c>
       <c r="D98" s="29">
-        <f>IF(NOT(ISBLANK(C98)), IF(ISNUMBER(C98), ROUND((C98 - 5)/20, 0), C98), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E98" s="26" t="s">
@@ -45277,7 +45277,7 @@
         <v>15</v>
       </c>
       <c r="I98" s="26">
-        <f>H98-G98</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45292,7 +45292,7 @@
         <v>75</v>
       </c>
       <c r="D99" s="29">
-        <f>IF(NOT(ISBLANK(C99)), IF(ISNUMBER(C99), ROUND((C99 - 5)/20, 0), C99), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E99" s="26" t="s">
@@ -45311,7 +45311,7 @@
         <v>20</v>
       </c>
       <c r="I99" s="26">
-        <f>H99-G99</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -45326,7 +45326,7 @@
         <v>75</v>
       </c>
       <c r="D100" s="29">
-        <f>IF(NOT(ISBLANK(C100)), IF(ISNUMBER(C100), ROUND((C100 - 5)/20, 0), C100), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E100" s="26" t="s">
@@ -45345,7 +45345,7 @@
         <v>19</v>
       </c>
       <c r="I100" s="26">
-        <f>H100-G100</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -45360,7 +45360,7 @@
         <v>85</v>
       </c>
       <c r="D101" s="29">
-        <f>IF(NOT(ISBLANK(C101)), IF(ISNUMBER(C101), ROUND((C101 - 5)/20, 0), C101), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E101" s="26" t="s">
@@ -45379,7 +45379,7 @@
         <v>18</v>
       </c>
       <c r="I101" s="26">
-        <f>H101-G101</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -45394,7 +45394,7 @@
         <v>75</v>
       </c>
       <c r="D102" s="29">
-        <f>IF(NOT(ISBLANK(C102)), IF(ISNUMBER(C102), ROUND((C102 - 5)/20, 0), C102), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E102" s="26" t="s">
@@ -45413,7 +45413,7 @@
         <v>17</v>
       </c>
       <c r="I102" s="26">
-        <f>H102-G102</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -45428,7 +45428,7 @@
         <v>75</v>
       </c>
       <c r="D103" s="25">
-        <f>IF(NOT(ISBLANK(C103)), IF(ISNUMBER(C103), ROUND((C103 - 5)/20, 0), C103), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E103" s="26" t="s">
@@ -45447,7 +45447,7 @@
         <v>16</v>
       </c>
       <c r="I103" s="27">
-        <f>H103-G103</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45462,7 +45462,7 @@
         <v>75</v>
       </c>
       <c r="D104" s="29">
-        <f>IF(NOT(ISBLANK(C104)), IF(ISNUMBER(C104), ROUND((C104 - 5)/20, 0), C104), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E104" s="26" t="s">
@@ -45481,7 +45481,7 @@
         <v>16</v>
       </c>
       <c r="I104" s="26">
-        <f>H104-G104</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45496,7 +45496,7 @@
         <v>80</v>
       </c>
       <c r="D105" s="29">
-        <f>IF(NOT(ISBLANK(C105)), IF(ISNUMBER(C105), ROUND((C105 - 5)/20, 0), C105), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E105" s="26" t="s">
@@ -45515,7 +45515,7 @@
         <v>18</v>
       </c>
       <c r="I105" s="26">
-        <f>H105-G105</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -45530,7 +45530,7 @@
         <v>75</v>
       </c>
       <c r="D106" s="29">
-        <f>IF(NOT(ISBLANK(C106)), IF(ISNUMBER(C106), ROUND((C106 - 5)/20, 0), C106), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E106" s="26" t="s">
@@ -45549,7 +45549,7 @@
         <v>16</v>
       </c>
       <c r="I106" s="26">
-        <f>H106-G106</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45564,7 +45564,7 @@
         <v>80</v>
       </c>
       <c r="D107" s="29">
-        <f>IF(NOT(ISBLANK(C107)), IF(ISNUMBER(C107), ROUND((C107 - 5)/20, 0), C107), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E107" s="26" t="s">
@@ -45583,7 +45583,7 @@
         <v>18</v>
       </c>
       <c r="I107" s="26">
-        <f>H107-G107</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45598,7 +45598,7 @@
         <v>80</v>
       </c>
       <c r="D108" s="25">
-        <f>IF(NOT(ISBLANK(C108)), IF(ISNUMBER(C108), ROUND((C108 - 5)/20, 0), C108), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E108" s="27" t="s">
@@ -45617,7 +45617,7 @@
         <v>15</v>
       </c>
       <c r="I108" s="27">
-        <f>H108-G108</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45632,7 +45632,7 @@
         <v>80</v>
       </c>
       <c r="D109" s="29">
-        <f>IF(NOT(ISBLANK(C109)), IF(ISNUMBER(C109), ROUND((C109 - 5)/20, 0), C109), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E109" s="26" t="s">
@@ -45651,7 +45651,7 @@
         <v>18</v>
       </c>
       <c r="I109" s="26">
-        <f>H109-G109</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45666,7 +45666,7 @@
         <v>80</v>
       </c>
       <c r="D110" s="25">
-        <f>IF(NOT(ISBLANK(C110)), IF(ISNUMBER(C110), ROUND((C110 - 5)/20, 0), C110), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E110" s="26" t="s">
@@ -45685,7 +45685,7 @@
         <v>16</v>
       </c>
       <c r="I110" s="27">
-        <f>H110-G110</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45700,7 +45700,7 @@
         <v>80</v>
       </c>
       <c r="D111" s="25">
-        <f>IF(NOT(ISBLANK(C111)), IF(ISNUMBER(C111), ROUND((C111 - 5)/20, 0), C111), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E111" s="26" t="s">
@@ -45719,7 +45719,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="27">
-        <f>H111-G111</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45734,7 +45734,7 @@
         <v>80</v>
       </c>
       <c r="D112" s="25">
-        <f>IF(NOT(ISBLANK(C112)), IF(ISNUMBER(C112), ROUND((C112 - 5)/20, 0), C112), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E112" s="26" t="s">
@@ -45753,7 +45753,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="27">
-        <f>H112-G112</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45768,7 +45768,7 @@
         <v>80</v>
       </c>
       <c r="D113" s="25">
-        <f>IF(NOT(ISBLANK(C113)), IF(ISNUMBER(C113), ROUND((C113 - 5)/20, 0), C113), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E113" s="26" t="s">
@@ -45787,7 +45787,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="27">
-        <f>H113-G113</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45802,7 +45802,7 @@
         <v>80</v>
       </c>
       <c r="D114" s="25">
-        <f>IF(NOT(ISBLANK(C114)), IF(ISNUMBER(C114), ROUND((C114 - 5)/20, 0), C114), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E114" s="26" t="s">
@@ -45821,7 +45821,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="27">
-        <f>H114-G114</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45836,7 +45836,7 @@
         <v>80</v>
       </c>
       <c r="D115" s="25">
-        <f>IF(NOT(ISBLANK(C115)), IF(ISNUMBER(C115), ROUND((C115 - 5)/20, 0), C115), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E115" s="26" t="s">
@@ -45855,7 +45855,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="27">
-        <f>H115-G115</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45870,7 +45870,7 @@
         <v>80</v>
       </c>
       <c r="D116" s="25">
-        <f>IF(NOT(ISBLANK(C116)), IF(ISNUMBER(C116), ROUND((C116 - 5)/20, 0), C116), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E116" s="26" t="s">
@@ -45889,7 +45889,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="27">
-        <f>H116-G116</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45904,7 +45904,7 @@
         <v>80</v>
       </c>
       <c r="D117" s="25">
-        <f>IF(NOT(ISBLANK(C117)), IF(ISNUMBER(C117), ROUND((C117 - 5)/20, 0), C117), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E117" s="26" t="s">
@@ -45923,7 +45923,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="27">
-        <f>H117-G117</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45938,7 +45938,7 @@
         <v>80</v>
       </c>
       <c r="D118" s="25">
-        <f>IF(NOT(ISBLANK(C118)), IF(ISNUMBER(C118), ROUND((C118 - 5)/20, 0), C118), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E118" s="26" t="s">
@@ -45957,7 +45957,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="27">
-        <f>H118-G118</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -45972,7 +45972,7 @@
         <v>80</v>
       </c>
       <c r="D119" s="29">
-        <f>IF(NOT(ISBLANK(C119)), IF(ISNUMBER(C119), ROUND((C119 - 5)/20, 0), C119), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E119" s="26" t="s">
@@ -45991,7 +45991,7 @@
         <v>15</v>
       </c>
       <c r="I119" s="26">
-        <f>H119-G119</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -46006,7 +46006,7 @@
         <v>90</v>
       </c>
       <c r="D120" s="29">
-        <f>IF(NOT(ISBLANK(C120)), IF(ISNUMBER(C120), ROUND((C120 - 5)/20, 0), C120), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E120" s="26" t="s">
@@ -46025,7 +46025,7 @@
         <v>17</v>
       </c>
       <c r="I120" s="26">
-        <f>H120-G120</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -46040,7 +46040,7 @@
         <v>80</v>
       </c>
       <c r="D121" s="29">
-        <f>IF(NOT(ISBLANK(C121)), IF(ISNUMBER(C121), ROUND((C121 - 5)/20, 0), C121), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E121" s="26" t="s">
@@ -46059,7 +46059,7 @@
         <v>20</v>
       </c>
       <c r="I121" s="26">
-        <f>H121-G121</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -46074,7 +46074,7 @@
         <v>80</v>
       </c>
       <c r="D122" s="29">
-        <f>IF(NOT(ISBLANK(C122)), IF(ISNUMBER(C122), ROUND((C122 - 5)/20, 0), C122), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E122" s="26" t="s">
@@ -46093,7 +46093,7 @@
         <v>17</v>
       </c>
       <c r="I122" s="26">
-        <f>H122-G122</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -46108,7 +46108,7 @@
         <v>80</v>
       </c>
       <c r="D123" s="29">
-        <f>IF(NOT(ISBLANK(C123)), IF(ISNUMBER(C123), ROUND((C123 - 5)/20, 0), C123), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E123" s="26" t="s">
@@ -46127,7 +46127,7 @@
         <v>16</v>
       </c>
       <c r="I123" s="26">
-        <f>H123-G123</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -46142,7 +46142,7 @@
         <v>80</v>
       </c>
       <c r="D124" s="29">
-        <f>IF(NOT(ISBLANK(C124)), IF(ISNUMBER(C124), ROUND((C124 - 5)/20, 0), C124), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E124" s="26" t="s">
@@ -46161,7 +46161,7 @@
         <v>18</v>
       </c>
       <c r="I124" s="26">
-        <f>H124-G124</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -46176,7 +46176,7 @@
         <v>80</v>
       </c>
       <c r="D125" s="29">
-        <f>IF(NOT(ISBLANK(C125)), IF(ISNUMBER(C125), ROUND((C125 - 5)/20, 0), C125), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E125" s="26" t="s">
@@ -46195,7 +46195,7 @@
         <v>16</v>
       </c>
       <c r="I125" s="26">
-        <f>H125-G125</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -46210,7 +46210,7 @@
         <v>75</v>
       </c>
       <c r="D126" s="29">
-        <f>IF(NOT(ISBLANK(C126)), IF(ISNUMBER(C126), ROUND((C126 - 5)/20, 0), C126), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E126" s="26" t="s">
@@ -46229,7 +46229,7 @@
         <v>18</v>
       </c>
       <c r="I126" s="26">
-        <f>H126-G126</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -46244,7 +46244,7 @@
         <v>85</v>
       </c>
       <c r="D127" s="29">
-        <f>IF(NOT(ISBLANK(C127)), IF(ISNUMBER(C127), ROUND((C127 - 5)/20, 0), C127), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E127" s="26" t="s">
@@ -46263,7 +46263,7 @@
         <v>19</v>
       </c>
       <c r="I127" s="26">
-        <f>H127-G127</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -46278,7 +46278,7 @@
         <v>80</v>
       </c>
       <c r="D128" s="29">
-        <f>IF(NOT(ISBLANK(C128)), IF(ISNUMBER(C128), ROUND((C128 - 5)/20, 0), C128), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E128" s="26" t="s">
@@ -46297,7 +46297,7 @@
         <v>17</v>
       </c>
       <c r="I128" s="26">
-        <f>H128-G128</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -46312,7 +46312,7 @@
         <v>80</v>
       </c>
       <c r="D129" s="29">
-        <f>IF(NOT(ISBLANK(C129)), IF(ISNUMBER(C129), ROUND((C129 - 5)/20, 0), C129), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E129" s="26" t="s">
@@ -46331,7 +46331,7 @@
         <v>17</v>
       </c>
       <c r="I129" s="26">
-        <f>H129-G129</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -46346,7 +46346,7 @@
         <v>80</v>
       </c>
       <c r="D130" s="29">
-        <f>IF(NOT(ISBLANK(C130)), IF(ISNUMBER(C130), ROUND((C130 - 5)/20, 0), C130), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E130" s="26" t="s">
@@ -46365,7 +46365,7 @@
         <v>19</v>
       </c>
       <c r="I130" s="26">
-        <f>H130-G130</f>
+        <f t="shared" ref="I130:I193" si="4">H130-G130</f>
         <v>3</v>
       </c>
     </row>
@@ -46380,7 +46380,7 @@
         <v>80</v>
       </c>
       <c r="D131" s="29">
-        <f>IF(NOT(ISBLANK(C131)), IF(ISNUMBER(C131), ROUND((C131 - 5)/20, 0), C131), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E131" s="26" t="s">
@@ -46399,7 +46399,7 @@
         <v>28</v>
       </c>
       <c r="I131" s="26">
-        <f>H131-G131</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -46414,7 +46414,7 @@
         <v>90</v>
       </c>
       <c r="D132" s="29">
-        <f>IF(NOT(ISBLANK(C132)), IF(ISNUMBER(C132), ROUND((C132 - 5)/20, 0), C132), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E132" s="26" t="s">
@@ -46433,7 +46433,7 @@
         <v>19</v>
       </c>
       <c r="I132" s="26">
-        <f>H132-G132</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -46448,7 +46448,7 @@
         <v>85</v>
       </c>
       <c r="D133" s="29">
-        <f>IF(NOT(ISBLANK(C133)), IF(ISNUMBER(C133), ROUND((C133 - 5)/20, 0), C133), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E133" s="26" t="s">
@@ -46467,7 +46467,7 @@
         <v>19</v>
       </c>
       <c r="I133" s="26">
-        <f>H133-G133</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -46482,7 +46482,7 @@
         <v>80</v>
       </c>
       <c r="D134" s="25">
-        <f>IF(NOT(ISBLANK(C134)), IF(ISNUMBER(C134), ROUND((C134 - 5)/20, 0), C134), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E134" s="26" t="s">
@@ -46500,7 +46500,7 @@
         <v>19</v>
       </c>
       <c r="I134" s="27">
-        <f>H134-G134</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -46515,7 +46515,7 @@
         <v>75</v>
       </c>
       <c r="D135" s="29">
-        <f>IF(NOT(ISBLANK(C135)), IF(ISNUMBER(C135), ROUND((C135 - 5)/20, 0), C135), "")</f>
+        <f t="shared" ref="D135:D198" si="5">IF(NOT(ISBLANK(C135)), IF(ISNUMBER(C135), ROUND((C135 - 5)/20, 0), C135), "")</f>
         <v>4</v>
       </c>
       <c r="E135" s="26" t="s">
@@ -46534,7 +46534,7 @@
         <v>18</v>
       </c>
       <c r="I135" s="26">
-        <f>H135-G135</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -46549,7 +46549,7 @@
         <v>90</v>
       </c>
       <c r="D136" s="29">
-        <f>IF(NOT(ISBLANK(C136)), IF(ISNUMBER(C136), ROUND((C136 - 5)/20, 0), C136), "")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E136" s="26" t="s">
@@ -46568,7 +46568,7 @@
         <v>20</v>
       </c>
       <c r="I136" s="26">
-        <f>H136-G136</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -46583,7 +46583,7 @@
         <v>80</v>
       </c>
       <c r="D137" s="29">
-        <f>IF(NOT(ISBLANK(C137)), IF(ISNUMBER(C137), ROUND((C137 - 5)/20, 0), C137), "")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E137" s="26" t="s">
@@ -46602,7 +46602,7 @@
         <v>18</v>
       </c>
       <c r="I137" s="26">
-        <f>H137-G137</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -46617,7 +46617,7 @@
         <v>80</v>
       </c>
       <c r="D138" s="29">
-        <f>IF(NOT(ISBLANK(C138)), IF(ISNUMBER(C138), ROUND((C138 - 5)/20, 0), C138), "")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E138" s="26" t="s">
@@ -46636,7 +46636,7 @@
         <v>21</v>
       </c>
       <c r="I138" s="26">
-        <f>H138-G138</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -46651,7 +46651,7 @@
         <v>75</v>
       </c>
       <c r="D139" s="29">
-        <f>IF(NOT(ISBLANK(C139)), IF(ISNUMBER(C139), ROUND((C139 - 5)/20, 0), C139), "")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E139" s="26" t="s">
@@ -46670,7 +46670,7 @@
         <v>19</v>
       </c>
       <c r="I139" s="26">
-        <f>H139-G139</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -46685,7 +46685,7 @@
         <v>80</v>
       </c>
       <c r="D140" s="25">
-        <f>IF(NOT(ISBLANK(C140)), IF(ISNUMBER(C140), ROUND((C140 - 5)/20, 0), C140), "")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E140" s="26" t="s">
@@ -46704,7 +46704,7 @@
         <v>18</v>
       </c>
       <c r="I140" s="27">
-        <f>H140-G140</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -46719,7 +46719,7 @@
         <v>80</v>
       </c>
       <c r="D141" s="29">
-        <f>IF(NOT(ISBLANK(C141)), IF(ISNUMBER(C141), ROUND((C141 - 5)/20, 0), C141), "")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E141" s="26" t="s">
@@ -46738,7 +46738,7 @@
         <v>28</v>
       </c>
       <c r="I141" s="26">
-        <f>H141-G141</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -46753,7 +46753,7 @@
         <v>80</v>
       </c>
       <c r="D142" s="29">
-        <f>IF(NOT(ISBLANK(C142)), IF(ISNUMBER(C142), ROUND((C142 - 5)/20, 0), C142), "")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E142" s="26" t="s">
@@ -46772,7 +46772,7 @@
         <v>18</v>
       </c>
       <c r="I142" s="26">
-        <f>H142-G142</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -46787,7 +46787,7 @@
         <v>80</v>
       </c>
       <c r="D143" s="29">
-        <f>IF(NOT(ISBLANK(C143)), IF(ISNUMBER(C143), ROUND((C143 - 5)/20, 0), C143), "")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E143" s="26" t="s">
@@ -46806,7 +46806,7 @@
         <v>18</v>
       </c>
       <c r="I143" s="26">
-        <f>H143-G143</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -46821,7 +46821,7 @@
         <v>80</v>
       </c>
       <c r="D144" s="29">
-        <f>IF(NOT(ISBLANK(C144)), IF(ISNUMBER(C144), ROUND((C144 - 5)/20, 0), C144), "")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E144" s="26" t="s">
@@ -46840,7 +46840,7 @@
         <v>14</v>
       </c>
       <c r="I144" s="26">
-        <f>H144-G144</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -46855,7 +46855,7 @@
         <v>90</v>
       </c>
       <c r="D145" s="29">
-        <f>IF(NOT(ISBLANK(C145)), IF(ISNUMBER(C145), ROUND((C145 - 5)/20, 0), C145), "")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E145" s="26" t="s">
@@ -46874,7 +46874,7 @@
         <v>17</v>
       </c>
       <c r="I145" s="26">
-        <f>H145-G145</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -46889,7 +46889,7 @@
         <v>75</v>
       </c>
       <c r="D146" s="29">
-        <f>IF(NOT(ISBLANK(C146)), IF(ISNUMBER(C146), ROUND((C146 - 5)/20, 0), C146), "")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E146" s="26" t="s">
@@ -46908,7 +46908,7 @@
         <v>14</v>
       </c>
       <c r="I146" s="26">
-        <f>H146-G146</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -46923,7 +46923,7 @@
         <v>80</v>
       </c>
       <c r="D147" s="29">
-        <f>IF(NOT(ISBLANK(C147)), IF(ISNUMBER(C147), ROUND((C147 - 5)/20, 0), C147), "")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E147" s="26" t="s">
@@ -46942,7 +46942,7 @@
         <v>16</v>
       </c>
       <c r="I147" s="26">
-        <f>H147-G147</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -46957,7 +46957,7 @@
         <v>85</v>
       </c>
       <c r="D148" s="29">
-        <f>IF(NOT(ISBLANK(C148)), IF(ISNUMBER(C148), ROUND((C148 - 5)/20, 0), C148), "")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E148" s="26" t="s">
@@ -46976,7 +46976,7 @@
         <v>18</v>
       </c>
       <c r="I148" s="26">
-        <f>H148-G148</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -46991,7 +46991,7 @@
         <v>80</v>
       </c>
       <c r="D149" s="29">
-        <f>IF(NOT(ISBLANK(C149)), IF(ISNUMBER(C149), ROUND((C149 - 5)/20, 0), C149), "")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E149" s="26" t="s">
@@ -47010,7 +47010,7 @@
         <v>19</v>
       </c>
       <c r="I149" s="26">
-        <f>H149-G149</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -47025,7 +47025,7 @@
         <v>75</v>
       </c>
       <c r="D150" s="29">
-        <f>IF(NOT(ISBLANK(C150)), IF(ISNUMBER(C150), ROUND((C150 - 5)/20, 0), C150), "")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E150" s="26" t="s">
@@ -47044,7 +47044,7 @@
         <v>14</v>
       </c>
       <c r="I150" s="26">
-        <f>H150-G150</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -47059,7 +47059,7 @@
         <v>80</v>
       </c>
       <c r="D151" s="29">
-        <f>IF(NOT(ISBLANK(C151)), IF(ISNUMBER(C151), ROUND((C151 - 5)/20, 0), C151), "")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E151" s="26" t="s">
@@ -47078,7 +47078,7 @@
         <v>19</v>
       </c>
       <c r="I151" s="26">
-        <f>H151-G151</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -47093,7 +47093,7 @@
         <v>85</v>
       </c>
       <c r="D152" s="29">
-        <f>IF(NOT(ISBLANK(C152)), IF(ISNUMBER(C152), ROUND((C152 - 5)/20, 0), C152), "")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E152" s="26" t="s">
@@ -47112,7 +47112,7 @@
         <v>17</v>
       </c>
       <c r="I152" s="26">
-        <f>H152-G152</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -47127,7 +47127,7 @@
         <v>90</v>
       </c>
       <c r="D153" s="25">
-        <f>IF(NOT(ISBLANK(C153)), IF(ISNUMBER(C153), ROUND((C153 - 5)/20, 0), C153), "")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E153" s="26" t="s">
@@ -47146,7 +47146,7 @@
         <v>14</v>
       </c>
       <c r="I153" s="27">
-        <f>H153-G153</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -47161,7 +47161,7 @@
         <v>75</v>
       </c>
       <c r="D154" s="25">
-        <f>IF(NOT(ISBLANK(C154)), IF(ISNUMBER(C154), ROUND((C154 - 5)/20, 0), C154), "")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E154" s="26" t="s">
@@ -47180,7 +47180,7 @@
         <v>16</v>
       </c>
       <c r="I154" s="27">
-        <f>H154-G154</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -47195,7 +47195,7 @@
         <v>100</v>
       </c>
       <c r="D155" s="29">
-        <f>IF(NOT(ISBLANK(C155)), IF(ISNUMBER(C155), ROUND((C155 - 5)/20, 0), C155), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E155" s="26" t="s">
@@ -47214,7 +47214,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="26">
-        <f>H155-G155</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -47229,7 +47229,7 @@
         <v>100</v>
       </c>
       <c r="D156" s="29">
-        <f>IF(NOT(ISBLANK(C156)), IF(ISNUMBER(C156), ROUND((C156 - 5)/20, 0), C156), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E156" s="26" t="s">
@@ -47248,7 +47248,7 @@
         <v>19</v>
       </c>
       <c r="I156" s="26">
-        <f>H156-G156</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -47263,7 +47263,7 @@
         <v>100</v>
       </c>
       <c r="D157" s="29">
-        <f>IF(NOT(ISBLANK(C157)), IF(ISNUMBER(C157), ROUND((C157 - 5)/20, 0), C157), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E157" s="26" t="s">
@@ -47282,7 +47282,7 @@
         <v>19</v>
       </c>
       <c r="I157" s="26">
-        <f>H157-G157</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -47297,7 +47297,7 @@
         <v>100</v>
       </c>
       <c r="D158" s="29">
-        <f>IF(NOT(ISBLANK(C158)), IF(ISNUMBER(C158), ROUND((C158 - 5)/20, 0), C158), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E158" s="26" t="s">
@@ -47316,7 +47316,7 @@
         <v>17</v>
       </c>
       <c r="I158" s="26">
-        <f>H158-G158</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -47331,7 +47331,7 @@
         <v>100</v>
       </c>
       <c r="D159" s="29">
-        <f>IF(NOT(ISBLANK(C159)), IF(ISNUMBER(C159), ROUND((C159 - 5)/20, 0), C159), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E159" s="26" t="s">
@@ -47350,7 +47350,7 @@
         <v>16</v>
       </c>
       <c r="I159" s="26">
-        <f>H159-G159</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -47365,7 +47365,7 @@
         <v>100</v>
       </c>
       <c r="D160" s="29">
-        <f>IF(NOT(ISBLANK(C160)), IF(ISNUMBER(C160), ROUND((C160 - 5)/20, 0), C160), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E160" s="26" t="s">
@@ -47384,7 +47384,7 @@
         <v>18</v>
       </c>
       <c r="I160" s="26">
-        <f>H160-G160</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -47399,7 +47399,7 @@
         <v>100</v>
       </c>
       <c r="D161" s="29">
-        <f>IF(NOT(ISBLANK(C161)), IF(ISNUMBER(C161), ROUND((C161 - 5)/20, 0), C161), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E161" s="26" t="s">
@@ -47418,7 +47418,7 @@
         <v>21</v>
       </c>
       <c r="I161" s="26">
-        <f>H161-G161</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -47433,7 +47433,7 @@
         <v>95</v>
       </c>
       <c r="D162" s="29">
-        <f>IF(NOT(ISBLANK(C162)), IF(ISNUMBER(C162), ROUND((C162 - 5)/20, 0), C162), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E162" s="26" t="s">
@@ -47452,7 +47452,7 @@
         <v>23</v>
       </c>
       <c r="I162" s="26">
-        <f>H162-G162</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -47467,7 +47467,7 @@
         <v>100</v>
       </c>
       <c r="D163" s="29">
-        <f>IF(NOT(ISBLANK(C163)), IF(ISNUMBER(C163), ROUND((C163 - 5)/20, 0), C163), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E163" s="26" t="s">
@@ -47486,7 +47486,7 @@
         <v>17</v>
       </c>
       <c r="I163" s="26">
-        <f>H163-G163</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -47501,7 +47501,7 @@
         <v>100</v>
       </c>
       <c r="D164" s="29">
-        <f>IF(NOT(ISBLANK(C164)), IF(ISNUMBER(C164), ROUND((C164 - 5)/20, 0), C164), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E164" s="26" t="s">
@@ -47520,7 +47520,7 @@
         <v>18</v>
       </c>
       <c r="I164" s="26">
-        <f>H164-G164</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -47535,7 +47535,7 @@
         <v>100</v>
       </c>
       <c r="D165" s="29">
-        <f>IF(NOT(ISBLANK(C165)), IF(ISNUMBER(C165), ROUND((C165 - 5)/20, 0), C165), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E165" s="26" t="s">
@@ -47554,7 +47554,7 @@
         <v>18</v>
       </c>
       <c r="I165" s="26">
-        <f>H165-G165</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -47569,7 +47569,7 @@
         <v>110</v>
       </c>
       <c r="D166" s="29">
-        <f>IF(NOT(ISBLANK(C166)), IF(ISNUMBER(C166), ROUND((C166 - 5)/20, 0), C166), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E166" s="26" t="s">
@@ -47588,7 +47588,7 @@
         <v>20</v>
       </c>
       <c r="I166" s="26">
-        <f>H166-G166</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -47603,7 +47603,7 @@
         <v>100</v>
       </c>
       <c r="D167" s="29">
-        <f>IF(NOT(ISBLANK(C167)), IF(ISNUMBER(C167), ROUND((C167 - 5)/20, 0), C167), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E167" s="26" t="s">
@@ -47622,7 +47622,7 @@
         <v>19</v>
       </c>
       <c r="I167" s="26">
-        <f>H167-G167</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -47637,7 +47637,7 @@
         <v>100</v>
       </c>
       <c r="D168" s="29">
-        <f>IF(NOT(ISBLANK(C168)), IF(ISNUMBER(C168), ROUND((C168 - 5)/20, 0), C168), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E168" s="26" t="s">
@@ -47656,7 +47656,7 @@
         <v>19</v>
       </c>
       <c r="I168" s="26">
-        <f>H168-G168</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -47671,7 +47671,7 @@
         <v>100</v>
       </c>
       <c r="D169" s="29">
-        <f>IF(NOT(ISBLANK(C169)), IF(ISNUMBER(C169), ROUND((C169 - 5)/20, 0), C169), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E169" s="26" t="s">
@@ -47690,7 +47690,7 @@
         <v>19</v>
       </c>
       <c r="I169" s="26">
-        <f>H169-G169</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -47705,7 +47705,7 @@
         <v>100</v>
       </c>
       <c r="D170" s="29">
-        <f>IF(NOT(ISBLANK(C170)), IF(ISNUMBER(C170), ROUND((C170 - 5)/20, 0), C170), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E170" s="26" t="s">
@@ -47724,7 +47724,7 @@
         <v>19</v>
       </c>
       <c r="I170" s="26">
-        <f>H170-G170</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -47739,7 +47739,7 @@
         <v>100</v>
       </c>
       <c r="D171" s="29">
-        <f>IF(NOT(ISBLANK(C171)), IF(ISNUMBER(C171), ROUND((C171 - 5)/20, 0), C171), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E171" s="26" t="s">
@@ -47758,7 +47758,7 @@
         <v>20</v>
       </c>
       <c r="I171" s="26">
-        <f>H171-G171</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -47773,7 +47773,7 @@
         <v>100</v>
       </c>
       <c r="D172" s="29">
-        <f>IF(NOT(ISBLANK(C172)), IF(ISNUMBER(C172), ROUND((C172 - 5)/20, 0), C172), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E172" s="26" t="s">
@@ -47792,7 +47792,7 @@
         <v>19</v>
       </c>
       <c r="I172" s="26">
-        <f>H172-G172</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -47807,7 +47807,7 @@
         <v>100</v>
       </c>
       <c r="D173" s="29">
-        <f>IF(NOT(ISBLANK(C173)), IF(ISNUMBER(C173), ROUND((C173 - 5)/20, 0), C173), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E173" s="26" t="s">
@@ -47826,7 +47826,7 @@
         <v>20</v>
       </c>
       <c r="I173" s="26">
-        <f>H173-G173</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -47841,7 +47841,7 @@
         <v>100</v>
       </c>
       <c r="D174" s="29">
-        <f>IF(NOT(ISBLANK(C174)), IF(ISNUMBER(C174), ROUND((C174 - 5)/20, 0), C174), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E174" s="26" t="s">
@@ -47860,7 +47860,7 @@
         <v>20</v>
       </c>
       <c r="I174" s="26">
-        <f>H174-G174</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -47875,7 +47875,7 @@
         <v>95</v>
       </c>
       <c r="D175" s="29">
-        <f>IF(NOT(ISBLANK(C175)), IF(ISNUMBER(C175), ROUND((C175 - 5)/20, 0), C175), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E175" s="26" t="s">
@@ -47894,7 +47894,7 @@
         <v>18</v>
       </c>
       <c r="I175" s="26">
-        <f>H175-G175</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -47909,7 +47909,7 @@
         <v>100</v>
       </c>
       <c r="D176" s="29">
-        <f>IF(NOT(ISBLANK(C176)), IF(ISNUMBER(C176), ROUND((C176 - 5)/20, 0), C176), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E176" s="26" t="s">
@@ -47928,7 +47928,7 @@
         <v>21</v>
       </c>
       <c r="I176" s="26">
-        <f>H176-G176</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -47943,7 +47943,7 @@
         <v>95</v>
       </c>
       <c r="D177" s="29">
-        <f>IF(NOT(ISBLANK(C177)), IF(ISNUMBER(C177), ROUND((C177 - 5)/20, 0), C177), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E177" s="26" t="s">
@@ -47962,7 +47962,7 @@
         <v>21</v>
       </c>
       <c r="I177" s="26">
-        <f>H177-G177</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -47977,7 +47977,7 @@
         <v>95</v>
       </c>
       <c r="D178" s="29">
-        <f>IF(NOT(ISBLANK(C178)), IF(ISNUMBER(C178), ROUND((C178 - 5)/20, 0), C178), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E178" s="26" t="s">
@@ -47996,7 +47996,7 @@
         <v>18</v>
       </c>
       <c r="I178" s="26">
-        <f>H178-G178</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -48011,7 +48011,7 @@
         <v>95</v>
       </c>
       <c r="D179" s="29">
-        <f>IF(NOT(ISBLANK(C179)), IF(ISNUMBER(C179), ROUND((C179 - 5)/20, 0), C179), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E179" s="26" t="s">
@@ -48030,7 +48030,7 @@
         <v>17</v>
       </c>
       <c r="I179" s="26">
-        <f>H179-G179</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -48045,7 +48045,7 @@
         <v>120</v>
       </c>
       <c r="D180" s="29">
-        <f>IF(NOT(ISBLANK(C180)), IF(ISNUMBER(C180), ROUND((C180 - 5)/20, 0), C180), "")</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E180" s="26" t="s">
@@ -48064,7 +48064,7 @@
         <v>0</v>
       </c>
       <c r="I180" s="26">
-        <f>H180-G180</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -48079,7 +48079,7 @@
         <v>110</v>
       </c>
       <c r="D181" s="29">
-        <f>IF(NOT(ISBLANK(C181)), IF(ISNUMBER(C181), ROUND((C181 - 5)/20, 0), C181), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E181" s="26" t="s">
@@ -48098,7 +48098,7 @@
         <v>19</v>
       </c>
       <c r="I181" s="26">
-        <f>H181-G181</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -48113,7 +48113,7 @@
         <v>110</v>
       </c>
       <c r="D182" s="29">
-        <f>IF(NOT(ISBLANK(C182)), IF(ISNUMBER(C182), ROUND((C182 - 5)/20, 0), C182), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E182" s="26" t="s">
@@ -48132,7 +48132,7 @@
         <v>18</v>
       </c>
       <c r="I182" s="26">
-        <f>H182-G182</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -48147,7 +48147,7 @@
         <v>110</v>
       </c>
       <c r="D183" s="29">
-        <f>IF(NOT(ISBLANK(C183)), IF(ISNUMBER(C183), ROUND((C183 - 5)/20, 0), C183), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E183" s="26" t="s">
@@ -48166,7 +48166,7 @@
         <v>17</v>
       </c>
       <c r="I183" s="27">
-        <f>H183-G183</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -48181,7 +48181,7 @@
         <v>100</v>
       </c>
       <c r="D184" s="29">
-        <f>IF(NOT(ISBLANK(C184)), IF(ISNUMBER(C184), ROUND((C184 - 5)/20, 0), C184), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E184" s="26" t="s">
@@ -48200,7 +48200,7 @@
         <v>13</v>
       </c>
       <c r="I184" s="26">
-        <f>H184-G184</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -48215,7 +48215,7 @@
         <v>100</v>
       </c>
       <c r="D185" s="29">
-        <f>IF(NOT(ISBLANK(C185)), IF(ISNUMBER(C185), ROUND((C185 - 5)/20, 0), C185), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E185" s="26" t="s">
@@ -48234,7 +48234,7 @@
         <v>20</v>
       </c>
       <c r="I185" s="26">
-        <f>H185-G185</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -48249,7 +48249,7 @@
         <v>100</v>
       </c>
       <c r="D186" s="29">
-        <f>IF(NOT(ISBLANK(C186)), IF(ISNUMBER(C186), ROUND((C186 - 5)/20, 0), C186), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E186" s="26" t="s">
@@ -48268,7 +48268,7 @@
         <v>23</v>
       </c>
       <c r="I186" s="26">
-        <f>H186-G186</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -48283,7 +48283,7 @@
         <v>100</v>
       </c>
       <c r="D187" s="29">
-        <f>IF(NOT(ISBLANK(C187)), IF(ISNUMBER(C187), ROUND((C187 - 5)/20, 0), C187), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E187" s="26" t="s">
@@ -48302,7 +48302,7 @@
         <v>28</v>
       </c>
       <c r="I187" s="26">
-        <f>H187-G187</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -48317,7 +48317,7 @@
         <v>100</v>
       </c>
       <c r="D188" s="29">
-        <f>IF(NOT(ISBLANK(C188)), IF(ISNUMBER(C188), ROUND((C188 - 5)/20, 0), C188), "")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E188" s="26" t="s">
@@ -48336,7 +48336,7 @@
         <v>20</v>
       </c>
       <c r="I188" s="26">
-        <f>H188-G188</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -48351,7 +48351,7 @@
         <v>115</v>
       </c>
       <c r="D189" s="25">
-        <f>IF(NOT(ISBLANK(C189)), IF(ISNUMBER(C189), ROUND((C189 - 5)/20, 0), C189), "")</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E189" s="27" t="s">
@@ -48370,7 +48370,7 @@
         <v>17</v>
       </c>
       <c r="I189" s="27">
-        <f>H189-G189</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -48385,7 +48385,7 @@
         <v>120</v>
       </c>
       <c r="D190" s="29">
-        <f>IF(NOT(ISBLANK(C190)), IF(ISNUMBER(C190), ROUND((C190 - 5)/20, 0), C190), "")</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E190" s="26" t="s">
@@ -48404,7 +48404,7 @@
         <v>18</v>
       </c>
       <c r="I190" s="26">
-        <f>H190-G190</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -48419,7 +48419,7 @@
         <v>120</v>
       </c>
       <c r="D191" s="29">
-        <f>IF(NOT(ISBLANK(C191)), IF(ISNUMBER(C191), ROUND((C191 - 5)/20, 0), C191), "")</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E191" s="26" t="s">
@@ -48438,7 +48438,7 @@
         <v>18</v>
       </c>
       <c r="I191" s="26">
-        <f>H191-G191</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -48453,7 +48453,7 @@
         <v>120</v>
       </c>
       <c r="D192" s="29">
-        <f>IF(NOT(ISBLANK(C192)), IF(ISNUMBER(C192), ROUND((C192 - 5)/20, 0), C192), "")</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E192" s="26" t="s">
@@ -48472,7 +48472,7 @@
         <v>28</v>
       </c>
       <c r="I192" s="26">
-        <f>H192-G192</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -48487,7 +48487,7 @@
         <v>120</v>
       </c>
       <c r="D193" s="25">
-        <f>IF(NOT(ISBLANK(C193)), IF(ISNUMBER(C193), ROUND((C193 - 5)/20, 0), C193), "")</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E193" s="26" t="s">
@@ -48506,7 +48506,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="27">
-        <f>H193-G193</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -48521,7 +48521,7 @@
         <v>120</v>
       </c>
       <c r="D194" s="25">
-        <f>IF(NOT(ISBLANK(C194)), IF(ISNUMBER(C194), ROUND((C194 - 5)/20, 0), C194), "")</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E194" s="26" t="s">
@@ -48540,7 +48540,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="27">
-        <f>H194-G194</f>
+        <f t="shared" ref="I194:I257" si="6">H194-G194</f>
         <v>0</v>
       </c>
     </row>
@@ -48555,7 +48555,7 @@
         <v>120</v>
       </c>
       <c r="D195" s="29">
-        <f>IF(NOT(ISBLANK(C195)), IF(ISNUMBER(C195), ROUND((C195 - 5)/20, 0), C195), "")</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E195" s="26" t="s">
@@ -48574,7 +48574,7 @@
         <v>19</v>
       </c>
       <c r="I195" s="26">
-        <f>H195-G195</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -48589,7 +48589,7 @@
         <v>120</v>
       </c>
       <c r="D196" s="25">
-        <f>IF(NOT(ISBLANK(C196)), IF(ISNUMBER(C196), ROUND((C196 - 5)/20, 0), C196), "")</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E196" s="27" t="s">
@@ -48608,7 +48608,7 @@
         <v>17</v>
       </c>
       <c r="I196" s="27">
-        <f>H196-G196</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -48623,7 +48623,7 @@
         <v>150</v>
       </c>
       <c r="D197" s="25">
-        <f>IF(NOT(ISBLANK(C197)), IF(ISNUMBER(C197), ROUND((C197 - 5)/20, 0), C197), "")</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="E197" s="27" t="s">
@@ -48642,7 +48642,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="27">
-        <f>H197-G197</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -48657,7 +48657,7 @@
         <v>150</v>
       </c>
       <c r="D198" s="29">
-        <f>IF(NOT(ISBLANK(C198)), IF(ISNUMBER(C198), ROUND((C198 - 5)/20, 0), C198), "")</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="E198" s="26" t="s">
@@ -48676,7 +48676,7 @@
         <v>23</v>
       </c>
       <c r="I198" s="26">
-        <f>H198-G198</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -48691,7 +48691,7 @@
         <v>519</v>
       </c>
       <c r="D199" s="29" t="str">
-        <f>IF(NOT(ISBLANK(C199)), IF(ISNUMBER(C199), ROUND((C199 - 5)/20, 0), C199), "")</f>
+        <f t="shared" ref="D199:D262" si="7">IF(NOT(ISBLANK(C199)), IF(ISNUMBER(C199), ROUND((C199 - 5)/20, 0), C199), "")</f>
         <v>?</v>
       </c>
       <c r="E199" s="26" t="s">
@@ -48710,7 +48710,7 @@
         <v>20</v>
       </c>
       <c r="I199" s="26">
-        <f>H199-G199</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -48725,7 +48725,7 @@
         <v>519</v>
       </c>
       <c r="D200" s="29" t="str">
-        <f>IF(NOT(ISBLANK(C200)), IF(ISNUMBER(C200), ROUND((C200 - 5)/20, 0), C200), "")</f>
+        <f t="shared" si="7"/>
         <v>?</v>
       </c>
       <c r="E200" s="26" t="s">
@@ -48744,7 +48744,7 @@
         <v>18</v>
       </c>
       <c r="I200" s="26">
-        <f>H200-G200</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -48759,7 +48759,7 @@
         <v>519</v>
       </c>
       <c r="D201" s="29" t="str">
-        <f>IF(NOT(ISBLANK(C201)), IF(ISNUMBER(C201), ROUND((C201 - 5)/20, 0), C201), "")</f>
+        <f t="shared" si="7"/>
         <v>?</v>
       </c>
       <c r="E201" s="26" t="s">
@@ -48778,7 +48778,7 @@
         <v>20</v>
       </c>
       <c r="I201" s="26">
-        <f>H201-G201</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -48793,7 +48793,7 @@
         <v>519</v>
       </c>
       <c r="D202" s="29" t="str">
-        <f>IF(NOT(ISBLANK(C202)), IF(ISNUMBER(C202), ROUND((C202 - 5)/20, 0), C202), "")</f>
+        <f t="shared" si="7"/>
         <v>?</v>
       </c>
       <c r="E202" s="26" t="s">
@@ -48812,7 +48812,7 @@
         <v>18</v>
       </c>
       <c r="I202" s="26">
-        <f>H202-G202</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -48827,7 +48827,7 @@
         <v>519</v>
       </c>
       <c r="D203" s="29" t="str">
-        <f>IF(NOT(ISBLANK(C203)), IF(ISNUMBER(C203), ROUND((C203 - 5)/20, 0), C203), "")</f>
+        <f t="shared" si="7"/>
         <v>?</v>
       </c>
       <c r="E203" s="26" t="s">
@@ -48846,7 +48846,7 @@
         <v>14</v>
       </c>
       <c r="I203" s="26">
-        <f>H203-G203</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -48861,7 +48861,7 @@
         <v>519</v>
       </c>
       <c r="D204" s="29" t="str">
-        <f>IF(NOT(ISBLANK(C204)), IF(ISNUMBER(C204), ROUND((C204 - 5)/20, 0), C204), "")</f>
+        <f t="shared" si="7"/>
         <v>?</v>
       </c>
       <c r="E204" s="26" t="s">
@@ -48880,7 +48880,7 @@
         <v>12</v>
       </c>
       <c r="I204" s="26">
-        <f>H204-G204</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -48895,7 +48895,7 @@
         <v>519</v>
       </c>
       <c r="D205" s="29" t="str">
-        <f>IF(NOT(ISBLANK(C205)), IF(ISNUMBER(C205), ROUND((C205 - 5)/20, 0), C205), "")</f>
+        <f t="shared" si="7"/>
         <v>?</v>
       </c>
       <c r="E205" s="26" t="s">
@@ -48914,7 +48914,7 @@
         <v>18</v>
       </c>
       <c r="I205" s="26">
-        <f>H205-G205</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -48929,7 +48929,7 @@
         <v>519</v>
       </c>
       <c r="D206" s="29" t="str">
-        <f>IF(NOT(ISBLANK(C206)), IF(ISNUMBER(C206), ROUND((C206 - 5)/20, 0), C206), "")</f>
+        <f t="shared" si="7"/>
         <v>?</v>
       </c>
       <c r="E206" s="26" t="s">
@@ -48948,7 +48948,7 @@
         <v>11</v>
       </c>
       <c r="I206" s="26">
-        <f>H206-G206</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -48963,7 +48963,7 @@
         <v>519</v>
       </c>
       <c r="D207" s="29" t="str">
-        <f>IF(NOT(ISBLANK(C207)), IF(ISNUMBER(C207), ROUND((C207 - 5)/20, 0), C207), "")</f>
+        <f t="shared" si="7"/>
         <v>?</v>
       </c>
       <c r="E207" s="26" t="s">
@@ -48982,7 +48982,7 @@
         <v>11</v>
       </c>
       <c r="I207" s="26">
-        <f>H207-G207</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -48997,7 +48997,7 @@
         <v>519</v>
       </c>
       <c r="D208" s="29" t="str">
-        <f>IF(NOT(ISBLANK(C208)), IF(ISNUMBER(C208), ROUND((C208 - 5)/20, 0), C208), "")</f>
+        <f t="shared" si="7"/>
         <v>?</v>
       </c>
       <c r="E208" s="26" t="s">
@@ -49016,7 +49016,7 @@
         <v>11</v>
       </c>
       <c r="I208" s="26">
-        <f>H208-G208</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>

--- a/sinnoh_cube.xlsx
+++ b/sinnoh_cube.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lev\PycharmProjects\pokemon-legends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D90C3C-7963-443B-A72D-4CE6637AA53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B365C112-4276-48C9-9B6F-917D0F691584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4740" windowWidth="21600" windowHeight="7200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4740" windowWidth="21600" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pokemon" sheetId="1" r:id="rId1"/>
@@ -5336,8 +5336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM385"/>
   <sheetViews>
-    <sheetView topLeftCell="S301" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC338" sqref="AC338"/>
+    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61493,7 +61493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D7F8CE-143A-44EF-A2AE-F94FA755C084}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
